--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -652,9 +655,6 @@
     <t>['15', '44', '82']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['20', '89']</t>
   </si>
   <si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>['45+2', '55']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1563,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1766,7 +1769,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2178,7 +2181,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2256,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
         <v>1.8</v>
@@ -2384,7 +2387,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2590,7 +2593,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2874,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -3002,7 +3005,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3826,7 +3829,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4032,7 +4035,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4238,7 +4241,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4856,7 +4859,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5268,7 +5271,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5474,7 +5477,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5680,7 +5683,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5886,7 +5889,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6298,7 +6301,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7203,7 +7206,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7328,7 +7331,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7409,7 +7412,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7612,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7740,7 +7743,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8358,7 +8361,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8564,7 +8567,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9054,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9182,7 +9185,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9594,7 +9597,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10418,7 +10421,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10624,7 +10627,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10830,7 +10833,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11654,7 +11657,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11860,7 +11863,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12066,7 +12069,7 @@
         <v>109</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12272,7 +12275,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12890,7 +12893,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13096,7 +13099,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13302,7 +13305,7 @@
         <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13383,7 +13386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR60">
         <v>0.9399999999999999</v>
@@ -13589,7 +13592,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR61">
         <v>1.66</v>
@@ -14001,7 +14004,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14410,7 +14413,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -16470,7 +16473,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -19975,7 +19978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20796,7 +20799,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ96">
         <v>0.29</v>
@@ -21208,7 +21211,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.75</v>
@@ -25537,7 +25540,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR119">
         <v>0.98</v>
@@ -25819,6 +25822,418 @@
       </c>
       <c r="BP120">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7781194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45766.61458333334</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>182</v>
+      </c>
+      <c r="P121" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q121">
+        <v>2.5</v>
+      </c>
+      <c r="R121">
+        <v>2.25</v>
+      </c>
+      <c r="S121">
+        <v>4.33</v>
+      </c>
+      <c r="T121">
+        <v>1.36</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.63</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>7</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>1.86</v>
+      </c>
+      <c r="AA121">
+        <v>3.73</v>
+      </c>
+      <c r="AB121">
+        <v>3.78</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>9.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.25</v>
+      </c>
+      <c r="AF121">
+        <v>3.95</v>
+      </c>
+      <c r="AG121">
+        <v>1.91</v>
+      </c>
+      <c r="AH121">
+        <v>1.8</v>
+      </c>
+      <c r="AI121">
+        <v>1.67</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>1.25</v>
+      </c>
+      <c r="AL121">
+        <v>1.26</v>
+      </c>
+      <c r="AM121">
+        <v>1.9</v>
+      </c>
+      <c r="AN121">
+        <v>1.75</v>
+      </c>
+      <c r="AO121">
+        <v>0.5</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>0.4</v>
+      </c>
+      <c r="AR121">
+        <v>1.5</v>
+      </c>
+      <c r="AS121">
+        <v>1.2</v>
+      </c>
+      <c r="AT121">
+        <v>2.7</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>6</v>
+      </c>
+      <c r="AW121">
+        <v>11</v>
+      </c>
+      <c r="AX121">
+        <v>8</v>
+      </c>
+      <c r="AY121">
+        <v>19</v>
+      </c>
+      <c r="AZ121">
+        <v>18</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>7</v>
+      </c>
+      <c r="BC121">
+        <v>15</v>
+      </c>
+      <c r="BD121">
+        <v>1.52</v>
+      </c>
+      <c r="BE121">
+        <v>6.75</v>
+      </c>
+      <c r="BF121">
+        <v>2.8</v>
+      </c>
+      <c r="BG121">
+        <v>1.27</v>
+      </c>
+      <c r="BH121">
+        <v>3.3</v>
+      </c>
+      <c r="BI121">
+        <v>1.48</v>
+      </c>
+      <c r="BJ121">
+        <v>2.43</v>
+      </c>
+      <c r="BK121">
+        <v>1.77</v>
+      </c>
+      <c r="BL121">
+        <v>1.92</v>
+      </c>
+      <c r="BM121">
+        <v>2.2</v>
+      </c>
+      <c r="BN121">
+        <v>1.58</v>
+      </c>
+      <c r="BO121">
+        <v>2.8</v>
+      </c>
+      <c r="BP121">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7781195</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45766.72916666666</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>109</v>
+      </c>
+      <c r="P122" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q122">
+        <v>2.75</v>
+      </c>
+      <c r="R122">
+        <v>2.4</v>
+      </c>
+      <c r="S122">
+        <v>3.4</v>
+      </c>
+      <c r="T122">
+        <v>1.29</v>
+      </c>
+      <c r="U122">
+        <v>3.5</v>
+      </c>
+      <c r="V122">
+        <v>2.25</v>
+      </c>
+      <c r="W122">
+        <v>1.57</v>
+      </c>
+      <c r="X122">
+        <v>5.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.14</v>
+      </c>
+      <c r="Z122">
+        <v>2.17</v>
+      </c>
+      <c r="AA122">
+        <v>3.68</v>
+      </c>
+      <c r="AB122">
+        <v>2.96</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>10</v>
+      </c>
+      <c r="AE122">
+        <v>1.18</v>
+      </c>
+      <c r="AF122">
+        <v>4.75</v>
+      </c>
+      <c r="AG122">
+        <v>1.53</v>
+      </c>
+      <c r="AH122">
+        <v>2.4</v>
+      </c>
+      <c r="AI122">
+        <v>1.44</v>
+      </c>
+      <c r="AJ122">
+        <v>2.63</v>
+      </c>
+      <c r="AK122">
+        <v>1.34</v>
+      </c>
+      <c r="AL122">
+        <v>1.27</v>
+      </c>
+      <c r="AM122">
+        <v>1.68</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>2.33</v>
+      </c>
+      <c r="AP122">
+        <v>1.6</v>
+      </c>
+      <c r="AQ122">
+        <v>2.5</v>
+      </c>
+      <c r="AR122">
+        <v>1.93</v>
+      </c>
+      <c r="AS122">
+        <v>1.51</v>
+      </c>
+      <c r="AT122">
+        <v>3.44</v>
+      </c>
+      <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>2</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>6</v>
+      </c>
+      <c r="AZ122">
+        <v>4</v>
+      </c>
+      <c r="BA122">
+        <v>3</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>1.55</v>
+      </c>
+      <c r="BE122">
+        <v>6.5</v>
+      </c>
+      <c r="BF122">
+        <v>2.7</v>
+      </c>
+      <c r="BG122">
+        <v>1.37</v>
+      </c>
+      <c r="BH122">
+        <v>2.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.61</v>
+      </c>
+      <c r="BJ122">
+        <v>2.15</v>
+      </c>
+      <c r="BK122">
+        <v>1.98</v>
+      </c>
+      <c r="BL122">
+        <v>1.72</v>
+      </c>
+      <c r="BM122">
+        <v>2.55</v>
+      </c>
+      <c r="BN122">
+        <v>1.44</v>
+      </c>
+      <c r="BO122">
+        <v>3.3</v>
+      </c>
+      <c r="BP122">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,30 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['27', '50', '84']</t>
+  </si>
+  <si>
+    <t>['19', '30', '34']</t>
+  </si>
+  <si>
+    <t>['11', '45', '57']</t>
+  </si>
+  <si>
+    <t>['43', '48']</t>
+  </si>
+  <si>
+    <t>['31', '85']</t>
+  </si>
+  <si>
+    <t>['42', '90+6']</t>
+  </si>
+  <si>
+    <t>['8', '42', '66']</t>
+  </si>
+  <si>
+    <t>['30', '42', '90+4']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -737,6 +761,24 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['35', '44']</t>
+  </si>
+  <si>
+    <t>['9', '42', '71']</t>
+  </si>
+  <si>
+    <t>['58', '77']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['45', '64', '90']</t>
+  </si>
+  <si>
+    <t>['18', '21', '24', '73', '85']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,7 +1605,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1644,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1769,7 +1811,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2181,7 +2223,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2387,7 +2429,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2468,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2593,7 +2635,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2880,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3005,7 +3047,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3083,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3498,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3701,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -3829,7 +3871,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -3907,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4035,7 +4077,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4113,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4241,7 +4283,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4322,7 +4364,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4528,7 +4570,7 @@
         <v>3</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4731,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>0.8</v>
@@ -4859,7 +4901,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -4937,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>2.5</v>
@@ -5143,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5271,7 +5313,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5352,7 +5394,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5477,7 +5519,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5555,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5683,7 +5725,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5761,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5889,7 +5931,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6173,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6301,7 +6343,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6382,7 +6424,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6588,7 +6630,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -6791,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7331,7 +7373,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7409,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
         <v>2.5</v>
@@ -7743,7 +7785,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -7821,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>2.47</v>
@@ -8236,7 +8278,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8361,7 +8403,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8442,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.23</v>
@@ -8567,7 +8609,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8645,7 +8687,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -8854,7 +8896,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9060,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.5</v>
@@ -9185,7 +9227,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9597,7 +9639,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -9675,10 +9717,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10087,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1.6</v>
@@ -10421,7 +10463,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10627,7 +10669,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10833,7 +10875,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10911,10 +10953,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -11326,7 +11368,7 @@
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11657,7 +11699,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11863,7 +11905,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12069,7 +12111,7 @@
         <v>109</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12150,7 +12192,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.95</v>
@@ -12275,7 +12317,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12353,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12893,7 +12935,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12971,10 +13013,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
         <v>1.87</v>
@@ -13099,7 +13141,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13177,10 +13219,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13383,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
         <v>0.4</v>
@@ -13511,7 +13553,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13717,7 +13759,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13798,7 +13840,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -13923,7 +13965,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14001,7 +14043,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.4</v>
@@ -14129,7 +14171,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14416,7 +14458,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14619,10 +14661,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -14747,7 +14789,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14828,7 +14870,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15031,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15159,7 +15201,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15240,7 +15282,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.7</v>
@@ -15571,7 +15613,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15777,7 +15819,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15855,10 +15897,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16061,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>0.75</v>
@@ -16189,7 +16231,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16476,7 +16518,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR75">
         <v>1.74</v>
@@ -16601,7 +16643,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16679,7 +16721,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16888,7 +16930,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ77">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>0.9</v>
@@ -17219,7 +17261,7 @@
         <v>155</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>2.1</v>
@@ -17425,7 +17467,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17631,7 +17673,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17712,7 +17754,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -17837,7 +17879,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -17915,7 +17957,7 @@
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ82">
         <v>0.29</v>
@@ -18124,7 +18166,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18327,7 +18369,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>0.75</v>
@@ -18455,7 +18497,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18536,7 +18578,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR85">
         <v>1.87</v>
@@ -18661,7 +18703,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18742,7 +18784,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -18867,7 +18909,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -18948,7 +18990,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR87">
         <v>1.99</v>
@@ -19073,7 +19115,7 @@
         <v>163</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3.25</v>
@@ -19151,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ88">
         <v>0.8</v>
@@ -19485,7 +19527,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19563,7 +19605,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -19772,7 +19814,7 @@
         <v>3</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -19975,7 +20017,7 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ92">
         <v>0.4</v>
@@ -20103,7 +20145,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20184,7 +20226,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20387,10 +20429,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.73</v>
@@ -20721,7 +20763,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21005,7 +21047,7 @@
         <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.8</v>
@@ -21623,10 +21665,10 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ100">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
@@ -21832,7 +21874,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ101">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR101">
         <v>1.75</v>
@@ -22163,7 +22205,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22369,7 +22411,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22447,10 +22489,10 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.95</v>
@@ -22575,7 +22617,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22656,7 +22698,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
         <v>1.1</v>
@@ -22987,7 +23029,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23477,7 +23519,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23605,7 +23647,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23811,7 +23853,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -23892,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24429,7 +24471,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24635,7 +24677,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24716,7 +24758,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25047,7 +25089,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25253,7 +25295,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25537,7 +25579,7 @@
         <v>3</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ119">
         <v>2.5</v>
@@ -25665,7 +25707,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26077,7 +26119,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26234,6 +26276,2684 @@
       </c>
       <c r="BP122">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7781200</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>89</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>183</v>
+      </c>
+      <c r="P123" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q123">
+        <v>2.6</v>
+      </c>
+      <c r="R123">
+        <v>2.38</v>
+      </c>
+      <c r="S123">
+        <v>3.75</v>
+      </c>
+      <c r="T123">
+        <v>1.29</v>
+      </c>
+      <c r="U123">
+        <v>3.5</v>
+      </c>
+      <c r="V123">
+        <v>2.38</v>
+      </c>
+      <c r="W123">
+        <v>1.53</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.14</v>
+      </c>
+      <c r="Z123">
+        <v>1.88</v>
+      </c>
+      <c r="AA123">
+        <v>3.8</v>
+      </c>
+      <c r="AB123">
+        <v>3.63</v>
+      </c>
+      <c r="AC123">
+        <v>1.04</v>
+      </c>
+      <c r="AD123">
+        <v>10</v>
+      </c>
+      <c r="AE123">
+        <v>1.18</v>
+      </c>
+      <c r="AF123">
+        <v>4.75</v>
+      </c>
+      <c r="AG123">
+        <v>1.7</v>
+      </c>
+      <c r="AH123">
+        <v>2.05</v>
+      </c>
+      <c r="AI123">
+        <v>1.5</v>
+      </c>
+      <c r="AJ123">
+        <v>2.5</v>
+      </c>
+      <c r="AK123">
+        <v>1.27</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.85</v>
+      </c>
+      <c r="AN123">
+        <v>1.75</v>
+      </c>
+      <c r="AO123">
+        <v>0.5</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+      <c r="AQ123">
+        <v>0.33</v>
+      </c>
+      <c r="AR123">
+        <v>1.84</v>
+      </c>
+      <c r="AS123">
+        <v>1.41</v>
+      </c>
+      <c r="AT123">
+        <v>3.25</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>10</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>17</v>
+      </c>
+      <c r="BA123">
+        <v>4</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>1.53</v>
+      </c>
+      <c r="BE123">
+        <v>7</v>
+      </c>
+      <c r="BF123">
+        <v>2.7</v>
+      </c>
+      <c r="BG123">
+        <v>1.24</v>
+      </c>
+      <c r="BH123">
+        <v>3.55</v>
+      </c>
+      <c r="BI123">
+        <v>1.43</v>
+      </c>
+      <c r="BJ123">
+        <v>2.6</v>
+      </c>
+      <c r="BK123">
+        <v>1.68</v>
+      </c>
+      <c r="BL123">
+        <v>2.04</v>
+      </c>
+      <c r="BM123">
+        <v>2.06</v>
+      </c>
+      <c r="BN123">
+        <v>1.66</v>
+      </c>
+      <c r="BO123">
+        <v>2.55</v>
+      </c>
+      <c r="BP123">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7781199</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>88</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>129</v>
+      </c>
+      <c r="P124" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q124">
+        <v>2.5</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>4.33</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.92</v>
+      </c>
+      <c r="AA124">
+        <v>3.3</v>
+      </c>
+      <c r="AB124">
+        <v>4.1</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>9.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.25</v>
+      </c>
+      <c r="AF124">
+        <v>3.95</v>
+      </c>
+      <c r="AG124">
+        <v>1.91</v>
+      </c>
+      <c r="AH124">
+        <v>1.8</v>
+      </c>
+      <c r="AI124">
+        <v>1.67</v>
+      </c>
+      <c r="AJ124">
+        <v>2.1</v>
+      </c>
+      <c r="AK124">
+        <v>1.23</v>
+      </c>
+      <c r="AL124">
+        <v>1.26</v>
+      </c>
+      <c r="AM124">
+        <v>1.93</v>
+      </c>
+      <c r="AN124">
+        <v>2.5</v>
+      </c>
+      <c r="AO124">
+        <v>0.33</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.48</v>
+      </c>
+      <c r="AS124">
+        <v>2.04</v>
+      </c>
+      <c r="AT124">
+        <v>3.52</v>
+      </c>
+      <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
+        <v>7</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>7</v>
+      </c>
+      <c r="AY124">
+        <v>16</v>
+      </c>
+      <c r="AZ124">
+        <v>15</v>
+      </c>
+      <c r="BA124">
+        <v>9</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.63</v>
+      </c>
+      <c r="BE124">
+        <v>6.75</v>
+      </c>
+      <c r="BF124">
+        <v>2.55</v>
+      </c>
+      <c r="BG124">
+        <v>1.3</v>
+      </c>
+      <c r="BH124">
+        <v>3.15</v>
+      </c>
+      <c r="BI124">
+        <v>1.5</v>
+      </c>
+      <c r="BJ124">
+        <v>2.35</v>
+      </c>
+      <c r="BK124">
+        <v>1.83</v>
+      </c>
+      <c r="BL124">
+        <v>1.85</v>
+      </c>
+      <c r="BM124">
+        <v>2.3</v>
+      </c>
+      <c r="BN124">
+        <v>1.54</v>
+      </c>
+      <c r="BO124">
+        <v>2.9</v>
+      </c>
+      <c r="BP124">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7781201</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>82</v>
+      </c>
+      <c r="H125" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>184</v>
+      </c>
+      <c r="P125" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q125">
+        <v>2.4</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>1.44</v>
+      </c>
+      <c r="U125">
+        <v>2.63</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>1.74</v>
+      </c>
+      <c r="AA125">
+        <v>3.58</v>
+      </c>
+      <c r="AB125">
+        <v>4.7</v>
+      </c>
+      <c r="AC125">
+        <v>1.05</v>
+      </c>
+      <c r="AD125">
+        <v>9</v>
+      </c>
+      <c r="AE125">
+        <v>1.32</v>
+      </c>
+      <c r="AF125">
+        <v>3</v>
+      </c>
+      <c r="AG125">
+        <v>1.75</v>
+      </c>
+      <c r="AH125">
+        <v>1.95</v>
+      </c>
+      <c r="AI125">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>1.18</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>2.1</v>
+      </c>
+      <c r="AN125">
+        <v>1.67</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
+        <v>2</v>
+      </c>
+      <c r="AQ125">
+        <v>0.75</v>
+      </c>
+      <c r="AR125">
+        <v>1.96</v>
+      </c>
+      <c r="AS125">
+        <v>1.41</v>
+      </c>
+      <c r="AT125">
+        <v>3.37</v>
+      </c>
+      <c r="AU125">
+        <v>7</v>
+      </c>
+      <c r="AV125">
+        <v>9</v>
+      </c>
+      <c r="AW125">
+        <v>6</v>
+      </c>
+      <c r="AX125">
+        <v>5</v>
+      </c>
+      <c r="AY125">
+        <v>15</v>
+      </c>
+      <c r="AZ125">
+        <v>16</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>7</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.47</v>
+      </c>
+      <c r="BE125">
+        <v>6.75</v>
+      </c>
+      <c r="BF125">
+        <v>2.95</v>
+      </c>
+      <c r="BG125">
+        <v>1.3</v>
+      </c>
+      <c r="BH125">
+        <v>3.05</v>
+      </c>
+      <c r="BI125">
+        <v>1.52</v>
+      </c>
+      <c r="BJ125">
+        <v>2.32</v>
+      </c>
+      <c r="BK125">
+        <v>1.85</v>
+      </c>
+      <c r="BL125">
+        <v>1.83</v>
+      </c>
+      <c r="BM125">
+        <v>2.33</v>
+      </c>
+      <c r="BN125">
+        <v>1.52</v>
+      </c>
+      <c r="BO125">
+        <v>3</v>
+      </c>
+      <c r="BP125">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7781197</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>109</v>
+      </c>
+      <c r="P126" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>2.2</v>
+      </c>
+      <c r="S126">
+        <v>3.1</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>2.7</v>
+      </c>
+      <c r="AA126">
+        <v>3.36</v>
+      </c>
+      <c r="AB126">
+        <v>2.49</v>
+      </c>
+      <c r="AC126">
+        <v>1.05</v>
+      </c>
+      <c r="AD126">
+        <v>9.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.25</v>
+      </c>
+      <c r="AF126">
+        <v>3.8</v>
+      </c>
+      <c r="AG126">
+        <v>1.8</v>
+      </c>
+      <c r="AH126">
+        <v>1.94</v>
+      </c>
+      <c r="AI126">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.55</v>
+      </c>
+      <c r="AL126">
+        <v>1.29</v>
+      </c>
+      <c r="AM126">
+        <v>1.42</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>0.5</v>
+      </c>
+      <c r="AQ126">
+        <v>1.2</v>
+      </c>
+      <c r="AR126">
+        <v>1.94</v>
+      </c>
+      <c r="AS126">
+        <v>1.3</v>
+      </c>
+      <c r="AT126">
+        <v>3.24</v>
+      </c>
+      <c r="AU126">
+        <v>11</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>17</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>2.1</v>
+      </c>
+      <c r="BE126">
+        <v>6.4</v>
+      </c>
+      <c r="BF126">
+        <v>1.9</v>
+      </c>
+      <c r="BG126">
+        <v>1.35</v>
+      </c>
+      <c r="BH126">
+        <v>2.9</v>
+      </c>
+      <c r="BI126">
+        <v>1.6</v>
+      </c>
+      <c r="BJ126">
+        <v>2.17</v>
+      </c>
+      <c r="BK126">
+        <v>1.96</v>
+      </c>
+      <c r="BL126">
+        <v>1.73</v>
+      </c>
+      <c r="BM126">
+        <v>2.48</v>
+      </c>
+      <c r="BN126">
+        <v>1.47</v>
+      </c>
+      <c r="BO126">
+        <v>3.2</v>
+      </c>
+      <c r="BP126">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7781196</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" t="s">
+        <v>94</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>185</v>
+      </c>
+      <c r="P127" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>2.28</v>
+      </c>
+      <c r="AA127">
+        <v>3.27</v>
+      </c>
+      <c r="AB127">
+        <v>3.06</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>1.61</v>
+      </c>
+      <c r="AH127">
+        <v>2.15</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>3</v>
+      </c>
+      <c r="AO127">
+        <v>1.5</v>
+      </c>
+      <c r="AP127">
+        <v>3</v>
+      </c>
+      <c r="AQ127">
+        <v>1.2</v>
+      </c>
+      <c r="AR127">
+        <v>1.53</v>
+      </c>
+      <c r="AS127">
+        <v>1.76</v>
+      </c>
+      <c r="AT127">
+        <v>3.29</v>
+      </c>
+      <c r="AU127">
+        <v>-1</v>
+      </c>
+      <c r="AV127">
+        <v>-1</v>
+      </c>
+      <c r="AW127">
+        <v>-1</v>
+      </c>
+      <c r="AX127">
+        <v>-1</v>
+      </c>
+      <c r="AY127">
+        <v>-1</v>
+      </c>
+      <c r="AZ127">
+        <v>-1</v>
+      </c>
+      <c r="BA127">
+        <v>-1</v>
+      </c>
+      <c r="BB127">
+        <v>-1</v>
+      </c>
+      <c r="BC127">
+        <v>-1</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7781198</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45766.85416666666</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>87</v>
+      </c>
+      <c r="H128" t="s">
+        <v>96</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>186</v>
+      </c>
+      <c r="P128" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q128">
+        <v>3.1</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>3.4</v>
+      </c>
+      <c r="T128">
+        <v>1.36</v>
+      </c>
+      <c r="U128">
+        <v>3</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>7</v>
+      </c>
+      <c r="Y128">
+        <v>1.1</v>
+      </c>
+      <c r="Z128">
+        <v>2.42</v>
+      </c>
+      <c r="AA128">
+        <v>3.32</v>
+      </c>
+      <c r="AB128">
+        <v>2.81</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>9.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.28</v>
+      </c>
+      <c r="AF128">
+        <v>3.65</v>
+      </c>
+      <c r="AG128">
+        <v>1.79</v>
+      </c>
+      <c r="AH128">
+        <v>1.95</v>
+      </c>
+      <c r="AI128">
+        <v>1.67</v>
+      </c>
+      <c r="AJ128">
+        <v>2.1</v>
+      </c>
+      <c r="AK128">
+        <v>1.46</v>
+      </c>
+      <c r="AL128">
+        <v>1.29</v>
+      </c>
+      <c r="AM128">
+        <v>1.5</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>0.5</v>
+      </c>
+      <c r="AP128">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128">
+        <v>0.4</v>
+      </c>
+      <c r="AR128">
+        <v>1.21</v>
+      </c>
+      <c r="AS128">
+        <v>1.04</v>
+      </c>
+      <c r="AT128">
+        <v>2.25</v>
+      </c>
+      <c r="AU128">
+        <v>9</v>
+      </c>
+      <c r="AV128">
+        <v>6</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>7</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
+        <v>16</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>11</v>
+      </c>
+      <c r="BD128">
+        <v>1.82</v>
+      </c>
+      <c r="BE128">
+        <v>6.4</v>
+      </c>
+      <c r="BF128">
+        <v>2.18</v>
+      </c>
+      <c r="BG128">
+        <v>1.33</v>
+      </c>
+      <c r="BH128">
+        <v>2.95</v>
+      </c>
+      <c r="BI128">
+        <v>1.57</v>
+      </c>
+      <c r="BJ128">
+        <v>2.23</v>
+      </c>
+      <c r="BK128">
+        <v>1.91</v>
+      </c>
+      <c r="BL128">
+        <v>1.77</v>
+      </c>
+      <c r="BM128">
+        <v>2.43</v>
+      </c>
+      <c r="BN128">
+        <v>1.48</v>
+      </c>
+      <c r="BO128">
+        <v>3.15</v>
+      </c>
+      <c r="BP128">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7781202</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45766.89583333334</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>90</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>187</v>
+      </c>
+      <c r="P129" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q129">
+        <v>2.88</v>
+      </c>
+      <c r="R129">
+        <v>2.25</v>
+      </c>
+      <c r="S129">
+        <v>3.5</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.63</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>2.3</v>
+      </c>
+      <c r="AA129">
+        <v>3.14</v>
+      </c>
+      <c r="AB129">
+        <v>3.16</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>9.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.25</v>
+      </c>
+      <c r="AF129">
+        <v>3.8</v>
+      </c>
+      <c r="AG129">
+        <v>1.6</v>
+      </c>
+      <c r="AH129">
+        <v>2.2</v>
+      </c>
+      <c r="AI129">
+        <v>1.62</v>
+      </c>
+      <c r="AJ129">
+        <v>2.2</v>
+      </c>
+      <c r="AK129">
+        <v>1.39</v>
+      </c>
+      <c r="AL129">
+        <v>1.29</v>
+      </c>
+      <c r="AM129">
+        <v>1.58</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
+        <v>1.5</v>
+      </c>
+      <c r="AP129">
+        <v>0.75</v>
+      </c>
+      <c r="AQ129">
+        <v>1.8</v>
+      </c>
+      <c r="AR129">
+        <v>1.29</v>
+      </c>
+      <c r="AS129">
+        <v>1.45</v>
+      </c>
+      <c r="AT129">
+        <v>2.74</v>
+      </c>
+      <c r="AU129">
+        <v>13</v>
+      </c>
+      <c r="AV129">
+        <v>11</v>
+      </c>
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>21</v>
+      </c>
+      <c r="AZ129">
+        <v>15</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>1</v>
+      </c>
+      <c r="BC129">
+        <v>7</v>
+      </c>
+      <c r="BD129">
+        <v>1.74</v>
+      </c>
+      <c r="BE129">
+        <v>6.5</v>
+      </c>
+      <c r="BF129">
+        <v>2.32</v>
+      </c>
+      <c r="BG129">
+        <v>1.36</v>
+      </c>
+      <c r="BH129">
+        <v>2.8</v>
+      </c>
+      <c r="BI129">
+        <v>1.63</v>
+      </c>
+      <c r="BJ129">
+        <v>2.12</v>
+      </c>
+      <c r="BK129">
+        <v>2.02</v>
+      </c>
+      <c r="BL129">
+        <v>1.7</v>
+      </c>
+      <c r="BM129">
+        <v>2.55</v>
+      </c>
+      <c r="BN129">
+        <v>1.44</v>
+      </c>
+      <c r="BO129">
+        <v>3.4</v>
+      </c>
+      <c r="BP129">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7781203</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45766.89583333334</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s">
+        <v>93</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>188</v>
+      </c>
+      <c r="P130" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q130">
+        <v>2.4</v>
+      </c>
+      <c r="R130">
+        <v>2.25</v>
+      </c>
+      <c r="S130">
+        <v>4.5</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>2.63</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>1.78</v>
+      </c>
+      <c r="AA130">
+        <v>3.71</v>
+      </c>
+      <c r="AB130">
+        <v>4.2</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.65</v>
+      </c>
+      <c r="AG130">
+        <v>1.77</v>
+      </c>
+      <c r="AH130">
+        <v>1.98</v>
+      </c>
+      <c r="AI130">
+        <v>1.7</v>
+      </c>
+      <c r="AJ130">
+        <v>2.05</v>
+      </c>
+      <c r="AK130">
+        <v>1.23</v>
+      </c>
+      <c r="AL130">
+        <v>1.26</v>
+      </c>
+      <c r="AM130">
+        <v>1.95</v>
+      </c>
+      <c r="AN130">
+        <v>0.75</v>
+      </c>
+      <c r="AO130">
+        <v>1.75</v>
+      </c>
+      <c r="AP130">
+        <v>0.8</v>
+      </c>
+      <c r="AQ130">
+        <v>1.6</v>
+      </c>
+      <c r="AR130">
+        <v>1.45</v>
+      </c>
+      <c r="AS130">
+        <v>0.9</v>
+      </c>
+      <c r="AT130">
+        <v>2.35</v>
+      </c>
+      <c r="AU130">
+        <v>10</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>10</v>
+      </c>
+      <c r="AY130">
+        <v>18</v>
+      </c>
+      <c r="AZ130">
+        <v>16</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>10</v>
+      </c>
+      <c r="BD130">
+        <v>1.52</v>
+      </c>
+      <c r="BE130">
+        <v>6.75</v>
+      </c>
+      <c r="BF130">
+        <v>2.8</v>
+      </c>
+      <c r="BG130">
+        <v>1.29</v>
+      </c>
+      <c r="BH130">
+        <v>3.15</v>
+      </c>
+      <c r="BI130">
+        <v>1.5</v>
+      </c>
+      <c r="BJ130">
+        <v>2.33</v>
+      </c>
+      <c r="BK130">
+        <v>1.83</v>
+      </c>
+      <c r="BL130">
+        <v>1.85</v>
+      </c>
+      <c r="BM130">
+        <v>2.28</v>
+      </c>
+      <c r="BN130">
+        <v>1.54</v>
+      </c>
+      <c r="BO130">
+        <v>2.9</v>
+      </c>
+      <c r="BP130">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7781204</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45766.89583333334</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>92</v>
+      </c>
+      <c r="H131" t="s">
+        <v>97</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>109</v>
+      </c>
+      <c r="P131" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q131">
+        <v>2.25</v>
+      </c>
+      <c r="R131">
+        <v>2.38</v>
+      </c>
+      <c r="S131">
+        <v>4.75</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.5</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>6</v>
+      </c>
+      <c r="Y131">
+        <v>1.13</v>
+      </c>
+      <c r="Z131">
+        <v>1.72</v>
+      </c>
+      <c r="AA131">
+        <v>3.84</v>
+      </c>
+      <c r="AB131">
+        <v>4.4</v>
+      </c>
+      <c r="AC131">
+        <v>1.04</v>
+      </c>
+      <c r="AD131">
+        <v>10</v>
+      </c>
+      <c r="AE131">
+        <v>1.2</v>
+      </c>
+      <c r="AF131">
+        <v>4.33</v>
+      </c>
+      <c r="AG131">
+        <v>1.8</v>
+      </c>
+      <c r="AH131">
+        <v>1.91</v>
+      </c>
+      <c r="AI131">
+        <v>1.67</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.22</v>
+      </c>
+      <c r="AL131">
+        <v>1.24</v>
+      </c>
+      <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>2</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>1.8</v>
+      </c>
+      <c r="AR131">
+        <v>1.86</v>
+      </c>
+      <c r="AS131">
+        <v>1.3</v>
+      </c>
+      <c r="AT131">
+        <v>3.16</v>
+      </c>
+      <c r="AU131">
+        <v>10</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>2</v>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
+        <v>8</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.53</v>
+      </c>
+      <c r="BE131">
+        <v>7</v>
+      </c>
+      <c r="BF131">
+        <v>2.8</v>
+      </c>
+      <c r="BG131">
+        <v>1.3</v>
+      </c>
+      <c r="BH131">
+        <v>3.15</v>
+      </c>
+      <c r="BI131">
+        <v>1.52</v>
+      </c>
+      <c r="BJ131">
+        <v>2.33</v>
+      </c>
+      <c r="BK131">
+        <v>1.83</v>
+      </c>
+      <c r="BL131">
+        <v>1.85</v>
+      </c>
+      <c r="BM131">
+        <v>2.3</v>
+      </c>
+      <c r="BN131">
+        <v>1.54</v>
+      </c>
+      <c r="BO131">
+        <v>2.9</v>
+      </c>
+      <c r="BP131">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7781205</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45766.89583333334</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>95</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>109</v>
+      </c>
+      <c r="P132" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q132">
+        <v>2.88</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>3.5</v>
+      </c>
+      <c r="T132">
+        <v>1.36</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>7</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>2.25</v>
+      </c>
+      <c r="AA132">
+        <v>3.51</v>
+      </c>
+      <c r="AB132">
+        <v>2.94</v>
+      </c>
+      <c r="AC132">
+        <v>1.06</v>
+      </c>
+      <c r="AD132">
+        <v>8.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.3</v>
+      </c>
+      <c r="AF132">
+        <v>3.45</v>
+      </c>
+      <c r="AG132">
+        <v>1.91</v>
+      </c>
+      <c r="AH132">
+        <v>1.8</v>
+      </c>
+      <c r="AI132">
+        <v>1.62</v>
+      </c>
+      <c r="AJ132">
+        <v>2.2</v>
+      </c>
+      <c r="AK132">
+        <v>1.37</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.6</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <v>2.33</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
+      <c r="AQ132">
+        <v>2</v>
+      </c>
+      <c r="AR132">
+        <v>1.77</v>
+      </c>
+      <c r="AS132">
+        <v>1.99</v>
+      </c>
+      <c r="AT132">
+        <v>3.76</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>14</v>
+      </c>
+      <c r="AY132">
+        <v>13</v>
+      </c>
+      <c r="AZ132">
+        <v>24</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>6</v>
+      </c>
+      <c r="BC132">
+        <v>11</v>
+      </c>
+      <c r="BD132">
+        <v>1.77</v>
+      </c>
+      <c r="BE132">
+        <v>6.5</v>
+      </c>
+      <c r="BF132">
+        <v>2.25</v>
+      </c>
+      <c r="BG132">
+        <v>1.33</v>
+      </c>
+      <c r="BH132">
+        <v>2.95</v>
+      </c>
+      <c r="BI132">
+        <v>1.57</v>
+      </c>
+      <c r="BJ132">
+        <v>2.23</v>
+      </c>
+      <c r="BK132">
+        <v>1.92</v>
+      </c>
+      <c r="BL132">
+        <v>1.77</v>
+      </c>
+      <c r="BM132">
+        <v>2.43</v>
+      </c>
+      <c r="BN132">
+        <v>1.48</v>
+      </c>
+      <c r="BO132">
+        <v>3.15</v>
+      </c>
+      <c r="BP132">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7781206</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45766.9375</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>86</v>
+      </c>
+      <c r="H133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>109</v>
+      </c>
+      <c r="P133" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q133">
+        <v>2.2</v>
+      </c>
+      <c r="R133">
+        <v>2.3</v>
+      </c>
+      <c r="S133">
+        <v>5</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>3</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>7</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>1.64</v>
+      </c>
+      <c r="AA133">
+        <v>3.92</v>
+      </c>
+      <c r="AB133">
+        <v>4.9</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>9.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.7</v>
+      </c>
+      <c r="AG133">
+        <v>1.77</v>
+      </c>
+      <c r="AH133">
+        <v>1.98</v>
+      </c>
+      <c r="AI133">
+        <v>1.75</v>
+      </c>
+      <c r="AJ133">
+        <v>2</v>
+      </c>
+      <c r="AK133">
+        <v>1.19</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>2.05</v>
+      </c>
+      <c r="AN133">
+        <v>1.5</v>
+      </c>
+      <c r="AO133">
+        <v>0.4</v>
+      </c>
+      <c r="AP133">
+        <v>1.2</v>
+      </c>
+      <c r="AQ133">
+        <v>0.83</v>
+      </c>
+      <c r="AR133">
+        <v>1.25</v>
+      </c>
+      <c r="AS133">
+        <v>1.17</v>
+      </c>
+      <c r="AT133">
+        <v>2.42</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>2</v>
+      </c>
+      <c r="AW133">
+        <v>18</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>30</v>
+      </c>
+      <c r="AZ133">
+        <v>2</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
+        <v>1</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>1.55</v>
+      </c>
+      <c r="BE133">
+        <v>6.75</v>
+      </c>
+      <c r="BF133">
+        <v>2.7</v>
+      </c>
+      <c r="BG133">
+        <v>1.33</v>
+      </c>
+      <c r="BH133">
+        <v>2.95</v>
+      </c>
+      <c r="BI133">
+        <v>1.56</v>
+      </c>
+      <c r="BJ133">
+        <v>2.23</v>
+      </c>
+      <c r="BK133">
+        <v>1.92</v>
+      </c>
+      <c r="BL133">
+        <v>1.77</v>
+      </c>
+      <c r="BM133">
+        <v>2.4</v>
+      </c>
+      <c r="BN133">
+        <v>1.49</v>
+      </c>
+      <c r="BO133">
+        <v>3.15</v>
+      </c>
+      <c r="BP133">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7781207</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45766.96875</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" t="s">
+        <v>70</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>6</v>
+      </c>
+      <c r="O134" t="s">
+        <v>189</v>
+      </c>
+      <c r="P134" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>3.4</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>6.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>2.38</v>
+      </c>
+      <c r="AA134">
+        <v>3.38</v>
+      </c>
+      <c r="AB134">
+        <v>2.82</v>
+      </c>
+      <c r="AC134">
+        <v>1.05</v>
+      </c>
+      <c r="AD134">
+        <v>9.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.25</v>
+      </c>
+      <c r="AF134">
+        <v>3.95</v>
+      </c>
+      <c r="AG134">
+        <v>1.8</v>
+      </c>
+      <c r="AH134">
+        <v>1.91</v>
+      </c>
+      <c r="AI134">
+        <v>1.57</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>1.43</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.55</v>
+      </c>
+      <c r="AN134">
+        <v>1.75</v>
+      </c>
+      <c r="AO134">
+        <v>0.75</v>
+      </c>
+      <c r="AP134">
+        <v>1.6</v>
+      </c>
+      <c r="AQ134">
+        <v>0.8</v>
+      </c>
+      <c r="AR134">
+        <v>1.31</v>
+      </c>
+      <c r="AS134">
+        <v>1.11</v>
+      </c>
+      <c r="AT134">
+        <v>2.42</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>12</v>
+      </c>
+      <c r="AW134">
+        <v>6</v>
+      </c>
+      <c r="AX134">
+        <v>9</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>24</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>7</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>1.85</v>
+      </c>
+      <c r="BE134">
+        <v>6.5</v>
+      </c>
+      <c r="BF134">
+        <v>2.12</v>
+      </c>
+      <c r="BG134">
+        <v>1.28</v>
+      </c>
+      <c r="BH134">
+        <v>3.2</v>
+      </c>
+      <c r="BI134">
+        <v>1.49</v>
+      </c>
+      <c r="BJ134">
+        <v>2.4</v>
+      </c>
+      <c r="BK134">
+        <v>1.81</v>
+      </c>
+      <c r="BL134">
+        <v>1.88</v>
+      </c>
+      <c r="BM134">
+        <v>2.25</v>
+      </c>
+      <c r="BN134">
+        <v>1.55</v>
+      </c>
+      <c r="BO134">
+        <v>2.9</v>
+      </c>
+      <c r="BP134">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7781208</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45766.97916666666</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>81</v>
+      </c>
+      <c r="H135" t="s">
+        <v>91</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>8</v>
+      </c>
+      <c r="O135" t="s">
+        <v>190</v>
+      </c>
+      <c r="P135" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q135">
+        <v>2.5</v>
+      </c>
+      <c r="R135">
+        <v>2.38</v>
+      </c>
+      <c r="S135">
+        <v>4</v>
+      </c>
+      <c r="T135">
+        <v>1.3</v>
+      </c>
+      <c r="U135">
+        <v>3.4</v>
+      </c>
+      <c r="V135">
+        <v>2.38</v>
+      </c>
+      <c r="W135">
+        <v>1.53</v>
+      </c>
+      <c r="X135">
+        <v>6</v>
+      </c>
+      <c r="Y135">
+        <v>1.13</v>
+      </c>
+      <c r="Z135">
+        <v>1.86</v>
+      </c>
+      <c r="AA135">
+        <v>3.81</v>
+      </c>
+      <c r="AB135">
+        <v>3.69</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>10</v>
+      </c>
+      <c r="AE135">
+        <v>1.22</v>
+      </c>
+      <c r="AF135">
+        <v>4.2</v>
+      </c>
+      <c r="AG135">
+        <v>1.75</v>
+      </c>
+      <c r="AH135">
+        <v>1.95</v>
+      </c>
+      <c r="AI135">
+        <v>1.57</v>
+      </c>
+      <c r="AJ135">
+        <v>2.25</v>
+      </c>
+      <c r="AK135">
+        <v>1.34</v>
+      </c>
+      <c r="AL135">
+        <v>1.26</v>
+      </c>
+      <c r="AM135">
+        <v>1.7</v>
+      </c>
+      <c r="AN135">
+        <v>1.4</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>1.17</v>
+      </c>
+      <c r="AQ135">
+        <v>0.75</v>
+      </c>
+      <c r="AR135">
+        <v>2.04</v>
+      </c>
+      <c r="AS135">
+        <v>1.26</v>
+      </c>
+      <c r="AT135">
+        <v>3.3</v>
+      </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>15</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>25</v>
+      </c>
+      <c r="AZ135">
+        <v>8</v>
+      </c>
+      <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>6</v>
+      </c>
+      <c r="BD135">
+        <v>1.91</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>2.05</v>
+      </c>
+      <c r="BG135">
+        <v>1.26</v>
+      </c>
+      <c r="BH135">
+        <v>3.4</v>
+      </c>
+      <c r="BI135">
+        <v>1.44</v>
+      </c>
+      <c r="BJ135">
+        <v>2.55</v>
+      </c>
+      <c r="BK135">
+        <v>1.73</v>
+      </c>
+      <c r="BL135">
+        <v>1.97</v>
+      </c>
+      <c r="BM135">
+        <v>2.15</v>
+      </c>
+      <c r="BN135">
+        <v>1.61</v>
+      </c>
+      <c r="BO135">
+        <v>2.7</v>
+      </c>
+      <c r="BP135">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -26848,13 +26848,13 @@
         <v>16</v>
       </c>
       <c r="BA125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB125">
         <v>7</v>
       </c>
       <c r="BC125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD125">
         <v>1.47</v>
@@ -27242,31 +27242,31 @@
         <v>3.29</v>
       </c>
       <c r="AU127">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AV127">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY127">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ127">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA127">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC127">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD127">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,21 @@
     <t>['30', '42', '90+4']</t>
   </si>
   <si>
+    <t>['43', '78']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['15', '52', '77']</t>
+  </si>
+  <si>
+    <t>['42', '51', '67']</t>
+  </si>
+  <si>
+    <t>['28', '62']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -779,6 +794,12 @@
   </si>
   <si>
     <t>['18', '21', '24', '73', '85']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['45+1', '54', '66']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1605,7 +1626,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1686,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1811,7 +1832,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1892,7 +1913,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2095,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2223,7 +2244,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2301,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>1.8</v>
@@ -2429,7 +2450,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2635,7 +2656,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2713,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2922,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3047,7 +3068,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3334,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3746,7 +3767,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3871,7 +3892,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4077,7 +4098,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4283,7 +4304,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4567,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4901,7 +4922,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5185,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5313,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5391,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.83</v>
@@ -5519,7 +5540,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5597,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>1.8</v>
@@ -5725,7 +5746,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5806,7 +5827,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5931,7 +5952,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6012,7 +6033,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6218,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6343,7 +6364,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6630,7 +6651,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ27">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7039,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7373,7 +7394,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7657,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7785,7 +7806,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8275,7 +8296,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8403,7 +8424,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8484,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR36">
         <v>1.23</v>
@@ -8609,7 +8630,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9227,7 +9248,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9639,7 +9660,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -9926,7 +9947,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR43">
         <v>1.87</v>
@@ -10463,7 +10484,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10669,7 +10690,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10747,7 +10768,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
         <v>1.8</v>
@@ -10875,7 +10896,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -10953,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -11365,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>1.8</v>
@@ -11574,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11699,7 +11720,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11780,7 +11801,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -11905,7 +11926,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12111,7 +12132,7 @@
         <v>109</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12317,7 +12338,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12398,7 +12419,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR55">
         <v>1.22</v>
@@ -12807,7 +12828,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
         <v>2.5</v>
@@ -12935,7 +12956,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13141,7 +13162,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13219,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ59">
         <v>0.75</v>
@@ -13553,7 +13574,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13759,7 +13780,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13837,10 +13858,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ62">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -13965,7 +13986,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14171,7 +14192,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14249,10 +14270,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.62</v>
@@ -14455,10 +14476,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14661,7 +14682,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14789,7 +14810,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14867,10 +14888,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15073,7 +15094,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15201,7 +15222,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15488,7 +15509,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR70">
         <v>1.96</v>
@@ -15613,7 +15634,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15819,7 +15840,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16231,7 +16252,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16643,7 +16664,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16927,7 +16948,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17261,7 +17282,7 @@
         <v>155</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>2.1</v>
@@ -17467,7 +17488,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17673,7 +17694,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17754,7 +17775,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -17879,7 +17900,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -17960,7 +17981,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18166,7 +18187,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18372,7 +18393,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR84">
         <v>1.92</v>
@@ -18497,7 +18518,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18703,7 +18724,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18909,7 +18930,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -18987,7 +19008,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -19115,7 +19136,7 @@
         <v>163</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>3.25</v>
@@ -19527,7 +19548,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19811,7 +19832,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -20145,7 +20166,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20429,7 +20450,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
         <v>1.2</v>
@@ -20635,10 +20656,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -20763,7 +20784,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20841,10 +20862,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR96">
         <v>2.09</v>
@@ -21047,7 +21068,7 @@
         <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ97">
         <v>1.8</v>
@@ -22077,7 +22098,7 @@
         <v>0.33</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ102">
         <v>0.8</v>
@@ -22205,7 +22226,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22411,7 +22432,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22492,7 +22513,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR104">
         <v>1.95</v>
@@ -22617,7 +22638,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22901,7 +22922,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ106">
         <v>1.6</v>
@@ -23029,7 +23050,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23110,7 +23131,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23313,7 +23334,7 @@
         <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -23647,7 +23668,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23853,7 +23874,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24471,7 +24492,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24552,7 +24573,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR114">
         <v>1.81</v>
@@ -24677,7 +24698,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25089,7 +25110,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25170,7 +25191,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.48</v>
@@ -25295,7 +25316,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25707,7 +25728,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26119,7 +26140,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26197,7 +26218,7 @@
         <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ122">
         <v>2.5</v>
@@ -26403,10 +26424,10 @@
         <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ123">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -26531,7 +26552,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26609,10 +26630,10 @@
         <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR124">
         <v>1.48</v>
@@ -27227,7 +27248,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ127">
         <v>1.2</v>
@@ -27436,7 +27457,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR128">
         <v>1.21</v>
@@ -27561,7 +27582,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27767,7 +27788,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28385,7 +28406,7 @@
         <v>109</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>2.2</v>
@@ -28591,7 +28612,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28797,7 +28818,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28878,7 +28899,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ135">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR135">
         <v>2.04</v>
@@ -28954,6 +28975,1654 @@
       </c>
       <c r="BP135">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7781209</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>91</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>191</v>
+      </c>
+      <c r="P136" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q136">
+        <v>2.2</v>
+      </c>
+      <c r="R136">
+        <v>2.38</v>
+      </c>
+      <c r="S136">
+        <v>5</v>
+      </c>
+      <c r="T136">
+        <v>1.33</v>
+      </c>
+      <c r="U136">
+        <v>3.25</v>
+      </c>
+      <c r="V136">
+        <v>2.5</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>6.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.11</v>
+      </c>
+      <c r="Z136">
+        <v>1.64</v>
+      </c>
+      <c r="AA136">
+        <v>3.93</v>
+      </c>
+      <c r="AB136">
+        <v>4.9</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>2.25</v>
+      </c>
+      <c r="AH136">
+        <v>1.57</v>
+      </c>
+      <c r="AI136">
+        <v>1.7</v>
+      </c>
+      <c r="AJ136">
+        <v>2.05</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>2.5</v>
+      </c>
+      <c r="AO136">
+        <v>0.75</v>
+      </c>
+      <c r="AP136">
+        <v>2.6</v>
+      </c>
+      <c r="AQ136">
+        <v>0.6</v>
+      </c>
+      <c r="AR136">
+        <v>1.75</v>
+      </c>
+      <c r="AS136">
+        <v>1.22</v>
+      </c>
+      <c r="AT136">
+        <v>2.97</v>
+      </c>
+      <c r="AU136">
+        <v>8</v>
+      </c>
+      <c r="AV136">
+        <v>7</v>
+      </c>
+      <c r="AW136">
+        <v>7</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>18</v>
+      </c>
+      <c r="AZ136">
+        <v>16</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7781210</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" t="s">
+        <v>96</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>109</v>
+      </c>
+      <c r="P137" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q137">
+        <v>3.1</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>3.4</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>2.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>2.51</v>
+      </c>
+      <c r="AA137">
+        <v>3.25</v>
+      </c>
+      <c r="AB137">
+        <v>2.75</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>2.05</v>
+      </c>
+      <c r="AF137">
+        <v>1.84</v>
+      </c>
+      <c r="AG137">
+        <v>1.85</v>
+      </c>
+      <c r="AH137">
+        <v>1.89</v>
+      </c>
+      <c r="AI137">
+        <v>1.67</v>
+      </c>
+      <c r="AJ137">
+        <v>2.1</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0.67</v>
+      </c>
+      <c r="AO137">
+        <v>0.4</v>
+      </c>
+      <c r="AP137">
+        <v>0.5</v>
+      </c>
+      <c r="AQ137">
+        <v>0.83</v>
+      </c>
+      <c r="AR137">
+        <v>1.09</v>
+      </c>
+      <c r="AS137">
+        <v>1.15</v>
+      </c>
+      <c r="AT137">
+        <v>2.24</v>
+      </c>
+      <c r="AU137">
+        <v>2</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>8</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>14</v>
+      </c>
+      <c r="AZ137">
+        <v>7</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>7</v>
+      </c>
+      <c r="BC137">
+        <v>13</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7781211</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45773.72916666666</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>88</v>
+      </c>
+      <c r="H138" t="s">
+        <v>99</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>192</v>
+      </c>
+      <c r="P138" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q138">
+        <v>2.4</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>4.75</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>1.77</v>
+      </c>
+      <c r="AA138">
+        <v>3.45</v>
+      </c>
+      <c r="AB138">
+        <v>4.6</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>2.6</v>
+      </c>
+      <c r="AF138">
+        <v>1.53</v>
+      </c>
+      <c r="AG138">
+        <v>1.91</v>
+      </c>
+      <c r="AH138">
+        <v>1.8</v>
+      </c>
+      <c r="AI138">
+        <v>1.8</v>
+      </c>
+      <c r="AJ138">
+        <v>1.95</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>2</v>
+      </c>
+      <c r="AO138">
+        <v>0.29</v>
+      </c>
+      <c r="AP138">
+        <v>2.17</v>
+      </c>
+      <c r="AQ138">
+        <v>0.25</v>
+      </c>
+      <c r="AR138">
+        <v>1.51</v>
+      </c>
+      <c r="AS138">
+        <v>1.24</v>
+      </c>
+      <c r="AT138">
+        <v>2.75</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>13</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7781212</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45773.72916666666</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>89</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>193</v>
+      </c>
+      <c r="P139" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q139">
+        <v>2.25</v>
+      </c>
+      <c r="R139">
+        <v>2.4</v>
+      </c>
+      <c r="S139">
+        <v>4.33</v>
+      </c>
+      <c r="T139">
+        <v>1.29</v>
+      </c>
+      <c r="U139">
+        <v>3.5</v>
+      </c>
+      <c r="V139">
+        <v>2.38</v>
+      </c>
+      <c r="W139">
+        <v>1.53</v>
+      </c>
+      <c r="X139">
+        <v>5.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.14</v>
+      </c>
+      <c r="Z139">
+        <v>1.73</v>
+      </c>
+      <c r="AA139">
+        <v>3.95</v>
+      </c>
+      <c r="AB139">
+        <v>4.2</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>1.55</v>
+      </c>
+      <c r="AH139">
+        <v>2.28</v>
+      </c>
+      <c r="AI139">
+        <v>1.57</v>
+      </c>
+      <c r="AJ139">
+        <v>2.25</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>2</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>2.17</v>
+      </c>
+      <c r="AQ139">
+        <v>0.8</v>
+      </c>
+      <c r="AR139">
+        <v>1.73</v>
+      </c>
+      <c r="AS139">
+        <v>1.92</v>
+      </c>
+      <c r="AT139">
+        <v>3.65</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>9</v>
+      </c>
+      <c r="AZ139">
+        <v>11</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>6</v>
+      </c>
+      <c r="BC139">
+        <v>9</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7781213</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45773.84375</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>194</v>
+      </c>
+      <c r="P140" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q140">
+        <v>2.25</v>
+      </c>
+      <c r="R140">
+        <v>2.5</v>
+      </c>
+      <c r="S140">
+        <v>4.33</v>
+      </c>
+      <c r="T140">
+        <v>1.29</v>
+      </c>
+      <c r="U140">
+        <v>3.5</v>
+      </c>
+      <c r="V140">
+        <v>2.25</v>
+      </c>
+      <c r="W140">
+        <v>1.57</v>
+      </c>
+      <c r="X140">
+        <v>5.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.14</v>
+      </c>
+      <c r="Z140">
+        <v>1.78</v>
+      </c>
+      <c r="AA140">
+        <v>3.57</v>
+      </c>
+      <c r="AB140">
+        <v>4.33</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>1.61</v>
+      </c>
+      <c r="AH140">
+        <v>2.15</v>
+      </c>
+      <c r="AI140">
+        <v>1.53</v>
+      </c>
+      <c r="AJ140">
+        <v>2.38</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1.75</v>
+      </c>
+      <c r="AO140">
+        <v>0.33</v>
+      </c>
+      <c r="AP140">
+        <v>2</v>
+      </c>
+      <c r="AQ140">
+        <v>0.25</v>
+      </c>
+      <c r="AR140">
+        <v>1.89</v>
+      </c>
+      <c r="AS140">
+        <v>1.47</v>
+      </c>
+      <c r="AT140">
+        <v>3.36</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>9</v>
+      </c>
+      <c r="AX140">
+        <v>9</v>
+      </c>
+      <c r="AY140">
+        <v>20</v>
+      </c>
+      <c r="AZ140">
+        <v>15</v>
+      </c>
+      <c r="BA140">
+        <v>3</v>
+      </c>
+      <c r="BB140">
+        <v>5</v>
+      </c>
+      <c r="BC140">
+        <v>8</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7781217</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45773.85416666666</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>94</v>
+      </c>
+      <c r="H141" t="s">
+        <v>86</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>174</v>
+      </c>
+      <c r="P141" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>1.75</v>
+      </c>
+      <c r="AA141">
+        <v>3.83</v>
+      </c>
+      <c r="AB141">
+        <v>4.2</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>1.8</v>
+      </c>
+      <c r="AH141">
+        <v>1.91</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+      <c r="AO141">
+        <v>0.75</v>
+      </c>
+      <c r="AP141">
+        <v>1.6</v>
+      </c>
+      <c r="AQ141">
+        <v>1.2</v>
+      </c>
+      <c r="AR141">
+        <v>1.8</v>
+      </c>
+      <c r="AS141">
+        <v>1.79</v>
+      </c>
+      <c r="AT141">
+        <v>3.59</v>
+      </c>
+      <c r="AU141">
+        <v>-1</v>
+      </c>
+      <c r="AV141">
+        <v>-1</v>
+      </c>
+      <c r="AW141">
+        <v>-1</v>
+      </c>
+      <c r="AX141">
+        <v>-1</v>
+      </c>
+      <c r="AY141">
+        <v>-1</v>
+      </c>
+      <c r="AZ141">
+        <v>-1</v>
+      </c>
+      <c r="BA141">
+        <v>-1</v>
+      </c>
+      <c r="BB141">
+        <v>-1</v>
+      </c>
+      <c r="BC141">
+        <v>-1</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7781214</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45773.85416666666</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>85</v>
+      </c>
+      <c r="H142" t="s">
+        <v>87</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>109</v>
+      </c>
+      <c r="P142" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q142">
+        <v>2.38</v>
+      </c>
+      <c r="R142">
+        <v>2.3</v>
+      </c>
+      <c r="S142">
+        <v>4.75</v>
+      </c>
+      <c r="T142">
+        <v>1.33</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.63</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>7</v>
+      </c>
+      <c r="Y142">
+        <v>1.1</v>
+      </c>
+      <c r="Z142">
+        <v>1.79</v>
+      </c>
+      <c r="AA142">
+        <v>3.37</v>
+      </c>
+      <c r="AB142">
+        <v>4.6</v>
+      </c>
+      <c r="AC142">
+        <v>0</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>1.23</v>
+      </c>
+      <c r="AF142">
+        <v>3.7</v>
+      </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>1.7</v>
+      </c>
+      <c r="AI142">
+        <v>1.7</v>
+      </c>
+      <c r="AJ142">
+        <v>2.05</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>3</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>2.5</v>
+      </c>
+      <c r="AQ142">
+        <v>1.4</v>
+      </c>
+      <c r="AR142">
+        <v>1.68</v>
+      </c>
+      <c r="AS142">
+        <v>1.14</v>
+      </c>
+      <c r="AT142">
+        <v>2.82</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>10</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>17</v>
+      </c>
+      <c r="AZ142">
+        <v>8</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>1</v>
+      </c>
+      <c r="BC142">
+        <v>1</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7781215</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45773.85416666666</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>2.6</v>
+      </c>
+      <c r="S143">
+        <v>5.5</v>
+      </c>
+      <c r="T143">
+        <v>1.25</v>
+      </c>
+      <c r="U143">
+        <v>3.75</v>
+      </c>
+      <c r="V143">
+        <v>2.2</v>
+      </c>
+      <c r="W143">
+        <v>1.62</v>
+      </c>
+      <c r="X143">
+        <v>5</v>
+      </c>
+      <c r="Y143">
+        <v>1.17</v>
+      </c>
+      <c r="Z143">
+        <v>1.48</v>
+      </c>
+      <c r="AA143">
+        <v>4.7</v>
+      </c>
+      <c r="AB143">
+        <v>5.5</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>1.5</v>
+      </c>
+      <c r="AH143">
+        <v>2.4</v>
+      </c>
+      <c r="AI143">
+        <v>1.62</v>
+      </c>
+      <c r="AJ143">
+        <v>2.2</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>1.6</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.83</v>
+      </c>
+      <c r="AQ143">
+        <v>0.75</v>
+      </c>
+      <c r="AR143">
+        <v>1.65</v>
+      </c>
+      <c r="AS143">
+        <v>1.92</v>
+      </c>
+      <c r="AT143">
+        <v>3.57</v>
+      </c>
+      <c r="AU143">
+        <v>3</v>
+      </c>
+      <c r="AV143">
+        <v>8</v>
+      </c>
+      <c r="AW143">
+        <v>12</v>
+      </c>
+      <c r="AX143">
+        <v>6</v>
+      </c>
+      <c r="AY143">
+        <v>19</v>
+      </c>
+      <c r="AZ143">
+        <v>16</v>
+      </c>
+      <c r="BA143">
+        <v>7</v>
+      </c>
+      <c r="BB143">
+        <v>2</v>
+      </c>
+      <c r="BC143">
+        <v>9</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>0</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>0</v>
+      </c>
+      <c r="BJ143">
+        <v>0</v>
+      </c>
+      <c r="BK143">
+        <v>0</v>
+      </c>
+      <c r="BL143">
+        <v>0</v>
+      </c>
+      <c r="BM143">
+        <v>0</v>
+      </c>
+      <c r="BN143">
+        <v>0</v>
+      </c>
+      <c r="BO143">
+        <v>0</v>
+      </c>
+      <c r="BP143">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,15 @@
     <t>['28', '62']</t>
   </si>
   <si>
+    <t>['61', '79']</t>
+  </si>
+  <si>
+    <t>['15', '22', '25', '31', '45+9', '50', '57']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -680,9 +689,6 @@
   </si>
   <si>
     <t>['15', '31', '46']</t>
-  </si>
-  <si>
-    <t>['54']</t>
   </si>
   <si>
     <t>['1', '45+5']</t>
@@ -800,6 +806,12 @@
   </si>
   <si>
     <t>['45+1', '54', '66']</t>
+  </si>
+  <si>
+    <t>['64', '71']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1626,7 +1638,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1832,7 +1844,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2244,7 +2256,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2325,7 +2337,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2450,7 +2462,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2656,7 +2668,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3068,7 +3080,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3146,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>1.8</v>
@@ -3352,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
         <v>1.4</v>
@@ -3892,7 +3904,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4098,7 +4110,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4304,7 +4316,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4797,7 +4809,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4922,7 +4934,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5334,7 +5346,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5540,7 +5552,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5746,7 +5758,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5952,7 +5964,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6364,7 +6376,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6442,7 +6454,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>1.8</v>
@@ -6857,7 +6869,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
@@ -7394,7 +7406,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7472,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>2.5</v>
@@ -7806,7 +7818,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8424,7 +8436,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8630,7 +8642,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9248,7 +9260,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9329,7 +9341,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9532,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9660,7 +9672,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10484,7 +10496,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10690,7 +10702,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10771,7 +10783,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -10896,7 +10908,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11183,7 +11195,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11720,7 +11732,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11926,7 +11938,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12132,7 +12144,7 @@
         <v>109</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12338,7 +12350,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12416,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
         <v>1.2</v>
@@ -12625,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR56">
         <v>2.14</v>
@@ -12956,7 +12968,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13162,7 +13174,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13574,7 +13586,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13780,7 +13792,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13986,7 +13998,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14192,7 +14204,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14810,7 +14822,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15222,7 +15234,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15506,7 +15518,7 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
         <v>0.25</v>
@@ -15634,7 +15646,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15712,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
         <v>1.75</v>
@@ -15840,7 +15852,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16252,7 +16264,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16333,7 +16345,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ74">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.88</v>
@@ -16664,7 +16676,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17154,7 +17166,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17282,7 +17294,7 @@
         <v>155</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.1</v>
@@ -17488,7 +17500,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17694,7 +17706,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17900,7 +17912,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18518,7 +18530,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18596,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ85">
         <v>1.8</v>
@@ -18724,7 +18736,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18930,7 +18942,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19136,7 +19148,7 @@
         <v>163</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>3.25</v>
@@ -19217,7 +19229,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -19423,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR89">
         <v>1.83</v>
@@ -19548,7 +19560,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20166,7 +20178,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20784,7 +20796,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21071,7 +21083,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ97">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.49</v>
@@ -21686,7 +21698,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ100">
         <v>0.8</v>
@@ -22101,7 +22113,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ102">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -22226,7 +22238,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22432,7 +22444,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22638,7 +22650,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23050,7 +23062,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23668,7 +23680,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23749,7 +23761,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR110">
         <v>1.84</v>
@@ -23874,7 +23886,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24367,7 +24379,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ113">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR113">
         <v>1.19</v>
@@ -24492,7 +24504,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24570,7 +24582,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ114">
         <v>1.2</v>
@@ -24698,7 +24710,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24776,7 +24788,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ115">
         <v>1.2</v>
@@ -25110,7 +25122,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25316,7 +25328,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25728,7 +25740,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26140,7 +26152,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26552,7 +26564,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27582,7 +27594,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27788,7 +27800,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27866,7 +27878,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130">
         <v>1.6</v>
@@ -28406,7 +28418,7 @@
         <v>109</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q133">
         <v>2.2</v>
@@ -28612,7 +28624,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28818,7 +28830,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29230,7 +29242,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -30054,7 +30066,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30260,7 +30272,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30622,6 +30634,624 @@
         <v>0</v>
       </c>
       <c r="BP143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7781218</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45773.89583333334</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>77</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>196</v>
+      </c>
+      <c r="P144" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q144">
+        <v>2.75</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>4</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>9</v>
+      </c>
+      <c r="Y144">
+        <v>1.07</v>
+      </c>
+      <c r="Z144">
+        <v>2.07</v>
+      </c>
+      <c r="AA144">
+        <v>3.35</v>
+      </c>
+      <c r="AB144">
+        <v>3.47</v>
+      </c>
+      <c r="AC144">
+        <v>1.06</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.33</v>
+      </c>
+      <c r="AF144">
+        <v>3.25</v>
+      </c>
+      <c r="AG144">
+        <v>1.98</v>
+      </c>
+      <c r="AH144">
+        <v>1.77</v>
+      </c>
+      <c r="AI144">
+        <v>1.8</v>
+      </c>
+      <c r="AJ144">
+        <v>1.95</v>
+      </c>
+      <c r="AK144">
+        <v>1.28</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.77</v>
+      </c>
+      <c r="AN144">
+        <v>0.8</v>
+      </c>
+      <c r="AO144">
+        <v>1.5</v>
+      </c>
+      <c r="AP144">
+        <v>1.17</v>
+      </c>
+      <c r="AQ144">
+        <v>1.2</v>
+      </c>
+      <c r="AR144">
+        <v>1.61</v>
+      </c>
+      <c r="AS144">
+        <v>1.25</v>
+      </c>
+      <c r="AT144">
+        <v>2.86</v>
+      </c>
+      <c r="AU144">
+        <v>7</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>7</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>15</v>
+      </c>
+      <c r="AZ144">
+        <v>7</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>6</v>
+      </c>
+      <c r="BD144">
+        <v>1.61</v>
+      </c>
+      <c r="BE144">
+        <v>6.75</v>
+      </c>
+      <c r="BF144">
+        <v>2.55</v>
+      </c>
+      <c r="BG144">
+        <v>1.3</v>
+      </c>
+      <c r="BH144">
+        <v>3.05</v>
+      </c>
+      <c r="BI144">
+        <v>1.53</v>
+      </c>
+      <c r="BJ144">
+        <v>2.3</v>
+      </c>
+      <c r="BK144">
+        <v>1.86</v>
+      </c>
+      <c r="BL144">
+        <v>1.82</v>
+      </c>
+      <c r="BM144">
+        <v>2.33</v>
+      </c>
+      <c r="BN144">
+        <v>1.5</v>
+      </c>
+      <c r="BO144">
+        <v>3.05</v>
+      </c>
+      <c r="BP144">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7781220</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45773.89583333334</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s">
+        <v>90</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>5</v>
+      </c>
+      <c r="L145">
+        <v>7</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>9</v>
+      </c>
+      <c r="O145" t="s">
+        <v>197</v>
+      </c>
+      <c r="P145" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q145">
+        <v>2.4</v>
+      </c>
+      <c r="R145">
+        <v>2.3</v>
+      </c>
+      <c r="S145">
+        <v>4.33</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.5</v>
+      </c>
+      <c r="W145">
+        <v>1.5</v>
+      </c>
+      <c r="X145">
+        <v>6</v>
+      </c>
+      <c r="Y145">
+        <v>1.13</v>
+      </c>
+      <c r="Z145">
+        <v>1.8</v>
+      </c>
+      <c r="AA145">
+        <v>3.5</v>
+      </c>
+      <c r="AB145">
+        <v>4.4</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>9.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.22</v>
+      </c>
+      <c r="AF145">
+        <v>4.2</v>
+      </c>
+      <c r="AG145">
+        <v>1.63</v>
+      </c>
+      <c r="AH145">
+        <v>2.15</v>
+      </c>
+      <c r="AI145">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.25</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>1.93</v>
+      </c>
+      <c r="AN145">
+        <v>2</v>
+      </c>
+      <c r="AO145">
+        <v>1.8</v>
+      </c>
+      <c r="AP145">
+        <v>2.17</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>1.94</v>
+      </c>
+      <c r="AS145">
+        <v>1.68</v>
+      </c>
+      <c r="AT145">
+        <v>3.62</v>
+      </c>
+      <c r="AU145">
+        <v>8</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>1</v>
+      </c>
+      <c r="AY145">
+        <v>14</v>
+      </c>
+      <c r="AZ145">
+        <v>5</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>1</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>1.52</v>
+      </c>
+      <c r="BE145">
+        <v>6.75</v>
+      </c>
+      <c r="BF145">
+        <v>2.8</v>
+      </c>
+      <c r="BG145">
+        <v>1.36</v>
+      </c>
+      <c r="BH145">
+        <v>2.85</v>
+      </c>
+      <c r="BI145">
+        <v>1.58</v>
+      </c>
+      <c r="BJ145">
+        <v>2.18</v>
+      </c>
+      <c r="BK145">
+        <v>1.95</v>
+      </c>
+      <c r="BL145">
+        <v>1.74</v>
+      </c>
+      <c r="BM145">
+        <v>2.48</v>
+      </c>
+      <c r="BN145">
+        <v>1.47</v>
+      </c>
+      <c r="BO145">
+        <v>3.2</v>
+      </c>
+      <c r="BP145">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7781221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45773.9375</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>93</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>198</v>
+      </c>
+      <c r="P146" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q146">
+        <v>3.25</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>3.25</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>8</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>2.63</v>
+      </c>
+      <c r="AA146">
+        <v>3.25</v>
+      </c>
+      <c r="AB146">
+        <v>2.62</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>1.94</v>
+      </c>
+      <c r="AH146">
+        <v>1.8</v>
+      </c>
+      <c r="AI146">
+        <v>1.75</v>
+      </c>
+      <c r="AJ146">
+        <v>2</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1.75</v>
+      </c>
+      <c r="AO146">
+        <v>0.8</v>
+      </c>
+      <c r="AP146">
+        <v>1.6</v>
+      </c>
+      <c r="AQ146">
+        <v>0.83</v>
+      </c>
+      <c r="AR146">
+        <v>1.83</v>
+      </c>
+      <c r="AS146">
+        <v>1.65</v>
+      </c>
+      <c r="AT146">
+        <v>3.48</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>10</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>18</v>
+      </c>
+      <c r="AZ146">
+        <v>8</v>
+      </c>
+      <c r="BA146">
+        <v>8</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>10</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,18 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['16', '29', '56']</t>
+  </si>
+  <si>
+    <t>['70', '90+5']</t>
+  </si>
+  <si>
+    <t>['67', '69']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -730,9 +742,6 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['16', '65']</t>
   </si>
   <si>
@@ -812,6 +821,18 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['55', '66', '70']</t>
+  </si>
+  <si>
+    <t>['8', '64', '69', '81']</t>
+  </si>
+  <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['38', '53', '63', '76']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.6</v>
@@ -1638,7 +1659,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1716,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -1844,7 +1865,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2256,7 +2277,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2462,7 +2483,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2668,7 +2689,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3080,7 +3101,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3161,7 +3182,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3904,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4110,7 +4131,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4191,7 +4212,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4316,7 +4337,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4394,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4934,7 +4955,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5346,7 +5367,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5552,7 +5573,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5758,7 +5779,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5964,7 +5985,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6248,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6376,7 +6397,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6457,7 +6478,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6660,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -7406,7 +7427,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7818,7 +7839,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8436,7 +8457,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8642,7 +8663,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9260,7 +9281,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9547,7 +9568,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.65</v>
@@ -9672,7 +9693,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10368,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10496,7 +10517,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10574,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10702,7 +10723,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10908,7 +10929,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11192,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.2</v>
@@ -11732,7 +11753,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11938,7 +11959,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12225,7 +12246,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR54">
         <v>1.95</v>
@@ -12350,7 +12371,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12968,7 +12989,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13174,7 +13195,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13586,7 +13607,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13792,7 +13813,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13998,7 +14019,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14076,7 +14097,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
         <v>0.4</v>
@@ -14204,7 +14225,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14822,7 +14843,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15234,7 +15255,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15646,7 +15667,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15727,7 +15748,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.88</v>
@@ -15852,7 +15873,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15933,7 +15954,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16264,7 +16285,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16676,7 +16697,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16963,7 +16984,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR77">
         <v>0.9</v>
@@ -17294,7 +17315,7 @@
         <v>155</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.1</v>
@@ -17372,7 +17393,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17500,7 +17521,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17706,7 +17727,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17912,7 +17933,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18402,7 +18423,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84">
         <v>1.2</v>
@@ -18530,7 +18551,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18736,7 +18757,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18814,7 +18835,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ86">
         <v>1.2</v>
@@ -18942,7 +18963,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19148,7 +19169,7 @@
         <v>163</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>3.25</v>
@@ -19560,7 +19581,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20178,7 +20199,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20259,7 +20280,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20796,7 +20817,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21289,7 +21310,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -22238,7 +22259,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22444,7 +22465,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22650,7 +22671,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22728,7 +22749,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
@@ -23062,7 +23083,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23680,7 +23701,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23886,7 +23907,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24504,7 +24525,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24710,7 +24731,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24994,7 +25015,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25122,7 +25143,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25200,7 +25221,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.75</v>
@@ -25328,7 +25349,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25409,7 +25430,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR118">
         <v>1.68</v>
@@ -25740,7 +25761,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26152,7 +26173,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26564,7 +26585,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27594,7 +27615,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27800,7 +27821,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28084,10 +28105,10 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.86</v>
@@ -28293,7 +28314,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28418,7 +28439,7 @@
         <v>109</v>
       </c>
       <c r="P133" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>2.2</v>
@@ -28624,7 +28645,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28830,7 +28851,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29242,7 +29263,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -30066,7 +30087,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30159,31 +30180,31 @@
         <v>3.59</v>
       </c>
       <c r="AU141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX141">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY141">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ141">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD141">
         <v>0</v>
@@ -30272,7 +30293,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30890,7 +30911,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31096,7 +31117,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31252,6 +31273,830 @@
         <v>0</v>
       </c>
       <c r="BP146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7781219</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45774.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>92</v>
+      </c>
+      <c r="H147" t="s">
+        <v>95</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>199</v>
+      </c>
+      <c r="P147" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q147">
+        <v>2.6</v>
+      </c>
+      <c r="R147">
+        <v>2.2</v>
+      </c>
+      <c r="S147">
+        <v>4</v>
+      </c>
+      <c r="T147">
+        <v>1.36</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>1.95</v>
+      </c>
+      <c r="AA147">
+        <v>3.29</v>
+      </c>
+      <c r="AB147">
+        <v>3.93</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>1.82</v>
+      </c>
+      <c r="AH147">
+        <v>1.92</v>
+      </c>
+      <c r="AI147">
+        <v>1.7</v>
+      </c>
+      <c r="AJ147">
+        <v>2.05</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>2</v>
+      </c>
+      <c r="AO147">
+        <v>2</v>
+      </c>
+      <c r="AP147">
+        <v>1.6</v>
+      </c>
+      <c r="AQ147">
+        <v>2.2</v>
+      </c>
+      <c r="AR147">
+        <v>1.85</v>
+      </c>
+      <c r="AS147">
+        <v>1.9</v>
+      </c>
+      <c r="AT147">
+        <v>3.75</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>9</v>
+      </c>
+      <c r="AX147">
+        <v>3</v>
+      </c>
+      <c r="AY147">
+        <v>14</v>
+      </c>
+      <c r="AZ147">
+        <v>9</v>
+      </c>
+      <c r="BA147">
+        <v>3</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>7</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7781216</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45774.75</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>97</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+      <c r="N148">
+        <v>7</v>
+      </c>
+      <c r="O148" t="s">
+        <v>200</v>
+      </c>
+      <c r="P148" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q148">
+        <v>2.05</v>
+      </c>
+      <c r="R148">
+        <v>2.5</v>
+      </c>
+      <c r="S148">
+        <v>5.5</v>
+      </c>
+      <c r="T148">
+        <v>1.29</v>
+      </c>
+      <c r="U148">
+        <v>3.5</v>
+      </c>
+      <c r="V148">
+        <v>2.38</v>
+      </c>
+      <c r="W148">
+        <v>1.53</v>
+      </c>
+      <c r="X148">
+        <v>5.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.14</v>
+      </c>
+      <c r="Z148">
+        <v>1.52</v>
+      </c>
+      <c r="AA148">
+        <v>4.5</v>
+      </c>
+      <c r="AB148">
+        <v>5.3</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>1.52</v>
+      </c>
+      <c r="AH148">
+        <v>2.29</v>
+      </c>
+      <c r="AI148">
+        <v>1.67</v>
+      </c>
+      <c r="AJ148">
+        <v>2.1</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>2</v>
+      </c>
+      <c r="AO148">
+        <v>1.8</v>
+      </c>
+      <c r="AP148">
+        <v>1.6</v>
+      </c>
+      <c r="AQ148">
+        <v>2</v>
+      </c>
+      <c r="AR148">
+        <v>1.55</v>
+      </c>
+      <c r="AS148">
+        <v>1.27</v>
+      </c>
+      <c r="AT148">
+        <v>2.82</v>
+      </c>
+      <c r="AU148">
+        <v>5</v>
+      </c>
+      <c r="AV148">
+        <v>10</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>12</v>
+      </c>
+      <c r="AZ148">
+        <v>14</v>
+      </c>
+      <c r="BA148">
+        <v>8</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>11</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7781223</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45774.83333333334</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>70</v>
+      </c>
+      <c r="H149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>201</v>
+      </c>
+      <c r="P149" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q149">
+        <v>2.1</v>
+      </c>
+      <c r="R149">
+        <v>2.3</v>
+      </c>
+      <c r="S149">
+        <v>6</v>
+      </c>
+      <c r="T149">
+        <v>1.33</v>
+      </c>
+      <c r="U149">
+        <v>3.25</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.55</v>
+      </c>
+      <c r="AA149">
+        <v>4.2</v>
+      </c>
+      <c r="AB149">
+        <v>5.4</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>1.77</v>
+      </c>
+      <c r="AH149">
+        <v>1.98</v>
+      </c>
+      <c r="AI149">
+        <v>1.8</v>
+      </c>
+      <c r="AJ149">
+        <v>1.95</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>2.25</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+      <c r="AP149">
+        <v>2</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1.48</v>
+      </c>
+      <c r="AS149">
+        <v>1.01</v>
+      </c>
+      <c r="AT149">
+        <v>2.49</v>
+      </c>
+      <c r="AU149">
+        <v>9</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>11</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>21</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7781222</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45774.91666666666</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>83</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>6</v>
+      </c>
+      <c r="O150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P150" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q150">
+        <v>2.4</v>
+      </c>
+      <c r="R150">
+        <v>2.4</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.29</v>
+      </c>
+      <c r="U150">
+        <v>3.5</v>
+      </c>
+      <c r="V150">
+        <v>2.38</v>
+      </c>
+      <c r="W150">
+        <v>1.53</v>
+      </c>
+      <c r="X150">
+        <v>5.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.14</v>
+      </c>
+      <c r="Z150">
+        <v>1.82</v>
+      </c>
+      <c r="AA150">
+        <v>4.3</v>
+      </c>
+      <c r="AB150">
+        <v>3.5</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>1.91</v>
+      </c>
+      <c r="AH150">
+        <v>1.8</v>
+      </c>
+      <c r="AI150">
+        <v>1.53</v>
+      </c>
+      <c r="AJ150">
+        <v>2.38</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0.25</v>
+      </c>
+      <c r="AO150">
+        <v>1.75</v>
+      </c>
+      <c r="AP150">
+        <v>0.2</v>
+      </c>
+      <c r="AQ150">
+        <v>2</v>
+      </c>
+      <c r="AR150">
+        <v>1.41</v>
+      </c>
+      <c r="AS150">
+        <v>1.48</v>
+      </c>
+      <c r="AT150">
+        <v>2.89</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>8</v>
+      </c>
+      <c r="AW150">
+        <v>10</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>19</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>7</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,36 @@
     <t>['67', '69']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['25', '39', '51', '81']</t>
+  </si>
+  <si>
+    <t>['45+4', '45+7']</t>
+  </si>
+  <si>
+    <t>['9', '30', '39', '67']</t>
+  </si>
+  <si>
+    <t>['20', '27', '56', '73', '87']</t>
+  </si>
+  <si>
+    <t>['20', '70']</t>
+  </si>
+  <si>
+    <t>['10', '79']</t>
+  </si>
+  <si>
+    <t>['16', '24', '27', '88']</t>
+  </si>
+  <si>
+    <t>['33', '61', '81', '90+1']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -833,6 +863,33 @@
   </si>
   <si>
     <t>['38', '53', '63', '76']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['11', '27']</t>
+  </si>
+  <si>
+    <t>['2', '84']</t>
+  </si>
+  <si>
+    <t>['45+2', '64']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['22', '35', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1659,7 +1716,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1737,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -1865,7 +1922,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1943,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>0.25</v>
@@ -2152,7 +2209,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2277,7 +2334,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2355,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2483,7 +2540,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2561,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>0.83</v>
@@ -2689,7 +2746,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2770,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2973,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -3101,7 +3158,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3182,7 +3239,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3388,7 +3445,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3594,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3797,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3925,7 +3982,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4003,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4131,7 +4188,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4337,7 +4394,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4955,7 +5012,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5242,7 +5299,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5367,7 +5424,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5573,7 +5630,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5779,7 +5836,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5857,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -5985,7 +6042,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6397,7 +6454,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6478,7 +6535,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6681,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -7093,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7299,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
         <v>0.4</v>
@@ -7427,7 +7484,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7711,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
         <v>1.83</v>
@@ -7839,7 +7896,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -7917,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -8123,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR34">
         <v>1.85</v>
@@ -8457,7 +8514,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8535,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.6</v>
@@ -8663,7 +8720,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8744,7 +8801,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>0.85</v>
@@ -8950,7 +9007,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9153,10 +9210,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.5</v>
@@ -9281,7 +9338,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9568,7 +9625,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.65</v>
@@ -9693,7 +9750,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -9977,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -10183,10 +10240,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR44">
         <v>1.88</v>
@@ -10389,10 +10446,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -10517,7 +10574,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10598,7 +10655,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>0.92</v>
@@ -10723,7 +10780,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10801,7 +10858,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10929,7 +10986,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11010,7 +11067,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -11213,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
         <v>1.2</v>
@@ -11625,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>0.25</v>
@@ -11753,7 +11810,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11834,7 +11891,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -11959,7 +12016,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12040,7 +12097,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12371,7 +12428,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12452,7 +12509,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.22</v>
@@ -12861,7 +12918,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>2.5</v>
@@ -12989,7 +13046,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13067,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.87</v>
@@ -13195,7 +13252,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13276,7 +13333,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13607,7 +13664,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13685,7 +13742,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
         <v>2.5</v>
@@ -13813,7 +13870,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14019,7 +14076,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14225,7 +14282,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14509,7 +14566,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14843,7 +14900,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15130,7 +15187,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.48</v>
@@ -15255,7 +15312,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15667,7 +15724,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15748,7 +15805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.88</v>
@@ -15873,7 +15930,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15954,7 +16011,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16157,10 +16214,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR73">
         <v>2.23</v>
@@ -16285,7 +16342,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16363,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16569,7 +16626,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>1.2</v>
@@ -16697,7 +16754,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16778,7 +16835,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR76">
         <v>0.97</v>
@@ -16981,7 +17038,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ77">
         <v>2.2</v>
@@ -17190,7 +17247,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17393,10 +17450,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR79">
         <v>1.15</v>
@@ -17521,7 +17578,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17599,7 +17656,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>2.5</v>
@@ -17727,7 +17784,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17805,7 +17862,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -17933,7 +17990,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18011,7 +18068,7 @@
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
         <v>0.25</v>
@@ -18426,7 +18483,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.92</v>
@@ -18551,7 +18608,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18757,7 +18814,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18838,7 +18895,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -18963,7 +19020,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19041,7 +19098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -19247,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
         <v>0.83</v>
@@ -19581,7 +19638,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19662,7 +19719,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR90">
         <v>1.08</v>
@@ -19868,7 +19925,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20199,7 +20256,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20277,10 +20334,10 @@
         <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20486,7 +20543,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.73</v>
@@ -20692,7 +20749,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -20817,7 +20874,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20895,7 +20952,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>0.25</v>
@@ -21307,10 +21364,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21516,7 +21573,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR99">
         <v>1.7</v>
@@ -21925,10 +21982,10 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.75</v>
@@ -22131,7 +22188,7 @@
         <v>0.33</v>
       </c>
       <c r="AP102">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ102">
         <v>0.83</v>
@@ -22259,7 +22316,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22340,7 +22397,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22465,7 +22522,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22543,7 +22600,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ104">
         <v>0.8</v>
@@ -22671,7 +22728,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22749,7 +22806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
@@ -22955,10 +23012,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR106">
         <v>1.03</v>
@@ -23083,7 +23140,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23161,10 +23218,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23370,7 +23427,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR108">
         <v>1.87</v>
@@ -23573,10 +23630,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -23701,7 +23758,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23779,7 +23836,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ110">
         <v>1.2</v>
@@ -23907,7 +23964,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -23985,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
         <v>1.8</v>
@@ -24194,7 +24251,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -24525,7 +24582,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24606,7 +24663,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ114">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.81</v>
@@ -24731,7 +24788,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25018,7 +25075,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25143,7 +25200,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25221,7 +25278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ117">
         <v>0.75</v>
@@ -25349,7 +25406,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25430,7 +25487,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR118">
         <v>1.68</v>
@@ -25633,7 +25690,7 @@
         <v>3</v>
       </c>
       <c r="AP119">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ119">
         <v>2.5</v>
@@ -25761,7 +25818,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26045,7 +26102,7 @@
         <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
         <v>0.4</v>
@@ -26173,7 +26230,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26251,7 +26308,7 @@
         <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>2.5</v>
@@ -26585,7 +26642,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26869,10 +26926,10 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
         <v>1.96</v>
@@ -27075,10 +27132,10 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ126">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27615,7 +27672,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27693,7 +27750,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -27821,7 +27878,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27902,7 +27959,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ130">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR130">
         <v>1.45</v>
@@ -28108,7 +28165,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR131">
         <v>1.86</v>
@@ -28439,7 +28496,7 @@
         <v>109</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>2.2</v>
@@ -28645,7 +28702,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28851,7 +28908,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28929,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ135">
         <v>0.6</v>
@@ -29263,7 +29320,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29341,7 +29398,7 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ137">
         <v>0.83</v>
@@ -30087,7 +30144,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30165,10 +30222,10 @@
         <v>0.75</v>
       </c>
       <c r="AP141">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ141">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.8</v>
@@ -30293,7 +30350,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30374,7 +30431,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30577,7 +30634,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>0.75</v>
@@ -30911,7 +30968,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31117,7 +31174,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31323,7 +31380,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31529,7 +31586,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31607,10 +31664,10 @@
         <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31735,7 +31792,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31813,10 +31870,10 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -31941,7 +31998,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32022,7 +32079,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ150">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR150">
         <v>1.41</v>
@@ -32097,6 +32154,2684 @@
         <v>0</v>
       </c>
       <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7781224</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45780.65625</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>203</v>
+      </c>
+      <c r="P151" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q151">
+        <v>2.63</v>
+      </c>
+      <c r="R151">
+        <v>2.38</v>
+      </c>
+      <c r="S151">
+        <v>3.5</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.38</v>
+      </c>
+      <c r="W151">
+        <v>1.53</v>
+      </c>
+      <c r="X151">
+        <v>5.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.14</v>
+      </c>
+      <c r="Z151">
+        <v>2.11</v>
+      </c>
+      <c r="AA151">
+        <v>3.36</v>
+      </c>
+      <c r="AB151">
+        <v>3.36</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>1.67</v>
+      </c>
+      <c r="AH151">
+        <v>2.05</v>
+      </c>
+      <c r="AI151">
+        <v>1.53</v>
+      </c>
+      <c r="AJ151">
+        <v>2.38</v>
+      </c>
+      <c r="AK151">
+        <v>1.32</v>
+      </c>
+      <c r="AL151">
+        <v>1.32</v>
+      </c>
+      <c r="AM151">
+        <v>1.72</v>
+      </c>
+      <c r="AN151">
+        <v>1.33</v>
+      </c>
+      <c r="AO151">
+        <v>0.75</v>
+      </c>
+      <c r="AP151">
+        <v>1.29</v>
+      </c>
+      <c r="AQ151">
+        <v>0.8</v>
+      </c>
+      <c r="AR151">
+        <v>1.66</v>
+      </c>
+      <c r="AS151">
+        <v>1.5</v>
+      </c>
+      <c r="AT151">
+        <v>3.16</v>
+      </c>
+      <c r="AU151">
+        <v>3</v>
+      </c>
+      <c r="AV151">
+        <v>6</v>
+      </c>
+      <c r="AW151">
+        <v>1</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>4</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
+        <v>8</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7781225</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45780.72916666666</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>98</v>
+      </c>
+      <c r="H152" t="s">
+        <v>87</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>109</v>
+      </c>
+      <c r="P152" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q152">
+        <v>2.88</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>3.75</v>
+      </c>
+      <c r="T152">
+        <v>1.4</v>
+      </c>
+      <c r="U152">
+        <v>2.75</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>8</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>2.1</v>
+      </c>
+      <c r="AA152">
+        <v>3.37</v>
+      </c>
+      <c r="AB152">
+        <v>3.37</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>3.1</v>
+      </c>
+      <c r="AF152">
+        <v>1.37</v>
+      </c>
+      <c r="AG152">
+        <v>2.2</v>
+      </c>
+      <c r="AH152">
+        <v>1.6</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.39</v>
+      </c>
+      <c r="AL152">
+        <v>1.32</v>
+      </c>
+      <c r="AM152">
+        <v>1.62</v>
+      </c>
+      <c r="AN152">
+        <v>0.5</v>
+      </c>
+      <c r="AO152">
+        <v>1.4</v>
+      </c>
+      <c r="AP152">
+        <v>0.4</v>
+      </c>
+      <c r="AQ152">
+        <v>1.67</v>
+      </c>
+      <c r="AR152">
+        <v>1.12</v>
+      </c>
+      <c r="AS152">
+        <v>1.13</v>
+      </c>
+      <c r="AT152">
+        <v>2.25</v>
+      </c>
+      <c r="AU152">
+        <v>3</v>
+      </c>
+      <c r="AV152">
+        <v>8</v>
+      </c>
+      <c r="AW152">
+        <v>14</v>
+      </c>
+      <c r="AX152">
+        <v>11</v>
+      </c>
+      <c r="AY152">
+        <v>23</v>
+      </c>
+      <c r="AZ152">
+        <v>23</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7781229</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45780.85416666666</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>99</v>
+      </c>
+      <c r="H153" t="s">
+        <v>89</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>204</v>
+      </c>
+      <c r="P153" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q153">
+        <v>3.1</v>
+      </c>
+      <c r="R153">
+        <v>2.2</v>
+      </c>
+      <c r="S153">
+        <v>3.25</v>
+      </c>
+      <c r="T153">
+        <v>1.36</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>2.57</v>
+      </c>
+      <c r="AA153">
+        <v>3.35</v>
+      </c>
+      <c r="AB153">
+        <v>2.61</v>
+      </c>
+      <c r="AC153">
+        <v>0</v>
+      </c>
+      <c r="AD153">
+        <v>0</v>
+      </c>
+      <c r="AE153">
+        <v>0</v>
+      </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>1.87</v>
+      </c>
+      <c r="AH153">
+        <v>1.87</v>
+      </c>
+      <c r="AI153">
+        <v>1.7</v>
+      </c>
+      <c r="AJ153">
+        <v>2.05</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>0</v>
+      </c>
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>0.5</v>
+      </c>
+      <c r="AO153">
+        <v>1.5</v>
+      </c>
+      <c r="AP153">
+        <v>0.33</v>
+      </c>
+      <c r="AQ153">
+        <v>1.8</v>
+      </c>
+      <c r="AR153">
+        <v>2.06</v>
+      </c>
+      <c r="AS153">
+        <v>1.82</v>
+      </c>
+      <c r="AT153">
+        <v>3.88</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>11</v>
+      </c>
+      <c r="AX153">
+        <v>4</v>
+      </c>
+      <c r="AY153">
+        <v>18</v>
+      </c>
+      <c r="AZ153">
+        <v>11</v>
+      </c>
+      <c r="BA153">
+        <v>6</v>
+      </c>
+      <c r="BB153">
+        <v>2</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7781226</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45780.85416666666</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>6</v>
+      </c>
+      <c r="O154" t="s">
+        <v>205</v>
+      </c>
+      <c r="P154" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q154">
+        <v>2.2</v>
+      </c>
+      <c r="R154">
+        <v>2.4</v>
+      </c>
+      <c r="S154">
+        <v>4.75</v>
+      </c>
+      <c r="T154">
+        <v>1.3</v>
+      </c>
+      <c r="U154">
+        <v>3.4</v>
+      </c>
+      <c r="V154">
+        <v>2.38</v>
+      </c>
+      <c r="W154">
+        <v>1.53</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
+      </c>
+      <c r="Y154">
+        <v>1.13</v>
+      </c>
+      <c r="Z154">
+        <v>1.66</v>
+      </c>
+      <c r="AA154">
+        <v>3.73</v>
+      </c>
+      <c r="AB154">
+        <v>5</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>0</v>
+      </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>2</v>
+      </c>
+      <c r="AH154">
+        <v>1.7</v>
+      </c>
+      <c r="AI154">
+        <v>1.67</v>
+      </c>
+      <c r="AJ154">
+        <v>2.1</v>
+      </c>
+      <c r="AK154">
+        <v>1.17</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>2.24</v>
+      </c>
+      <c r="AN154">
+        <v>1.83</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>2</v>
+      </c>
+      <c r="AQ154">
+        <v>0.8</v>
+      </c>
+      <c r="AR154">
+        <v>1.65</v>
+      </c>
+      <c r="AS154">
+        <v>1.15</v>
+      </c>
+      <c r="AT154">
+        <v>2.8</v>
+      </c>
+      <c r="AU154">
+        <v>11</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>6</v>
+      </c>
+      <c r="AY154">
+        <v>19</v>
+      </c>
+      <c r="AZ154">
+        <v>12</v>
+      </c>
+      <c r="BA154">
+        <v>9</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>12</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>0</v>
+      </c>
+      <c r="BJ154">
+        <v>0</v>
+      </c>
+      <c r="BK154">
+        <v>0</v>
+      </c>
+      <c r="BL154">
+        <v>0</v>
+      </c>
+      <c r="BM154">
+        <v>0</v>
+      </c>
+      <c r="BN154">
+        <v>0</v>
+      </c>
+      <c r="BO154">
+        <v>0</v>
+      </c>
+      <c r="BP154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7781227</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45780.85416666666</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>93</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>206</v>
+      </c>
+      <c r="P155" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q155">
+        <v>2.5</v>
+      </c>
+      <c r="R155">
+        <v>2.4</v>
+      </c>
+      <c r="S155">
+        <v>3.75</v>
+      </c>
+      <c r="T155">
+        <v>1.25</v>
+      </c>
+      <c r="U155">
+        <v>3.75</v>
+      </c>
+      <c r="V155">
+        <v>2.25</v>
+      </c>
+      <c r="W155">
+        <v>1.57</v>
+      </c>
+      <c r="X155">
+        <v>5.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.14</v>
+      </c>
+      <c r="Z155">
+        <v>1.96</v>
+      </c>
+      <c r="AA155">
+        <v>3.84</v>
+      </c>
+      <c r="AB155">
+        <v>3.35</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>0</v>
+      </c>
+      <c r="AE155">
+        <v>0</v>
+      </c>
+      <c r="AF155">
+        <v>0</v>
+      </c>
+      <c r="AG155">
+        <v>1.75</v>
+      </c>
+      <c r="AH155">
+        <v>1.95</v>
+      </c>
+      <c r="AI155">
+        <v>1.5</v>
+      </c>
+      <c r="AJ155">
+        <v>2.5</v>
+      </c>
+      <c r="AK155">
+        <v>1.32</v>
+      </c>
+      <c r="AL155">
+        <v>1.26</v>
+      </c>
+      <c r="AM155">
+        <v>1.83</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
+        <v>1.6</v>
+      </c>
+      <c r="AP155">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155">
+        <v>1.33</v>
+      </c>
+      <c r="AR155">
+        <v>1.51</v>
+      </c>
+      <c r="AS155">
+        <v>1.01</v>
+      </c>
+      <c r="AT155">
+        <v>2.52</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>2</v>
+      </c>
+      <c r="AW155">
+        <v>2</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>8</v>
+      </c>
+      <c r="AZ155">
+        <v>5</v>
+      </c>
+      <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>6</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>0</v>
+      </c>
+      <c r="BJ155">
+        <v>0</v>
+      </c>
+      <c r="BK155">
+        <v>0</v>
+      </c>
+      <c r="BL155">
+        <v>0</v>
+      </c>
+      <c r="BM155">
+        <v>0</v>
+      </c>
+      <c r="BN155">
+        <v>0</v>
+      </c>
+      <c r="BO155">
+        <v>0</v>
+      </c>
+      <c r="BP155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7781228</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45780.85416666666</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s">
+        <v>88</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>4</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>207</v>
+      </c>
+      <c r="P156" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q156">
+        <v>2.1</v>
+      </c>
+      <c r="R156">
+        <v>2.4</v>
+      </c>
+      <c r="S156">
+        <v>5</v>
+      </c>
+      <c r="T156">
+        <v>1.3</v>
+      </c>
+      <c r="U156">
+        <v>3.4</v>
+      </c>
+      <c r="V156">
+        <v>2.38</v>
+      </c>
+      <c r="W156">
+        <v>1.53</v>
+      </c>
+      <c r="X156">
+        <v>6</v>
+      </c>
+      <c r="Y156">
+        <v>1.13</v>
+      </c>
+      <c r="Z156">
+        <v>1.6</v>
+      </c>
+      <c r="AA156">
+        <v>4.1</v>
+      </c>
+      <c r="AB156">
+        <v>4.9</v>
+      </c>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AD156">
+        <v>0</v>
+      </c>
+      <c r="AE156">
+        <v>0</v>
+      </c>
+      <c r="AF156">
+        <v>0</v>
+      </c>
+      <c r="AG156">
+        <v>1.65</v>
+      </c>
+      <c r="AH156">
+        <v>2.1</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.19</v>
+      </c>
+      <c r="AL156">
+        <v>1.24</v>
+      </c>
+      <c r="AM156">
+        <v>2.27</v>
+      </c>
+      <c r="AN156">
+        <v>1.6</v>
+      </c>
+      <c r="AO156">
+        <v>0.5</v>
+      </c>
+      <c r="AP156">
+        <v>1.83</v>
+      </c>
+      <c r="AQ156">
+        <v>0.4</v>
+      </c>
+      <c r="AR156">
+        <v>1.52</v>
+      </c>
+      <c r="AS156">
+        <v>1.27</v>
+      </c>
+      <c r="AT156">
+        <v>2.79</v>
+      </c>
+      <c r="AU156">
+        <v>5</v>
+      </c>
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>0</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>7</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>3</v>
+      </c>
+      <c r="BB156">
+        <v>6</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>0</v>
+      </c>
+      <c r="BG156">
+        <v>0</v>
+      </c>
+      <c r="BH156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>0</v>
+      </c>
+      <c r="BJ156">
+        <v>0</v>
+      </c>
+      <c r="BK156">
+        <v>0</v>
+      </c>
+      <c r="BL156">
+        <v>0</v>
+      </c>
+      <c r="BM156">
+        <v>0</v>
+      </c>
+      <c r="BN156">
+        <v>0</v>
+      </c>
+      <c r="BO156">
+        <v>0</v>
+      </c>
+      <c r="BP156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7781231</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45780.89583333334</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>90</v>
+      </c>
+      <c r="H157" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157" t="s">
+        <v>109</v>
+      </c>
+      <c r="P157" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>2.3</v>
+      </c>
+      <c r="S157">
+        <v>3.25</v>
+      </c>
+      <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3.25</v>
+      </c>
+      <c r="V157">
+        <v>2.5</v>
+      </c>
+      <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>6.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.11</v>
+      </c>
+      <c r="Z157">
+        <v>2.39</v>
+      </c>
+      <c r="AA157">
+        <v>3.53</v>
+      </c>
+      <c r="AB157">
+        <v>2.71</v>
+      </c>
+      <c r="AC157">
+        <v>1.94</v>
+      </c>
+      <c r="AD157">
+        <v>1.92</v>
+      </c>
+      <c r="AE157">
+        <v>0</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>1.7</v>
+      </c>
+      <c r="AH157">
+        <v>2.05</v>
+      </c>
+      <c r="AI157">
+        <v>1.57</v>
+      </c>
+      <c r="AJ157">
+        <v>2.25</v>
+      </c>
+      <c r="AK157">
+        <v>1.5</v>
+      </c>
+      <c r="AL157">
+        <v>1.3</v>
+      </c>
+      <c r="AM157">
+        <v>1.51</v>
+      </c>
+      <c r="AN157">
+        <v>0.75</v>
+      </c>
+      <c r="AO157">
+        <v>1.2</v>
+      </c>
+      <c r="AP157">
+        <v>0.8</v>
+      </c>
+      <c r="AQ157">
+        <v>1.17</v>
+      </c>
+      <c r="AR157">
+        <v>1.51</v>
+      </c>
+      <c r="AS157">
+        <v>1.24</v>
+      </c>
+      <c r="AT157">
+        <v>2.75</v>
+      </c>
+      <c r="AU157">
+        <v>8</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>21</v>
+      </c>
+      <c r="AY157">
+        <v>18</v>
+      </c>
+      <c r="AZ157">
+        <v>29</v>
+      </c>
+      <c r="BA157">
+        <v>7</v>
+      </c>
+      <c r="BB157">
+        <v>6</v>
+      </c>
+      <c r="BC157">
+        <v>13</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>0</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>0</v>
+      </c>
+      <c r="BJ157">
+        <v>0</v>
+      </c>
+      <c r="BK157">
+        <v>0</v>
+      </c>
+      <c r="BL157">
+        <v>0</v>
+      </c>
+      <c r="BM157">
+        <v>0</v>
+      </c>
+      <c r="BN157">
+        <v>0</v>
+      </c>
+      <c r="BO157">
+        <v>0</v>
+      </c>
+      <c r="BP157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7781230</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45780.89583333334</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>77</v>
+      </c>
+      <c r="H158" t="s">
+        <v>92</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>109</v>
+      </c>
+      <c r="P158" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q158">
+        <v>3.2</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>3.4</v>
+      </c>
+      <c r="T158">
+        <v>1.4</v>
+      </c>
+      <c r="U158">
+        <v>2.75</v>
+      </c>
+      <c r="V158">
+        <v>3</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>8</v>
+      </c>
+      <c r="Y158">
+        <v>1.08</v>
+      </c>
+      <c r="Z158">
+        <v>2.57</v>
+      </c>
+      <c r="AA158">
+        <v>3.23</v>
+      </c>
+      <c r="AB158">
+        <v>2.7</v>
+      </c>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
+        <v>0</v>
+      </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>1.96</v>
+      </c>
+      <c r="AH158">
+        <v>1.74</v>
+      </c>
+      <c r="AI158">
+        <v>1.8</v>
+      </c>
+      <c r="AJ158">
+        <v>1.95</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>2</v>
+      </c>
+      <c r="AO158">
+        <v>1.6</v>
+      </c>
+      <c r="AP158">
+        <v>1.67</v>
+      </c>
+      <c r="AQ158">
+        <v>1.83</v>
+      </c>
+      <c r="AR158">
+        <v>1.56</v>
+      </c>
+      <c r="AS158">
+        <v>1.55</v>
+      </c>
+      <c r="AT158">
+        <v>3.11</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>9</v>
+      </c>
+      <c r="AW158">
+        <v>10</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>19</v>
+      </c>
+      <c r="AZ158">
+        <v>14</v>
+      </c>
+      <c r="BA158">
+        <v>3</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>7</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>0</v>
+      </c>
+      <c r="BK158">
+        <v>0</v>
+      </c>
+      <c r="BL158">
+        <v>0</v>
+      </c>
+      <c r="BM158">
+        <v>0</v>
+      </c>
+      <c r="BN158">
+        <v>0</v>
+      </c>
+      <c r="BO158">
+        <v>0</v>
+      </c>
+      <c r="BP158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7781232</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45780.92708333334</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>94</v>
+      </c>
+      <c r="H159" t="s">
+        <v>97</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>208</v>
+      </c>
+      <c r="P159" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>1.71</v>
+      </c>
+      <c r="AA159">
+        <v>3.84</v>
+      </c>
+      <c r="AB159">
+        <v>4.5</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>1.67</v>
+      </c>
+      <c r="AH159">
+        <v>2.1</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1.6</v>
+      </c>
+      <c r="AO159">
+        <v>2</v>
+      </c>
+      <c r="AP159">
+        <v>1.83</v>
+      </c>
+      <c r="AQ159">
+        <v>1.71</v>
+      </c>
+      <c r="AR159">
+        <v>1.77</v>
+      </c>
+      <c r="AS159">
+        <v>1.37</v>
+      </c>
+      <c r="AT159">
+        <v>3.14</v>
+      </c>
+      <c r="AU159">
+        <v>-1</v>
+      </c>
+      <c r="AV159">
+        <v>-1</v>
+      </c>
+      <c r="AW159">
+        <v>-1</v>
+      </c>
+      <c r="AX159">
+        <v>-1</v>
+      </c>
+      <c r="AY159">
+        <v>-1</v>
+      </c>
+      <c r="AZ159">
+        <v>-1</v>
+      </c>
+      <c r="BA159">
+        <v>-1</v>
+      </c>
+      <c r="BB159">
+        <v>-1</v>
+      </c>
+      <c r="BC159">
+        <v>-1</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>0</v>
+      </c>
+      <c r="BJ159">
+        <v>0</v>
+      </c>
+      <c r="BK159">
+        <v>0</v>
+      </c>
+      <c r="BL159">
+        <v>0</v>
+      </c>
+      <c r="BM159">
+        <v>0</v>
+      </c>
+      <c r="BN159">
+        <v>0</v>
+      </c>
+      <c r="BO159">
+        <v>0</v>
+      </c>
+      <c r="BP159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7781233</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45780.9375</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>95</v>
+      </c>
+      <c r="H160" t="s">
+        <v>86</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>209</v>
+      </c>
+      <c r="P160" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q160">
+        <v>2.1</v>
+      </c>
+      <c r="R160">
+        <v>2.4</v>
+      </c>
+      <c r="S160">
+        <v>5</v>
+      </c>
+      <c r="T160">
+        <v>1.3</v>
+      </c>
+      <c r="U160">
+        <v>3.4</v>
+      </c>
+      <c r="V160">
+        <v>2.5</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>6</v>
+      </c>
+      <c r="Y160">
+        <v>1.13</v>
+      </c>
+      <c r="Z160">
+        <v>1.6</v>
+      </c>
+      <c r="AA160">
+        <v>3.98</v>
+      </c>
+      <c r="AB160">
+        <v>5.1</v>
+      </c>
+      <c r="AC160">
+        <v>0</v>
+      </c>
+      <c r="AD160">
+        <v>0</v>
+      </c>
+      <c r="AE160">
+        <v>0</v>
+      </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
+      <c r="AG160">
+        <v>1.67</v>
+      </c>
+      <c r="AH160">
+        <v>2.12</v>
+      </c>
+      <c r="AI160">
+        <v>1.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.05</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>2.4</v>
+      </c>
+      <c r="AO160">
+        <v>1.2</v>
+      </c>
+      <c r="AP160">
+        <v>2.5</v>
+      </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
+      <c r="AR160">
+        <v>1.99</v>
+      </c>
+      <c r="AS160">
+        <v>1.7</v>
+      </c>
+      <c r="AT160">
+        <v>3.69</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>16</v>
+      </c>
+      <c r="AX160">
+        <v>9</v>
+      </c>
+      <c r="AY160">
+        <v>29</v>
+      </c>
+      <c r="AZ160">
+        <v>18</v>
+      </c>
+      <c r="BA160">
+        <v>9</v>
+      </c>
+      <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
+        <v>14</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>0</v>
+      </c>
+      <c r="BG160">
+        <v>0</v>
+      </c>
+      <c r="BH160">
+        <v>0</v>
+      </c>
+      <c r="BI160">
+        <v>0</v>
+      </c>
+      <c r="BJ160">
+        <v>0</v>
+      </c>
+      <c r="BK160">
+        <v>0</v>
+      </c>
+      <c r="BL160">
+        <v>0</v>
+      </c>
+      <c r="BM160">
+        <v>0</v>
+      </c>
+      <c r="BN160">
+        <v>0</v>
+      </c>
+      <c r="BO160">
+        <v>0</v>
+      </c>
+      <c r="BP160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7781234</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45780.97916666666</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" t="s">
+        <v>78</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>210</v>
+      </c>
+      <c r="P161" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q161">
+        <v>2.1</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>5.5</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
+        <v>3.25</v>
+      </c>
+      <c r="V161">
+        <v>2.63</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>6.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.11</v>
+      </c>
+      <c r="Z161">
+        <v>1.59</v>
+      </c>
+      <c r="AA161">
+        <v>3.98</v>
+      </c>
+      <c r="AB161">
+        <v>5.3</v>
+      </c>
+      <c r="AC161">
+        <v>0</v>
+      </c>
+      <c r="AD161">
+        <v>0</v>
+      </c>
+      <c r="AE161">
+        <v>0</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>1.79</v>
+      </c>
+      <c r="AH161">
+        <v>1.95</v>
+      </c>
+      <c r="AI161">
+        <v>1.8</v>
+      </c>
+      <c r="AJ161">
+        <v>1.95</v>
+      </c>
+      <c r="AK161">
+        <v>1.16</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>2.35</v>
+      </c>
+      <c r="AN161">
+        <v>2</v>
+      </c>
+      <c r="AO161">
+        <v>0.75</v>
+      </c>
+      <c r="AP161">
+        <v>2.17</v>
+      </c>
+      <c r="AQ161">
+        <v>0.6</v>
+      </c>
+      <c r="AR161">
+        <v>1.68</v>
+      </c>
+      <c r="AS161">
+        <v>1.09</v>
+      </c>
+      <c r="AT161">
+        <v>2.77</v>
+      </c>
+      <c r="AU161">
+        <v>11</v>
+      </c>
+      <c r="AV161">
+        <v>0</v>
+      </c>
+      <c r="AW161">
+        <v>5</v>
+      </c>
+      <c r="AX161">
+        <v>7</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>6</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>8</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>0</v>
+      </c>
+      <c r="BG161">
+        <v>0</v>
+      </c>
+      <c r="BH161">
+        <v>0</v>
+      </c>
+      <c r="BI161">
+        <v>0</v>
+      </c>
+      <c r="BJ161">
+        <v>0</v>
+      </c>
+      <c r="BK161">
+        <v>0</v>
+      </c>
+      <c r="BL161">
+        <v>0</v>
+      </c>
+      <c r="BM161">
+        <v>0</v>
+      </c>
+      <c r="BN161">
+        <v>0</v>
+      </c>
+      <c r="BO161">
+        <v>0</v>
+      </c>
+      <c r="BP161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7781235</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45780.97916666666</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>81</v>
+      </c>
+      <c r="H162" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>4</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162" t="s">
+        <v>211</v>
+      </c>
+      <c r="P162" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q162">
+        <v>2.5</v>
+      </c>
+      <c r="R162">
+        <v>2.5</v>
+      </c>
+      <c r="S162">
+        <v>3.5</v>
+      </c>
+      <c r="T162">
+        <v>1.22</v>
+      </c>
+      <c r="U162">
+        <v>4</v>
+      </c>
+      <c r="V162">
+        <v>2.1</v>
+      </c>
+      <c r="W162">
+        <v>1.67</v>
+      </c>
+      <c r="X162">
+        <v>4.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.18</v>
+      </c>
+      <c r="Z162">
+        <v>2.03</v>
+      </c>
+      <c r="AA162">
+        <v>3.67</v>
+      </c>
+      <c r="AB162">
+        <v>3.29</v>
+      </c>
+      <c r="AC162">
+        <v>0</v>
+      </c>
+      <c r="AD162">
+        <v>0</v>
+      </c>
+      <c r="AE162">
+        <v>0</v>
+      </c>
+      <c r="AF162">
+        <v>0</v>
+      </c>
+      <c r="AG162">
+        <v>1.43</v>
+      </c>
+      <c r="AH162">
+        <v>2.7</v>
+      </c>
+      <c r="AI162">
+        <v>1.44</v>
+      </c>
+      <c r="AJ162">
+        <v>2.63</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>1.17</v>
+      </c>
+      <c r="AO162">
+        <v>2</v>
+      </c>
+      <c r="AP162">
+        <v>1.43</v>
+      </c>
+      <c r="AQ162">
+        <v>1.67</v>
+      </c>
+      <c r="AR162">
+        <v>2.1</v>
+      </c>
+      <c r="AS162">
+        <v>1.49</v>
+      </c>
+      <c r="AT162">
+        <v>3.59</v>
+      </c>
+      <c r="AU162">
+        <v>10</v>
+      </c>
+      <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
+        <v>8</v>
+      </c>
+      <c r="AX162">
+        <v>11</v>
+      </c>
+      <c r="AY162">
+        <v>21</v>
+      </c>
+      <c r="AZ162">
+        <v>18</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>0</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>0</v>
+      </c>
+      <c r="BJ162">
+        <v>0</v>
+      </c>
+      <c r="BK162">
+        <v>0</v>
+      </c>
+      <c r="BL162">
+        <v>0</v>
+      </c>
+      <c r="BM162">
+        <v>0</v>
+      </c>
+      <c r="BN162">
+        <v>0</v>
+      </c>
+      <c r="BO162">
+        <v>0</v>
+      </c>
+      <c r="BP162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7781236</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45780.97916666666</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>82</v>
+      </c>
+      <c r="H163" t="s">
+        <v>80</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>212</v>
+      </c>
+      <c r="P163" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q163">
+        <v>2.05</v>
+      </c>
+      <c r="R163">
+        <v>2.3</v>
+      </c>
+      <c r="S163">
+        <v>6</v>
+      </c>
+      <c r="T163">
+        <v>1.36</v>
+      </c>
+      <c r="U163">
+        <v>3</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.1</v>
+      </c>
+      <c r="Z163">
+        <v>1.54</v>
+      </c>
+      <c r="AA163">
+        <v>4</v>
+      </c>
+      <c r="AB163">
+        <v>5.9</v>
+      </c>
+      <c r="AC163">
+        <v>0</v>
+      </c>
+      <c r="AD163">
+        <v>0</v>
+      </c>
+      <c r="AE163">
+        <v>0</v>
+      </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
+        <v>1.85</v>
+      </c>
+      <c r="AH163">
+        <v>1.89</v>
+      </c>
+      <c r="AI163">
+        <v>1.95</v>
+      </c>
+      <c r="AJ163">
+        <v>1.8</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>2</v>
+      </c>
+      <c r="AO163">
+        <v>1</v>
+      </c>
+      <c r="AP163">
+        <v>2.2</v>
+      </c>
+      <c r="AQ163">
+        <v>0.83</v>
+      </c>
+      <c r="AR163">
+        <v>1.87</v>
+      </c>
+      <c r="AS163">
+        <v>1.08</v>
+      </c>
+      <c r="AT163">
+        <v>2.95</v>
+      </c>
+      <c r="AU163">
+        <v>9</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>19</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>30</v>
+      </c>
+      <c r="AZ163">
+        <v>9</v>
+      </c>
+      <c r="BA163">
+        <v>8</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['33', '61', '81', '90+1']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -830,9 +833,6 @@
   </si>
   <si>
     <t>['58', '77']</t>
-  </si>
-  <si>
-    <t>['9']</t>
   </si>
   <si>
     <t>['45', '64', '90']</t>
@@ -1251,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1716,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1922,7 +1922,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2334,7 +2334,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2540,7 +2540,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2746,7 +2746,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3158,7 +3158,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3982,7 +3982,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4188,7 +4188,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4394,7 +4394,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5424,7 +5424,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5630,7 +5630,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5711,7 +5711,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6042,7 +6042,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6454,7 +6454,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7359,7 +7359,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7896,7 +7896,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8514,7 +8514,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8720,7 +8720,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9338,7 +9338,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9750,7 +9750,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10780,7 +10780,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10986,7 +10986,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11479,7 +11479,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11810,7 +11810,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -12016,7 +12016,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12094,7 +12094,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
         <v>1.83</v>
@@ -12428,7 +12428,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13046,7 +13046,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13252,7 +13252,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13539,7 +13539,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR60">
         <v>0.9399999999999999</v>
@@ -13664,7 +13664,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13870,7 +13870,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14076,7 +14076,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14157,7 +14157,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14282,7 +14282,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14900,7 +14900,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15312,7 +15312,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15724,7 +15724,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15930,7 +15930,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16342,7 +16342,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16754,7 +16754,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17578,7 +17578,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17784,7 +17784,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17990,7 +17990,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18608,7 +18608,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18689,7 +18689,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ85">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.87</v>
@@ -18814,7 +18814,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19020,7 +19020,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19638,7 +19638,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20131,7 +20131,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ92">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20256,7 +20256,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20874,7 +20874,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21570,7 +21570,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
         <v>0.83</v>
@@ -22316,7 +22316,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22394,7 +22394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ103">
         <v>1.83</v>
@@ -22522,7 +22522,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22728,7 +22728,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23140,7 +23140,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23758,7 +23758,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23964,7 +23964,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24045,7 +24045,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ112">
         <v>1.8</v>
@@ -24582,7 +24582,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24788,7 +24788,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25200,7 +25200,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25406,7 +25406,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25484,7 +25484,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ118">
         <v>1.67</v>
@@ -25818,7 +25818,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26105,7 +26105,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26230,7 +26230,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26642,7 +26642,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27672,7 +27672,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27753,7 +27753,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ129">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -27878,7 +27878,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28496,7 +28496,7 @@
         <v>109</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="Q133">
         <v>2.2</v>
@@ -30350,7 +30350,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -34832,6 +34832,418 @@
         <v>0</v>
       </c>
       <c r="BP163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7781237</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>96</v>
+      </c>
+      <c r="H164" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>213</v>
+      </c>
+      <c r="P164" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q164">
+        <v>2.75</v>
+      </c>
+      <c r="R164">
+        <v>2.25</v>
+      </c>
+      <c r="S164">
+        <v>3.6</v>
+      </c>
+      <c r="T164">
+        <v>1.33</v>
+      </c>
+      <c r="U164">
+        <v>3.25</v>
+      </c>
+      <c r="V164">
+        <v>2.63</v>
+      </c>
+      <c r="W164">
+        <v>1.44</v>
+      </c>
+      <c r="X164">
+        <v>6.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.11</v>
+      </c>
+      <c r="Z164">
+        <v>2.1</v>
+      </c>
+      <c r="AA164">
+        <v>3.35</v>
+      </c>
+      <c r="AB164">
+        <v>2.9</v>
+      </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
+      <c r="AE164">
+        <v>2.19</v>
+      </c>
+      <c r="AF164">
+        <v>1.72</v>
+      </c>
+      <c r="AG164">
+        <v>1.91</v>
+      </c>
+      <c r="AH164">
+        <v>1.8</v>
+      </c>
+      <c r="AI164">
+        <v>1.62</v>
+      </c>
+      <c r="AJ164">
+        <v>2.2</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>2.25</v>
+      </c>
+      <c r="AO164">
+        <v>1.8</v>
+      </c>
+      <c r="AP164">
+        <v>2.4</v>
+      </c>
+      <c r="AQ164">
+        <v>1.5</v>
+      </c>
+      <c r="AR164">
+        <v>1.81</v>
+      </c>
+      <c r="AS164">
+        <v>1.54</v>
+      </c>
+      <c r="AT164">
+        <v>3.35</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>13</v>
+      </c>
+      <c r="AX164">
+        <v>10</v>
+      </c>
+      <c r="AY164">
+        <v>24</v>
+      </c>
+      <c r="AZ164">
+        <v>17</v>
+      </c>
+      <c r="BA164">
+        <v>7</v>
+      </c>
+      <c r="BB164">
+        <v>6</v>
+      </c>
+      <c r="BC164">
+        <v>13</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>0</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7781238</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45781.83333333334</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>91</v>
+      </c>
+      <c r="H165" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>156</v>
+      </c>
+      <c r="P165" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q165">
+        <v>2.5</v>
+      </c>
+      <c r="R165">
+        <v>2.38</v>
+      </c>
+      <c r="S165">
+        <v>3.75</v>
+      </c>
+      <c r="T165">
+        <v>1.29</v>
+      </c>
+      <c r="U165">
+        <v>3.5</v>
+      </c>
+      <c r="V165">
+        <v>2.38</v>
+      </c>
+      <c r="W165">
+        <v>1.53</v>
+      </c>
+      <c r="X165">
+        <v>5.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.14</v>
+      </c>
+      <c r="Z165">
+        <v>1.92</v>
+      </c>
+      <c r="AA165">
+        <v>3.41</v>
+      </c>
+      <c r="AB165">
+        <v>3.28</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <v>2.84</v>
+      </c>
+      <c r="AF165">
+        <v>1.45</v>
+      </c>
+      <c r="AG165">
+        <v>1.61</v>
+      </c>
+      <c r="AH165">
+        <v>2.23</v>
+      </c>
+      <c r="AI165">
+        <v>1.57</v>
+      </c>
+      <c r="AJ165">
+        <v>2.25</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>0.8</v>
+      </c>
+      <c r="AO165">
+        <v>0.4</v>
+      </c>
+      <c r="AP165">
+        <v>1.17</v>
+      </c>
+      <c r="AQ165">
+        <v>0.33</v>
+      </c>
+      <c r="AR165">
+        <v>1.6</v>
+      </c>
+      <c r="AS165">
+        <v>1.27</v>
+      </c>
+      <c r="AT165">
+        <v>2.87</v>
+      </c>
+      <c r="AU165">
+        <v>4</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>11</v>
+      </c>
+      <c r="AX165">
+        <v>7</v>
+      </c>
+      <c r="AY165">
+        <v>16</v>
+      </c>
+      <c r="AZ165">
+        <v>10</v>
+      </c>
+      <c r="BA165">
+        <v>1</v>
+      </c>
+      <c r="BB165">
+        <v>12</v>
+      </c>
+      <c r="BC165">
+        <v>13</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -33945,31 +33945,31 @@
         <v>3.14</v>
       </c>
       <c r="AU159">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV159">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW159">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX159">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY159">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ159">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA159">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB159">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC159">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD159">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,9 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['14', '86']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1251,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1719,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1922,7 +1925,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2334,7 +2337,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2540,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2746,7 +2749,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3158,7 +3161,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3982,7 +3985,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4188,7 +4191,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4394,7 +4397,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4681,7 +4684,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5012,7 +5015,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5424,7 +5427,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5630,7 +5633,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5836,7 +5839,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5914,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -6042,7 +6045,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6454,7 +6457,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7484,7 +7487,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7896,7 +7899,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8514,7 +8517,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8720,7 +8723,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9338,7 +9341,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9750,7 +9753,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10574,7 +10577,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10780,7 +10783,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10986,7 +10989,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11810,7 +11813,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12016,7 +12019,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12428,7 +12431,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13046,7 +13049,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13252,7 +13255,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13664,7 +13667,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13870,7 +13873,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13951,7 +13954,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ62">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14076,7 +14079,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14282,7 +14285,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14900,7 +14903,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15312,7 +15315,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15724,7 +15727,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15930,7 +15933,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16342,7 +16345,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16754,7 +16757,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17578,7 +17581,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17784,7 +17787,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17990,7 +17993,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18068,7 +18071,7 @@
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
         <v>0.25</v>
@@ -18608,7 +18611,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18814,7 +18817,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19020,7 +19023,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19638,7 +19641,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20256,7 +20259,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20874,7 +20877,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -22316,7 +22319,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22522,7 +22525,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22728,7 +22731,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23140,7 +23143,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23758,7 +23761,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23964,7 +23967,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24582,7 +24585,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24788,7 +24791,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25200,7 +25203,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25406,7 +25409,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25690,7 +25693,7 @@
         <v>3</v>
       </c>
       <c r="AP119">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119">
         <v>2.5</v>
@@ -25818,7 +25821,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26230,7 +26233,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26517,7 +26520,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ123">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR123">
         <v>1.84</v>
@@ -26642,7 +26645,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27672,7 +27675,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27750,7 +27753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27878,7 +27881,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28702,7 +28705,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28908,7 +28911,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29320,7 +29323,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -30019,7 +30022,7 @@
         <v>2</v>
       </c>
       <c r="AQ140">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR140">
         <v>1.89</v>
@@ -30144,7 +30147,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30350,7 +30353,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30968,7 +30971,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31174,7 +31177,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31380,7 +31383,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31586,7 +31589,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31792,7 +31795,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31998,7 +32001,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32204,7 +32207,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32410,7 +32413,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32616,7 +32619,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32822,7 +32825,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33028,7 +33031,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33234,7 +33237,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33518,7 +33521,7 @@
         <v>1.2</v>
       </c>
       <c r="AP157">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ157">
         <v>1.17</v>
@@ -33646,7 +33649,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34058,7 +34061,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34470,7 +34473,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34676,7 +34679,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35245,6 +35248,212 @@
       </c>
       <c r="BP165">
         <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7781239</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>90</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>214</v>
+      </c>
+      <c r="P166" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q166">
+        <v>2.6</v>
+      </c>
+      <c r="R166">
+        <v>2.5</v>
+      </c>
+      <c r="S166">
+        <v>3.5</v>
+      </c>
+      <c r="T166">
+        <v>1.25</v>
+      </c>
+      <c r="U166">
+        <v>3.75</v>
+      </c>
+      <c r="V166">
+        <v>2.2</v>
+      </c>
+      <c r="W166">
+        <v>1.62</v>
+      </c>
+      <c r="X166">
+        <v>5</v>
+      </c>
+      <c r="Y166">
+        <v>1.17</v>
+      </c>
+      <c r="Z166">
+        <v>2.03</v>
+      </c>
+      <c r="AA166">
+        <v>3.61</v>
+      </c>
+      <c r="AB166">
+        <v>2.86</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>1.1</v>
+      </c>
+      <c r="AF166">
+        <v>5.05</v>
+      </c>
+      <c r="AG166">
+        <v>1.67</v>
+      </c>
+      <c r="AH166">
+        <v>2.21</v>
+      </c>
+      <c r="AI166">
+        <v>1.44</v>
+      </c>
+      <c r="AJ166">
+        <v>2.63</v>
+      </c>
+      <c r="AK166">
+        <v>1.35</v>
+      </c>
+      <c r="AL166">
+        <v>1.26</v>
+      </c>
+      <c r="AM166">
+        <v>1.77</v>
+      </c>
+      <c r="AN166">
+        <v>0.8</v>
+      </c>
+      <c r="AO166">
+        <v>0.25</v>
+      </c>
+      <c r="AP166">
+        <v>1.17</v>
+      </c>
+      <c r="AQ166">
+        <v>0.2</v>
+      </c>
+      <c r="AR166">
+        <v>1.6</v>
+      </c>
+      <c r="AS166">
+        <v>1.43</v>
+      </c>
+      <c r="AT166">
+        <v>3.03</v>
+      </c>
+      <c r="AU166">
+        <v>-1</v>
+      </c>
+      <c r="AV166">
+        <v>-1</v>
+      </c>
+      <c r="AW166">
+        <v>-1</v>
+      </c>
+      <c r="AX166">
+        <v>-1</v>
+      </c>
+      <c r="AY166">
+        <v>-1</v>
+      </c>
+      <c r="AZ166">
+        <v>-1</v>
+      </c>
+      <c r="BA166">
+        <v>-1</v>
+      </c>
+      <c r="BB166">
+        <v>-1</v>
+      </c>
+      <c r="BC166">
+        <v>-1</v>
+      </c>
+      <c r="BD166">
+        <v>1.82</v>
+      </c>
+      <c r="BE166">
+        <v>6.5</v>
+      </c>
+      <c r="BF166">
+        <v>2.56</v>
+      </c>
+      <c r="BG166">
+        <v>1.25</v>
+      </c>
+      <c r="BH166">
+        <v>3.28</v>
+      </c>
+      <c r="BI166">
+        <v>1.49</v>
+      </c>
+      <c r="BJ166">
+        <v>2.38</v>
+      </c>
+      <c r="BK166">
+        <v>1.86</v>
+      </c>
+      <c r="BL166">
+        <v>1.84</v>
+      </c>
+      <c r="BM166">
+        <v>2.4</v>
+      </c>
+      <c r="BN166">
+        <v>1.48</v>
+      </c>
+      <c r="BO166">
+        <v>3.2</v>
+      </c>
+      <c r="BP166">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['14', '86']</t>
   </si>
   <si>
+    <t>['48', '66']</t>
+  </si>
+  <si>
+    <t>['32', '45+2', '68', '70']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -893,6 +899,9 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,7 +1728,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1925,7 +1934,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2337,7 +2346,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2543,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2749,7 +2758,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3161,7 +3170,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3985,7 +3994,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4191,7 +4200,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4397,7 +4406,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5015,7 +5024,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5427,7 +5436,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5633,7 +5642,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5839,7 +5848,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5920,7 +5929,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6045,7 +6054,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6329,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6457,7 +6466,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7487,7 +7496,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7568,7 +7577,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -7899,7 +7908,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8517,7 +8526,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8723,7 +8732,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9341,7 +9350,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9753,7 +9762,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10577,7 +10586,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10783,7 +10792,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10861,7 +10870,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10989,7 +10998,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11813,7 +11822,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12019,7 +12028,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12431,7 +12440,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13049,7 +13058,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13255,7 +13264,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13667,7 +13676,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13748,7 +13757,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.66</v>
@@ -13873,7 +13882,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14079,7 +14088,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14157,7 +14166,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
         <v>0.33</v>
@@ -14285,7 +14294,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14903,7 +14912,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14984,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15315,7 +15324,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15727,7 +15736,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15933,7 +15942,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16345,7 +16354,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16757,7 +16766,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17041,7 +17050,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77">
         <v>2.2</v>
@@ -17581,7 +17590,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17787,7 +17796,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17993,7 +18002,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18483,7 +18492,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18611,7 +18620,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18817,7 +18826,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19023,7 +19032,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19641,7 +19650,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20259,7 +20268,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20877,7 +20886,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -22319,7 +22328,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22525,7 +22534,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22606,7 +22615,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ104">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>1.95</v>
@@ -22731,7 +22740,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23015,7 +23024,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ106">
         <v>1.83</v>
@@ -23143,7 +23152,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23761,7 +23770,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23967,7 +23976,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24585,7 +24594,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24791,7 +24800,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25203,7 +25212,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25409,7 +25418,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25696,7 +25705,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR119">
         <v>0.98</v>
@@ -25821,7 +25830,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26233,7 +26242,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26314,7 +26323,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR122">
         <v>1.93</v>
@@ -26645,7 +26654,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26726,7 +26735,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ124">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR124">
         <v>1.48</v>
@@ -27675,7 +27684,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27881,7 +27890,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28165,7 +28174,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ131">
         <v>1.71</v>
@@ -28705,7 +28714,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28911,7 +28920,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29323,7 +29332,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29401,7 +29410,7 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ137">
         <v>0.83</v>
@@ -29816,7 +29825,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ139">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30147,7 +30156,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30353,7 +30362,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30971,7 +30980,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31177,7 +31186,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31383,7 +31392,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31461,7 +31470,7 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ147">
         <v>2.2</v>
@@ -31589,7 +31598,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31795,7 +31804,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32001,7 +32010,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32207,7 +32216,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32413,7 +32422,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32491,7 +32500,7 @@
         <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ152">
         <v>1.67</v>
@@ -32619,7 +32628,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32825,7 +32834,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33031,7 +33040,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33237,7 +33246,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33649,7 +33658,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34061,7 +34070,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34473,7 +34482,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34679,7 +34688,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35390,31 +35399,31 @@
         <v>3.03</v>
       </c>
       <c r="AU166">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV166">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW166">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX166">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY166">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ166">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA166">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC166">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD166">
         <v>1.82</v>
@@ -35454,6 +35463,418 @@
       </c>
       <c r="BP166">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7781241</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45787.72916666666</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>98</v>
+      </c>
+      <c r="H167" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>215</v>
+      </c>
+      <c r="P167" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>2.25</v>
+      </c>
+      <c r="S167">
+        <v>3.4</v>
+      </c>
+      <c r="T167">
+        <v>1.33</v>
+      </c>
+      <c r="U167">
+        <v>3.25</v>
+      </c>
+      <c r="V167">
+        <v>2.63</v>
+      </c>
+      <c r="W167">
+        <v>1.44</v>
+      </c>
+      <c r="X167">
+        <v>7</v>
+      </c>
+      <c r="Y167">
+        <v>1.1</v>
+      </c>
+      <c r="Z167">
+        <v>2.2</v>
+      </c>
+      <c r="AA167">
+        <v>3.34</v>
+      </c>
+      <c r="AB167">
+        <v>2.74</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>0</v>
+      </c>
+      <c r="AE167">
+        <v>1.23</v>
+      </c>
+      <c r="AF167">
+        <v>3.55</v>
+      </c>
+      <c r="AG167">
+        <v>1.8</v>
+      </c>
+      <c r="AH167">
+        <v>1.9</v>
+      </c>
+      <c r="AI167">
+        <v>1.67</v>
+      </c>
+      <c r="AJ167">
+        <v>2.1</v>
+      </c>
+      <c r="AK167">
+        <v>1.41</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.6</v>
+      </c>
+      <c r="AN167">
+        <v>0.4</v>
+      </c>
+      <c r="AO167">
+        <v>0.8</v>
+      </c>
+      <c r="AP167">
+        <v>0.83</v>
+      </c>
+      <c r="AQ167">
+        <v>0.67</v>
+      </c>
+      <c r="AR167">
+        <v>1.25</v>
+      </c>
+      <c r="AS167">
+        <v>1.85</v>
+      </c>
+      <c r="AT167">
+        <v>3.1</v>
+      </c>
+      <c r="AU167">
+        <v>10</v>
+      </c>
+      <c r="AV167">
+        <v>8</v>
+      </c>
+      <c r="AW167">
+        <v>11</v>
+      </c>
+      <c r="AX167">
+        <v>8</v>
+      </c>
+      <c r="AY167">
+        <v>23</v>
+      </c>
+      <c r="AZ167">
+        <v>16</v>
+      </c>
+      <c r="BA167">
+        <v>4</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>9</v>
+      </c>
+      <c r="BD167">
+        <v>2.13</v>
+      </c>
+      <c r="BE167">
+        <v>6.45</v>
+      </c>
+      <c r="BF167">
+        <v>2.13</v>
+      </c>
+      <c r="BG167">
+        <v>1.21</v>
+      </c>
+      <c r="BH167">
+        <v>3.58</v>
+      </c>
+      <c r="BI167">
+        <v>1.43</v>
+      </c>
+      <c r="BJ167">
+        <v>2.54</v>
+      </c>
+      <c r="BK167">
+        <v>1.77</v>
+      </c>
+      <c r="BL167">
+        <v>1.94</v>
+      </c>
+      <c r="BM167">
+        <v>2.23</v>
+      </c>
+      <c r="BN167">
+        <v>1.55</v>
+      </c>
+      <c r="BO167">
+        <v>2.97</v>
+      </c>
+      <c r="BP167">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7781240</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45787.72916666666</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>92</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>216</v>
+      </c>
+      <c r="P168" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q168">
+        <v>2.75</v>
+      </c>
+      <c r="R168">
+        <v>2.3</v>
+      </c>
+      <c r="S168">
+        <v>3.4</v>
+      </c>
+      <c r="T168">
+        <v>1.3</v>
+      </c>
+      <c r="U168">
+        <v>3.4</v>
+      </c>
+      <c r="V168">
+        <v>2.5</v>
+      </c>
+      <c r="W168">
+        <v>1.5</v>
+      </c>
+      <c r="X168">
+        <v>6</v>
+      </c>
+      <c r="Y168">
+        <v>1.13</v>
+      </c>
+      <c r="Z168">
+        <v>2.14</v>
+      </c>
+      <c r="AA168">
+        <v>3.5</v>
+      </c>
+      <c r="AB168">
+        <v>2.74</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>1.16</v>
+      </c>
+      <c r="AF168">
+        <v>4.25</v>
+      </c>
+      <c r="AG168">
+        <v>1.65</v>
+      </c>
+      <c r="AH168">
+        <v>2.15</v>
+      </c>
+      <c r="AI168">
+        <v>1.57</v>
+      </c>
+      <c r="AJ168">
+        <v>2.25</v>
+      </c>
+      <c r="AK168">
+        <v>1.41</v>
+      </c>
+      <c r="AL168">
+        <v>1.28</v>
+      </c>
+      <c r="AM168">
+        <v>1.64</v>
+      </c>
+      <c r="AN168">
+        <v>1.6</v>
+      </c>
+      <c r="AO168">
+        <v>2.5</v>
+      </c>
+      <c r="AP168">
+        <v>1.83</v>
+      </c>
+      <c r="AQ168">
+        <v>2</v>
+      </c>
+      <c r="AR168">
+        <v>1.76</v>
+      </c>
+      <c r="AS168">
+        <v>1.2</v>
+      </c>
+      <c r="AT168">
+        <v>2.96</v>
+      </c>
+      <c r="AU168">
+        <v>8</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>2</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>2</v>
+      </c>
+      <c r="BB168">
+        <v>11</v>
+      </c>
+      <c r="BC168">
+        <v>13</v>
+      </c>
+      <c r="BD168">
+        <v>1.87</v>
+      </c>
+      <c r="BE168">
+        <v>8.6</v>
+      </c>
+      <c r="BF168">
+        <v>2.26</v>
+      </c>
+      <c r="BG168">
+        <v>1.17</v>
+      </c>
+      <c r="BH168">
+        <v>4.05</v>
+      </c>
+      <c r="BI168">
+        <v>1.34</v>
+      </c>
+      <c r="BJ168">
+        <v>2.78</v>
+      </c>
+      <c r="BK168">
+        <v>1.63</v>
+      </c>
+      <c r="BL168">
+        <v>2.09</v>
+      </c>
+      <c r="BM168">
+        <v>2.07</v>
+      </c>
+      <c r="BN168">
+        <v>1.67</v>
+      </c>
+      <c r="BO168">
+        <v>2.67</v>
+      </c>
+      <c r="BP168">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['32', '45+2', '68', '70']</t>
   </si>
   <si>
+    <t>['45', '64']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -902,6 +905,9 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['61', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1734,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1934,7 +1940,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2015,7 +2021,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2346,7 +2352,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2552,7 +2558,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2758,7 +2764,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3170,7 +3176,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3994,7 +4000,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4200,7 +4206,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4406,7 +4412,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5024,7 +5030,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5105,7 +5111,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5436,7 +5442,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5642,7 +5648,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5720,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5848,7 +5854,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6054,7 +6060,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6341,7 +6347,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6466,7 +6472,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7496,7 +7502,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7908,7 +7914,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8526,7 +8532,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8732,7 +8738,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9016,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9350,7 +9356,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9762,7 +9768,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10049,7 +10055,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43">
         <v>1.87</v>
@@ -10586,7 +10592,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10792,7 +10798,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10998,7 +11004,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11697,7 +11703,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11822,7 +11828,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11900,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -12028,7 +12034,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12440,7 +12446,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12933,7 +12939,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR57">
         <v>1.55</v>
@@ -13058,7 +13064,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13264,7 +13270,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13342,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>0.8</v>
@@ -13676,7 +13682,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13882,7 +13888,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14088,7 +14094,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14294,7 +14300,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14912,7 +14918,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15196,7 +15202,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.83</v>
@@ -15324,7 +15330,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15611,7 +15617,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
         <v>1.96</v>
@@ -15736,7 +15742,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15942,7 +15948,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16354,7 +16360,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16766,7 +16772,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17590,7 +17596,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17671,7 +17677,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17796,7 +17802,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18002,7 +18008,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18083,7 +18089,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18620,7 +18626,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18826,7 +18832,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19032,7 +19038,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19650,7 +19656,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20268,7 +20274,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20552,7 +20558,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20886,7 +20892,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20967,7 +20973,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>2.09</v>
@@ -22328,7 +22334,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22406,7 +22412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1.83</v>
@@ -22534,7 +22540,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22740,7 +22746,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23152,7 +23158,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23770,7 +23776,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23976,7 +23982,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24260,7 +24266,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>1.8</v>
@@ -24594,7 +24600,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24800,7 +24806,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25212,7 +25218,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25418,7 +25424,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25830,7 +25836,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -25911,7 +25917,7 @@
         <v>1</v>
       </c>
       <c r="AQ120">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26242,7 +26248,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26526,7 +26532,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>0.2</v>
@@ -26654,7 +26660,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27684,7 +27690,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27890,7 +27896,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28714,7 +28720,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28920,7 +28926,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29332,7 +29338,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29619,7 +29625,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ138">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
         <v>1.51</v>
@@ -29822,7 +29828,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
         <v>0.67</v>
@@ -30156,7 +30162,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30362,7 +30368,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30980,7 +30986,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31186,7 +31192,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31392,7 +31398,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31598,7 +31604,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31804,7 +31810,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32010,7 +32016,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32216,7 +32222,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32422,7 +32428,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32628,7 +32634,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32834,7 +32840,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33040,7 +33046,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33246,7 +33252,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33658,7 +33664,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34070,7 +34076,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34482,7 +34488,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34688,7 +34694,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -34972,7 +34978,7 @@
         <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
         <v>1.5</v>
@@ -35718,7 +35724,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35875,6 +35881,418 @@
       </c>
       <c r="BP168">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7781244</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45787.85416666666</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>96</v>
+      </c>
+      <c r="H169" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>109</v>
+      </c>
+      <c r="P169" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q169">
+        <v>2.25</v>
+      </c>
+      <c r="R169">
+        <v>2.25</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>7</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>1.65</v>
+      </c>
+      <c r="AA169">
+        <v>3.59</v>
+      </c>
+      <c r="AB169">
+        <v>4.2</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+      <c r="AD169">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE169">
+        <v>1.26</v>
+      </c>
+      <c r="AF169">
+        <v>3.32</v>
+      </c>
+      <c r="AG169">
+        <v>1.85</v>
+      </c>
+      <c r="AH169">
+        <v>1.85</v>
+      </c>
+      <c r="AI169">
+        <v>1.8</v>
+      </c>
+      <c r="AJ169">
+        <v>1.95</v>
+      </c>
+      <c r="AK169">
+        <v>1.19</v>
+      </c>
+      <c r="AL169">
+        <v>1.27</v>
+      </c>
+      <c r="AM169">
+        <v>2.12</v>
+      </c>
+      <c r="AN169">
+        <v>2.4</v>
+      </c>
+      <c r="AO169">
+        <v>0.25</v>
+      </c>
+      <c r="AP169">
+        <v>2</v>
+      </c>
+      <c r="AQ169">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR169">
+        <v>1.87</v>
+      </c>
+      <c r="AS169">
+        <v>1.24</v>
+      </c>
+      <c r="AT169">
+        <v>3.11</v>
+      </c>
+      <c r="AU169">
+        <v>-1</v>
+      </c>
+      <c r="AV169">
+        <v>-1</v>
+      </c>
+      <c r="AW169">
+        <v>-1</v>
+      </c>
+      <c r="AX169">
+        <v>-1</v>
+      </c>
+      <c r="AY169">
+        <v>-1</v>
+      </c>
+      <c r="AZ169">
+        <v>-1</v>
+      </c>
+      <c r="BA169">
+        <v>-1</v>
+      </c>
+      <c r="BB169">
+        <v>-1</v>
+      </c>
+      <c r="BC169">
+        <v>-1</v>
+      </c>
+      <c r="BD169">
+        <v>1.6</v>
+      </c>
+      <c r="BE169">
+        <v>9</v>
+      </c>
+      <c r="BF169">
+        <v>2.8</v>
+      </c>
+      <c r="BG169">
+        <v>1.19</v>
+      </c>
+      <c r="BH169">
+        <v>3.74</v>
+      </c>
+      <c r="BI169">
+        <v>1.4</v>
+      </c>
+      <c r="BJ169">
+        <v>2.64</v>
+      </c>
+      <c r="BK169">
+        <v>1.72</v>
+      </c>
+      <c r="BL169">
+        <v>2</v>
+      </c>
+      <c r="BM169">
+        <v>2.15</v>
+      </c>
+      <c r="BN169">
+        <v>1.59</v>
+      </c>
+      <c r="BO169">
+        <v>2.83</v>
+      </c>
+      <c r="BP169">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7781246</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45787.85416666666</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>89</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>217</v>
+      </c>
+      <c r="P170" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q170">
+        <v>3</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>3.25</v>
+      </c>
+      <c r="T170">
+        <v>1.33</v>
+      </c>
+      <c r="U170">
+        <v>3.25</v>
+      </c>
+      <c r="V170">
+        <v>2.5</v>
+      </c>
+      <c r="W170">
+        <v>1.5</v>
+      </c>
+      <c r="X170">
+        <v>6.5</v>
+      </c>
+      <c r="Y170">
+        <v>1.11</v>
+      </c>
+      <c r="Z170">
+        <v>2.27</v>
+      </c>
+      <c r="AA170">
+        <v>3.15</v>
+      </c>
+      <c r="AB170">
+        <v>2.77</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>1.18</v>
+      </c>
+      <c r="AF170">
+        <v>4.05</v>
+      </c>
+      <c r="AG170">
+        <v>1.73</v>
+      </c>
+      <c r="AH170">
+        <v>2</v>
+      </c>
+      <c r="AI170">
+        <v>1.62</v>
+      </c>
+      <c r="AJ170">
+        <v>2.2</v>
+      </c>
+      <c r="AK170">
+        <v>1.42</v>
+      </c>
+      <c r="AL170">
+        <v>1.28</v>
+      </c>
+      <c r="AM170">
+        <v>1.61</v>
+      </c>
+      <c r="AN170">
+        <v>2.17</v>
+      </c>
+      <c r="AO170">
+        <v>2.5</v>
+      </c>
+      <c r="AP170">
+        <v>2</v>
+      </c>
+      <c r="AQ170">
+        <v>2.2</v>
+      </c>
+      <c r="AR170">
+        <v>1.68</v>
+      </c>
+      <c r="AS170">
+        <v>1.34</v>
+      </c>
+      <c r="AT170">
+        <v>3.02</v>
+      </c>
+      <c r="AU170">
+        <v>-1</v>
+      </c>
+      <c r="AV170">
+        <v>-1</v>
+      </c>
+      <c r="AW170">
+        <v>-1</v>
+      </c>
+      <c r="AX170">
+        <v>-1</v>
+      </c>
+      <c r="AY170">
+        <v>-1</v>
+      </c>
+      <c r="AZ170">
+        <v>-1</v>
+      </c>
+      <c r="BA170">
+        <v>-1</v>
+      </c>
+      <c r="BB170">
+        <v>-1</v>
+      </c>
+      <c r="BC170">
+        <v>-1</v>
+      </c>
+      <c r="BD170">
+        <v>1.72</v>
+      </c>
+      <c r="BE170">
+        <v>8.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.54</v>
+      </c>
+      <c r="BG170">
+        <v>1.25</v>
+      </c>
+      <c r="BH170">
+        <v>3.28</v>
+      </c>
+      <c r="BI170">
+        <v>1.48</v>
+      </c>
+      <c r="BJ170">
+        <v>2.4</v>
+      </c>
+      <c r="BK170">
+        <v>1.85</v>
+      </c>
+      <c r="BL170">
+        <v>1.85</v>
+      </c>
+      <c r="BM170">
+        <v>2.38</v>
+      </c>
+      <c r="BN170">
+        <v>1.49</v>
+      </c>
+      <c r="BO170">
+        <v>3.14</v>
+      </c>
+      <c r="BP170">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,7 +667,22 @@
     <t>['32', '45+2', '68', '70']</t>
   </si>
   <si>
+    <t>['12', '76']</t>
+  </si>
+  <si>
+    <t>['7', '16', '31', '50', '68', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['24', '33', '55']</t>
+  </si>
+  <si>
     <t>['45', '64']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
   <si>
     <t>['26', '55']</t>
@@ -721,9 +736,6 @@
     <t>['37', '90+2']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['76', '90+7']</t>
   </si>
   <si>
@@ -767,9 +779,6 @@
   </si>
   <si>
     <t>['77']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['18', '54']</t>
@@ -907,7 +916,19 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['38', '44', '85']</t>
+  </si>
+  <si>
     <t>['61', '90+3']</t>
+  </si>
+  <si>
+    <t>['79', '87']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['22', '46', '58']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1734,7 +1755,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1940,7 +1961,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2224,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5">
         <v>0.4</v>
@@ -2352,7 +2373,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2558,7 +2579,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2764,7 +2785,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2842,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>1.8</v>
@@ -3176,7 +3197,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3254,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.71</v>
@@ -3460,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3666,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -4000,7 +4021,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4081,7 +4102,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4206,7 +4227,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4412,7 +4433,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4493,7 +4514,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4905,7 +4926,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5030,7 +5051,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5314,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5442,7 +5463,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5520,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21">
         <v>0.83</v>
@@ -5648,7 +5669,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5854,7 +5875,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6060,7 +6081,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6472,7 +6493,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6965,7 +6986,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
@@ -7377,7 +7398,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7502,7 +7523,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7580,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7914,7 +7935,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8404,7 +8425,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8532,7 +8553,7 @@
         <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8738,7 +8759,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9356,7 +9377,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9434,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9640,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41">
         <v>1.67</v>
@@ -9768,7 +9789,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -9849,7 +9870,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10467,7 +10488,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -10592,7 +10613,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10798,7 +10819,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11004,7 +11025,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11082,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11291,7 +11312,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11828,7 +11849,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11909,7 +11930,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -12034,7 +12055,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12318,7 +12339,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
         <v>2.2</v>
@@ -12446,7 +12467,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12524,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12730,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
         <v>2.14</v>
@@ -13064,7 +13085,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13270,7 +13291,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13557,7 +13578,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR60">
         <v>0.9399999999999999</v>
@@ -13682,7 +13703,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13888,7 +13909,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13966,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
         <v>0.2</v>
@@ -14094,7 +14115,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14175,7 +14196,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14300,7 +14321,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14790,7 +14811,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14918,7 +14939,7 @@
         <v>148</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14996,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -15330,7 +15351,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15614,7 +15635,7 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>0.5600000000000001</v>
@@ -15742,7 +15763,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15948,7 +15969,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16360,7 +16381,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16647,7 +16668,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.74</v>
@@ -16772,7 +16793,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17265,7 +17286,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17596,7 +17617,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17802,7 +17823,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18008,7 +18029,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18292,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18626,7 +18647,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18704,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18832,7 +18853,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19038,7 +19059,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19325,7 +19346,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -19528,10 +19549,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ89">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.83</v>
@@ -19656,7 +19677,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20149,7 +20170,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ92">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20274,7 +20295,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20764,10 +20785,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -20892,7 +20913,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21176,7 +21197,7 @@
         <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97">
         <v>1.5</v>
@@ -21794,7 +21815,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>0.8</v>
@@ -22209,7 +22230,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -22334,7 +22355,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22540,7 +22561,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22746,7 +22767,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23158,7 +23179,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23239,7 +23260,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23442,7 +23463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ108">
         <v>0.4</v>
@@ -23651,7 +23672,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ109">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -23776,7 +23797,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23857,7 +23878,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.84</v>
@@ -23982,7 +24003,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24472,10 +24493,10 @@
         <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR113">
         <v>1.19</v>
@@ -24600,7 +24621,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24678,7 +24699,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24806,7 +24827,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24887,7 +24908,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ115">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25218,7 +25239,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25424,7 +25445,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25836,7 +25857,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -25914,7 +25935,7 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ120">
         <v>2.2</v>
@@ -26123,7 +26144,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26248,7 +26269,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26660,7 +26681,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26738,7 +26759,7 @@
         <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
         <v>0.67</v>
@@ -27359,7 +27380,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ127">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.53</v>
@@ -27690,7 +27711,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27896,7 +27917,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27974,7 +27995,7 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
         <v>1.33</v>
@@ -28386,7 +28407,7 @@
         <v>2.33</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ132">
         <v>2.2</v>
@@ -28720,7 +28741,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28926,7 +28947,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29210,7 +29231,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ136">
         <v>0.6</v>
@@ -29338,7 +29359,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29622,7 +29643,7 @@
         <v>0.29</v>
       </c>
       <c r="AP138">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ138">
         <v>0.5600000000000001</v>
@@ -30034,7 +30055,7 @@
         <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ140">
         <v>0.2</v>
@@ -30162,7 +30183,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30368,7 +30389,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30449,7 +30470,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -30858,10 +30879,10 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.61</v>
@@ -30986,7 +31007,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31064,7 +31085,7 @@
         <v>1.8</v>
       </c>
       <c r="AP145">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ145">
         <v>1.5</v>
@@ -31192,7 +31213,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31273,7 +31294,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR146">
         <v>1.83</v>
@@ -31398,7 +31419,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31604,7 +31625,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31810,7 +31831,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32016,7 +32037,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32222,7 +32243,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32428,7 +32449,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32509,7 +32530,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ152">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR152">
         <v>1.12</v>
@@ -32634,7 +32655,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32840,7 +32861,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -32921,7 +32942,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR154">
         <v>1.65</v>
@@ -33046,7 +33067,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33252,7 +33273,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33664,7 +33685,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34076,7 +34097,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34488,7 +34509,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34694,7 +34715,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35187,7 +35208,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR165">
         <v>1.6</v>
@@ -35724,7 +35745,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35888,7 +35909,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7781244</v>
+        <v>7781242</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35903,43 +35924,43 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H169" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <v>1</v>
       </c>
       <c r="N169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q169">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R169">
         <v>2.25</v>
       </c>
       <c r="S169">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T169">
         <v>1.36</v>
@@ -35948,10 +35969,10 @@
         <v>3</v>
       </c>
       <c r="V169">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W169">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X169">
         <v>7</v>
@@ -35960,31 +35981,31 @@
         <v>1.1</v>
       </c>
       <c r="Z169">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AA169">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="AB169">
-        <v>4.2</v>
+        <v>3.84</v>
       </c>
       <c r="AC169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD169">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE169">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AF169">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="AG169">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AH169">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AI169">
         <v>1.8</v>
@@ -35993,70 +36014,70 @@
         <v>1.95</v>
       </c>
       <c r="AK169">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AL169">
         <v>1.27</v>
       </c>
       <c r="AM169">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AN169">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AO169">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AQ169">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS169">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT169">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="AU169">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV169">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW169">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX169">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY169">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ169">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA169">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC169">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD169">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="BE169">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF169">
-        <v>2.8</v>
+        <v>3.38</v>
       </c>
       <c r="BG169">
         <v>1.19</v>
@@ -36094,7 +36115,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7781246</v>
+        <v>7781243</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36109,43 +36130,43 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H170" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O170" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="Q170">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="R170">
         <v>2.3</v>
       </c>
       <c r="S170">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="T170">
         <v>1.33</v>
@@ -36154,10 +36175,10 @@
         <v>3.25</v>
       </c>
       <c r="V170">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W170">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X170">
         <v>6.5</v>
@@ -36166,13 +36187,13 @@
         <v>1.11</v>
       </c>
       <c r="Z170">
-        <v>2.27</v>
+        <v>1.76</v>
       </c>
       <c r="AA170">
-        <v>3.15</v>
+        <v>3.61</v>
       </c>
       <c r="AB170">
-        <v>2.77</v>
+        <v>3.64</v>
       </c>
       <c r="AC170">
         <v>0</v>
@@ -36181,118 +36202,1560 @@
         <v>0</v>
       </c>
       <c r="AE170">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AF170">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AG170">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AH170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI170">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ170">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK170">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AL170">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AM170">
-        <v>1.61</v>
+        <v>2.03</v>
       </c>
       <c r="AN170">
         <v>2.17</v>
       </c>
       <c r="AO170">
+        <v>0.33</v>
+      </c>
+      <c r="AP170">
+        <v>2.29</v>
+      </c>
+      <c r="AQ170">
+        <v>0.29</v>
+      </c>
+      <c r="AR170">
+        <v>1.49</v>
+      </c>
+      <c r="AS170">
+        <v>1.23</v>
+      </c>
+      <c r="AT170">
+        <v>2.72</v>
+      </c>
+      <c r="AU170">
+        <v>11</v>
+      </c>
+      <c r="AV170">
+        <v>7</v>
+      </c>
+      <c r="AW170">
+        <v>12</v>
+      </c>
+      <c r="AX170">
+        <v>11</v>
+      </c>
+      <c r="AY170">
+        <v>26</v>
+      </c>
+      <c r="AZ170">
+        <v>22</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>6</v>
+      </c>
+      <c r="BC170">
+        <v>8</v>
+      </c>
+      <c r="BD170">
+        <v>1.71</v>
+      </c>
+      <c r="BE170">
+        <v>8.6</v>
+      </c>
+      <c r="BF170">
+        <v>2.55</v>
+      </c>
+      <c r="BG170">
+        <v>1.23</v>
+      </c>
+      <c r="BH170">
+        <v>3.42</v>
+      </c>
+      <c r="BI170">
+        <v>1.46</v>
+      </c>
+      <c r="BJ170">
+        <v>2.45</v>
+      </c>
+      <c r="BK170">
+        <v>1.81</v>
+      </c>
+      <c r="BL170">
+        <v>1.89</v>
+      </c>
+      <c r="BM170">
+        <v>2.3</v>
+      </c>
+      <c r="BN170">
+        <v>1.52</v>
+      </c>
+      <c r="BO170">
+        <v>3.05</v>
+      </c>
+      <c r="BP170">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7781244</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45787.85416666666</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>96</v>
+      </c>
+      <c r="H171" t="s">
+        <v>99</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>109</v>
+      </c>
+      <c r="P171" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q171">
+        <v>2.25</v>
+      </c>
+      <c r="R171">
+        <v>2.25</v>
+      </c>
+      <c r="S171">
+        <v>5</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.65</v>
+      </c>
+      <c r="AA171">
+        <v>3.59</v>
+      </c>
+      <c r="AB171">
+        <v>4.2</v>
+      </c>
+      <c r="AC171">
+        <v>1</v>
+      </c>
+      <c r="AD171">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE171">
+        <v>1.26</v>
+      </c>
+      <c r="AF171">
+        <v>3.32</v>
+      </c>
+      <c r="AG171">
+        <v>1.85</v>
+      </c>
+      <c r="AH171">
+        <v>1.85</v>
+      </c>
+      <c r="AI171">
+        <v>1.8</v>
+      </c>
+      <c r="AJ171">
+        <v>1.95</v>
+      </c>
+      <c r="AK171">
+        <v>1.19</v>
+      </c>
+      <c r="AL171">
+        <v>1.27</v>
+      </c>
+      <c r="AM171">
+        <v>2.12</v>
+      </c>
+      <c r="AN171">
+        <v>2.4</v>
+      </c>
+      <c r="AO171">
+        <v>0.25</v>
+      </c>
+      <c r="AP171">
+        <v>2</v>
+      </c>
+      <c r="AQ171">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR171">
+        <v>1.87</v>
+      </c>
+      <c r="AS171">
+        <v>1.24</v>
+      </c>
+      <c r="AT171">
+        <v>3.11</v>
+      </c>
+      <c r="AU171">
+        <v>3</v>
+      </c>
+      <c r="AV171">
+        <v>8</v>
+      </c>
+      <c r="AW171">
+        <v>7</v>
+      </c>
+      <c r="AX171">
+        <v>13</v>
+      </c>
+      <c r="AY171">
+        <v>12</v>
+      </c>
+      <c r="AZ171">
+        <v>22</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>11</v>
+      </c>
+      <c r="BC171">
+        <v>14</v>
+      </c>
+      <c r="BD171">
+        <v>1.6</v>
+      </c>
+      <c r="BE171">
+        <v>9</v>
+      </c>
+      <c r="BF171">
+        <v>2.8</v>
+      </c>
+      <c r="BG171">
+        <v>1.19</v>
+      </c>
+      <c r="BH171">
+        <v>3.74</v>
+      </c>
+      <c r="BI171">
+        <v>1.4</v>
+      </c>
+      <c r="BJ171">
+        <v>2.64</v>
+      </c>
+      <c r="BK171">
+        <v>1.72</v>
+      </c>
+      <c r="BL171">
+        <v>2</v>
+      </c>
+      <c r="BM171">
+        <v>2.15</v>
+      </c>
+      <c r="BN171">
+        <v>1.59</v>
+      </c>
+      <c r="BO171">
+        <v>2.83</v>
+      </c>
+      <c r="BP171">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7781245</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45787.85416666666</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>87</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>2</v>
+      </c>
+      <c r="K172">
+        <v>4</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>6</v>
+      </c>
+      <c r="O172" t="s">
+        <v>219</v>
+      </c>
+      <c r="P172" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q172">
+        <v>2.2</v>
+      </c>
+      <c r="R172">
+        <v>2.38</v>
+      </c>
+      <c r="S172">
+        <v>5.5</v>
+      </c>
+      <c r="T172">
+        <v>1.33</v>
+      </c>
+      <c r="U172">
+        <v>3.25</v>
+      </c>
+      <c r="V172">
+        <v>2.63</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>6.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.11</v>
+      </c>
+      <c r="Z172">
+        <v>1.56</v>
+      </c>
+      <c r="AA172">
+        <v>3.74</v>
+      </c>
+      <c r="AB172">
+        <v>4.7</v>
+      </c>
+      <c r="AC172">
+        <v>0</v>
+      </c>
+      <c r="AD172">
+        <v>0</v>
+      </c>
+      <c r="AE172">
+        <v>1.19</v>
+      </c>
+      <c r="AF172">
+        <v>3.92</v>
+      </c>
+      <c r="AG172">
+        <v>1.73</v>
+      </c>
+      <c r="AH172">
+        <v>2</v>
+      </c>
+      <c r="AI172">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172">
+        <v>1.95</v>
+      </c>
+      <c r="AK172">
+        <v>1.16</v>
+      </c>
+      <c r="AL172">
+        <v>1.23</v>
+      </c>
+      <c r="AM172">
+        <v>2.3</v>
+      </c>
+      <c r="AN172">
+        <v>2</v>
+      </c>
+      <c r="AO172">
+        <v>1.67</v>
+      </c>
+      <c r="AP172">
+        <v>1.83</v>
+      </c>
+      <c r="AQ172">
+        <v>1.57</v>
+      </c>
+      <c r="AR172">
+        <v>1.89</v>
+      </c>
+      <c r="AS172">
+        <v>1.33</v>
+      </c>
+      <c r="AT172">
+        <v>3.22</v>
+      </c>
+      <c r="AU172">
+        <v>9</v>
+      </c>
+      <c r="AV172">
+        <v>7</v>
+      </c>
+      <c r="AW172">
+        <v>14</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>26</v>
+      </c>
+      <c r="AZ172">
+        <v>15</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>9</v>
+      </c>
+      <c r="BD172">
+        <v>1.49</v>
+      </c>
+      <c r="BE172">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF172">
+        <v>3.18</v>
+      </c>
+      <c r="BG172">
+        <v>1.18</v>
+      </c>
+      <c r="BH172">
+        <v>3.9</v>
+      </c>
+      <c r="BI172">
+        <v>1.36</v>
+      </c>
+      <c r="BJ172">
+        <v>2.7</v>
+      </c>
+      <c r="BK172">
+        <v>1.66</v>
+      </c>
+      <c r="BL172">
+        <v>2.04</v>
+      </c>
+      <c r="BM172">
+        <v>2.11</v>
+      </c>
+      <c r="BN172">
+        <v>1.65</v>
+      </c>
+      <c r="BO172">
+        <v>2.75</v>
+      </c>
+      <c r="BP172">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7781246</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45787.85416666666</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>220</v>
+      </c>
+      <c r="P173" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2.3</v>
+      </c>
+      <c r="S173">
+        <v>3.25</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3.25</v>
+      </c>
+      <c r="V173">
         <v>2.5</v>
       </c>
-      <c r="AP170">
-        <v>2</v>
-      </c>
-      <c r="AQ170">
+      <c r="W173">
+        <v>1.5</v>
+      </c>
+      <c r="X173">
+        <v>6.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.11</v>
+      </c>
+      <c r="Z173">
+        <v>2.27</v>
+      </c>
+      <c r="AA173">
+        <v>3.15</v>
+      </c>
+      <c r="AB173">
+        <v>2.77</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+      <c r="AD173">
+        <v>0</v>
+      </c>
+      <c r="AE173">
+        <v>1.18</v>
+      </c>
+      <c r="AF173">
+        <v>4.05</v>
+      </c>
+      <c r="AG173">
+        <v>1.73</v>
+      </c>
+      <c r="AH173">
+        <v>2</v>
+      </c>
+      <c r="AI173">
+        <v>1.62</v>
+      </c>
+      <c r="AJ173">
         <v>2.2</v>
       </c>
-      <c r="AR170">
+      <c r="AK173">
+        <v>1.42</v>
+      </c>
+      <c r="AL173">
+        <v>1.28</v>
+      </c>
+      <c r="AM173">
+        <v>1.61</v>
+      </c>
+      <c r="AN173">
+        <v>2.17</v>
+      </c>
+      <c r="AO173">
+        <v>2.5</v>
+      </c>
+      <c r="AP173">
+        <v>2</v>
+      </c>
+      <c r="AQ173">
+        <v>2.2</v>
+      </c>
+      <c r="AR173">
         <v>1.68</v>
       </c>
-      <c r="AS170">
+      <c r="AS173">
         <v>1.34</v>
       </c>
-      <c r="AT170">
+      <c r="AT173">
         <v>3.02</v>
       </c>
-      <c r="AU170">
+      <c r="AU173">
+        <v>8</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>10</v>
+      </c>
+      <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>21</v>
+      </c>
+      <c r="AZ173">
+        <v>13</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>8</v>
+      </c>
+      <c r="BD173">
+        <v>1.72</v>
+      </c>
+      <c r="BE173">
+        <v>8.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.54</v>
+      </c>
+      <c r="BG173">
+        <v>1.25</v>
+      </c>
+      <c r="BH173">
+        <v>3.28</v>
+      </c>
+      <c r="BI173">
+        <v>1.48</v>
+      </c>
+      <c r="BJ173">
+        <v>2.4</v>
+      </c>
+      <c r="BK173">
+        <v>1.85</v>
+      </c>
+      <c r="BL173">
+        <v>1.85</v>
+      </c>
+      <c r="BM173">
+        <v>2.38</v>
+      </c>
+      <c r="BN173">
+        <v>1.49</v>
+      </c>
+      <c r="BO173">
+        <v>3.14</v>
+      </c>
+      <c r="BP173">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7781250</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45787.89583333334</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>80</v>
+      </c>
+      <c r="H174" t="s">
+        <v>94</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>221</v>
+      </c>
+      <c r="P174" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>2.43</v>
+      </c>
+      <c r="AA174">
+        <v>3.45</v>
+      </c>
+      <c r="AB174">
+        <v>2.4</v>
+      </c>
+      <c r="AC174">
+        <v>0</v>
+      </c>
+      <c r="AD174">
+        <v>0</v>
+      </c>
+      <c r="AE174">
+        <v>0</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>1.7</v>
+      </c>
+      <c r="AH174">
+        <v>2</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>0</v>
+      </c>
+      <c r="AL174">
+        <v>0</v>
+      </c>
+      <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>1</v>
+      </c>
+      <c r="AO174">
+        <v>1.2</v>
+      </c>
+      <c r="AP174">
+        <v>0.83</v>
+      </c>
+      <c r="AQ174">
+        <v>1.5</v>
+      </c>
+      <c r="AR174">
+        <v>1.66</v>
+      </c>
+      <c r="AS174">
+        <v>1.67</v>
+      </c>
+      <c r="AT174">
+        <v>3.33</v>
+      </c>
+      <c r="AU174">
         <v>-1</v>
       </c>
-      <c r="AV170">
+      <c r="AV174">
         <v>-1</v>
       </c>
-      <c r="AW170">
+      <c r="AW174">
         <v>-1</v>
       </c>
-      <c r="AX170">
+      <c r="AX174">
         <v>-1</v>
       </c>
-      <c r="AY170">
+      <c r="AY174">
         <v>-1</v>
       </c>
-      <c r="AZ170">
+      <c r="AZ174">
         <v>-1</v>
       </c>
-      <c r="BA170">
+      <c r="BA174">
         <v>-1</v>
       </c>
-      <c r="BB170">
+      <c r="BB174">
         <v>-1</v>
       </c>
-      <c r="BC170">
+      <c r="BC174">
         <v>-1</v>
       </c>
-      <c r="BD170">
-        <v>1.72</v>
-      </c>
-      <c r="BE170">
-        <v>8.5</v>
-      </c>
-      <c r="BF170">
-        <v>2.54</v>
-      </c>
-      <c r="BG170">
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>0</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>0</v>
+      </c>
+      <c r="BJ174">
+        <v>0</v>
+      </c>
+      <c r="BK174">
+        <v>0</v>
+      </c>
+      <c r="BL174">
+        <v>0</v>
+      </c>
+      <c r="BM174">
+        <v>0</v>
+      </c>
+      <c r="BN174">
+        <v>0</v>
+      </c>
+      <c r="BO174">
+        <v>0</v>
+      </c>
+      <c r="BP174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7781249</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45787.89583333334</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>85</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>113</v>
+      </c>
+      <c r="P175" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q175">
+        <v>2.4</v>
+      </c>
+      <c r="R175">
+        <v>2.38</v>
+      </c>
+      <c r="S175">
+        <v>4.33</v>
+      </c>
+      <c r="T175">
+        <v>1.3</v>
+      </c>
+      <c r="U175">
+        <v>3.4</v>
+      </c>
+      <c r="V175">
+        <v>2.5</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>6</v>
+      </c>
+      <c r="Y175">
+        <v>1.13</v>
+      </c>
+      <c r="Z175">
+        <v>1.75</v>
+      </c>
+      <c r="AA175">
+        <v>3.47</v>
+      </c>
+      <c r="AB175">
+        <v>3.83</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+      <c r="AD175">
+        <v>0</v>
+      </c>
+      <c r="AE175">
+        <v>1.18</v>
+      </c>
+      <c r="AF175">
+        <v>4.05</v>
+      </c>
+      <c r="AG175">
+        <v>1.7</v>
+      </c>
+      <c r="AH175">
+        <v>2.05</v>
+      </c>
+      <c r="AI175">
+        <v>1.67</v>
+      </c>
+      <c r="AJ175">
+        <v>2.1</v>
+      </c>
+      <c r="AK175">
+        <v>1.23</v>
+      </c>
+      <c r="AL175">
+        <v>1.28</v>
+      </c>
+      <c r="AM175">
+        <v>1.97</v>
+      </c>
+      <c r="AN175">
+        <v>2.17</v>
+      </c>
+      <c r="AO175">
+        <v>0.8</v>
+      </c>
+      <c r="AP175">
+        <v>2.29</v>
+      </c>
+      <c r="AQ175">
+        <v>0.67</v>
+      </c>
+      <c r="AR175">
+        <v>1.93</v>
+      </c>
+      <c r="AS175">
+        <v>1.16</v>
+      </c>
+      <c r="AT175">
+        <v>3.09</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>17</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>12</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>17</v>
+      </c>
+      <c r="BD175">
+        <v>1.41</v>
+      </c>
+      <c r="BE175">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF175">
+        <v>3.62</v>
+      </c>
+      <c r="BG175">
+        <v>1.26</v>
+      </c>
+      <c r="BH175">
+        <v>3.22</v>
+      </c>
+      <c r="BI175">
+        <v>1.51</v>
+      </c>
+      <c r="BJ175">
+        <v>2.32</v>
+      </c>
+      <c r="BK175">
+        <v>1.89</v>
+      </c>
+      <c r="BL175">
+        <v>1.81</v>
+      </c>
+      <c r="BM175">
+        <v>2.42</v>
+      </c>
+      <c r="BN175">
+        <v>1.47</v>
+      </c>
+      <c r="BO175">
+        <v>3.28</v>
+      </c>
+      <c r="BP175">
         <v>1.25</v>
       </c>
-      <c r="BH170">
-        <v>3.28</v>
-      </c>
-      <c r="BI170">
-        <v>1.48</v>
-      </c>
-      <c r="BJ170">
-        <v>2.4</v>
-      </c>
-      <c r="BK170">
-        <v>1.85</v>
-      </c>
-      <c r="BL170">
-        <v>1.85</v>
-      </c>
-      <c r="BM170">
-        <v>2.38</v>
-      </c>
-      <c r="BN170">
-        <v>1.49</v>
-      </c>
-      <c r="BO170">
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7781247</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45787.89583333334</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>97</v>
+      </c>
+      <c r="H176" t="s">
+        <v>86</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>222</v>
+      </c>
+      <c r="P176" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q176">
+        <v>2.5</v>
+      </c>
+      <c r="R176">
+        <v>2.3</v>
+      </c>
+      <c r="S176">
+        <v>4</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.25</v>
+      </c>
+      <c r="V176">
+        <v>2.63</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>6.5</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>1.86</v>
+      </c>
+      <c r="AA176">
+        <v>3.4</v>
+      </c>
+      <c r="AB176">
+        <v>3.47</v>
+      </c>
+      <c r="AC176">
+        <v>0</v>
+      </c>
+      <c r="AD176">
+        <v>0</v>
+      </c>
+      <c r="AE176">
+        <v>1.21</v>
+      </c>
+      <c r="AF176">
+        <v>3.74</v>
+      </c>
+      <c r="AG176">
+        <v>1.76</v>
+      </c>
+      <c r="AH176">
+        <v>1.94</v>
+      </c>
+      <c r="AI176">
+        <v>1.7</v>
+      </c>
+      <c r="AJ176">
+        <v>2.05</v>
+      </c>
+      <c r="AK176">
+        <v>1.29</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.82</v>
+      </c>
+      <c r="AN176">
+        <v>0.75</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>0.8</v>
+      </c>
+      <c r="AQ176">
+        <v>1</v>
+      </c>
+      <c r="AR176">
+        <v>1.03</v>
+      </c>
+      <c r="AS176">
+        <v>1.65</v>
+      </c>
+      <c r="AT176">
+        <v>2.68</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>10</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>5</v>
+      </c>
+      <c r="BD176">
+        <v>1.79</v>
+      </c>
+      <c r="BE176">
+        <v>6.55</v>
+      </c>
+      <c r="BF176">
+        <v>2.62</v>
+      </c>
+      <c r="BG176">
+        <v>1.27</v>
+      </c>
+      <c r="BH176">
         <v>3.14</v>
       </c>
-      <c r="BP170">
-        <v>1.27</v>
+      <c r="BI176">
+        <v>1.53</v>
+      </c>
+      <c r="BJ176">
+        <v>2.28</v>
+      </c>
+      <c r="BK176">
+        <v>1.93</v>
+      </c>
+      <c r="BL176">
+        <v>1.78</v>
+      </c>
+      <c r="BM176">
+        <v>2.51</v>
+      </c>
+      <c r="BN176">
+        <v>1.44</v>
+      </c>
+      <c r="BO176">
+        <v>3.34</v>
+      </c>
+      <c r="BP176">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7781248</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45787.89583333334</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" t="s">
+        <v>82</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>163</v>
+      </c>
+      <c r="P177" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q177">
+        <v>3.4</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>3.25</v>
+      </c>
+      <c r="T177">
+        <v>1.44</v>
+      </c>
+      <c r="U177">
+        <v>2.63</v>
+      </c>
+      <c r="V177">
+        <v>3.25</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>9</v>
+      </c>
+      <c r="Y177">
+        <v>1.07</v>
+      </c>
+      <c r="Z177">
+        <v>2.65</v>
+      </c>
+      <c r="AA177">
+        <v>2.98</v>
+      </c>
+      <c r="AB177">
+        <v>2.46</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE177">
+        <v>1.33</v>
+      </c>
+      <c r="AF177">
+        <v>2.92</v>
+      </c>
+      <c r="AG177">
+        <v>2.1</v>
+      </c>
+      <c r="AH177">
+        <v>1.67</v>
+      </c>
+      <c r="AI177">
+        <v>1.95</v>
+      </c>
+      <c r="AJ177">
+        <v>1.8</v>
+      </c>
+      <c r="AK177">
+        <v>1.5</v>
+      </c>
+      <c r="AL177">
+        <v>1.35</v>
+      </c>
+      <c r="AM177">
+        <v>1.44</v>
+      </c>
+      <c r="AN177">
+        <v>1.17</v>
+      </c>
+      <c r="AO177">
+        <v>0.83</v>
+      </c>
+      <c r="AP177">
+        <v>1</v>
+      </c>
+      <c r="AQ177">
+        <v>1.14</v>
+      </c>
+      <c r="AR177">
+        <v>1.61</v>
+      </c>
+      <c r="AS177">
+        <v>1.56</v>
+      </c>
+      <c r="AT177">
+        <v>3.17</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>14</v>
+      </c>
+      <c r="AX177">
+        <v>10</v>
+      </c>
+      <c r="AY177">
+        <v>24</v>
+      </c>
+      <c r="AZ177">
+        <v>20</v>
+      </c>
+      <c r="BA177">
+        <v>8</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>13</v>
+      </c>
+      <c r="BD177">
+        <v>2.04</v>
+      </c>
+      <c r="BE177">
+        <v>6.65</v>
+      </c>
+      <c r="BF177">
+        <v>2.21</v>
+      </c>
+      <c r="BG177">
+        <v>1.18</v>
+      </c>
+      <c r="BH177">
+        <v>3.9</v>
+      </c>
+      <c r="BI177">
+        <v>1.37</v>
+      </c>
+      <c r="BJ177">
+        <v>2.75</v>
+      </c>
+      <c r="BK177">
+        <v>1.68</v>
+      </c>
+      <c r="BL177">
+        <v>2.06</v>
+      </c>
+      <c r="BM177">
+        <v>2.09</v>
+      </c>
+      <c r="BN177">
+        <v>1.63</v>
+      </c>
+      <c r="BO177">
+        <v>2.74</v>
+      </c>
+      <c r="BP177">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,9 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -929,6 +932,9 @@
   </si>
   <si>
     <t>['22', '46', '58']</t>
+  </si>
+  <si>
+    <t>['45+2', '67']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1761,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1961,7 +1967,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2373,7 +2379,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2579,7 +2585,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2785,7 +2791,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3072,7 +3078,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3197,7 +3203,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -4021,7 +4027,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4227,7 +4233,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4305,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>2.2</v>
@@ -4433,7 +4439,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5051,7 +5057,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5463,7 +5469,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5669,7 +5675,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5875,7 +5881,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6081,7 +6087,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6162,7 +6168,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6493,7 +6499,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6571,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7523,7 +7529,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7935,7 +7941,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8634,7 +8640,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.23</v>
@@ -8759,7 +8765,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9377,7 +9383,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9789,7 +9795,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10613,7 +10619,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10819,7 +10825,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11025,7 +11031,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11849,7 +11855,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12055,7 +12061,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12467,7 +12473,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13085,7 +13091,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13291,7 +13297,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13575,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
         <v>0.29</v>
@@ -13703,7 +13709,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13909,7 +13915,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14115,7 +14121,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14321,7 +14327,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14402,7 +14408,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.62</v>
@@ -15351,7 +15357,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15763,7 +15769,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15841,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>1.67</v>
@@ -15969,7 +15975,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16381,7 +16387,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16793,7 +16799,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17283,7 +17289,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17617,7 +17623,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17823,7 +17829,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18029,7 +18035,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18316,7 +18322,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18647,7 +18653,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18853,7 +18859,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19059,7 +19065,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19677,7 +19683,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19755,7 +19761,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90">
         <v>0.6</v>
@@ -20295,7 +20301,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20913,7 +20919,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -22355,7 +22361,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22561,7 +22567,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22767,7 +22773,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23179,7 +23185,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23797,7 +23803,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24003,7 +24009,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24621,7 +24627,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24827,7 +24833,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24905,7 +24911,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
         <v>1.5</v>
@@ -25239,7 +25245,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25320,7 +25326,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR117">
         <v>1.48</v>
@@ -25445,7 +25451,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25857,7 +25863,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26269,7 +26275,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26681,7 +26687,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27711,7 +27717,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27917,7 +27923,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28741,7 +28747,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28819,7 +28825,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
         <v>0.8</v>
@@ -28947,7 +28953,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29028,7 +29034,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ135">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR135">
         <v>2.04</v>
@@ -29234,7 +29240,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29359,7 +29365,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -30183,7 +30189,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30389,7 +30395,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30676,7 +30682,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -31007,7 +31013,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31213,7 +31219,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31291,7 +31297,7 @@
         <v>0.8</v>
       </c>
       <c r="AP146">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ146">
         <v>1.14</v>
@@ -31419,7 +31425,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31625,7 +31631,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31831,7 +31837,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32037,7 +32043,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32243,7 +32249,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32449,7 +32455,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32655,7 +32661,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32861,7 +32867,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33067,7 +33073,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33273,7 +33279,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33685,7 +33691,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34097,7 +34103,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34509,7 +34515,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34715,7 +34721,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35745,7 +35751,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35951,7 +35957,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36363,7 +36369,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36569,7 +36575,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36775,7 +36781,7 @@
         <v>220</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36981,7 +36987,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -37187,7 +37193,7 @@
         <v>113</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37393,7 +37399,7 @@
         <v>222</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37599,7 +37605,7 @@
         <v>163</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -37756,6 +37762,418 @@
       </c>
       <c r="BP177">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7781251</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45787.9375</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>93</v>
+      </c>
+      <c r="H178" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>109</v>
+      </c>
+      <c r="P178" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q178">
+        <v>2.38</v>
+      </c>
+      <c r="R178">
+        <v>2.6</v>
+      </c>
+      <c r="S178">
+        <v>3.75</v>
+      </c>
+      <c r="T178">
+        <v>1.22</v>
+      </c>
+      <c r="U178">
+        <v>4</v>
+      </c>
+      <c r="V178">
+        <v>2.1</v>
+      </c>
+      <c r="W178">
+        <v>1.67</v>
+      </c>
+      <c r="X178">
+        <v>4.5</v>
+      </c>
+      <c r="Y178">
+        <v>1.18</v>
+      </c>
+      <c r="Z178">
+        <v>1.8</v>
+      </c>
+      <c r="AA178">
+        <v>3.58</v>
+      </c>
+      <c r="AB178">
+        <v>3.53</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+      <c r="AE178">
+        <v>1.07</v>
+      </c>
+      <c r="AF178">
+        <v>5.9</v>
+      </c>
+      <c r="AG178">
+        <v>1.63</v>
+      </c>
+      <c r="AH178">
+        <v>2.27</v>
+      </c>
+      <c r="AI178">
+        <v>1.44</v>
+      </c>
+      <c r="AJ178">
+        <v>2.63</v>
+      </c>
+      <c r="AK178">
+        <v>1.28</v>
+      </c>
+      <c r="AL178">
+        <v>1.23</v>
+      </c>
+      <c r="AM178">
+        <v>1.97</v>
+      </c>
+      <c r="AN178">
+        <v>1.6</v>
+      </c>
+      <c r="AO178">
+        <v>0.75</v>
+      </c>
+      <c r="AP178">
+        <v>1.33</v>
+      </c>
+      <c r="AQ178">
+        <v>1.2</v>
+      </c>
+      <c r="AR178">
+        <v>1.84</v>
+      </c>
+      <c r="AS178">
+        <v>1.89</v>
+      </c>
+      <c r="AT178">
+        <v>3.73</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>7</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>14</v>
+      </c>
+      <c r="AZ178">
+        <v>13</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>6</v>
+      </c>
+      <c r="BD178">
+        <v>1.57</v>
+      </c>
+      <c r="BE178">
+        <v>9</v>
+      </c>
+      <c r="BF178">
+        <v>2.89</v>
+      </c>
+      <c r="BG178">
+        <v>1.17</v>
+      </c>
+      <c r="BH178">
+        <v>4.05</v>
+      </c>
+      <c r="BI178">
+        <v>1.34</v>
+      </c>
+      <c r="BJ178">
+        <v>2.78</v>
+      </c>
+      <c r="BK178">
+        <v>1.63</v>
+      </c>
+      <c r="BL178">
+        <v>2.09</v>
+      </c>
+      <c r="BM178">
+        <v>2.06</v>
+      </c>
+      <c r="BN178">
+        <v>1.68</v>
+      </c>
+      <c r="BO178">
+        <v>2.67</v>
+      </c>
+      <c r="BP178">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7781252</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45787.97916666666</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>83</v>
+      </c>
+      <c r="H179" t="s">
+        <v>91</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>223</v>
+      </c>
+      <c r="P179" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q179">
+        <v>2.25</v>
+      </c>
+      <c r="R179">
+        <v>2.5</v>
+      </c>
+      <c r="S179">
+        <v>4.33</v>
+      </c>
+      <c r="T179">
+        <v>1.25</v>
+      </c>
+      <c r="U179">
+        <v>3.75</v>
+      </c>
+      <c r="V179">
+        <v>2.25</v>
+      </c>
+      <c r="W179">
+        <v>1.57</v>
+      </c>
+      <c r="X179">
+        <v>5.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.14</v>
+      </c>
+      <c r="Z179">
+        <v>1.7</v>
+      </c>
+      <c r="AA179">
+        <v>3.84</v>
+      </c>
+      <c r="AB179">
+        <v>3.69</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>1.11</v>
+      </c>
+      <c r="AF179">
+        <v>4.85</v>
+      </c>
+      <c r="AG179">
+        <v>1.58</v>
+      </c>
+      <c r="AH179">
+        <v>2.38</v>
+      </c>
+      <c r="AI179">
+        <v>1.53</v>
+      </c>
+      <c r="AJ179">
+        <v>2.38</v>
+      </c>
+      <c r="AK179">
+        <v>1.23</v>
+      </c>
+      <c r="AL179">
+        <v>1.23</v>
+      </c>
+      <c r="AM179">
+        <v>2.07</v>
+      </c>
+      <c r="AN179">
+        <v>1.6</v>
+      </c>
+      <c r="AO179">
+        <v>0.6</v>
+      </c>
+      <c r="AP179">
+        <v>1.83</v>
+      </c>
+      <c r="AQ179">
+        <v>0.5</v>
+      </c>
+      <c r="AR179">
+        <v>1.28</v>
+      </c>
+      <c r="AS179">
+        <v>1.38</v>
+      </c>
+      <c r="AT179">
+        <v>2.66</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>7</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>13</v>
+      </c>
+      <c r="AZ179">
+        <v>13</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.83</v>
+      </c>
+      <c r="BE179">
+        <v>6.7</v>
+      </c>
+      <c r="BF179">
+        <v>2.51</v>
+      </c>
+      <c r="BG179">
+        <v>1.18</v>
+      </c>
+      <c r="BH179">
+        <v>3.85</v>
+      </c>
+      <c r="BI179">
+        <v>1.37</v>
+      </c>
+      <c r="BJ179">
+        <v>2.66</v>
+      </c>
+      <c r="BK179">
+        <v>1.67</v>
+      </c>
+      <c r="BL179">
+        <v>2.02</v>
+      </c>
+      <c r="BM179">
+        <v>2.14</v>
+      </c>
+      <c r="BN179">
+        <v>1.63</v>
+      </c>
+      <c r="BO179">
+        <v>2.79</v>
+      </c>
+      <c r="BP179">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -35450,13 +35450,13 @@
         <v>18</v>
       </c>
       <c r="BA166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB166">
         <v>1</v>
       </c>
       <c r="BC166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD166">
         <v>1.82</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['26', '70']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -935,6 +938,9 @@
   </si>
   <si>
     <t>['45+2', '67']</t>
+  </si>
+  <si>
+    <t>['8', '19']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1767,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1967,7 +1973,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2379,7 +2385,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2585,7 +2591,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2791,7 +2797,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3203,7 +3209,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -4027,7 +4033,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4233,7 +4239,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4439,7 +4445,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5057,7 +5063,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5469,7 +5475,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5675,7 +5681,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5881,7 +5887,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6087,7 +6093,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6499,7 +6505,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7401,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>0.29</v>
@@ -7529,7 +7535,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7941,7 +7947,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8022,7 +8028,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>2.47</v>
@@ -8765,7 +8771,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9383,7 +9389,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9795,7 +9801,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10079,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ43">
         <v>0.5600000000000001</v>
@@ -10619,7 +10625,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10825,7 +10831,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11031,7 +11037,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11855,7 +11861,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12061,7 +12067,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12473,7 +12479,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13091,7 +13097,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13297,7 +13303,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13709,7 +13715,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13915,7 +13921,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14121,7 +14127,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14327,7 +14333,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15357,7 +15363,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15438,7 +15444,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.7</v>
@@ -15769,7 +15775,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15975,7 +15981,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16387,7 +16393,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16465,7 +16471,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16799,7 +16805,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17623,7 +17629,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17829,7 +17835,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18035,7 +18041,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18653,7 +18659,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18859,7 +18865,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19065,7 +19071,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19146,7 +19152,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.99</v>
@@ -19683,7 +19689,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20301,7 +20307,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20919,7 +20925,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21824,7 +21830,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
@@ -22027,7 +22033,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22361,7 +22367,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22567,7 +22573,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22773,7 +22779,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23185,7 +23191,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23803,7 +23809,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23881,7 +23887,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24009,7 +24015,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24627,7 +24633,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24833,7 +24839,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25245,7 +25251,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25451,7 +25457,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25863,7 +25869,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26275,7 +26281,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26687,7 +26693,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27717,7 +27723,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27923,7 +27929,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28747,7 +28753,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28828,7 +28834,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -28953,7 +28959,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29365,7 +29371,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -30189,7 +30195,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30395,7 +30401,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31013,7 +31019,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31219,7 +31225,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31425,7 +31431,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31631,7 +31637,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31837,7 +31843,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32043,7 +32049,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32249,7 +32255,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32455,7 +32461,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32661,7 +32667,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32867,7 +32873,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33073,7 +33079,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33279,7 +33285,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33691,7 +33697,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34103,7 +34109,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34181,7 +34187,7 @@
         <v>1.2</v>
       </c>
       <c r="AP160">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34515,7 +34521,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34721,7 +34727,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35751,7 +35757,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35957,7 +35963,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36369,7 +36375,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36575,7 +36581,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36781,7 +36787,7 @@
         <v>220</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36987,7 +36993,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -37193,7 +37199,7 @@
         <v>113</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37399,7 +37405,7 @@
         <v>222</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37605,7 +37611,7 @@
         <v>163</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -37811,7 +37817,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38174,6 +38180,212 @@
       </c>
       <c r="BP179">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7781253</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45788.83333333334</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>95</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>3</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>224</v>
+      </c>
+      <c r="P180" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q180">
+        <v>2.5</v>
+      </c>
+      <c r="R180">
+        <v>2.3</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.3</v>
+      </c>
+      <c r="U180">
+        <v>3.4</v>
+      </c>
+      <c r="V180">
+        <v>2.5</v>
+      </c>
+      <c r="W180">
+        <v>1.5</v>
+      </c>
+      <c r="X180">
+        <v>6</v>
+      </c>
+      <c r="Y180">
+        <v>1.13</v>
+      </c>
+      <c r="Z180">
+        <v>1.92</v>
+      </c>
+      <c r="AA180">
+        <v>3.5</v>
+      </c>
+      <c r="AB180">
+        <v>3.2</v>
+      </c>
+      <c r="AC180">
+        <v>1.04</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.19</v>
+      </c>
+      <c r="AF180">
+        <v>3.94</v>
+      </c>
+      <c r="AG180">
+        <v>1.7</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.62</v>
+      </c>
+      <c r="AJ180">
+        <v>2.2</v>
+      </c>
+      <c r="AK180">
+        <v>1.31</v>
+      </c>
+      <c r="AL180">
+        <v>1.28</v>
+      </c>
+      <c r="AM180">
+        <v>1.79</v>
+      </c>
+      <c r="AN180">
+        <v>2.5</v>
+      </c>
+      <c r="AO180">
+        <v>0.8</v>
+      </c>
+      <c r="AP180">
+        <v>2.29</v>
+      </c>
+      <c r="AQ180">
+        <v>0.83</v>
+      </c>
+      <c r="AR180">
+        <v>2.03</v>
+      </c>
+      <c r="AS180">
+        <v>1.43</v>
+      </c>
+      <c r="AT180">
+        <v>3.46</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>7</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
+        <v>14</v>
+      </c>
+      <c r="AZ180">
+        <v>16</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>13</v>
+      </c>
+      <c r="BD180">
+        <v>1.52</v>
+      </c>
+      <c r="BE180">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF180">
+        <v>3.06</v>
+      </c>
+      <c r="BG180">
+        <v>1.16</v>
+      </c>
+      <c r="BH180">
+        <v>4.2</v>
+      </c>
+      <c r="BI180">
+        <v>1.32</v>
+      </c>
+      <c r="BJ180">
+        <v>2.88</v>
+      </c>
+      <c r="BK180">
+        <v>1.6</v>
+      </c>
+      <c r="BL180">
+        <v>2.14</v>
+      </c>
+      <c r="BM180">
+        <v>2.02</v>
+      </c>
+      <c r="BN180">
+        <v>1.71</v>
+      </c>
+      <c r="BO180">
+        <v>2.6</v>
+      </c>
+      <c r="BP180">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -37086,31 +37086,31 @@
         <v>3.33</v>
       </c>
       <c r="AU174">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV174">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW174">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX174">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY174">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ174">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB174">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC174">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD174">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,12 @@
     <t>['26', '70']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['8', '24', '82']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -916,9 +922,6 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['29']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -941,6 +944,12 @@
   </si>
   <si>
     <t>['8', '19']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1776,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1973,7 +1982,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2385,7 +2394,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2591,7 +2600,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2797,7 +2806,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2875,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.8</v>
@@ -3209,7 +3218,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -4033,7 +4042,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4114,7 +4123,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4239,7 +4248,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4445,7 +4454,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5063,7 +5072,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5144,7 +5153,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5475,7 +5484,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5553,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.83</v>
@@ -5681,7 +5690,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5762,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5887,7 +5896,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6093,7 +6102,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6505,7 +6514,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7535,7 +7544,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7947,7 +7956,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8771,7 +8780,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9389,7 +9398,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9801,7 +9810,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10500,7 +10509,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -10625,7 +10634,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10831,7 +10840,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10909,7 +10918,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11037,7 +11046,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11530,7 +11539,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11861,7 +11870,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12067,7 +12076,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12479,7 +12488,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12972,7 +12981,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.55</v>
@@ -13097,7 +13106,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13303,7 +13312,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13715,7 +13724,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13921,7 +13930,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14127,7 +14136,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14333,7 +14342,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15029,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -15363,7 +15372,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15775,7 +15784,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15981,7 +15990,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16393,7 +16402,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16805,7 +16814,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17089,7 +17098,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ77">
         <v>2.2</v>
@@ -17298,7 +17307,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17629,7 +17638,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17710,7 +17719,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17835,7 +17844,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18041,7 +18050,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18659,7 +18668,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18740,7 +18749,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>1.87</v>
@@ -18865,7 +18874,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19071,7 +19080,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19689,7 +19698,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20307,7 +20316,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20925,7 +20934,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -22367,7 +22376,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22573,7 +22582,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22779,7 +22788,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23063,7 +23072,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ106">
         <v>1.83</v>
@@ -23191,7 +23200,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23475,7 +23484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>0.4</v>
@@ -23681,10 +23690,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -23809,7 +23818,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24015,7 +24024,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24096,7 +24105,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24633,7 +24642,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24839,7 +24848,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25251,7 +25260,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25457,7 +25466,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25869,7 +25878,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -25950,7 +25959,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ120">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26281,7 +26290,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26693,7 +26702,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27183,7 +27192,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
         <v>1.17</v>
@@ -27723,7 +27732,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27804,7 +27813,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -27929,7 +27938,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28753,7 +28762,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28959,7 +28968,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29371,7 +29380,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29449,7 +29458,7 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ137">
         <v>0.83</v>
@@ -30067,7 +30076,7 @@
         <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
         <v>0.2</v>
@@ -30195,7 +30204,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30401,7 +30410,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31019,7 +31028,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31225,7 +31234,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31431,7 +31440,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31637,7 +31646,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31843,7 +31852,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32049,7 +32058,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32255,7 +32264,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32461,7 +32470,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32539,7 +32548,7 @@
         <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ152">
         <v>1.57</v>
@@ -32667,7 +32676,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32745,7 +32754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ153">
         <v>1.8</v>
@@ -32873,7 +32882,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -32954,7 +32963,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR154">
         <v>1.65</v>
@@ -33079,7 +33088,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33285,7 +33294,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33697,7 +33706,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34109,7 +34118,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34521,7 +34530,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34727,7 +34736,7 @@
         <v>212</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q163">
         <v>2.05</v>
@@ -35014,7 +35023,7 @@
         <v>2</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR164">
         <v>1.81</v>
@@ -35629,7 +35638,7 @@
         <v>0.8</v>
       </c>
       <c r="AP167">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ167">
         <v>0.67</v>
@@ -35757,7 +35766,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35963,7 +35972,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36375,7 +36384,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36581,7 +36590,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36659,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP172">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
         <v>1.57</v>
@@ -36787,7 +36796,7 @@
         <v>220</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36868,7 +36877,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR173">
         <v>1.68</v>
@@ -36993,7 +37002,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -37199,7 +37208,7 @@
         <v>113</v>
       </c>
       <c r="P175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37280,7 +37289,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ175">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR175">
         <v>1.93</v>
@@ -37405,7 +37414,7 @@
         <v>222</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37611,7 +37620,7 @@
         <v>163</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -37817,7 +37826,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38229,7 +38238,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38386,6 +38395,624 @@
       </c>
       <c r="BP180">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7781255</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45791.85416666666</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>99</v>
+      </c>
+      <c r="H181" t="s">
+        <v>74</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>225</v>
+      </c>
+      <c r="P181" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q181">
+        <v>3.75</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>2.75</v>
+      </c>
+      <c r="T181">
+        <v>1.36</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>7</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>2.93</v>
+      </c>
+      <c r="AA181">
+        <v>3.41</v>
+      </c>
+      <c r="AB181">
+        <v>2.06</v>
+      </c>
+      <c r="AC181">
+        <v>1</v>
+      </c>
+      <c r="AD181">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE181">
+        <v>1.24</v>
+      </c>
+      <c r="AF181">
+        <v>3.48</v>
+      </c>
+      <c r="AG181">
+        <v>1.8</v>
+      </c>
+      <c r="AH181">
+        <v>1.9</v>
+      </c>
+      <c r="AI181">
+        <v>1.7</v>
+      </c>
+      <c r="AJ181">
+        <v>2.05</v>
+      </c>
+      <c r="AK181">
+        <v>1.69</v>
+      </c>
+      <c r="AL181">
+        <v>1.3</v>
+      </c>
+      <c r="AM181">
+        <v>1.35</v>
+      </c>
+      <c r="AN181">
+        <v>0.33</v>
+      </c>
+      <c r="AO181">
+        <v>2.2</v>
+      </c>
+      <c r="AP181">
+        <v>0.5</v>
+      </c>
+      <c r="AQ181">
+        <v>2</v>
+      </c>
+      <c r="AR181">
+        <v>1.89</v>
+      </c>
+      <c r="AS181">
+        <v>1.32</v>
+      </c>
+      <c r="AT181">
+        <v>3.21</v>
+      </c>
+      <c r="AU181">
+        <v>-1</v>
+      </c>
+      <c r="AV181">
+        <v>-1</v>
+      </c>
+      <c r="AW181">
+        <v>-1</v>
+      </c>
+      <c r="AX181">
+        <v>-1</v>
+      </c>
+      <c r="AY181">
+        <v>-1</v>
+      </c>
+      <c r="AZ181">
+        <v>-1</v>
+      </c>
+      <c r="BA181">
+        <v>-1</v>
+      </c>
+      <c r="BB181">
+        <v>-1</v>
+      </c>
+      <c r="BC181">
+        <v>-1</v>
+      </c>
+      <c r="BD181">
+        <v>2.3</v>
+      </c>
+      <c r="BE181">
+        <v>6.4</v>
+      </c>
+      <c r="BF181">
+        <v>1.75</v>
+      </c>
+      <c r="BG181">
+        <v>1.38</v>
+      </c>
+      <c r="BH181">
+        <v>2.7</v>
+      </c>
+      <c r="BI181">
+        <v>1.65</v>
+      </c>
+      <c r="BJ181">
+        <v>2.08</v>
+      </c>
+      <c r="BK181">
+        <v>2.05</v>
+      </c>
+      <c r="BL181">
+        <v>1.67</v>
+      </c>
+      <c r="BM181">
+        <v>2.65</v>
+      </c>
+      <c r="BN181">
+        <v>1.41</v>
+      </c>
+      <c r="BO181">
+        <v>3.45</v>
+      </c>
+      <c r="BP181">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7781256</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45791.85416666666</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>76</v>
+      </c>
+      <c r="H182" t="s">
+        <v>85</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>226</v>
+      </c>
+      <c r="P182" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q182">
+        <v>2.5</v>
+      </c>
+      <c r="R182">
+        <v>2.3</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>1.33</v>
+      </c>
+      <c r="U182">
+        <v>3.25</v>
+      </c>
+      <c r="V182">
+        <v>2.5</v>
+      </c>
+      <c r="W182">
+        <v>1.5</v>
+      </c>
+      <c r="X182">
+        <v>6.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.11</v>
+      </c>
+      <c r="Z182">
+        <v>1.85</v>
+      </c>
+      <c r="AA182">
+        <v>3.65</v>
+      </c>
+      <c r="AB182">
+        <v>3.27</v>
+      </c>
+      <c r="AC182">
+        <v>1.04</v>
+      </c>
+      <c r="AD182">
+        <v>10</v>
+      </c>
+      <c r="AE182">
+        <v>1.18</v>
+      </c>
+      <c r="AF182">
+        <v>4.05</v>
+      </c>
+      <c r="AG182">
+        <v>1.7</v>
+      </c>
+      <c r="AH182">
+        <v>2.05</v>
+      </c>
+      <c r="AI182">
+        <v>1.67</v>
+      </c>
+      <c r="AJ182">
+        <v>2.1</v>
+      </c>
+      <c r="AK182">
+        <v>1.31</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.81</v>
+      </c>
+      <c r="AN182">
+        <v>1.83</v>
+      </c>
+      <c r="AO182">
+        <v>0.67</v>
+      </c>
+      <c r="AP182">
+        <v>2</v>
+      </c>
+      <c r="AQ182">
+        <v>0.57</v>
+      </c>
+      <c r="AR182">
+        <v>1.98</v>
+      </c>
+      <c r="AS182">
+        <v>1.19</v>
+      </c>
+      <c r="AT182">
+        <v>3.17</v>
+      </c>
+      <c r="AU182">
+        <v>-1</v>
+      </c>
+      <c r="AV182">
+        <v>-1</v>
+      </c>
+      <c r="AW182">
+        <v>-1</v>
+      </c>
+      <c r="AX182">
+        <v>-1</v>
+      </c>
+      <c r="AY182">
+        <v>-1</v>
+      </c>
+      <c r="AZ182">
+        <v>-1</v>
+      </c>
+      <c r="BA182">
+        <v>-1</v>
+      </c>
+      <c r="BB182">
+        <v>-1</v>
+      </c>
+      <c r="BC182">
+        <v>-1</v>
+      </c>
+      <c r="BD182">
+        <v>1.48</v>
+      </c>
+      <c r="BE182">
+        <v>6.75</v>
+      </c>
+      <c r="BF182">
+        <v>2.9</v>
+      </c>
+      <c r="BG182">
+        <v>1.3</v>
+      </c>
+      <c r="BH182">
+        <v>3.15</v>
+      </c>
+      <c r="BI182">
+        <v>1.52</v>
+      </c>
+      <c r="BJ182">
+        <v>2.33</v>
+      </c>
+      <c r="BK182">
+        <v>1.86</v>
+      </c>
+      <c r="BL182">
+        <v>1.82</v>
+      </c>
+      <c r="BM182">
+        <v>2.32</v>
+      </c>
+      <c r="BN182">
+        <v>1.52</v>
+      </c>
+      <c r="BO182">
+        <v>2.95</v>
+      </c>
+      <c r="BP182">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7781258</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45791.85416666666</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>98</v>
+      </c>
+      <c r="H183" t="s">
+        <v>73</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>109</v>
+      </c>
+      <c r="P183" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q183">
+        <v>3.5</v>
+      </c>
+      <c r="R183">
+        <v>2.25</v>
+      </c>
+      <c r="S183">
+        <v>2.88</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.63</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>7</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>2.74</v>
+      </c>
+      <c r="AA183">
+        <v>3.41</v>
+      </c>
+      <c r="AB183">
+        <v>2.16</v>
+      </c>
+      <c r="AC183">
+        <v>1</v>
+      </c>
+      <c r="AD183">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE183">
+        <v>1.24</v>
+      </c>
+      <c r="AF183">
+        <v>3.48</v>
+      </c>
+      <c r="AG183">
+        <v>1.8</v>
+      </c>
+      <c r="AH183">
+        <v>1.9</v>
+      </c>
+      <c r="AI183">
+        <v>1.7</v>
+      </c>
+      <c r="AJ183">
+        <v>2.05</v>
+      </c>
+      <c r="AK183">
+        <v>1.62</v>
+      </c>
+      <c r="AL183">
+        <v>1.3</v>
+      </c>
+      <c r="AM183">
+        <v>1.4</v>
+      </c>
+      <c r="AN183">
+        <v>0.83</v>
+      </c>
+      <c r="AO183">
+        <v>1.5</v>
+      </c>
+      <c r="AP183">
+        <v>0.71</v>
+      </c>
+      <c r="AQ183">
+        <v>1.71</v>
+      </c>
+      <c r="AR183">
+        <v>1.44</v>
+      </c>
+      <c r="AS183">
+        <v>1.57</v>
+      </c>
+      <c r="AT183">
+        <v>3.01</v>
+      </c>
+      <c r="AU183">
+        <v>-1</v>
+      </c>
+      <c r="AV183">
+        <v>-1</v>
+      </c>
+      <c r="AW183">
+        <v>-1</v>
+      </c>
+      <c r="AX183">
+        <v>-1</v>
+      </c>
+      <c r="AY183">
+        <v>-1</v>
+      </c>
+      <c r="AZ183">
+        <v>-1</v>
+      </c>
+      <c r="BA183">
+        <v>-1</v>
+      </c>
+      <c r="BB183">
+        <v>-1</v>
+      </c>
+      <c r="BC183">
+        <v>-1</v>
+      </c>
+      <c r="BD183">
+        <v>1.98</v>
+      </c>
+      <c r="BE183">
+        <v>6.4</v>
+      </c>
+      <c r="BF183">
+        <v>2</v>
+      </c>
+      <c r="BG183">
+        <v>1.33</v>
+      </c>
+      <c r="BH183">
+        <v>3</v>
+      </c>
+      <c r="BI183">
+        <v>1.55</v>
+      </c>
+      <c r="BJ183">
+        <v>2.25</v>
+      </c>
+      <c r="BK183">
+        <v>1.9</v>
+      </c>
+      <c r="BL183">
+        <v>1.79</v>
+      </c>
+      <c r="BM183">
+        <v>2.4</v>
+      </c>
+      <c r="BN183">
+        <v>1.5</v>
+      </c>
+      <c r="BO183">
+        <v>3.05</v>
+      </c>
+      <c r="BP183">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['8', '24', '82']</t>
   </si>
   <si>
+    <t>['48', '50', '90+6']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -950,6 +953,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['31', '37']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1782,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1857,7 +1863,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1982,7 +1988,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2394,7 +2400,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2600,7 +2606,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2678,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>0.83</v>
@@ -2806,7 +2812,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3218,7 +3224,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -4042,7 +4048,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4248,7 +4254,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4454,7 +4460,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5072,7 +5078,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5484,7 +5490,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5690,7 +5696,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5768,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
         <v>1.71</v>
@@ -5896,7 +5902,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6102,7 +6108,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6514,7 +6520,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6801,7 +6807,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7419,7 +7425,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ30">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7544,7 +7550,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7956,7 +7962,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8652,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8780,7 +8786,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9398,7 +9404,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9810,7 +9816,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10634,7 +10640,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10840,7 +10846,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11046,7 +11052,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11742,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>0.5600000000000001</v>
@@ -11870,7 +11876,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12076,7 +12082,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12488,7 +12494,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13106,7 +13112,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13312,7 +13318,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13390,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ59">
         <v>0.8</v>
@@ -13599,7 +13605,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
         <v>0.9399999999999999</v>
@@ -13724,7 +13730,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13930,7 +13936,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14136,7 +14142,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14217,7 +14223,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14342,7 +14348,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14629,7 +14635,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -15244,7 +15250,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>0.83</v>
@@ -15372,7 +15378,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15784,7 +15790,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15990,7 +15996,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16402,7 +16408,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16814,7 +16820,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17638,7 +17644,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17716,7 +17722,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17844,7 +17850,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17925,7 +17931,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18050,7 +18056,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18668,7 +18674,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18874,7 +18880,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19080,7 +19086,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19698,7 +19704,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20191,7 +20197,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ92">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20316,7 +20322,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20600,7 +20606,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20934,7 +20940,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -22376,7 +22382,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22582,7 +22588,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22788,7 +22794,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23200,7 +23206,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23818,7 +23824,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24024,7 +24030,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24102,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
         <v>1.71</v>
@@ -24642,7 +24648,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24848,7 +24854,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25260,7 +25266,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25466,7 +25472,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25878,7 +25884,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26165,7 +26171,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26290,7 +26296,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26574,7 +26580,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ123">
         <v>0.2</v>
@@ -26702,7 +26708,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27607,7 +27613,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR128">
         <v>1.21</v>
@@ -27732,7 +27738,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27938,7 +27944,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28762,7 +28768,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28968,7 +28974,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29380,7 +29386,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29461,7 +29467,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ137">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR137">
         <v>1.09</v>
@@ -29870,7 +29876,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ139">
         <v>0.67</v>
@@ -30204,7 +30210,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30410,7 +30416,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31028,7 +31034,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31234,7 +31240,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31440,7 +31446,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31646,7 +31652,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31852,7 +31858,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32058,7 +32064,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32264,7 +32270,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32470,7 +32476,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32676,7 +32682,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32882,7 +32888,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33088,7 +33094,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33166,7 +33172,7 @@
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ155">
         <v>1.33</v>
@@ -33294,7 +33300,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33706,7 +33712,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34118,7 +34124,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34530,7 +34536,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35229,7 +35235,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR165">
         <v>1.6</v>
@@ -35766,7 +35772,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35972,7 +35978,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36259,7 +36265,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ170">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR170">
         <v>1.49</v>
@@ -36384,7 +36390,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36590,7 +36596,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36796,7 +36802,7 @@
         <v>220</v>
       </c>
       <c r="P173" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36874,7 +36880,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -37002,7 +37008,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -37208,7 +37214,7 @@
         <v>113</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37414,7 +37420,7 @@
         <v>222</v>
       </c>
       <c r="P176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37620,7 +37626,7 @@
         <v>163</v>
       </c>
       <c r="P177" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -37826,7 +37832,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38238,7 +38244,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38402,7 +38408,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7781255</v>
+        <v>7781254</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38417,124 +38423,124 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="H181" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="P181" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="Q181">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="R181">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S181">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="T181">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U181">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V181">
+        <v>2.5</v>
+      </c>
+      <c r="W181">
+        <v>1.5</v>
+      </c>
+      <c r="X181">
+        <v>6</v>
+      </c>
+      <c r="Y181">
+        <v>1.13</v>
+      </c>
+      <c r="Z181">
+        <v>2.2</v>
+      </c>
+      <c r="AA181">
+        <v>3.5</v>
+      </c>
+      <c r="AB181">
         <v>2.63</v>
       </c>
-      <c r="W181">
-        <v>1.44</v>
-      </c>
-      <c r="X181">
-        <v>7</v>
-      </c>
-      <c r="Y181">
-        <v>1.1</v>
-      </c>
-      <c r="Z181">
-        <v>2.93</v>
-      </c>
-      <c r="AA181">
-        <v>3.41</v>
-      </c>
-      <c r="AB181">
-        <v>2.06</v>
-      </c>
       <c r="AC181">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AD181">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE181">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AF181">
-        <v>3.48</v>
+        <v>3.98</v>
       </c>
       <c r="AG181">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AH181">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AI181">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ181">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK181">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="AL181">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM181">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AN181">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO181">
-        <v>2.2</v>
+        <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="AR181">
-        <v>1.89</v>
+        <v>1.42</v>
       </c>
       <c r="AS181">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AT181">
-        <v>3.21</v>
+        <v>2.55</v>
       </c>
       <c r="AU181">
         <v>-1</v>
@@ -38564,43 +38570,43 @@
         <v>-1</v>
       </c>
       <c r="BD181">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="BE181">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF181">
-        <v>1.75</v>
+        <v>2.48</v>
       </c>
       <c r="BG181">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="BH181">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="BI181">
+        <v>1.43</v>
+      </c>
+      <c r="BJ181">
+        <v>2.55</v>
+      </c>
+      <c r="BK181">
+        <v>1.68</v>
+      </c>
+      <c r="BL181">
+        <v>2.02</v>
+      </c>
+      <c r="BM181">
+        <v>2.08</v>
+      </c>
+      <c r="BN181">
         <v>1.65</v>
       </c>
-      <c r="BJ181">
-        <v>2.08</v>
-      </c>
-      <c r="BK181">
-        <v>2.05</v>
-      </c>
-      <c r="BL181">
-        <v>1.67</v>
-      </c>
-      <c r="BM181">
+      <c r="BO181">
         <v>2.65</v>
       </c>
-      <c r="BN181">
+      <c r="BP181">
         <v>1.41</v>
-      </c>
-      <c r="BO181">
-        <v>3.45</v>
-      </c>
-      <c r="BP181">
-        <v>1.25</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -38608,7 +38614,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7781256</v>
+        <v>7781255</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38623,190 +38629,190 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H182" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M182">
         <v>1</v>
       </c>
       <c r="N182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O182" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P182" t="s">
         <v>311</v>
       </c>
       <c r="Q182">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R182">
+        <v>2.25</v>
+      </c>
+      <c r="S182">
+        <v>2.75</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>3</v>
+      </c>
+      <c r="V182">
+        <v>2.63</v>
+      </c>
+      <c r="W182">
+        <v>1.44</v>
+      </c>
+      <c r="X182">
+        <v>7</v>
+      </c>
+      <c r="Y182">
+        <v>1.1</v>
+      </c>
+      <c r="Z182">
+        <v>2.93</v>
+      </c>
+      <c r="AA182">
+        <v>3.41</v>
+      </c>
+      <c r="AB182">
+        <v>2.06</v>
+      </c>
+      <c r="AC182">
+        <v>1</v>
+      </c>
+      <c r="AD182">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE182">
+        <v>1.24</v>
+      </c>
+      <c r="AF182">
+        <v>3.48</v>
+      </c>
+      <c r="AG182">
+        <v>1.8</v>
+      </c>
+      <c r="AH182">
+        <v>1.9</v>
+      </c>
+      <c r="AI182">
+        <v>1.7</v>
+      </c>
+      <c r="AJ182">
+        <v>2.05</v>
+      </c>
+      <c r="AK182">
+        <v>1.69</v>
+      </c>
+      <c r="AL182">
+        <v>1.3</v>
+      </c>
+      <c r="AM182">
+        <v>1.35</v>
+      </c>
+      <c r="AN182">
+        <v>0.33</v>
+      </c>
+      <c r="AO182">
+        <v>2.2</v>
+      </c>
+      <c r="AP182">
+        <v>0.5</v>
+      </c>
+      <c r="AQ182">
+        <v>2</v>
+      </c>
+      <c r="AR182">
+        <v>1.89</v>
+      </c>
+      <c r="AS182">
+        <v>1.32</v>
+      </c>
+      <c r="AT182">
+        <v>3.21</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>5</v>
+      </c>
+      <c r="AW182">
+        <v>2</v>
+      </c>
+      <c r="AX182">
+        <v>10</v>
+      </c>
+      <c r="AY182">
+        <v>5</v>
+      </c>
+      <c r="AZ182">
+        <v>15</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>4</v>
+      </c>
+      <c r="BD182">
         <v>2.3</v>
       </c>
-      <c r="S182">
-        <v>4</v>
-      </c>
-      <c r="T182">
-        <v>1.33</v>
-      </c>
-      <c r="U182">
-        <v>3.25</v>
-      </c>
-      <c r="V182">
-        <v>2.5</v>
-      </c>
-      <c r="W182">
-        <v>1.5</v>
-      </c>
-      <c r="X182">
-        <v>6.5</v>
-      </c>
-      <c r="Y182">
-        <v>1.11</v>
-      </c>
-      <c r="Z182">
-        <v>1.85</v>
-      </c>
-      <c r="AA182">
-        <v>3.65</v>
-      </c>
-      <c r="AB182">
-        <v>3.27</v>
-      </c>
-      <c r="AC182">
-        <v>1.04</v>
-      </c>
-      <c r="AD182">
-        <v>10</v>
-      </c>
-      <c r="AE182">
-        <v>1.18</v>
-      </c>
-      <c r="AF182">
-        <v>4.05</v>
-      </c>
-      <c r="AG182">
-        <v>1.7</v>
-      </c>
-      <c r="AH182">
+      <c r="BE182">
+        <v>6.4</v>
+      </c>
+      <c r="BF182">
+        <v>1.75</v>
+      </c>
+      <c r="BG182">
+        <v>1.38</v>
+      </c>
+      <c r="BH182">
+        <v>2.7</v>
+      </c>
+      <c r="BI182">
+        <v>1.65</v>
+      </c>
+      <c r="BJ182">
+        <v>2.08</v>
+      </c>
+      <c r="BK182">
         <v>2.05</v>
       </c>
-      <c r="AI182">
+      <c r="BL182">
         <v>1.67</v>
       </c>
-      <c r="AJ182">
-        <v>2.1</v>
-      </c>
-      <c r="AK182">
-        <v>1.31</v>
-      </c>
-      <c r="AL182">
-        <v>1.28</v>
-      </c>
-      <c r="AM182">
-        <v>1.81</v>
-      </c>
-      <c r="AN182">
-        <v>1.83</v>
-      </c>
-      <c r="AO182">
-        <v>0.67</v>
-      </c>
-      <c r="AP182">
-        <v>2</v>
-      </c>
-      <c r="AQ182">
-        <v>0.57</v>
-      </c>
-      <c r="AR182">
-        <v>1.98</v>
-      </c>
-      <c r="AS182">
-        <v>1.19</v>
-      </c>
-      <c r="AT182">
-        <v>3.17</v>
-      </c>
-      <c r="AU182">
-        <v>-1</v>
-      </c>
-      <c r="AV182">
-        <v>-1</v>
-      </c>
-      <c r="AW182">
-        <v>-1</v>
-      </c>
-      <c r="AX182">
-        <v>-1</v>
-      </c>
-      <c r="AY182">
-        <v>-1</v>
-      </c>
-      <c r="AZ182">
-        <v>-1</v>
-      </c>
-      <c r="BA182">
-        <v>-1</v>
-      </c>
-      <c r="BB182">
-        <v>-1</v>
-      </c>
-      <c r="BC182">
-        <v>-1</v>
-      </c>
-      <c r="BD182">
-        <v>1.48</v>
-      </c>
-      <c r="BE182">
-        <v>6.75</v>
-      </c>
-      <c r="BF182">
-        <v>2.9</v>
-      </c>
-      <c r="BG182">
-        <v>1.3</v>
-      </c>
-      <c r="BH182">
-        <v>3.15</v>
-      </c>
-      <c r="BI182">
-        <v>1.52</v>
-      </c>
-      <c r="BJ182">
-        <v>2.33</v>
-      </c>
-      <c r="BK182">
-        <v>1.86</v>
-      </c>
-      <c r="BL182">
-        <v>1.82</v>
-      </c>
       <c r="BM182">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="BN182">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="BO182">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="BP182">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38814,7 +38820,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7781258</v>
+        <v>7781256</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38829,189 +38835,601 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
+        <v>76</v>
+      </c>
+      <c r="H183" t="s">
+        <v>85</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183" t="s">
+        <v>226</v>
+      </c>
+      <c r="P183" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q183">
+        <v>2.5</v>
+      </c>
+      <c r="R183">
+        <v>2.3</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.33</v>
+      </c>
+      <c r="U183">
+        <v>3.25</v>
+      </c>
+      <c r="V183">
+        <v>2.5</v>
+      </c>
+      <c r="W183">
+        <v>1.5</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.11</v>
+      </c>
+      <c r="Z183">
+        <v>1.85</v>
+      </c>
+      <c r="AA183">
+        <v>3.65</v>
+      </c>
+      <c r="AB183">
+        <v>3.27</v>
+      </c>
+      <c r="AC183">
+        <v>1.04</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.18</v>
+      </c>
+      <c r="AF183">
+        <v>4.05</v>
+      </c>
+      <c r="AG183">
+        <v>1.7</v>
+      </c>
+      <c r="AH183">
+        <v>2.05</v>
+      </c>
+      <c r="AI183">
+        <v>1.67</v>
+      </c>
+      <c r="AJ183">
+        <v>2.1</v>
+      </c>
+      <c r="AK183">
+        <v>1.31</v>
+      </c>
+      <c r="AL183">
+        <v>1.28</v>
+      </c>
+      <c r="AM183">
+        <v>1.81</v>
+      </c>
+      <c r="AN183">
+        <v>1.83</v>
+      </c>
+      <c r="AO183">
+        <v>0.67</v>
+      </c>
+      <c r="AP183">
+        <v>2</v>
+      </c>
+      <c r="AQ183">
+        <v>0.57</v>
+      </c>
+      <c r="AR183">
+        <v>1.98</v>
+      </c>
+      <c r="AS183">
+        <v>1.19</v>
+      </c>
+      <c r="AT183">
+        <v>3.17</v>
+      </c>
+      <c r="AU183">
+        <v>7</v>
+      </c>
+      <c r="AV183">
+        <v>2</v>
+      </c>
+      <c r="AW183">
+        <v>6</v>
+      </c>
+      <c r="AX183">
+        <v>8</v>
+      </c>
+      <c r="AY183">
+        <v>14</v>
+      </c>
+      <c r="AZ183">
+        <v>11</v>
+      </c>
+      <c r="BA183">
+        <v>1</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>3</v>
+      </c>
+      <c r="BD183">
+        <v>1.48</v>
+      </c>
+      <c r="BE183">
+        <v>6.75</v>
+      </c>
+      <c r="BF183">
+        <v>2.9</v>
+      </c>
+      <c r="BG183">
+        <v>1.3</v>
+      </c>
+      <c r="BH183">
+        <v>3.15</v>
+      </c>
+      <c r="BI183">
+        <v>1.52</v>
+      </c>
+      <c r="BJ183">
+        <v>2.33</v>
+      </c>
+      <c r="BK183">
+        <v>1.86</v>
+      </c>
+      <c r="BL183">
+        <v>1.82</v>
+      </c>
+      <c r="BM183">
+        <v>2.32</v>
+      </c>
+      <c r="BN183">
+        <v>1.52</v>
+      </c>
+      <c r="BO183">
+        <v>2.95</v>
+      </c>
+      <c r="BP183">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7781257</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45791.85416666666</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>89</v>
+      </c>
+      <c r="H184" t="s">
+        <v>84</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>5</v>
+      </c>
+      <c r="O184" t="s">
+        <v>227</v>
+      </c>
+      <c r="P184" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q184">
+        <v>2.05</v>
+      </c>
+      <c r="R184">
+        <v>2.4</v>
+      </c>
+      <c r="S184">
+        <v>5.5</v>
+      </c>
+      <c r="T184">
+        <v>1.3</v>
+      </c>
+      <c r="U184">
+        <v>3.4</v>
+      </c>
+      <c r="V184">
+        <v>2.5</v>
+      </c>
+      <c r="W184">
+        <v>1.5</v>
+      </c>
+      <c r="X184">
+        <v>6</v>
+      </c>
+      <c r="Y184">
+        <v>1.13</v>
+      </c>
+      <c r="Z184">
+        <v>1.51</v>
+      </c>
+      <c r="AA184">
+        <v>4</v>
+      </c>
+      <c r="AB184">
+        <v>4.8</v>
+      </c>
+      <c r="AC184">
+        <v>1.03</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.18</v>
+      </c>
+      <c r="AF184">
+        <v>4.1</v>
+      </c>
+      <c r="AG184">
+        <v>1.67</v>
+      </c>
+      <c r="AH184">
+        <v>2.05</v>
+      </c>
+      <c r="AI184">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184">
+        <v>1.95</v>
+      </c>
+      <c r="AK184">
+        <v>1.14</v>
+      </c>
+      <c r="AL184">
+        <v>1.22</v>
+      </c>
+      <c r="AM184">
+        <v>2.47</v>
+      </c>
+      <c r="AN184">
+        <v>2</v>
+      </c>
+      <c r="AO184">
+        <v>0.29</v>
+      </c>
+      <c r="AP184">
+        <v>2.13</v>
+      </c>
+      <c r="AQ184">
+        <v>0.25</v>
+      </c>
+      <c r="AR184">
+        <v>1.71</v>
+      </c>
+      <c r="AS184">
+        <v>1.32</v>
+      </c>
+      <c r="AT184">
+        <v>3.03</v>
+      </c>
+      <c r="AU184">
+        <v>-1</v>
+      </c>
+      <c r="AV184">
+        <v>-1</v>
+      </c>
+      <c r="AW184">
+        <v>-1</v>
+      </c>
+      <c r="AX184">
+        <v>-1</v>
+      </c>
+      <c r="AY184">
+        <v>-1</v>
+      </c>
+      <c r="AZ184">
+        <v>-1</v>
+      </c>
+      <c r="BA184">
+        <v>-1</v>
+      </c>
+      <c r="BB184">
+        <v>-1</v>
+      </c>
+      <c r="BC184">
+        <v>-1</v>
+      </c>
+      <c r="BD184">
+        <v>1.33</v>
+      </c>
+      <c r="BE184">
+        <v>7.5</v>
+      </c>
+      <c r="BF184">
+        <v>3.55</v>
+      </c>
+      <c r="BG184">
+        <v>1.23</v>
+      </c>
+      <c r="BH184">
+        <v>3.65</v>
+      </c>
+      <c r="BI184">
+        <v>1.41</v>
+      </c>
+      <c r="BJ184">
+        <v>2.65</v>
+      </c>
+      <c r="BK184">
+        <v>1.66</v>
+      </c>
+      <c r="BL184">
+        <v>2.06</v>
+      </c>
+      <c r="BM184">
+        <v>2.04</v>
+      </c>
+      <c r="BN184">
+        <v>1.67</v>
+      </c>
+      <c r="BO184">
+        <v>2.55</v>
+      </c>
+      <c r="BP184">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7781258</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45791.85416666666</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
         <v>98</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H185" t="s">
         <v>73</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>1</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-      <c r="M183">
-        <v>1</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183" t="s">
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
         <v>109</v>
       </c>
-      <c r="P183" t="s">
+      <c r="P185" t="s">
         <v>108</v>
       </c>
-      <c r="Q183">
+      <c r="Q185">
         <v>3.5</v>
       </c>
-      <c r="R183">
+      <c r="R185">
         <v>2.25</v>
       </c>
-      <c r="S183">
+      <c r="S185">
         <v>2.88</v>
       </c>
-      <c r="T183">
+      <c r="T185">
         <v>1.36</v>
       </c>
-      <c r="U183">
+      <c r="U185">
         <v>3</v>
       </c>
-      <c r="V183">
+      <c r="V185">
         <v>2.63</v>
       </c>
-      <c r="W183">
+      <c r="W185">
         <v>1.44</v>
       </c>
-      <c r="X183">
+      <c r="X185">
         <v>7</v>
       </c>
-      <c r="Y183">
+      <c r="Y185">
         <v>1.1</v>
       </c>
-      <c r="Z183">
+      <c r="Z185">
         <v>2.74</v>
       </c>
-      <c r="AA183">
+      <c r="AA185">
         <v>3.41</v>
       </c>
-      <c r="AB183">
+      <c r="AB185">
         <v>2.16</v>
       </c>
-      <c r="AC183">
-        <v>1</v>
-      </c>
-      <c r="AD183">
+      <c r="AC185">
+        <v>1</v>
+      </c>
+      <c r="AD185">
         <v>9.300000000000001</v>
       </c>
-      <c r="AE183">
+      <c r="AE185">
         <v>1.24</v>
       </c>
-      <c r="AF183">
+      <c r="AF185">
         <v>3.48</v>
       </c>
-      <c r="AG183">
+      <c r="AG185">
         <v>1.8</v>
       </c>
-      <c r="AH183">
+      <c r="AH185">
         <v>1.9</v>
       </c>
-      <c r="AI183">
+      <c r="AI185">
         <v>1.7</v>
       </c>
-      <c r="AJ183">
+      <c r="AJ185">
         <v>2.05</v>
       </c>
-      <c r="AK183">
+      <c r="AK185">
         <v>1.62</v>
       </c>
-      <c r="AL183">
+      <c r="AL185">
         <v>1.3</v>
       </c>
-      <c r="AM183">
+      <c r="AM185">
         <v>1.4</v>
       </c>
-      <c r="AN183">
+      <c r="AN185">
         <v>0.83</v>
       </c>
-      <c r="AO183">
+      <c r="AO185">
         <v>1.5</v>
       </c>
-      <c r="AP183">
+      <c r="AP185">
         <v>0.71</v>
       </c>
-      <c r="AQ183">
+      <c r="AQ185">
         <v>1.71</v>
       </c>
-      <c r="AR183">
+      <c r="AR185">
         <v>1.44</v>
       </c>
-      <c r="AS183">
+      <c r="AS185">
         <v>1.57</v>
       </c>
-      <c r="AT183">
+      <c r="AT185">
         <v>3.01</v>
       </c>
-      <c r="AU183">
-        <v>-1</v>
-      </c>
-      <c r="AV183">
-        <v>-1</v>
-      </c>
-      <c r="AW183">
-        <v>-1</v>
-      </c>
-      <c r="AX183">
-        <v>-1</v>
-      </c>
-      <c r="AY183">
-        <v>-1</v>
-      </c>
-      <c r="AZ183">
-        <v>-1</v>
-      </c>
-      <c r="BA183">
-        <v>-1</v>
-      </c>
-      <c r="BB183">
-        <v>-1</v>
-      </c>
-      <c r="BC183">
-        <v>-1</v>
-      </c>
-      <c r="BD183">
+      <c r="AU185">
+        <v>0</v>
+      </c>
+      <c r="AV185">
+        <v>2</v>
+      </c>
+      <c r="AW185">
+        <v>0</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>3</v>
+      </c>
+      <c r="AZ185">
+        <v>5</v>
+      </c>
+      <c r="BA185">
+        <v>2</v>
+      </c>
+      <c r="BB185">
+        <v>3</v>
+      </c>
+      <c r="BC185">
+        <v>5</v>
+      </c>
+      <c r="BD185">
         <v>1.98</v>
       </c>
-      <c r="BE183">
+      <c r="BE185">
         <v>6.4</v>
       </c>
-      <c r="BF183">
-        <v>2</v>
-      </c>
-      <c r="BG183">
+      <c r="BF185">
+        <v>2</v>
+      </c>
+      <c r="BG185">
         <v>1.33</v>
       </c>
-      <c r="BH183">
+      <c r="BH185">
         <v>3</v>
       </c>
-      <c r="BI183">
+      <c r="BI185">
         <v>1.55</v>
       </c>
-      <c r="BJ183">
+      <c r="BJ185">
         <v>2.25</v>
       </c>
-      <c r="BK183">
+      <c r="BK185">
         <v>1.9</v>
       </c>
-      <c r="BL183">
+      <c r="BL185">
         <v>1.79</v>
       </c>
-      <c r="BM183">
+      <c r="BM185">
         <v>2.4</v>
       </c>
-      <c r="BN183">
+      <c r="BN185">
         <v>1.5</v>
       </c>
-      <c r="BO183">
+      <c r="BO185">
         <v>3.05</v>
       </c>
-      <c r="BP183">
+      <c r="BP185">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,24 @@
     <t>['48', '50', '90+6']</t>
   </si>
   <si>
+    <t>['34', '63']</t>
+  </si>
+  <si>
+    <t>['45+1', '77']</t>
+  </si>
+  <si>
+    <t>['15', '44']</t>
+  </si>
+  <si>
+    <t>['26', '51', '80', '86']</t>
+  </si>
+  <si>
+    <t>['33', '58']</t>
+  </si>
+  <si>
+    <t>['3', '37', '45+4']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -956,6 +974,18 @@
   </si>
   <si>
     <t>['31', '37']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['70', '77']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['1', '44', '52']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AQ2">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1782,7 +1812,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1863,7 +1893,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1988,7 +2018,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2066,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ4">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2272,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="AQ5">
-        <v>0.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2400,7 +2430,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2481,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2606,7 +2636,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2684,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2812,7 +2842,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2890,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3096,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3224,7 +3254,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3305,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3508,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3714,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3920,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4048,7 +4078,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4126,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4254,7 +4284,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4332,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4460,7 +4490,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4538,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4738,25 +4768,25 @@
         <v>1.68</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -4947,22 +4977,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ18">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5078,7 +5108,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5150,25 +5180,25 @@
         <v>1.4</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ19">
         <v>2</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5359,22 +5389,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>1.77</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5490,7 +5520,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5568,10 +5598,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5696,7 +5726,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5768,25 +5798,25 @@
         <v>1.6</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -5902,7 +5932,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5977,22 +6007,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6108,7 +6138,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6183,22 +6213,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6392,19 +6422,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AS25">
         <v>1.66</v>
       </c>
       <c r="AT25">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6520,7 +6550,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6592,25 +6622,25 @@
         <v>1.7</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
+        <v>1.23</v>
+      </c>
+      <c r="AQ26">
         <v>1.33</v>
       </c>
-      <c r="AQ26">
-        <v>1.71</v>
-      </c>
       <c r="AR26">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AS26">
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6804,10 +6834,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7007,22 +7037,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.72</v>
+        <v>2.22</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7210,25 +7240,25 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7416,25 +7446,25 @@
         <v>1.72</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7550,7 +7580,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7625,22 +7655,22 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31">
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>1.39</v>
+        <v>3.01</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7837,16 +7867,16 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7962,7 +7992,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8034,25 +8064,25 @@
         <v>1.72</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR33">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AT33">
-        <v>2.47</v>
+        <v>3.34</v>
       </c>
       <c r="AU33">
         <v>11</v>
@@ -8240,25 +8270,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ34">
-        <v>0.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR34">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8446,25 +8476,25 @@
         <v>2.1</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR35">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="AS35">
         <v>1.47</v>
       </c>
       <c r="AT35">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8658,19 +8688,19 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AR36">
+        <v>1.52</v>
+      </c>
+      <c r="AS36">
         <v>1.23</v>
       </c>
-      <c r="AS36">
-        <v>0.89</v>
-      </c>
       <c r="AT36">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8786,7 +8816,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8858,25 +8888,25 @@
         <v>1.52</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="AS37">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -9064,25 +9094,25 @@
         <v>1.65</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -9270,25 +9300,25 @@
         <v>1.98</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR39">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AS39">
-        <v>0.45</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1.95</v>
+        <v>2.59</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9404,7 +9434,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9476,25 +9506,25 @@
         <v>1.95</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AS40">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>2.69</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9682,25 +9712,25 @@
         <v>1.82</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR41">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AS41">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT41">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9816,7 +9846,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -9888,25 +9918,25 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AR42">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AS42">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -10100,19 +10130,19 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR43">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="AS43">
         <v>1.11</v>
       </c>
       <c r="AT43">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10303,22 +10333,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR44">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AS44">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>3.19</v>
+        <v>2.74</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10506,25 +10536,25 @@
         <v>2.55</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP45">
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR45">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AS45">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT45">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10640,7 +10670,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10718,19 +10748,19 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AQ46">
+        <v>0.85</v>
+      </c>
+      <c r="AR46">
         <v>0.83</v>
       </c>
-      <c r="AR46">
-        <v>0.92</v>
-      </c>
       <c r="AS46">
-        <v>0.47</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10846,7 +10876,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10918,25 +10948,25 @@
         <v>1.71</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AT47">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11052,7 +11082,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11124,25 +11154,25 @@
         <v>1.6</v>
       </c>
       <c r="AN48">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR48">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS48">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT48">
-        <v>3.14</v>
+        <v>2.96</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11330,25 +11360,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR49">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AT49">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11536,25 +11566,25 @@
         <v>1.63</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AR50">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AS50">
-        <v>0.73</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
-        <v>2.03</v>
+        <v>2.52</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11742,25 +11772,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO51">
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR51">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS51">
         <v>1.19</v>
       </c>
       <c r="AT51">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -11876,7 +11906,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11948,25 +11978,25 @@
         <v>2.1</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR52">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="AS52">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AT52">
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12082,7 +12112,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12157,22 +12187,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ53">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AS53">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT53">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12360,25 +12390,25 @@
         <v>1.65</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO54">
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR54">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AS54">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="AT54">
-        <v>4.4</v>
+        <v>3.62</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -12494,7 +12524,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12566,25 +12596,25 @@
         <v>1.68</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55">
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR55">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="AS55">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="AT55">
-        <v>3.37</v>
+        <v>2.68</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12772,25 +12802,25 @@
         <v>1.47</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AR56">
-        <v>2.14</v>
+        <v>1.36</v>
       </c>
       <c r="AS56">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="AT56">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -12978,25 +13008,25 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ57">
         <v>2</v>
       </c>
       <c r="AR57">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>0.99</v>
+        <v>1.47</v>
       </c>
       <c r="AT57">
-        <v>2.54</v>
+        <v>3.01</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -13112,7 +13142,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13184,25 +13214,25 @@
         <v>1.73</v>
       </c>
       <c r="AN58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR58">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="AS58">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU58">
         <v>12</v>
@@ -13318,7 +13348,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13393,22 +13423,22 @@
         <v>3</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>1.77</v>
       </c>
       <c r="AR59">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>2.76</v>
+        <v>3.37</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13596,25 +13626,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO60">
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR60">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AS60">
-        <v>0.73</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13730,7 +13760,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13802,25 +13832,25 @@
         <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13936,7 +13966,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14008,25 +14038,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="AQ62">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="AR62">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS62">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14142,7 +14172,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14214,25 +14244,25 @@
         <v>1.87</v>
       </c>
       <c r="AN63">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR63">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS63">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -14348,7 +14378,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14420,25 +14450,25 @@
         <v>2.25</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO64">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AS64">
-        <v>0.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT64">
-        <v>2.5</v>
+        <v>3.23</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14629,22 +14659,22 @@
         <v>2</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP65">
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR65">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AS65">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14832,25 +14862,25 @@
         <v>1.98</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR66">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS66">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT66">
-        <v>2.61</v>
+        <v>2.46</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15038,25 +15068,25 @@
         <v>1.98</v>
       </c>
       <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>1.5</v>
       </c>
-      <c r="AO67">
-        <v>1</v>
-      </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR67">
+        <v>1.49</v>
+      </c>
+      <c r="AS67">
         <v>1.65</v>
       </c>
-      <c r="AS67">
-        <v>1.8</v>
-      </c>
       <c r="AT67">
-        <v>3.45</v>
+        <v>3.14</v>
       </c>
       <c r="AU67">
         <v>11</v>
@@ -15244,25 +15274,25 @@
         <v>1.65</v>
       </c>
       <c r="AN68">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO68">
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR68">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AS68">
-        <v>0.97</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>2.45</v>
+        <v>3.01</v>
       </c>
       <c r="AU68">
         <v>9</v>
@@ -15378,7 +15408,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15450,25 +15480,25 @@
         <v>1.39</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR69">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AS69">
-        <v>0.93</v>
+        <v>1.34</v>
       </c>
       <c r="AT69">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15656,25 +15686,25 @@
         <v>2.25</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO70">
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ70">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR70">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="AS70">
         <v>1.12</v>
       </c>
       <c r="AT70">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15790,7 +15820,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15862,25 +15892,25 @@
         <v>1.9</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR71">
-        <v>1.88</v>
+        <v>1.16</v>
       </c>
       <c r="AS71">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AT71">
-        <v>3.15</v>
+        <v>2.29</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -15996,7 +16026,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16071,22 +16101,22 @@
         <v>1.5</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS72">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT72">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="AU72">
         <v>3</v>
@@ -16274,25 +16304,25 @@
         <v>2.1</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AQ73">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>2.23</v>
+        <v>1.79</v>
       </c>
       <c r="AS73">
-        <v>0.61</v>
+        <v>1.24</v>
       </c>
       <c r="AT73">
-        <v>2.84</v>
+        <v>3.03</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16408,7 +16438,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16483,22 +16513,22 @@
         <v>3</v>
       </c>
       <c r="AO74">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS74">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16689,22 +16719,22 @@
         <v>1.5</v>
       </c>
       <c r="AO75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AQ75">
+        <v>1.77</v>
+      </c>
+      <c r="AR75">
         <v>1.5</v>
       </c>
-      <c r="AR75">
-        <v>1.74</v>
-      </c>
       <c r="AS75">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="AT75">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -16820,7 +16850,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16892,25 +16922,25 @@
         <v>1.47</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO76">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76">
-        <v>0.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR76">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="AS76">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17098,25 +17128,25 @@
         <v>1.39</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO77">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AP77">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ77">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR77">
-        <v>0.9</v>
+        <v>1.11</v>
       </c>
       <c r="AS77">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="AT77">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17304,25 +17334,25 @@
         <v>1.61</v>
       </c>
       <c r="AN78">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO78">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR78">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AS78">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AT78">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17510,25 +17540,25 @@
         <v>2.65</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AP79">
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR79">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AS79">
         <v>1.73</v>
       </c>
       <c r="AT79">
-        <v>2.88</v>
+        <v>3.11</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17644,7 +17674,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17716,25 +17746,25 @@
         <v>1.51</v>
       </c>
       <c r="AN80">
+        <v>1.2</v>
+      </c>
+      <c r="AO80">
+        <v>1.8</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>1.72</v>
+      </c>
+      <c r="AS80">
         <v>1.67</v>
       </c>
-      <c r="AO80">
-        <v>2</v>
-      </c>
-      <c r="AP80">
-        <v>1.29</v>
-      </c>
-      <c r="AQ80">
-        <v>2</v>
-      </c>
-      <c r="AR80">
-        <v>1.6</v>
-      </c>
-      <c r="AS80">
-        <v>1.05</v>
-      </c>
       <c r="AT80">
-        <v>2.65</v>
+        <v>3.39</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17850,7 +17880,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17922,25 +17952,25 @@
         <v>1.66</v>
       </c>
       <c r="AN81">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR81">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS81">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="AT81">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18056,7 +18086,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18128,25 +18158,25 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO82">
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR82">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="AS82">
         <v>1.12</v>
       </c>
       <c r="AT82">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18334,25 +18364,25 @@
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AR83">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS83">
-        <v>0.91</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18540,25 +18570,25 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO84">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR84">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="AS84">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT84">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18674,7 +18704,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18746,22 +18776,22 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO85">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AR85">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AS85">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AT85">
         <v>3.22</v>
@@ -18880,7 +18910,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -18952,25 +18982,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR86">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AS86">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="AT86">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19086,7 +19116,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19158,25 +19188,25 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO87">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR87">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="AS87">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="AT87">
-        <v>2.96</v>
+        <v>3.13</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19364,25 +19394,25 @@
         <v>1.57</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AR88">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="AS88">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="AT88">
-        <v>3.51</v>
+        <v>3.69</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19570,25 +19600,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO89">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP89">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR89">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>3.08</v>
+        <v>2.74</v>
       </c>
       <c r="AU89">
         <v>3</v>
@@ -19704,7 +19734,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19776,25 +19806,25 @@
         <v>1.78</v>
       </c>
       <c r="AN90">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP90">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ90">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR90">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS90">
-        <v>0.68</v>
+        <v>1.15</v>
       </c>
       <c r="AT90">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19982,25 +20012,25 @@
         <v>1.84</v>
       </c>
       <c r="AN91">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO91">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>1.77</v>
       </c>
       <c r="AR91">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AT91">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20191,22 +20221,22 @@
         <v>1</v>
       </c>
       <c r="AO92">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP92">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR92">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AS92">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT92">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20322,7 +20352,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20394,25 +20424,25 @@
         <v>2.32</v>
       </c>
       <c r="AN93">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO93">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ93">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT93">
-        <v>3.08</v>
+        <v>2.89</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20603,22 +20633,22 @@
         <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP94">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR94">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AS94">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AT94">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20806,25 +20836,25 @@
         <v>2.35</v>
       </c>
       <c r="AN95">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO95">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="AQ95">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR95">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AS95">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT95">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -20940,7 +20970,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21012,7 +21042,7 @@
         <v>2.36</v>
       </c>
       <c r="AN96">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO96">
         <v>0.33</v>
@@ -21021,16 +21051,16 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR96">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="AS96">
         <v>1.24</v>
       </c>
       <c r="AT96">
-        <v>3.33</v>
+        <v>2.88</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21218,25 +21248,25 @@
         <v>2.03</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO97">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AS97">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="AT97">
-        <v>3.14</v>
+        <v>2.82</v>
       </c>
       <c r="AU97">
         <v>8</v>
@@ -21427,22 +21457,22 @@
         <v>2</v>
       </c>
       <c r="AO98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR98">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT98">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="AU98">
         <v>2</v>
@@ -21630,25 +21660,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AO99">
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ99">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR99">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AS99">
-        <v>0.9399999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AT99">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21836,25 +21866,25 @@
         <v>1.53</v>
       </c>
       <c r="AN100">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP100">
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR100">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AS100">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AT100">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22042,25 +22072,25 @@
         <v>2.05</v>
       </c>
       <c r="AN101">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AO101">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP101">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR101">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS101">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AT101">
-        <v>2.67</v>
+        <v>3.21</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22248,25 +22278,25 @@
         <v>0</v>
       </c>
       <c r="AN102">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO102">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AR102">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="AS102">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT102">
-        <v>3.84</v>
+        <v>3.78</v>
       </c>
       <c r="AU102">
         <v>5</v>
@@ -22382,7 +22412,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22454,25 +22484,25 @@
         <v>1.68</v>
       </c>
       <c r="AN103">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR103">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="AS103">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AT103">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22588,7 +22618,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22660,25 +22690,25 @@
         <v>1.61</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO104">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AS104">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="AT104">
-        <v>3.85</v>
+        <v>3.52</v>
       </c>
       <c r="AU104">
         <v>11</v>
@@ -22794,7 +22824,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22866,25 +22896,25 @@
         <v>2.75</v>
       </c>
       <c r="AN105">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AO105">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
         <v>1.83</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR105">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AS105">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AT105">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="AU105">
         <v>11</v>
@@ -23072,25 +23102,25 @@
         <v>1.42</v>
       </c>
       <c r="AN106">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AO106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP106">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ106">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR106">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AT106">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23206,7 +23236,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23278,25 +23308,25 @@
         <v>2.4</v>
       </c>
       <c r="AN107">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AO107">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ107">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR107">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS107">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT107">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23484,25 +23514,25 @@
         <v>1.95</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO108">
-        <v>0.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ108">
-        <v>0.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="AS108">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23690,25 +23720,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AO109">
-        <v>0.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR109">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS109">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AT109">
-        <v>1.16</v>
+        <v>2.61</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -23824,7 +23854,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23896,25 +23926,25 @@
         <v>1.93</v>
       </c>
       <c r="AN110">
+        <v>2.29</v>
+      </c>
+      <c r="AO110">
+        <v>1.86</v>
+      </c>
+      <c r="AP110">
         <v>2.25</v>
       </c>
-      <c r="AO110">
-        <v>2</v>
-      </c>
-      <c r="AP110">
-        <v>2.29</v>
-      </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR110">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AS110">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT110">
-        <v>3.06</v>
+        <v>3.28</v>
       </c>
       <c r="AU110">
         <v>12</v>
@@ -24030,7 +24060,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24102,25 +24132,25 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AR111">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS111">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT111">
-        <v>3.02</v>
+        <v>3.37</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24308,25 +24338,25 @@
         <v>1.6</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO112">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR112">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="AS112">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AT112">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24514,25 +24544,25 @@
         <v>1.45</v>
       </c>
       <c r="AN113">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO113">
-        <v>0.25</v>
+        <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AR113">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS113">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="AT113">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -24648,7 +24678,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24720,25 +24750,25 @@
         <v>1.95</v>
       </c>
       <c r="AN114">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AO114">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP114">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR114">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="AT114">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="AU114">
         <v>8</v>
@@ -24854,7 +24884,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24926,25 +24956,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO115">
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AR115">
-        <v>1.76</v>
+        <v>1.27</v>
       </c>
       <c r="AS115">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AT115">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25132,25 +25162,25 @@
         <v>1.77</v>
       </c>
       <c r="AN116">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP116">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AS116">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AT116">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25266,7 +25296,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25338,25 +25368,25 @@
         <v>2.62</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AO117">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AQ117">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR117">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AS117">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="AT117">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25472,7 +25502,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25544,25 +25574,25 @@
         <v>1.7</v>
       </c>
       <c r="AN118">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP118">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ118">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR118">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AS118">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT118">
-        <v>3.09</v>
+        <v>2.85</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25750,25 +25780,25 @@
         <v>1.45</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO119">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP119">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR119">
-        <v>0.98</v>
+        <v>1.48</v>
       </c>
       <c r="AS119">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT119">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="AU119">
         <v>8</v>
@@ -25884,7 +25914,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -25956,25 +25986,25 @@
         <v>1.53</v>
       </c>
       <c r="AN120">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO120">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP120">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ120">
         <v>2</v>
       </c>
       <c r="AR120">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AS120">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="AT120">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26162,25 +26192,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO121">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR121">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS121">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT121">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26296,7 +26326,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26368,25 +26398,25 @@
         <v>1.68</v>
       </c>
       <c r="AN122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO122">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP122">
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR122">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AS122">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT122">
-        <v>3.44</v>
+        <v>3.18</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26574,25 +26604,25 @@
         <v>1.85</v>
       </c>
       <c r="AN123">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO123">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="AR123">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AT123">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -26708,7 +26738,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26780,25 +26810,25 @@
         <v>1.93</v>
       </c>
       <c r="AN124">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR124">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AS124">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="AT124">
-        <v>3.52</v>
+        <v>3.07</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -26986,25 +27016,25 @@
         <v>2.1</v>
       </c>
       <c r="AN125">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP125">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>1.77</v>
       </c>
       <c r="AR125">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="AS125">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AT125">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27192,25 +27222,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO126">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ126">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR126">
-        <v>1.94</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AT126">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU126">
         <v>11</v>
@@ -27398,25 +27428,25 @@
         <v>0</v>
       </c>
       <c r="AN127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO127">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP127">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AR127">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AS127">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AT127">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AU127">
         <v>14</v>
@@ -27607,22 +27637,22 @@
         <v>1</v>
       </c>
       <c r="AO128">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ128">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR128">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AU128">
         <v>9</v>
@@ -27738,7 +27768,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27810,25 +27840,25 @@
         <v>1.58</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO129">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ129">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AR129">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AS129">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT129">
-        <v>2.74</v>
+        <v>3.12</v>
       </c>
       <c r="AU129">
         <v>13</v>
@@ -27944,7 +27974,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28025,16 +28055,16 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR130">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AS130">
-        <v>0.9</v>
+        <v>1.37</v>
       </c>
       <c r="AT130">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28222,25 +28252,25 @@
         <v>2</v>
       </c>
       <c r="AN131">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="AO131">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AP131">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ131">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AS131">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT131">
-        <v>3.16</v>
+        <v>2.82</v>
       </c>
       <c r="AU131">
         <v>10</v>
@@ -28431,22 +28461,22 @@
         <v>1</v>
       </c>
       <c r="AO132">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AP132">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ132">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR132">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="AS132">
         <v>1.99</v>
       </c>
       <c r="AT132">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28634,25 +28664,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO133">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR133">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="AS133">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT133">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28768,7 +28798,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28843,22 +28873,22 @@
         <v>1.75</v>
       </c>
       <c r="AO134">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ134">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR134">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AT134">
-        <v>2.42</v>
+        <v>2.69</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -28974,7 +29004,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29046,25 +29076,25 @@
         <v>1.7</v>
       </c>
       <c r="AN135">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ135">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AR135">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="AS135">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AT135">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29252,25 +29282,25 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO136">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AP136">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="AQ136">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AR136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AS136">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AT136">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU136">
         <v>8</v>
@@ -29386,7 +29416,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -29458,25 +29488,25 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AO137">
-        <v>0.4</v>
+        <v>1.22</v>
       </c>
       <c r="AP137">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR137">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AS137">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="AT137">
-        <v>2.24</v>
+        <v>2.49</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29664,25 +29694,25 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO138">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AP138">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR138">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AS138">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AT138">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU138">
         <v>6</v>
@@ -29870,25 +29900,25 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO139">
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR139">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AS139">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AT139">
-        <v>3.65</v>
+        <v>3.46</v>
       </c>
       <c r="AU139">
         <v>6</v>
@@ -30076,25 +30106,25 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AO140">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ140">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="AR140">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="AS140">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30210,7 +30240,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30282,25 +30312,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO141">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR141">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AS141">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AT141">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="AU141">
         <v>6</v>
@@ -30416,7 +30446,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30488,25 +30518,25 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>3</v>
+        <v>2.11</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ142">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR142">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AS142">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT142">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30694,25 +30724,25 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP143">
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR143">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AS143">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="AT143">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -30900,25 +30930,25 @@
         <v>1.77</v>
       </c>
       <c r="AN144">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AO144">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP144">
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR144">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AT144">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31034,7 +31064,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31106,25 +31136,25 @@
         <v>1.93</v>
       </c>
       <c r="AN145">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AO145">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AP145">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR145">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AT145">
-        <v>3.62</v>
+        <v>3.36</v>
       </c>
       <c r="AU145">
         <v>8</v>
@@ -31240,7 +31270,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31312,25 +31342,25 @@
         <v>0</v>
       </c>
       <c r="AN146">
+        <v>1.67</v>
+      </c>
+      <c r="AO146">
+        <v>1.33</v>
+      </c>
+      <c r="AP146">
+        <v>1.23</v>
+      </c>
+      <c r="AQ146">
+        <v>1.46</v>
+      </c>
+      <c r="AR146">
+        <v>1.37</v>
+      </c>
+      <c r="AS146">
         <v>1.75</v>
       </c>
-      <c r="AO146">
-        <v>0.8</v>
-      </c>
-      <c r="AP146">
-        <v>1.33</v>
-      </c>
-      <c r="AQ146">
-        <v>1.14</v>
-      </c>
-      <c r="AR146">
-        <v>1.83</v>
-      </c>
-      <c r="AS146">
-        <v>1.65</v>
-      </c>
       <c r="AT146">
-        <v>3.48</v>
+        <v>3.12</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31446,7 +31476,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31518,25 +31548,25 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO147">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AP147">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR147">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT147">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31652,7 +31682,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31724,25 +31754,25 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO148">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AP148">
         <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AR148">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AS148">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AT148">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="AU148">
         <v>5</v>
@@ -31858,7 +31888,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31930,25 +31960,25 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AQ149">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR149">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS149">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="AT149">
-        <v>2.49</v>
+        <v>2.82</v>
       </c>
       <c r="AU149">
         <v>9</v>
@@ -32064,7 +32094,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32136,25 +32166,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO150">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP150">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AQ150">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR150">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AS150">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AT150">
-        <v>2.89</v>
+        <v>2.71</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32270,7 +32300,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32342,25 +32372,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="AO151">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AP151">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>1.77</v>
       </c>
       <c r="AR151">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT151">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32476,7 +32506,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32548,25 +32578,25 @@
         <v>1.62</v>
       </c>
       <c r="AN152">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AO152">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ152">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR152">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AS152">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT152">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU152">
         <v>3</v>
@@ -32682,7 +32712,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32754,25 +32784,25 @@
         <v>0</v>
       </c>
       <c r="AN153">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO153">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AP153">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR153">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="AS153">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT153">
-        <v>3.88</v>
+        <v>3.14</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -32888,7 +32918,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -32960,25 +32990,25 @@
         <v>2.24</v>
       </c>
       <c r="AN154">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AO154">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP154">
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR154">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AS154">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AT154">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU154">
         <v>11</v>
@@ -33094,7 +33124,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33166,25 +33196,25 @@
         <v>1.83</v>
       </c>
       <c r="AN155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO155">
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR155">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AS155">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="AT155">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33300,7 +33330,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33372,25 +33402,25 @@
         <v>2.27</v>
       </c>
       <c r="AN156">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO156">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP156">
         <v>1.83</v>
       </c>
       <c r="AQ156">
-        <v>0.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR156">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AS156">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT156">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33578,25 +33608,25 @@
         <v>1.51</v>
       </c>
       <c r="AN157">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO157">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP157">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ157">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR157">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS157">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AT157">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AU157">
         <v>8</v>
@@ -33712,7 +33742,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -33784,25 +33814,25 @@
         <v>0</v>
       </c>
       <c r="AN158">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO158">
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AQ158">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR158">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS158">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AT158">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU158">
         <v>5</v>
@@ -33990,25 +34020,25 @@
         <v>0</v>
       </c>
       <c r="AN159">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO159">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP159">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ159">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AR159">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AS159">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT159">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34124,7 +34154,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34196,25 +34226,25 @@
         <v>0</v>
       </c>
       <c r="AN160">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO160">
         <v>1.2</v>
       </c>
       <c r="AP160">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR160">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AT160">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="AU160">
         <v>7</v>
@@ -34402,25 +34432,25 @@
         <v>2.35</v>
       </c>
       <c r="AN161">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO161">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AQ161">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AS161">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="AU161">
         <v>11</v>
@@ -34536,7 +34566,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34608,25 +34638,25 @@
         <v>0</v>
       </c>
       <c r="AN162">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP162">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AQ162">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR162">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AS162">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT162">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="AU162">
         <v>10</v>
@@ -34814,25 +34844,25 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO163">
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AQ163">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR163">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS163">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AT163">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35020,25 +35050,25 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO164">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AR164">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="AT164">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35226,25 +35256,25 @@
         <v>0</v>
       </c>
       <c r="AN165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AO165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AP165">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AQ165">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR165">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AS165">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT165">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35432,25 +35462,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AO166">
-        <v>0.25</v>
+        <v>0.91</v>
       </c>
       <c r="AP166">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="AR166">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AS166">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AT166">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU166">
         <v>8</v>
@@ -35638,25 +35668,25 @@
         <v>1.6</v>
       </c>
       <c r="AN167">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AO167">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP167">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ167">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR167">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS167">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AT167">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
         <v>10</v>
@@ -35772,7 +35802,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35844,25 +35874,25 @@
         <v>1.64</v>
       </c>
       <c r="AN168">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AO168">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AP168">
+        <v>1.69</v>
+      </c>
+      <c r="AQ168">
         <v>1.83</v>
       </c>
-      <c r="AQ168">
-        <v>2</v>
-      </c>
       <c r="AR168">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="AS168">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT168">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="AU168">
         <v>8</v>
@@ -35978,7 +36008,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36050,25 +36080,25 @@
         <v>2</v>
       </c>
       <c r="AN169">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AO169">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AP169">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AR169">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AS169">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT169">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36256,25 +36286,25 @@
         <v>2.03</v>
       </c>
       <c r="AN170">
-        <v>2.17</v>
+        <v>1.36</v>
       </c>
       <c r="AO170">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AP170">
-        <v>2.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR170">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AS170">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT170">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU170">
         <v>11</v>
@@ -36390,7 +36420,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36462,25 +36492,25 @@
         <v>2.12</v>
       </c>
       <c r="AN171">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="AO171">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AR171">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AT171">
-        <v>3.11</v>
+        <v>2.89</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36596,7 +36626,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36668,25 +36698,25 @@
         <v>2.3</v>
       </c>
       <c r="AN172">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ172">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AR172">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AS172">
         <v>1.33</v>
       </c>
       <c r="AT172">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="AU172">
         <v>9</v>
@@ -36802,7 +36832,7 @@
         <v>220</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36874,13 +36904,13 @@
         <v>1.61</v>
       </c>
       <c r="AN173">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO173">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP173">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -36889,10 +36919,10 @@
         <v>1.68</v>
       </c>
       <c r="AS173">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AT173">
-        <v>3.02</v>
+        <v>3.27</v>
       </c>
       <c r="AU173">
         <v>8</v>
@@ -37008,7 +37038,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -37080,25 +37110,25 @@
         <v>0</v>
       </c>
       <c r="AN174">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO174">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="AP174">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AR174">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="AS174">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AT174">
-        <v>3.33</v>
+        <v>3.05</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37214,7 +37244,7 @@
         <v>113</v>
       </c>
       <c r="P175" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37286,25 +37316,25 @@
         <v>1.97</v>
       </c>
       <c r="AN175">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="AO175">
-        <v>0.8</v>
+        <v>1.73</v>
       </c>
       <c r="AP175">
-        <v>2.29</v>
+        <v>1.77</v>
       </c>
       <c r="AQ175">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR175">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AS175">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AT175">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AU175">
         <v>8</v>
@@ -37420,7 +37450,7 @@
         <v>222</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37492,25 +37522,25 @@
         <v>1.82</v>
       </c>
       <c r="AN176">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP176">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR176">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="AS176">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37626,7 +37656,7 @@
         <v>163</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -37698,25 +37728,25 @@
         <v>1.44</v>
       </c>
       <c r="AN177">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="AO177">
-        <v>0.83</v>
+        <v>1.45</v>
       </c>
       <c r="AP177">
         <v>1</v>
       </c>
       <c r="AQ177">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="AR177">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="AS177">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AT177">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37832,7 +37862,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37904,25 +37934,25 @@
         <v>1.97</v>
       </c>
       <c r="AN178">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AO178">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ178">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR178">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AS178">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="AT178">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38110,25 +38140,25 @@
         <v>2.07</v>
       </c>
       <c r="AN179">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AO179">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="AP179">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ179">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AR179">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AS179">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT179">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38244,7 +38274,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38316,25 +38346,25 @@
         <v>1.79</v>
       </c>
       <c r="AN180">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AO180">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="AP180">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR180">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT180">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="AU180">
         <v>6</v>
@@ -38522,52 +38552,52 @@
         <v>1.6</v>
       </c>
       <c r="AN181">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO181">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="AP181">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AR181">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS181">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
-        <v>2.55</v>
+        <v>3.08</v>
       </c>
       <c r="AU181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV181">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX181">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY181">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ181">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB181">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC181">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD181">
         <v>1.65</v>
@@ -38656,7 +38686,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38728,25 +38758,25 @@
         <v>1.35</v>
       </c>
       <c r="AN182">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO182">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AP182">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AQ182">
         <v>2</v>
       </c>
       <c r="AR182">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="AS182">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AT182">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38770,10 +38800,10 @@
         <v>0</v>
       </c>
       <c r="BB182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD182">
         <v>2.3</v>
@@ -38862,7 +38892,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38934,25 +38964,25 @@
         <v>1.81</v>
       </c>
       <c r="AN183">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO183">
-        <v>0.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP183">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ183">
-        <v>0.57</v>
+        <v>1.46</v>
       </c>
       <c r="AR183">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="AS183">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT183">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39068,7 +39098,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39140,52 +39170,52 @@
         <v>2.47</v>
       </c>
       <c r="AN184">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO184">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR184">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AS184">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT184">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="AU184">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW184">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AX184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY184">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="AZ184">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA184">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BB184">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC184">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD184">
         <v>1.33</v>
@@ -39349,22 +39379,22 @@
         <v>0.83</v>
       </c>
       <c r="AO185">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="AP185">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ185">
+        <v>2.15</v>
+      </c>
+      <c r="AR185">
+        <v>1.24</v>
+      </c>
+      <c r="AS185">
         <v>1.71</v>
       </c>
-      <c r="AR185">
-        <v>1.44</v>
-      </c>
-      <c r="AS185">
-        <v>1.57</v>
-      </c>
       <c r="AT185">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="AU185">
         <v>0</v>
@@ -39431,6 +39461,1654 @@
       </c>
       <c r="BP185">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7781261</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45791.89583333334</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>79</v>
+      </c>
+      <c r="H186" t="s">
+        <v>88</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>228</v>
+      </c>
+      <c r="P186" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q186">
+        <v>2.4</v>
+      </c>
+      <c r="R186">
+        <v>2.25</v>
+      </c>
+      <c r="S186">
+        <v>4.5</v>
+      </c>
+      <c r="T186">
+        <v>1.36</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186">
+        <v>2.63</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>7</v>
+      </c>
+      <c r="Y186">
+        <v>1.1</v>
+      </c>
+      <c r="Z186">
+        <v>1.96</v>
+      </c>
+      <c r="AA186">
+        <v>3.59</v>
+      </c>
+      <c r="AB186">
+        <v>3.02</v>
+      </c>
+      <c r="AC186">
+        <v>1.05</v>
+      </c>
+      <c r="AD186">
+        <v>9.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.28</v>
+      </c>
+      <c r="AF186">
+        <v>3.6</v>
+      </c>
+      <c r="AG186">
+        <v>1.81</v>
+      </c>
+      <c r="AH186">
+        <v>1.89</v>
+      </c>
+      <c r="AI186">
+        <v>1.8</v>
+      </c>
+      <c r="AJ186">
+        <v>1.95</v>
+      </c>
+      <c r="AK186">
+        <v>1.25</v>
+      </c>
+      <c r="AL186">
+        <v>1.22</v>
+      </c>
+      <c r="AM186">
+        <v>1.9</v>
+      </c>
+      <c r="AN186">
+        <v>1.67</v>
+      </c>
+      <c r="AO186">
+        <v>1.5</v>
+      </c>
+      <c r="AP186">
+        <v>1.77</v>
+      </c>
+      <c r="AQ186">
+        <v>1.38</v>
+      </c>
+      <c r="AR186">
+        <v>1.74</v>
+      </c>
+      <c r="AS186">
+        <v>1.46</v>
+      </c>
+      <c r="AT186">
+        <v>3.2</v>
+      </c>
+      <c r="AU186">
+        <v>8</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>6</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>14</v>
+      </c>
+      <c r="AZ186">
+        <v>9</v>
+      </c>
+      <c r="BA186">
+        <v>5</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>11</v>
+      </c>
+      <c r="BD186">
+        <v>1.64</v>
+      </c>
+      <c r="BE186">
+        <v>6.4</v>
+      </c>
+      <c r="BF186">
+        <v>2.55</v>
+      </c>
+      <c r="BG186">
+        <v>1.34</v>
+      </c>
+      <c r="BH186">
+        <v>2.9</v>
+      </c>
+      <c r="BI186">
+        <v>1.58</v>
+      </c>
+      <c r="BJ186">
+        <v>2.2</v>
+      </c>
+      <c r="BK186">
+        <v>1.94</v>
+      </c>
+      <c r="BL186">
+        <v>1.76</v>
+      </c>
+      <c r="BM186">
+        <v>2.48</v>
+      </c>
+      <c r="BN186">
+        <v>1.47</v>
+      </c>
+      <c r="BO186">
+        <v>3.2</v>
+      </c>
+      <c r="BP186">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7781260</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45791.89583333334</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s">
+        <v>92</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>229</v>
+      </c>
+      <c r="P187" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q187">
+        <v>2.88</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>3.6</v>
+      </c>
+      <c r="T187">
+        <v>1.36</v>
+      </c>
+      <c r="U187">
+        <v>3</v>
+      </c>
+      <c r="V187">
+        <v>2.75</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>7</v>
+      </c>
+      <c r="Y187">
+        <v>1.1</v>
+      </c>
+      <c r="Z187">
+        <v>2.54</v>
+      </c>
+      <c r="AA187">
+        <v>3.32</v>
+      </c>
+      <c r="AB187">
+        <v>2.35</v>
+      </c>
+      <c r="AC187">
+        <v>1.05</v>
+      </c>
+      <c r="AD187">
+        <v>9</v>
+      </c>
+      <c r="AE187">
+        <v>1.3</v>
+      </c>
+      <c r="AF187">
+        <v>3.4</v>
+      </c>
+      <c r="AG187">
+        <v>1.85</v>
+      </c>
+      <c r="AH187">
+        <v>1.85</v>
+      </c>
+      <c r="AI187">
+        <v>1.7</v>
+      </c>
+      <c r="AJ187">
+        <v>2.05</v>
+      </c>
+      <c r="AK187">
+        <v>1.42</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.55</v>
+      </c>
+      <c r="AN187">
+        <v>0.83</v>
+      </c>
+      <c r="AO187">
+        <v>1.83</v>
+      </c>
+      <c r="AP187">
+        <v>1</v>
+      </c>
+      <c r="AQ187">
+        <v>1.69</v>
+      </c>
+      <c r="AR187">
+        <v>1.39</v>
+      </c>
+      <c r="AS187">
+        <v>1.63</v>
+      </c>
+      <c r="AT187">
+        <v>3.02</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>0</v>
+      </c>
+      <c r="AW187">
+        <v>11</v>
+      </c>
+      <c r="AX187">
+        <v>8</v>
+      </c>
+      <c r="AY187">
+        <v>24</v>
+      </c>
+      <c r="AZ187">
+        <v>10</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>12</v>
+      </c>
+      <c r="BD187">
+        <v>1.74</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.3</v>
+      </c>
+      <c r="BG187">
+        <v>1.28</v>
+      </c>
+      <c r="BH187">
+        <v>3.3</v>
+      </c>
+      <c r="BI187">
+        <v>1.48</v>
+      </c>
+      <c r="BJ187">
+        <v>2.45</v>
+      </c>
+      <c r="BK187">
+        <v>1.75</v>
+      </c>
+      <c r="BL187">
+        <v>1.95</v>
+      </c>
+      <c r="BM187">
+        <v>2.18</v>
+      </c>
+      <c r="BN187">
+        <v>1.58</v>
+      </c>
+      <c r="BO187">
+        <v>2.8</v>
+      </c>
+      <c r="BP187">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7781262</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45791.90625</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>80</v>
+      </c>
+      <c r="H188" t="s">
+        <v>91</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188" t="s">
+        <v>230</v>
+      </c>
+      <c r="P188" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>2.25</v>
+      </c>
+      <c r="S188">
+        <v>3.4</v>
+      </c>
+      <c r="T188">
+        <v>1.36</v>
+      </c>
+      <c r="U188">
+        <v>3</v>
+      </c>
+      <c r="V188">
+        <v>2.63</v>
+      </c>
+      <c r="W188">
+        <v>1.44</v>
+      </c>
+      <c r="X188">
+        <v>7</v>
+      </c>
+      <c r="Y188">
+        <v>1.1</v>
+      </c>
+      <c r="Z188">
+        <v>2.25</v>
+      </c>
+      <c r="AA188">
+        <v>3.4</v>
+      </c>
+      <c r="AB188">
+        <v>2.63</v>
+      </c>
+      <c r="AC188">
+        <v>1.03</v>
+      </c>
+      <c r="AD188">
+        <v>11</v>
+      </c>
+      <c r="AE188">
+        <v>1.2</v>
+      </c>
+      <c r="AF188">
+        <v>4.5</v>
+      </c>
+      <c r="AG188">
+        <v>1.8</v>
+      </c>
+      <c r="AH188">
+        <v>1.9</v>
+      </c>
+      <c r="AI188">
+        <v>1.7</v>
+      </c>
+      <c r="AJ188">
+        <v>2.05</v>
+      </c>
+      <c r="AK188">
+        <v>1.3</v>
+      </c>
+      <c r="AL188">
+        <v>1.22</v>
+      </c>
+      <c r="AM188">
+        <v>1.77</v>
+      </c>
+      <c r="AN188">
+        <v>0.83</v>
+      </c>
+      <c r="AO188">
+        <v>0.83</v>
+      </c>
+      <c r="AP188">
+        <v>0.85</v>
+      </c>
+      <c r="AQ188">
+        <v>0.85</v>
+      </c>
+      <c r="AR188">
+        <v>1.37</v>
+      </c>
+      <c r="AS188">
+        <v>1.48</v>
+      </c>
+      <c r="AT188">
+        <v>2.85</v>
+      </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>11</v>
+      </c>
+      <c r="AY188">
+        <v>17</v>
+      </c>
+      <c r="AZ188">
+        <v>21</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>5</v>
+      </c>
+      <c r="BC188">
+        <v>10</v>
+      </c>
+      <c r="BD188">
+        <v>1.84</v>
+      </c>
+      <c r="BE188">
+        <v>6.5</v>
+      </c>
+      <c r="BF188">
+        <v>2.15</v>
+      </c>
+      <c r="BG188">
+        <v>1.23</v>
+      </c>
+      <c r="BH188">
+        <v>3.65</v>
+      </c>
+      <c r="BI188">
+        <v>1.41</v>
+      </c>
+      <c r="BJ188">
+        <v>2.65</v>
+      </c>
+      <c r="BK188">
+        <v>1.65</v>
+      </c>
+      <c r="BL188">
+        <v>2.08</v>
+      </c>
+      <c r="BM188">
+        <v>2.02</v>
+      </c>
+      <c r="BN188">
+        <v>1.68</v>
+      </c>
+      <c r="BO188">
+        <v>2.55</v>
+      </c>
+      <c r="BP188">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7781259</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45791.91666666666</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>77</v>
+      </c>
+      <c r="H189" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>176</v>
+      </c>
+      <c r="P189" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>2.2</v>
+      </c>
+      <c r="S189">
+        <v>3.6</v>
+      </c>
+      <c r="T189">
+        <v>1.4</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>2.75</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>8</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>2.16</v>
+      </c>
+      <c r="AA189">
+        <v>3.41</v>
+      </c>
+      <c r="AB189">
+        <v>2.74</v>
+      </c>
+      <c r="AC189">
+        <v>1.04</v>
+      </c>
+      <c r="AD189">
+        <v>10</v>
+      </c>
+      <c r="AE189">
+        <v>1.25</v>
+      </c>
+      <c r="AF189">
+        <v>3.8</v>
+      </c>
+      <c r="AG189">
+        <v>1.94</v>
+      </c>
+      <c r="AH189">
+        <v>1.76</v>
+      </c>
+      <c r="AI189">
+        <v>1.8</v>
+      </c>
+      <c r="AJ189">
+        <v>1.95</v>
+      </c>
+      <c r="AK189">
+        <v>1.36</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>1.67</v>
+      </c>
+      <c r="AN189">
+        <v>1.33</v>
+      </c>
+      <c r="AO189">
+        <v>0.83</v>
+      </c>
+      <c r="AP189">
+        <v>1.31</v>
+      </c>
+      <c r="AQ189">
+        <v>0.85</v>
+      </c>
+      <c r="AR189">
+        <v>1.39</v>
+      </c>
+      <c r="AS189">
+        <v>1.5</v>
+      </c>
+      <c r="AT189">
+        <v>2.89</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>6</v>
+      </c>
+      <c r="AW189">
+        <v>11</v>
+      </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
+      <c r="AY189">
+        <v>17</v>
+      </c>
+      <c r="AZ189">
+        <v>8</v>
+      </c>
+      <c r="BA189">
+        <v>9</v>
+      </c>
+      <c r="BB189">
+        <v>5</v>
+      </c>
+      <c r="BC189">
+        <v>14</v>
+      </c>
+      <c r="BD189">
+        <v>1.94</v>
+      </c>
+      <c r="BE189">
+        <v>6.4</v>
+      </c>
+      <c r="BF189">
+        <v>2.05</v>
+      </c>
+      <c r="BG189">
+        <v>1.29</v>
+      </c>
+      <c r="BH189">
+        <v>3.2</v>
+      </c>
+      <c r="BI189">
+        <v>1.5</v>
+      </c>
+      <c r="BJ189">
+        <v>2.38</v>
+      </c>
+      <c r="BK189">
+        <v>1.81</v>
+      </c>
+      <c r="BL189">
+        <v>1.88</v>
+      </c>
+      <c r="BM189">
+        <v>2.25</v>
+      </c>
+      <c r="BN189">
+        <v>1.55</v>
+      </c>
+      <c r="BO189">
+        <v>2.9</v>
+      </c>
+      <c r="BP189">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7781263</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45791.9375</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>86</v>
+      </c>
+      <c r="H190" t="s">
+        <v>83</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190" t="s">
+        <v>109</v>
+      </c>
+      <c r="P190" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q190">
+        <v>2.63</v>
+      </c>
+      <c r="R190">
+        <v>2.3</v>
+      </c>
+      <c r="S190">
+        <v>3.75</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.4</v>
+      </c>
+      <c r="V190">
+        <v>2.5</v>
+      </c>
+      <c r="W190">
+        <v>1.5</v>
+      </c>
+      <c r="X190">
+        <v>6</v>
+      </c>
+      <c r="Y190">
+        <v>1.13</v>
+      </c>
+      <c r="Z190">
+        <v>1.93</v>
+      </c>
+      <c r="AA190">
+        <v>3.41</v>
+      </c>
+      <c r="AB190">
+        <v>3.23</v>
+      </c>
+      <c r="AC190">
+        <v>1.04</v>
+      </c>
+      <c r="AD190">
+        <v>10</v>
+      </c>
+      <c r="AE190">
+        <v>1.2</v>
+      </c>
+      <c r="AF190">
+        <v>4.5</v>
+      </c>
+      <c r="AG190">
+        <v>1.65</v>
+      </c>
+      <c r="AH190">
+        <v>2.1</v>
+      </c>
+      <c r="AI190">
+        <v>1.57</v>
+      </c>
+      <c r="AJ190">
+        <v>2.25</v>
+      </c>
+      <c r="AK190">
+        <v>1.25</v>
+      </c>
+      <c r="AL190">
+        <v>1.22</v>
+      </c>
+      <c r="AM190">
+        <v>1.85</v>
+      </c>
+      <c r="AN190">
+        <v>1.08</v>
+      </c>
+      <c r="AO190">
+        <v>1.75</v>
+      </c>
+      <c r="AP190">
+        <v>1.08</v>
+      </c>
+      <c r="AQ190">
+        <v>1.69</v>
+      </c>
+      <c r="AR190">
+        <v>1.53</v>
+      </c>
+      <c r="AS190">
+        <v>1.43</v>
+      </c>
+      <c r="AT190">
+        <v>2.96</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>5</v>
+      </c>
+      <c r="AW190">
+        <v>6</v>
+      </c>
+      <c r="AX190">
+        <v>11</v>
+      </c>
+      <c r="AY190">
+        <v>10</v>
+      </c>
+      <c r="AZ190">
+        <v>18</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>4</v>
+      </c>
+      <c r="BD190">
+        <v>1.5</v>
+      </c>
+      <c r="BE190">
+        <v>7</v>
+      </c>
+      <c r="BF190">
+        <v>2.8</v>
+      </c>
+      <c r="BG190">
+        <v>1.24</v>
+      </c>
+      <c r="BH190">
+        <v>3.55</v>
+      </c>
+      <c r="BI190">
+        <v>1.41</v>
+      </c>
+      <c r="BJ190">
+        <v>2.63</v>
+      </c>
+      <c r="BK190">
+        <v>1.71</v>
+      </c>
+      <c r="BL190">
+        <v>2</v>
+      </c>
+      <c r="BM190">
+        <v>2.07</v>
+      </c>
+      <c r="BN190">
+        <v>1.65</v>
+      </c>
+      <c r="BO190">
+        <v>2.65</v>
+      </c>
+      <c r="BP190">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7781264</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45791.97916666666</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>70</v>
+      </c>
+      <c r="H191" t="s">
+        <v>82</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>4</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>231</v>
+      </c>
+      <c r="P191" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q191">
+        <v>2.88</v>
+      </c>
+      <c r="R191">
+        <v>2.3</v>
+      </c>
+      <c r="S191">
+        <v>3.4</v>
+      </c>
+      <c r="T191">
+        <v>1.3</v>
+      </c>
+      <c r="U191">
+        <v>3.4</v>
+      </c>
+      <c r="V191">
+        <v>2.5</v>
+      </c>
+      <c r="W191">
+        <v>1.5</v>
+      </c>
+      <c r="X191">
+        <v>6</v>
+      </c>
+      <c r="Y191">
+        <v>1.13</v>
+      </c>
+      <c r="Z191">
+        <v>2.2</v>
+      </c>
+      <c r="AA191">
+        <v>3.41</v>
+      </c>
+      <c r="AB191">
+        <v>2.68</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>10</v>
+      </c>
+      <c r="AE191">
+        <v>1.22</v>
+      </c>
+      <c r="AF191">
+        <v>4</v>
+      </c>
+      <c r="AG191">
+        <v>1.84</v>
+      </c>
+      <c r="AH191">
+        <v>1.86</v>
+      </c>
+      <c r="AI191">
+        <v>1.57</v>
+      </c>
+      <c r="AJ191">
+        <v>2.25</v>
+      </c>
+      <c r="AK191">
+        <v>1.4</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.57</v>
+      </c>
+      <c r="AN191">
+        <v>1.5</v>
+      </c>
+      <c r="AO191">
+        <v>1.58</v>
+      </c>
+      <c r="AP191">
+        <v>1.62</v>
+      </c>
+      <c r="AQ191">
+        <v>1.46</v>
+      </c>
+      <c r="AR191">
+        <v>1.62</v>
+      </c>
+      <c r="AS191">
+        <v>1.77</v>
+      </c>
+      <c r="AT191">
+        <v>3.39</v>
+      </c>
+      <c r="AU191">
+        <v>8</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
+        <v>6</v>
+      </c>
+      <c r="AY191">
+        <v>16</v>
+      </c>
+      <c r="AZ191">
+        <v>12</v>
+      </c>
+      <c r="BA191">
+        <v>5</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>1.85</v>
+      </c>
+      <c r="BE191">
+        <v>6.75</v>
+      </c>
+      <c r="BF191">
+        <v>2.12</v>
+      </c>
+      <c r="BG191">
+        <v>1.25</v>
+      </c>
+      <c r="BH191">
+        <v>3.45</v>
+      </c>
+      <c r="BI191">
+        <v>1.43</v>
+      </c>
+      <c r="BJ191">
+        <v>2.55</v>
+      </c>
+      <c r="BK191">
+        <v>1.71</v>
+      </c>
+      <c r="BL191">
+        <v>2</v>
+      </c>
+      <c r="BM191">
+        <v>2.08</v>
+      </c>
+      <c r="BN191">
+        <v>1.65</v>
+      </c>
+      <c r="BO191">
+        <v>2.65</v>
+      </c>
+      <c r="BP191">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7781265</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45791.97916666666</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>94</v>
+      </c>
+      <c r="H192" t="s">
+        <v>93</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>232</v>
+      </c>
+      <c r="P192" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>1.8</v>
+      </c>
+      <c r="AA192">
+        <v>3.69</v>
+      </c>
+      <c r="AB192">
+        <v>3.4</v>
+      </c>
+      <c r="AC192">
+        <v>0</v>
+      </c>
+      <c r="AD192">
+        <v>0</v>
+      </c>
+      <c r="AE192">
+        <v>0</v>
+      </c>
+      <c r="AF192">
+        <v>0</v>
+      </c>
+      <c r="AG192">
+        <v>1.65</v>
+      </c>
+      <c r="AH192">
+        <v>2.1</v>
+      </c>
+      <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>0</v>
+      </c>
+      <c r="AL192">
+        <v>0</v>
+      </c>
+      <c r="AM192">
+        <v>0</v>
+      </c>
+      <c r="AN192">
+        <v>1.67</v>
+      </c>
+      <c r="AO192">
+        <v>1.33</v>
+      </c>
+      <c r="AP192">
+        <v>1.77</v>
+      </c>
+      <c r="AQ192">
+        <v>1.23</v>
+      </c>
+      <c r="AR192">
+        <v>1.71</v>
+      </c>
+      <c r="AS192">
+        <v>1.38</v>
+      </c>
+      <c r="AT192">
+        <v>3.09</v>
+      </c>
+      <c r="AU192">
+        <v>-1</v>
+      </c>
+      <c r="AV192">
+        <v>-1</v>
+      </c>
+      <c r="AW192">
+        <v>-1</v>
+      </c>
+      <c r="AX192">
+        <v>-1</v>
+      </c>
+      <c r="AY192">
+        <v>-1</v>
+      </c>
+      <c r="AZ192">
+        <v>-1</v>
+      </c>
+      <c r="BA192">
+        <v>-1</v>
+      </c>
+      <c r="BB192">
+        <v>-1</v>
+      </c>
+      <c r="BC192">
+        <v>-1</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>0</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
+      <c r="BH192">
+        <v>0</v>
+      </c>
+      <c r="BI192">
+        <v>0</v>
+      </c>
+      <c r="BJ192">
+        <v>0</v>
+      </c>
+      <c r="BK192">
+        <v>0</v>
+      </c>
+      <c r="BL192">
+        <v>0</v>
+      </c>
+      <c r="BM192">
+        <v>0</v>
+      </c>
+      <c r="BN192">
+        <v>0</v>
+      </c>
+      <c r="BO192">
+        <v>0</v>
+      </c>
+      <c r="BP192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7781266</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45791.97916666666</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="K193">
+        <v>5</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
+        <v>6</v>
+      </c>
+      <c r="O193" t="s">
+        <v>233</v>
+      </c>
+      <c r="P193" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q193">
+        <v>3</v>
+      </c>
+      <c r="R193">
+        <v>2.5</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193">
+        <v>1.25</v>
+      </c>
+      <c r="U193">
+        <v>3.75</v>
+      </c>
+      <c r="V193">
+        <v>2.2</v>
+      </c>
+      <c r="W193">
+        <v>1.62</v>
+      </c>
+      <c r="X193">
+        <v>5</v>
+      </c>
+      <c r="Y193">
+        <v>1.17</v>
+      </c>
+      <c r="Z193">
+        <v>2.65</v>
+      </c>
+      <c r="AA193">
+        <v>3.45</v>
+      </c>
+      <c r="AB193">
+        <v>2.22</v>
+      </c>
+      <c r="AC193">
+        <v>1.04</v>
+      </c>
+      <c r="AD193">
+        <v>10</v>
+      </c>
+      <c r="AE193">
+        <v>1.15</v>
+      </c>
+      <c r="AF193">
+        <v>5.25</v>
+      </c>
+      <c r="AG193">
+        <v>1.65</v>
+      </c>
+      <c r="AH193">
+        <v>2.1</v>
+      </c>
+      <c r="AI193">
+        <v>1.44</v>
+      </c>
+      <c r="AJ193">
+        <v>2.63</v>
+      </c>
+      <c r="AK193">
+        <v>1.5</v>
+      </c>
+      <c r="AL193">
+        <v>1.22</v>
+      </c>
+      <c r="AM193">
+        <v>1.5</v>
+      </c>
+      <c r="AN193">
+        <v>1.33</v>
+      </c>
+      <c r="AO193">
+        <v>1.91</v>
+      </c>
+      <c r="AP193">
+        <v>1.31</v>
+      </c>
+      <c r="AQ193">
+        <v>1.83</v>
+      </c>
+      <c r="AR193">
+        <v>1.99</v>
+      </c>
+      <c r="AS193">
+        <v>1.34</v>
+      </c>
+      <c r="AT193">
+        <v>3.33</v>
+      </c>
+      <c r="AU193">
+        <v>6</v>
+      </c>
+      <c r="AV193">
+        <v>6</v>
+      </c>
+      <c r="AW193">
+        <v>6</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>13</v>
+      </c>
+      <c r="AZ193">
+        <v>11</v>
+      </c>
+      <c r="BA193">
+        <v>7</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>1.98</v>
+      </c>
+      <c r="BE193">
+        <v>6.75</v>
+      </c>
+      <c r="BF193">
+        <v>1.98</v>
+      </c>
+      <c r="BG193">
+        <v>1.2</v>
+      </c>
+      <c r="BH193">
+        <v>3.9</v>
+      </c>
+      <c r="BI193">
+        <v>1.37</v>
+      </c>
+      <c r="BJ193">
+        <v>2.8</v>
+      </c>
+      <c r="BK193">
+        <v>1.61</v>
+      </c>
+      <c r="BL193">
+        <v>2.15</v>
+      </c>
+      <c r="BM193">
+        <v>1.96</v>
+      </c>
+      <c r="BN193">
+        <v>1.73</v>
+      </c>
+      <c r="BO193">
+        <v>2.45</v>
+      </c>
+      <c r="BP193">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2920,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3950,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4156,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4768,25 +4768,25 @@
         <v>1.68</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -4977,22 +4977,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5180,25 +5180,25 @@
         <v>1.4</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>2</v>
       </c>
       <c r="AR19">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5389,22 +5389,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5598,10 +5598,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5798,25 +5798,25 @@
         <v>1.6</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -6007,22 +6007,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6213,22 +6213,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6422,19 +6422,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR25">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AS25">
         <v>1.66</v>
       </c>
       <c r="AT25">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6622,25 +6622,25 @@
         <v>1.7</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6834,10 +6834,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7037,22 +7037,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>2.22</v>
+        <v>0.72</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7240,25 +7240,25 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7446,25 +7446,25 @@
         <v>1.72</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>1.83</v>
@@ -7667,10 +7667,10 @@
         <v>1.39</v>
       </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>3.01</v>
+        <v>1.39</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7867,16 +7867,16 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -8064,25 +8064,25 @@
         <v>1.72</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="AS33">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>3.34</v>
+        <v>2.47</v>
       </c>
       <c r="AU33">
         <v>11</v>
@@ -8270,25 +8270,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AS34">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8476,25 +8476,25 @@
         <v>2.1</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="AS35">
         <v>1.47</v>
       </c>
       <c r="AT35">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8688,19 +8688,19 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR36">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="AS36">
-        <v>1.23</v>
+        <v>0.89</v>
       </c>
       <c r="AT36">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8888,25 +8888,25 @@
         <v>1.52</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="AS37">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AT37">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -9094,25 +9094,25 @@
         <v>1.65</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT38">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -9300,25 +9300,25 @@
         <v>1.98</v>
       </c>
       <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1.57</v>
+      </c>
+      <c r="AQ39">
+        <v>1.14</v>
+      </c>
+      <c r="AR39">
         <v>1.5</v>
       </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AP39">
-        <v>1.31</v>
-      </c>
-      <c r="AQ39">
-        <v>1.23</v>
-      </c>
-      <c r="AR39">
-        <v>1.42</v>
-      </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>0.45</v>
       </c>
       <c r="AT39">
-        <v>2.59</v>
+        <v>1.95</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9506,25 +9506,25 @@
         <v>1.95</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT40">
-        <v>2.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9712,25 +9712,25 @@
         <v>1.82</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ41">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AS41">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9918,25 +9918,25 @@
         <v>0</v>
       </c>
       <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>1.17</v>
+      </c>
+      <c r="AQ42">
         <v>1.5</v>
       </c>
-      <c r="AO42">
-        <v>2</v>
-      </c>
-      <c r="AP42">
-        <v>1.08</v>
-      </c>
-      <c r="AQ42">
-        <v>1.77</v>
-      </c>
       <c r="AR42">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AS42">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT42">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -10130,19 +10130,19 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ43">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="AS43">
         <v>1.11</v>
       </c>
       <c r="AT43">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10333,22 +10333,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP44">
+        <v>1.38</v>
+      </c>
+      <c r="AQ44">
+        <v>1.57</v>
+      </c>
+      <c r="AR44">
+        <v>1.88</v>
+      </c>
+      <c r="AS44">
         <v>1.31</v>
       </c>
-      <c r="AQ44">
-        <v>1.69</v>
-      </c>
-      <c r="AR44">
-        <v>1.38</v>
-      </c>
-      <c r="AS44">
-        <v>1.36</v>
-      </c>
       <c r="AT44">
-        <v>2.74</v>
+        <v>3.19</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10536,25 +10536,25 @@
         <v>2.55</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP45">
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AS45">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT45">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10748,19 +10748,19 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AQ46">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>0.47</v>
       </c>
       <c r="AT46">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10948,25 +10948,25 @@
         <v>1.71</v>
       </c>
       <c r="AN47">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AT47">
-        <v>2.74</v>
+        <v>1.67</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11154,25 +11154,25 @@
         <v>1.6</v>
       </c>
       <c r="AN48">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ48">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS48">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT48">
-        <v>2.96</v>
+        <v>3.14</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11360,25 +11360,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AS49">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11566,25 +11566,25 @@
         <v>1.63</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>0.73</v>
       </c>
       <c r="AT50">
-        <v>2.52</v>
+        <v>2.03</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11772,25 +11772,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO51">
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS51">
         <v>1.19</v>
       </c>
       <c r="AT51">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -11978,25 +11978,25 @@
         <v>2.1</v>
       </c>
       <c r="AN52">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR52">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="AS52">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AT52">
-        <v>2.37</v>
+        <v>2.74</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12187,22 +12187,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT53">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12390,25 +12390,25 @@
         <v>1.65</v>
       </c>
       <c r="AN54">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO54">
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR54">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AS54">
-        <v>2.07</v>
+        <v>2.45</v>
       </c>
       <c r="AT54">
-        <v>3.62</v>
+        <v>4.4</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -12596,25 +12596,25 @@
         <v>1.68</v>
       </c>
       <c r="AN55">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="AS55">
-        <v>1.66</v>
+        <v>2.15</v>
       </c>
       <c r="AT55">
-        <v>2.68</v>
+        <v>3.37</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12802,25 +12802,25 @@
         <v>1.47</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="AS56">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="AT56">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13008,25 +13008,25 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO57">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>2</v>
       </c>
       <c r="AR57">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AS57">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
       <c r="AT57">
-        <v>3.01</v>
+        <v>2.54</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -13214,25 +13214,25 @@
         <v>1.73</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AT58">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU58">
         <v>12</v>
@@ -13423,22 +13423,22 @@
         <v>3</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ59">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="AR59">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
-        <v>3.37</v>
+        <v>2.76</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13626,25 +13626,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>0.73</v>
       </c>
       <c r="AT60">
-        <v>2.43</v>
+        <v>1.67</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13832,25 +13832,25 @@
         <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
         <v>1.83</v>
       </c>
       <c r="AR61">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AT61">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -14038,25 +14038,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="AR62">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AT62">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14244,25 +14244,25 @@
         <v>1.87</v>
       </c>
       <c r="AN63">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO63">
+        <v>0.5</v>
+      </c>
+      <c r="AP63">
+        <v>1.83</v>
+      </c>
+      <c r="AQ63">
         <v>0.25</v>
       </c>
-      <c r="AP63">
-        <v>1.69</v>
-      </c>
-      <c r="AQ63">
-        <v>0.23</v>
-      </c>
       <c r="AR63">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS63">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AT63">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -14450,25 +14450,25 @@
         <v>2.25</v>
       </c>
       <c r="AN64">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="AS64">
-        <v>1.84</v>
+        <v>0.88</v>
       </c>
       <c r="AT64">
-        <v>3.23</v>
+        <v>2.5</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14659,22 +14659,22 @@
         <v>2</v>
       </c>
       <c r="AO65">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT65">
-        <v>2.79</v>
+        <v>2.92</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14862,25 +14862,25 @@
         <v>1.98</v>
       </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT66">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15068,25 +15068,25 @@
         <v>1.98</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AS67">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>3.14</v>
+        <v>3.45</v>
       </c>
       <c r="AU67">
         <v>11</v>
@@ -15274,25 +15274,25 @@
         <v>1.65</v>
       </c>
       <c r="AN68">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>0.97</v>
       </c>
       <c r="AT68">
-        <v>3.01</v>
+        <v>2.45</v>
       </c>
       <c r="AU68">
         <v>9</v>
@@ -15480,25 +15480,25 @@
         <v>1.39</v>
       </c>
       <c r="AN69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO69">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AS69">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="AT69">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15686,25 +15686,25 @@
         <v>2.25</v>
       </c>
       <c r="AN70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO70">
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ70">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="AS70">
         <v>1.12</v>
       </c>
       <c r="AT70">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15892,25 +15892,25 @@
         <v>1.9</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR71">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
-        <v>2.29</v>
+        <v>3.15</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16101,22 +16101,22 @@
         <v>1.5</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR72">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS72">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT72">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="AU72">
         <v>3</v>
@@ -16304,25 +16304,25 @@
         <v>2.1</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO73">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR73">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="AS73">
-        <v>1.24</v>
+        <v>0.61</v>
       </c>
       <c r="AT73">
-        <v>3.03</v>
+        <v>2.84</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16513,22 +16513,22 @@
         <v>3</v>
       </c>
       <c r="AO74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AT74">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16719,22 +16719,22 @@
         <v>1.5</v>
       </c>
       <c r="AO75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AS75">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="AT75">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -16922,25 +16922,25 @@
         <v>1.47</v>
       </c>
       <c r="AN76">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO76">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR76">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17128,25 +17128,25 @@
         <v>1.39</v>
       </c>
       <c r="AN77">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ77">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR77">
-        <v>1.11</v>
+        <v>0.9</v>
       </c>
       <c r="AS77">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17334,25 +17334,25 @@
         <v>1.61</v>
       </c>
       <c r="AN78">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AS78">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AT78">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17540,25 +17540,25 @@
         <v>2.65</v>
       </c>
       <c r="AN79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO79">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AP79">
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR79">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AS79">
         <v>1.73</v>
       </c>
       <c r="AT79">
-        <v>3.11</v>
+        <v>2.88</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17746,25 +17746,25 @@
         <v>1.51</v>
       </c>
       <c r="AN80">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>2</v>
       </c>
       <c r="AR80">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="AT80">
-        <v>3.39</v>
+        <v>2.65</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17952,25 +17952,25 @@
         <v>1.66</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO81">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS81">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="AT81">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18158,25 +18158,25 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO82">
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="AS82">
         <v>1.12</v>
       </c>
       <c r="AT82">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18364,25 +18364,25 @@
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AQ83">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR83">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
       <c r="AT83">
-        <v>2.76</v>
+        <v>2.26</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18570,25 +18570,25 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR84">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="AS84">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="AT84">
-        <v>3.19</v>
+        <v>3.71</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18776,22 +18776,22 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO85">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ85">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AS85">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="AT85">
         <v>3.22</v>
@@ -18982,25 +18982,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO86">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AQ86">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AS86">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19188,25 +19188,25 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="AS87">
-        <v>1.28</v>
+        <v>0.97</v>
       </c>
       <c r="AT87">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19394,25 +19394,25 @@
         <v>1.57</v>
       </c>
       <c r="AN88">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="AS88">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="AT88">
-        <v>3.69</v>
+        <v>3.51</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19600,25 +19600,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>2.74</v>
+        <v>3.08</v>
       </c>
       <c r="AU89">
         <v>3</v>
@@ -19806,25 +19806,25 @@
         <v>1.78</v>
       </c>
       <c r="AN90">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO90">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR90">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AS90">
-        <v>1.15</v>
+        <v>0.68</v>
       </c>
       <c r="AT90">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -20012,25 +20012,25 @@
         <v>1.84</v>
       </c>
       <c r="AN91">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO91">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AT91">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20221,22 +20221,22 @@
         <v>1</v>
       </c>
       <c r="AO92">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AQ92">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AR92">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT92">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20424,25 +20424,25 @@
         <v>2.32</v>
       </c>
       <c r="AN93">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO93">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR93">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS93">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT93">
-        <v>2.89</v>
+        <v>3.08</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20633,22 +20633,22 @@
         <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ94">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="AS94">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20836,25 +20836,25 @@
         <v>2.35</v>
       </c>
       <c r="AN95">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO95">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AQ95">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR95">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT95">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -21042,7 +21042,7 @@
         <v>2.36</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO96">
         <v>0.33</v>
@@ -21051,16 +21051,16 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="AS96">
         <v>1.24</v>
       </c>
       <c r="AT96">
-        <v>2.88</v>
+        <v>3.33</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21248,25 +21248,25 @@
         <v>2.03</v>
       </c>
       <c r="AN97">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO97">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AS97">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="AT97">
-        <v>2.82</v>
+        <v>3.14</v>
       </c>
       <c r="AU97">
         <v>8</v>
@@ -21457,22 +21457,22 @@
         <v>2</v>
       </c>
       <c r="AO98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AQ98">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR98">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS98">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="AU98">
         <v>2</v>
@@ -21660,25 +21660,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO99">
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AR99">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="AS99">
-        <v>1.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT99">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21866,25 +21866,25 @@
         <v>1.53</v>
       </c>
       <c r="AN100">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO100">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AR100">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AS100">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="AT100">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22072,25 +22072,25 @@
         <v>2.05</v>
       </c>
       <c r="AN101">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO101">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ101">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.34</v>
+        <v>0.92</v>
       </c>
       <c r="AT101">
-        <v>3.21</v>
+        <v>2.67</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22278,25 +22278,25 @@
         <v>0</v>
       </c>
       <c r="AN102">
+        <v>1.67</v>
+      </c>
+      <c r="AO102">
+        <v>0.33</v>
+      </c>
+      <c r="AP102">
+        <v>2</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>2.01</v>
+      </c>
+      <c r="AS102">
         <v>1.83</v>
       </c>
-      <c r="AO102">
-        <v>1</v>
-      </c>
-      <c r="AP102">
-        <v>1.77</v>
-      </c>
-      <c r="AQ102">
-        <v>1.46</v>
-      </c>
-      <c r="AR102">
-        <v>1.88</v>
-      </c>
-      <c r="AS102">
-        <v>1.9</v>
-      </c>
       <c r="AT102">
-        <v>3.78</v>
+        <v>3.84</v>
       </c>
       <c r="AU102">
         <v>5</v>
@@ -22484,25 +22484,25 @@
         <v>1.68</v>
       </c>
       <c r="AN103">
+        <v>3</v>
+      </c>
+      <c r="AO103">
         <v>1.33</v>
       </c>
-      <c r="AO103">
-        <v>1.83</v>
-      </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR103">
-        <v>1.23</v>
+        <v>1.61</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AT103">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22690,25 +22690,25 @@
         <v>1.61</v>
       </c>
       <c r="AN104">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AS104">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="AT104">
-        <v>3.52</v>
+        <v>3.85</v>
       </c>
       <c r="AU104">
         <v>11</v>
@@ -22896,25 +22896,25 @@
         <v>2.75</v>
       </c>
       <c r="AN105">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO105">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AP105">
         <v>1.83</v>
       </c>
       <c r="AQ105">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AS105">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT105">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="AU105">
         <v>11</v>
@@ -23102,25 +23102,25 @@
         <v>1.42</v>
       </c>
       <c r="AN106">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AO106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ106">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR106">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS106">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23308,25 +23308,25 @@
         <v>2.4</v>
       </c>
       <c r="AN107">
+        <v>1.6</v>
+      </c>
+      <c r="AO107">
+        <v>0.33</v>
+      </c>
+      <c r="AP107">
         <v>1.29</v>
       </c>
-      <c r="AO107">
-        <v>0.67</v>
-      </c>
-      <c r="AP107">
-        <v>0.85</v>
-      </c>
       <c r="AQ107">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR107">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS107">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT107">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23514,25 +23514,25 @@
         <v>1.95</v>
       </c>
       <c r="AN108">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.57</v>
+        <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="AS108">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT108">
-        <v>2.94</v>
+        <v>3.17</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23720,25 +23720,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO109">
-        <v>1.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR109">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS109">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="AT109">
-        <v>2.61</v>
+        <v>1.16</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -23926,25 +23926,25 @@
         <v>1.93</v>
       </c>
       <c r="AN110">
+        <v>2.25</v>
+      </c>
+      <c r="AO110">
+        <v>2</v>
+      </c>
+      <c r="AP110">
         <v>2.29</v>
       </c>
-      <c r="AO110">
-        <v>1.86</v>
-      </c>
-      <c r="AP110">
-        <v>2.25</v>
-      </c>
       <c r="AQ110">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AR110">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS110">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT110">
-        <v>3.28</v>
+        <v>3.06</v>
       </c>
       <c r="AU110">
         <v>12</v>
@@ -24132,25 +24132,25 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="AO111">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AS111">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT111">
-        <v>3.37</v>
+        <v>3.02</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24338,25 +24338,25 @@
         <v>1.6</v>
       </c>
       <c r="AN112">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR112">
-        <v>1.43</v>
+        <v>1.95</v>
       </c>
       <c r="AS112">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT112">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24544,25 +24544,25 @@
         <v>1.45</v>
       </c>
       <c r="AN113">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO113">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AS113">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT113">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -24750,25 +24750,25 @@
         <v>1.95</v>
       </c>
       <c r="AN114">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AO114">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ114">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR114">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AS114">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
       <c r="AU114">
         <v>8</v>
@@ -24956,25 +24956,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO115">
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AT115">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25162,25 +25162,25 @@
         <v>1.77</v>
       </c>
       <c r="AN116">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AS116">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AT116">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25368,25 +25368,25 @@
         <v>2.62</v>
       </c>
       <c r="AN117">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ117">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AR117">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AS117">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="AT117">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25574,25 +25574,25 @@
         <v>1.7</v>
       </c>
       <c r="AN118">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AO118">
+        <v>1.33</v>
+      </c>
+      <c r="AP118">
+        <v>1.17</v>
+      </c>
+      <c r="AQ118">
         <v>1.57</v>
       </c>
-      <c r="AP118">
-        <v>0.85</v>
-      </c>
-      <c r="AQ118">
-        <v>1.69</v>
-      </c>
       <c r="AR118">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AS118">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT118">
-        <v>2.85</v>
+        <v>3.09</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25780,25 +25780,25 @@
         <v>1.45</v>
       </c>
       <c r="AN119">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP119">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119">
         <v>1.83</v>
       </c>
       <c r="AR119">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="AS119">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="AU119">
         <v>8</v>
@@ -25986,25 +25986,25 @@
         <v>1.53</v>
       </c>
       <c r="AN120">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO120">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ120">
         <v>2</v>
       </c>
       <c r="AR120">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AS120">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26192,25 +26192,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO121">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AR121">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AT121">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26398,10 +26398,10 @@
         <v>1.68</v>
       </c>
       <c r="AN122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO122">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP122">
         <v>2</v>
@@ -26410,13 +26410,13 @@
         <v>1.83</v>
       </c>
       <c r="AR122">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="AS122">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>3.18</v>
+        <v>3.44</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26604,25 +26604,25 @@
         <v>1.85</v>
       </c>
       <c r="AN123">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO123">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ123">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="AR123">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AS123">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="AT123">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -26810,25 +26810,25 @@
         <v>1.93</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO124">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR124">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS124">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="AT124">
-        <v>3.07</v>
+        <v>3.52</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27016,25 +27016,25 @@
         <v>2.1</v>
       </c>
       <c r="AN125">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="AO125">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AQ125">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="AS125">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AT125">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27222,25 +27222,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO126">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="AS126">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="AU126">
         <v>11</v>
@@ -27428,25 +27428,25 @@
         <v>0</v>
       </c>
       <c r="AN127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO127">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ127">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="AS127">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AT127">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="AU127">
         <v>14</v>
@@ -27637,22 +27637,22 @@
         <v>1</v>
       </c>
       <c r="AO128">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR128">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AT128">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AU128">
         <v>9</v>
@@ -27840,25 +27840,25 @@
         <v>1.58</v>
       </c>
       <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>1.5</v>
       </c>
-      <c r="AO129">
-        <v>2</v>
-      </c>
       <c r="AP129">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ129">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AS129">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
-        <v>3.12</v>
+        <v>2.74</v>
       </c>
       <c r="AU129">
         <v>13</v>
@@ -28052,19 +28052,19 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS130">
-        <v>1.37</v>
+        <v>0.9</v>
       </c>
       <c r="AT130">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28252,25 +28252,25 @@
         <v>2</v>
       </c>
       <c r="AN131">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="AO131">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR131">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AS131">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT131">
-        <v>2.82</v>
+        <v>3.16</v>
       </c>
       <c r="AU131">
         <v>10</v>
@@ -28461,22 +28461,22 @@
         <v>1</v>
       </c>
       <c r="AO132">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AP132">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ132">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR132">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="AS132">
         <v>1.99</v>
       </c>
       <c r="AT132">
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28664,25 +28664,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO133">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AQ133">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AT133">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28873,22 +28873,22 @@
         <v>1.75</v>
       </c>
       <c r="AO134">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AR134">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AT134">
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29076,25 +29076,25 @@
         <v>1.7</v>
       </c>
       <c r="AN135">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ135">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR135">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="AS135">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AT135">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29282,25 +29282,25 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO136">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AQ136">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR136">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AS136">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT136">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AU136">
         <v>8</v>
@@ -29488,25 +29488,25 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AO137">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ137">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR137">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AS137">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AT137">
-        <v>2.49</v>
+        <v>2.24</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29694,25 +29694,25 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO138">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ138">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AS138">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT138">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU138">
         <v>6</v>
@@ -29900,25 +29900,25 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO139">
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR139">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AS139">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AT139">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="AU139">
         <v>6</v>
@@ -30106,25 +30106,25 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="AR140">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT140">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30312,25 +30312,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP141">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR141">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AS141">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AT141">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="AU141">
         <v>6</v>
@@ -30518,25 +30518,25 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>2.11</v>
+        <v>3</v>
       </c>
       <c r="AO142">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR142">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AS142">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT142">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30724,25 +30724,25 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP143">
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="AS143">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="AT143">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -30930,25 +30930,25 @@
         <v>1.77</v>
       </c>
       <c r="AN144">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AO144">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AR144">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AS144">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AT144">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31136,25 +31136,25 @@
         <v>1.93</v>
       </c>
       <c r="AN145">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AO145">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP145">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ145">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AS145">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT145">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="AU145">
         <v>8</v>
@@ -31342,25 +31342,25 @@
         <v>0</v>
       </c>
       <c r="AN146">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO146">
+        <v>0.8</v>
+      </c>
+      <c r="AP146">
         <v>1.33</v>
       </c>
-      <c r="AP146">
-        <v>1.23</v>
-      </c>
       <c r="AQ146">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR146">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AS146">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT146">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31548,25 +31548,25 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO147">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AP147">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ147">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR147">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT147">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31754,25 +31754,25 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO148">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP148">
         <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AR148">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS148">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AT148">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="AU148">
         <v>5</v>
@@ -31960,25 +31960,25 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ149">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AR149">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS149">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="AT149">
-        <v>2.82</v>
+        <v>2.49</v>
       </c>
       <c r="AU149">
         <v>9</v>
@@ -32166,25 +32166,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO150">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AQ150">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR150">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AS150">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AT150">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32372,25 +32372,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="AO151">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AQ151">
-        <v>1.77</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AS151">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32578,25 +32578,25 @@
         <v>1.62</v>
       </c>
       <c r="AN152">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AO152">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ152">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR152">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS152">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AT152">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AU152">
         <v>3</v>
@@ -32784,25 +32784,25 @@
         <v>0</v>
       </c>
       <c r="AN153">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AO153">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR153">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="AS153">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT153">
-        <v>3.14</v>
+        <v>3.88</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -32990,25 +32990,25 @@
         <v>2.24</v>
       </c>
       <c r="AN154">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AO154">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AP154">
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR154">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AS154">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AT154">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU154">
         <v>11</v>
@@ -33196,25 +33196,25 @@
         <v>1.83</v>
       </c>
       <c r="AN155">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO155">
         <v>1.6</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ155">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR155">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AS155">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="AT155">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33402,25 +33402,25 @@
         <v>2.27</v>
       </c>
       <c r="AN156">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO156">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP156">
         <v>1.83</v>
       </c>
       <c r="AQ156">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR156">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AS156">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT156">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AU156">
         <v>5</v>
@@ -33608,25 +33608,25 @@
         <v>1.51</v>
       </c>
       <c r="AN157">
+        <v>0.75</v>
+      </c>
+      <c r="AO157">
         <v>1.2</v>
       </c>
-      <c r="AO157">
-        <v>1.6</v>
-      </c>
       <c r="AP157">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ157">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AR157">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS157">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AT157">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU157">
         <v>8</v>
@@ -33814,25 +33814,25 @@
         <v>0</v>
       </c>
       <c r="AN158">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO158">
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AQ158">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR158">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS158">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AT158">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU158">
         <v>5</v>
@@ -34020,25 +34020,25 @@
         <v>0</v>
       </c>
       <c r="AN159">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO159">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP159">
+        <v>2</v>
+      </c>
+      <c r="AQ159">
+        <v>1.71</v>
+      </c>
+      <c r="AR159">
         <v>1.77</v>
       </c>
-      <c r="AQ159">
-        <v>1.33</v>
-      </c>
-      <c r="AR159">
-        <v>1.72</v>
-      </c>
       <c r="AS159">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT159">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34226,25 +34226,25 @@
         <v>0</v>
       </c>
       <c r="AN160">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO160">
         <v>1.2</v>
       </c>
       <c r="AP160">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ160">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR160">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="AS160">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="AU160">
         <v>7</v>
@@ -34432,25 +34432,25 @@
         <v>2.35</v>
       </c>
       <c r="AN161">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR161">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AS161">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AT161">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="AU161">
         <v>11</v>
@@ -34638,25 +34638,25 @@
         <v>0</v>
       </c>
       <c r="AN162">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO162">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR162">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AS162">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT162">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="AU162">
         <v>10</v>
@@ -34844,25 +34844,25 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO163">
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="AQ163">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AR163">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS163">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35050,25 +35050,25 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="AO164">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR164">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="AS164">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AT164">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35256,25 +35256,25 @@
         <v>0</v>
       </c>
       <c r="AN165">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AO165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP165">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AR165">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AS165">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT165">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35462,25 +35462,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AO166">
-        <v>0.91</v>
+        <v>0.25</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ166">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="AR166">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AS166">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT166">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="AU166">
         <v>8</v>
@@ -35668,25 +35668,25 @@
         <v>1.6</v>
       </c>
       <c r="AN167">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="AO167">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP167">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR167">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AT167">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="AU167">
         <v>10</v>
@@ -35874,25 +35874,25 @@
         <v>1.64</v>
       </c>
       <c r="AN168">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AO168">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ168">
         <v>1.83</v>
       </c>
       <c r="AR168">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AS168">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT168">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AU168">
         <v>8</v>
@@ -36080,25 +36080,25 @@
         <v>2</v>
       </c>
       <c r="AN169">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO169">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AP169">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="AQ169">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AR169">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AS169">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT169">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36286,25 +36286,25 @@
         <v>2.03</v>
       </c>
       <c r="AN170">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="AO170">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AP170">
-        <v>1.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ170">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AR170">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AS170">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT170">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU170">
         <v>11</v>
@@ -36492,25 +36492,25 @@
         <v>2.12</v>
       </c>
       <c r="AN171">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="AO171">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR171">
-        <v>1.47</v>
+        <v>1.87</v>
       </c>
       <c r="AS171">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT171">
-        <v>2.89</v>
+        <v>3.11</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36698,25 +36698,25 @@
         <v>2.3</v>
       </c>
       <c r="AN172">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO172">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP172">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AR172">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AS172">
         <v>1.33</v>
       </c>
       <c r="AT172">
-        <v>2.94</v>
+        <v>3.22</v>
       </c>
       <c r="AU172">
         <v>9</v>
@@ -36904,13 +36904,13 @@
         <v>1.61</v>
       </c>
       <c r="AN173">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AO173">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ173">
         <v>2</v>
@@ -36919,10 +36919,10 @@
         <v>1.68</v>
       </c>
       <c r="AS173">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AT173">
-        <v>3.27</v>
+        <v>3.02</v>
       </c>
       <c r="AU173">
         <v>8</v>
@@ -37110,25 +37110,25 @@
         <v>0</v>
       </c>
       <c r="AN174">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO174">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AP174">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ174">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="AS174">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT174">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37316,25 +37316,25 @@
         <v>1.97</v>
       </c>
       <c r="AN175">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AO175">
-        <v>1.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ175">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR175">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AS175">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AT175">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AU175">
         <v>8</v>
@@ -37522,25 +37522,25 @@
         <v>1.82</v>
       </c>
       <c r="AN176">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AO176">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AQ176">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR176">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AS176">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT176">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37728,25 +37728,25 @@
         <v>1.44</v>
       </c>
       <c r="AN177">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="AO177">
-        <v>1.45</v>
+        <v>0.83</v>
       </c>
       <c r="AP177">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR177">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AS177">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AT177">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37934,25 +37934,25 @@
         <v>1.97</v>
       </c>
       <c r="AN178">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AO178">
-        <v>1.18</v>
+        <v>0.75</v>
       </c>
       <c r="AP178">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AR178">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AS178">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="AT178">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38140,25 +38140,25 @@
         <v>2.07</v>
       </c>
       <c r="AN179">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AO179">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="AP179">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AQ179">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR179">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AS179">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT179">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38346,25 +38346,25 @@
         <v>1.79</v>
       </c>
       <c r="AN180">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="AO180">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ180">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AR180">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="AU180">
         <v>6</v>
@@ -38552,25 +38552,25 @@
         <v>1.6</v>
       </c>
       <c r="AN181">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO181">
+        <v>0.83</v>
+      </c>
+      <c r="AP181">
+        <v>1.29</v>
+      </c>
+      <c r="AQ181">
+        <v>0.86</v>
+      </c>
+      <c r="AR181">
         <v>1.42</v>
       </c>
-      <c r="AP181">
-        <v>1</v>
-      </c>
-      <c r="AQ181">
-        <v>1.38</v>
-      </c>
-      <c r="AR181">
-        <v>1.63</v>
-      </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="AT181">
-        <v>3.08</v>
+        <v>2.55</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38758,25 +38758,25 @@
         <v>1.35</v>
       </c>
       <c r="AN182">
+        <v>0.33</v>
+      </c>
+      <c r="AO182">
+        <v>2.2</v>
+      </c>
+      <c r="AP182">
         <v>0.5</v>
       </c>
-      <c r="AO182">
-        <v>2.08</v>
-      </c>
-      <c r="AP182">
-        <v>0.54</v>
-      </c>
       <c r="AQ182">
         <v>2</v>
       </c>
       <c r="AR182">
-        <v>1.49</v>
+        <v>1.89</v>
       </c>
       <c r="AS182">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="AT182">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38964,25 +38964,25 @@
         <v>1.81</v>
       </c>
       <c r="AN183">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO183">
-        <v>1.58</v>
+        <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AQ183">
-        <v>1.46</v>
+        <v>0.57</v>
       </c>
       <c r="AR183">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AS183">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT183">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39170,25 +39170,25 @@
         <v>2.47</v>
       </c>
       <c r="AN184">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AO184">
+        <v>0.29</v>
+      </c>
+      <c r="AP184">
+        <v>2.13</v>
+      </c>
+      <c r="AQ184">
         <v>0.25</v>
       </c>
-      <c r="AP184">
-        <v>2</v>
-      </c>
-      <c r="AQ184">
-        <v>0.23</v>
-      </c>
       <c r="AR184">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS184">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT184">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="AU184">
         <v>10</v>
@@ -39379,22 +39379,22 @@
         <v>0.83</v>
       </c>
       <c r="AO185">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ185">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AR185">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT185">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="AU185">
         <v>0</v>
@@ -39582,25 +39582,25 @@
         <v>1.9</v>
       </c>
       <c r="AN186">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="AO186">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP186">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AQ186">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR186">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="AS186">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT186">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU186">
         <v>8</v>
@@ -39788,25 +39788,25 @@
         <v>1.55</v>
       </c>
       <c r="AN187">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO187">
         <v>1.83</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ187">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR187">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="AS187">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT187">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -39997,22 +39997,22 @@
         <v>0.83</v>
       </c>
       <c r="AO188">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AP188">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ188">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AR188">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="AS188">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT188">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40200,25 +40200,25 @@
         <v>1.67</v>
       </c>
       <c r="AN189">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO189">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="AP189">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AQ189">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="AR189">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="AS189">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT189">
-        <v>2.89</v>
+        <v>3.02</v>
       </c>
       <c r="AU189">
         <v>6</v>
@@ -40406,25 +40406,25 @@
         <v>1.85</v>
       </c>
       <c r="AN190">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AO190">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP190">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AQ190">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR190">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS190">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>2.96</v>
+        <v>3.06</v>
       </c>
       <c r="AU190">
         <v>3</v>
@@ -40612,25 +40612,25 @@
         <v>1.57</v>
       </c>
       <c r="AN191">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO191">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="AP191">
-        <v>1.62</v>
+        <v>2.29</v>
       </c>
       <c r="AQ191">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AR191">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AS191">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AT191">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40818,25 +40818,25 @@
         <v>0</v>
       </c>
       <c r="AN192">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO192">
         <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR192">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AS192">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="AT192">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="AU192">
         <v>-1</v>
@@ -41024,25 +41024,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO193">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AP193">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
         <v>1.83</v>
       </c>
       <c r="AR193">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="AS193">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AT193">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="AU193">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -38800,10 +38800,10 @@
         <v>0</v>
       </c>
       <c r="BB182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD182">
         <v>2.3</v>
@@ -40839,31 +40839,31 @@
         <v>2.73</v>
       </c>
       <c r="AU192">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV192">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW192">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AX192">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY192">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ192">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA192">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB192">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC192">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD192">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,12 @@
     <t>['3', '37', '45+4']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['13', '50']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -895,9 +901,6 @@
     <t>['18', '21', '24', '73', '85']</t>
   </si>
   <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['45+1', '54', '66']</t>
   </si>
   <si>
@@ -986,6 +989,18 @@
   </si>
   <si>
     <t>['1', '44', '52']</t>
+  </si>
+  <si>
+    <t>['14', '30', '33', '55', '66', '90+1']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['42', '60', '63', '79']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1812,7 +1827,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2018,7 +2033,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2096,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4">
         <v>0.5600000000000001</v>
@@ -2305,7 +2320,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2430,7 +2445,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2508,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2636,7 +2651,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2717,7 +2732,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2842,7 +2857,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2923,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3254,7 +3269,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -4078,7 +4093,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4284,7 +4299,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4490,7 +4505,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4774,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -5108,7 +5123,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5520,7 +5535,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5601,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5726,7 +5741,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5807,7 +5822,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5932,7 +5947,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6138,7 +6153,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6550,7 +6565,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7580,7 +7595,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7864,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>0.6</v>
@@ -7992,7 +8007,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8276,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR34">
         <v>1.85</v>
@@ -8485,7 +8500,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8816,7 +8831,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8897,7 +8912,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>0.85</v>
@@ -9100,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9434,7 +9449,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9515,7 +9530,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9846,7 +9861,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10670,7 +10685,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10876,7 +10891,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10957,7 +10972,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -11082,7 +11097,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11572,10 +11587,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11906,7 +11921,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11984,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ52">
         <v>1.57</v>
@@ -12112,7 +12127,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12524,7 +12539,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13142,7 +13157,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13348,7 +13363,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13760,7 +13775,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13838,7 +13853,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>1.83</v>
@@ -13966,7 +13981,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14172,7 +14187,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14378,7 +14393,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14456,7 +14471,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14662,7 +14677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14871,7 +14886,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -15408,7 +15423,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15820,7 +15835,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16026,7 +16041,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16438,7 +16453,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16519,7 +16534,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR74">
         <v>1.88</v>
@@ -16850,7 +16865,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16931,7 +16946,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR76">
         <v>0.97</v>
@@ -17549,7 +17564,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.15</v>
@@ -17674,7 +17689,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17880,7 +17895,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17958,7 +17973,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -18086,7 +18101,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18704,7 +18719,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18785,7 +18800,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
         <v>1.87</v>
@@ -18910,7 +18925,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19116,7 +19131,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19734,7 +19749,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20018,7 +20033,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ91">
         <v>0.8</v>
@@ -20352,7 +20367,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20430,7 +20445,7 @@
         <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93">
         <v>1.71</v>
@@ -20970,7 +20985,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21048,7 +21063,7 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ96">
         <v>0.5600000000000001</v>
@@ -21257,7 +21272,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR97">
         <v>1.49</v>
@@ -22412,7 +22427,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22490,7 +22505,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ103">
         <v>1.57</v>
@@ -22618,7 +22633,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22824,7 +22839,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22905,7 +22920,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.1</v>
@@ -23236,7 +23251,7 @@
         <v>109</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23314,7 +23329,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
         <v>1.57</v>
@@ -23523,7 +23538,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR108">
         <v>1.87</v>
@@ -23726,7 +23741,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ109">
         <v>0.57</v>
@@ -23854,7 +23869,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24060,7 +24075,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24141,7 +24156,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24344,10 +24359,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ112">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -24678,7 +24693,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24884,7 +24899,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25296,7 +25311,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25502,7 +25517,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25914,7 +25929,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26326,7 +26341,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26404,7 +26419,7 @@
         <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>1.83</v>
@@ -26738,7 +26753,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27228,7 +27243,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ126">
         <v>1.17</v>
@@ -27434,7 +27449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -27768,7 +27783,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27849,7 +27864,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ129">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -27974,7 +27989,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28673,7 +28688,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR133">
         <v>1.25</v>
@@ -28798,7 +28813,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29004,7 +29019,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29416,7 +29431,7 @@
         <v>109</v>
       </c>
       <c r="P137" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="Q137">
         <v>3.1</v>
@@ -30240,7 +30255,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30446,7 +30461,7 @@
         <v>109</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30524,7 +30539,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ142">
         <v>1.57</v>
@@ -30730,7 +30745,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ143">
         <v>1.2</v>
@@ -31064,7 +31079,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31145,7 +31160,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
         <v>1.94</v>
@@ -31270,7 +31285,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31476,7 +31491,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31682,7 +31697,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31888,7 +31903,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32094,7 +32109,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32300,7 +32315,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32378,7 +32393,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151">
         <v>0.8</v>
@@ -32506,7 +32521,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32712,7 +32727,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q153">
         <v>3.1</v>
@@ -32790,10 +32805,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ153">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR153">
         <v>2.06</v>
@@ -32918,7 +32933,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -32996,7 +33011,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ154">
         <v>0.57</v>
@@ -33124,7 +33139,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33330,7 +33345,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33411,7 +33426,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ156">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR156">
         <v>1.52</v>
@@ -33742,7 +33757,7 @@
         <v>109</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q158">
         <v>3.2</v>
@@ -34154,7 +34169,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34566,7 +34581,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35056,10 +35071,10 @@
         <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ164">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR164">
         <v>1.81</v>
@@ -35802,7 +35817,7 @@
         <v>216</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36008,7 +36023,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36420,7 +36435,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36498,7 +36513,7 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ171">
         <v>0.5600000000000001</v>
@@ -36626,7 +36641,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36832,7 +36847,7 @@
         <v>220</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37038,7 +37053,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -37244,7 +37259,7 @@
         <v>113</v>
       </c>
       <c r="P175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q175">
         <v>2.4</v>
@@ -37450,7 +37465,7 @@
         <v>222</v>
       </c>
       <c r="P176" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37656,7 +37671,7 @@
         <v>163</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>3.4</v>
@@ -37862,7 +37877,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38274,7 +38289,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38686,7 +38701,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38764,7 +38779,7 @@
         <v>2.2</v>
       </c>
       <c r="AP182">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ182">
         <v>2</v>
@@ -38892,7 +38907,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39098,7 +39113,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39385,7 +39400,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ185">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39510,7 +39525,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39591,7 +39606,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ186">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR186">
         <v>1.92</v>
@@ -39922,7 +39937,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40128,7 +40143,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40952,7 +40967,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41109,6 +41124,1036 @@
       </c>
       <c r="BP193">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7781267</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45794.64583333334</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>99</v>
+      </c>
+      <c r="H194" t="s">
+        <v>98</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>3</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>6</v>
+      </c>
+      <c r="N194">
+        <v>7</v>
+      </c>
+      <c r="O194" t="s">
+        <v>234</v>
+      </c>
+      <c r="P194" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q194">
+        <v>2.75</v>
+      </c>
+      <c r="R194">
+        <v>2.05</v>
+      </c>
+      <c r="S194">
+        <v>4.33</v>
+      </c>
+      <c r="T194">
+        <v>1.5</v>
+      </c>
+      <c r="U194">
+        <v>2.5</v>
+      </c>
+      <c r="V194">
+        <v>3.4</v>
+      </c>
+      <c r="W194">
+        <v>1.3</v>
+      </c>
+      <c r="X194">
+        <v>10</v>
+      </c>
+      <c r="Y194">
+        <v>1.06</v>
+      </c>
+      <c r="Z194">
+        <v>1.97</v>
+      </c>
+      <c r="AA194">
+        <v>3.41</v>
+      </c>
+      <c r="AB194">
+        <v>3.13</v>
+      </c>
+      <c r="AC194">
+        <v>1.07</v>
+      </c>
+      <c r="AD194">
+        <v>8</v>
+      </c>
+      <c r="AE194">
+        <v>1.42</v>
+      </c>
+      <c r="AF194">
+        <v>2.8</v>
+      </c>
+      <c r="AG194">
+        <v>1.91</v>
+      </c>
+      <c r="AH194">
+        <v>1.79</v>
+      </c>
+      <c r="AI194">
+        <v>2.05</v>
+      </c>
+      <c r="AJ194">
+        <v>1.7</v>
+      </c>
+      <c r="AK194">
+        <v>1.3</v>
+      </c>
+      <c r="AL194">
+        <v>1.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.75</v>
+      </c>
+      <c r="AN194">
+        <v>0.5</v>
+      </c>
+      <c r="AO194">
+        <v>0.83</v>
+      </c>
+      <c r="AP194">
+        <v>0.4</v>
+      </c>
+      <c r="AQ194">
+        <v>1.14</v>
+      </c>
+      <c r="AR194">
+        <v>1.58</v>
+      </c>
+      <c r="AS194">
+        <v>1.04</v>
+      </c>
+      <c r="AT194">
+        <v>2.62</v>
+      </c>
+      <c r="AU194">
+        <v>6</v>
+      </c>
+      <c r="AV194">
+        <v>9</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>8</v>
+      </c>
+      <c r="AY194">
+        <v>14</v>
+      </c>
+      <c r="AZ194">
+        <v>20</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>3</v>
+      </c>
+      <c r="BC194">
+        <v>8</v>
+      </c>
+      <c r="BD194">
+        <v>1.74</v>
+      </c>
+      <c r="BE194">
+        <v>6.5</v>
+      </c>
+      <c r="BF194">
+        <v>2.32</v>
+      </c>
+      <c r="BG194">
+        <v>1.4</v>
+      </c>
+      <c r="BH194">
+        <v>2.7</v>
+      </c>
+      <c r="BI194">
+        <v>1.66</v>
+      </c>
+      <c r="BJ194">
+        <v>2.07</v>
+      </c>
+      <c r="BK194">
+        <v>2.05</v>
+      </c>
+      <c r="BL194">
+        <v>1.67</v>
+      </c>
+      <c r="BM194">
+        <v>2.65</v>
+      </c>
+      <c r="BN194">
+        <v>1.41</v>
+      </c>
+      <c r="BO194">
+        <v>3.45</v>
+      </c>
+      <c r="BP194">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7781268</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45794.72916666666</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>96</v>
+      </c>
+      <c r="H195" t="s">
+        <v>88</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>235</v>
+      </c>
+      <c r="P195" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>3.6</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>9</v>
+      </c>
+      <c r="Y195">
+        <v>1.07</v>
+      </c>
+      <c r="Z195">
+        <v>2.22</v>
+      </c>
+      <c r="AA195">
+        <v>3.35</v>
+      </c>
+      <c r="AB195">
+        <v>2.69</v>
+      </c>
+      <c r="AC195">
+        <v>1.05</v>
+      </c>
+      <c r="AD195">
+        <v>9</v>
+      </c>
+      <c r="AE195">
+        <v>1.33</v>
+      </c>
+      <c r="AF195">
+        <v>3.25</v>
+      </c>
+      <c r="AG195">
+        <v>1.85</v>
+      </c>
+      <c r="AH195">
+        <v>1.85</v>
+      </c>
+      <c r="AI195">
+        <v>1.91</v>
+      </c>
+      <c r="AJ195">
+        <v>1.91</v>
+      </c>
+      <c r="AK195">
+        <v>1.4</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.57</v>
+      </c>
+      <c r="AN195">
+        <v>2</v>
+      </c>
+      <c r="AO195">
+        <v>0.33</v>
+      </c>
+      <c r="AP195">
+        <v>2.14</v>
+      </c>
+      <c r="AQ195">
+        <v>0.29</v>
+      </c>
+      <c r="AR195">
+        <v>1.77</v>
+      </c>
+      <c r="AS195">
+        <v>1.21</v>
+      </c>
+      <c r="AT195">
+        <v>2.98</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>2</v>
+      </c>
+      <c r="AW195">
+        <v>9</v>
+      </c>
+      <c r="AX195">
+        <v>8</v>
+      </c>
+      <c r="AY195">
+        <v>16</v>
+      </c>
+      <c r="AZ195">
+        <v>12</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>10</v>
+      </c>
+      <c r="BD195">
+        <v>1.84</v>
+      </c>
+      <c r="BE195">
+        <v>6.75</v>
+      </c>
+      <c r="BF195">
+        <v>2.15</v>
+      </c>
+      <c r="BG195">
+        <v>1.33</v>
+      </c>
+      <c r="BH195">
+        <v>2.95</v>
+      </c>
+      <c r="BI195">
+        <v>1.57</v>
+      </c>
+      <c r="BJ195">
+        <v>2.23</v>
+      </c>
+      <c r="BK195">
+        <v>1.91</v>
+      </c>
+      <c r="BL195">
+        <v>1.77</v>
+      </c>
+      <c r="BM195">
+        <v>2.4</v>
+      </c>
+      <c r="BN195">
+        <v>1.49</v>
+      </c>
+      <c r="BO195">
+        <v>3.1</v>
+      </c>
+      <c r="BP195">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7781269</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45794.84375</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" t="s">
+        <v>73</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>198</v>
+      </c>
+      <c r="P196" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q196">
+        <v>2.63</v>
+      </c>
+      <c r="R196">
+        <v>2.2</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.36</v>
+      </c>
+      <c r="U196">
+        <v>3</v>
+      </c>
+      <c r="V196">
+        <v>2.75</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>7</v>
+      </c>
+      <c r="Y196">
+        <v>1.1</v>
+      </c>
+      <c r="Z196">
+        <v>1.93</v>
+      </c>
+      <c r="AA196">
+        <v>3.41</v>
+      </c>
+      <c r="AB196">
+        <v>3.23</v>
+      </c>
+      <c r="AC196">
+        <v>1.05</v>
+      </c>
+      <c r="AD196">
+        <v>9.5</v>
+      </c>
+      <c r="AE196">
+        <v>1.28</v>
+      </c>
+      <c r="AF196">
+        <v>3.55</v>
+      </c>
+      <c r="AG196">
+        <v>1.85</v>
+      </c>
+      <c r="AH196">
+        <v>1.85</v>
+      </c>
+      <c r="AI196">
+        <v>1.75</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>1.3</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.77</v>
+      </c>
+      <c r="AN196">
+        <v>2</v>
+      </c>
+      <c r="AO196">
+        <v>1.71</v>
+      </c>
+      <c r="AP196">
+        <v>1.88</v>
+      </c>
+      <c r="AQ196">
+        <v>1.63</v>
+      </c>
+      <c r="AR196">
+        <v>1.74</v>
+      </c>
+      <c r="AS196">
+        <v>1.57</v>
+      </c>
+      <c r="AT196">
+        <v>3.31</v>
+      </c>
+      <c r="AU196">
+        <v>14</v>
+      </c>
+      <c r="AV196">
+        <v>6</v>
+      </c>
+      <c r="AW196">
+        <v>4</v>
+      </c>
+      <c r="AX196">
+        <v>2</v>
+      </c>
+      <c r="AY196">
+        <v>20</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>8</v>
+      </c>
+      <c r="BC196">
+        <v>16</v>
+      </c>
+      <c r="BD196">
+        <v>1.61</v>
+      </c>
+      <c r="BE196">
+        <v>6.4</v>
+      </c>
+      <c r="BF196">
+        <v>2.55</v>
+      </c>
+      <c r="BG196">
+        <v>1.41</v>
+      </c>
+      <c r="BH196">
+        <v>2.65</v>
+      </c>
+      <c r="BI196">
+        <v>1.68</v>
+      </c>
+      <c r="BJ196">
+        <v>2.02</v>
+      </c>
+      <c r="BK196">
+        <v>2.1</v>
+      </c>
+      <c r="BL196">
+        <v>1.64</v>
+      </c>
+      <c r="BM196">
+        <v>2.7</v>
+      </c>
+      <c r="BN196">
+        <v>1.4</v>
+      </c>
+      <c r="BO196">
+        <v>3.55</v>
+      </c>
+      <c r="BP196">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7781270</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45794.85416666666</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>72</v>
+      </c>
+      <c r="H197" t="s">
+        <v>89</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>109</v>
+      </c>
+      <c r="P197" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q197">
+        <v>2.75</v>
+      </c>
+      <c r="R197">
+        <v>2.38</v>
+      </c>
+      <c r="S197">
+        <v>3.5</v>
+      </c>
+      <c r="T197">
+        <v>1.3</v>
+      </c>
+      <c r="U197">
+        <v>3.4</v>
+      </c>
+      <c r="V197">
+        <v>2.38</v>
+      </c>
+      <c r="W197">
+        <v>1.53</v>
+      </c>
+      <c r="X197">
+        <v>6</v>
+      </c>
+      <c r="Y197">
+        <v>1.13</v>
+      </c>
+      <c r="Z197">
+        <v>2.3</v>
+      </c>
+      <c r="AA197">
+        <v>3.45</v>
+      </c>
+      <c r="AB197">
+        <v>2.53</v>
+      </c>
+      <c r="AC197">
+        <v>1.04</v>
+      </c>
+      <c r="AD197">
+        <v>10</v>
+      </c>
+      <c r="AE197">
+        <v>1.2</v>
+      </c>
+      <c r="AF197">
+        <v>4.33</v>
+      </c>
+      <c r="AG197">
+        <v>1.75</v>
+      </c>
+      <c r="AH197">
+        <v>1.95</v>
+      </c>
+      <c r="AI197">
+        <v>1.57</v>
+      </c>
+      <c r="AJ197">
+        <v>2.25</v>
+      </c>
+      <c r="AK197">
+        <v>1.45</v>
+      </c>
+      <c r="AL197">
+        <v>1.22</v>
+      </c>
+      <c r="AM197">
+        <v>1.53</v>
+      </c>
+      <c r="AN197">
+        <v>1.29</v>
+      </c>
+      <c r="AO197">
+        <v>1.8</v>
+      </c>
+      <c r="AP197">
+        <v>1.13</v>
+      </c>
+      <c r="AQ197">
+        <v>2</v>
+      </c>
+      <c r="AR197">
+        <v>1.53</v>
+      </c>
+      <c r="AS197">
+        <v>1.67</v>
+      </c>
+      <c r="AT197">
+        <v>3.2</v>
+      </c>
+      <c r="AU197">
+        <v>8</v>
+      </c>
+      <c r="AV197">
+        <v>11</v>
+      </c>
+      <c r="AW197">
+        <v>6</v>
+      </c>
+      <c r="AX197">
+        <v>5</v>
+      </c>
+      <c r="AY197">
+        <v>15</v>
+      </c>
+      <c r="AZ197">
+        <v>18</v>
+      </c>
+      <c r="BA197">
+        <v>4</v>
+      </c>
+      <c r="BB197">
+        <v>6</v>
+      </c>
+      <c r="BC197">
+        <v>10</v>
+      </c>
+      <c r="BD197">
+        <v>1.85</v>
+      </c>
+      <c r="BE197">
+        <v>6.75</v>
+      </c>
+      <c r="BF197">
+        <v>2.12</v>
+      </c>
+      <c r="BG197">
+        <v>1.26</v>
+      </c>
+      <c r="BH197">
+        <v>3.4</v>
+      </c>
+      <c r="BI197">
+        <v>1.46</v>
+      </c>
+      <c r="BJ197">
+        <v>2.5</v>
+      </c>
+      <c r="BK197">
+        <v>1.73</v>
+      </c>
+      <c r="BL197">
+        <v>1.96</v>
+      </c>
+      <c r="BM197">
+        <v>2.14</v>
+      </c>
+      <c r="BN197">
+        <v>1.62</v>
+      </c>
+      <c r="BO197">
+        <v>2.7</v>
+      </c>
+      <c r="BP197">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7781271</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45794.85416666666</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>85</v>
+      </c>
+      <c r="H198" t="s">
+        <v>90</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>4</v>
+      </c>
+      <c r="N198">
+        <v>5</v>
+      </c>
+      <c r="O198" t="s">
+        <v>103</v>
+      </c>
+      <c r="P198" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q198">
+        <v>2.63</v>
+      </c>
+      <c r="R198">
+        <v>2.38</v>
+      </c>
+      <c r="S198">
+        <v>3.6</v>
+      </c>
+      <c r="T198">
+        <v>1.3</v>
+      </c>
+      <c r="U198">
+        <v>3.4</v>
+      </c>
+      <c r="V198">
+        <v>2.38</v>
+      </c>
+      <c r="W198">
+        <v>1.53</v>
+      </c>
+      <c r="X198">
+        <v>6</v>
+      </c>
+      <c r="Y198">
+        <v>1.13</v>
+      </c>
+      <c r="Z198">
+        <v>2.13</v>
+      </c>
+      <c r="AA198">
+        <v>3.45</v>
+      </c>
+      <c r="AB198">
+        <v>2.77</v>
+      </c>
+      <c r="AC198">
+        <v>1.04</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.2</v>
+      </c>
+      <c r="AF198">
+        <v>4.33</v>
+      </c>
+      <c r="AG198">
+        <v>1.61</v>
+      </c>
+      <c r="AH198">
+        <v>2.15</v>
+      </c>
+      <c r="AI198">
+        <v>1.57</v>
+      </c>
+      <c r="AJ198">
+        <v>2.25</v>
+      </c>
+      <c r="AK198">
+        <v>1.4</v>
+      </c>
+      <c r="AL198">
+        <v>1.22</v>
+      </c>
+      <c r="AM198">
+        <v>1.62</v>
+      </c>
+      <c r="AN198">
+        <v>2.5</v>
+      </c>
+      <c r="AO198">
+        <v>1.5</v>
+      </c>
+      <c r="AP198">
+        <v>2.14</v>
+      </c>
+      <c r="AQ198">
+        <v>1.71</v>
+      </c>
+      <c r="AR198">
+        <v>1.72</v>
+      </c>
+      <c r="AS198">
+        <v>1.56</v>
+      </c>
+      <c r="AT198">
+        <v>3.28</v>
+      </c>
+      <c r="AU198">
+        <v>6</v>
+      </c>
+      <c r="AV198">
+        <v>11</v>
+      </c>
+      <c r="AW198">
+        <v>4</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>13</v>
+      </c>
+      <c r="AZ198">
+        <v>24</v>
+      </c>
+      <c r="BA198">
+        <v>8</v>
+      </c>
+      <c r="BB198">
+        <v>6</v>
+      </c>
+      <c r="BC198">
+        <v>14</v>
+      </c>
+      <c r="BD198">
+        <v>1.86</v>
+      </c>
+      <c r="BE198">
+        <v>6.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.15</v>
+      </c>
+      <c r="BG198">
+        <v>1.3</v>
+      </c>
+      <c r="BH198">
+        <v>3.15</v>
+      </c>
+      <c r="BI198">
+        <v>1.52</v>
+      </c>
+      <c r="BJ198">
+        <v>2.32</v>
+      </c>
+      <c r="BK198">
+        <v>1.85</v>
+      </c>
+      <c r="BL198">
+        <v>1.83</v>
+      </c>
+      <c r="BM198">
+        <v>2.32</v>
+      </c>
+      <c r="BN198">
+        <v>1.52</v>
+      </c>
+      <c r="BO198">
+        <v>3.05</v>
+      </c>
+      <c r="BP198">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -43144,10 +43144,10 @@
         <v>1</v>
       </c>
       <c r="AY203">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ203">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA203">
         <v>7</v>
@@ -43544,31 +43544,31 @@
         <v>2.81</v>
       </c>
       <c r="AU205">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV205">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY205">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ205">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA205">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB205">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC205">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD205">
         <v>0</v>
@@ -43956,31 +43956,31 @@
         <v>2.79</v>
       </c>
       <c r="AU207">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV207">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW207">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AX207">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY207">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="AZ207">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA207">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC207">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD207">
         <v>1.67</v>
@@ -44162,31 +44162,31 @@
         <v>3</v>
       </c>
       <c r="AU208">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV208">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX208">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY208">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ208">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB208">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BD208">
         <v>2.15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -43750,31 +43750,31 @@
         <v>3.29</v>
       </c>
       <c r="AU206">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV206">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW206">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY206">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ206">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA206">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC206">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD206">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,36 @@
     <t>['6', '87']</t>
   </si>
   <si>
+    <t>['41', '90+5']</t>
+  </si>
+  <si>
+    <t>['19', '24', '75']</t>
+  </si>
+  <si>
+    <t>['5', '22']</t>
+  </si>
+  <si>
+    <t>['7', '44', '72']</t>
+  </si>
+  <si>
+    <t>['53', '59', '61']</t>
+  </si>
+  <si>
+    <t>['1', '4']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['66', '72', '76']</t>
+  </si>
+  <si>
+    <t>['58', '70', '89']</t>
+  </si>
+  <si>
+    <t>['15', '20', '66', '90+4']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1013,6 +1043,36 @@
   </si>
   <si>
     <t>['43', '53', '90+4']</t>
+  </si>
+  <si>
+    <t>['15', '65']</t>
+  </si>
+  <si>
+    <t>['42', '90+5']</t>
+  </si>
+  <si>
+    <t>['38', '77']</t>
+  </si>
+  <si>
+    <t>['60', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['57', '89']</t>
+  </si>
+  <si>
+    <t>['13', '22', '84']</t>
+  </si>
+  <si>
+    <t>['20', '25', '90']</t>
+  </si>
+  <si>
+    <t>['31', '50', '90+1']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['48', '70']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,7 +1899,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2045,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2123,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0.5600000000000001</v>
@@ -2332,7 +2392,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2457,7 +2517,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2538,7 +2598,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2663,7 +2723,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2741,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2869,7 +2929,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -2947,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3281,7 +3341,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3362,7 +3422,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3568,7 +3628,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3977,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>0.88</v>
@@ -4105,7 +4165,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4183,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0.57</v>
@@ -4311,7 +4371,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4392,7 +4452,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4517,7 +4577,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4801,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -5007,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5135,7 +5195,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5216,7 +5276,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5422,7 +5482,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5547,7 +5607,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5625,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ21">
         <v>1.14</v>
@@ -5753,7 +5813,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5831,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5959,7 +6019,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6165,7 +6225,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6243,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6449,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
         <v>0.5600000000000001</v>
@@ -6577,7 +6637,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6655,10 +6715,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -7273,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7482,7 +7542,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7607,7 +7667,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7688,7 +7748,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -8019,7 +8079,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8097,10 +8157,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>2.47</v>
@@ -8303,10 +8363,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.85</v>
@@ -8715,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ36">
         <v>0.63</v>
@@ -8843,7 +8903,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9127,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9461,7 +9521,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9542,7 +9602,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9748,7 +9808,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR41">
         <v>1.65</v>
@@ -9873,7 +9933,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -9951,7 +10011,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10363,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>1.57</v>
@@ -10697,7 +10757,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10778,7 +10838,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
         <v>0.92</v>
@@ -10903,7 +10963,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10981,10 +11041,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ47">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -11109,7 +11169,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11599,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11805,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
         <v>0.5600000000000001</v>
@@ -11933,7 +11993,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12011,10 +12071,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -12139,7 +12199,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12217,7 +12277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53">
         <v>1.57</v>
@@ -12426,7 +12486,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
         <v>1.95</v>
@@ -12551,7 +12611,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13041,10 +13101,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR57">
         <v>1.55</v>
@@ -13169,7 +13229,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13247,7 +13307,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -13375,7 +13435,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13453,10 +13513,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13662,7 +13722,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR60">
         <v>0.9399999999999999</v>
@@ -13787,7 +13847,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13865,10 +13925,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
         <v>1.66</v>
@@ -13993,7 +14053,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14199,7 +14259,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14277,10 +14337,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14405,7 +14465,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14483,7 +14543,7 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -15101,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
         <v>0.71</v>
@@ -15307,10 +15367,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>1.48</v>
@@ -15435,7 +15495,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15513,10 +15573,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.7</v>
@@ -15847,7 +15907,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15925,10 +15985,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.88</v>
@@ -16053,7 +16113,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16131,10 +16191,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16337,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16465,7 +16525,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16546,7 +16606,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.88</v>
@@ -16877,7 +16937,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16958,7 +17018,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
         <v>0.97</v>
@@ -17161,10 +17221,10 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR77">
         <v>0.9</v>
@@ -17367,7 +17427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17701,7 +17761,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17779,10 +17839,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17907,7 +17967,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17985,7 +18045,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -18113,7 +18173,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18603,7 +18663,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -18731,7 +18791,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18812,7 +18872,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR85">
         <v>1.87</v>
@@ -18937,7 +18997,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19143,7 +19203,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19221,10 +19281,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.99</v>
@@ -19427,7 +19487,7 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19761,7 +19821,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20045,10 +20105,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20251,10 +20311,10 @@
         <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20379,7 +20439,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20457,10 +20517,10 @@
         <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20663,7 +20723,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.43</v>
@@ -20872,7 +20932,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ95">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -20997,7 +21057,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21284,7 +21344,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.49</v>
@@ -21490,7 +21550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21693,10 +21753,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR99">
         <v>1.7</v>
@@ -21902,7 +21962,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
@@ -22311,7 +22371,7 @@
         <v>0.33</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22439,7 +22499,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22517,7 +22577,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103">
         <v>1.57</v>
@@ -22645,7 +22705,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22723,7 +22783,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>0.71</v>
@@ -22851,7 +22911,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23135,7 +23195,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ106">
         <v>1.57</v>
@@ -23341,10 +23401,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23547,10 +23607,10 @@
         <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
         <v>1.87</v>
@@ -23753,7 +23813,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
         <v>0.57</v>
@@ -23881,7 +23941,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24087,7 +24147,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24165,10 +24225,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24371,7 +24431,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24705,7 +24765,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24911,7 +24971,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24989,7 +25049,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ115">
         <v>1.5</v>
@@ -25323,7 +25383,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25529,7 +25589,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25607,10 +25667,10 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ118">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.68</v>
@@ -25816,7 +25876,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ119">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
         <v>0.98</v>
@@ -25941,7 +26001,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26022,7 +26082,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26228,7 +26288,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR121">
         <v>1.5</v>
@@ -26353,7 +26413,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26434,7 +26494,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR122">
         <v>1.93</v>
@@ -26637,10 +26697,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.96</v>
@@ -26765,7 +26825,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27049,7 +27109,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>0.33</v>
@@ -27255,7 +27315,7 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
         <v>1.43</v>
@@ -27667,7 +27727,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27795,7 +27855,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27876,7 +27936,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ129">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -28001,7 +28061,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28285,10 +28345,10 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ131">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.86</v>
@@ -28494,7 +28554,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28697,7 +28757,7 @@
         <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
         <v>1.14</v>
@@ -28825,7 +28885,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28906,7 +28966,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ134">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -29031,7 +29091,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29109,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ135">
         <v>0.63</v>
@@ -29521,7 +29581,7 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ137">
         <v>0.86</v>
@@ -29727,7 +29787,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>0.71</v>
@@ -30139,7 +30199,7 @@
         <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140">
         <v>0.33</v>
@@ -30267,7 +30327,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30345,10 +30405,10 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30679,7 +30739,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -30757,7 +30817,7 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>0.88</v>
@@ -31091,7 +31151,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31172,7 +31232,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ145">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.94</v>
@@ -31297,7 +31357,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31375,7 +31435,7 @@
         <v>0.8</v>
       </c>
       <c r="AP146">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31503,7 +31563,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31581,10 +31641,10 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR147">
         <v>1.85</v>
@@ -31709,7 +31769,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31790,7 +31850,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ148">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31915,7 +31975,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31996,7 +32056,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.48</v>
@@ -32121,7 +32181,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32202,7 +32262,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ150">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR150">
         <v>1.41</v>
@@ -32327,7 +32387,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32405,10 +32465,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.66</v>
@@ -32533,7 +32593,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32611,10 +32671,10 @@
         <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ152">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
         <v>1.12</v>
@@ -32739,7 +32799,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -32820,7 +32880,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ153">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR153">
         <v>1.52</v>
@@ -32945,7 +33005,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33023,7 +33083,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ154">
         <v>2</v>
@@ -33151,7 +33211,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33357,7 +33417,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33435,7 +33495,7 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ156">
         <v>1.14</v>
@@ -33563,7 +33623,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -34053,10 +34113,10 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>1.77</v>
@@ -34181,7 +34241,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34593,7 +34653,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34671,10 +34731,10 @@
         <v>2</v>
       </c>
       <c r="AP162">
+        <v>1.33</v>
+      </c>
+      <c r="AQ162">
         <v>1.38</v>
-      </c>
-      <c r="AQ162">
-        <v>1.57</v>
       </c>
       <c r="AR162">
         <v>2.1</v>
@@ -34877,10 +34937,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR163">
         <v>1.87</v>
@@ -35083,10 +35143,10 @@
         <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ164">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.81</v>
@@ -35289,10 +35349,10 @@
         <v>0.4</v>
       </c>
       <c r="AP165">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ165">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR165">
         <v>1.6</v>
@@ -35623,7 +35683,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35701,10 +35761,10 @@
         <v>2.5</v>
       </c>
       <c r="AP167">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ167">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR167">
         <v>1.76</v>
@@ -35907,7 +35967,7 @@
         <v>0.8</v>
       </c>
       <c r="AP168">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ168">
         <v>0.71</v>
@@ -36035,7 +36095,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36113,10 +36173,10 @@
         <v>2.5</v>
       </c>
       <c r="AP169">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36241,7 +36301,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36319,10 +36379,10 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ170">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR170">
         <v>1.89</v>
@@ -36447,7 +36507,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36525,7 +36585,7 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ171">
         <v>0.5600000000000001</v>
@@ -36653,7 +36713,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36940,7 +37000,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ173">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR173">
         <v>1.49</v>
@@ -37065,7 +37125,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37271,7 +37331,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37477,7 +37537,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37683,7 +37743,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -37889,7 +37949,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -37967,7 +38027,7 @@
         <v>0.75</v>
       </c>
       <c r="AP178">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ178">
         <v>1.17</v>
@@ -38301,7 +38361,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38382,7 +38442,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ180">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR180">
         <v>2.03</v>
@@ -38585,7 +38645,7 @@
         <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ181">
         <v>0.86</v>
@@ -38713,7 +38773,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38791,10 +38851,10 @@
         <v>2.2</v>
       </c>
       <c r="AP182">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ182">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR182">
         <v>1.89</v>
@@ -38919,7 +38979,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -38997,7 +39057,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ183">
         <v>0.57</v>
@@ -39125,7 +39185,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39203,10 +39263,10 @@
         <v>0.29</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR184">
         <v>1.71</v>
@@ -39409,10 +39469,10 @@
         <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ185">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39537,7 +39597,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39618,7 +39678,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ186">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR186">
         <v>1.92</v>
@@ -39949,7 +40009,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40155,7 +40215,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40439,10 +40499,10 @@
         <v>1.67</v>
       </c>
       <c r="AP190">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR190">
         <v>1.5</v>
@@ -40851,7 +40911,7 @@
         <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
         <v>1.14</v>
@@ -40979,7 +41039,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41057,10 +41117,10 @@
         <v>2</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR193">
         <v>2.11</v>
@@ -41185,7 +41245,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41263,7 +41323,7 @@
         <v>0.83</v>
       </c>
       <c r="AP194">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ194">
         <v>1.14</v>
@@ -41469,10 +41529,10 @@
         <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ195">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR195">
         <v>1.77</v>
@@ -41597,7 +41657,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41678,7 +41738,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ196">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR196">
         <v>1.74</v>
@@ -41803,7 +41863,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -41881,7 +41941,7 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ197">
         <v>2</v>
@@ -42009,7 +42069,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42087,10 +42147,10 @@
         <v>1.5</v>
       </c>
       <c r="AP198">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ198">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>1.72</v>
@@ -42499,10 +42559,10 @@
         <v>0.83</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR200">
         <v>1.69</v>
@@ -42914,7 +42974,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR202">
         <v>1.61</v>
@@ -43039,7 +43099,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43323,7 +43383,7 @@
         <v>1</v>
       </c>
       <c r="AP204">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ204">
         <v>0.88</v>
@@ -43451,7 +43511,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43735,7 +43795,7 @@
         <v>0.57</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
         <v>0.63</v>
@@ -43863,7 +43923,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44150,7 +44210,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ208">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR208">
         <v>1.53</v>
@@ -44226,6 +44286,3096 @@
       </c>
       <c r="BP208">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7781282</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45801.66666666666</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
+        <v>82</v>
+      </c>
+      <c r="H209" t="s">
+        <v>97</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>121</v>
+      </c>
+      <c r="P209" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q209">
+        <v>1.95</v>
+      </c>
+      <c r="R209">
+        <v>2.38</v>
+      </c>
+      <c r="S209">
+        <v>7</v>
+      </c>
+      <c r="T209">
+        <v>1.36</v>
+      </c>
+      <c r="U209">
+        <v>3</v>
+      </c>
+      <c r="V209">
+        <v>2.63</v>
+      </c>
+      <c r="W209">
+        <v>1.44</v>
+      </c>
+      <c r="X209">
+        <v>7</v>
+      </c>
+      <c r="Y209">
+        <v>1.1</v>
+      </c>
+      <c r="Z209">
+        <v>1.49</v>
+      </c>
+      <c r="AA209">
+        <v>3.81</v>
+      </c>
+      <c r="AB209">
+        <v>5.3</v>
+      </c>
+      <c r="AC209">
+        <v>1.05</v>
+      </c>
+      <c r="AD209">
+        <v>9.5</v>
+      </c>
+      <c r="AE209">
+        <v>1.28</v>
+      </c>
+      <c r="AF209">
+        <v>3.55</v>
+      </c>
+      <c r="AG209">
+        <v>1.82</v>
+      </c>
+      <c r="AH209">
+        <v>1.88</v>
+      </c>
+      <c r="AI209">
+        <v>2.05</v>
+      </c>
+      <c r="AJ209">
+        <v>1.7</v>
+      </c>
+      <c r="AK209">
+        <v>1.09</v>
+      </c>
+      <c r="AL209">
+        <v>1.17</v>
+      </c>
+      <c r="AM209">
+        <v>2.65</v>
+      </c>
+      <c r="AN209">
+        <v>2.2</v>
+      </c>
+      <c r="AO209">
+        <v>1.71</v>
+      </c>
+      <c r="AP209">
+        <v>2.33</v>
+      </c>
+      <c r="AQ209">
+        <v>1.5</v>
+      </c>
+      <c r="AR209">
+        <v>2.06</v>
+      </c>
+      <c r="AS209">
+        <v>1.34</v>
+      </c>
+      <c r="AT209">
+        <v>3.4</v>
+      </c>
+      <c r="AU209">
+        <v>3</v>
+      </c>
+      <c r="AV209">
+        <v>6</v>
+      </c>
+      <c r="AW209">
+        <v>10</v>
+      </c>
+      <c r="AX209">
+        <v>11</v>
+      </c>
+      <c r="AY209">
+        <v>16</v>
+      </c>
+      <c r="AZ209">
+        <v>18</v>
+      </c>
+      <c r="BA209">
+        <v>4</v>
+      </c>
+      <c r="BB209">
+        <v>5</v>
+      </c>
+      <c r="BC209">
+        <v>9</v>
+      </c>
+      <c r="BD209">
+        <v>1.27</v>
+      </c>
+      <c r="BE209">
+        <v>8</v>
+      </c>
+      <c r="BF209">
+        <v>4.1</v>
+      </c>
+      <c r="BG209">
+        <v>1.27</v>
+      </c>
+      <c r="BH209">
+        <v>3.3</v>
+      </c>
+      <c r="BI209">
+        <v>1.47</v>
+      </c>
+      <c r="BJ209">
+        <v>2.48</v>
+      </c>
+      <c r="BK209">
+        <v>1.74</v>
+      </c>
+      <c r="BL209">
+        <v>1.95</v>
+      </c>
+      <c r="BM209">
+        <v>2.17</v>
+      </c>
+      <c r="BN209">
+        <v>1.6</v>
+      </c>
+      <c r="BO209">
+        <v>2.7</v>
+      </c>
+      <c r="BP209">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7781283</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45801.73958333334</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>94</v>
+      </c>
+      <c r="H210" t="s">
+        <v>84</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>239</v>
+      </c>
+      <c r="P210" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>1.47</v>
+      </c>
+      <c r="AA210">
+        <v>4.1</v>
+      </c>
+      <c r="AB210">
+        <v>5.1</v>
+      </c>
+      <c r="AC210">
+        <v>0</v>
+      </c>
+      <c r="AD210">
+        <v>0</v>
+      </c>
+      <c r="AE210">
+        <v>0</v>
+      </c>
+      <c r="AF210">
+        <v>0</v>
+      </c>
+      <c r="AG210">
+        <v>1.57</v>
+      </c>
+      <c r="AH210">
+        <v>2.25</v>
+      </c>
+      <c r="AI210">
+        <v>0</v>
+      </c>
+      <c r="AJ210">
+        <v>0</v>
+      </c>
+      <c r="AK210">
+        <v>0</v>
+      </c>
+      <c r="AL210">
+        <v>0</v>
+      </c>
+      <c r="AM210">
+        <v>0</v>
+      </c>
+      <c r="AN210">
+        <v>1.88</v>
+      </c>
+      <c r="AO210">
+        <v>0.25</v>
+      </c>
+      <c r="AP210">
+        <v>2</v>
+      </c>
+      <c r="AQ210">
+        <v>0.22</v>
+      </c>
+      <c r="AR210">
+        <v>1.8</v>
+      </c>
+      <c r="AS210">
+        <v>1.25</v>
+      </c>
+      <c r="AT210">
+        <v>3.05</v>
+      </c>
+      <c r="AU210">
+        <v>5</v>
+      </c>
+      <c r="AV210">
+        <v>2</v>
+      </c>
+      <c r="AW210">
+        <v>12</v>
+      </c>
+      <c r="AX210">
+        <v>7</v>
+      </c>
+      <c r="AY210">
+        <v>17</v>
+      </c>
+      <c r="AZ210">
+        <v>9</v>
+      </c>
+      <c r="BA210">
+        <v>6</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>11</v>
+      </c>
+      <c r="BD210">
+        <v>0</v>
+      </c>
+      <c r="BE210">
+        <v>0</v>
+      </c>
+      <c r="BF210">
+        <v>0</v>
+      </c>
+      <c r="BG210">
+        <v>0</v>
+      </c>
+      <c r="BH210">
+        <v>0</v>
+      </c>
+      <c r="BI210">
+        <v>0</v>
+      </c>
+      <c r="BJ210">
+        <v>0</v>
+      </c>
+      <c r="BK210">
+        <v>0</v>
+      </c>
+      <c r="BL210">
+        <v>0</v>
+      </c>
+      <c r="BM210">
+        <v>0</v>
+      </c>
+      <c r="BN210">
+        <v>0</v>
+      </c>
+      <c r="BO210">
+        <v>0</v>
+      </c>
+      <c r="BP210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7781284</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45801.85416666666</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
+        <v>85</v>
+      </c>
+      <c r="H211" t="s">
+        <v>74</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211" t="s">
+        <v>240</v>
+      </c>
+      <c r="P211" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q211">
+        <v>3.2</v>
+      </c>
+      <c r="R211">
+        <v>2.3</v>
+      </c>
+      <c r="S211">
+        <v>3</v>
+      </c>
+      <c r="T211">
+        <v>1.3</v>
+      </c>
+      <c r="U211">
+        <v>3.4</v>
+      </c>
+      <c r="V211">
+        <v>2.5</v>
+      </c>
+      <c r="W211">
+        <v>1.5</v>
+      </c>
+      <c r="X211">
+        <v>6</v>
+      </c>
+      <c r="Y211">
+        <v>1.13</v>
+      </c>
+      <c r="Z211">
+        <v>2.53</v>
+      </c>
+      <c r="AA211">
+        <v>3.28</v>
+      </c>
+      <c r="AB211">
+        <v>2.38</v>
+      </c>
+      <c r="AC211">
+        <v>1.04</v>
+      </c>
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211">
+        <v>1.22</v>
+      </c>
+      <c r="AF211">
+        <v>4.2</v>
+      </c>
+      <c r="AG211">
+        <v>1.75</v>
+      </c>
+      <c r="AH211">
+        <v>1.95</v>
+      </c>
+      <c r="AI211">
+        <v>1.57</v>
+      </c>
+      <c r="AJ211">
+        <v>2.25</v>
+      </c>
+      <c r="AK211">
+        <v>1.5</v>
+      </c>
+      <c r="AL211">
+        <v>1.25</v>
+      </c>
+      <c r="AM211">
+        <v>1.45</v>
+      </c>
+      <c r="AN211">
+        <v>2.14</v>
+      </c>
+      <c r="AO211">
+        <v>2</v>
+      </c>
+      <c r="AP211">
+        <v>2.25</v>
+      </c>
+      <c r="AQ211">
+        <v>1.71</v>
+      </c>
+      <c r="AR211">
+        <v>1.68</v>
+      </c>
+      <c r="AS211">
+        <v>1.37</v>
+      </c>
+      <c r="AT211">
+        <v>3.05</v>
+      </c>
+      <c r="AU211">
+        <v>10</v>
+      </c>
+      <c r="AV211">
+        <v>8</v>
+      </c>
+      <c r="AW211">
+        <v>7</v>
+      </c>
+      <c r="AX211">
+        <v>5</v>
+      </c>
+      <c r="AY211">
+        <v>17</v>
+      </c>
+      <c r="AZ211">
+        <v>13</v>
+      </c>
+      <c r="BA211">
+        <v>7</v>
+      </c>
+      <c r="BB211">
+        <v>3</v>
+      </c>
+      <c r="BC211">
+        <v>10</v>
+      </c>
+      <c r="BD211">
+        <v>2.05</v>
+      </c>
+      <c r="BE211">
+        <v>6.4</v>
+      </c>
+      <c r="BF211">
+        <v>1.95</v>
+      </c>
+      <c r="BG211">
+        <v>1.34</v>
+      </c>
+      <c r="BH211">
+        <v>2.9</v>
+      </c>
+      <c r="BI211">
+        <v>1.58</v>
+      </c>
+      <c r="BJ211">
+        <v>2.2</v>
+      </c>
+      <c r="BK211">
+        <v>1.95</v>
+      </c>
+      <c r="BL211">
+        <v>1.75</v>
+      </c>
+      <c r="BM211">
+        <v>2.43</v>
+      </c>
+      <c r="BN211">
+        <v>1.48</v>
+      </c>
+      <c r="BO211">
+        <v>3.15</v>
+      </c>
+      <c r="BP211">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7781285</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45801.85416666666</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>75</v>
+      </c>
+      <c r="H212" t="s">
+        <v>88</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>109</v>
+      </c>
+      <c r="P212" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q212">
+        <v>3.1</v>
+      </c>
+      <c r="R212">
+        <v>2.2</v>
+      </c>
+      <c r="S212">
+        <v>3.25</v>
+      </c>
+      <c r="T212">
+        <v>1.36</v>
+      </c>
+      <c r="U212">
+        <v>3</v>
+      </c>
+      <c r="V212">
+        <v>2.75</v>
+      </c>
+      <c r="W212">
+        <v>1.4</v>
+      </c>
+      <c r="X212">
+        <v>7</v>
+      </c>
+      <c r="Y212">
+        <v>1.1</v>
+      </c>
+      <c r="Z212">
+        <v>2.23</v>
+      </c>
+      <c r="AA212">
+        <v>3.35</v>
+      </c>
+      <c r="AB212">
+        <v>2.68</v>
+      </c>
+      <c r="AC212">
+        <v>1.05</v>
+      </c>
+      <c r="AD212">
+        <v>9.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.28</v>
+      </c>
+      <c r="AF212">
+        <v>3.55</v>
+      </c>
+      <c r="AG212">
+        <v>1.8</v>
+      </c>
+      <c r="AH212">
+        <v>1.9</v>
+      </c>
+      <c r="AI212">
+        <v>1.75</v>
+      </c>
+      <c r="AJ212">
+        <v>2</v>
+      </c>
+      <c r="AK212">
+        <v>1.44</v>
+      </c>
+      <c r="AL212">
+        <v>1.25</v>
+      </c>
+      <c r="AM212">
+        <v>1.53</v>
+      </c>
+      <c r="AN212">
+        <v>1.29</v>
+      </c>
+      <c r="AO212">
+        <v>0.29</v>
+      </c>
+      <c r="AP212">
+        <v>1.13</v>
+      </c>
+      <c r="AQ212">
+        <v>0.63</v>
+      </c>
+      <c r="AR212">
+        <v>1.33</v>
+      </c>
+      <c r="AS212">
+        <v>1.22</v>
+      </c>
+      <c r="AT212">
+        <v>2.55</v>
+      </c>
+      <c r="AU212">
+        <v>3</v>
+      </c>
+      <c r="AV212">
+        <v>4</v>
+      </c>
+      <c r="AW212">
+        <v>0</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>4</v>
+      </c>
+      <c r="AZ212">
+        <v>7</v>
+      </c>
+      <c r="BA212">
+        <v>4</v>
+      </c>
+      <c r="BB212">
+        <v>1</v>
+      </c>
+      <c r="BC212">
+        <v>5</v>
+      </c>
+      <c r="BD212">
+        <v>1.68</v>
+      </c>
+      <c r="BE212">
+        <v>6.5</v>
+      </c>
+      <c r="BF212">
+        <v>2.45</v>
+      </c>
+      <c r="BG212">
+        <v>1.34</v>
+      </c>
+      <c r="BH212">
+        <v>2.9</v>
+      </c>
+      <c r="BI212">
+        <v>1.58</v>
+      </c>
+      <c r="BJ212">
+        <v>2.18</v>
+      </c>
+      <c r="BK212">
+        <v>1.96</v>
+      </c>
+      <c r="BL212">
+        <v>1.74</v>
+      </c>
+      <c r="BM212">
+        <v>2.48</v>
+      </c>
+      <c r="BN212">
+        <v>1.46</v>
+      </c>
+      <c r="BO212">
+        <v>3.2</v>
+      </c>
+      <c r="BP212">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7781286</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45801.85416666666</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>99</v>
+      </c>
+      <c r="H213" t="s">
+        <v>70</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>241</v>
+      </c>
+      <c r="P213" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q213">
+        <v>4</v>
+      </c>
+      <c r="R213">
+        <v>2.3</v>
+      </c>
+      <c r="S213">
+        <v>2.5</v>
+      </c>
+      <c r="T213">
+        <v>1.33</v>
+      </c>
+      <c r="U213">
+        <v>3.25</v>
+      </c>
+      <c r="V213">
+        <v>2.63</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>6.5</v>
+      </c>
+      <c r="Y213">
+        <v>1.11</v>
+      </c>
+      <c r="Z213">
+        <v>3.37</v>
+      </c>
+      <c r="AA213">
+        <v>3.36</v>
+      </c>
+      <c r="AB213">
+        <v>1.9</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+      <c r="AD213">
+        <v>9.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.25</v>
+      </c>
+      <c r="AF213">
+        <v>3.75</v>
+      </c>
+      <c r="AG213">
+        <v>1.76</v>
+      </c>
+      <c r="AH213">
+        <v>1.94</v>
+      </c>
+      <c r="AI213">
+        <v>1.67</v>
+      </c>
+      <c r="AJ213">
+        <v>2.1</v>
+      </c>
+      <c r="AK213">
+        <v>1.8</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.28</v>
+      </c>
+      <c r="AN213">
+        <v>0.4</v>
+      </c>
+      <c r="AO213">
+        <v>0.86</v>
+      </c>
+      <c r="AP213">
+        <v>0.5</v>
+      </c>
+      <c r="AQ213">
+        <v>0.88</v>
+      </c>
+      <c r="AR213">
+        <v>1.55</v>
+      </c>
+      <c r="AS213">
+        <v>1.45</v>
+      </c>
+      <c r="AT213">
+        <v>3</v>
+      </c>
+      <c r="AU213">
+        <v>8</v>
+      </c>
+      <c r="AV213">
+        <v>9</v>
+      </c>
+      <c r="AW213">
+        <v>6</v>
+      </c>
+      <c r="AX213">
+        <v>11</v>
+      </c>
+      <c r="AY213">
+        <v>15</v>
+      </c>
+      <c r="AZ213">
+        <v>24</v>
+      </c>
+      <c r="BA213">
+        <v>5</v>
+      </c>
+      <c r="BB213">
+        <v>3</v>
+      </c>
+      <c r="BC213">
+        <v>8</v>
+      </c>
+      <c r="BD213">
+        <v>2.18</v>
+      </c>
+      <c r="BE213">
+        <v>6.4</v>
+      </c>
+      <c r="BF213">
+        <v>1.82</v>
+      </c>
+      <c r="BG213">
+        <v>1.27</v>
+      </c>
+      <c r="BH213">
+        <v>3.3</v>
+      </c>
+      <c r="BI213">
+        <v>1.48</v>
+      </c>
+      <c r="BJ213">
+        <v>2.45</v>
+      </c>
+      <c r="BK213">
+        <v>1.77</v>
+      </c>
+      <c r="BL213">
+        <v>1.92</v>
+      </c>
+      <c r="BM213">
+        <v>2.2</v>
+      </c>
+      <c r="BN213">
+        <v>1.58</v>
+      </c>
+      <c r="BO213">
+        <v>2.8</v>
+      </c>
+      <c r="BP213">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7781287</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45801.85416666666</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s">
+        <v>83</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>161</v>
+      </c>
+      <c r="P214" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q214">
+        <v>2.1</v>
+      </c>
+      <c r="R214">
+        <v>2.5</v>
+      </c>
+      <c r="S214">
+        <v>4.75</v>
+      </c>
+      <c r="T214">
+        <v>1.25</v>
+      </c>
+      <c r="U214">
+        <v>3.75</v>
+      </c>
+      <c r="V214">
+        <v>2.2</v>
+      </c>
+      <c r="W214">
+        <v>1.62</v>
+      </c>
+      <c r="X214">
+        <v>5</v>
+      </c>
+      <c r="Y214">
+        <v>1.17</v>
+      </c>
+      <c r="Z214">
+        <v>1.7</v>
+      </c>
+      <c r="AA214">
+        <v>3.76</v>
+      </c>
+      <c r="AB214">
+        <v>3.76</v>
+      </c>
+      <c r="AC214">
+        <v>1.03</v>
+      </c>
+      <c r="AD214">
+        <v>11</v>
+      </c>
+      <c r="AE214">
+        <v>1.18</v>
+      </c>
+      <c r="AF214">
+        <v>4.75</v>
+      </c>
+      <c r="AG214">
+        <v>1.57</v>
+      </c>
+      <c r="AH214">
+        <v>2.25</v>
+      </c>
+      <c r="AI214">
+        <v>1.57</v>
+      </c>
+      <c r="AJ214">
+        <v>2.25</v>
+      </c>
+      <c r="AK214">
+        <v>1.18</v>
+      </c>
+      <c r="AL214">
+        <v>1.18</v>
+      </c>
+      <c r="AM214">
+        <v>2.15</v>
+      </c>
+      <c r="AN214">
+        <v>2</v>
+      </c>
+      <c r="AO214">
+        <v>1.57</v>
+      </c>
+      <c r="AP214">
+        <v>2.13</v>
+      </c>
+      <c r="AQ214">
+        <v>1.38</v>
+      </c>
+      <c r="AR214">
+        <v>1.93</v>
+      </c>
+      <c r="AS214">
+        <v>1.57</v>
+      </c>
+      <c r="AT214">
+        <v>3.5</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>2</v>
+      </c>
+      <c r="AW214">
+        <v>8</v>
+      </c>
+      <c r="AX214">
+        <v>6</v>
+      </c>
+      <c r="AY214">
+        <v>18</v>
+      </c>
+      <c r="AZ214">
+        <v>9</v>
+      </c>
+      <c r="BA214">
+        <v>1</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>5</v>
+      </c>
+      <c r="BD214">
+        <v>1.36</v>
+      </c>
+      <c r="BE214">
+        <v>7</v>
+      </c>
+      <c r="BF214">
+        <v>3.4</v>
+      </c>
+      <c r="BG214">
+        <v>1.29</v>
+      </c>
+      <c r="BH214">
+        <v>3.15</v>
+      </c>
+      <c r="BI214">
+        <v>1.5</v>
+      </c>
+      <c r="BJ214">
+        <v>2.4</v>
+      </c>
+      <c r="BK214">
+        <v>1.81</v>
+      </c>
+      <c r="BL214">
+        <v>1.88</v>
+      </c>
+      <c r="BM214">
+        <v>2.25</v>
+      </c>
+      <c r="BN214">
+        <v>1.55</v>
+      </c>
+      <c r="BO214">
+        <v>2.9</v>
+      </c>
+      <c r="BP214">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7781288</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45801.85416666666</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>89</v>
+      </c>
+      <c r="H215" t="s">
+        <v>71</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>6</v>
+      </c>
+      <c r="O215" t="s">
+        <v>242</v>
+      </c>
+      <c r="P215" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q215">
+        <v>2.75</v>
+      </c>
+      <c r="R215">
+        <v>2.38</v>
+      </c>
+      <c r="S215">
+        <v>3.4</v>
+      </c>
+      <c r="T215">
+        <v>1.29</v>
+      </c>
+      <c r="U215">
+        <v>3.5</v>
+      </c>
+      <c r="V215">
+        <v>2.38</v>
+      </c>
+      <c r="W215">
+        <v>1.53</v>
+      </c>
+      <c r="X215">
+        <v>5.5</v>
+      </c>
+      <c r="Y215">
+        <v>1.14</v>
+      </c>
+      <c r="Z215">
+        <v>2.09</v>
+      </c>
+      <c r="AA215">
+        <v>3.47</v>
+      </c>
+      <c r="AB215">
+        <v>2.84</v>
+      </c>
+      <c r="AC215">
+        <v>1.04</v>
+      </c>
+      <c r="AD215">
+        <v>10</v>
+      </c>
+      <c r="AE215">
+        <v>1.2</v>
+      </c>
+      <c r="AF215">
+        <v>4.33</v>
+      </c>
+      <c r="AG215">
+        <v>1.6</v>
+      </c>
+      <c r="AH215">
+        <v>2.2</v>
+      </c>
+      <c r="AI215">
+        <v>1.53</v>
+      </c>
+      <c r="AJ215">
+        <v>2.38</v>
+      </c>
+      <c r="AK215">
+        <v>1.38</v>
+      </c>
+      <c r="AL215">
+        <v>1.22</v>
+      </c>
+      <c r="AM215">
+        <v>1.62</v>
+      </c>
+      <c r="AN215">
+        <v>2.13</v>
+      </c>
+      <c r="AO215">
+        <v>1.83</v>
+      </c>
+      <c r="AP215">
+        <v>2</v>
+      </c>
+      <c r="AQ215">
+        <v>1.71</v>
+      </c>
+      <c r="AR215">
+        <v>1.85</v>
+      </c>
+      <c r="AS215">
+        <v>1.3</v>
+      </c>
+      <c r="AT215">
+        <v>3.15</v>
+      </c>
+      <c r="AU215">
+        <v>9</v>
+      </c>
+      <c r="AV215">
+        <v>5</v>
+      </c>
+      <c r="AW215">
+        <v>8</v>
+      </c>
+      <c r="AX215">
+        <v>7</v>
+      </c>
+      <c r="AY215">
+        <v>21</v>
+      </c>
+      <c r="AZ215">
+        <v>16</v>
+      </c>
+      <c r="BA215">
+        <v>8</v>
+      </c>
+      <c r="BB215">
+        <v>6</v>
+      </c>
+      <c r="BC215">
+        <v>14</v>
+      </c>
+      <c r="BD215">
+        <v>1.71</v>
+      </c>
+      <c r="BE215">
+        <v>6.5</v>
+      </c>
+      <c r="BF215">
+        <v>2.38</v>
+      </c>
+      <c r="BG215">
+        <v>1.25</v>
+      </c>
+      <c r="BH215">
+        <v>3.45</v>
+      </c>
+      <c r="BI215">
+        <v>1.44</v>
+      </c>
+      <c r="BJ215">
+        <v>2.55</v>
+      </c>
+      <c r="BK215">
+        <v>1.72</v>
+      </c>
+      <c r="BL215">
+        <v>1.98</v>
+      </c>
+      <c r="BM215">
+        <v>2.1</v>
+      </c>
+      <c r="BN215">
+        <v>1.64</v>
+      </c>
+      <c r="BO215">
+        <v>2.65</v>
+      </c>
+      <c r="BP215">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7781289</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45801.85416666666</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>98</v>
+      </c>
+      <c r="H216" t="s">
+        <v>79</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>222</v>
+      </c>
+      <c r="P216" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q216">
+        <v>3.4</v>
+      </c>
+      <c r="R216">
+        <v>2.2</v>
+      </c>
+      <c r="S216">
+        <v>3.1</v>
+      </c>
+      <c r="T216">
+        <v>1.36</v>
+      </c>
+      <c r="U216">
+        <v>3</v>
+      </c>
+      <c r="V216">
+        <v>2.75</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>7</v>
+      </c>
+      <c r="Y216">
+        <v>1.1</v>
+      </c>
+      <c r="Z216">
+        <v>2.55</v>
+      </c>
+      <c r="AA216">
+        <v>3.32</v>
+      </c>
+      <c r="AB216">
+        <v>2.35</v>
+      </c>
+      <c r="AC216">
+        <v>1.05</v>
+      </c>
+      <c r="AD216">
+        <v>9</v>
+      </c>
+      <c r="AE216">
+        <v>1.3</v>
+      </c>
+      <c r="AF216">
+        <v>3.45</v>
+      </c>
+      <c r="AG216">
+        <v>1.84</v>
+      </c>
+      <c r="AH216">
+        <v>1.86</v>
+      </c>
+      <c r="AI216">
+        <v>1.7</v>
+      </c>
+      <c r="AJ216">
+        <v>2.05</v>
+      </c>
+      <c r="AK216">
+        <v>1.53</v>
+      </c>
+      <c r="AL216">
+        <v>1.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.42</v>
+      </c>
+      <c r="AN216">
+        <v>0.71</v>
+      </c>
+      <c r="AO216">
+        <v>0.8</v>
+      </c>
+      <c r="AP216">
+        <v>0.63</v>
+      </c>
+      <c r="AQ216">
+        <v>1.17</v>
+      </c>
+      <c r="AR216">
+        <v>1.44</v>
+      </c>
+      <c r="AS216">
+        <v>1.5</v>
+      </c>
+      <c r="AT216">
+        <v>2.94</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>7</v>
+      </c>
+      <c r="AW216">
+        <v>6</v>
+      </c>
+      <c r="AX216">
+        <v>12</v>
+      </c>
+      <c r="AY216">
+        <v>13</v>
+      </c>
+      <c r="AZ216">
+        <v>22</v>
+      </c>
+      <c r="BA216">
+        <v>3</v>
+      </c>
+      <c r="BB216">
+        <v>6</v>
+      </c>
+      <c r="BC216">
+        <v>9</v>
+      </c>
+      <c r="BD216">
+        <v>2.1</v>
+      </c>
+      <c r="BE216">
+        <v>6.25</v>
+      </c>
+      <c r="BF216">
+        <v>1.9</v>
+      </c>
+      <c r="BG216">
+        <v>1.32</v>
+      </c>
+      <c r="BH216">
+        <v>3.05</v>
+      </c>
+      <c r="BI216">
+        <v>1.55</v>
+      </c>
+      <c r="BJ216">
+        <v>2.25</v>
+      </c>
+      <c r="BK216">
+        <v>1.9</v>
+      </c>
+      <c r="BL216">
+        <v>1.79</v>
+      </c>
+      <c r="BM216">
+        <v>2.4</v>
+      </c>
+      <c r="BN216">
+        <v>1.49</v>
+      </c>
+      <c r="BO216">
+        <v>3.05</v>
+      </c>
+      <c r="BP216">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7781290</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45801.89583333334</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>91</v>
+      </c>
+      <c r="H217" t="s">
+        <v>87</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>2</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
+        <v>3</v>
+      </c>
+      <c r="N217">
+        <v>6</v>
+      </c>
+      <c r="O217" t="s">
+        <v>243</v>
+      </c>
+      <c r="P217" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q217">
+        <v>2.75</v>
+      </c>
+      <c r="R217">
+        <v>2.3</v>
+      </c>
+      <c r="S217">
+        <v>3.5</v>
+      </c>
+      <c r="T217">
+        <v>1.33</v>
+      </c>
+      <c r="U217">
+        <v>3.25</v>
+      </c>
+      <c r="V217">
+        <v>2.5</v>
+      </c>
+      <c r="W217">
+        <v>1.5</v>
+      </c>
+      <c r="X217">
+        <v>6.5</v>
+      </c>
+      <c r="Y217">
+        <v>1.11</v>
+      </c>
+      <c r="Z217">
+        <v>2.11</v>
+      </c>
+      <c r="AA217">
+        <v>3.34</v>
+      </c>
+      <c r="AB217">
+        <v>2.89</v>
+      </c>
+      <c r="AC217">
+        <v>1.05</v>
+      </c>
+      <c r="AD217">
+        <v>9.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.25</v>
+      </c>
+      <c r="AF217">
+        <v>3.95</v>
+      </c>
+      <c r="AG217">
+        <v>1.7</v>
+      </c>
+      <c r="AH217">
+        <v>2.05</v>
+      </c>
+      <c r="AI217">
+        <v>1.62</v>
+      </c>
+      <c r="AJ217">
+        <v>2.2</v>
+      </c>
+      <c r="AK217">
+        <v>1.35</v>
+      </c>
+      <c r="AL217">
+        <v>1.25</v>
+      </c>
+      <c r="AM217">
+        <v>1.65</v>
+      </c>
+      <c r="AN217">
+        <v>1.17</v>
+      </c>
+      <c r="AO217">
+        <v>1.57</v>
+      </c>
+      <c r="AP217">
+        <v>1.14</v>
+      </c>
+      <c r="AQ217">
+        <v>1.5</v>
+      </c>
+      <c r="AR217">
+        <v>1.58</v>
+      </c>
+      <c r="AS217">
+        <v>1.39</v>
+      </c>
+      <c r="AT217">
+        <v>2.97</v>
+      </c>
+      <c r="AU217">
+        <v>6</v>
+      </c>
+      <c r="AV217">
+        <v>9</v>
+      </c>
+      <c r="AW217">
+        <v>10</v>
+      </c>
+      <c r="AX217">
+        <v>5</v>
+      </c>
+      <c r="AY217">
+        <v>19</v>
+      </c>
+      <c r="AZ217">
+        <v>15</v>
+      </c>
+      <c r="BA217">
+        <v>5</v>
+      </c>
+      <c r="BB217">
+        <v>1</v>
+      </c>
+      <c r="BC217">
+        <v>6</v>
+      </c>
+      <c r="BD217">
+        <v>1.61</v>
+      </c>
+      <c r="BE217">
+        <v>6.75</v>
+      </c>
+      <c r="BF217">
+        <v>2.55</v>
+      </c>
+      <c r="BG217">
+        <v>1.23</v>
+      </c>
+      <c r="BH217">
+        <v>3.65</v>
+      </c>
+      <c r="BI217">
+        <v>1.4</v>
+      </c>
+      <c r="BJ217">
+        <v>2.7</v>
+      </c>
+      <c r="BK217">
+        <v>1.63</v>
+      </c>
+      <c r="BL217">
+        <v>2.1</v>
+      </c>
+      <c r="BM217">
+        <v>2</v>
+      </c>
+      <c r="BN217">
+        <v>1.71</v>
+      </c>
+      <c r="BO217">
+        <v>2.5</v>
+      </c>
+      <c r="BP217">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7781291</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45801.89583333334</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>92</v>
+      </c>
+      <c r="H218" t="s">
+        <v>77</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>139</v>
+      </c>
+      <c r="P218" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q218">
+        <v>2.3</v>
+      </c>
+      <c r="R218">
+        <v>2.25</v>
+      </c>
+      <c r="S218">
+        <v>5</v>
+      </c>
+      <c r="T218">
+        <v>1.36</v>
+      </c>
+      <c r="U218">
+        <v>3</v>
+      </c>
+      <c r="V218">
+        <v>2.75</v>
+      </c>
+      <c r="W218">
+        <v>1.4</v>
+      </c>
+      <c r="X218">
+        <v>7</v>
+      </c>
+      <c r="Y218">
+        <v>1.1</v>
+      </c>
+      <c r="Z218">
+        <v>1.71</v>
+      </c>
+      <c r="AA218">
+        <v>3.59</v>
+      </c>
+      <c r="AB218">
+        <v>3.89</v>
+      </c>
+      <c r="AC218">
+        <v>1.05</v>
+      </c>
+      <c r="AD218">
+        <v>9.5</v>
+      </c>
+      <c r="AE218">
+        <v>1.28</v>
+      </c>
+      <c r="AF218">
+        <v>3.5</v>
+      </c>
+      <c r="AG218">
+        <v>1.86</v>
+      </c>
+      <c r="AH218">
+        <v>1.84</v>
+      </c>
+      <c r="AI218">
+        <v>1.91</v>
+      </c>
+      <c r="AJ218">
+        <v>1.91</v>
+      </c>
+      <c r="AK218">
+        <v>1.2</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>2</v>
+      </c>
+      <c r="AN218">
+        <v>2</v>
+      </c>
+      <c r="AO218">
+        <v>1</v>
+      </c>
+      <c r="AP218">
+        <v>1.88</v>
+      </c>
+      <c r="AQ218">
+        <v>1</v>
+      </c>
+      <c r="AR218">
+        <v>1.82</v>
+      </c>
+      <c r="AS218">
+        <v>1.2</v>
+      </c>
+      <c r="AT218">
+        <v>3.02</v>
+      </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>9</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>19</v>
+      </c>
+      <c r="AZ218">
+        <v>12</v>
+      </c>
+      <c r="BA218">
+        <v>4</v>
+      </c>
+      <c r="BB218">
+        <v>0</v>
+      </c>
+      <c r="BC218">
+        <v>4</v>
+      </c>
+      <c r="BD218">
+        <v>1.53</v>
+      </c>
+      <c r="BE218">
+        <v>7</v>
+      </c>
+      <c r="BF218">
+        <v>2.7</v>
+      </c>
+      <c r="BG218">
+        <v>1.25</v>
+      </c>
+      <c r="BH218">
+        <v>3.45</v>
+      </c>
+      <c r="BI218">
+        <v>1.43</v>
+      </c>
+      <c r="BJ218">
+        <v>2.55</v>
+      </c>
+      <c r="BK218">
+        <v>1.72</v>
+      </c>
+      <c r="BL218">
+        <v>1.98</v>
+      </c>
+      <c r="BM218">
+        <v>2.1</v>
+      </c>
+      <c r="BN218">
+        <v>1.64</v>
+      </c>
+      <c r="BO218">
+        <v>2.65</v>
+      </c>
+      <c r="BP218">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7781293</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45801.9375</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>86</v>
+      </c>
+      <c r="H219" t="s">
+        <v>95</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>5</v>
+      </c>
+      <c r="O219" t="s">
+        <v>244</v>
+      </c>
+      <c r="P219" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q219">
+        <v>3.1</v>
+      </c>
+      <c r="R219">
+        <v>2.25</v>
+      </c>
+      <c r="S219">
+        <v>3.2</v>
+      </c>
+      <c r="T219">
+        <v>1.33</v>
+      </c>
+      <c r="U219">
+        <v>3.25</v>
+      </c>
+      <c r="V219">
+        <v>2.63</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>6.5</v>
+      </c>
+      <c r="Y219">
+        <v>1.11</v>
+      </c>
+      <c r="Z219">
+        <v>2.35</v>
+      </c>
+      <c r="AA219">
+        <v>3.45</v>
+      </c>
+      <c r="AB219">
+        <v>2.48</v>
+      </c>
+      <c r="AC219">
+        <v>1.04</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.25</v>
+      </c>
+      <c r="AF219">
+        <v>3.85</v>
+      </c>
+      <c r="AG219">
+        <v>1.76</v>
+      </c>
+      <c r="AH219">
+        <v>1.94</v>
+      </c>
+      <c r="AI219">
+        <v>1.67</v>
+      </c>
+      <c r="AJ219">
+        <v>2.1</v>
+      </c>
+      <c r="AK219">
+        <v>1.45</v>
+      </c>
+      <c r="AL219">
+        <v>1.22</v>
+      </c>
+      <c r="AM219">
+        <v>1.53</v>
+      </c>
+      <c r="AN219">
+        <v>1.17</v>
+      </c>
+      <c r="AO219">
+        <v>2</v>
+      </c>
+      <c r="AP219">
+        <v>1</v>
+      </c>
+      <c r="AQ219">
+        <v>2.14</v>
+      </c>
+      <c r="AR219">
+        <v>1.44</v>
+      </c>
+      <c r="AS219">
+        <v>1.64</v>
+      </c>
+      <c r="AT219">
+        <v>3.08</v>
+      </c>
+      <c r="AU219">
+        <v>4</v>
+      </c>
+      <c r="AV219">
+        <v>6</v>
+      </c>
+      <c r="AW219">
+        <v>11</v>
+      </c>
+      <c r="AX219">
+        <v>10</v>
+      </c>
+      <c r="AY219">
+        <v>15</v>
+      </c>
+      <c r="AZ219">
+        <v>17</v>
+      </c>
+      <c r="BA219">
+        <v>8</v>
+      </c>
+      <c r="BB219">
+        <v>6</v>
+      </c>
+      <c r="BC219">
+        <v>14</v>
+      </c>
+      <c r="BD219">
+        <v>1.75</v>
+      </c>
+      <c r="BE219">
+        <v>6.75</v>
+      </c>
+      <c r="BF219">
+        <v>2.28</v>
+      </c>
+      <c r="BG219">
+        <v>1.24</v>
+      </c>
+      <c r="BH219">
+        <v>3.55</v>
+      </c>
+      <c r="BI219">
+        <v>1.41</v>
+      </c>
+      <c r="BJ219">
+        <v>2.65</v>
+      </c>
+      <c r="BK219">
+        <v>1.66</v>
+      </c>
+      <c r="BL219">
+        <v>2.05</v>
+      </c>
+      <c r="BM219">
+        <v>2.04</v>
+      </c>
+      <c r="BN219">
+        <v>1.67</v>
+      </c>
+      <c r="BO219">
+        <v>2.55</v>
+      </c>
+      <c r="BP219">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7781292</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45801.9375</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>93</v>
+      </c>
+      <c r="H220" t="s">
+        <v>80</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>245</v>
+      </c>
+      <c r="P220" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q220">
+        <v>2.4</v>
+      </c>
+      <c r="R220">
+        <v>2.4</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>1.29</v>
+      </c>
+      <c r="U220">
+        <v>3.5</v>
+      </c>
+      <c r="V220">
+        <v>2.25</v>
+      </c>
+      <c r="W220">
+        <v>1.57</v>
+      </c>
+      <c r="X220">
+        <v>5.5</v>
+      </c>
+      <c r="Y220">
+        <v>1.14</v>
+      </c>
+      <c r="Z220">
+        <v>1.8</v>
+      </c>
+      <c r="AA220">
+        <v>3.69</v>
+      </c>
+      <c r="AB220">
+        <v>3.41</v>
+      </c>
+      <c r="AC220">
+        <v>1.03</v>
+      </c>
+      <c r="AD220">
+        <v>11</v>
+      </c>
+      <c r="AE220">
+        <v>1.2</v>
+      </c>
+      <c r="AF220">
+        <v>4.5</v>
+      </c>
+      <c r="AG220">
+        <v>1.57</v>
+      </c>
+      <c r="AH220">
+        <v>2.25</v>
+      </c>
+      <c r="AI220">
+        <v>1.57</v>
+      </c>
+      <c r="AJ220">
+        <v>2.25</v>
+      </c>
+      <c r="AK220">
+        <v>1.25</v>
+      </c>
+      <c r="AL220">
+        <v>1.2</v>
+      </c>
+      <c r="AM220">
+        <v>1.85</v>
+      </c>
+      <c r="AN220">
+        <v>1.57</v>
+      </c>
+      <c r="AO220">
+        <v>0.71</v>
+      </c>
+      <c r="AP220">
+        <v>1.75</v>
+      </c>
+      <c r="AQ220">
+        <v>0.63</v>
+      </c>
+      <c r="AR220">
+        <v>1.69</v>
+      </c>
+      <c r="AS220">
+        <v>1.12</v>
+      </c>
+      <c r="AT220">
+        <v>2.81</v>
+      </c>
+      <c r="AU220">
+        <v>6</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>7</v>
+      </c>
+      <c r="AX220">
+        <v>11</v>
+      </c>
+      <c r="AY220">
+        <v>14</v>
+      </c>
+      <c r="AZ220">
+        <v>16</v>
+      </c>
+      <c r="BA220">
+        <v>3</v>
+      </c>
+      <c r="BB220">
+        <v>5</v>
+      </c>
+      <c r="BC220">
+        <v>8</v>
+      </c>
+      <c r="BD220">
+        <v>1.68</v>
+      </c>
+      <c r="BE220">
+        <v>6.5</v>
+      </c>
+      <c r="BF220">
+        <v>2.43</v>
+      </c>
+      <c r="BG220">
+        <v>1.25</v>
+      </c>
+      <c r="BH220">
+        <v>3.45</v>
+      </c>
+      <c r="BI220">
+        <v>1.46</v>
+      </c>
+      <c r="BJ220">
+        <v>2.5</v>
+      </c>
+      <c r="BK220">
+        <v>1.73</v>
+      </c>
+      <c r="BL220">
+        <v>1.96</v>
+      </c>
+      <c r="BM220">
+        <v>2.17</v>
+      </c>
+      <c r="BN220">
+        <v>1.6</v>
+      </c>
+      <c r="BO220">
+        <v>2.7</v>
+      </c>
+      <c r="BP220">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7781294</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45801.97916666666</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>81</v>
+      </c>
+      <c r="H221" t="s">
+        <v>78</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
+      </c>
+      <c r="M221">
+        <v>3</v>
+      </c>
+      <c r="N221">
+        <v>6</v>
+      </c>
+      <c r="O221" t="s">
+        <v>246</v>
+      </c>
+      <c r="P221" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q221">
+        <v>2.6</v>
+      </c>
+      <c r="R221">
+        <v>2.3</v>
+      </c>
+      <c r="S221">
+        <v>3.75</v>
+      </c>
+      <c r="T221">
+        <v>1.33</v>
+      </c>
+      <c r="U221">
+        <v>3.25</v>
+      </c>
+      <c r="V221">
+        <v>2.5</v>
+      </c>
+      <c r="W221">
+        <v>1.5</v>
+      </c>
+      <c r="X221">
+        <v>6</v>
+      </c>
+      <c r="Y221">
+        <v>1.13</v>
+      </c>
+      <c r="Z221">
+        <v>1.92</v>
+      </c>
+      <c r="AA221">
+        <v>3.41</v>
+      </c>
+      <c r="AB221">
+        <v>3.28</v>
+      </c>
+      <c r="AC221">
+        <v>1.04</v>
+      </c>
+      <c r="AD221">
+        <v>10</v>
+      </c>
+      <c r="AE221">
+        <v>1.22</v>
+      </c>
+      <c r="AF221">
+        <v>4.2</v>
+      </c>
+      <c r="AG221">
+        <v>1.65</v>
+      </c>
+      <c r="AH221">
+        <v>2.15</v>
+      </c>
+      <c r="AI221">
+        <v>1.62</v>
+      </c>
+      <c r="AJ221">
+        <v>2.2</v>
+      </c>
+      <c r="AK221">
+        <v>1.3</v>
+      </c>
+      <c r="AL221">
+        <v>1.22</v>
+      </c>
+      <c r="AM221">
+        <v>1.77</v>
+      </c>
+      <c r="AN221">
+        <v>1.38</v>
+      </c>
+      <c r="AO221">
+        <v>1</v>
+      </c>
+      <c r="AP221">
+        <v>1.33</v>
+      </c>
+      <c r="AQ221">
+        <v>1</v>
+      </c>
+      <c r="AR221">
+        <v>2.04</v>
+      </c>
+      <c r="AS221">
+        <v>1.08</v>
+      </c>
+      <c r="AT221">
+        <v>3.12</v>
+      </c>
+      <c r="AU221">
+        <v>9</v>
+      </c>
+      <c r="AV221">
+        <v>6</v>
+      </c>
+      <c r="AW221">
+        <v>7</v>
+      </c>
+      <c r="AX221">
+        <v>7</v>
+      </c>
+      <c r="AY221">
+        <v>16</v>
+      </c>
+      <c r="AZ221">
+        <v>15</v>
+      </c>
+      <c r="BA221">
+        <v>11</v>
+      </c>
+      <c r="BB221">
+        <v>7</v>
+      </c>
+      <c r="BC221">
+        <v>18</v>
+      </c>
+      <c r="BD221">
+        <v>1.68</v>
+      </c>
+      <c r="BE221">
+        <v>6.75</v>
+      </c>
+      <c r="BF221">
+        <v>2.4</v>
+      </c>
+      <c r="BG221">
+        <v>1.24</v>
+      </c>
+      <c r="BH221">
+        <v>3.55</v>
+      </c>
+      <c r="BI221">
+        <v>1.41</v>
+      </c>
+      <c r="BJ221">
+        <v>2.63</v>
+      </c>
+      <c r="BK221">
+        <v>1.68</v>
+      </c>
+      <c r="BL221">
+        <v>2.02</v>
+      </c>
+      <c r="BM221">
+        <v>2.06</v>
+      </c>
+      <c r="BN221">
+        <v>1.66</v>
+      </c>
+      <c r="BO221">
+        <v>2.55</v>
+      </c>
+      <c r="BP221">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7781295</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45802.66666666666</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>96</v>
+      </c>
+      <c r="H222" t="s">
+        <v>90</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>247</v>
+      </c>
+      <c r="P222" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q222">
+        <v>2.5</v>
+      </c>
+      <c r="R222">
+        <v>2.38</v>
+      </c>
+      <c r="S222">
+        <v>3.75</v>
+      </c>
+      <c r="T222">
+        <v>1.3</v>
+      </c>
+      <c r="U222">
+        <v>3.4</v>
+      </c>
+      <c r="V222">
+        <v>2.38</v>
+      </c>
+      <c r="W222">
+        <v>1.53</v>
+      </c>
+      <c r="X222">
+        <v>6</v>
+      </c>
+      <c r="Y222">
+        <v>1.13</v>
+      </c>
+      <c r="Z222">
+        <v>1.89</v>
+      </c>
+      <c r="AA222">
+        <v>3.56</v>
+      </c>
+      <c r="AB222">
+        <v>3.23</v>
+      </c>
+      <c r="AC222">
+        <v>1.04</v>
+      </c>
+      <c r="AD222">
+        <v>10</v>
+      </c>
+      <c r="AE222">
+        <v>1.2</v>
+      </c>
+      <c r="AF222">
+        <v>4.33</v>
+      </c>
+      <c r="AG222">
+        <v>1.65</v>
+      </c>
+      <c r="AH222">
+        <v>2.15</v>
+      </c>
+      <c r="AI222">
+        <v>1.57</v>
+      </c>
+      <c r="AJ222">
+        <v>2.25</v>
+      </c>
+      <c r="AK222">
+        <v>1.3</v>
+      </c>
+      <c r="AL222">
+        <v>1.22</v>
+      </c>
+      <c r="AM222">
+        <v>1.77</v>
+      </c>
+      <c r="AN222">
+        <v>2.14</v>
+      </c>
+      <c r="AO222">
+        <v>1.71</v>
+      </c>
+      <c r="AP222">
+        <v>2.25</v>
+      </c>
+      <c r="AQ222">
+        <v>1.5</v>
+      </c>
+      <c r="AR222">
+        <v>1.71</v>
+      </c>
+      <c r="AS222">
+        <v>1.65</v>
+      </c>
+      <c r="AT222">
+        <v>3.36</v>
+      </c>
+      <c r="AU222">
+        <v>9</v>
+      </c>
+      <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>14</v>
+      </c>
+      <c r="AX222">
+        <v>5</v>
+      </c>
+      <c r="AY222">
+        <v>30</v>
+      </c>
+      <c r="AZ222">
+        <v>13</v>
+      </c>
+      <c r="BA222">
+        <v>11</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>13</v>
+      </c>
+      <c r="BD222">
+        <v>1.72</v>
+      </c>
+      <c r="BE222">
+        <v>6.5</v>
+      </c>
+      <c r="BF222">
+        <v>2.33</v>
+      </c>
+      <c r="BG222">
+        <v>1.3</v>
+      </c>
+      <c r="BH222">
+        <v>3.15</v>
+      </c>
+      <c r="BI222">
+        <v>1.5</v>
+      </c>
+      <c r="BJ222">
+        <v>2.33</v>
+      </c>
+      <c r="BK222">
+        <v>1.84</v>
+      </c>
+      <c r="BL222">
+        <v>1.84</v>
+      </c>
+      <c r="BM222">
+        <v>2.32</v>
+      </c>
+      <c r="BN222">
+        <v>1.53</v>
+      </c>
+      <c r="BO222">
+        <v>2.95</v>
+      </c>
+      <c r="BP222">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7781296</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45802.83333333334</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+      <c r="H223" t="s">
+        <v>73</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>6</v>
+      </c>
+      <c r="O223" t="s">
+        <v>248</v>
+      </c>
+      <c r="P223" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>2.38</v>
+      </c>
+      <c r="S223">
+        <v>3.1</v>
+      </c>
+      <c r="T223">
+        <v>1.29</v>
+      </c>
+      <c r="U223">
+        <v>3.5</v>
+      </c>
+      <c r="V223">
+        <v>2.38</v>
+      </c>
+      <c r="W223">
+        <v>1.53</v>
+      </c>
+      <c r="X223">
+        <v>5.5</v>
+      </c>
+      <c r="Y223">
+        <v>1.14</v>
+      </c>
+      <c r="Z223">
+        <v>2.33</v>
+      </c>
+      <c r="AA223">
+        <v>3.38</v>
+      </c>
+      <c r="AB223">
+        <v>2.53</v>
+      </c>
+      <c r="AC223">
+        <v>1.04</v>
+      </c>
+      <c r="AD223">
+        <v>10</v>
+      </c>
+      <c r="AE223">
+        <v>1.2</v>
+      </c>
+      <c r="AF223">
+        <v>4.33</v>
+      </c>
+      <c r="AG223">
+        <v>1.73</v>
+      </c>
+      <c r="AH223">
+        <v>2</v>
+      </c>
+      <c r="AI223">
+        <v>1.53</v>
+      </c>
+      <c r="AJ223">
+        <v>2.38</v>
+      </c>
+      <c r="AK223">
+        <v>1.45</v>
+      </c>
+      <c r="AL223">
+        <v>1.22</v>
+      </c>
+      <c r="AM223">
+        <v>1.53</v>
+      </c>
+      <c r="AN223">
+        <v>1.13</v>
+      </c>
+      <c r="AO223">
+        <v>1.63</v>
+      </c>
+      <c r="AP223">
+        <v>1.33</v>
+      </c>
+      <c r="AQ223">
+        <v>1.44</v>
+      </c>
+      <c r="AR223">
+        <v>1.57</v>
+      </c>
+      <c r="AS223">
+        <v>1.51</v>
+      </c>
+      <c r="AT223">
+        <v>3.08</v>
+      </c>
+      <c r="AU223">
+        <v>8</v>
+      </c>
+      <c r="AV223">
+        <v>9</v>
+      </c>
+      <c r="AW223">
+        <v>4</v>
+      </c>
+      <c r="AX223">
+        <v>17</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>31</v>
+      </c>
+      <c r="BA223">
+        <v>2</v>
+      </c>
+      <c r="BB223">
+        <v>11</v>
+      </c>
+      <c r="BC223">
+        <v>13</v>
+      </c>
+      <c r="BD223">
+        <v>1.77</v>
+      </c>
+      <c r="BE223">
+        <v>6.4</v>
+      </c>
+      <c r="BF223">
+        <v>2.25</v>
+      </c>
+      <c r="BG223">
+        <v>1.3</v>
+      </c>
+      <c r="BH223">
+        <v>3.15</v>
+      </c>
+      <c r="BI223">
+        <v>1.5</v>
+      </c>
+      <c r="BJ223">
+        <v>2.35</v>
+      </c>
+      <c r="BK223">
+        <v>1.83</v>
+      </c>
+      <c r="BL223">
+        <v>1.85</v>
+      </c>
+      <c r="BM223">
+        <v>2.3</v>
+      </c>
+      <c r="BN223">
+        <v>1.53</v>
+      </c>
+      <c r="BO223">
+        <v>2.95</v>
+      </c>
+      <c r="BP223">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,33 @@
     <t>['15', '20', '66', '90+4']</t>
   </si>
   <si>
+    <t>['19', '83', '90+5']</t>
+  </si>
+  <si>
+    <t>['30', '42', '86']</t>
+  </si>
+  <si>
+    <t>['27', '68', '71', '87']</t>
+  </si>
+  <si>
+    <t>['14', '29', '70', '90+7']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['69', '81']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['59', '76']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -794,9 +821,6 @@
   </si>
   <si>
     <t>['72', '86']</t>
-  </si>
-  <si>
-    <t>['58']</t>
   </si>
   <si>
     <t>['4', '90+6']</t>
@@ -1073,6 +1097,30 @@
   </si>
   <si>
     <t>['48', '70']</t>
+  </si>
+  <si>
+    <t>['4', '32']</t>
+  </si>
+  <si>
+    <t>['50', '68', '90+2']</t>
+  </si>
+  <si>
+    <t>['74', '90+2']</t>
+  </si>
+  <si>
+    <t>['26', '76']</t>
+  </si>
+  <si>
+    <t>['25', '50', '90+4']</t>
+  </si>
+  <si>
+    <t>['86', '90+2']</t>
+  </si>
+  <si>
+    <t>['2', '78']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,7 +1822,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1899,7 +1947,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1977,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -2105,7 +2153,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2183,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2389,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2517,7 +2565,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2595,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2723,7 +2771,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2801,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2929,7 +2977,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3010,7 +3058,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3213,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
         <v>0.63</v>
@@ -3341,7 +3389,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3422,7 +3470,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3628,7 +3676,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3834,7 +3882,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4040,7 +4088,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4165,7 +4213,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4243,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4371,7 +4419,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4449,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
         <v>2.14</v>
@@ -4577,7 +4625,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4655,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5195,7 +5243,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5479,10 +5527,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5607,7 +5655,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5813,7 +5861,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6019,7 +6067,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6225,7 +6273,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6306,7 +6354,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6512,7 +6560,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6637,7 +6685,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6718,7 +6766,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -7127,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7539,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>0.22</v>
@@ -7667,7 +7715,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7951,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.83</v>
@@ -8079,7 +8127,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8157,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ33">
         <v>0.88</v>
@@ -8363,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8569,7 +8617,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8775,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36">
         <v>0.63</v>
@@ -8903,7 +8951,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -8984,7 +9032,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR37">
         <v>0.85</v>
@@ -9187,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9393,10 +9441,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.5</v>
@@ -9521,7 +9569,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9933,7 +9981,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10014,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10217,10 +10265,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.87</v>
@@ -10426,7 +10474,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.88</v>
@@ -10629,10 +10677,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -10757,7 +10805,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10835,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ46">
         <v>0.63</v>
@@ -10963,7 +11011,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11041,7 +11089,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11169,7 +11217,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11247,10 +11295,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ48">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -11865,10 +11913,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11993,7 +12041,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12071,10 +12119,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -12199,7 +12247,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12280,7 +12328,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12611,7 +12659,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12692,7 +12740,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.22</v>
@@ -13229,7 +13277,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13310,7 +13358,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.87</v>
@@ -13435,7 +13483,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13516,7 +13564,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13719,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>0.22</v>
@@ -13847,7 +13895,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13925,7 +13973,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.71</v>
@@ -14053,7 +14101,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14131,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ62">
         <v>0.33</v>
@@ -14259,7 +14307,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14465,7 +14513,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14546,7 +14594,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.62</v>
@@ -14749,7 +14797,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14955,7 +15003,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -15495,7 +15543,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15782,7 +15830,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ70">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.96</v>
@@ -15907,7 +15955,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16113,7 +16161,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16194,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16397,10 +16445,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>2.23</v>
@@ -16525,7 +16573,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16603,7 +16651,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16809,10 +16857,10 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.74</v>
@@ -16937,7 +16985,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17221,7 +17269,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ77">
         <v>2.14</v>
@@ -17430,7 +17478,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17633,10 +17681,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR79">
         <v>1.15</v>
@@ -17761,7 +17809,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17839,7 +17887,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -17967,7 +18015,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18045,7 +18093,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -18173,7 +18221,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18254,7 +18302,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18666,7 +18714,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.92</v>
@@ -18791,7 +18839,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18997,7 +19045,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19075,10 +19123,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19203,7 +19251,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19821,7 +19869,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19899,10 +19947,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.08</v>
@@ -20108,7 +20156,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20439,7 +20487,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20517,10 +20565,10 @@
         <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20726,7 +20774,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.73</v>
@@ -20929,10 +20977,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -21057,7 +21105,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21135,10 +21183,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
         <v>2.09</v>
@@ -21341,7 +21389,7 @@
         <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ97">
         <v>1.5</v>
@@ -21547,7 +21595,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
         <v>1.38</v>
@@ -22165,10 +22213,10 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.75</v>
@@ -22499,7 +22547,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22577,10 +22625,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22705,7 +22753,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22911,7 +22959,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22989,7 +23037,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -23195,10 +23243,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ106">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.03</v>
@@ -23401,10 +23449,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23816,7 +23864,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -23941,7 +23989,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24019,7 +24067,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24147,7 +24195,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24225,7 +24273,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -24431,10 +24479,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -24765,7 +24813,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24846,7 +24894,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.81</v>
@@ -24971,7 +25019,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25052,7 +25100,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25255,10 +25303,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25383,7 +25431,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25464,7 +25512,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.48</v>
@@ -25589,7 +25637,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -26001,7 +26049,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26285,7 +26333,7 @@
         <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>0.22</v>
@@ -26413,7 +26461,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26491,7 +26539,7 @@
         <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
         <v>1.71</v>
@@ -26697,10 +26745,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ123">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR123">
         <v>1.96</v>
@@ -26825,7 +26873,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26903,7 +26951,7 @@
         <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ124">
         <v>0.71</v>
@@ -27318,7 +27366,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27730,7 +27778,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27855,7 +27903,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28061,7 +28109,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28142,7 +28190,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.45</v>
@@ -28348,7 +28396,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.86</v>
@@ -28885,7 +28933,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28963,7 +29011,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29091,7 +29139,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29375,7 +29423,7 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ136">
         <v>0.63</v>
@@ -29581,7 +29629,7 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ137">
         <v>0.86</v>
@@ -29993,10 +30041,10 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ139">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.51</v>
@@ -30327,7 +30375,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30408,7 +30456,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30611,10 +30659,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ142">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR142">
         <v>1.65</v>
@@ -30739,7 +30787,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -30820,7 +30868,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -31151,7 +31199,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31357,7 +31405,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31563,7 +31611,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31769,7 +31817,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31847,10 +31895,10 @@
         <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31975,7 +32023,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32181,7 +32229,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32259,7 +32307,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32387,7 +32435,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32465,10 +32513,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR151">
         <v>1.66</v>
@@ -32593,7 +32641,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32671,10 +32719,10 @@
         <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.12</v>
@@ -32799,7 +32847,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -32877,7 +32925,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ153">
         <v>0.63</v>
@@ -33005,7 +33053,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33086,7 +33134,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ154">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR154">
         <v>2.06</v>
@@ -33211,7 +33259,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33289,10 +33337,10 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR155">
         <v>1.65</v>
@@ -33417,7 +33465,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33495,10 +33543,10 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ156">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.51</v>
@@ -33623,7 +33671,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33701,10 +33749,10 @@
         <v>1.6</v>
       </c>
       <c r="AP157">
+        <v>1.44</v>
+      </c>
+      <c r="AQ157">
         <v>1.5</v>
-      </c>
-      <c r="AQ157">
-        <v>1.57</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -33910,7 +33958,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
         <v>1.51</v>
@@ -34116,7 +34164,7 @@
         <v>2</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR159">
         <v>1.77</v>
@@ -34241,7 +34289,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34319,10 +34367,10 @@
         <v>1.2</v>
       </c>
       <c r="AP160">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ160">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR160">
         <v>1.99</v>
@@ -34528,7 +34576,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR161">
         <v>1.68</v>
@@ -34653,7 +34701,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34937,7 +34985,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ163">
         <v>0.63</v>
@@ -35143,7 +35191,7 @@
         <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
         <v>1.44</v>
@@ -35683,7 +35731,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35967,7 +36015,7 @@
         <v>0.8</v>
       </c>
       <c r="AP168">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ168">
         <v>0.71</v>
@@ -36095,7 +36143,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36301,7 +36349,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36382,7 +36430,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ170">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR170">
         <v>1.89</v>
@@ -36507,7 +36555,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36585,10 +36633,10 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.87</v>
@@ -36713,7 +36761,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36791,7 +36839,7 @@
         <v>1.2</v>
       </c>
       <c r="AP172">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -36997,7 +37045,7 @@
         <v>0.33</v>
       </c>
       <c r="AP173">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ173">
         <v>0.22</v>
@@ -37125,7 +37173,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37206,7 +37254,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ174">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
         <v>1.03</v>
@@ -37331,7 +37379,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37537,7 +37585,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37618,7 +37666,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ176">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR176">
         <v>1.93</v>
@@ -37743,7 +37791,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -37824,7 +37872,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR177">
         <v>1.66</v>
@@ -37949,7 +37997,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38030,7 +38078,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR178">
         <v>1.84</v>
@@ -38233,7 +38281,7 @@
         <v>0.6</v>
       </c>
       <c r="AP179">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
         <v>0.63</v>
@@ -38361,7 +38409,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38439,7 +38487,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -38645,7 +38693,7 @@
         <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ181">
         <v>0.86</v>
@@ -38773,7 +38821,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38979,7 +39027,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39060,7 +39108,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ183">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR183">
         <v>1.98</v>
@@ -39185,7 +39233,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39469,7 +39517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ185">
         <v>1.44</v>
@@ -39597,7 +39645,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39884,7 +39932,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ187">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40009,7 +40057,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40215,7 +40263,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40293,7 +40341,7 @@
         <v>0.2</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ189">
         <v>0.33</v>
@@ -40914,7 +40962,7 @@
         <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.75</v>
@@ -41039,7 +41087,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41245,7 +41293,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41529,7 +41577,7 @@
         <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
         <v>0.63</v>
@@ -41657,7 +41705,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41735,7 +41783,7 @@
         <v>1.71</v>
       </c>
       <c r="AP196">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ196">
         <v>1.44</v>
@@ -41863,7 +41911,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -41941,10 +41989,10 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR197">
         <v>1.53</v>
@@ -42069,7 +42117,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42356,7 +42404,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR199">
         <v>1.32</v>
@@ -42971,7 +43019,7 @@
         <v>2.2</v>
       </c>
       <c r="AP202">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ202">
         <v>2.14</v>
@@ -43099,7 +43147,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43180,7 +43228,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR203">
         <v>1.04</v>
@@ -43386,7 +43434,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ204">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -43511,7 +43559,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43589,7 +43637,7 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43923,7 +43971,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44001,10 +44049,10 @@
         <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ207">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
         <v>1.4</v>
@@ -44207,7 +44255,7 @@
         <v>0.83</v>
       </c>
       <c r="AP208">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ208">
         <v>0.88</v>
@@ -44413,10 +44461,10 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR209">
         <v>2.06</v>
@@ -44747,7 +44795,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44953,7 +45001,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45031,7 +45079,7 @@
         <v>0.29</v>
       </c>
       <c r="AP212">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ212">
         <v>0.63</v>
@@ -45159,7 +45207,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45571,7 +45619,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45777,7 +45825,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -45855,10 +45903,10 @@
         <v>0.8</v>
       </c>
       <c r="AP216">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ216">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR216">
         <v>1.44</v>
@@ -45983,7 +46031,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46064,7 +46112,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR217">
         <v>1.58</v>
@@ -46395,7 +46443,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46807,7 +46855,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -46888,7 +46936,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR221">
         <v>2.04</v>
@@ -47013,7 +47061,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47091,7 +47139,7 @@
         <v>1.71</v>
       </c>
       <c r="AP222">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ222">
         <v>1.5</v>
@@ -47219,7 +47267,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47297,7 +47345,7 @@
         <v>1.63</v>
       </c>
       <c r="AP223">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ223">
         <v>1.44</v>
@@ -47376,6 +47424,2684 @@
       </c>
       <c r="BP223">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7781297</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>72</v>
+      </c>
+      <c r="H224" t="s">
+        <v>76</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>2</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>5</v>
+      </c>
+      <c r="O224" t="s">
+        <v>249</v>
+      </c>
+      <c r="P224" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q224">
+        <v>3</v>
+      </c>
+      <c r="R224">
+        <v>2.38</v>
+      </c>
+      <c r="S224">
+        <v>3.1</v>
+      </c>
+      <c r="T224">
+        <v>1.29</v>
+      </c>
+      <c r="U224">
+        <v>3.5</v>
+      </c>
+      <c r="V224">
+        <v>2.38</v>
+      </c>
+      <c r="W224">
+        <v>1.53</v>
+      </c>
+      <c r="X224">
+        <v>5.5</v>
+      </c>
+      <c r="Y224">
+        <v>1.14</v>
+      </c>
+      <c r="Z224">
+        <v>2.39</v>
+      </c>
+      <c r="AA224">
+        <v>3.34</v>
+      </c>
+      <c r="AB224">
+        <v>2.49</v>
+      </c>
+      <c r="AC224">
+        <v>1.04</v>
+      </c>
+      <c r="AD224">
+        <v>10</v>
+      </c>
+      <c r="AE224">
+        <v>1.2</v>
+      </c>
+      <c r="AF224">
+        <v>4.33</v>
+      </c>
+      <c r="AG224">
+        <v>1.61</v>
+      </c>
+      <c r="AH224">
+        <v>2.2</v>
+      </c>
+      <c r="AI224">
+        <v>1.53</v>
+      </c>
+      <c r="AJ224">
+        <v>2.38</v>
+      </c>
+      <c r="AK224">
+        <v>1.47</v>
+      </c>
+      <c r="AL224">
+        <v>1.27</v>
+      </c>
+      <c r="AM224">
+        <v>1.52</v>
+      </c>
+      <c r="AN224">
+        <v>1.33</v>
+      </c>
+      <c r="AO224">
+        <v>1.43</v>
+      </c>
+      <c r="AP224">
+        <v>1.5</v>
+      </c>
+      <c r="AQ224">
+        <v>1.25</v>
+      </c>
+      <c r="AR224">
+        <v>1.56</v>
+      </c>
+      <c r="AS224">
+        <v>1.42</v>
+      </c>
+      <c r="AT224">
+        <v>2.98</v>
+      </c>
+      <c r="AU224">
+        <v>3</v>
+      </c>
+      <c r="AV224">
+        <v>3</v>
+      </c>
+      <c r="AW224">
+        <v>0</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>3</v>
+      </c>
+      <c r="AZ224">
+        <v>3</v>
+      </c>
+      <c r="BA224">
+        <v>5</v>
+      </c>
+      <c r="BB224">
+        <v>6</v>
+      </c>
+      <c r="BC224">
+        <v>11</v>
+      </c>
+      <c r="BD224">
+        <v>1.9</v>
+      </c>
+      <c r="BE224">
+        <v>6.5</v>
+      </c>
+      <c r="BF224">
+        <v>2.08</v>
+      </c>
+      <c r="BG224">
+        <v>1.28</v>
+      </c>
+      <c r="BH224">
+        <v>3.3</v>
+      </c>
+      <c r="BI224">
+        <v>1.48</v>
+      </c>
+      <c r="BJ224">
+        <v>2.43</v>
+      </c>
+      <c r="BK224">
+        <v>1.77</v>
+      </c>
+      <c r="BL224">
+        <v>1.91</v>
+      </c>
+      <c r="BM224">
+        <v>2.23</v>
+      </c>
+      <c r="BN224">
+        <v>1.57</v>
+      </c>
+      <c r="BO224">
+        <v>2.9</v>
+      </c>
+      <c r="BP224">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7781298</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>73</v>
+      </c>
+      <c r="H225" t="s">
+        <v>97</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>6</v>
+      </c>
+      <c r="O225" t="s">
+        <v>250</v>
+      </c>
+      <c r="P225" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q225">
+        <v>2.2</v>
+      </c>
+      <c r="R225">
+        <v>2.38</v>
+      </c>
+      <c r="S225">
+        <v>5</v>
+      </c>
+      <c r="T225">
+        <v>1.33</v>
+      </c>
+      <c r="U225">
+        <v>3.25</v>
+      </c>
+      <c r="V225">
+        <v>2.5</v>
+      </c>
+      <c r="W225">
+        <v>1.5</v>
+      </c>
+      <c r="X225">
+        <v>6.5</v>
+      </c>
+      <c r="Y225">
+        <v>1.11</v>
+      </c>
+      <c r="Z225">
+        <v>1.5</v>
+      </c>
+      <c r="AA225">
+        <v>3.91</v>
+      </c>
+      <c r="AB225">
+        <v>5.1</v>
+      </c>
+      <c r="AC225">
+        <v>1.04</v>
+      </c>
+      <c r="AD225">
+        <v>10</v>
+      </c>
+      <c r="AE225">
+        <v>1.22</v>
+      </c>
+      <c r="AF225">
+        <v>4</v>
+      </c>
+      <c r="AG225">
+        <v>1.67</v>
+      </c>
+      <c r="AH225">
+        <v>2.1</v>
+      </c>
+      <c r="AI225">
+        <v>1.75</v>
+      </c>
+      <c r="AJ225">
+        <v>2</v>
+      </c>
+      <c r="AK225">
+        <v>1.18</v>
+      </c>
+      <c r="AL225">
+        <v>1.23</v>
+      </c>
+      <c r="AM225">
+        <v>2.2</v>
+      </c>
+      <c r="AN225">
+        <v>2.67</v>
+      </c>
+      <c r="AO225">
+        <v>1.5</v>
+      </c>
+      <c r="AP225">
+        <v>2.43</v>
+      </c>
+      <c r="AQ225">
+        <v>1.44</v>
+      </c>
+      <c r="AR225">
+        <v>1.88</v>
+      </c>
+      <c r="AS225">
+        <v>1.38</v>
+      </c>
+      <c r="AT225">
+        <v>3.26</v>
+      </c>
+      <c r="AU225">
+        <v>7</v>
+      </c>
+      <c r="AV225">
+        <v>6</v>
+      </c>
+      <c r="AW225">
+        <v>15</v>
+      </c>
+      <c r="AX225">
+        <v>5</v>
+      </c>
+      <c r="AY225">
+        <v>24</v>
+      </c>
+      <c r="AZ225">
+        <v>11</v>
+      </c>
+      <c r="BA225">
+        <v>5</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>9</v>
+      </c>
+      <c r="BD225">
+        <v>1.45</v>
+      </c>
+      <c r="BE225">
+        <v>6.75</v>
+      </c>
+      <c r="BF225">
+        <v>3.05</v>
+      </c>
+      <c r="BG225">
+        <v>1.32</v>
+      </c>
+      <c r="BH225">
+        <v>3.05</v>
+      </c>
+      <c r="BI225">
+        <v>1.55</v>
+      </c>
+      <c r="BJ225">
+        <v>2.25</v>
+      </c>
+      <c r="BK225">
+        <v>1.9</v>
+      </c>
+      <c r="BL225">
+        <v>1.78</v>
+      </c>
+      <c r="BM225">
+        <v>2.4</v>
+      </c>
+      <c r="BN225">
+        <v>1.49</v>
+      </c>
+      <c r="BO225">
+        <v>3.1</v>
+      </c>
+      <c r="BP225">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7781299</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>75</v>
+      </c>
+      <c r="H226" t="s">
+        <v>87</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>222</v>
+      </c>
+      <c r="P226" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q226">
+        <v>2.75</v>
+      </c>
+      <c r="R226">
+        <v>2.38</v>
+      </c>
+      <c r="S226">
+        <v>3.6</v>
+      </c>
+      <c r="T226">
+        <v>1.3</v>
+      </c>
+      <c r="U226">
+        <v>3.4</v>
+      </c>
+      <c r="V226">
+        <v>2.5</v>
+      </c>
+      <c r="W226">
+        <v>1.5</v>
+      </c>
+      <c r="X226">
+        <v>6</v>
+      </c>
+      <c r="Y226">
+        <v>1.13</v>
+      </c>
+      <c r="Z226">
+        <v>1.9</v>
+      </c>
+      <c r="AA226">
+        <v>3.45</v>
+      </c>
+      <c r="AB226">
+        <v>3.29</v>
+      </c>
+      <c r="AC226">
+        <v>1.04</v>
+      </c>
+      <c r="AD226">
+        <v>10</v>
+      </c>
+      <c r="AE226">
+        <v>1.2</v>
+      </c>
+      <c r="AF226">
+        <v>4.33</v>
+      </c>
+      <c r="AG226">
+        <v>1.76</v>
+      </c>
+      <c r="AH226">
+        <v>1.94</v>
+      </c>
+      <c r="AI226">
+        <v>1.57</v>
+      </c>
+      <c r="AJ226">
+        <v>2.25</v>
+      </c>
+      <c r="AK226">
+        <v>1.38</v>
+      </c>
+      <c r="AL226">
+        <v>1.28</v>
+      </c>
+      <c r="AM226">
+        <v>1.62</v>
+      </c>
+      <c r="AN226">
+        <v>1.13</v>
+      </c>
+      <c r="AO226">
+        <v>1.5</v>
+      </c>
+      <c r="AP226">
+        <v>1.11</v>
+      </c>
+      <c r="AQ226">
+        <v>1.44</v>
+      </c>
+      <c r="AR226">
+        <v>1.23</v>
+      </c>
+      <c r="AS226">
+        <v>1.44</v>
+      </c>
+      <c r="AT226">
+        <v>2.67</v>
+      </c>
+      <c r="AU226">
+        <v>16</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>6</v>
+      </c>
+      <c r="AX226">
+        <v>8</v>
+      </c>
+      <c r="AY226">
+        <v>34</v>
+      </c>
+      <c r="AZ226">
+        <v>17</v>
+      </c>
+      <c r="BA226">
+        <v>4</v>
+      </c>
+      <c r="BB226">
+        <v>3</v>
+      </c>
+      <c r="BC226">
+        <v>7</v>
+      </c>
+      <c r="BD226">
+        <v>1.64</v>
+      </c>
+      <c r="BE226">
+        <v>6.75</v>
+      </c>
+      <c r="BF226">
+        <v>2.48</v>
+      </c>
+      <c r="BG226">
+        <v>1.29</v>
+      </c>
+      <c r="BH226">
+        <v>3.2</v>
+      </c>
+      <c r="BI226">
+        <v>1.5</v>
+      </c>
+      <c r="BJ226">
+        <v>2.38</v>
+      </c>
+      <c r="BK226">
+        <v>1.81</v>
+      </c>
+      <c r="BL226">
+        <v>1.88</v>
+      </c>
+      <c r="BM226">
+        <v>2.25</v>
+      </c>
+      <c r="BN226">
+        <v>1.55</v>
+      </c>
+      <c r="BO226">
+        <v>2.9</v>
+      </c>
+      <c r="BP226">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7781300</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s">
+        <v>99</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>4</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>6</v>
+      </c>
+      <c r="O227" t="s">
+        <v>251</v>
+      </c>
+      <c r="P227" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q227">
+        <v>1.83</v>
+      </c>
+      <c r="R227">
+        <v>2.63</v>
+      </c>
+      <c r="S227">
+        <v>6</v>
+      </c>
+      <c r="T227">
+        <v>1.22</v>
+      </c>
+      <c r="U227">
+        <v>4</v>
+      </c>
+      <c r="V227">
+        <v>2.1</v>
+      </c>
+      <c r="W227">
+        <v>1.67</v>
+      </c>
+      <c r="X227">
+        <v>4.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.18</v>
+      </c>
+      <c r="Z227">
+        <v>1.44</v>
+      </c>
+      <c r="AA227">
+        <v>4.5</v>
+      </c>
+      <c r="AB227">
+        <v>4.9</v>
+      </c>
+      <c r="AC227">
+        <v>1.01</v>
+      </c>
+      <c r="AD227">
+        <v>17</v>
+      </c>
+      <c r="AE227">
+        <v>1.14</v>
+      </c>
+      <c r="AF227">
+        <v>5.5</v>
+      </c>
+      <c r="AG227">
+        <v>1.45</v>
+      </c>
+      <c r="AH227">
+        <v>2.63</v>
+      </c>
+      <c r="AI227">
+        <v>1.67</v>
+      </c>
+      <c r="AJ227">
+        <v>2.1</v>
+      </c>
+      <c r="AK227">
+        <v>1.12</v>
+      </c>
+      <c r="AL227">
+        <v>1.18</v>
+      </c>
+      <c r="AM227">
+        <v>2.65</v>
+      </c>
+      <c r="AN227">
+        <v>1.57</v>
+      </c>
+      <c r="AO227">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP227">
+        <v>1.75</v>
+      </c>
+      <c r="AQ227">
+        <v>0.5</v>
+      </c>
+      <c r="AR227">
+        <v>1.5</v>
+      </c>
+      <c r="AS227">
+        <v>1.36</v>
+      </c>
+      <c r="AT227">
+        <v>2.86</v>
+      </c>
+      <c r="AU227">
+        <v>9</v>
+      </c>
+      <c r="AV227">
+        <v>5</v>
+      </c>
+      <c r="AW227">
+        <v>8</v>
+      </c>
+      <c r="AX227">
+        <v>3</v>
+      </c>
+      <c r="AY227">
+        <v>19</v>
+      </c>
+      <c r="AZ227">
+        <v>9</v>
+      </c>
+      <c r="BA227">
+        <v>0</v>
+      </c>
+      <c r="BB227">
+        <v>2</v>
+      </c>
+      <c r="BC227">
+        <v>2</v>
+      </c>
+      <c r="BD227">
+        <v>1.34</v>
+      </c>
+      <c r="BE227">
+        <v>7.5</v>
+      </c>
+      <c r="BF227">
+        <v>3.55</v>
+      </c>
+      <c r="BG227">
+        <v>1.22</v>
+      </c>
+      <c r="BH227">
+        <v>3.65</v>
+      </c>
+      <c r="BI227">
+        <v>1.41</v>
+      </c>
+      <c r="BJ227">
+        <v>2.65</v>
+      </c>
+      <c r="BK227">
+        <v>1.66</v>
+      </c>
+      <c r="BL227">
+        <v>2.07</v>
+      </c>
+      <c r="BM227">
+        <v>2.04</v>
+      </c>
+      <c r="BN227">
+        <v>1.68</v>
+      </c>
+      <c r="BO227">
+        <v>2.55</v>
+      </c>
+      <c r="BP227">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7781301</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>88</v>
+      </c>
+      <c r="H228" t="s">
+        <v>85</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>6</v>
+      </c>
+      <c r="O228" t="s">
+        <v>252</v>
+      </c>
+      <c r="P228" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q228">
+        <v>2.5</v>
+      </c>
+      <c r="R228">
+        <v>2.25</v>
+      </c>
+      <c r="S228">
+        <v>4.33</v>
+      </c>
+      <c r="T228">
+        <v>1.36</v>
+      </c>
+      <c r="U228">
+        <v>3</v>
+      </c>
+      <c r="V228">
+        <v>2.63</v>
+      </c>
+      <c r="W228">
+        <v>1.44</v>
+      </c>
+      <c r="X228">
+        <v>7</v>
+      </c>
+      <c r="Y228">
+        <v>1.1</v>
+      </c>
+      <c r="Z228">
+        <v>1.8</v>
+      </c>
+      <c r="AA228">
+        <v>3.38</v>
+      </c>
+      <c r="AB228">
+        <v>3.71</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9.5</v>
+      </c>
+      <c r="AE228">
+        <v>1.28</v>
+      </c>
+      <c r="AF228">
+        <v>3.6</v>
+      </c>
+      <c r="AG228">
+        <v>1.81</v>
+      </c>
+      <c r="AH228">
+        <v>1.89</v>
+      </c>
+      <c r="AI228">
+        <v>1.75</v>
+      </c>
+      <c r="AJ228">
+        <v>2</v>
+      </c>
+      <c r="AK228">
+        <v>1.24</v>
+      </c>
+      <c r="AL228">
+        <v>1.28</v>
+      </c>
+      <c r="AM228">
+        <v>1.88</v>
+      </c>
+      <c r="AN228">
+        <v>2.29</v>
+      </c>
+      <c r="AO228">
+        <v>0.57</v>
+      </c>
+      <c r="AP228">
+        <v>2.38</v>
+      </c>
+      <c r="AQ228">
+        <v>0.5</v>
+      </c>
+      <c r="AR228">
+        <v>1.63</v>
+      </c>
+      <c r="AS228">
+        <v>1.18</v>
+      </c>
+      <c r="AT228">
+        <v>2.81</v>
+      </c>
+      <c r="AU228">
+        <v>5</v>
+      </c>
+      <c r="AV228">
+        <v>7</v>
+      </c>
+      <c r="AW228">
+        <v>6</v>
+      </c>
+      <c r="AX228">
+        <v>5</v>
+      </c>
+      <c r="AY228">
+        <v>14</v>
+      </c>
+      <c r="AZ228">
+        <v>14</v>
+      </c>
+      <c r="BA228">
+        <v>5</v>
+      </c>
+      <c r="BB228">
+        <v>1</v>
+      </c>
+      <c r="BC228">
+        <v>6</v>
+      </c>
+      <c r="BD228">
+        <v>1.52</v>
+      </c>
+      <c r="BE228">
+        <v>6.75</v>
+      </c>
+      <c r="BF228">
+        <v>2.8</v>
+      </c>
+      <c r="BG228">
+        <v>1.33</v>
+      </c>
+      <c r="BH228">
+        <v>2.95</v>
+      </c>
+      <c r="BI228">
+        <v>1.57</v>
+      </c>
+      <c r="BJ228">
+        <v>2.23</v>
+      </c>
+      <c r="BK228">
+        <v>1.92</v>
+      </c>
+      <c r="BL228">
+        <v>1.77</v>
+      </c>
+      <c r="BM228">
+        <v>2.43</v>
+      </c>
+      <c r="BN228">
+        <v>1.47</v>
+      </c>
+      <c r="BO228">
+        <v>3.15</v>
+      </c>
+      <c r="BP228">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7781302</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>96</v>
+      </c>
+      <c r="H229" t="s">
+        <v>78</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>3</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>109</v>
+      </c>
+      <c r="P229" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q229">
+        <v>2.5</v>
+      </c>
+      <c r="R229">
+        <v>2.25</v>
+      </c>
+      <c r="S229">
+        <v>4.33</v>
+      </c>
+      <c r="T229">
+        <v>1.36</v>
+      </c>
+      <c r="U229">
+        <v>3</v>
+      </c>
+      <c r="V229">
+        <v>2.63</v>
+      </c>
+      <c r="W229">
+        <v>1.44</v>
+      </c>
+      <c r="X229">
+        <v>7</v>
+      </c>
+      <c r="Y229">
+        <v>1.1</v>
+      </c>
+      <c r="Z229">
+        <v>1.86</v>
+      </c>
+      <c r="AA229">
+        <v>3.3</v>
+      </c>
+      <c r="AB229">
+        <v>3.57</v>
+      </c>
+      <c r="AC229">
+        <v>1.05</v>
+      </c>
+      <c r="AD229">
+        <v>9</v>
+      </c>
+      <c r="AE229">
+        <v>1.28</v>
+      </c>
+      <c r="AF229">
+        <v>3.55</v>
+      </c>
+      <c r="AG229">
+        <v>1.8</v>
+      </c>
+      <c r="AH229">
+        <v>1.9</v>
+      </c>
+      <c r="AI229">
+        <v>1.75</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>1.26</v>
+      </c>
+      <c r="AL229">
+        <v>1.29</v>
+      </c>
+      <c r="AM229">
+        <v>1.8</v>
+      </c>
+      <c r="AN229">
+        <v>2.25</v>
+      </c>
+      <c r="AO229">
+        <v>1</v>
+      </c>
+      <c r="AP229">
+        <v>2</v>
+      </c>
+      <c r="AQ229">
+        <v>1.25</v>
+      </c>
+      <c r="AR229">
+        <v>1.83</v>
+      </c>
+      <c r="AS229">
+        <v>1.14</v>
+      </c>
+      <c r="AT229">
+        <v>2.97</v>
+      </c>
+      <c r="AU229">
+        <v>3</v>
+      </c>
+      <c r="AV229">
+        <v>6</v>
+      </c>
+      <c r="AW229">
+        <v>7</v>
+      </c>
+      <c r="AX229">
+        <v>6</v>
+      </c>
+      <c r="AY229">
+        <v>12</v>
+      </c>
+      <c r="AZ229">
+        <v>16</v>
+      </c>
+      <c r="BA229">
+        <v>8</v>
+      </c>
+      <c r="BB229">
+        <v>3</v>
+      </c>
+      <c r="BC229">
+        <v>11</v>
+      </c>
+      <c r="BD229">
+        <v>1.58</v>
+      </c>
+      <c r="BE229">
+        <v>6.75</v>
+      </c>
+      <c r="BF229">
+        <v>2.55</v>
+      </c>
+      <c r="BG229">
+        <v>1.24</v>
+      </c>
+      <c r="BH229">
+        <v>3.55</v>
+      </c>
+      <c r="BI229">
+        <v>1.43</v>
+      </c>
+      <c r="BJ229">
+        <v>2.6</v>
+      </c>
+      <c r="BK229">
+        <v>1.7</v>
+      </c>
+      <c r="BL229">
+        <v>2</v>
+      </c>
+      <c r="BM229">
+        <v>2.08</v>
+      </c>
+      <c r="BN229">
+        <v>1.65</v>
+      </c>
+      <c r="BO229">
+        <v>2.65</v>
+      </c>
+      <c r="BP229">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7781303</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>98</v>
+      </c>
+      <c r="H230" t="s">
+        <v>89</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>253</v>
+      </c>
+      <c r="P230" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q230">
+        <v>3.25</v>
+      </c>
+      <c r="R230">
+        <v>2.25</v>
+      </c>
+      <c r="S230">
+        <v>3</v>
+      </c>
+      <c r="T230">
+        <v>1.33</v>
+      </c>
+      <c r="U230">
+        <v>3.25</v>
+      </c>
+      <c r="V230">
+        <v>2.63</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>6.5</v>
+      </c>
+      <c r="Y230">
+        <v>1.11</v>
+      </c>
+      <c r="Z230">
+        <v>2.91</v>
+      </c>
+      <c r="AA230">
+        <v>3.21</v>
+      </c>
+      <c r="AB230">
+        <v>2.15</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>9.5</v>
+      </c>
+      <c r="AE230">
+        <v>1.25</v>
+      </c>
+      <c r="AF230">
+        <v>3.75</v>
+      </c>
+      <c r="AG230">
+        <v>1.83</v>
+      </c>
+      <c r="AH230">
+        <v>1.87</v>
+      </c>
+      <c r="AI230">
+        <v>1.62</v>
+      </c>
+      <c r="AJ230">
+        <v>2.2</v>
+      </c>
+      <c r="AK230">
+        <v>1.55</v>
+      </c>
+      <c r="AL230">
+        <v>1.29</v>
+      </c>
+      <c r="AM230">
+        <v>1.41</v>
+      </c>
+      <c r="AN230">
+        <v>0.63</v>
+      </c>
+      <c r="AO230">
+        <v>2</v>
+      </c>
+      <c r="AP230">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ230">
+        <v>2.14</v>
+      </c>
+      <c r="AR230">
+        <v>1.42</v>
+      </c>
+      <c r="AS230">
+        <v>1.75</v>
+      </c>
+      <c r="AT230">
+        <v>3.17</v>
+      </c>
+      <c r="AU230">
+        <v>5</v>
+      </c>
+      <c r="AV230">
+        <v>8</v>
+      </c>
+      <c r="AW230">
+        <v>5</v>
+      </c>
+      <c r="AX230">
+        <v>7</v>
+      </c>
+      <c r="AY230">
+        <v>11</v>
+      </c>
+      <c r="AZ230">
+        <v>16</v>
+      </c>
+      <c r="BA230">
+        <v>3</v>
+      </c>
+      <c r="BB230">
+        <v>9</v>
+      </c>
+      <c r="BC230">
+        <v>12</v>
+      </c>
+      <c r="BD230">
+        <v>2.07</v>
+      </c>
+      <c r="BE230">
+        <v>6.4</v>
+      </c>
+      <c r="BF230">
+        <v>1.92</v>
+      </c>
+      <c r="BG230">
+        <v>1.26</v>
+      </c>
+      <c r="BH230">
+        <v>3.4</v>
+      </c>
+      <c r="BI230">
+        <v>1.47</v>
+      </c>
+      <c r="BJ230">
+        <v>2.48</v>
+      </c>
+      <c r="BK230">
+        <v>1.76</v>
+      </c>
+      <c r="BL230">
+        <v>1.94</v>
+      </c>
+      <c r="BM230">
+        <v>2.17</v>
+      </c>
+      <c r="BN230">
+        <v>1.6</v>
+      </c>
+      <c r="BO230">
+        <v>2.75</v>
+      </c>
+      <c r="BP230">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7781304</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45805.875</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>74</v>
+      </c>
+      <c r="H231" t="s">
+        <v>79</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>254</v>
+      </c>
+      <c r="P231" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q231">
+        <v>2.4</v>
+      </c>
+      <c r="R231">
+        <v>2.25</v>
+      </c>
+      <c r="S231">
+        <v>4.5</v>
+      </c>
+      <c r="T231">
+        <v>1.36</v>
+      </c>
+      <c r="U231">
+        <v>3</v>
+      </c>
+      <c r="V231">
+        <v>2.63</v>
+      </c>
+      <c r="W231">
+        <v>1.44</v>
+      </c>
+      <c r="X231">
+        <v>7</v>
+      </c>
+      <c r="Y231">
+        <v>1.1</v>
+      </c>
+      <c r="Z231">
+        <v>1.72</v>
+      </c>
+      <c r="AA231">
+        <v>3.6</v>
+      </c>
+      <c r="AB231">
+        <v>3.83</v>
+      </c>
+      <c r="AC231">
+        <v>1.05</v>
+      </c>
+      <c r="AD231">
+        <v>9.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.28</v>
+      </c>
+      <c r="AF231">
+        <v>3.65</v>
+      </c>
+      <c r="AG231">
+        <v>1.83</v>
+      </c>
+      <c r="AH231">
+        <v>1.87</v>
+      </c>
+      <c r="AI231">
+        <v>1.75</v>
+      </c>
+      <c r="AJ231">
+        <v>2</v>
+      </c>
+      <c r="AK231">
+        <v>1.2</v>
+      </c>
+      <c r="AL231">
+        <v>1.26</v>
+      </c>
+      <c r="AM231">
+        <v>2.05</v>
+      </c>
+      <c r="AN231">
+        <v>1.88</v>
+      </c>
+      <c r="AO231">
+        <v>1.17</v>
+      </c>
+      <c r="AP231">
+        <v>1.78</v>
+      </c>
+      <c r="AQ231">
+        <v>1.14</v>
+      </c>
+      <c r="AR231">
+        <v>1.85</v>
+      </c>
+      <c r="AS231">
+        <v>1.6</v>
+      </c>
+      <c r="AT231">
+        <v>3.45</v>
+      </c>
+      <c r="AU231">
+        <v>5</v>
+      </c>
+      <c r="AV231">
+        <v>7</v>
+      </c>
+      <c r="AW231">
+        <v>15</v>
+      </c>
+      <c r="AX231">
+        <v>7</v>
+      </c>
+      <c r="AY231">
+        <v>24</v>
+      </c>
+      <c r="AZ231">
+        <v>16</v>
+      </c>
+      <c r="BA231">
+        <v>7</v>
+      </c>
+      <c r="BB231">
+        <v>3</v>
+      </c>
+      <c r="BC231">
+        <v>10</v>
+      </c>
+      <c r="BD231">
+        <v>1.57</v>
+      </c>
+      <c r="BE231">
+        <v>6.4</v>
+      </c>
+      <c r="BF231">
+        <v>2.7</v>
+      </c>
+      <c r="BG231">
+        <v>1.41</v>
+      </c>
+      <c r="BH231">
+        <v>2.65</v>
+      </c>
+      <c r="BI231">
+        <v>1.7</v>
+      </c>
+      <c r="BJ231">
+        <v>2</v>
+      </c>
+      <c r="BK231">
+        <v>2.14</v>
+      </c>
+      <c r="BL231">
+        <v>1.62</v>
+      </c>
+      <c r="BM231">
+        <v>2.75</v>
+      </c>
+      <c r="BN231">
+        <v>1.38</v>
+      </c>
+      <c r="BO231">
+        <v>3.65</v>
+      </c>
+      <c r="BP231">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7781306</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45805.89583333334</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>82</v>
+      </c>
+      <c r="H232" t="s">
+        <v>94</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
+        <v>255</v>
+      </c>
+      <c r="P232" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>1.82</v>
+      </c>
+      <c r="AA232">
+        <v>3.35</v>
+      </c>
+      <c r="AB232">
+        <v>3.68</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>1.83</v>
+      </c>
+      <c r="AH232">
+        <v>1.87</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>2.33</v>
+      </c>
+      <c r="AO232">
+        <v>1.5</v>
+      </c>
+      <c r="AP232">
+        <v>2.43</v>
+      </c>
+      <c r="AQ232">
+        <v>1.29</v>
+      </c>
+      <c r="AR232">
+        <v>1.98</v>
+      </c>
+      <c r="AS232">
+        <v>1.67</v>
+      </c>
+      <c r="AT232">
+        <v>3.65</v>
+      </c>
+      <c r="AU232">
+        <v>-1</v>
+      </c>
+      <c r="AV232">
+        <v>-1</v>
+      </c>
+      <c r="AW232">
+        <v>-1</v>
+      </c>
+      <c r="AX232">
+        <v>-1</v>
+      </c>
+      <c r="AY232">
+        <v>-1</v>
+      </c>
+      <c r="AZ232">
+        <v>-1</v>
+      </c>
+      <c r="BA232">
+        <v>-1</v>
+      </c>
+      <c r="BB232">
+        <v>-1</v>
+      </c>
+      <c r="BC232">
+        <v>-1</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>0</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7781305</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45805.93055555555</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>77</v>
+      </c>
+      <c r="H233" t="s">
+        <v>86</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>256</v>
+      </c>
+      <c r="P233" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q233">
+        <v>2.75</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>4</v>
+      </c>
+      <c r="T233">
+        <v>1.36</v>
+      </c>
+      <c r="U233">
+        <v>3</v>
+      </c>
+      <c r="V233">
+        <v>2.75</v>
+      </c>
+      <c r="W233">
+        <v>1.4</v>
+      </c>
+      <c r="X233">
+        <v>7</v>
+      </c>
+      <c r="Y233">
+        <v>1.1</v>
+      </c>
+      <c r="Z233">
+        <v>2.01</v>
+      </c>
+      <c r="AA233">
+        <v>3.33</v>
+      </c>
+      <c r="AB233">
+        <v>3.12</v>
+      </c>
+      <c r="AC233">
+        <v>1.06</v>
+      </c>
+      <c r="AD233">
+        <v>8.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.3</v>
+      </c>
+      <c r="AF233">
+        <v>3.4</v>
+      </c>
+      <c r="AG233">
+        <v>1.86</v>
+      </c>
+      <c r="AH233">
+        <v>1.84</v>
+      </c>
+      <c r="AI233">
+        <v>1.75</v>
+      </c>
+      <c r="AJ233">
+        <v>2</v>
+      </c>
+      <c r="AK233">
+        <v>1.28</v>
+      </c>
+      <c r="AL233">
+        <v>1.29</v>
+      </c>
+      <c r="AM233">
+        <v>1.75</v>
+      </c>
+      <c r="AN233">
+        <v>1.5</v>
+      </c>
+      <c r="AO233">
+        <v>0.88</v>
+      </c>
+      <c r="AP233">
+        <v>1.44</v>
+      </c>
+      <c r="AQ233">
+        <v>0.89</v>
+      </c>
+      <c r="AR233">
+        <v>1.67</v>
+      </c>
+      <c r="AS233">
+        <v>1.57</v>
+      </c>
+      <c r="AT233">
+        <v>3.24</v>
+      </c>
+      <c r="AU233">
+        <v>4</v>
+      </c>
+      <c r="AV233">
+        <v>3</v>
+      </c>
+      <c r="AW233">
+        <v>9</v>
+      </c>
+      <c r="AX233">
+        <v>14</v>
+      </c>
+      <c r="AY233">
+        <v>13</v>
+      </c>
+      <c r="AZ233">
+        <v>18</v>
+      </c>
+      <c r="BA233">
+        <v>7</v>
+      </c>
+      <c r="BB233">
+        <v>6</v>
+      </c>
+      <c r="BC233">
+        <v>13</v>
+      </c>
+      <c r="BD233">
+        <v>1.74</v>
+      </c>
+      <c r="BE233">
+        <v>6.4</v>
+      </c>
+      <c r="BF233">
+        <v>2.32</v>
+      </c>
+      <c r="BG233">
+        <v>1.28</v>
+      </c>
+      <c r="BH233">
+        <v>3.2</v>
+      </c>
+      <c r="BI233">
+        <v>1.5</v>
+      </c>
+      <c r="BJ233">
+        <v>2.4</v>
+      </c>
+      <c r="BK233">
+        <v>1.82</v>
+      </c>
+      <c r="BL233">
+        <v>1.86</v>
+      </c>
+      <c r="BM233">
+        <v>2.28</v>
+      </c>
+      <c r="BN233">
+        <v>1.54</v>
+      </c>
+      <c r="BO233">
+        <v>2.95</v>
+      </c>
+      <c r="BP233">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7781307</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45805.96875</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>84</v>
+      </c>
+      <c r="H234" t="s">
+        <v>81</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>109</v>
+      </c>
+      <c r="P234" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q234">
+        <v>2.5</v>
+      </c>
+      <c r="R234">
+        <v>2.5</v>
+      </c>
+      <c r="S234">
+        <v>3.6</v>
+      </c>
+      <c r="T234">
+        <v>1.25</v>
+      </c>
+      <c r="U234">
+        <v>3.75</v>
+      </c>
+      <c r="V234">
+        <v>2.2</v>
+      </c>
+      <c r="W234">
+        <v>1.62</v>
+      </c>
+      <c r="X234">
+        <v>5</v>
+      </c>
+      <c r="Y234">
+        <v>1.17</v>
+      </c>
+      <c r="Z234">
+        <v>1.9</v>
+      </c>
+      <c r="AA234">
+        <v>3.92</v>
+      </c>
+      <c r="AB234">
+        <v>2.96</v>
+      </c>
+      <c r="AC234">
+        <v>1.01</v>
+      </c>
+      <c r="AD234">
+        <v>13</v>
+      </c>
+      <c r="AE234">
+        <v>1.15</v>
+      </c>
+      <c r="AF234">
+        <v>5.25</v>
+      </c>
+      <c r="AG234">
+        <v>1.46</v>
+      </c>
+      <c r="AH234">
+        <v>2.6</v>
+      </c>
+      <c r="AI234">
+        <v>1.5</v>
+      </c>
+      <c r="AJ234">
+        <v>2.5</v>
+      </c>
+      <c r="AK234">
+        <v>1.33</v>
+      </c>
+      <c r="AL234">
+        <v>1.24</v>
+      </c>
+      <c r="AM234">
+        <v>1.77</v>
+      </c>
+      <c r="AN234">
+        <v>0.33</v>
+      </c>
+      <c r="AO234">
+        <v>1.17</v>
+      </c>
+      <c r="AP234">
+        <v>0.29</v>
+      </c>
+      <c r="AQ234">
+        <v>1.43</v>
+      </c>
+      <c r="AR234">
+        <v>1.45</v>
+      </c>
+      <c r="AS234">
+        <v>1.76</v>
+      </c>
+      <c r="AT234">
+        <v>3.21</v>
+      </c>
+      <c r="AU234">
+        <v>8</v>
+      </c>
+      <c r="AV234">
+        <v>8</v>
+      </c>
+      <c r="AW234">
+        <v>7</v>
+      </c>
+      <c r="AX234">
+        <v>6</v>
+      </c>
+      <c r="AY234">
+        <v>15</v>
+      </c>
+      <c r="AZ234">
+        <v>14</v>
+      </c>
+      <c r="BA234">
+        <v>10</v>
+      </c>
+      <c r="BB234">
+        <v>4</v>
+      </c>
+      <c r="BC234">
+        <v>14</v>
+      </c>
+      <c r="BD234">
+        <v>1.67</v>
+      </c>
+      <c r="BE234">
+        <v>6.75</v>
+      </c>
+      <c r="BF234">
+        <v>2.4</v>
+      </c>
+      <c r="BG234">
+        <v>1.2</v>
+      </c>
+      <c r="BH234">
+        <v>3.9</v>
+      </c>
+      <c r="BI234">
+        <v>1.37</v>
+      </c>
+      <c r="BJ234">
+        <v>2.8</v>
+      </c>
+      <c r="BK234">
+        <v>1.61</v>
+      </c>
+      <c r="BL234">
+        <v>2.15</v>
+      </c>
+      <c r="BM234">
+        <v>1.96</v>
+      </c>
+      <c r="BN234">
+        <v>1.73</v>
+      </c>
+      <c r="BO234">
+        <v>2.45</v>
+      </c>
+      <c r="BP234">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7781309</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45805.97916666666</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>83</v>
+      </c>
+      <c r="H235" t="s">
+        <v>93</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>257</v>
+      </c>
+      <c r="P235" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q235">
+        <v>2.1</v>
+      </c>
+      <c r="R235">
+        <v>2.6</v>
+      </c>
+      <c r="S235">
+        <v>4.5</v>
+      </c>
+      <c r="T235">
+        <v>1.25</v>
+      </c>
+      <c r="U235">
+        <v>3.75</v>
+      </c>
+      <c r="V235">
+        <v>2.1</v>
+      </c>
+      <c r="W235">
+        <v>1.67</v>
+      </c>
+      <c r="X235">
+        <v>5</v>
+      </c>
+      <c r="Y235">
+        <v>1.17</v>
+      </c>
+      <c r="Z235">
+        <v>1.6</v>
+      </c>
+      <c r="AA235">
+        <v>3.95</v>
+      </c>
+      <c r="AB235">
+        <v>4.2</v>
+      </c>
+      <c r="AC235">
+        <v>1.01</v>
+      </c>
+      <c r="AD235">
+        <v>17</v>
+      </c>
+      <c r="AE235">
+        <v>1.15</v>
+      </c>
+      <c r="AF235">
+        <v>5.25</v>
+      </c>
+      <c r="AG235">
+        <v>1.52</v>
+      </c>
+      <c r="AH235">
+        <v>2.43</v>
+      </c>
+      <c r="AI235">
+        <v>1.53</v>
+      </c>
+      <c r="AJ235">
+        <v>2.38</v>
+      </c>
+      <c r="AK235">
+        <v>1.21</v>
+      </c>
+      <c r="AL235">
+        <v>1.22</v>
+      </c>
+      <c r="AM235">
+        <v>2.1</v>
+      </c>
+      <c r="AN235">
+        <v>1.71</v>
+      </c>
+      <c r="AO235">
+        <v>1.14</v>
+      </c>
+      <c r="AP235">
+        <v>1.88</v>
+      </c>
+      <c r="AQ235">
+        <v>1</v>
+      </c>
+      <c r="AR235">
+        <v>1.24</v>
+      </c>
+      <c r="AS235">
+        <v>0.97</v>
+      </c>
+      <c r="AT235">
+        <v>2.21</v>
+      </c>
+      <c r="AU235">
+        <v>9</v>
+      </c>
+      <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>13</v>
+      </c>
+      <c r="AX235">
+        <v>6</v>
+      </c>
+      <c r="AY235">
+        <v>29</v>
+      </c>
+      <c r="AZ235">
+        <v>12</v>
+      </c>
+      <c r="BA235">
+        <v>6</v>
+      </c>
+      <c r="BB235">
+        <v>3</v>
+      </c>
+      <c r="BC235">
+        <v>9</v>
+      </c>
+      <c r="BD235">
+        <v>1.58</v>
+      </c>
+      <c r="BE235">
+        <v>6.5</v>
+      </c>
+      <c r="BF235">
+        <v>2.65</v>
+      </c>
+      <c r="BG235">
+        <v>1.3</v>
+      </c>
+      <c r="BH235">
+        <v>3.15</v>
+      </c>
+      <c r="BI235">
+        <v>1.52</v>
+      </c>
+      <c r="BJ235">
+        <v>2.33</v>
+      </c>
+      <c r="BK235">
+        <v>1.84</v>
+      </c>
+      <c r="BL235">
+        <v>1.84</v>
+      </c>
+      <c r="BM235">
+        <v>2.32</v>
+      </c>
+      <c r="BN235">
+        <v>1.53</v>
+      </c>
+      <c r="BO235">
+        <v>2.95</v>
+      </c>
+      <c r="BP235">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7781310</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45805.97916666666</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>95</v>
+      </c>
+      <c r="H236" t="s">
+        <v>92</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>109</v>
+      </c>
+      <c r="P236" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q236">
+        <v>2.6</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>4</v>
+      </c>
+      <c r="T236">
+        <v>1.36</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.63</v>
+      </c>
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>7</v>
+      </c>
+      <c r="Y236">
+        <v>1.1</v>
+      </c>
+      <c r="Z236">
+        <v>1.9</v>
+      </c>
+      <c r="AA236">
+        <v>3.32</v>
+      </c>
+      <c r="AB236">
+        <v>3.41</v>
+      </c>
+      <c r="AC236">
+        <v>1.05</v>
+      </c>
+      <c r="AD236">
+        <v>9.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.25</v>
+      </c>
+      <c r="AF236">
+        <v>3.7</v>
+      </c>
+      <c r="AG236">
+        <v>1.8</v>
+      </c>
+      <c r="AH236">
+        <v>1.9</v>
+      </c>
+      <c r="AI236">
+        <v>1.75</v>
+      </c>
+      <c r="AJ236">
+        <v>2</v>
+      </c>
+      <c r="AK236">
+        <v>1.36</v>
+      </c>
+      <c r="AL236">
+        <v>1.3</v>
+      </c>
+      <c r="AM236">
+        <v>1.62</v>
+      </c>
+      <c r="AN236">
+        <v>2.29</v>
+      </c>
+      <c r="AO236">
+        <v>1.57</v>
+      </c>
+      <c r="AP236">
+        <v>2.13</v>
+      </c>
+      <c r="AQ236">
+        <v>1.5</v>
+      </c>
+      <c r="AR236">
+        <v>1.96</v>
+      </c>
+      <c r="AS236">
+        <v>1.45</v>
+      </c>
+      <c r="AT236">
+        <v>3.41</v>
+      </c>
+      <c r="AU236">
+        <v>4</v>
+      </c>
+      <c r="AV236">
+        <v>2</v>
+      </c>
+      <c r="AW236">
+        <v>16</v>
+      </c>
+      <c r="AX236">
+        <v>3</v>
+      </c>
+      <c r="AY236">
+        <v>23</v>
+      </c>
+      <c r="AZ236">
+        <v>5</v>
+      </c>
+      <c r="BA236">
+        <v>8</v>
+      </c>
+      <c r="BB236">
+        <v>0</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>1.72</v>
+      </c>
+      <c r="BE236">
+        <v>6.75</v>
+      </c>
+      <c r="BF236">
+        <v>2.33</v>
+      </c>
+      <c r="BG236">
+        <v>1.21</v>
+      </c>
+      <c r="BH236">
+        <v>3.8</v>
+      </c>
+      <c r="BI236">
+        <v>1.38</v>
+      </c>
+      <c r="BJ236">
+        <v>2.75</v>
+      </c>
+      <c r="BK236">
+        <v>1.62</v>
+      </c>
+      <c r="BL236">
+        <v>2.14</v>
+      </c>
+      <c r="BM236">
+        <v>1.98</v>
+      </c>
+      <c r="BN236">
+        <v>1.72</v>
+      </c>
+      <c r="BO236">
+        <v>2.48</v>
+      </c>
+      <c r="BP236">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -47790,13 +47790,13 @@
         <v>11</v>
       </c>
       <c r="BA225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB225">
         <v>4</v>
       </c>
       <c r="BC225">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD225">
         <v>1.45</v>
@@ -48411,10 +48411,10 @@
         <v>5</v>
       </c>
       <c r="BB228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD228">
         <v>1.52</v>
@@ -49214,31 +49214,31 @@
         <v>3.65</v>
       </c>
       <c r="AU232">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV232">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW232">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX232">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY232">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ232">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA232">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB232">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC232">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD232">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -2437,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ8">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4291,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4903,25 +4903,25 @@
         <v>1.68</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5112,22 +5112,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5315,25 +5315,25 @@
         <v>1.4</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5733,10 +5733,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5933,25 +5933,25 @@
         <v>1.6</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -6142,22 +6142,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6348,22 +6348,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6557,19 +6557,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AS25">
         <v>1.66</v>
       </c>
       <c r="AT25">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6757,25 +6757,25 @@
         <v>1.7</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AS26">
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6969,10 +6969,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7172,22 +7172,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.72</v>
+        <v>2.22</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7375,25 +7375,25 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>1.72</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -7590,16 +7590,16 @@
         <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7790,22 +7790,22 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31">
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>1.39</v>
+        <v>3.01</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7999,19 +7999,19 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
       </c>
       <c r="AR32">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -8199,25 +8199,25 @@
         <v>1.72</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR33">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AT33">
-        <v>2.47</v>
+        <v>3.34</v>
       </c>
       <c r="AU33">
         <v>11</v>
@@ -8405,25 +8405,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
+        <v>1.06</v>
+      </c>
+      <c r="AQ34">
         <v>1.5</v>
       </c>
-      <c r="AQ34">
-        <v>0.63</v>
-      </c>
       <c r="AR34">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8611,25 +8611,25 @@
         <v>2.1</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR35">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="AS35">
         <v>1.47</v>
       </c>
       <c r="AT35">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8823,19 +8823,19 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ36">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR36">
+        <v>1.52</v>
+      </c>
+      <c r="AS36">
         <v>1.23</v>
       </c>
-      <c r="AS36">
-        <v>0.89</v>
-      </c>
       <c r="AT36">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -9023,25 +9023,25 @@
         <v>1.52</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR37">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="AS37">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -9229,25 +9229,25 @@
         <v>1.65</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -9435,25 +9435,25 @@
         <v>1.98</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AS39">
-        <v>0.45</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1.95</v>
+        <v>2.59</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9641,25 +9641,25 @@
         <v>1.95</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AS40">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>2.69</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9847,25 +9847,25 @@
         <v>1.82</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
+        <v>1.63</v>
+      </c>
+      <c r="AR41">
         <v>1.38</v>
       </c>
-      <c r="AR41">
-        <v>1.65</v>
-      </c>
       <c r="AS41">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT41">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -10053,25 +10053,25 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR42">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AS42">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT42">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -10271,13 +10271,13 @@
         <v>0.5</v>
       </c>
       <c r="AR43">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="AS43">
         <v>1.11</v>
       </c>
       <c r="AT43">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10468,22 +10468,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR44">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AS44">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>3.19</v>
+        <v>2.74</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10671,25 +10671,25 @@
         <v>2.55</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AS45">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="AT45">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10883,19 +10883,19 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ46">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR46">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AS46">
-        <v>0.47</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>1.39</v>
+        <v>2.13</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -11083,25 +11083,25 @@
         <v>1.71</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AT47">
-        <v>1.67</v>
+        <v>2.74</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11289,25 +11289,25 @@
         <v>1.6</v>
       </c>
       <c r="AN48">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR48">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS48">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT48">
-        <v>3.14</v>
+        <v>2.96</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11495,25 +11495,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AT49">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11701,25 +11701,25 @@
         <v>1.63</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR50">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AS50">
-        <v>0.73</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
-        <v>2.03</v>
+        <v>2.52</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11907,25 +11907,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO51">
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
       </c>
       <c r="AR51">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AS51">
         <v>1.19</v>
       </c>
       <c r="AT51">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -12113,25 +12113,25 @@
         <v>2.1</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="AS52">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AT52">
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12322,22 +12322,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AS53">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT53">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12525,25 +12525,25 @@
         <v>1.65</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO54">
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR54">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AS54">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="AT54">
-        <v>4.4</v>
+        <v>3.62</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -12731,25 +12731,25 @@
         <v>1.68</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55">
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="AS55">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="AT55">
-        <v>3.37</v>
+        <v>2.68</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12937,25 +12937,25 @@
         <v>1.47</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
-        <v>2.14</v>
+        <v>1.36</v>
       </c>
       <c r="AS56">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="AT56">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13143,25 +13143,25 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR57">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>0.99</v>
+        <v>1.47</v>
       </c>
       <c r="AT57">
-        <v>2.54</v>
+        <v>3.01</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -13349,25 +13349,25 @@
         <v>1.73</v>
       </c>
       <c r="AN58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="AS58">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU58">
         <v>12</v>
@@ -13558,22 +13558,22 @@
         <v>3</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>2.76</v>
+        <v>3.37</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13761,25 +13761,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO60">
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AS60">
-        <v>0.73</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13967,25 +13967,25 @@
         <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO61">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR61">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -14173,25 +14173,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="AR62">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AS62">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14379,25 +14379,25 @@
         <v>1.87</v>
       </c>
       <c r="AN63">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS63">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -14585,25 +14585,25 @@
         <v>2.25</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO64">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AS64">
-        <v>0.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT64">
-        <v>2.5</v>
+        <v>3.23</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14794,22 +14794,22 @@
         <v>2</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AS65">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14997,25 +14997,25 @@
         <v>1.98</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR66">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS66">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT66">
-        <v>2.61</v>
+        <v>2.46</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15203,25 +15203,25 @@
         <v>1.98</v>
       </c>
       <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>1.5</v>
       </c>
-      <c r="AO67">
-        <v>1</v>
-      </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
+        <v>1.49</v>
+      </c>
+      <c r="AS67">
         <v>1.65</v>
       </c>
-      <c r="AS67">
-        <v>1.8</v>
-      </c>
       <c r="AT67">
-        <v>3.45</v>
+        <v>3.14</v>
       </c>
       <c r="AU67">
         <v>11</v>
@@ -15409,25 +15409,25 @@
         <v>1.65</v>
       </c>
       <c r="AN68">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO68">
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR68">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AS68">
-        <v>0.97</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>2.45</v>
+        <v>3.01</v>
       </c>
       <c r="AU68">
         <v>9</v>
@@ -15615,25 +15615,25 @@
         <v>1.39</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR69">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AS69">
-        <v>0.93</v>
+        <v>1.34</v>
       </c>
       <c r="AT69">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15821,25 +15821,25 @@
         <v>2.25</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO70">
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
       </c>
       <c r="AR70">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="AS70">
         <v>1.12</v>
       </c>
       <c r="AT70">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -16027,25 +16027,25 @@
         <v>1.9</v>
       </c>
       <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
         <v>1</v>
       </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
-        <v>1.88</v>
+        <v>1.16</v>
       </c>
       <c r="AS71">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AT71">
-        <v>3.15</v>
+        <v>2.29</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16236,22 +16236,22 @@
         <v>1.5</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS72">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT72">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="AU72">
         <v>3</v>
@@ -16439,25 +16439,25 @@
         <v>2.1</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
       </c>
       <c r="AR73">
-        <v>2.23</v>
+        <v>1.79</v>
       </c>
       <c r="AS73">
-        <v>0.61</v>
+        <v>1.24</v>
       </c>
       <c r="AT73">
-        <v>2.84</v>
+        <v>3.03</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16648,22 +16648,22 @@
         <v>3</v>
       </c>
       <c r="AO74">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP74">
         <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR74">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS74">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16854,22 +16854,22 @@
         <v>1.5</v>
       </c>
       <c r="AO75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR75">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="AT75">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -17057,25 +17057,25 @@
         <v>1.47</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO76">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="AS76">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17263,25 +17263,25 @@
         <v>1.39</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO77">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AP77">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ77">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR77">
-        <v>0.9</v>
+        <v>1.11</v>
       </c>
       <c r="AS77">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="AT77">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17469,25 +17469,25 @@
         <v>1.61</v>
       </c>
       <c r="AN78">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO78">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR78">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AS78">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AT78">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17675,25 +17675,25 @@
         <v>2.65</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ79">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR79">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AS79">
         <v>1.73</v>
       </c>
       <c r="AT79">
-        <v>2.88</v>
+        <v>3.11</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17881,25 +17881,25 @@
         <v>1.51</v>
       </c>
       <c r="AN80">
+        <v>1.2</v>
+      </c>
+      <c r="AO80">
+        <v>1.8</v>
+      </c>
+      <c r="AP80">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ80">
+        <v>1.75</v>
+      </c>
+      <c r="AR80">
+        <v>1.72</v>
+      </c>
+      <c r="AS80">
         <v>1.67</v>
       </c>
-      <c r="AO80">
-        <v>2</v>
-      </c>
-      <c r="AP80">
-        <v>1.11</v>
-      </c>
-      <c r="AQ80">
-        <v>1.71</v>
-      </c>
-      <c r="AR80">
-        <v>1.6</v>
-      </c>
-      <c r="AS80">
-        <v>1.05</v>
-      </c>
       <c r="AT80">
-        <v>2.65</v>
+        <v>3.39</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -18087,25 +18087,25 @@
         <v>1.66</v>
       </c>
       <c r="AN81">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP81">
+        <v>1.06</v>
+      </c>
+      <c r="AQ81">
         <v>1.5</v>
       </c>
-      <c r="AQ81">
-        <v>0.86</v>
-      </c>
       <c r="AR81">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS81">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="AT81">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18293,25 +18293,25 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO82">
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
       </c>
       <c r="AR82">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="AS82">
         <v>1.12</v>
       </c>
       <c r="AT82">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18499,25 +18499,25 @@
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR83">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS83">
-        <v>0.91</v>
+        <v>1.38</v>
       </c>
       <c r="AT83">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18705,25 +18705,25 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO84">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ84">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="AS84">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT84">
-        <v>3.71</v>
+        <v>3.19</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18911,22 +18911,22 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO85">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR85">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AS85">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AT85">
         <v>3.22</v>
@@ -19117,25 +19117,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO86">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR86">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AS86">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="AT86">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19323,25 +19323,25 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO87">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR87">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="AS87">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="AT87">
-        <v>2.96</v>
+        <v>3.13</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19529,25 +19529,25 @@
         <v>1.57</v>
       </c>
       <c r="AN88">
+        <v>1.2</v>
+      </c>
+      <c r="AO88">
         <v>1</v>
       </c>
-      <c r="AO88">
-        <v>0</v>
-      </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR88">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="AS88">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="AT88">
-        <v>3.51</v>
+        <v>3.69</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19735,25 +19735,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO89">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP89">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>3.08</v>
+        <v>2.74</v>
       </c>
       <c r="AU89">
         <v>3</v>
@@ -19941,25 +19941,25 @@
         <v>1.78</v>
       </c>
       <c r="AN90">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP90">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS90">
-        <v>0.68</v>
+        <v>1.15</v>
       </c>
       <c r="AT90">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -20147,25 +20147,25 @@
         <v>1.84</v>
       </c>
       <c r="AN91">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO91">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR91">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AT91">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20356,22 +20356,22 @@
         <v>1</v>
       </c>
       <c r="AO92">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ92">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR92">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AS92">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT92">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20559,25 +20559,25 @@
         <v>2.32</v>
       </c>
       <c r="AN93">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AO93">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ93">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR93">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT93">
-        <v>3.08</v>
+        <v>2.89</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20768,22 +20768,22 @@
         <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR94">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AS94">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AT94">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20971,25 +20971,25 @@
         <v>2.35</v>
       </c>
       <c r="AN95">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO95">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ95">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AS95">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT95">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -21177,25 +21177,25 @@
         <v>2.36</v>
       </c>
       <c r="AN96">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO96">
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
         <v>0.5</v>
       </c>
       <c r="AR96">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="AS96">
         <v>1.24</v>
       </c>
       <c r="AT96">
-        <v>3.33</v>
+        <v>2.88</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21383,25 +21383,25 @@
         <v>2.03</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO97">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AP97">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR97">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AS97">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="AT97">
-        <v>3.14</v>
+        <v>2.82</v>
       </c>
       <c r="AU97">
         <v>8</v>
@@ -21592,22 +21592,22 @@
         <v>2</v>
       </c>
       <c r="AO98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT98">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="AU98">
         <v>2</v>
@@ -21795,25 +21795,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AO99">
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ99">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR99">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AS99">
-        <v>0.9399999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AT99">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -22001,25 +22001,25 @@
         <v>1.53</v>
       </c>
       <c r="AN100">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP100">
         <v>1.25</v>
       </c>
       <c r="AQ100">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR100">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AS100">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AT100">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22207,25 +22207,25 @@
         <v>2.05</v>
       </c>
       <c r="AN101">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AO101">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP101">
         <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS101">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AT101">
-        <v>2.67</v>
+        <v>3.21</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22413,25 +22413,25 @@
         <v>0</v>
       </c>
       <c r="AN102">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO102">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR102">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="AS102">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AT102">
-        <v>3.84</v>
+        <v>3.78</v>
       </c>
       <c r="AU102">
         <v>5</v>
@@ -22619,25 +22619,25 @@
         <v>1.68</v>
       </c>
       <c r="AN103">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR103">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="AS103">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AT103">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22825,25 +22825,25 @@
         <v>1.61</v>
       </c>
       <c r="AN104">
+        <v>1.17</v>
+      </c>
+      <c r="AO104">
         <v>1</v>
       </c>
-      <c r="AO104">
-        <v>0.5</v>
-      </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AS104">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="AT104">
-        <v>3.85</v>
+        <v>3.52</v>
       </c>
       <c r="AU104">
         <v>11</v>
@@ -23031,25 +23031,25 @@
         <v>2.75</v>
       </c>
       <c r="AN105">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AO105">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR105">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AS105">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AT105">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="AU105">
         <v>11</v>
@@ -23237,25 +23237,25 @@
         <v>1.42</v>
       </c>
       <c r="AN106">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AO106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP106">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR106">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AT106">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23443,25 +23443,25 @@
         <v>2.4</v>
       </c>
       <c r="AN107">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AO107">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR107">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS107">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT107">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23649,25 +23649,25 @@
         <v>1.95</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO108">
-        <v>0.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ108">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="AS108">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23855,25 +23855,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AO109">
-        <v>0.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP109">
         <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS109">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AT109">
-        <v>1.16</v>
+        <v>2.61</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -24061,25 +24061,25 @@
         <v>1.93</v>
       </c>
       <c r="AN110">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO110">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP110">
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AS110">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT110">
-        <v>3.06</v>
+        <v>3.28</v>
       </c>
       <c r="AU110">
         <v>12</v>
@@ -24267,25 +24267,25 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ111">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR111">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS111">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT111">
-        <v>3.02</v>
+        <v>3.37</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24473,25 +24473,25 @@
         <v>1.6</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO112">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR112">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="AS112">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AT112">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24679,25 +24679,25 @@
         <v>1.45</v>
       </c>
       <c r="AN113">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO113">
-        <v>0.25</v>
+        <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS113">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="AT113">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>1.95</v>
       </c>
       <c r="AN114">
+        <v>1.43</v>
+      </c>
+      <c r="AO114">
+        <v>1.29</v>
+      </c>
+      <c r="AP114">
         <v>1.75</v>
       </c>
-      <c r="AO114">
-        <v>1</v>
-      </c>
-      <c r="AP114">
-        <v>2.22</v>
-      </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="AT114">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="AU114">
         <v>8</v>
@@ -25091,25 +25091,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO115">
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR115">
-        <v>1.76</v>
+        <v>1.27</v>
       </c>
       <c r="AS115">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AT115">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25297,25 +25297,25 @@
         <v>1.77</v>
       </c>
       <c r="AN116">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP116">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AS116">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AT116">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25503,25 +25503,25 @@
         <v>2.62</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AO117">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AP117">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR117">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AS117">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="AT117">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25709,25 +25709,25 @@
         <v>1.7</v>
       </c>
       <c r="AN118">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AO118">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP118">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AR118">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AS118">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT118">
-        <v>3.09</v>
+        <v>2.85</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25915,25 +25915,25 @@
         <v>1.45</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO119">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP119">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR119">
-        <v>0.98</v>
+        <v>1.48</v>
       </c>
       <c r="AS119">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT119">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="AU119">
         <v>8</v>
@@ -26121,25 +26121,25 @@
         <v>1.53</v>
       </c>
       <c r="AN120">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO120">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP120">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ120">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR120">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AS120">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="AT120">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26327,25 +26327,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO121">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR121">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS121">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT121">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26533,25 +26533,25 @@
         <v>1.68</v>
       </c>
       <c r="AN122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO122">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ122">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR122">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AS122">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT122">
-        <v>3.44</v>
+        <v>3.18</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26739,25 +26739,25 @@
         <v>2.1</v>
       </c>
       <c r="AN123">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AO123">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP123">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR123">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="AS123">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AT123">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="AU123">
         <v>7</v>
@@ -26945,25 +26945,25 @@
         <v>1.93</v>
       </c>
       <c r="AN124">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AP124">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AS124">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="AT124">
-        <v>3.52</v>
+        <v>3.07</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27151,25 +27151,25 @@
         <v>1.85</v>
       </c>
       <c r="AN125">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO125">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ125">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AS125">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AT125">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27357,25 +27357,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO126">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP126">
         <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR126">
-        <v>1.94</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AT126">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU126">
         <v>11</v>
@@ -27566,22 +27566,22 @@
         <v>1</v>
       </c>
       <c r="AO127">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AQ127">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="AT127">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AU127">
         <v>9</v>
@@ -27769,25 +27769,25 @@
         <v>0</v>
       </c>
       <c r="AN128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO128">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP128">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR128">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AS128">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AT128">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AU128">
         <v>14</v>
@@ -27975,25 +27975,25 @@
         <v>1.58</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO129">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR129">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AS129">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT129">
-        <v>2.74</v>
+        <v>3.12</v>
       </c>
       <c r="AU129">
         <v>13</v>
@@ -28190,16 +28190,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AS130">
-        <v>0.9</v>
+        <v>1.37</v>
       </c>
       <c r="AT130">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28387,25 +28387,25 @@
         <v>2</v>
       </c>
       <c r="AN131">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="AO131">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AP131">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR131">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AS131">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT131">
-        <v>3.16</v>
+        <v>2.82</v>
       </c>
       <c r="AU131">
         <v>10</v>
@@ -28596,22 +28596,22 @@
         <v>1</v>
       </c>
       <c r="AO132">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AP132">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ132">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR132">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="AS132">
         <v>1.99</v>
       </c>
       <c r="AT132">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28799,25 +28799,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO133">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ133">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR133">
+        <v>1.52</v>
+      </c>
+      <c r="AS133">
         <v>1.14</v>
       </c>
-      <c r="AR133">
-        <v>1.25</v>
-      </c>
-      <c r="AS133">
-        <v>1.17</v>
-      </c>
       <c r="AT133">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -29008,22 +29008,22 @@
         <v>1.75</v>
       </c>
       <c r="AO134">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ134">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR134">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AT134">
-        <v>2.42</v>
+        <v>2.69</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29211,25 +29211,25 @@
         <v>1.7</v>
       </c>
       <c r="AN135">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ135">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR135">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="AS135">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AT135">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29417,25 +29417,25 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO136">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AP136">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ136">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AS136">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AT136">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU136">
         <v>8</v>
@@ -29623,25 +29623,25 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AO137">
-        <v>0.4</v>
+        <v>1.22</v>
       </c>
       <c r="AP137">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AS137">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="AT137">
-        <v>2.24</v>
+        <v>2.49</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29829,25 +29829,25 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO138">
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ138">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AS138">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AT138">
-        <v>3.65</v>
+        <v>3.46</v>
       </c>
       <c r="AU138">
         <v>6</v>
@@ -30035,25 +30035,25 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO139">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.5</v>
       </c>
       <c r="AR139">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AS139">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AT139">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU139">
         <v>6</v>
@@ -30241,25 +30241,25 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AO140">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="AR140">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="AS140">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30447,25 +30447,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>3</v>
+        <v>2.11</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR141">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AS141">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT141">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="AU141">
         <v>6</v>
@@ -30653,25 +30653,25 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP142">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR142">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AS142">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="AT142">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30859,25 +30859,25 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO143">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ143">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AS143">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AT143">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31065,25 +31065,25 @@
         <v>1.77</v>
       </c>
       <c r="AN144">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AO144">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP144">
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AT144">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31271,25 +31271,25 @@
         <v>1.93</v>
       </c>
       <c r="AN145">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AO145">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AP145">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR145">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AT145">
-        <v>3.62</v>
+        <v>3.36</v>
       </c>
       <c r="AU145">
         <v>8</v>
@@ -31477,25 +31477,25 @@
         <v>0</v>
       </c>
       <c r="AN146">
+        <v>1.67</v>
+      </c>
+      <c r="AO146">
+        <v>1.33</v>
+      </c>
+      <c r="AP146">
+        <v>1.38</v>
+      </c>
+      <c r="AQ146">
+        <v>1.63</v>
+      </c>
+      <c r="AR146">
+        <v>1.37</v>
+      </c>
+      <c r="AS146">
         <v>1.75</v>
       </c>
-      <c r="AO146">
-        <v>0.8</v>
-      </c>
-      <c r="AP146">
-        <v>1.75</v>
-      </c>
-      <c r="AQ146">
-        <v>1</v>
-      </c>
-      <c r="AR146">
-        <v>1.83</v>
-      </c>
-      <c r="AS146">
-        <v>1.65</v>
-      </c>
       <c r="AT146">
-        <v>3.48</v>
+        <v>3.12</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31683,25 +31683,25 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO147">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AP147">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR147">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT147">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31889,25 +31889,25 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO148">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR148">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AS148">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AT148">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="AU148">
         <v>5</v>
@@ -32095,25 +32095,25 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR149">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS149">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="AT149">
-        <v>2.49</v>
+        <v>2.82</v>
       </c>
       <c r="AU149">
         <v>9</v>
@@ -32301,25 +32301,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
+        <v>0.33</v>
+      </c>
+      <c r="AO150">
+        <v>1.67</v>
+      </c>
+      <c r="AP150">
         <v>0.25</v>
       </c>
-      <c r="AO150">
-        <v>1.75</v>
-      </c>
-      <c r="AP150">
-        <v>0.29</v>
-      </c>
       <c r="AQ150">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AR150">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AS150">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AT150">
-        <v>2.89</v>
+        <v>2.71</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32507,25 +32507,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="AO151">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ151">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR151">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT151">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32713,25 +32713,25 @@
         <v>1.62</v>
       </c>
       <c r="AN152">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AO152">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ152">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR152">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AS152">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT152">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AU152">
         <v>3</v>
@@ -32919,25 +32919,25 @@
         <v>2.27</v>
       </c>
       <c r="AN153">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO153">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ153">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AS153">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33125,25 +33125,25 @@
         <v>0</v>
       </c>
       <c r="AN154">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AO154">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AP154">
         <v>0.5</v>
       </c>
       <c r="AQ154">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR154">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="AS154">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT154">
-        <v>3.88</v>
+        <v>3.14</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33331,25 +33331,25 @@
         <v>2.24</v>
       </c>
       <c r="AN155">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AO155">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP155">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ155">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AS155">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AT155">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU155">
         <v>11</v>
@@ -33537,25 +33537,25 @@
         <v>1.83</v>
       </c>
       <c r="AN156">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO156">
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR156">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AS156">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="AT156">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33743,25 +33743,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO157">
         <v>1.6</v>
       </c>
       <c r="AP157">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR157">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS157">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AT157">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU157">
         <v>5</v>
@@ -33949,25 +33949,25 @@
         <v>1.51</v>
       </c>
       <c r="AN158">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO158">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR158">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS158">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AT158">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AU158">
         <v>8</v>
@@ -34155,25 +34155,25 @@
         <v>0</v>
       </c>
       <c r="AN159">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO159">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ159">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR159">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AS159">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT159">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34361,7 +34361,7 @@
         <v>0</v>
       </c>
       <c r="AN160">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO160">
         <v>1.2</v>
@@ -34370,16 +34370,16 @@
         <v>2.13</v>
       </c>
       <c r="AQ160">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR160">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AT160">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="AU160">
         <v>7</v>
@@ -34567,25 +34567,25 @@
         <v>2.35</v>
       </c>
       <c r="AN161">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO161">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP161">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>1.25</v>
       </c>
       <c r="AR161">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AS161">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="AU161">
         <v>11</v>
@@ -34773,25 +34773,25 @@
         <v>0</v>
       </c>
       <c r="AN162">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP162">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ162">
+        <v>1.63</v>
+      </c>
+      <c r="AR162">
+        <v>2.02</v>
+      </c>
+      <c r="AS162">
         <v>1.38</v>
       </c>
-      <c r="AR162">
-        <v>2.1</v>
-      </c>
-      <c r="AS162">
-        <v>1.49</v>
-      </c>
       <c r="AT162">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="AU162">
         <v>10</v>
@@ -34979,25 +34979,25 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO163">
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ163">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR163">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS163">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AT163">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35185,25 +35185,25 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO164">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR164">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="AT164">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35391,25 +35391,25 @@
         <v>0</v>
       </c>
       <c r="AN165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AO165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AP165">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ165">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR165">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AS165">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT165">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35597,25 +35597,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AO166">
-        <v>0.25</v>
+        <v>0.91</v>
       </c>
       <c r="AP166">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AQ166">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="AR166">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AS166">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AT166">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="AU166">
         <v>8</v>
@@ -35803,25 +35803,25 @@
         <v>1.64</v>
       </c>
       <c r="AN167">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AO167">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AP167">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ167">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR167">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="AS167">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT167">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="AU167">
         <v>8</v>
@@ -36009,25 +36009,25 @@
         <v>1.6</v>
       </c>
       <c r="AN168">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AO168">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP168">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ168">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR168">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS168">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="AT168">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36215,25 +36215,25 @@
         <v>1.61</v>
       </c>
       <c r="AN169">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO169">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
       </c>
       <c r="AS169">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AT169">
-        <v>3.02</v>
+        <v>3.27</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36421,25 +36421,25 @@
         <v>2.3</v>
       </c>
       <c r="AN170">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO170">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP170">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ170">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR170">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AS170">
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="AU170">
         <v>9</v>
@@ -36627,25 +36627,25 @@
         <v>2.12</v>
       </c>
       <c r="AN171">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="AO171">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
       </c>
       <c r="AR171">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="AS171">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AT171">
-        <v>3.11</v>
+        <v>2.89</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36833,25 +36833,25 @@
         <v>2</v>
       </c>
       <c r="AN172">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AO172">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AP172">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR172">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AS172">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT172">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37039,25 +37039,25 @@
         <v>2.03</v>
       </c>
       <c r="AN173">
-        <v>2.17</v>
+        <v>1.36</v>
       </c>
       <c r="AO173">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AP173">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR173">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AS173">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT173">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU173">
         <v>11</v>
@@ -37245,25 +37245,25 @@
         <v>1.82</v>
       </c>
       <c r="AN174">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AO174">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP174">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AQ174">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR174">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="AS174">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT174">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37451,25 +37451,25 @@
         <v>1.44</v>
       </c>
       <c r="AN175">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="AO175">
-        <v>0.83</v>
+        <v>1.45</v>
       </c>
       <c r="AP175">
         <v>1.25</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR175">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="AS175">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AT175">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU175">
         <v>5</v>
@@ -37657,25 +37657,25 @@
         <v>1.97</v>
       </c>
       <c r="AN176">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="AO176">
-        <v>0.8</v>
+        <v>1.73</v>
       </c>
       <c r="AP176">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ176">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR176">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AS176">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AT176">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AU176">
         <v>8</v>
@@ -37863,25 +37863,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO177">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="AP177">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ177">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR177">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="AS177">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
-        <v>3.33</v>
+        <v>3.05</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -38069,25 +38069,25 @@
         <v>1.97</v>
       </c>
       <c r="AN178">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AO178">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ178">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR178">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AS178">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="AT178">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38275,25 +38275,25 @@
         <v>2.07</v>
       </c>
       <c r="AN179">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AO179">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ179">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR179">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AS179">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT179">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38481,25 +38481,25 @@
         <v>1.79</v>
       </c>
       <c r="AN180">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AO180">
-        <v>0.8</v>
+        <v>1.55</v>
       </c>
       <c r="AP180">
         <v>2.13</v>
       </c>
       <c r="AQ180">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR180">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT180">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="AU180">
         <v>6</v>
@@ -38687,25 +38687,25 @@
         <v>1.6</v>
       </c>
       <c r="AN181">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO181">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="AP181">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ181">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS181">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
-        <v>2.55</v>
+        <v>3.08</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38893,25 +38893,25 @@
         <v>1.35</v>
       </c>
       <c r="AN182">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO182">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AP182">
         <v>0.5</v>
       </c>
       <c r="AQ182">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR182">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="AS182">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AT182">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -39099,25 +39099,25 @@
         <v>1.81</v>
       </c>
       <c r="AN183">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO183">
-        <v>0.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP183">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR183">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="AS183">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT183">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39305,25 +39305,25 @@
         <v>2.47</v>
       </c>
       <c r="AN184">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO184">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ184">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="AR184">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AS184">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT184">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="AU184">
         <v>10</v>
@@ -39514,22 +39514,22 @@
         <v>0.83</v>
       </c>
       <c r="AO185">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="AP185">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ185">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AR185">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AS185">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT185">
-        <v>3.01</v>
+        <v>2.95</v>
       </c>
       <c r="AU185">
         <v>0</v>
@@ -39717,25 +39717,25 @@
         <v>1.9</v>
       </c>
       <c r="AN186">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO186">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ186">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR186">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="AS186">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AT186">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU186">
         <v>8</v>
@@ -39923,7 +39923,7 @@
         <v>1.55</v>
       </c>
       <c r="AN187">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO187">
         <v>1.83</v>
@@ -39932,16 +39932,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ187">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR187">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="AS187">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AT187">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40132,22 +40132,22 @@
         <v>0.83</v>
       </c>
       <c r="AO188">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP188">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AQ188">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR188">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="AS188">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AT188">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40335,25 +40335,25 @@
         <v>1.67</v>
       </c>
       <c r="AN189">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO189">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="AP189">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ189">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="AR189">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AS189">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT189">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="AU189">
         <v>6</v>
@@ -40541,25 +40541,25 @@
         <v>1.85</v>
       </c>
       <c r="AN190">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AO190">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ190">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AR190">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS190">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AT190">
-        <v>3.06</v>
+        <v>2.96</v>
       </c>
       <c r="AU190">
         <v>3</v>
@@ -40747,25 +40747,25 @@
         <v>1.57</v>
       </c>
       <c r="AN191">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO191">
-        <v>1.14</v>
+        <v>1.58</v>
       </c>
       <c r="AP191">
-        <v>2.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR191">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AS191">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AT191">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40953,25 +40953,25 @@
         <v>0</v>
       </c>
       <c r="AN192">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO192">
         <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR192">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AS192">
-        <v>0.98</v>
+        <v>1.38</v>
       </c>
       <c r="AT192">
-        <v>2.73</v>
+        <v>3.09</v>
       </c>
       <c r="AU192">
         <v>7</v>
@@ -41159,25 +41159,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO193">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AP193">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR193">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="AS193">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT193">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="AU193">
         <v>6</v>
@@ -41365,25 +41365,25 @@
         <v>1.75</v>
       </c>
       <c r="AN194">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AO194">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AP194">
         <v>0.5</v>
       </c>
       <c r="AQ194">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR194">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AS194">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="AT194">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU194">
         <v>6</v>
@@ -41571,25 +41571,25 @@
         <v>1.57</v>
       </c>
       <c r="AN195">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO195">
-        <v>0.33</v>
+        <v>1.38</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR195">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="AS195">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AT195">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="AU195">
         <v>4</v>
@@ -41780,22 +41780,22 @@
         <v>2</v>
       </c>
       <c r="AO196">
+        <v>2.15</v>
+      </c>
+      <c r="AP196">
+        <v>1.75</v>
+      </c>
+      <c r="AQ196">
+        <v>1.88</v>
+      </c>
+      <c r="AR196">
+        <v>1.57</v>
+      </c>
+      <c r="AS196">
         <v>1.71</v>
       </c>
-      <c r="AP196">
-        <v>1.78</v>
-      </c>
-      <c r="AQ196">
-        <v>1.44</v>
-      </c>
-      <c r="AR196">
-        <v>1.74</v>
-      </c>
-      <c r="AS196">
-        <v>1.57</v>
-      </c>
       <c r="AT196">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="AU196">
         <v>14</v>
@@ -41983,25 +41983,25 @@
         <v>1.53</v>
       </c>
       <c r="AN197">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO197">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP197">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AQ197">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR197">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AS197">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AT197">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU197">
         <v>8</v>
@@ -42189,25 +42189,25 @@
         <v>1.62</v>
       </c>
       <c r="AN198">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="AO198">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP198">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ198">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR198">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AS198">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AT198">
-        <v>3.28</v>
+        <v>3.03</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42395,25 +42395,25 @@
         <v>1.75</v>
       </c>
       <c r="AN199">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO199">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AP199">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AQ199">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR199">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AS199">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="AT199">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="AU199">
         <v>6</v>
@@ -42601,25 +42601,25 @@
         <v>2.55</v>
       </c>
       <c r="AN200">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AO200">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AP200">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ200">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR200">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AS200">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AT200">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="AU200">
         <v>14</v>
@@ -42807,25 +42807,25 @@
         <v>2.3</v>
       </c>
       <c r="AN201">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="AO201">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP201">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AQ201">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR201">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AS201">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="AT201">
-        <v>3.73</v>
+        <v>3.31</v>
       </c>
       <c r="AU201">
         <v>8</v>
@@ -43013,25 +43013,25 @@
         <v>1.45</v>
       </c>
       <c r="AN202">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="AO202">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AP202">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ202">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR202">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="AS202">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AT202">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="AU202">
         <v>10</v>
@@ -43219,25 +43219,25 @@
         <v>1.62</v>
       </c>
       <c r="AN203">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO203">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP203">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AQ203">
         <v>1.25</v>
       </c>
       <c r="AR203">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="AS203">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="AT203">
-        <v>2.07</v>
+        <v>2.66</v>
       </c>
       <c r="AU203">
         <v>9</v>
@@ -43425,25 +43425,25 @@
         <v>1.65</v>
       </c>
       <c r="AN204">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AO204">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP204">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ204">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR204">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="AS204">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT204">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
       <c r="AU204">
         <v>5</v>
@@ -43631,25 +43631,25 @@
         <v>1.5</v>
       </c>
       <c r="AN205">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AO205">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AP205">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR205">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AS205">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="AT205">
-        <v>2.81</v>
+        <v>3.16</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43837,25 +43837,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO206">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ206">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AR206">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="AS206">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AT206">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="AU206">
         <v>7</v>
@@ -44046,22 +44046,22 @@
         <v>1.83</v>
       </c>
       <c r="AO207">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AP207">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AR207">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS207">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AT207">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44249,25 +44249,25 @@
         <v>1.45</v>
       </c>
       <c r="AN208">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AO208">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AP208">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ208">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR208">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AS208">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AT208">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44455,25 +44455,25 @@
         <v>2.65</v>
       </c>
       <c r="AN209">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="AO209">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="AP209">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ209">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR209">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="AS209">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AT209">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44661,25 +44661,25 @@
         <v>0</v>
       </c>
       <c r="AN210">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AO210">
+        <v>0.29</v>
+      </c>
+      <c r="AP210">
+        <v>1.69</v>
+      </c>
+      <c r="AQ210">
         <v>0.25</v>
       </c>
-      <c r="AP210">
-        <v>2</v>
-      </c>
-      <c r="AQ210">
-        <v>0.22</v>
-      </c>
       <c r="AR210">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AS210">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AT210">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44867,25 +44867,25 @@
         <v>1.45</v>
       </c>
       <c r="AN211">
-        <v>2.14</v>
+        <v>1.36</v>
       </c>
       <c r="AO211">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AP211">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ211">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR211">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AS211">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="AT211">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="AU211">
         <v>10</v>
@@ -45073,25 +45073,25 @@
         <v>1.53</v>
       </c>
       <c r="AN212">
+        <v>1</v>
+      </c>
+      <c r="AO212">
         <v>1.29</v>
       </c>
-      <c r="AO212">
-        <v>0.29</v>
-      </c>
       <c r="AP212">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ212">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR212">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AS212">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AT212">
-        <v>2.55</v>
+        <v>2.91</v>
       </c>
       <c r="AU212">
         <v>3</v>
@@ -45279,25 +45279,25 @@
         <v>1.28</v>
       </c>
       <c r="AN213">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO213">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="AP213">
         <v>0.5</v>
       </c>
       <c r="AQ213">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="AR213">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS213">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AT213">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="AU213">
         <v>8</v>
@@ -45485,25 +45485,25 @@
         <v>2.15</v>
       </c>
       <c r="AN214">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO214">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AP214">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="AQ214">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AR214">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AS214">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AT214">
-        <v>3.5</v>
+        <v>3.07</v>
       </c>
       <c r="AU214">
         <v>7</v>
@@ -45691,25 +45691,25 @@
         <v>1.62</v>
       </c>
       <c r="AN215">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="AO215">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ215">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR215">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AS215">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AT215">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="AU215">
         <v>9</v>
@@ -45897,25 +45897,25 @@
         <v>1.42</v>
       </c>
       <c r="AN216">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AO216">
-        <v>0.8</v>
+        <v>1.71</v>
       </c>
       <c r="AP216">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ216">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR216">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AS216">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AT216">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="AU216">
         <v>5</v>
@@ -46103,25 +46103,25 @@
         <v>1.65</v>
       </c>
       <c r="AN217">
-        <v>1.17</v>
+        <v>0.86</v>
       </c>
       <c r="AO217">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP217">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="AQ217">
+        <v>1.43</v>
+      </c>
+      <c r="AR217">
         <v>1.44</v>
       </c>
-      <c r="AR217">
-        <v>1.58</v>
-      </c>
       <c r="AS217">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT217">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46309,25 +46309,25 @@
         <v>2</v>
       </c>
       <c r="AN218">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AO218">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP218">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR218">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AS218">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AT218">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="AU218">
         <v>7</v>
@@ -46515,25 +46515,25 @@
         <v>1.53</v>
       </c>
       <c r="AN219">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO219">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AP219">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ219">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AR219">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AS219">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AT219">
-        <v>3.08</v>
+        <v>3.32</v>
       </c>
       <c r="AU219">
         <v>4</v>
@@ -46721,25 +46721,25 @@
         <v>1.85</v>
       </c>
       <c r="AN220">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AO220">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="AP220">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ220">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AR220">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AS220">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="AT220">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -46927,25 +46927,25 @@
         <v>1.77</v>
       </c>
       <c r="AN221">
+        <v>1.29</v>
+      </c>
+      <c r="AO221">
+        <v>1.14</v>
+      </c>
+      <c r="AP221">
         <v>1.38</v>
-      </c>
-      <c r="AO221">
-        <v>1</v>
-      </c>
-      <c r="AP221">
-        <v>1.33</v>
       </c>
       <c r="AQ221">
         <v>1.25</v>
       </c>
       <c r="AR221">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="AS221">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="AT221">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="AU221">
         <v>9</v>
@@ -47133,25 +47133,25 @@
         <v>1.77</v>
       </c>
       <c r="AN222">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO222">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AP222">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR222">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="AS222">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AT222">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="AU222">
         <v>9</v>
@@ -47339,25 +47339,25 @@
         <v>1.53</v>
       </c>
       <c r="AN223">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AO223">
-        <v>1.63</v>
+        <v>2.07</v>
       </c>
       <c r="AP223">
+        <v>1.06</v>
+      </c>
+      <c r="AQ223">
+        <v>1.88</v>
+      </c>
+      <c r="AR223">
         <v>1.5</v>
       </c>
-      <c r="AQ223">
-        <v>1.44</v>
-      </c>
-      <c r="AR223">
-        <v>1.57</v>
-      </c>
       <c r="AS223">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="AT223">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47545,25 +47545,25 @@
         <v>1.52</v>
       </c>
       <c r="AN224">
-        <v>1.33</v>
+        <v>0.93</v>
       </c>
       <c r="AO224">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AP224">
+        <v>1.06</v>
+      </c>
+      <c r="AQ224">
+        <v>1.69</v>
+      </c>
+      <c r="AR224">
         <v>1.5</v>
       </c>
-      <c r="AQ224">
-        <v>1.25</v>
-      </c>
-      <c r="AR224">
-        <v>1.56</v>
-      </c>
       <c r="AS224">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AT224">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="AU224">
         <v>3</v>
@@ -47751,25 +47751,25 @@
         <v>2.2</v>
       </c>
       <c r="AN225">
-        <v>2.67</v>
+        <v>1.93</v>
       </c>
       <c r="AO225">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP225">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ225">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="AR225">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="AS225">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT225">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -47957,25 +47957,25 @@
         <v>1.62</v>
       </c>
       <c r="AN226">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AO226">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AP226">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ226">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AR226">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AS226">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT226">
-        <v>2.67</v>
+        <v>2.83</v>
       </c>
       <c r="AU226">
         <v>16</v>
@@ -48163,25 +48163,25 @@
         <v>2.65</v>
       </c>
       <c r="AN227">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO227">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AP227">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ227">
         <v>0.5</v>
       </c>
       <c r="AR227">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS227">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AT227">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48369,25 +48369,25 @@
         <v>1.88</v>
       </c>
       <c r="AN228">
-        <v>2.29</v>
+        <v>1.4</v>
       </c>
       <c r="AO228">
-        <v>0.57</v>
+        <v>1.47</v>
       </c>
       <c r="AP228">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ228">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR228">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AS228">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AT228">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU228">
         <v>5</v>
@@ -48575,25 +48575,25 @@
         <v>1.8</v>
       </c>
       <c r="AN229">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AO229">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ229">
         <v>1.25</v>
       </c>
       <c r="AR229">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AS229">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="AT229">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AU229">
         <v>3</v>
@@ -48781,25 +48781,25 @@
         <v>1.41</v>
       </c>
       <c r="AN230">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AO230">
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ230">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="AR230">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AS230">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT230">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="AU230">
         <v>5</v>
@@ -48987,25 +48987,25 @@
         <v>2.05</v>
       </c>
       <c r="AN231">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AO231">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="AP231">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ231">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AR231">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AS231">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AT231">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49193,25 +49193,25 @@
         <v>0</v>
       </c>
       <c r="AN232">
-        <v>2.33</v>
+        <v>1.53</v>
       </c>
       <c r="AO232">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP232">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ232">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AR232">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="AS232">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AT232">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49399,25 +49399,25 @@
         <v>1.75</v>
       </c>
       <c r="AN233">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO233">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AP233">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ233">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR233">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AS233">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT233">
-        <v>3.24</v>
+        <v>2.94</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49605,25 +49605,25 @@
         <v>1.77</v>
       </c>
       <c r="AN234">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AO234">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AP234">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ234">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR234">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AS234">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="AT234">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49811,25 +49811,25 @@
         <v>2.1</v>
       </c>
       <c r="AN235">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AO235">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="AP235">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AQ235">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AR235">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AS235">
-        <v>0.97</v>
+        <v>1.34</v>
       </c>
       <c r="AT235">
-        <v>2.21</v>
+        <v>2.72</v>
       </c>
       <c r="AU235">
         <v>9</v>
@@ -50017,25 +50017,25 @@
         <v>1.62</v>
       </c>
       <c r="AN236">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="AO236">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AP236">
         <v>2.13</v>
       </c>
       <c r="AQ236">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AR236">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AS236">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AT236">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AU236">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,12 @@
     <t>['59', '76']</t>
   </si>
   <si>
+    <t>['45+2', '90+2']</t>
+  </si>
+  <si>
+    <t>['27', '41']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1121,6 +1127,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['54', '87']</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP236"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1947,7 +1959,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2028,7 +2040,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2153,7 +2165,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2565,7 +2577,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2771,7 +2783,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2977,7 +2989,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3389,7 +3401,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3673,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>1.43</v>
@@ -3879,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -4085,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -4213,7 +4225,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4419,7 +4431,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4625,7 +4637,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5243,7 +5255,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5530,7 +5542,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR20">
         <v>1.67</v>
@@ -5655,7 +5667,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -6067,7 +6079,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6273,7 +6285,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6354,7 +6366,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>0.89</v>
@@ -6685,7 +6697,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6972,7 +6984,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7384,7 +7396,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>1.49</v>
@@ -7715,7 +7727,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -8127,7 +8139,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8951,7 +8963,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9235,7 +9247,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ38">
         <v>1.69</v>
@@ -9569,7 +9581,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9853,7 +9865,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>1.63</v>
@@ -9981,7 +9993,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10471,7 +10483,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ44">
         <v>1.69</v>
@@ -10805,7 +10817,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10886,7 +10898,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>0.83</v>
@@ -11011,7 +11023,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11217,7 +11229,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -12041,7 +12053,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12119,7 +12131,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -12247,7 +12259,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12659,7 +12671,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12943,7 +12955,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>1.63</v>
@@ -13277,7 +13289,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13355,7 +13367,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>1.38</v>
@@ -13483,7 +13495,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13564,7 +13576,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR59">
         <v>1.7</v>
@@ -13895,7 +13907,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14101,7 +14113,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14307,7 +14319,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14513,7 +14525,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14594,7 +14606,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.39</v>
@@ -14800,7 +14812,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -15418,7 +15430,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.61</v>
@@ -15543,7 +15555,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15827,7 +15839,7 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15955,7 +15967,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16161,7 +16173,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16573,7 +16585,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16985,7 +16997,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17809,7 +17821,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18015,7 +18027,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18096,7 +18108,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -18221,7 +18233,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18839,7 +18851,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18917,7 +18929,7 @@
         <v>1.4</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.88</v>
@@ -19045,7 +19057,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19251,7 +19263,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19535,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>1.63</v>
@@ -19741,7 +19753,7 @@
         <v>1.8</v>
       </c>
       <c r="AP89">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -19869,7 +19881,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20156,7 +20168,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR91">
         <v>1.4</v>
@@ -20487,7 +20499,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21105,7 +21117,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21804,7 +21816,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ99">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR99">
         <v>1.48</v>
@@ -22547,7 +22559,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22625,7 +22637,7 @@
         <v>1.83</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ103">
         <v>1.69</v>
@@ -22753,7 +22765,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22831,7 +22843,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
         <v>0.9399999999999999</v>
@@ -22959,7 +22971,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23989,7 +24001,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24195,7 +24207,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24479,7 +24491,7 @@
         <v>1.86</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ112">
         <v>2.06</v>
@@ -24813,7 +24825,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24891,7 +24903,7 @@
         <v>1.29</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
         <v>0.9399999999999999</v>
@@ -25019,7 +25031,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25431,7 +25443,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25512,7 +25524,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ117">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR117">
         <v>1.27</v>
@@ -25637,7 +25649,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -26049,7 +26061,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26127,7 +26139,7 @@
         <v>2.14</v>
       </c>
       <c r="AP120">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120">
         <v>1.75</v>
@@ -26461,7 +26473,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26748,7 +26760,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ123">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR123">
         <v>1.77</v>
@@ -26873,7 +26885,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27572,7 +27584,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.17</v>
@@ -27903,7 +27915,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28109,7 +28121,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28599,7 +28611,7 @@
         <v>2.38</v>
       </c>
       <c r="AP132">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ132">
         <v>2.13</v>
@@ -28933,7 +28945,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29139,7 +29151,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29217,7 +29229,7 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135">
         <v>0.87</v>
@@ -29632,7 +29644,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR137">
         <v>1.05</v>
@@ -30375,7 +30387,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30662,7 +30674,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR142">
         <v>1.51</v>
@@ -30787,7 +30799,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -31199,7 +31211,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31277,7 +31289,7 @@
         <v>1.33</v>
       </c>
       <c r="AP145">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ145">
         <v>1.36</v>
@@ -31405,7 +31417,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31611,7 +31623,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31817,7 +31829,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -32023,7 +32035,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32104,7 +32116,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ149">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR149">
         <v>1.45</v>
@@ -32229,7 +32241,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32435,7 +32447,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32516,7 +32528,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ151">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -32641,7 +32653,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32847,7 +32859,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33053,7 +33065,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33259,7 +33271,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33465,7 +33477,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33671,7 +33683,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -34289,7 +34301,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34701,7 +34713,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34779,7 +34791,7 @@
         <v>1.8</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
         <v>1.63</v>
@@ -34988,7 +35000,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ163">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR163">
         <v>1.68</v>
@@ -35191,7 +35203,7 @@
         <v>2.2</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ164">
         <v>1.88</v>
@@ -35731,7 +35743,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36143,7 +36155,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36349,7 +36361,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36555,7 +36567,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36633,7 +36645,7 @@
         <v>0.27</v>
       </c>
       <c r="AP171">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ171">
         <v>0.5</v>
@@ -36761,7 +36773,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -37173,7 +37185,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37379,7 +37391,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37585,7 +37597,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37663,7 +37675,7 @@
         <v>1.73</v>
       </c>
       <c r="AP176">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ176">
         <v>1.38</v>
@@ -37791,7 +37803,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -37869,7 +37881,7 @@
         <v>1.55</v>
       </c>
       <c r="AP177">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ177">
         <v>1.69</v>
@@ -37997,7 +38009,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38078,7 +38090,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ178">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR178">
         <v>1.37</v>
@@ -38409,7 +38421,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38696,7 +38708,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ181">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR181">
         <v>1.63</v>
@@ -38821,7 +38833,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -39027,7 +39039,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39233,7 +39245,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39645,7 +39657,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39723,7 +39735,7 @@
         <v>1.5</v>
       </c>
       <c r="AP186">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ186">
         <v>1.5</v>
@@ -40057,7 +40069,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40135,7 +40147,7 @@
         <v>0.83</v>
       </c>
       <c r="AP188">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ188">
         <v>0.87</v>
@@ -40263,7 +40275,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -41087,7 +41099,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41165,7 +41177,7 @@
         <v>1.91</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ193">
         <v>1.73</v>
@@ -41293,7 +41305,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41577,7 +41589,7 @@
         <v>1.38</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ195">
         <v>1.5</v>
@@ -41705,7 +41717,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41911,7 +41923,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -42117,7 +42129,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42404,7 +42416,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ199">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR199">
         <v>1.36</v>
@@ -42610,7 +42622,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ200">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR200">
         <v>1.56</v>
@@ -42813,7 +42825,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43147,7 +43159,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43559,7 +43571,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43971,7 +43983,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44795,7 +44807,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -45001,7 +45013,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45207,7 +45219,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45619,7 +45631,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45825,7 +45837,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -45906,7 +45918,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ216">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR216">
         <v>1.3</v>
@@ -46031,7 +46043,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46443,7 +46455,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46730,7 +46742,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ220">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR220">
         <v>1.33</v>
@@ -46855,7 +46867,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -46933,7 +46945,7 @@
         <v>1.14</v>
       </c>
       <c r="AP221">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ221">
         <v>1.25</v>
@@ -47061,7 +47073,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47139,7 +47151,7 @@
         <v>1.46</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222">
         <v>1.36</v>
@@ -47267,7 +47279,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47473,7 +47485,7 @@
         <v>249</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47679,7 +47691,7 @@
         <v>250</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48091,7 +48103,7 @@
         <v>251</v>
       </c>
       <c r="P227" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q227">
         <v>1.83</v>
@@ -48297,7 +48309,7 @@
         <v>252</v>
       </c>
       <c r="P228" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48503,7 +48515,7 @@
         <v>109</v>
       </c>
       <c r="P229" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q229">
         <v>2.5</v>
@@ -48581,7 +48593,7 @@
         <v>1.13</v>
       </c>
       <c r="AP229">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
         <v>1.25</v>
@@ -48709,7 +48721,7 @@
         <v>253</v>
       </c>
       <c r="P230" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q230">
         <v>3.25</v>
@@ -48915,7 +48927,7 @@
         <v>254</v>
       </c>
       <c r="P231" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q231">
         <v>2.4</v>
@@ -48996,7 +49008,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ231">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR231">
         <v>1.66</v>
@@ -49533,7 +49545,7 @@
         <v>109</v>
       </c>
       <c r="P234" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -49614,7 +49626,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ234">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR234">
         <v>1.31</v>
@@ -50102,6 +50114,418 @@
       </c>
       <c r="BP236">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7781311</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45808.64583333334</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>80</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>258</v>
+      </c>
+      <c r="P237" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q237">
+        <v>2.75</v>
+      </c>
+      <c r="R237">
+        <v>2.3</v>
+      </c>
+      <c r="S237">
+        <v>3.5</v>
+      </c>
+      <c r="T237">
+        <v>1.33</v>
+      </c>
+      <c r="U237">
+        <v>3.25</v>
+      </c>
+      <c r="V237">
+        <v>2.5</v>
+      </c>
+      <c r="W237">
+        <v>1.5</v>
+      </c>
+      <c r="X237">
+        <v>6.5</v>
+      </c>
+      <c r="Y237">
+        <v>1.11</v>
+      </c>
+      <c r="Z237">
+        <v>2.26</v>
+      </c>
+      <c r="AA237">
+        <v>3.33</v>
+      </c>
+      <c r="AB237">
+        <v>2.65</v>
+      </c>
+      <c r="AC237">
+        <v>1.05</v>
+      </c>
+      <c r="AD237">
+        <v>9.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.25</v>
+      </c>
+      <c r="AF237">
+        <v>3.95</v>
+      </c>
+      <c r="AG237">
+        <v>1.7</v>
+      </c>
+      <c r="AH237">
+        <v>2.05</v>
+      </c>
+      <c r="AI237">
+        <v>1.62</v>
+      </c>
+      <c r="AJ237">
+        <v>2.2</v>
+      </c>
+      <c r="AK237">
+        <v>1.43</v>
+      </c>
+      <c r="AL237">
+        <v>1.28</v>
+      </c>
+      <c r="AM237">
+        <v>1.55</v>
+      </c>
+      <c r="AN237">
+        <v>0.73</v>
+      </c>
+      <c r="AO237">
+        <v>1.38</v>
+      </c>
+      <c r="AP237">
+        <v>0.88</v>
+      </c>
+      <c r="AQ237">
+        <v>1.29</v>
+      </c>
+      <c r="AR237">
+        <v>1.41</v>
+      </c>
+      <c r="AS237">
+        <v>1.92</v>
+      </c>
+      <c r="AT237">
+        <v>3.33</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>6</v>
+      </c>
+      <c r="AW237">
+        <v>8</v>
+      </c>
+      <c r="AX237">
+        <v>8</v>
+      </c>
+      <c r="AY237">
+        <v>15</v>
+      </c>
+      <c r="AZ237">
+        <v>17</v>
+      </c>
+      <c r="BA237">
+        <v>6</v>
+      </c>
+      <c r="BB237">
+        <v>9</v>
+      </c>
+      <c r="BC237">
+        <v>15</v>
+      </c>
+      <c r="BD237">
+        <v>1.64</v>
+      </c>
+      <c r="BE237">
+        <v>7</v>
+      </c>
+      <c r="BF237">
+        <v>2.48</v>
+      </c>
+      <c r="BG237">
+        <v>1.24</v>
+      </c>
+      <c r="BH237">
+        <v>3.55</v>
+      </c>
+      <c r="BI237">
+        <v>1.43</v>
+      </c>
+      <c r="BJ237">
+        <v>2.6</v>
+      </c>
+      <c r="BK237">
+        <v>1.7</v>
+      </c>
+      <c r="BL237">
+        <v>2.02</v>
+      </c>
+      <c r="BM237">
+        <v>2.08</v>
+      </c>
+      <c r="BN237">
+        <v>1.65</v>
+      </c>
+      <c r="BO237">
+        <v>2.65</v>
+      </c>
+      <c r="BP237">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7781312</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45808.72916666666</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>79</v>
+      </c>
+      <c r="H238" t="s">
+        <v>96</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238" t="s">
+        <v>259</v>
+      </c>
+      <c r="P238" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q238">
+        <v>2.6</v>
+      </c>
+      <c r="R238">
+        <v>2.3</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>1.33</v>
+      </c>
+      <c r="U238">
+        <v>3.25</v>
+      </c>
+      <c r="V238">
+        <v>2.5</v>
+      </c>
+      <c r="W238">
+        <v>1.5</v>
+      </c>
+      <c r="X238">
+        <v>6.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.11</v>
+      </c>
+      <c r="Z238">
+        <v>2.06</v>
+      </c>
+      <c r="AA238">
+        <v>3.31</v>
+      </c>
+      <c r="AB238">
+        <v>3.02</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>9.5</v>
+      </c>
+      <c r="AE238">
+        <v>1.25</v>
+      </c>
+      <c r="AF238">
+        <v>3.9</v>
+      </c>
+      <c r="AG238">
+        <v>1.7</v>
+      </c>
+      <c r="AH238">
+        <v>2</v>
+      </c>
+      <c r="AI238">
+        <v>1.67</v>
+      </c>
+      <c r="AJ238">
+        <v>2.1</v>
+      </c>
+      <c r="AK238">
+        <v>1.34</v>
+      </c>
+      <c r="AL238">
+        <v>1.29</v>
+      </c>
+      <c r="AM238">
+        <v>1.66</v>
+      </c>
+      <c r="AN238">
+        <v>1.75</v>
+      </c>
+      <c r="AO238">
+        <v>1.5</v>
+      </c>
+      <c r="AP238">
+        <v>1.71</v>
+      </c>
+      <c r="AQ238">
+        <v>1.47</v>
+      </c>
+      <c r="AR238">
+        <v>1.75</v>
+      </c>
+      <c r="AS238">
+        <v>1.55</v>
+      </c>
+      <c r="AT238">
+        <v>3.3</v>
+      </c>
+      <c r="AU238">
+        <v>-1</v>
+      </c>
+      <c r="AV238">
+        <v>-1</v>
+      </c>
+      <c r="AW238">
+        <v>-1</v>
+      </c>
+      <c r="AX238">
+        <v>-1</v>
+      </c>
+      <c r="AY238">
+        <v>-1</v>
+      </c>
+      <c r="AZ238">
+        <v>-1</v>
+      </c>
+      <c r="BA238">
+        <v>-1</v>
+      </c>
+      <c r="BB238">
+        <v>-1</v>
+      </c>
+      <c r="BC238">
+        <v>-1</v>
+      </c>
+      <c r="BD238">
+        <v>1.47</v>
+      </c>
+      <c r="BE238">
+        <v>7</v>
+      </c>
+      <c r="BF238">
+        <v>2.95</v>
+      </c>
+      <c r="BG238">
+        <v>1.25</v>
+      </c>
+      <c r="BH238">
+        <v>3.45</v>
+      </c>
+      <c r="BI238">
+        <v>1.44</v>
+      </c>
+      <c r="BJ238">
+        <v>2.55</v>
+      </c>
+      <c r="BK238">
+        <v>1.72</v>
+      </c>
+      <c r="BL238">
+        <v>1.98</v>
+      </c>
+      <c r="BM238">
+        <v>2.15</v>
+      </c>
+      <c r="BN238">
+        <v>1.61</v>
+      </c>
+      <c r="BO238">
+        <v>2.7</v>
+      </c>
+      <c r="BP238">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,12 @@
     <t>['27', '41']</t>
   </si>
   <si>
+    <t>['13', '15', '24', '64', '89']</t>
+  </si>
+  <si>
+    <t>['3', '29']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1133,6 +1139,18 @@
   </si>
   <si>
     <t>['54', '87']</t>
+  </si>
+  <si>
+    <t>['56', '90']</t>
+  </si>
+  <si>
+    <t>['2', '19']</t>
+  </si>
+  <si>
+    <t>['48', '55', '87']</t>
+  </si>
+  <si>
+    <t>['5', '31', '32']</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1959,7 +1977,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2037,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ3">
         <v>1.47</v>
@@ -2165,7 +2183,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2243,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2449,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,7 +2595,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2655,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2783,7 +2801,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2861,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ7">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2989,7 +3007,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3067,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ8">
         <v>2.06</v>
@@ -3401,7 +3419,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3688,7 +3706,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4225,7 +4243,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4306,7 +4324,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4431,7 +4449,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4637,7 +4655,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4921,10 +4939,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.03</v>
@@ -5255,7 +5273,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5333,10 +5351,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR19">
         <v>0.9</v>
@@ -5539,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ20">
         <v>1.71</v>
@@ -5667,7 +5685,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5745,10 +5763,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ21">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5954,7 +5972,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ22">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR22">
         <v>1.1</v>
@@ -6079,7 +6097,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6157,10 +6175,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>1.57</v>
@@ -6285,7 +6303,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6572,7 +6590,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR25">
         <v>1.31</v>
@@ -6697,7 +6715,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7727,7 +7745,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7808,7 +7826,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
@@ -8011,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -8139,7 +8157,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8423,10 +8441,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR34">
         <v>1.76</v>
@@ -8629,10 +8647,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ35">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR35">
         <v>0.98</v>
@@ -8835,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
         <v>0.87</v>
@@ -8963,7 +8981,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9041,7 +9059,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>2.06</v>
@@ -9250,7 +9268,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ38">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR38">
         <v>1.21</v>
@@ -9581,7 +9599,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9662,7 +9680,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9993,7 +10011,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10280,7 +10298,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR43">
         <v>2.16</v>
@@ -10689,10 +10707,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.45</v>
@@ -10817,7 +10835,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11023,7 +11041,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11101,10 +11119,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ47">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR47">
         <v>1.26</v>
@@ -11229,7 +11247,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11307,10 +11325,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ48">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR48">
         <v>1.32</v>
@@ -11719,10 +11737,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ50">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11925,10 +11943,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -12053,7 +12071,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12134,7 +12152,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -12259,7 +12277,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12671,7 +12689,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13164,7 +13182,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -13289,7 +13307,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13495,7 +13513,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13907,7 +13925,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13985,10 +14003,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR61">
         <v>1.67</v>
@@ -14113,7 +14131,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14191,10 +14209,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ62">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.47</v>
@@ -14319,7 +14337,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14525,7 +14543,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14603,7 +14621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14809,7 +14827,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>1.47</v>
@@ -15015,10 +15033,10 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ66">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -15221,10 +15239,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR67">
         <v>1.49</v>
@@ -15555,7 +15573,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15842,7 +15860,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -15967,7 +15985,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16173,7 +16191,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16585,7 +16603,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16666,7 +16684,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR74">
         <v>1.95</v>
@@ -16997,7 +17015,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17075,10 +17093,10 @@
         <v>1.6</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR76">
         <v>1.02</v>
@@ -17281,7 +17299,7 @@
         <v>2.4</v>
       </c>
       <c r="AP77">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ77">
         <v>2.13</v>
@@ -17490,7 +17508,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17693,7 +17711,7 @@
         <v>2.4</v>
       </c>
       <c r="AP79">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ79">
         <v>2.06</v>
@@ -17821,7 +17839,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17899,10 +17917,10 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR80">
         <v>1.72</v>
@@ -18027,7 +18045,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18105,7 +18123,7 @@
         <v>1.6</v>
       </c>
       <c r="AP81">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1.47</v>
@@ -18233,7 +18251,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18311,10 +18329,10 @@
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR82">
         <v>1.54</v>
@@ -18851,7 +18869,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18932,7 +18950,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19057,7 +19075,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19138,7 +19156,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ86">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19263,7 +19281,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19881,7 +19899,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20165,7 +20183,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
         <v>1.71</v>
@@ -20499,7 +20517,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20577,7 +20595,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>1.13</v>
@@ -20786,7 +20804,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ94">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR94">
         <v>1.76</v>
@@ -20989,10 +21007,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR95">
         <v>1.62</v>
@@ -21117,7 +21135,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21195,10 +21213,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR96">
         <v>1.64</v>
@@ -21401,10 +21419,10 @@
         <v>1.83</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ97">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -22559,7 +22577,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22765,7 +22783,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22846,7 +22864,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR104">
         <v>1.86</v>
@@ -22971,7 +22989,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23049,10 +23067,10 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ105">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR105">
         <v>1.3</v>
@@ -23255,7 +23273,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ106">
         <v>1.69</v>
@@ -23461,10 +23479,10 @@
         <v>0.67</v>
       </c>
       <c r="AP107">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR107">
         <v>1.59</v>
@@ -23667,10 +23685,10 @@
         <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR108">
         <v>1.54</v>
@@ -23873,10 +23891,10 @@
         <v>1.86</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ109">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR109">
         <v>1.24</v>
@@ -24001,7 +24019,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24207,7 +24225,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24285,10 +24303,10 @@
         <v>1.86</v>
       </c>
       <c r="AP111">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ111">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR111">
         <v>1.75</v>
@@ -24825,7 +24843,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25031,7 +25049,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25443,7 +25461,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25649,7 +25667,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25933,10 +25951,10 @@
         <v>2.33</v>
       </c>
       <c r="AP119">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -26061,7 +26079,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26142,7 +26160,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR120">
         <v>1.37</v>
@@ -26473,7 +26491,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26551,10 +26569,10 @@
         <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ122">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR122">
         <v>1.64</v>
@@ -26885,7 +26903,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26963,10 +26981,10 @@
         <v>0.75</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -27172,7 +27190,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ125">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.83</v>
@@ -27375,10 +27393,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ126">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27581,7 +27599,7 @@
         <v>1.38</v>
       </c>
       <c r="AP127">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -27787,7 +27805,7 @@
         <v>1.75</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
         <v>1.69</v>
@@ -27915,7 +27933,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27993,10 +28011,10 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR129">
         <v>1.54</v>
@@ -28121,7 +28139,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28820,7 +28838,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ133">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
         <v>1.52</v>
@@ -28945,7 +28963,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29151,7 +29169,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29435,7 +29453,7 @@
         <v>0.78</v>
       </c>
       <c r="AP136">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ136">
         <v>0.87</v>
@@ -29641,7 +29659,7 @@
         <v>1.22</v>
       </c>
       <c r="AP137">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ137">
         <v>1.47</v>
@@ -29850,7 +29868,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR138">
         <v>1.77</v>
@@ -30053,10 +30071,10 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR139">
         <v>1.4</v>
@@ -30259,10 +30277,10 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ140">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30387,7 +30405,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30465,10 +30483,10 @@
         <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR141">
         <v>1.45</v>
@@ -30671,7 +30689,7 @@
         <v>1.11</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ142">
         <v>1.29</v>
@@ -30799,7 +30817,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -31211,7 +31229,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31292,7 +31310,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ145">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR145">
         <v>1.75</v>
@@ -31417,7 +31435,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31623,7 +31641,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31829,7 +31847,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31907,7 +31925,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ148">
         <v>1.13</v>
@@ -32035,7 +32053,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32241,7 +32259,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32447,7 +32465,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32525,7 +32543,7 @@
         <v>1.6</v>
       </c>
       <c r="AP151">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
         <v>1.71</v>
@@ -32653,7 +32671,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32731,10 +32749,10 @@
         <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ152">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR152">
         <v>1.07</v>
@@ -32859,7 +32877,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -32937,10 +32955,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR153">
         <v>1.38</v>
@@ -33065,7 +33083,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33143,7 +33161,7 @@
         <v>1.9</v>
       </c>
       <c r="AP154">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ154">
         <v>2.06</v>
@@ -33271,7 +33289,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33349,10 +33367,10 @@
         <v>1.9</v>
       </c>
       <c r="AP155">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33477,7 +33495,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33555,7 +33573,7 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ156">
         <v>1.38</v>
@@ -33683,7 +33701,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33967,10 +33985,10 @@
         <v>1.6</v>
       </c>
       <c r="AP158">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR158">
         <v>1.54</v>
@@ -34301,7 +34319,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34713,7 +34731,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35206,7 +35224,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ164">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR164">
         <v>1.4</v>
@@ -35615,10 +35633,10 @@
         <v>0.91</v>
       </c>
       <c r="AP166">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.58</v>
@@ -35743,7 +35761,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35824,7 +35842,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ167">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR167">
         <v>1.66</v>
@@ -36027,10 +36045,10 @@
         <v>1.09</v>
       </c>
       <c r="AP168">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ168">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR168">
         <v>1.13</v>
@@ -36155,7 +36173,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36236,7 +36254,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ169">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36361,7 +36379,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36439,10 +36457,10 @@
         <v>1.6</v>
       </c>
       <c r="AP170">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ170">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR170">
         <v>1.61</v>
@@ -36567,7 +36585,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36648,7 +36666,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
         <v>1.47</v>
@@ -36773,7 +36791,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36851,7 +36869,7 @@
         <v>1.45</v>
       </c>
       <c r="AP172">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ172">
         <v>1.25</v>
@@ -37057,7 +37075,7 @@
         <v>0.27</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ173">
         <v>0.25</v>
@@ -37185,7 +37203,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37391,7 +37409,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37597,7 +37615,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37678,7 +37696,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ176">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR176">
         <v>1.73</v>
@@ -37803,7 +37821,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -38009,7 +38027,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38421,7 +38439,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38705,7 +38723,7 @@
         <v>1.42</v>
       </c>
       <c r="AP181">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ181">
         <v>1.47</v>
@@ -38833,7 +38851,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38911,10 +38929,10 @@
         <v>2.08</v>
       </c>
       <c r="AP182">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ182">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -39039,7 +39057,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39117,10 +39135,10 @@
         <v>1.58</v>
       </c>
       <c r="AP183">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ183">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR183">
         <v>1.68</v>
@@ -39245,7 +39263,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39529,10 +39547,10 @@
         <v>2.08</v>
       </c>
       <c r="AP185">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ185">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR185">
         <v>1.24</v>
@@ -39657,7 +39675,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39738,7 +39756,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR186">
         <v>1.74</v>
@@ -40069,7 +40087,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40275,7 +40293,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40356,7 +40374,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ189">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR189">
         <v>1.39</v>
@@ -41099,7 +41117,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41180,7 +41198,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ193">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR193">
         <v>1.99</v>
@@ -41305,7 +41323,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41383,10 +41401,10 @@
         <v>0.77</v>
       </c>
       <c r="AP194">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ194">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR194">
         <v>1.43</v>
@@ -41592,7 +41610,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR195">
         <v>1.49</v>
@@ -41717,7 +41735,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41795,10 +41813,10 @@
         <v>2.15</v>
       </c>
       <c r="AP196">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ196">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR196">
         <v>1.57</v>
@@ -41923,7 +41941,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -42001,7 +42019,7 @@
         <v>2</v>
       </c>
       <c r="AP197">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ197">
         <v>2.06</v>
@@ -42129,7 +42147,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42207,10 +42225,10 @@
         <v>1.33</v>
       </c>
       <c r="AP198">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ198">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR198">
         <v>1.43</v>
@@ -42413,7 +42431,7 @@
         <v>1.31</v>
       </c>
       <c r="AP199">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AQ199">
         <v>1.29</v>
@@ -42828,7 +42846,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ201">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR201">
         <v>1.74</v>
@@ -43159,7 +43177,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43571,7 +43589,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43983,7 +44001,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44061,10 +44079,10 @@
         <v>1.62</v>
       </c>
       <c r="AP207">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ207">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR207">
         <v>1.35</v>
@@ -44807,7 +44825,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44885,10 +44903,10 @@
         <v>1.93</v>
       </c>
       <c r="AP211">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ211">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR211">
         <v>1.43</v>
@@ -45013,7 +45031,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45091,10 +45109,10 @@
         <v>1.29</v>
       </c>
       <c r="AP212">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ212">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR212">
         <v>1.49</v>
@@ -45219,7 +45237,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45297,7 +45315,7 @@
         <v>1.57</v>
       </c>
       <c r="AP213">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AQ213">
         <v>1.53</v>
@@ -45503,7 +45521,7 @@
         <v>1.64</v>
       </c>
       <c r="AP214">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ214">
         <v>1.63</v>
@@ -45631,7 +45649,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45712,7 +45730,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ215">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR215">
         <v>1.81</v>
@@ -45837,7 +45855,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -45915,7 +45933,7 @@
         <v>1.71</v>
       </c>
       <c r="AP216">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ216">
         <v>1.71</v>
@@ -46043,7 +46061,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46124,7 +46142,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ217">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR217">
         <v>1.44</v>
@@ -46455,7 +46473,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46867,7 +46885,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47073,7 +47091,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47154,7 +47172,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ222">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR222">
         <v>1.48</v>
@@ -47279,7 +47297,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47357,10 +47375,10 @@
         <v>2.07</v>
       </c>
       <c r="AP223">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ223">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR223">
         <v>1.5</v>
@@ -47485,7 +47503,7 @@
         <v>249</v>
       </c>
       <c r="P224" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47563,10 +47581,10 @@
         <v>1.8</v>
       </c>
       <c r="AP224">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ224">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR224">
         <v>1.5</v>
@@ -47691,7 +47709,7 @@
         <v>250</v>
       </c>
       <c r="P225" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47769,7 +47787,7 @@
         <v>1.14</v>
       </c>
       <c r="AP225">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ225">
         <v>1.13</v>
@@ -47975,10 +47993,10 @@
         <v>1.46</v>
       </c>
       <c r="AP226">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ226">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR226">
         <v>1.43</v>
@@ -48103,7 +48121,7 @@
         <v>251</v>
       </c>
       <c r="P227" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>1.83</v>
@@ -48181,10 +48199,10 @@
         <v>0.53</v>
       </c>
       <c r="AP227">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ227">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR227">
         <v>1.41</v>
@@ -48309,7 +48327,7 @@
         <v>252</v>
       </c>
       <c r="P228" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48387,10 +48405,10 @@
         <v>1.47</v>
       </c>
       <c r="AP228">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ228">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR228">
         <v>1.38</v>
@@ -48515,7 +48533,7 @@
         <v>109</v>
       </c>
       <c r="P229" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>2.5</v>
@@ -48721,7 +48739,7 @@
         <v>253</v>
       </c>
       <c r="P230" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q230">
         <v>3.25</v>
@@ -48799,7 +48817,7 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ230">
         <v>2.06</v>
@@ -48927,7 +48945,7 @@
         <v>254</v>
       </c>
       <c r="P231" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q231">
         <v>2.4</v>
@@ -49005,7 +49023,7 @@
         <v>1.8</v>
       </c>
       <c r="AP231">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ231">
         <v>1.71</v>
@@ -49545,7 +49563,7 @@
         <v>109</v>
       </c>
       <c r="P234" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -50163,7 +50181,7 @@
         <v>258</v>
       </c>
       <c r="P237" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q237">
         <v>2.75</v>
@@ -50369,7 +50387,7 @@
         <v>259</v>
       </c>
       <c r="P238" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50462,31 +50480,31 @@
         <v>3.3</v>
       </c>
       <c r="AU238">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV238">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW238">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX238">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY238">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AZ238">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA238">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC238">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD238">
         <v>1.47</v>
@@ -50526,6 +50544,1242 @@
       </c>
       <c r="BP238">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7781318</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>98</v>
+      </c>
+      <c r="H239" t="s">
+        <v>85</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>109</v>
+      </c>
+      <c r="P239" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q239">
+        <v>3.1</v>
+      </c>
+      <c r="R239">
+        <v>2.3</v>
+      </c>
+      <c r="S239">
+        <v>3.1</v>
+      </c>
+      <c r="T239">
+        <v>1.3</v>
+      </c>
+      <c r="U239">
+        <v>3.4</v>
+      </c>
+      <c r="V239">
+        <v>2.5</v>
+      </c>
+      <c r="W239">
+        <v>1.5</v>
+      </c>
+      <c r="X239">
+        <v>6</v>
+      </c>
+      <c r="Y239">
+        <v>1.13</v>
+      </c>
+      <c r="Z239">
+        <v>2.45</v>
+      </c>
+      <c r="AA239">
+        <v>3.31</v>
+      </c>
+      <c r="AB239">
+        <v>2.45</v>
+      </c>
+      <c r="AC239">
+        <v>1.04</v>
+      </c>
+      <c r="AD239">
+        <v>10</v>
+      </c>
+      <c r="AE239">
+        <v>1.22</v>
+      </c>
+      <c r="AF239">
+        <v>4.2</v>
+      </c>
+      <c r="AG239">
+        <v>1.76</v>
+      </c>
+      <c r="AH239">
+        <v>1.94</v>
+      </c>
+      <c r="AI239">
+        <v>1.57</v>
+      </c>
+      <c r="AJ239">
+        <v>2.25</v>
+      </c>
+      <c r="AK239">
+        <v>1.47</v>
+      </c>
+      <c r="AL239">
+        <v>1.29</v>
+      </c>
+      <c r="AM239">
+        <v>1.47</v>
+      </c>
+      <c r="AN239">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO239">
+        <v>1.38</v>
+      </c>
+      <c r="AP239">
+        <v>0.76</v>
+      </c>
+      <c r="AQ239">
+        <v>1.47</v>
+      </c>
+      <c r="AR239">
+        <v>1.3</v>
+      </c>
+      <c r="AS239">
+        <v>1.48</v>
+      </c>
+      <c r="AT239">
+        <v>2.78</v>
+      </c>
+      <c r="AU239">
+        <v>3</v>
+      </c>
+      <c r="AV239">
+        <v>11</v>
+      </c>
+      <c r="AW239">
+        <v>5</v>
+      </c>
+      <c r="AX239">
+        <v>10</v>
+      </c>
+      <c r="AY239">
+        <v>10</v>
+      </c>
+      <c r="AZ239">
+        <v>27</v>
+      </c>
+      <c r="BA239">
+        <v>4</v>
+      </c>
+      <c r="BB239">
+        <v>6</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.86</v>
+      </c>
+      <c r="BE239">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF239">
+        <v>2.3</v>
+      </c>
+      <c r="BG239">
+        <v>1.29</v>
+      </c>
+      <c r="BH239">
+        <v>3.04</v>
+      </c>
+      <c r="BI239">
+        <v>1.54</v>
+      </c>
+      <c r="BJ239">
+        <v>2.39</v>
+      </c>
+      <c r="BK239">
+        <v>1.91</v>
+      </c>
+      <c r="BL239">
+        <v>1.88</v>
+      </c>
+      <c r="BM239">
+        <v>2.41</v>
+      </c>
+      <c r="BN239">
+        <v>1.53</v>
+      </c>
+      <c r="BO239">
+        <v>3.5</v>
+      </c>
+      <c r="BP239">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7781313</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>73</v>
+      </c>
+      <c r="H240" t="s">
+        <v>75</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>140</v>
+      </c>
+      <c r="P240" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q240">
+        <v>2.1</v>
+      </c>
+      <c r="R240">
+        <v>2.5</v>
+      </c>
+      <c r="S240">
+        <v>5</v>
+      </c>
+      <c r="T240">
+        <v>1.29</v>
+      </c>
+      <c r="U240">
+        <v>3.5</v>
+      </c>
+      <c r="V240">
+        <v>2.25</v>
+      </c>
+      <c r="W240">
+        <v>1.57</v>
+      </c>
+      <c r="X240">
+        <v>5.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.14</v>
+      </c>
+      <c r="Z240">
+        <v>1.55</v>
+      </c>
+      <c r="AA240">
+        <v>3.6</v>
+      </c>
+      <c r="AB240">
+        <v>5.1</v>
+      </c>
+      <c r="AC240">
+        <v>1.04</v>
+      </c>
+      <c r="AD240">
+        <v>10</v>
+      </c>
+      <c r="AE240">
+        <v>1.2</v>
+      </c>
+      <c r="AF240">
+        <v>4.33</v>
+      </c>
+      <c r="AG240">
+        <v>1.6</v>
+      </c>
+      <c r="AH240">
+        <v>2.2</v>
+      </c>
+      <c r="AI240">
+        <v>1.67</v>
+      </c>
+      <c r="AJ240">
+        <v>2.1</v>
+      </c>
+      <c r="AK240">
+        <v>1.15</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>2.25</v>
+      </c>
+      <c r="AN240">
+        <v>1.88</v>
+      </c>
+      <c r="AO240">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP240">
+        <v>1.76</v>
+      </c>
+      <c r="AQ240">
+        <v>1.06</v>
+      </c>
+      <c r="AR240">
+        <v>1.78</v>
+      </c>
+      <c r="AS240">
+        <v>1.52</v>
+      </c>
+      <c r="AT240">
+        <v>3.3</v>
+      </c>
+      <c r="AU240">
+        <v>4</v>
+      </c>
+      <c r="AV240">
+        <v>6</v>
+      </c>
+      <c r="AW240">
+        <v>5</v>
+      </c>
+      <c r="AX240">
+        <v>7</v>
+      </c>
+      <c r="AY240">
+        <v>10</v>
+      </c>
+      <c r="AZ240">
+        <v>14</v>
+      </c>
+      <c r="BA240">
+        <v>5</v>
+      </c>
+      <c r="BB240">
+        <v>5</v>
+      </c>
+      <c r="BC240">
+        <v>10</v>
+      </c>
+      <c r="BD240">
+        <v>1.35</v>
+      </c>
+      <c r="BE240">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF240">
+        <v>3.98</v>
+      </c>
+      <c r="BG240">
+        <v>1.21</v>
+      </c>
+      <c r="BH240">
+        <v>3.58</v>
+      </c>
+      <c r="BI240">
+        <v>1.45</v>
+      </c>
+      <c r="BJ240">
+        <v>2.58</v>
+      </c>
+      <c r="BK240">
+        <v>1.79</v>
+      </c>
+      <c r="BL240">
+        <v>2.01</v>
+      </c>
+      <c r="BM240">
+        <v>2.25</v>
+      </c>
+      <c r="BN240">
+        <v>1.62</v>
+      </c>
+      <c r="BO240">
+        <v>2.92</v>
+      </c>
+      <c r="BP240">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7781314</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>71</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>5</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>6</v>
+      </c>
+      <c r="O241" t="s">
+        <v>260</v>
+      </c>
+      <c r="P241" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q241">
+        <v>2.75</v>
+      </c>
+      <c r="R241">
+        <v>2.38</v>
+      </c>
+      <c r="S241">
+        <v>3.4</v>
+      </c>
+      <c r="T241">
+        <v>1.3</v>
+      </c>
+      <c r="U241">
+        <v>3.4</v>
+      </c>
+      <c r="V241">
+        <v>2.38</v>
+      </c>
+      <c r="W241">
+        <v>1.53</v>
+      </c>
+      <c r="X241">
+        <v>6</v>
+      </c>
+      <c r="Y241">
+        <v>1.13</v>
+      </c>
+      <c r="Z241">
+        <v>2.14</v>
+      </c>
+      <c r="AA241">
+        <v>3.27</v>
+      </c>
+      <c r="AB241">
+        <v>2.89</v>
+      </c>
+      <c r="AC241">
+        <v>1.04</v>
+      </c>
+      <c r="AD241">
+        <v>10</v>
+      </c>
+      <c r="AE241">
+        <v>1.2</v>
+      </c>
+      <c r="AF241">
+        <v>4.33</v>
+      </c>
+      <c r="AG241">
+        <v>1.61</v>
+      </c>
+      <c r="AH241">
+        <v>2.15</v>
+      </c>
+      <c r="AI241">
+        <v>1.53</v>
+      </c>
+      <c r="AJ241">
+        <v>2.38</v>
+      </c>
+      <c r="AK241">
+        <v>1.37</v>
+      </c>
+      <c r="AL241">
+        <v>1.29</v>
+      </c>
+      <c r="AM241">
+        <v>1.61</v>
+      </c>
+      <c r="AN241">
+        <v>1.73</v>
+      </c>
+      <c r="AO241">
+        <v>1.75</v>
+      </c>
+      <c r="AP241">
+        <v>1.81</v>
+      </c>
+      <c r="AQ241">
+        <v>1.65</v>
+      </c>
+      <c r="AR241">
+        <v>1.44</v>
+      </c>
+      <c r="AS241">
+        <v>1.69</v>
+      </c>
+      <c r="AT241">
+        <v>3.13</v>
+      </c>
+      <c r="AU241">
+        <v>9</v>
+      </c>
+      <c r="AV241">
+        <v>2</v>
+      </c>
+      <c r="AW241">
+        <v>9</v>
+      </c>
+      <c r="AX241">
+        <v>11</v>
+      </c>
+      <c r="AY241">
+        <v>20</v>
+      </c>
+      <c r="AZ241">
+        <v>15</v>
+      </c>
+      <c r="BA241">
+        <v>4</v>
+      </c>
+      <c r="BB241">
+        <v>6</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>1.73</v>
+      </c>
+      <c r="BE241">
+        <v>8.4</v>
+      </c>
+      <c r="BF241">
+        <v>2.53</v>
+      </c>
+      <c r="BG241">
+        <v>1.28</v>
+      </c>
+      <c r="BH241">
+        <v>3.08</v>
+      </c>
+      <c r="BI241">
+        <v>1.55</v>
+      </c>
+      <c r="BJ241">
+        <v>2.36</v>
+      </c>
+      <c r="BK241">
+        <v>1.93</v>
+      </c>
+      <c r="BL241">
+        <v>1.87</v>
+      </c>
+      <c r="BM241">
+        <v>2.44</v>
+      </c>
+      <c r="BN241">
+        <v>1.52</v>
+      </c>
+      <c r="BO241">
+        <v>3.42</v>
+      </c>
+      <c r="BP241">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7781315</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>99</v>
+      </c>
+      <c r="H242" t="s">
+        <v>87</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>3</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>109</v>
+      </c>
+      <c r="P242" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q242">
+        <v>3.1</v>
+      </c>
+      <c r="R242">
+        <v>2.25</v>
+      </c>
+      <c r="S242">
+        <v>3.1</v>
+      </c>
+      <c r="T242">
+        <v>1.33</v>
+      </c>
+      <c r="U242">
+        <v>3.25</v>
+      </c>
+      <c r="V242">
+        <v>2.63</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>6.5</v>
+      </c>
+      <c r="Y242">
+        <v>1.11</v>
+      </c>
+      <c r="Z242">
+        <v>2.72</v>
+      </c>
+      <c r="AA242">
+        <v>3.5</v>
+      </c>
+      <c r="AB242">
+        <v>2.15</v>
+      </c>
+      <c r="AC242">
+        <v>1.05</v>
+      </c>
+      <c r="AD242">
+        <v>9.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.25</v>
+      </c>
+      <c r="AF242">
+        <v>3.8</v>
+      </c>
+      <c r="AG242">
+        <v>1.55</v>
+      </c>
+      <c r="AH242">
+        <v>2.3</v>
+      </c>
+      <c r="AI242">
+        <v>1.67</v>
+      </c>
+      <c r="AJ242">
+        <v>2.1</v>
+      </c>
+      <c r="AK242">
+        <v>1.53</v>
+      </c>
+      <c r="AL242">
+        <v>1.27</v>
+      </c>
+      <c r="AM242">
+        <v>1.47</v>
+      </c>
+      <c r="AN242">
+        <v>0.5</v>
+      </c>
+      <c r="AO242">
+        <v>1.43</v>
+      </c>
+      <c r="AP242">
+        <v>0.47</v>
+      </c>
+      <c r="AQ242">
+        <v>1.53</v>
+      </c>
+      <c r="AR242">
+        <v>1.4</v>
+      </c>
+      <c r="AS242">
+        <v>1.39</v>
+      </c>
+      <c r="AT242">
+        <v>2.79</v>
+      </c>
+      <c r="AU242">
+        <v>3</v>
+      </c>
+      <c r="AV242">
+        <v>7</v>
+      </c>
+      <c r="AW242">
+        <v>14</v>
+      </c>
+      <c r="AX242">
+        <v>3</v>
+      </c>
+      <c r="AY242">
+        <v>20</v>
+      </c>
+      <c r="AZ242">
+        <v>10</v>
+      </c>
+      <c r="BA242">
+        <v>2</v>
+      </c>
+      <c r="BB242">
+        <v>2</v>
+      </c>
+      <c r="BC242">
+        <v>4</v>
+      </c>
+      <c r="BD242">
+        <v>1.73</v>
+      </c>
+      <c r="BE242">
+        <v>8.5</v>
+      </c>
+      <c r="BF242">
+        <v>2.52</v>
+      </c>
+      <c r="BG242">
+        <v>1.24</v>
+      </c>
+      <c r="BH242">
+        <v>3.34</v>
+      </c>
+      <c r="BI242">
+        <v>1.48</v>
+      </c>
+      <c r="BJ242">
+        <v>2.51</v>
+      </c>
+      <c r="BK242">
+        <v>1.82</v>
+      </c>
+      <c r="BL242">
+        <v>1.97</v>
+      </c>
+      <c r="BM242">
+        <v>2.27</v>
+      </c>
+      <c r="BN242">
+        <v>1.58</v>
+      </c>
+      <c r="BO242">
+        <v>3.14</v>
+      </c>
+      <c r="BP242">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7781316</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>261</v>
+      </c>
+      <c r="P243" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q243">
+        <v>2.63</v>
+      </c>
+      <c r="R243">
+        <v>2.38</v>
+      </c>
+      <c r="S243">
+        <v>3.6</v>
+      </c>
+      <c r="T243">
+        <v>1.3</v>
+      </c>
+      <c r="U243">
+        <v>3.4</v>
+      </c>
+      <c r="V243">
+        <v>2.38</v>
+      </c>
+      <c r="W243">
+        <v>1.53</v>
+      </c>
+      <c r="X243">
+        <v>6</v>
+      </c>
+      <c r="Y243">
+        <v>1.13</v>
+      </c>
+      <c r="Z243">
+        <v>1.97</v>
+      </c>
+      <c r="AA243">
+        <v>3.34</v>
+      </c>
+      <c r="AB243">
+        <v>3.19</v>
+      </c>
+      <c r="AC243">
+        <v>1.04</v>
+      </c>
+      <c r="AD243">
+        <v>10</v>
+      </c>
+      <c r="AE243">
+        <v>1.22</v>
+      </c>
+      <c r="AF243">
+        <v>4.2</v>
+      </c>
+      <c r="AG243">
+        <v>1.61</v>
+      </c>
+      <c r="AH243">
+        <v>2.15</v>
+      </c>
+      <c r="AI243">
+        <v>1.57</v>
+      </c>
+      <c r="AJ243">
+        <v>2.25</v>
+      </c>
+      <c r="AK243">
+        <v>1.31</v>
+      </c>
+      <c r="AL243">
+        <v>1.29</v>
+      </c>
+      <c r="AM243">
+        <v>1.71</v>
+      </c>
+      <c r="AN243">
+        <v>1.5</v>
+      </c>
+      <c r="AO243">
+        <v>1.06</v>
+      </c>
+      <c r="AP243">
+        <v>1.59</v>
+      </c>
+      <c r="AQ243">
+        <v>1</v>
+      </c>
+      <c r="AR243">
+        <v>1.38</v>
+      </c>
+      <c r="AS243">
+        <v>1.5</v>
+      </c>
+      <c r="AT243">
+        <v>2.88</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>6</v>
+      </c>
+      <c r="AW243">
+        <v>4</v>
+      </c>
+      <c r="AX243">
+        <v>6</v>
+      </c>
+      <c r="AY243">
+        <v>8</v>
+      </c>
+      <c r="AZ243">
+        <v>12</v>
+      </c>
+      <c r="BA243">
+        <v>1</v>
+      </c>
+      <c r="BB243">
+        <v>9</v>
+      </c>
+      <c r="BC243">
+        <v>10</v>
+      </c>
+      <c r="BD243">
+        <v>1.58</v>
+      </c>
+      <c r="BE243">
+        <v>6.75</v>
+      </c>
+      <c r="BF243">
+        <v>2.65</v>
+      </c>
+      <c r="BG243">
+        <v>1.3</v>
+      </c>
+      <c r="BH243">
+        <v>3.05</v>
+      </c>
+      <c r="BI243">
+        <v>1.54</v>
+      </c>
+      <c r="BJ243">
+        <v>2.3</v>
+      </c>
+      <c r="BK243">
+        <v>1.89</v>
+      </c>
+      <c r="BL243">
+        <v>1.8</v>
+      </c>
+      <c r="BM243">
+        <v>2.35</v>
+      </c>
+      <c r="BN243">
+        <v>1.5</v>
+      </c>
+      <c r="BO243">
+        <v>3.05</v>
+      </c>
+      <c r="BP243">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7781317</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>90</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>4</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>3</v>
+      </c>
+      <c r="N244">
+        <v>4</v>
+      </c>
+      <c r="O244" t="s">
+        <v>161</v>
+      </c>
+      <c r="P244" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q244">
+        <v>2.1</v>
+      </c>
+      <c r="R244">
+        <v>2.5</v>
+      </c>
+      <c r="S244">
+        <v>5</v>
+      </c>
+      <c r="T244">
+        <v>1.29</v>
+      </c>
+      <c r="U244">
+        <v>3.5</v>
+      </c>
+      <c r="V244">
+        <v>2.25</v>
+      </c>
+      <c r="W244">
+        <v>1.57</v>
+      </c>
+      <c r="X244">
+        <v>5.5</v>
+      </c>
+      <c r="Y244">
+        <v>1.14</v>
+      </c>
+      <c r="Z244">
+        <v>1.46</v>
+      </c>
+      <c r="AA244">
+        <v>3.89</v>
+      </c>
+      <c r="AB244">
+        <v>5.6</v>
+      </c>
+      <c r="AC244">
+        <v>1.04</v>
+      </c>
+      <c r="AD244">
+        <v>10</v>
+      </c>
+      <c r="AE244">
+        <v>1.2</v>
+      </c>
+      <c r="AF244">
+        <v>4.33</v>
+      </c>
+      <c r="AG244">
+        <v>1.6</v>
+      </c>
+      <c r="AH244">
+        <v>2.2</v>
+      </c>
+      <c r="AI244">
+        <v>1.67</v>
+      </c>
+      <c r="AJ244">
+        <v>2.1</v>
+      </c>
+      <c r="AK244">
+        <v>1.13</v>
+      </c>
+      <c r="AL244">
+        <v>1.2</v>
+      </c>
+      <c r="AM244">
+        <v>2.45</v>
+      </c>
+      <c r="AN244">
+        <v>1.69</v>
+      </c>
+      <c r="AO244">
+        <v>1.36</v>
+      </c>
+      <c r="AP244">
+        <v>1.59</v>
+      </c>
+      <c r="AQ244">
+        <v>1.47</v>
+      </c>
+      <c r="AR244">
+        <v>1.68</v>
+      </c>
+      <c r="AS244">
+        <v>1.61</v>
+      </c>
+      <c r="AT244">
+        <v>3.29</v>
+      </c>
+      <c r="AU244">
+        <v>5</v>
+      </c>
+      <c r="AV244">
+        <v>5</v>
+      </c>
+      <c r="AW244">
+        <v>22</v>
+      </c>
+      <c r="AX244">
+        <v>6</v>
+      </c>
+      <c r="AY244">
+        <v>35</v>
+      </c>
+      <c r="AZ244">
+        <v>11</v>
+      </c>
+      <c r="BA244">
+        <v>13</v>
+      </c>
+      <c r="BB244">
+        <v>1</v>
+      </c>
+      <c r="BC244">
+        <v>14</v>
+      </c>
+      <c r="BD244">
+        <v>1.58</v>
+      </c>
+      <c r="BE244">
+        <v>8.6</v>
+      </c>
+      <c r="BF244">
+        <v>2.91</v>
+      </c>
+      <c r="BG244">
+        <v>1.32</v>
+      </c>
+      <c r="BH244">
+        <v>2.88</v>
+      </c>
+      <c r="BI244">
+        <v>1.5</v>
+      </c>
+      <c r="BJ244">
+        <v>2.46</v>
+      </c>
+      <c r="BK244">
+        <v>1.87</v>
+      </c>
+      <c r="BL244">
+        <v>1.92</v>
+      </c>
+      <c r="BM244">
+        <v>2.33</v>
+      </c>
+      <c r="BN244">
+        <v>1.56</v>
+      </c>
+      <c r="BO244">
+        <v>3.75</v>
+      </c>
+      <c r="BP244">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,12 @@
     <t>['3', '29']</t>
   </si>
   <si>
+    <t>['17', '55']</t>
+  </si>
+  <si>
+    <t>['60', '90+2']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1151,6 +1157,9 @@
   </si>
   <si>
     <t>['5', '31', '32']</t>
+  </si>
+  <si>
+    <t>['45+3', '52', '88']</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1849,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1977,7 +1986,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2055,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2183,7 +2192,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2261,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2467,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2595,7 +2604,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2673,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2801,7 +2810,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2879,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3007,7 +3016,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3085,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3291,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3419,7 +3428,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3497,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3703,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3909,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4115,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4243,7 +4252,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4321,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ14">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4449,7 +4458,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4527,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4655,7 +4664,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4733,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4933,25 +4942,25 @@
         <v>1.68</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR17">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5142,22 +5151,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5273,7 +5282,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5345,25 +5354,25 @@
         <v>1.4</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -5554,22 +5563,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5685,7 +5694,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5763,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR21">
         <v>2.07</v>
@@ -5963,25 +5972,25 @@
         <v>1.6</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -6097,7 +6106,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6172,22 +6181,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6303,7 +6312,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6378,22 +6387,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6587,19 +6596,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AS25">
         <v>1.66</v>
       </c>
       <c r="AT25">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6715,7 +6724,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6787,25 +6796,25 @@
         <v>1.7</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6999,10 +7008,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7202,22 +7211,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>2.22</v>
+        <v>0.72</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7405,25 +7414,25 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR29">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7611,7 +7620,7 @@
         <v>1.72</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -7620,16 +7629,16 @@
         <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR30">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7745,7 +7754,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7820,22 +7829,22 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR31">
         <v>1.39</v>
       </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>3.01</v>
+        <v>1.39</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -8029,19 +8038,19 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
       </c>
       <c r="AR32">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AT32">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -8157,7 +8166,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8229,25 +8238,25 @@
         <v>1.72</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ33">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="AS33">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>3.34</v>
+        <v>2.47</v>
       </c>
       <c r="AU33">
         <v>11</v>
@@ -8435,25 +8444,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
         <v>1.5</v>
       </c>
-      <c r="AO34">
-        <v>1.5</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
       <c r="AQ34">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AS34">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8641,25 +8650,25 @@
         <v>2.1</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="AS35">
         <v>1.47</v>
       </c>
       <c r="AT35">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8853,19 +8862,19 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="AS36">
-        <v>1.23</v>
+        <v>0.89</v>
       </c>
       <c r="AT36">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8981,7 +8990,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9053,25 +9062,25 @@
         <v>1.52</v>
       </c>
       <c r="AN37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="AS37">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AT37">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AU37">
         <v>2</v>
@@ -9259,25 +9268,25 @@
         <v>1.65</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT38">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -9465,25 +9474,25 @@
         <v>1.98</v>
       </c>
       <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1.44</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
         <v>1.5</v>
       </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AP39">
-        <v>1.25</v>
-      </c>
-      <c r="AQ39">
-        <v>1.38</v>
-      </c>
-      <c r="AR39">
-        <v>1.42</v>
-      </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>0.45</v>
       </c>
       <c r="AT39">
-        <v>2.59</v>
+        <v>1.95</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9599,7 +9608,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9671,25 +9680,25 @@
         <v>1.95</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT40">
-        <v>2.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9877,25 +9886,25 @@
         <v>1.82</v>
       </c>
       <c r="AN41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR41">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AS41">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -10011,7 +10020,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10083,25 +10092,25 @@
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AS42">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT42">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -10298,16 +10307,16 @@
         <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="AS43">
         <v>1.11</v>
       </c>
       <c r="AT43">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10498,22 +10507,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
         <v>1.5</v>
       </c>
-      <c r="AP44">
-        <v>1.29</v>
-      </c>
-      <c r="AQ44">
-        <v>1.69</v>
-      </c>
       <c r="AR44">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AS44">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT44">
-        <v>2.74</v>
+        <v>3.19</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10701,25 +10710,25 @@
         <v>2.55</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR45">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AS45">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="AT45">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10835,7 +10844,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10913,19 +10922,19 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>0.47</v>
       </c>
       <c r="AT46">
-        <v>2.13</v>
+        <v>1.39</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -11041,7 +11050,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11113,25 +11122,25 @@
         <v>1.71</v>
       </c>
       <c r="AN47">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AT47">
-        <v>2.74</v>
+        <v>1.67</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11247,7 +11256,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11319,25 +11328,25 @@
         <v>1.6</v>
       </c>
       <c r="AN48">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ48">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS48">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT48">
-        <v>2.96</v>
+        <v>3.14</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11525,25 +11534,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR49">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AS49">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11731,25 +11740,25 @@
         <v>1.63</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>0.73</v>
       </c>
       <c r="AT50">
-        <v>2.52</v>
+        <v>2.03</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11937,25 +11946,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO51">
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AS51">
         <v>1.19</v>
       </c>
       <c r="AT51">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -12071,7 +12080,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12143,25 +12152,25 @@
         <v>2.1</v>
       </c>
       <c r="AN52">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="AS52">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AT52">
-        <v>2.37</v>
+        <v>2.74</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -12277,7 +12286,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12352,22 +12361,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT53">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12555,25 +12564,25 @@
         <v>1.65</v>
       </c>
       <c r="AN54">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO54">
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR54">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AS54">
-        <v>2.07</v>
+        <v>2.45</v>
       </c>
       <c r="AT54">
-        <v>3.62</v>
+        <v>4.4</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -12689,7 +12698,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12761,25 +12770,25 @@
         <v>1.68</v>
       </c>
       <c r="AN55">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="AS55">
-        <v>1.66</v>
+        <v>2.15</v>
       </c>
       <c r="AT55">
-        <v>2.68</v>
+        <v>3.37</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12967,25 +12976,25 @@
         <v>1.47</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="AS56">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="AT56">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13173,25 +13182,25 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO57">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AS57">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
       <c r="AT57">
-        <v>3.01</v>
+        <v>2.54</v>
       </c>
       <c r="AU57">
         <v>10</v>
@@ -13307,7 +13316,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13379,25 +13388,25 @@
         <v>1.73</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AT58">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU58">
         <v>12</v>
@@ -13513,7 +13522,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13588,22 +13597,22 @@
         <v>3</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="AT59">
-        <v>3.37</v>
+        <v>2.76</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13791,25 +13800,25 @@
         <v>1.62</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR60">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>0.73</v>
       </c>
       <c r="AT60">
-        <v>2.43</v>
+        <v>1.67</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13925,7 +13934,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13997,25 +14006,25 @@
         <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AT61">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -14131,7 +14140,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14203,25 +14212,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR62">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AT62">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU62">
         <v>8</v>
@@ -14337,7 +14346,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14409,25 +14418,25 @@
         <v>1.87</v>
       </c>
       <c r="AN63">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR63">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS63">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AT63">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="AU63">
         <v>10</v>
@@ -14543,7 +14552,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14615,25 +14624,25 @@
         <v>2.25</v>
       </c>
       <c r="AN64">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="AS64">
-        <v>1.84</v>
+        <v>0.88</v>
       </c>
       <c r="AT64">
-        <v>3.23</v>
+        <v>2.5</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14824,22 +14833,22 @@
         <v>2</v>
       </c>
       <c r="AO65">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR65">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT65">
-        <v>2.79</v>
+        <v>2.92</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -15027,25 +15036,25 @@
         <v>1.98</v>
       </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ66">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT66">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15233,25 +15242,25 @@
         <v>1.98</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR67">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AS67">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>3.14</v>
+        <v>3.45</v>
       </c>
       <c r="AU67">
         <v>11</v>
@@ -15439,25 +15448,25 @@
         <v>1.65</v>
       </c>
       <c r="AN68">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>0.97</v>
       </c>
       <c r="AT68">
-        <v>3.01</v>
+        <v>2.45</v>
       </c>
       <c r="AU68">
         <v>9</v>
@@ -15573,7 +15582,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15645,25 +15654,25 @@
         <v>1.39</v>
       </c>
       <c r="AN69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO69">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ69">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AS69">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="AT69">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15851,25 +15860,25 @@
         <v>2.25</v>
       </c>
       <c r="AN70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO70">
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="AS70">
         <v>1.12</v>
       </c>
       <c r="AT70">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15985,7 +15994,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16057,25 +16066,25 @@
         <v>1.9</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP71">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71">
         <v>1.38</v>
       </c>
-      <c r="AQ71">
-        <v>1.63</v>
-      </c>
       <c r="AR71">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
-        <v>2.29</v>
+        <v>3.15</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -16191,7 +16200,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16266,22 +16275,22 @@
         <v>1.5</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS72">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT72">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="AU72">
         <v>3</v>
@@ -16469,25 +16478,25 @@
         <v>2.1</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO73">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
       </c>
       <c r="AR73">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="AS73">
-        <v>1.24</v>
+        <v>0.61</v>
       </c>
       <c r="AT73">
-        <v>3.03</v>
+        <v>2.84</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16603,7 +16612,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16678,22 +16687,22 @@
         <v>3</v>
       </c>
       <c r="AO74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP74">
         <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AT74">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16884,22 +16893,22 @@
         <v>1.5</v>
       </c>
       <c r="AO75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AS75">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="AT75">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -17015,7 +17024,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17087,25 +17096,25 @@
         <v>1.47</v>
       </c>
       <c r="AN76">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO76">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AU76">
         <v>7</v>
@@ -17293,25 +17302,25 @@
         <v>1.39</v>
       </c>
       <c r="AN77">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR77">
-        <v>1.11</v>
+        <v>0.9</v>
       </c>
       <c r="AS77">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17499,25 +17508,25 @@
         <v>1.61</v>
       </c>
       <c r="AN78">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AS78">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AT78">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17705,25 +17714,25 @@
         <v>2.65</v>
       </c>
       <c r="AN79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO79">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR79">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AS79">
         <v>1.73</v>
       </c>
       <c r="AT79">
-        <v>3.11</v>
+        <v>2.88</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17839,7 +17848,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17911,25 +17920,25 @@
         <v>1.51</v>
       </c>
       <c r="AN80">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="AT80">
-        <v>3.39</v>
+        <v>2.65</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -18045,7 +18054,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18117,25 +18126,25 @@
         <v>1.66</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO81">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS81">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="AT81">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18251,7 +18260,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18323,25 +18332,25 @@
         <v>0</v>
       </c>
       <c r="AN82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO82">
         <v>0.2</v>
       </c>
       <c r="AP82">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="AS82">
         <v>1.12</v>
       </c>
       <c r="AT82">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18529,25 +18538,25 @@
         <v>0</v>
       </c>
       <c r="AN83">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AQ83">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR83">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
       <c r="AT83">
-        <v>2.76</v>
+        <v>2.26</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18735,25 +18744,25 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="AS84">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="AT84">
-        <v>3.19</v>
+        <v>3.71</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18869,7 +18878,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18941,22 +18950,22 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO85">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ85">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR85">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AS85">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="AT85">
         <v>3.22</v>
@@ -19075,7 +19084,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19147,25 +19156,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO86">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ86">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AS86">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -19281,7 +19290,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19353,25 +19362,25 @@
         <v>0</v>
       </c>
       <c r="AN87">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ87">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="AS87">
-        <v>1.28</v>
+        <v>0.97</v>
       </c>
       <c r="AT87">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19559,25 +19568,25 @@
         <v>1.57</v>
       </c>
       <c r="AN88">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="AS88">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="AT88">
-        <v>3.69</v>
+        <v>3.51</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19765,25 +19774,25 @@
         <v>1.85</v>
       </c>
       <c r="AN89">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO89">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP89">
+        <v>1.13</v>
+      </c>
+      <c r="AQ89">
         <v>0.88</v>
       </c>
-      <c r="AQ89">
+      <c r="AR89">
+        <v>1.83</v>
+      </c>
+      <c r="AS89">
         <v>1.25</v>
       </c>
-      <c r="AR89">
-        <v>1.29</v>
-      </c>
-      <c r="AS89">
-        <v>1.45</v>
-      </c>
       <c r="AT89">
-        <v>2.74</v>
+        <v>3.08</v>
       </c>
       <c r="AU89">
         <v>3</v>
@@ -19899,7 +19908,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19971,25 +19980,25 @@
         <v>1.78</v>
       </c>
       <c r="AN90">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO90">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AS90">
-        <v>1.15</v>
+        <v>0.68</v>
       </c>
       <c r="AT90">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -20177,25 +20186,25 @@
         <v>1.84</v>
       </c>
       <c r="AN91">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO91">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AT91">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20386,22 +20395,22 @@
         <v>1</v>
       </c>
       <c r="AO92">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP92">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR92">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT92">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU92">
         <v>3</v>
@@ -20517,7 +20526,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20589,25 +20598,25 @@
         <v>2.32</v>
       </c>
       <c r="AN93">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO93">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS93">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT93">
-        <v>2.89</v>
+        <v>3.08</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20798,22 +20807,22 @@
         <v>2</v>
       </c>
       <c r="AO94">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="AS94">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -21001,25 +21010,25 @@
         <v>2.35</v>
       </c>
       <c r="AN95">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO95">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ95">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR95">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT95">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -21135,7 +21144,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21207,25 +21216,25 @@
         <v>2.36</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO96">
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="AS96">
         <v>1.24</v>
       </c>
       <c r="AT96">
-        <v>2.88</v>
+        <v>3.33</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21413,25 +21422,25 @@
         <v>2.03</v>
       </c>
       <c r="AN97">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO97">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ97">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR97">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AS97">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="AT97">
-        <v>2.82</v>
+        <v>3.14</v>
       </c>
       <c r="AU97">
         <v>8</v>
@@ -21622,22 +21631,22 @@
         <v>2</v>
       </c>
       <c r="AO98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS98">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="AU98">
         <v>2</v>
@@ -21825,25 +21834,25 @@
         <v>1.65</v>
       </c>
       <c r="AN99">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO99">
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ99">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR99">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="AS99">
-        <v>1.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT99">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -22031,25 +22040,25 @@
         <v>1.53</v>
       </c>
       <c r="AN100">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO100">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR100">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AS100">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="AT100">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -22237,25 +22246,25 @@
         <v>2.05</v>
       </c>
       <c r="AN101">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AO101">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AP101">
         <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR101">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.34</v>
+        <v>0.92</v>
       </c>
       <c r="AT101">
-        <v>3.21</v>
+        <v>2.67</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22443,25 +22452,25 @@
         <v>0</v>
       </c>
       <c r="AN102">
+        <v>1.67</v>
+      </c>
+      <c r="AO102">
+        <v>0.33</v>
+      </c>
+      <c r="AP102">
+        <v>2.1</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>2.01</v>
+      </c>
+      <c r="AS102">
         <v>1.83</v>
       </c>
-      <c r="AO102">
-        <v>1</v>
-      </c>
-      <c r="AP102">
-        <v>1.69</v>
-      </c>
-      <c r="AQ102">
-        <v>1.63</v>
-      </c>
-      <c r="AR102">
-        <v>1.88</v>
-      </c>
-      <c r="AS102">
-        <v>1.9</v>
-      </c>
       <c r="AT102">
-        <v>3.78</v>
+        <v>3.84</v>
       </c>
       <c r="AU102">
         <v>5</v>
@@ -22577,7 +22586,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22649,25 +22658,25 @@
         <v>1.68</v>
       </c>
       <c r="AN103">
+        <v>3</v>
+      </c>
+      <c r="AO103">
         <v>1.33</v>
       </c>
-      <c r="AO103">
-        <v>1.83</v>
-      </c>
       <c r="AP103">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
-        <v>1.23</v>
+        <v>1.61</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AT103">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22783,7 +22792,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22855,25 +22864,25 @@
         <v>1.61</v>
       </c>
       <c r="AN104">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR104">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AS104">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="AT104">
-        <v>3.52</v>
+        <v>3.85</v>
       </c>
       <c r="AU104">
         <v>11</v>
@@ -22989,7 +22998,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23061,25 +23070,25 @@
         <v>2.75</v>
       </c>
       <c r="AN105">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO105">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ105">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AS105">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT105">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="AU105">
         <v>11</v>
@@ -23267,25 +23276,25 @@
         <v>1.42</v>
       </c>
       <c r="AN106">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AO106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ106">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS106">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23473,25 +23482,25 @@
         <v>2.4</v>
       </c>
       <c r="AN107">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AO107">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR107">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS107">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT107">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23679,25 +23688,25 @@
         <v>1.95</v>
       </c>
       <c r="AN108">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.57</v>
+        <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ108">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="AS108">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT108">
-        <v>2.94</v>
+        <v>3.17</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23885,25 +23894,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO109">
-        <v>1.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="AQ109">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS109">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="AT109">
-        <v>2.61</v>
+        <v>1.16</v>
       </c>
       <c r="AU109">
         <v>4</v>
@@ -24019,7 +24028,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24091,25 +24100,25 @@
         <v>1.93</v>
       </c>
       <c r="AN110">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO110">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP110">
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR110">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS110">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT110">
-        <v>3.28</v>
+        <v>3.06</v>
       </c>
       <c r="AU110">
         <v>12</v>
@@ -24225,7 +24234,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24297,25 +24306,25 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="AO111">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AS111">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT111">
-        <v>3.37</v>
+        <v>3.02</v>
       </c>
       <c r="AU111">
         <v>3</v>
@@ -24503,25 +24512,25 @@
         <v>1.6</v>
       </c>
       <c r="AN112">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP112">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR112">
-        <v>1.43</v>
+        <v>1.95</v>
       </c>
       <c r="AS112">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT112">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24709,25 +24718,25 @@
         <v>1.45</v>
       </c>
       <c r="AN113">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO113">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AS113">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AT113">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -24843,7 +24852,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24915,25 +24924,25 @@
         <v>1.95</v>
       </c>
       <c r="AN114">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AO114">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AS114">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
       <c r="AU114">
         <v>8</v>
@@ -25049,7 +25058,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25121,25 +25130,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO115">
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR115">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AT115">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="AU115">
         <v>8</v>
@@ -25327,25 +25336,25 @@
         <v>1.77</v>
       </c>
       <c r="AN116">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AO116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
       </c>
       <c r="AR116">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AS116">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AT116">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25461,7 +25470,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25533,25 +25542,25 @@
         <v>2.62</v>
       </c>
       <c r="AN117">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AS117">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="AT117">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25667,7 +25676,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25739,25 +25748,25 @@
         <v>1.7</v>
       </c>
       <c r="AN118">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AO118">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ118">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AS118">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT118">
-        <v>2.85</v>
+        <v>3.09</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25945,25 +25954,25 @@
         <v>1.45</v>
       </c>
       <c r="AN119">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="AS119">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="AU119">
         <v>8</v>
@@ -26079,7 +26088,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26151,25 +26160,25 @@
         <v>1.53</v>
       </c>
       <c r="AN120">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO120">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AS120">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26357,25 +26366,25 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO121">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR121">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AT121">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26491,7 +26500,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26563,25 +26572,25 @@
         <v>1.68</v>
       </c>
       <c r="AN122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO122">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR122">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="AS122">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT122">
-        <v>3.18</v>
+        <v>3.44</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26769,25 +26778,25 @@
         <v>2.1</v>
       </c>
       <c r="AN123">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="AO123">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ123">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR123">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="AS123">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AT123">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="AU123">
         <v>7</v>
@@ -26903,7 +26912,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26975,25 +26984,25 @@
         <v>1.93</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO124">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR124">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS124">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="AT124">
-        <v>3.07</v>
+        <v>3.52</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27181,25 +27190,25 @@
         <v>1.85</v>
       </c>
       <c r="AN125">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO125">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR125">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AS125">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="AT125">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="AU125">
         <v>5</v>
@@ -27387,25 +27396,25 @@
         <v>1.42</v>
       </c>
       <c r="AN126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO126">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="AQ126">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="AS126">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="AU126">
         <v>11</v>
@@ -27596,22 +27605,22 @@
         <v>1</v>
       </c>
       <c r="AO127">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AP127">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS127">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AT127">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AU127">
         <v>9</v>
@@ -27799,25 +27808,25 @@
         <v>0</v>
       </c>
       <c r="AN128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO128">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ128">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="AS128">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AT128">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="AU128">
         <v>14</v>
@@ -27933,7 +27942,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28005,25 +28014,25 @@
         <v>1.58</v>
       </c>
       <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>1.5</v>
       </c>
-      <c r="AO129">
-        <v>2</v>
-      </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AQ129">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AS129">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
-        <v>3.12</v>
+        <v>2.74</v>
       </c>
       <c r="AU129">
         <v>13</v>
@@ -28139,7 +28148,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28217,19 +28226,19 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR130">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS130">
-        <v>1.37</v>
+        <v>0.9</v>
       </c>
       <c r="AT130">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28417,25 +28426,25 @@
         <v>2</v>
       </c>
       <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>2</v>
+      </c>
+      <c r="AP131">
         <v>1.88</v>
       </c>
-      <c r="AO131">
-        <v>1.38</v>
-      </c>
-      <c r="AP131">
-        <v>1.69</v>
-      </c>
       <c r="AQ131">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AS131">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT131">
-        <v>2.82</v>
+        <v>3.16</v>
       </c>
       <c r="AU131">
         <v>10</v>
@@ -28626,22 +28635,22 @@
         <v>1</v>
       </c>
       <c r="AO132">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AP132">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR132">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="AS132">
         <v>1.99</v>
       </c>
       <c r="AT132">
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28829,25 +28838,25 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO133">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP133">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR133">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AT133">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28963,7 +28972,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29038,22 +29047,22 @@
         <v>1.75</v>
       </c>
       <c r="AO134">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR134">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AT134">
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29169,7 +29178,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29241,25 +29250,25 @@
         <v>1.7</v>
       </c>
       <c r="AN135">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ135">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR135">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="AS135">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AT135">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29447,25 +29456,25 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO136">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ136">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR136">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AS136">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT136">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="AU136">
         <v>8</v>
@@ -29653,25 +29662,25 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="AO137">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ137">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR137">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AS137">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AT137">
-        <v>2.49</v>
+        <v>2.24</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29859,25 +29868,25 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO138">
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR138">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AS138">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AT138">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="AU138">
         <v>6</v>
@@ -30065,25 +30074,25 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ139">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AS139">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT139">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU139">
         <v>6</v>
@@ -30271,25 +30280,25 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR140">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AT140">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30405,7 +30414,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30477,25 +30486,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>2.11</v>
+        <v>3</v>
       </c>
       <c r="AO141">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR141">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AS141">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT141">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="AU141">
         <v>6</v>
@@ -30683,25 +30692,25 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO142">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP142">
+        <v>1.78</v>
+      </c>
+      <c r="AQ142">
+        <v>1.25</v>
+      </c>
+      <c r="AR142">
         <v>1.65</v>
       </c>
-      <c r="AQ142">
-        <v>1.29</v>
-      </c>
-      <c r="AR142">
-        <v>1.51</v>
-      </c>
       <c r="AS142">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="AT142">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="AU142">
         <v>3</v>
@@ -30817,7 +30826,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -30889,25 +30898,25 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR143">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AS143">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AT143">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31095,25 +31104,25 @@
         <v>1.77</v>
       </c>
       <c r="AN144">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AO144">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AP144">
+        <v>1.11</v>
+      </c>
+      <c r="AQ144">
+        <v>0.88</v>
+      </c>
+      <c r="AR144">
+        <v>1.61</v>
+      </c>
+      <c r="AS144">
         <v>1.25</v>
       </c>
-      <c r="AQ144">
-        <v>1.25</v>
-      </c>
-      <c r="AR144">
-        <v>1.38</v>
-      </c>
-      <c r="AS144">
-        <v>1.42</v>
-      </c>
       <c r="AT144">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU144">
         <v>7</v>
@@ -31229,7 +31238,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31301,25 +31310,25 @@
         <v>1.93</v>
       </c>
       <c r="AN145">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AO145">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP145">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ145">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR145">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AS145">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT145">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="AU145">
         <v>8</v>
@@ -31435,7 +31444,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31507,25 +31516,25 @@
         <v>0</v>
       </c>
       <c r="AN146">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR146">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AS146">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT146">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="AU146">
         <v>6</v>
@@ -31641,7 +31650,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31713,25 +31722,25 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO147">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AP147">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AQ147">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR147">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT147">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31847,7 +31856,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31919,25 +31928,25 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO148">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS148">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AT148">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="AU148">
         <v>5</v>
@@ -32053,7 +32062,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32125,25 +32134,25 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="AO149">
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ149">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS149">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="AT149">
-        <v>2.82</v>
+        <v>2.49</v>
       </c>
       <c r="AU149">
         <v>9</v>
@@ -32259,7 +32268,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32331,25 +32340,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO150">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ150">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR150">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AS150">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AT150">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32465,7 +32474,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32537,25 +32546,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="AO151">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR151">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AS151">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32671,7 +32680,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32743,25 +32752,25 @@
         <v>1.62</v>
       </c>
       <c r="AN152">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AO152">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ152">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR152">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS152">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AT152">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AU152">
         <v>3</v>
@@ -32877,7 +32886,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -32949,25 +32958,25 @@
         <v>2.27</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO153">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR153">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT153">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33083,7 +33092,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33155,25 +33164,25 @@
         <v>0</v>
       </c>
       <c r="AN154">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AO154">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="AQ154">
+        <v>2</v>
+      </c>
+      <c r="AR154">
         <v>2.06</v>
       </c>
-      <c r="AR154">
-        <v>1.4</v>
-      </c>
       <c r="AS154">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT154">
-        <v>3.14</v>
+        <v>3.88</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33289,7 +33298,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33361,25 +33370,25 @@
         <v>2.24</v>
       </c>
       <c r="AN155">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AO155">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AP155">
+        <v>1.78</v>
+      </c>
+      <c r="AQ155">
+        <v>0.78</v>
+      </c>
+      <c r="AR155">
         <v>1.65</v>
       </c>
-      <c r="AQ155">
-        <v>1.47</v>
-      </c>
-      <c r="AR155">
-        <v>1.53</v>
-      </c>
       <c r="AS155">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AT155">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU155">
         <v>11</v>
@@ -33495,7 +33504,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33567,25 +33576,25 @@
         <v>1.83</v>
       </c>
       <c r="AN156">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO156">
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ156">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR156">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AS156">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="AT156">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33701,7 +33710,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33773,25 +33782,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO157">
         <v>1.6</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ157">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS157">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AT157">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU157">
         <v>5</v>
@@ -33979,25 +33988,25 @@
         <v>1.51</v>
       </c>
       <c r="AN158">
+        <v>0.75</v>
+      </c>
+      <c r="AO158">
         <v>1.2</v>
       </c>
-      <c r="AO158">
-        <v>1.6</v>
-      </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS158">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AT158">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU158">
         <v>8</v>
@@ -34185,25 +34194,25 @@
         <v>0</v>
       </c>
       <c r="AN159">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO159">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP159">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ159">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR159">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AS159">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT159">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="AU159">
         <v>9</v>
@@ -34319,7 +34328,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34391,7 +34400,7 @@
         <v>0</v>
       </c>
       <c r="AN160">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO160">
         <v>1.2</v>
@@ -34400,16 +34409,16 @@
         <v>2.13</v>
       </c>
       <c r="AQ160">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR160">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="AS160">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="AU160">
         <v>7</v>
@@ -34597,25 +34606,25 @@
         <v>2.35</v>
       </c>
       <c r="AN161">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO161">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ161">
         <v>1.25</v>
       </c>
       <c r="AR161">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AS161">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AT161">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="AU161">
         <v>11</v>
@@ -34731,7 +34740,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34803,25 +34812,25 @@
         <v>0</v>
       </c>
       <c r="AN162">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO162">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR162">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AS162">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT162">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="AU162">
         <v>10</v>
@@ -35009,25 +35018,25 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO163">
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ163">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR163">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS163">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35215,25 +35224,25 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="AO164">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="AS164">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AT164">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35421,25 +35430,25 @@
         <v>0</v>
       </c>
       <c r="AN165">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AO165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP165">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ165">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR165">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AS165">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT165">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35627,25 +35636,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AO166">
-        <v>0.91</v>
+        <v>0.25</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR166">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AS166">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT166">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="AU166">
         <v>8</v>
@@ -35761,7 +35770,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35833,25 +35842,25 @@
         <v>1.64</v>
       </c>
       <c r="AN167">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AO167">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AP167">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AQ167">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR167">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AS167">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT167">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AU167">
         <v>8</v>
@@ -36039,25 +36048,25 @@
         <v>1.6</v>
       </c>
       <c r="AN168">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="AO168">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP168">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ168">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR168">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS168">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AT168">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36173,7 +36182,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36245,25 +36254,25 @@
         <v>1.61</v>
       </c>
       <c r="AN169">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AO169">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AP169">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
       </c>
       <c r="AS169">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AT169">
-        <v>3.27</v>
+        <v>3.02</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36379,7 +36388,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36451,25 +36460,25 @@
         <v>2.3</v>
       </c>
       <c r="AN170">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO170">
+        <v>1.67</v>
+      </c>
+      <c r="AP170">
+        <v>1.89</v>
+      </c>
+      <c r="AQ170">
         <v>1.6</v>
       </c>
-      <c r="AP170">
-        <v>1.59</v>
-      </c>
-      <c r="AQ170">
-        <v>1.53</v>
-      </c>
       <c r="AR170">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AS170">
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>2.94</v>
+        <v>3.22</v>
       </c>
       <c r="AU170">
         <v>9</v>
@@ -36585,7 +36594,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36657,25 +36666,25 @@
         <v>2.12</v>
       </c>
       <c r="AN171">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="AO171">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
-        <v>1.47</v>
+        <v>1.87</v>
       </c>
       <c r="AS171">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT171">
-        <v>2.89</v>
+        <v>3.11</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36791,7 +36800,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36863,25 +36872,25 @@
         <v>2</v>
       </c>
       <c r="AN172">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO172">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AP172">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ172">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR172">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AS172">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT172">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37069,25 +37078,25 @@
         <v>2.03</v>
       </c>
       <c r="AN173">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="AO173">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AP173">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ173">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR173">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AS173">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT173">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU173">
         <v>11</v>
@@ -37203,7 +37212,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37275,25 +37284,25 @@
         <v>1.82</v>
       </c>
       <c r="AN174">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AO174">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR174">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AS174">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT174">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="AU174">
         <v>4</v>
@@ -37409,7 +37418,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37481,25 +37490,25 @@
         <v>1.44</v>
       </c>
       <c r="AN175">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="AO175">
-        <v>1.45</v>
+        <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ175">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AS175">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AT175">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU175">
         <v>5</v>
@@ -37615,7 +37624,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37687,25 +37696,25 @@
         <v>1.97</v>
       </c>
       <c r="AN176">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AO176">
-        <v>1.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ176">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR176">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AS176">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AT176">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AU176">
         <v>8</v>
@@ -37821,7 +37830,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -37893,25 +37902,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO177">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ177">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR177">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="AS177">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT177">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -38027,7 +38036,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38099,25 +38108,25 @@
         <v>1.97</v>
       </c>
       <c r="AN178">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AO178">
-        <v>1.18</v>
+        <v>0.75</v>
       </c>
       <c r="AP178">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AS178">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="AT178">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38305,25 +38314,25 @@
         <v>2.07</v>
       </c>
       <c r="AN179">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AO179">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="AP179">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR179">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AS179">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT179">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38439,7 +38448,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38511,25 +38520,25 @@
         <v>1.79</v>
       </c>
       <c r="AN180">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="AO180">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="AP180">
         <v>2.13</v>
       </c>
       <c r="AQ180">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR180">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="AU180">
         <v>6</v>
@@ -38717,25 +38726,25 @@
         <v>1.6</v>
       </c>
       <c r="AN181">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO181">
+        <v>0.83</v>
+      </c>
+      <c r="AP181">
+        <v>1.11</v>
+      </c>
+      <c r="AQ181">
+        <v>0.88</v>
+      </c>
+      <c r="AR181">
         <v>1.42</v>
       </c>
-      <c r="AP181">
-        <v>1.06</v>
-      </c>
-      <c r="AQ181">
-        <v>1.47</v>
-      </c>
-      <c r="AR181">
-        <v>1.63</v>
-      </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="AT181">
-        <v>3.08</v>
+        <v>2.55</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38851,7 +38860,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38923,25 +38932,25 @@
         <v>1.35</v>
       </c>
       <c r="AN182">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO182">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="AP182">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="AQ182">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
-        <v>1.49</v>
+        <v>1.89</v>
       </c>
       <c r="AS182">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="AT182">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -39057,7 +39066,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39129,25 +39138,25 @@
         <v>1.81</v>
       </c>
       <c r="AN183">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO183">
-        <v>1.58</v>
+        <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ183">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR183">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="AS183">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT183">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39263,7 +39272,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39335,25 +39344,25 @@
         <v>2.47</v>
       </c>
       <c r="AN184">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AO184">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AP184">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR184">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS184">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT184">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="AU184">
         <v>10</v>
@@ -39544,22 +39553,22 @@
         <v>0.83</v>
       </c>
       <c r="AO185">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ185">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR185">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT185">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="AU185">
         <v>0</v>
@@ -39675,7 +39684,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39747,25 +39756,25 @@
         <v>1.9</v>
       </c>
       <c r="AN186">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="AO186">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP186">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ186">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR186">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="AS186">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT186">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU186">
         <v>8</v>
@@ -39953,25 +39962,25 @@
         <v>1.55</v>
       </c>
       <c r="AN187">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO187">
         <v>1.83</v>
       </c>
       <c r="AP187">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR187">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="AS187">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AT187">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40087,7 +40096,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40162,22 +40171,22 @@
         <v>0.83</v>
       </c>
       <c r="AO188">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AP188">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ188">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR188">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="AS188">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT188">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40293,7 +40302,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40365,25 +40374,25 @@
         <v>1.67</v>
       </c>
       <c r="AN189">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO189">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="AP189">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR189">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="AS189">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT189">
-        <v>2.89</v>
+        <v>3.02</v>
       </c>
       <c r="AU189">
         <v>6</v>
@@ -40571,25 +40580,25 @@
         <v>1.85</v>
       </c>
       <c r="AN190">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AO190">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP190">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR190">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS190">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>2.96</v>
+        <v>3.06</v>
       </c>
       <c r="AU190">
         <v>3</v>
@@ -40777,25 +40786,25 @@
         <v>1.57</v>
       </c>
       <c r="AN191">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO191">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="AP191">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="AQ191">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR191">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AS191">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AT191">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40983,25 +40992,25 @@
         <v>0</v>
       </c>
       <c r="AN192">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO192">
         <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ192">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR192">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AS192">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="AT192">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="AU192">
         <v>7</v>
@@ -41117,7 +41126,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41189,25 +41198,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
+        <v>1.43</v>
+      </c>
+      <c r="AO193">
+        <v>2</v>
+      </c>
+      <c r="AP193">
         <v>1.33</v>
       </c>
-      <c r="AO193">
-        <v>1.91</v>
-      </c>
-      <c r="AP193">
-        <v>1.29</v>
-      </c>
       <c r="AQ193">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR193">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="AS193">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AT193">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="AU193">
         <v>6</v>
@@ -41323,7 +41332,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41395,25 +41404,25 @@
         <v>1.75</v>
       </c>
       <c r="AN194">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AO194">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="AP194">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="AQ194">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="AR194">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AS194">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="AT194">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU194">
         <v>6</v>
@@ -41601,25 +41610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN195">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO195">
-        <v>1.38</v>
+        <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR195">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="AS195">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AT195">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="AU195">
         <v>4</v>
@@ -41735,7 +41744,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41810,22 +41819,22 @@
         <v>2</v>
       </c>
       <c r="AO196">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AP196">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ196">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR196">
+        <v>1.74</v>
+      </c>
+      <c r="AS196">
         <v>1.57</v>
       </c>
-      <c r="AS196">
-        <v>1.71</v>
-      </c>
       <c r="AT196">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="AU196">
         <v>14</v>
@@ -41941,7 +41950,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -42013,25 +42022,25 @@
         <v>1.53</v>
       </c>
       <c r="AN197">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AO197">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR197">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AS197">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AT197">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU197">
         <v>8</v>
@@ -42147,7 +42156,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42219,25 +42228,25 @@
         <v>1.62</v>
       </c>
       <c r="AN198">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="AO198">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP198">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ198">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR198">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AS198">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT198">
-        <v>3.03</v>
+        <v>3.28</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42425,25 +42434,25 @@
         <v>1.75</v>
       </c>
       <c r="AN199">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AO199">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AP199">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AQ199">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR199">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AS199">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="AT199">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
       <c r="AU199">
         <v>6</v>
@@ -42631,25 +42640,25 @@
         <v>2.55</v>
       </c>
       <c r="AN200">
+        <v>1.83</v>
+      </c>
+      <c r="AO200">
+        <v>0.83</v>
+      </c>
+      <c r="AP200">
+        <v>1.88</v>
+      </c>
+      <c r="AQ200">
+        <v>0.63</v>
+      </c>
+      <c r="AR200">
         <v>1.69</v>
       </c>
-      <c r="AO200">
-        <v>0.85</v>
-      </c>
-      <c r="AP200">
-        <v>1.69</v>
-      </c>
-      <c r="AQ200">
-        <v>0.88</v>
-      </c>
-      <c r="AR200">
-        <v>1.56</v>
-      </c>
       <c r="AS200">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AT200">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="AU200">
         <v>14</v>
@@ -42837,25 +42846,25 @@
         <v>2.3</v>
       </c>
       <c r="AN201">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="AO201">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ201">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR201">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AS201">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="AT201">
-        <v>3.31</v>
+        <v>3.73</v>
       </c>
       <c r="AU201">
         <v>8</v>
@@ -43043,25 +43052,25 @@
         <v>1.45</v>
       </c>
       <c r="AN202">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AO202">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AP202">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ202">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR202">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="AS202">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT202">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="AU202">
         <v>10</v>
@@ -43177,7 +43186,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43249,25 +43258,25 @@
         <v>1.62</v>
       </c>
       <c r="AN203">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO203">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP203">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AQ203">
         <v>1.25</v>
       </c>
       <c r="AR203">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="AS203">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
       <c r="AT203">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="AU203">
         <v>9</v>
@@ -43455,25 +43464,25 @@
         <v>1.65</v>
       </c>
       <c r="AN204">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AO204">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP204">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ204">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR204">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="AS204">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT204">
-        <v>2.85</v>
+        <v>3.34</v>
       </c>
       <c r="AU204">
         <v>5</v>
@@ -43589,7 +43598,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43661,25 +43670,25 @@
         <v>1.5</v>
       </c>
       <c r="AN205">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AO205">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AR205">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AS205">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="AT205">
-        <v>3.16</v>
+        <v>2.81</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43867,25 +43876,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO206">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AP206">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ206">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AR206">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="AS206">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AT206">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="AU206">
         <v>7</v>
@@ -44001,7 +44010,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44076,22 +44085,22 @@
         <v>1.83</v>
       </c>
       <c r="AO207">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ207">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS207">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AT207">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44279,25 +44288,25 @@
         <v>1.45</v>
       </c>
       <c r="AN208">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AO208">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AP208">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ208">
+        <v>0.88</v>
+      </c>
+      <c r="AR208">
         <v>1.53</v>
       </c>
-      <c r="AR208">
-        <v>1.36</v>
-      </c>
       <c r="AS208">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AT208">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44485,25 +44494,25 @@
         <v>2.65</v>
       </c>
       <c r="AN209">
-        <v>1.43</v>
+        <v>2.2</v>
       </c>
       <c r="AO209">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ209">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR209">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="AS209">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT209">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44691,25 +44700,25 @@
         <v>0</v>
       </c>
       <c r="AN210">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AO210">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AP210">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AQ210">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR210">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AS210">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT210">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44825,7 +44834,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44897,25 +44906,25 @@
         <v>1.45</v>
       </c>
       <c r="AN211">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="AO211">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AP211">
-        <v>1.47</v>
+        <v>2.25</v>
       </c>
       <c r="AQ211">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR211">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="AS211">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="AT211">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="AU211">
         <v>10</v>
@@ -45031,7 +45040,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45103,25 +45112,25 @@
         <v>1.53</v>
       </c>
       <c r="AN212">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO212">
-        <v>1.29</v>
+        <v>0.29</v>
       </c>
       <c r="AP212">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ212">
-        <v>1.59</v>
+        <v>0.63</v>
       </c>
       <c r="AR212">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AS212">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AT212">
-        <v>2.91</v>
+        <v>2.55</v>
       </c>
       <c r="AU212">
         <v>3</v>
@@ -45237,7 +45246,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45309,25 +45318,25 @@
         <v>1.28</v>
       </c>
       <c r="AN213">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO213">
-        <v>1.57</v>
+        <v>0.86</v>
       </c>
       <c r="AP213">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="AQ213">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AR213">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS213">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AT213">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU213">
         <v>8</v>
@@ -45515,25 +45524,25 @@
         <v>2.15</v>
       </c>
       <c r="AN214">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO214">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AP214">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AQ214">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AR214">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="AS214">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AT214">
-        <v>3.07</v>
+        <v>3.5</v>
       </c>
       <c r="AU214">
         <v>7</v>
@@ -45649,7 +45658,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45721,25 +45730,25 @@
         <v>1.62</v>
       </c>
       <c r="AN215">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AO215">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AP215">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ215">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AR215">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AS215">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT215">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="AU215">
         <v>9</v>
@@ -45855,7 +45864,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -45927,25 +45936,25 @@
         <v>1.42</v>
       </c>
       <c r="AN216">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AO216">
-        <v>1.71</v>
+        <v>0.8</v>
       </c>
       <c r="AP216">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ216">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR216">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AS216">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AT216">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="AU216">
         <v>5</v>
@@ -46061,7 +46070,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46133,25 +46142,25 @@
         <v>1.65</v>
       </c>
       <c r="AN217">
-        <v>0.86</v>
+        <v>1.17</v>
       </c>
       <c r="AO217">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP217">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AQ217">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR217">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS217">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT217">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46339,25 +46348,25 @@
         <v>2</v>
       </c>
       <c r="AN218">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AO218">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AQ218">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AR218">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AS218">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AT218">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="AU218">
         <v>7</v>
@@ -46473,7 +46482,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46545,25 +46554,25 @@
         <v>1.53</v>
       </c>
       <c r="AN219">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO219">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AP219">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ219">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="AR219">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AS219">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AT219">
-        <v>3.32</v>
+        <v>3.08</v>
       </c>
       <c r="AU219">
         <v>4</v>
@@ -46751,25 +46760,25 @@
         <v>1.85</v>
       </c>
       <c r="AN220">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AO220">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="AP220">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AQ220">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR220">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AS220">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="AT220">
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -46885,7 +46894,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -46957,25 +46966,25 @@
         <v>1.77</v>
       </c>
       <c r="AN221">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AO221">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP221">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ221">
         <v>1.25</v>
       </c>
       <c r="AR221">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="AS221">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AT221">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="AU221">
         <v>9</v>
@@ -47091,7 +47100,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47163,25 +47172,25 @@
         <v>1.77</v>
       </c>
       <c r="AN222">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="AO222">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AP222">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ222">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AR222">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="AS222">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AT222">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="AU222">
         <v>9</v>
@@ -47297,7 +47306,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47369,25 +47378,25 @@
         <v>1.53</v>
       </c>
       <c r="AN223">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AO223">
-        <v>2.07</v>
+        <v>1.63</v>
       </c>
       <c r="AP223">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ223">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AR223">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AS223">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="AT223">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47503,7 +47512,7 @@
         <v>249</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47575,25 +47584,25 @@
         <v>1.52</v>
       </c>
       <c r="AN224">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AO224">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AP224">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ224">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="AR224">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS224">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AT224">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="AU224">
         <v>3</v>
@@ -47709,7 +47718,7 @@
         <v>250</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -47781,25 +47790,25 @@
         <v>2.2</v>
       </c>
       <c r="AN225">
-        <v>1.93</v>
+        <v>2.67</v>
       </c>
       <c r="AO225">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AP225">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ225">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AR225">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="AS225">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT225">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -47987,25 +47996,25 @@
         <v>1.62</v>
       </c>
       <c r="AN226">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AO226">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AP226">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AQ226">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR226">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="AS226">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT226">
-        <v>2.83</v>
+        <v>2.67</v>
       </c>
       <c r="AU226">
         <v>16</v>
@@ -48121,7 +48130,7 @@
         <v>251</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>1.83</v>
@@ -48193,25 +48202,25 @@
         <v>2.65</v>
       </c>
       <c r="AN227">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO227">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP227">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ227">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AR227">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS227">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT227">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48327,7 +48336,7 @@
         <v>252</v>
       </c>
       <c r="P228" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48399,25 +48408,25 @@
         <v>1.88</v>
       </c>
       <c r="AN228">
-        <v>1.4</v>
+        <v>2.29</v>
       </c>
       <c r="AO228">
-        <v>1.47</v>
+        <v>0.57</v>
       </c>
       <c r="AP228">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ228">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR228">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AS228">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AT228">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU228">
         <v>5</v>
@@ -48533,7 +48542,7 @@
         <v>109</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q229">
         <v>2.5</v>
@@ -48605,25 +48614,25 @@
         <v>1.8</v>
       </c>
       <c r="AN229">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="AO229">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP229">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
         <v>1.25</v>
       </c>
       <c r="AR229">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AS229">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="AT229">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU229">
         <v>3</v>
@@ -48739,7 +48748,7 @@
         <v>253</v>
       </c>
       <c r="P230" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q230">
         <v>3.25</v>
@@ -48811,25 +48820,25 @@
         <v>1.41</v>
       </c>
       <c r="AN230">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AO230">
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ230">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR230">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AS230">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT230">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="AU230">
         <v>5</v>
@@ -48945,7 +48954,7 @@
         <v>254</v>
       </c>
       <c r="P231" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q231">
         <v>2.4</v>
@@ -49017,25 +49026,25 @@
         <v>2.05</v>
       </c>
       <c r="AN231">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AO231">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AQ231">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR231">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AS231">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AT231">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49223,25 +49232,25 @@
         <v>0</v>
       </c>
       <c r="AN232">
-        <v>1.53</v>
+        <v>2.33</v>
       </c>
       <c r="AO232">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP232">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AQ232">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AR232">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="AS232">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT232">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49429,25 +49438,25 @@
         <v>1.75</v>
       </c>
       <c r="AN233">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO233">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AP233">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AR233">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AS233">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT233">
-        <v>2.94</v>
+        <v>3.24</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49563,7 +49572,7 @@
         <v>109</v>
       </c>
       <c r="P234" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -49635,25 +49644,25 @@
         <v>1.77</v>
       </c>
       <c r="AN234">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="AO234">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AP234">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AQ234">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR234">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AS234">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="AT234">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49841,25 +49850,25 @@
         <v>2.1</v>
       </c>
       <c r="AN235">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AO235">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="AP235">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AQ235">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AR235">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AS235">
-        <v>1.34</v>
+        <v>0.97</v>
       </c>
       <c r="AT235">
-        <v>2.72</v>
+        <v>2.21</v>
       </c>
       <c r="AU235">
         <v>9</v>
@@ -50047,25 +50056,25 @@
         <v>1.62</v>
       </c>
       <c r="AN236">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AO236">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AP236">
         <v>2.13</v>
       </c>
       <c r="AQ236">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AR236">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="AS236">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AT236">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="AU236">
         <v>4</v>
@@ -50181,7 +50190,7 @@
         <v>258</v>
       </c>
       <c r="P237" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q237">
         <v>2.75</v>
@@ -50253,25 +50262,25 @@
         <v>1.55</v>
       </c>
       <c r="AN237">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AO237">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AP237">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR237">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AS237">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="AT237">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="AU237">
         <v>5</v>
@@ -50387,7 +50396,7 @@
         <v>259</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50459,25 +50468,25 @@
         <v>1.66</v>
       </c>
       <c r="AN238">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="AO238">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AP238">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="AQ238">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
       <c r="AR238">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS238">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AT238">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50593,7 +50602,7 @@
         <v>109</v>
       </c>
       <c r="P239" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -50665,25 +50674,25 @@
         <v>1.47</v>
       </c>
       <c r="AN239">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO239">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AP239">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AQ239">
-        <v>1.47</v>
+        <v>0.78</v>
       </c>
       <c r="AR239">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AS239">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AT239">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="AU239">
         <v>3</v>
@@ -50799,7 +50808,7 @@
         <v>140</v>
       </c>
       <c r="P240" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -50871,25 +50880,25 @@
         <v>2.25</v>
       </c>
       <c r="AN240">
-        <v>1.88</v>
+        <v>2.43</v>
       </c>
       <c r="AO240">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AP240">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AQ240">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR240">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AS240">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AT240">
-        <v>3.3</v>
+        <v>3.59</v>
       </c>
       <c r="AU240">
         <v>4</v>
@@ -51077,25 +51086,25 @@
         <v>1.61</v>
       </c>
       <c r="AN241">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AO241">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP241">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AQ241">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR241">
+        <v>1.55</v>
+      </c>
+      <c r="AS241">
         <v>1.44</v>
       </c>
-      <c r="AS241">
-        <v>1.69</v>
-      </c>
       <c r="AT241">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="AU241">
         <v>9</v>
@@ -51211,7 +51220,7 @@
         <v>109</v>
       </c>
       <c r="P242" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51286,22 +51295,22 @@
         <v>0.5</v>
       </c>
       <c r="AO242">
+        <v>1.44</v>
+      </c>
+      <c r="AP242">
+        <v>0.43</v>
+      </c>
+      <c r="AQ242">
+        <v>1.6</v>
+      </c>
+      <c r="AR242">
+        <v>1.55</v>
+      </c>
+      <c r="AS242">
         <v>1.43</v>
       </c>
-      <c r="AP242">
-        <v>0.47</v>
-      </c>
-      <c r="AQ242">
-        <v>1.53</v>
-      </c>
-      <c r="AR242">
-        <v>1.4</v>
-      </c>
-      <c r="AS242">
-        <v>1.39</v>
-      </c>
       <c r="AT242">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="AU242">
         <v>3</v>
@@ -51489,25 +51498,25 @@
         <v>1.71</v>
       </c>
       <c r="AN243">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="AO243">
-        <v>1.06</v>
+        <v>0.33</v>
       </c>
       <c r="AP243">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="AQ243">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AR243">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AS243">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AT243">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="AU243">
         <v>4</v>
@@ -51623,7 +51632,7 @@
         <v>161</v>
       </c>
       <c r="P244" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -51695,25 +51704,25 @@
         <v>2.45</v>
       </c>
       <c r="AN244">
-        <v>1.69</v>
+        <v>2.13</v>
       </c>
       <c r="AO244">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP244">
+        <v>1.89</v>
+      </c>
+      <c r="AQ244">
+        <v>1.67</v>
+      </c>
+      <c r="AR244">
+        <v>1.92</v>
+      </c>
+      <c r="AS244">
         <v>1.59</v>
       </c>
-      <c r="AQ244">
-        <v>1.47</v>
-      </c>
-      <c r="AR244">
-        <v>1.68</v>
-      </c>
-      <c r="AS244">
-        <v>1.61</v>
-      </c>
       <c r="AT244">
-        <v>3.29</v>
+        <v>3.51</v>
       </c>
       <c r="AU244">
         <v>5</v>
@@ -51780,6 +51789,830 @@
       </c>
       <c r="BP244">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7781319</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>97</v>
+      </c>
+      <c r="H245" t="s">
+        <v>89</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245" t="s">
+        <v>109</v>
+      </c>
+      <c r="P245" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q245">
+        <v>3.25</v>
+      </c>
+      <c r="R245">
+        <v>2.3</v>
+      </c>
+      <c r="S245">
+        <v>2.88</v>
+      </c>
+      <c r="T245">
+        <v>1.33</v>
+      </c>
+      <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>2.5</v>
+      </c>
+      <c r="W245">
+        <v>1.5</v>
+      </c>
+      <c r="X245">
+        <v>6</v>
+      </c>
+      <c r="Y245">
+        <v>1.13</v>
+      </c>
+      <c r="Z245">
+        <v>2.72</v>
+      </c>
+      <c r="AA245">
+        <v>3.63</v>
+      </c>
+      <c r="AB245">
+        <v>2.1</v>
+      </c>
+      <c r="AC245">
+        <v>1.04</v>
+      </c>
+      <c r="AD245">
+        <v>10</v>
+      </c>
+      <c r="AE245">
+        <v>1.22</v>
+      </c>
+      <c r="AF245">
+        <v>4.2</v>
+      </c>
+      <c r="AG245">
+        <v>1.67</v>
+      </c>
+      <c r="AH245">
+        <v>2.05</v>
+      </c>
+      <c r="AI245">
+        <v>1.62</v>
+      </c>
+      <c r="AJ245">
+        <v>2.2</v>
+      </c>
+      <c r="AK245">
+        <v>1.63</v>
+      </c>
+      <c r="AL245">
+        <v>1.25</v>
+      </c>
+      <c r="AM245">
+        <v>1.4</v>
+      </c>
+      <c r="AN245">
+        <v>0.67</v>
+      </c>
+      <c r="AO245">
+        <v>2.14</v>
+      </c>
+      <c r="AP245">
+        <v>0.71</v>
+      </c>
+      <c r="AQ245">
+        <v>2</v>
+      </c>
+      <c r="AR245">
+        <v>1.17</v>
+      </c>
+      <c r="AS245">
+        <v>1.78</v>
+      </c>
+      <c r="AT245">
+        <v>2.95</v>
+      </c>
+      <c r="AU245">
+        <v>3</v>
+      </c>
+      <c r="AV245">
+        <v>2</v>
+      </c>
+      <c r="AW245">
+        <v>5</v>
+      </c>
+      <c r="AX245">
+        <v>23</v>
+      </c>
+      <c r="AY245">
+        <v>9</v>
+      </c>
+      <c r="AZ245">
+        <v>26</v>
+      </c>
+      <c r="BA245">
+        <v>2</v>
+      </c>
+      <c r="BB245">
+        <v>11</v>
+      </c>
+      <c r="BC245">
+        <v>13</v>
+      </c>
+      <c r="BD245">
+        <v>2.42</v>
+      </c>
+      <c r="BE245">
+        <v>6.5</v>
+      </c>
+      <c r="BF245">
+        <v>1.9</v>
+      </c>
+      <c r="BG245">
+        <v>1.25</v>
+      </c>
+      <c r="BH245">
+        <v>3.28</v>
+      </c>
+      <c r="BI245">
+        <v>1.47</v>
+      </c>
+      <c r="BJ245">
+        <v>2.54</v>
+      </c>
+      <c r="BK245">
+        <v>1.81</v>
+      </c>
+      <c r="BL245">
+        <v>1.99</v>
+      </c>
+      <c r="BM245">
+        <v>2.23</v>
+      </c>
+      <c r="BN245">
+        <v>1.6</v>
+      </c>
+      <c r="BO245">
+        <v>3.2</v>
+      </c>
+      <c r="BP245">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7781320</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>78</v>
+      </c>
+      <c r="H246" t="s">
+        <v>91</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>3</v>
+      </c>
+      <c r="N246">
+        <v>4</v>
+      </c>
+      <c r="O246" t="s">
+        <v>156</v>
+      </c>
+      <c r="P246" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q246">
+        <v>2.5</v>
+      </c>
+      <c r="R246">
+        <v>2.25</v>
+      </c>
+      <c r="S246">
+        <v>4.33</v>
+      </c>
+      <c r="T246">
+        <v>1.36</v>
+      </c>
+      <c r="U246">
+        <v>3</v>
+      </c>
+      <c r="V246">
+        <v>2.63</v>
+      </c>
+      <c r="W246">
+        <v>1.44</v>
+      </c>
+      <c r="X246">
+        <v>7</v>
+      </c>
+      <c r="Y246">
+        <v>1.1</v>
+      </c>
+      <c r="Z246">
+        <v>1.83</v>
+      </c>
+      <c r="AA246">
+        <v>3.45</v>
+      </c>
+      <c r="AB246">
+        <v>3.53</v>
+      </c>
+      <c r="AC246">
+        <v>1.05</v>
+      </c>
+      <c r="AD246">
+        <v>9.5</v>
+      </c>
+      <c r="AE246">
+        <v>1.28</v>
+      </c>
+      <c r="AF246">
+        <v>3.65</v>
+      </c>
+      <c r="AG246">
+        <v>1.8</v>
+      </c>
+      <c r="AH246">
+        <v>1.9</v>
+      </c>
+      <c r="AI246">
+        <v>1.75</v>
+      </c>
+      <c r="AJ246">
+        <v>2</v>
+      </c>
+      <c r="AK246">
+        <v>1.26</v>
+      </c>
+      <c r="AL246">
+        <v>1.28</v>
+      </c>
+      <c r="AM246">
+        <v>1.83</v>
+      </c>
+      <c r="AN246">
+        <v>1.25</v>
+      </c>
+      <c r="AO246">
+        <v>0.63</v>
+      </c>
+      <c r="AP246">
+        <v>1.11</v>
+      </c>
+      <c r="AQ246">
+        <v>0.89</v>
+      </c>
+      <c r="AR246">
+        <v>1.72</v>
+      </c>
+      <c r="AS246">
+        <v>1.34</v>
+      </c>
+      <c r="AT246">
+        <v>3.06</v>
+      </c>
+      <c r="AU246">
+        <v>10</v>
+      </c>
+      <c r="AV246">
+        <v>6</v>
+      </c>
+      <c r="AW246">
+        <v>13</v>
+      </c>
+      <c r="AX246">
+        <v>8</v>
+      </c>
+      <c r="AY246">
+        <v>26</v>
+      </c>
+      <c r="AZ246">
+        <v>16</v>
+      </c>
+      <c r="BA246">
+        <v>6</v>
+      </c>
+      <c r="BB246">
+        <v>7</v>
+      </c>
+      <c r="BC246">
+        <v>13</v>
+      </c>
+      <c r="BD246">
+        <v>1.46</v>
+      </c>
+      <c r="BE246">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF246">
+        <v>3.34</v>
+      </c>
+      <c r="BG246">
+        <v>1.21</v>
+      </c>
+      <c r="BH246">
+        <v>3.58</v>
+      </c>
+      <c r="BI246">
+        <v>1.46</v>
+      </c>
+      <c r="BJ246">
+        <v>2.6</v>
+      </c>
+      <c r="BK246">
+        <v>1.79</v>
+      </c>
+      <c r="BL246">
+        <v>2.01</v>
+      </c>
+      <c r="BM246">
+        <v>2.24</v>
+      </c>
+      <c r="BN246">
+        <v>1.61</v>
+      </c>
+      <c r="BO246">
+        <v>2.92</v>
+      </c>
+      <c r="BP246">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7781322</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>84</v>
+      </c>
+      <c r="H247" t="s">
+        <v>86</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>262</v>
+      </c>
+      <c r="P247" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q247">
+        <v>2.88</v>
+      </c>
+      <c r="R247">
+        <v>2.3</v>
+      </c>
+      <c r="S247">
+        <v>3.4</v>
+      </c>
+      <c r="T247">
+        <v>1.3</v>
+      </c>
+      <c r="U247">
+        <v>3.4</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>6</v>
+      </c>
+      <c r="Y247">
+        <v>1.13</v>
+      </c>
+      <c r="Z247">
+        <v>2.35</v>
+      </c>
+      <c r="AA247">
+        <v>3.32</v>
+      </c>
+      <c r="AB247">
+        <v>2.54</v>
+      </c>
+      <c r="AC247">
+        <v>1.04</v>
+      </c>
+      <c r="AD247">
+        <v>10</v>
+      </c>
+      <c r="AE247">
+        <v>1.22</v>
+      </c>
+      <c r="AF247">
+        <v>4.2</v>
+      </c>
+      <c r="AG247">
+        <v>1.65</v>
+      </c>
+      <c r="AH247">
+        <v>2.1</v>
+      </c>
+      <c r="AI247">
+        <v>1.57</v>
+      </c>
+      <c r="AJ247">
+        <v>2.25</v>
+      </c>
+      <c r="AK247">
+        <v>1.46</v>
+      </c>
+      <c r="AL247">
+        <v>1.29</v>
+      </c>
+      <c r="AM247">
+        <v>1.51</v>
+      </c>
+      <c r="AN247">
+        <v>0.29</v>
+      </c>
+      <c r="AO247">
+        <v>0.89</v>
+      </c>
+      <c r="AP247">
+        <v>0.63</v>
+      </c>
+      <c r="AQ247">
+        <v>0.8</v>
+      </c>
+      <c r="AR247">
+        <v>1.52</v>
+      </c>
+      <c r="AS247">
+        <v>1.57</v>
+      </c>
+      <c r="AT247">
+        <v>3.09</v>
+      </c>
+      <c r="AU247">
+        <v>6</v>
+      </c>
+      <c r="AV247">
+        <v>5</v>
+      </c>
+      <c r="AW247">
+        <v>5</v>
+      </c>
+      <c r="AX247">
+        <v>14</v>
+      </c>
+      <c r="AY247">
+        <v>13</v>
+      </c>
+      <c r="AZ247">
+        <v>23</v>
+      </c>
+      <c r="BA247">
+        <v>6</v>
+      </c>
+      <c r="BB247">
+        <v>6</v>
+      </c>
+      <c r="BC247">
+        <v>12</v>
+      </c>
+      <c r="BD247">
+        <v>1.94</v>
+      </c>
+      <c r="BE247">
+        <v>6.5</v>
+      </c>
+      <c r="BF247">
+        <v>2.36</v>
+      </c>
+      <c r="BG247">
+        <v>1.22</v>
+      </c>
+      <c r="BH247">
+        <v>3.5</v>
+      </c>
+      <c r="BI247">
+        <v>1.46</v>
+      </c>
+      <c r="BJ247">
+        <v>2.56</v>
+      </c>
+      <c r="BK247">
+        <v>1.79</v>
+      </c>
+      <c r="BL247">
+        <v>2</v>
+      </c>
+      <c r="BM247">
+        <v>2.23</v>
+      </c>
+      <c r="BN247">
+        <v>1.6</v>
+      </c>
+      <c r="BO247">
+        <v>3.04</v>
+      </c>
+      <c r="BP247">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7781324</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>94</v>
+      </c>
+      <c r="H248" t="s">
+        <v>77</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>263</v>
+      </c>
+      <c r="P248" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>1.72</v>
+      </c>
+      <c r="AA248">
+        <v>3.4</v>
+      </c>
+      <c r="AB248">
+        <v>4.1</v>
+      </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+      <c r="AD248">
+        <v>0</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>1.76</v>
+      </c>
+      <c r="AH248">
+        <v>1.94</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AN248">
+        <v>2</v>
+      </c>
+      <c r="AO248">
+        <v>1</v>
+      </c>
+      <c r="AP248">
+        <v>2.1</v>
+      </c>
+      <c r="AQ248">
+        <v>0.88</v>
+      </c>
+      <c r="AR248">
+        <v>1.82</v>
+      </c>
+      <c r="AS248">
+        <v>1.17</v>
+      </c>
+      <c r="AT248">
+        <v>2.99</v>
+      </c>
+      <c r="AU248">
+        <v>-1</v>
+      </c>
+      <c r="AV248">
+        <v>-1</v>
+      </c>
+      <c r="AW248">
+        <v>-1</v>
+      </c>
+      <c r="AX248">
+        <v>-1</v>
+      </c>
+      <c r="AY248">
+        <v>-1</v>
+      </c>
+      <c r="AZ248">
+        <v>-1</v>
+      </c>
+      <c r="BA248">
+        <v>-1</v>
+      </c>
+      <c r="BB248">
+        <v>-1</v>
+      </c>
+      <c r="BC248">
+        <v>-1</v>
+      </c>
+      <c r="BD248">
+        <v>0</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>0</v>
+      </c>
+      <c r="BG248">
+        <v>0</v>
+      </c>
+      <c r="BH248">
+        <v>0</v>
+      </c>
+      <c r="BI248">
+        <v>0</v>
+      </c>
+      <c r="BJ248">
+        <v>0</v>
+      </c>
+      <c r="BK248">
+        <v>0</v>
+      </c>
+      <c r="BL248">
+        <v>0</v>
+      </c>
+      <c r="BM248">
+        <v>0</v>
+      </c>
+      <c r="BN248">
+        <v>0</v>
+      </c>
+      <c r="BO248">
+        <v>0</v>
+      </c>
+      <c r="BP248">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,9 @@
     <t>['60', '90+2']</t>
   </si>
   <si>
+    <t>['55', '83']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -1160,6 +1163,9 @@
   </si>
   <si>
     <t>['45+3', '52', '88']</t>
+  </si>
+  <si>
+    <t>['51', '54', '58']</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP248"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1867,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1986,7 +1992,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2192,7 +2198,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2604,7 +2610,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2810,7 +2816,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -3016,7 +3022,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3428,7 +3434,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -4252,7 +4258,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
         <v>0.78</v>
@@ -4458,7 +4464,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4664,7 +4670,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5282,7 +5288,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5694,7 +5700,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -6106,7 +6112,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6312,7 +6318,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6724,7 +6730,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7754,7 +7760,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -8166,7 +8172,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8244,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ33">
         <v>0.88</v>
@@ -8990,7 +8996,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9608,7 +9614,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -10020,7 +10026,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10513,7 +10519,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR44">
         <v>1.88</v>
@@ -10844,7 +10850,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11050,7 +11056,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11256,7 +11262,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -12080,7 +12086,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12286,7 +12292,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12367,7 +12373,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12698,7 +12704,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -13316,7 +13322,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13522,7 +13528,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13934,7 +13940,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14140,7 +14146,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14346,7 +14352,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14552,7 +14558,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -15582,7 +15588,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15994,7 +16000,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16200,7 +16206,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16484,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
@@ -16612,7 +16618,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -17024,7 +17030,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17848,7 +17854,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18054,7 +18060,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18260,7 +18266,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18878,7 +18884,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19084,7 +19090,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19290,7 +19296,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19908,7 +19914,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20526,7 +20532,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -21144,7 +21150,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -22586,7 +22592,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22667,7 +22673,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22792,7 +22798,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22998,7 +23004,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23285,7 +23291,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.03</v>
@@ -24028,7 +24034,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24234,7 +24240,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24852,7 +24858,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -25058,7 +25064,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25470,7 +25476,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25676,7 +25682,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -26088,7 +26094,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26500,7 +26506,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26784,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ123">
         <v>1.14</v>
@@ -26912,7 +26918,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -27942,7 +27948,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28148,7 +28154,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28972,7 +28978,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29178,7 +29184,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -30414,7 +30420,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30826,7 +30832,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -31238,7 +31244,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31444,7 +31450,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31650,7 +31656,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31856,7 +31862,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -32062,7 +32068,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32268,7 +32274,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32474,7 +32480,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32680,7 +32686,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32886,7 +32892,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -33092,7 +33098,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33298,7 +33304,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33504,7 +33510,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33710,7 +33716,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33791,7 +33797,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -34328,7 +34334,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34740,7 +34746,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35024,7 +35030,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ163">
         <v>0.63</v>
@@ -35770,7 +35776,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36182,7 +36188,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36388,7 +36394,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36594,7 +36600,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36800,7 +36806,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -37212,7 +37218,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37418,7 +37424,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37624,7 +37630,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37830,7 +37836,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -38036,7 +38042,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38448,7 +38454,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38860,7 +38866,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -39066,7 +39072,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39272,7 +39278,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39684,7 +39690,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39971,7 +39977,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40096,7 +40102,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40302,7 +40308,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -41126,7 +41132,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41332,7 +41338,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41744,7 +41750,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41950,7 +41956,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -42156,7 +42162,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -43186,7 +43192,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43598,7 +43604,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -44010,7 +44016,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44500,7 +44506,7 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ209">
         <v>1.44</v>
@@ -44834,7 +44840,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -45040,7 +45046,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45246,7 +45252,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45658,7 +45664,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45864,7 +45870,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -46070,7 +46076,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46482,7 +46488,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46894,7 +46900,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -47100,7 +47106,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47306,7 +47312,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47512,7 +47518,7 @@
         <v>249</v>
       </c>
       <c r="P224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47718,7 +47724,7 @@
         <v>250</v>
       </c>
       <c r="P225" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q225">
         <v>2.2</v>
@@ -48130,7 +48136,7 @@
         <v>251</v>
       </c>
       <c r="P227" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q227">
         <v>1.83</v>
@@ -48336,7 +48342,7 @@
         <v>252</v>
       </c>
       <c r="P228" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48542,7 +48548,7 @@
         <v>109</v>
       </c>
       <c r="P229" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q229">
         <v>2.5</v>
@@ -48748,7 +48754,7 @@
         <v>253</v>
       </c>
       <c r="P230" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q230">
         <v>3.25</v>
@@ -48954,7 +48960,7 @@
         <v>254</v>
       </c>
       <c r="P231" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q231">
         <v>2.4</v>
@@ -49238,7 +49244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP232">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ232">
         <v>1.29</v>
@@ -49572,7 +49578,7 @@
         <v>109</v>
       </c>
       <c r="P234" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -50065,7 +50071,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ236">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR236">
         <v>1.96</v>
@@ -50190,7 +50196,7 @@
         <v>258</v>
       </c>
       <c r="P237" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q237">
         <v>2.75</v>
@@ -50396,7 +50402,7 @@
         <v>259</v>
       </c>
       <c r="P238" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q238">
         <v>2.6</v>
@@ -50602,7 +50608,7 @@
         <v>109</v>
       </c>
       <c r="P239" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -50808,7 +50814,7 @@
         <v>140</v>
       </c>
       <c r="P240" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q240">
         <v>2.1</v>
@@ -51220,7 +51226,7 @@
         <v>109</v>
       </c>
       <c r="P242" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q242">
         <v>3.1</v>
@@ -51632,7 +51638,7 @@
         <v>161</v>
       </c>
       <c r="P244" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q244">
         <v>2.1</v>
@@ -52044,7 +52050,7 @@
         <v>156</v>
       </c>
       <c r="P246" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q246">
         <v>2.5</v>
@@ -52613,6 +52619,212 @@
       </c>
       <c r="BP248">
         <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7781325</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>82</v>
+      </c>
+      <c r="H249" t="s">
+        <v>92</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>3</v>
+      </c>
+      <c r="N249">
+        <v>5</v>
+      </c>
+      <c r="O249" t="s">
+        <v>264</v>
+      </c>
+      <c r="P249" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q249">
+        <v>2.5</v>
+      </c>
+      <c r="R249">
+        <v>2.3</v>
+      </c>
+      <c r="S249">
+        <v>4</v>
+      </c>
+      <c r="T249">
+        <v>1.33</v>
+      </c>
+      <c r="U249">
+        <v>3.25</v>
+      </c>
+      <c r="V249">
+        <v>2.63</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>6.5</v>
+      </c>
+      <c r="Y249">
+        <v>1.11</v>
+      </c>
+      <c r="Z249">
+        <v>1.87</v>
+      </c>
+      <c r="AA249">
+        <v>3.52</v>
+      </c>
+      <c r="AB249">
+        <v>3.32</v>
+      </c>
+      <c r="AC249">
+        <v>1.04</v>
+      </c>
+      <c r="AD249">
+        <v>10</v>
+      </c>
+      <c r="AE249">
+        <v>1.22</v>
+      </c>
+      <c r="AF249">
+        <v>4.2</v>
+      </c>
+      <c r="AG249">
+        <v>1.87</v>
+      </c>
+      <c r="AH249">
+        <v>1.83</v>
+      </c>
+      <c r="AI249">
+        <v>1.7</v>
+      </c>
+      <c r="AJ249">
+        <v>2.05</v>
+      </c>
+      <c r="AK249">
+        <v>1.36</v>
+      </c>
+      <c r="AL249">
+        <v>1.27</v>
+      </c>
+      <c r="AM249">
+        <v>1.66</v>
+      </c>
+      <c r="AN249">
+        <v>2.43</v>
+      </c>
+      <c r="AO249">
+        <v>1.5</v>
+      </c>
+      <c r="AP249">
+        <v>2.13</v>
+      </c>
+      <c r="AQ249">
+        <v>1.67</v>
+      </c>
+      <c r="AR249">
+        <v>1.85</v>
+      </c>
+      <c r="AS249">
+        <v>1.35</v>
+      </c>
+      <c r="AT249">
+        <v>3.2</v>
+      </c>
+      <c r="AU249">
+        <v>5</v>
+      </c>
+      <c r="AV249">
+        <v>6</v>
+      </c>
+      <c r="AW249">
+        <v>7</v>
+      </c>
+      <c r="AX249">
+        <v>7</v>
+      </c>
+      <c r="AY249">
+        <v>17</v>
+      </c>
+      <c r="AZ249">
+        <v>16</v>
+      </c>
+      <c r="BA249">
+        <v>9</v>
+      </c>
+      <c r="BB249">
+        <v>0</v>
+      </c>
+      <c r="BC249">
+        <v>9</v>
+      </c>
+      <c r="BD249">
+        <v>1.44</v>
+      </c>
+      <c r="BE249">
+        <v>7</v>
+      </c>
+      <c r="BF249">
+        <v>3.15</v>
+      </c>
+      <c r="BG249">
+        <v>1.21</v>
+      </c>
+      <c r="BH249">
+        <v>3.8</v>
+      </c>
+      <c r="BI249">
+        <v>1.38</v>
+      </c>
+      <c r="BJ249">
+        <v>2.75</v>
+      </c>
+      <c r="BK249">
+        <v>1.63</v>
+      </c>
+      <c r="BL249">
+        <v>2.12</v>
+      </c>
+      <c r="BM249">
+        <v>1.98</v>
+      </c>
+      <c r="BN249">
+        <v>1.72</v>
+      </c>
+      <c r="BO249">
+        <v>2.48</v>
+      </c>
+      <c r="BP249">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -52555,31 +52555,31 @@
         <v>2.99</v>
       </c>
       <c r="AU248">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV248">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW248">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX248">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY248">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ248">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA248">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB248">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC248">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD248">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -1891,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="AY2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -2097,10 +2097,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -2303,10 +2303,10 @@
         <v>6</v>
       </c>
       <c r="AY4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA4">
         <v>7</v>
@@ -2509,10 +2509,10 @@
         <v>13</v>
       </c>
       <c r="AY5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -2715,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="AY6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2921,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA7">
         <v>2</v>
@@ -3127,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -3333,10 +3333,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3745,10 +3745,10 @@
         <v>10</v>
       </c>
       <c r="AY11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA11">
         <v>8</v>
@@ -3951,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -4157,10 +4157,10 @@
         <v>13</v>
       </c>
       <c r="AY13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA13">
         <v>6</v>
@@ -4363,10 +4363,10 @@
         <v>7</v>
       </c>
       <c r="AY14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA14">
         <v>7</v>
@@ -4569,10 +4569,10 @@
         <v>11</v>
       </c>
       <c r="AY15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ15">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4984,7 +4984,7 @@
         <v>10</v>
       </c>
       <c r="AZ17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA17">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>8</v>
       </c>
       <c r="AY18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ18">
         <v>12</v>
@@ -5393,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="AY19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ19">
         <v>7</v>
@@ -5599,10 +5599,10 @@
         <v>10</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA20">
         <v>1</v>
@@ -5805,10 +5805,10 @@
         <v>5</v>
       </c>
       <c r="AY21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -6011,10 +6011,10 @@
         <v>3</v>
       </c>
       <c r="AY22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -6220,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="AZ23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -6423,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6632,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="AZ25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA25">
         <v>2</v>
@@ -6838,7 +6838,7 @@
         <v>16</v>
       </c>
       <c r="AZ26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -7041,10 +7041,10 @@
         <v>9</v>
       </c>
       <c r="AY27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ27">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -7247,7 +7247,7 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ28">
         <v>12</v>
@@ -7659,10 +7659,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -8074,7 +8074,7 @@
         <v>12</v>
       </c>
       <c r="AZ32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -8277,7 +8277,7 @@
         <v>3</v>
       </c>
       <c r="AY33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ33">
         <v>7</v>
@@ -8483,10 +8483,10 @@
         <v>9</v>
       </c>
       <c r="AY34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -8692,7 +8692,7 @@
         <v>15</v>
       </c>
       <c r="AZ35">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8895,10 +8895,10 @@
         <v>6</v>
       </c>
       <c r="AY36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -9101,10 +9101,10 @@
         <v>10</v>
       </c>
       <c r="AY37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ37">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="BA37">
         <v>4</v>
@@ -9307,10 +9307,10 @@
         <v>11</v>
       </c>
       <c r="AY38">
+        <v>15</v>
+      </c>
+      <c r="AZ38">
         <v>16</v>
-      </c>
-      <c r="AZ38">
-        <v>18</v>
       </c>
       <c r="BA38">
         <v>7</v>
@@ -9513,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="AY39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ39">
         <v>7</v>
@@ -9719,10 +9719,10 @@
         <v>7</v>
       </c>
       <c r="AY40">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9925,10 +9925,10 @@
         <v>5</v>
       </c>
       <c r="AY41">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -10340,7 +10340,7 @@
         <v>16</v>
       </c>
       <c r="AZ43">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA43">
         <v>8</v>
@@ -10543,10 +10543,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AZ44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA44">
         <v>10</v>
@@ -10749,7 +10749,7 @@
         <v>9</v>
       </c>
       <c r="AY45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ45">
         <v>9</v>
@@ -10955,10 +10955,10 @@
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AZ46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA46">
         <v>9</v>
@@ -11161,10 +11161,10 @@
         <v>4</v>
       </c>
       <c r="AY47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>5</v>
@@ -11370,7 +11370,7 @@
         <v>9</v>
       </c>
       <c r="AZ48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -11573,7 +11573,7 @@
         <v>7</v>
       </c>
       <c r="AY49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
         <v>10</v>
@@ -11779,10 +11779,10 @@
         <v>4</v>
       </c>
       <c r="AY50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA50">
         <v>5</v>
@@ -11985,10 +11985,10 @@
         <v>6</v>
       </c>
       <c r="AY51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -12191,10 +12191,10 @@
         <v>4</v>
       </c>
       <c r="AY52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA52">
         <v>7</v>
@@ -12397,10 +12397,10 @@
         <v>8</v>
       </c>
       <c r="AY53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12603,10 +12603,10 @@
         <v>4</v>
       </c>
       <c r="AY54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>2</v>
@@ -12809,19 +12809,19 @@
         <v>3</v>
       </c>
       <c r="AY55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC55">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="BD55">
         <v>1.53</v>
@@ -13015,10 +13015,10 @@
         <v>9</v>
       </c>
       <c r="AY56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ56">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA56">
         <v>4</v>
@@ -13427,10 +13427,10 @@
         <v>3</v>
       </c>
       <c r="AY58">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA58">
         <v>10</v>
@@ -13636,7 +13636,7 @@
         <v>7</v>
       </c>
       <c r="AZ59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA59">
         <v>7</v>
@@ -13839,10 +13839,10 @@
         <v>7</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ60">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -14045,10 +14045,10 @@
         <v>5</v>
       </c>
       <c r="AY61">
+        <v>13</v>
+      </c>
+      <c r="AZ61">
         <v>14</v>
-      </c>
-      <c r="AZ61">
-        <v>15</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -14251,10 +14251,10 @@
         <v>7</v>
       </c>
       <c r="AY62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA62">
         <v>2</v>
@@ -14666,7 +14666,7 @@
         <v>15</v>
       </c>
       <c r="AZ64">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BA64">
         <v>0</v>
@@ -14869,10 +14869,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA65">
         <v>10</v>
@@ -15281,19 +15281,19 @@
         <v>9</v>
       </c>
       <c r="AY67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ67">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA67">
         <v>1</v>
       </c>
       <c r="BB67">
+        <v>10</v>
+      </c>
+      <c r="BC67">
         <v>11</v>
-      </c>
-      <c r="BC67">
-        <v>12</v>
       </c>
       <c r="BD67">
         <v>1.61</v>
@@ -15490,7 +15490,7 @@
         <v>19</v>
       </c>
       <c r="AZ68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15693,10 +15693,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA69">
         <v>11</v>
@@ -15899,10 +15899,10 @@
         <v>9</v>
       </c>
       <c r="AY70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ70">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -16105,10 +16105,10 @@
         <v>7</v>
       </c>
       <c r="AY71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ71">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA71">
         <v>6</v>
@@ -16311,10 +16311,10 @@
         <v>8</v>
       </c>
       <c r="AY72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA72">
         <v>4</v>
@@ -16517,10 +16517,10 @@
         <v>5</v>
       </c>
       <c r="AY73">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA73">
         <v>7</v>
@@ -16723,7 +16723,7 @@
         <v>5</v>
       </c>
       <c r="AY74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
         <v>12</v>
@@ -17135,10 +17135,10 @@
         <v>8</v>
       </c>
       <c r="AY76">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ76">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA76">
         <v>3</v>
@@ -17341,7 +17341,7 @@
         <v>9</v>
       </c>
       <c r="AY77">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ77">
         <v>16</v>
@@ -17547,10 +17547,10 @@
         <v>6</v>
       </c>
       <c r="AY78">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA78">
         <v>6</v>
@@ -17753,10 +17753,10 @@
         <v>11</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ79">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA79">
         <v>3</v>
@@ -17959,10 +17959,10 @@
         <v>2</v>
       </c>
       <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
         <v>10</v>
-      </c>
-      <c r="AZ80">
-        <v>11</v>
       </c>
       <c r="BA80">
         <v>3</v>
@@ -18165,7 +18165,7 @@
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ81">
         <v>9</v>
@@ -18371,10 +18371,10 @@
         <v>10</v>
       </c>
       <c r="AY82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA82">
         <v>2</v>
@@ -18577,7 +18577,7 @@
         <v>8</v>
       </c>
       <c r="AY83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ83">
         <v>14</v>
@@ -18783,10 +18783,10 @@
         <v>12</v>
       </c>
       <c r="AY84">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ84">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA84">
         <v>5</v>
@@ -18989,10 +18989,10 @@
         <v>10</v>
       </c>
       <c r="AY85">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -19195,10 +19195,10 @@
         <v>10</v>
       </c>
       <c r="AY86">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA86">
         <v>6</v>
@@ -19607,10 +19607,10 @@
         <v>15</v>
       </c>
       <c r="AY88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ88">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="BA88">
         <v>4</v>
@@ -19813,10 +19813,10 @@
         <v>6</v>
       </c>
       <c r="AY89">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ89">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA89">
         <v>8</v>
@@ -20019,7 +20019,7 @@
         <v>9</v>
       </c>
       <c r="AY90">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ90">
         <v>11</v>
@@ -20228,7 +20228,7 @@
         <v>8</v>
       </c>
       <c r="AZ91">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA91">
         <v>3</v>
@@ -20431,10 +20431,10 @@
         <v>6</v>
       </c>
       <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
         <v>8</v>
-      </c>
-      <c r="AZ92">
-        <v>12</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20637,10 +20637,10 @@
         <v>6</v>
       </c>
       <c r="AY93">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ93">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA93">
         <v>9</v>
@@ -20843,10 +20843,10 @@
         <v>3</v>
       </c>
       <c r="AY94">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA94">
         <v>8</v>
@@ -21049,10 +21049,10 @@
         <v>0</v>
       </c>
       <c r="AY95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AZ95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA95">
         <v>7</v>
@@ -21255,10 +21255,10 @@
         <v>5</v>
       </c>
       <c r="AY96">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA96">
         <v>5</v>
@@ -21667,10 +21667,10 @@
         <v>8</v>
       </c>
       <c r="AY98">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ98">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA98">
         <v>4</v>
@@ -22079,10 +22079,10 @@
         <v>8</v>
       </c>
       <c r="AY100">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ100">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA100">
         <v>9</v>
@@ -22285,10 +22285,10 @@
         <v>9</v>
       </c>
       <c r="AY101">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ101">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA101">
         <v>7</v>
@@ -22697,7 +22697,7 @@
         <v>7</v>
       </c>
       <c r="AY103">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ103">
         <v>17</v>
@@ -22903,10 +22903,10 @@
         <v>6</v>
       </c>
       <c r="AY104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ104">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -23109,19 +23109,19 @@
         <v>10</v>
       </c>
       <c r="AY105">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AZ105">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA105">
         <v>10</v>
       </c>
       <c r="BB105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD105">
         <v>1.46</v>
@@ -23315,10 +23315,10 @@
         <v>4</v>
       </c>
       <c r="AY106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA106">
         <v>1</v>
@@ -23727,19 +23727,19 @@
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB108">
         <v>2</v>
       </c>
       <c r="BC108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD108">
         <v>1.47</v>
@@ -23933,7 +23933,7 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
         <v>9</v>
@@ -24139,10 +24139,10 @@
         <v>6</v>
       </c>
       <c r="AY110">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AZ110">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA110">
         <v>4</v>
@@ -24345,7 +24345,7 @@
         <v>5</v>
       </c>
       <c r="AY111">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ111">
         <v>10</v>
@@ -24551,10 +24551,10 @@
         <v>12</v>
       </c>
       <c r="AY112">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ112">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA112">
         <v>6</v>
@@ -24963,10 +24963,10 @@
         <v>8</v>
       </c>
       <c r="AY114">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ114">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA114">
         <v>4</v>
@@ -25375,10 +25375,10 @@
         <v>5</v>
       </c>
       <c r="AY116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ116">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25581,10 +25581,10 @@
         <v>15</v>
       </c>
       <c r="AY117">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ117">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="BA117">
         <v>4</v>
@@ -25790,7 +25790,7 @@
         <v>9</v>
       </c>
       <c r="AZ118">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA118">
         <v>6</v>
@@ -25993,10 +25993,10 @@
         <v>5</v>
       </c>
       <c r="AY119">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ119">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA119">
         <v>4</v>
@@ -26199,10 +26199,10 @@
         <v>8</v>
       </c>
       <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
         <v>14</v>
-      </c>
-      <c r="AZ120">
-        <v>18</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26405,10 +26405,10 @@
         <v>8</v>
       </c>
       <c r="AY121">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ121">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA121">
         <v>8</v>
@@ -26611,10 +26611,10 @@
         <v>0</v>
       </c>
       <c r="AY122">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA122">
         <v>3</v>
@@ -26817,19 +26817,19 @@
         <v>5</v>
       </c>
       <c r="AY123">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ123">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB123">
         <v>7</v>
       </c>
       <c r="BC123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD123">
         <v>1.47</v>
@@ -27023,10 +27023,10 @@
         <v>7</v>
       </c>
       <c r="AY124">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ124">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA124">
         <v>9</v>
@@ -27229,10 +27229,10 @@
         <v>10</v>
       </c>
       <c r="AY125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ125">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA125">
         <v>4</v>
@@ -27435,10 +27435,10 @@
         <v>4</v>
       </c>
       <c r="AY126">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ126">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA126">
         <v>8</v>
@@ -27641,10 +27641,10 @@
         <v>7</v>
       </c>
       <c r="AY127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ127">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA127">
         <v>7</v>
@@ -28053,10 +28053,10 @@
         <v>3</v>
       </c>
       <c r="AY129">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ129">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA129">
         <v>6</v>
@@ -28262,7 +28262,7 @@
         <v>18</v>
       </c>
       <c r="AZ130">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA130">
         <v>6</v>
@@ -28465,10 +28465,10 @@
         <v>1</v>
       </c>
       <c r="AY131">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA131">
         <v>6</v>
@@ -28671,10 +28671,10 @@
         <v>14</v>
       </c>
       <c r="AY132">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ132">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA132">
         <v>5</v>
@@ -28877,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="AY133">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AZ133">
         <v>2</v>
@@ -29086,7 +29086,7 @@
         <v>10</v>
       </c>
       <c r="AZ134">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA134">
         <v>2</v>
@@ -29289,7 +29289,7 @@
         <v>2</v>
       </c>
       <c r="AY135">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ135">
         <v>8</v>
@@ -29495,10 +29495,10 @@
         <v>7</v>
       </c>
       <c r="AY136">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ136">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA136">
         <v>4</v>
@@ -29701,10 +29701,10 @@
         <v>2</v>
       </c>
       <c r="AY137">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ137">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -30113,10 +30113,10 @@
         <v>3</v>
       </c>
       <c r="AY139">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA139">
         <v>6</v>
@@ -30319,10 +30319,10 @@
         <v>9</v>
       </c>
       <c r="AY140">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ140">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA140">
         <v>3</v>
@@ -30525,7 +30525,7 @@
         <v>3</v>
       </c>
       <c r="AY141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ141">
         <v>8</v>
@@ -30731,10 +30731,10 @@
         <v>6</v>
       </c>
       <c r="AY142">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ142">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA142">
         <v>7</v>
@@ -31143,7 +31143,7 @@
         <v>3</v>
       </c>
       <c r="AY144">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ144">
         <v>7</v>
@@ -31349,7 +31349,7 @@
         <v>1</v>
       </c>
       <c r="AY145">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ145">
         <v>5</v>
@@ -31555,7 +31555,7 @@
         <v>4</v>
       </c>
       <c r="AY146">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ146">
         <v>8</v>
@@ -31761,7 +31761,7 @@
         <v>3</v>
       </c>
       <c r="AY147">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ147">
         <v>9</v>
@@ -31967,7 +31967,7 @@
         <v>4</v>
       </c>
       <c r="AY148">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ148">
         <v>14</v>
@@ -32173,10 +32173,10 @@
         <v>6</v>
       </c>
       <c r="AY149">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ149">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -32379,7 +32379,7 @@
         <v>4</v>
       </c>
       <c r="AY150">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ150">
         <v>12</v>
@@ -32791,10 +32791,10 @@
         <v>11</v>
       </c>
       <c r="AY152">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ152">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32997,10 +32997,10 @@
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ153">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -33203,10 +33203,10 @@
         <v>4</v>
       </c>
       <c r="AY154">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ154">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA154">
         <v>6</v>
@@ -33409,10 +33409,10 @@
         <v>6</v>
       </c>
       <c r="AY155">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ155">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA155">
         <v>9</v>
@@ -33615,10 +33615,10 @@
         <v>2</v>
       </c>
       <c r="AY156">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA156">
         <v>2</v>
@@ -33821,10 +33821,10 @@
         <v>4</v>
       </c>
       <c r="AY157">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ157">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA157">
         <v>3</v>
@@ -34027,10 +34027,10 @@
         <v>21</v>
       </c>
       <c r="AY158">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ158">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BA158">
         <v>7</v>
@@ -34439,10 +34439,10 @@
         <v>9</v>
       </c>
       <c r="AY160">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ160">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA160">
         <v>9</v>
@@ -34645,10 +34645,10 @@
         <v>7</v>
       </c>
       <c r="AY161">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ161">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA161">
         <v>6</v>
@@ -34851,10 +34851,10 @@
         <v>11</v>
       </c>
       <c r="AY162">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ162">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA162">
         <v>2</v>
@@ -35057,10 +35057,10 @@
         <v>3</v>
       </c>
       <c r="AY163">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA163">
         <v>8</v>
@@ -35263,10 +35263,10 @@
         <v>10</v>
       </c>
       <c r="AY164">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ164">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA164">
         <v>7</v>
@@ -35469,10 +35469,10 @@
         <v>7</v>
       </c>
       <c r="AY165">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA165">
         <v>1</v>
@@ -35675,19 +35675,19 @@
         <v>12</v>
       </c>
       <c r="AY166">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ166">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA166">
+        <v>8</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
         <v>9</v>
-      </c>
-      <c r="BB166">
-        <v>1</v>
-      </c>
-      <c r="BC166">
-        <v>10</v>
       </c>
       <c r="BD166">
         <v>1.82</v>
@@ -35884,7 +35884,7 @@
         <v>10</v>
       </c>
       <c r="AZ167">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA167">
         <v>2</v>
@@ -36087,7 +36087,7 @@
         <v>8</v>
       </c>
       <c r="AY168">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ168">
         <v>16</v>
@@ -36293,10 +36293,10 @@
         <v>7</v>
       </c>
       <c r="AY169">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ169">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA169">
         <v>3</v>
@@ -36499,10 +36499,10 @@
         <v>6</v>
       </c>
       <c r="AY170">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ170">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA170">
         <v>6</v>
@@ -36705,10 +36705,10 @@
         <v>13</v>
       </c>
       <c r="AY171">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ171">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA171">
         <v>3</v>
@@ -36914,7 +36914,7 @@
         <v>19</v>
       </c>
       <c r="AZ172">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA172">
         <v>11</v>
@@ -37117,10 +37117,10 @@
         <v>11</v>
       </c>
       <c r="AY173">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ173">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA173">
         <v>2</v>
@@ -37323,10 +37323,10 @@
         <v>4</v>
       </c>
       <c r="AY174">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ174">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA174">
         <v>2</v>
@@ -37529,10 +37529,10 @@
         <v>10</v>
       </c>
       <c r="AY175">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA175">
         <v>8</v>
@@ -37735,10 +37735,10 @@
         <v>5</v>
       </c>
       <c r="AY176">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ176">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA176">
         <v>12</v>
@@ -38147,7 +38147,7 @@
         <v>7</v>
       </c>
       <c r="AY178">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ178">
         <v>13</v>
@@ -38353,10 +38353,10 @@
         <v>7</v>
       </c>
       <c r="AY179">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ179">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA179">
         <v>8</v>
@@ -38559,10 +38559,10 @@
         <v>8</v>
       </c>
       <c r="AY180">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ180">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA180">
         <v>7</v>
@@ -38765,7 +38765,7 @@
         <v>12</v>
       </c>
       <c r="AY181">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ181">
         <v>18</v>
@@ -38980,10 +38980,10 @@
         <v>0</v>
       </c>
       <c r="BB182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD182">
         <v>2.3</v>
@@ -39177,10 +39177,10 @@
         <v>8</v>
       </c>
       <c r="AY183">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ183">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA183">
         <v>1</v>
@@ -39383,7 +39383,7 @@
         <v>1</v>
       </c>
       <c r="AY184">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AZ184">
         <v>4</v>
@@ -39589,10 +39589,10 @@
         <v>0</v>
       </c>
       <c r="AY185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA185">
         <v>2</v>
@@ -39798,7 +39798,7 @@
         <v>14</v>
       </c>
       <c r="AZ186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA186">
         <v>5</v>
@@ -40001,10 +40001,10 @@
         <v>8</v>
       </c>
       <c r="AY187">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ187">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA187">
         <v>7</v>
@@ -40207,10 +40207,10 @@
         <v>11</v>
       </c>
       <c r="AY188">
+        <v>14</v>
+      </c>
+      <c r="AZ188">
         <v>17</v>
-      </c>
-      <c r="AZ188">
-        <v>21</v>
       </c>
       <c r="BA188">
         <v>5</v>
@@ -40619,10 +40619,10 @@
         <v>11</v>
       </c>
       <c r="AY190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ190">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA190">
         <v>4</v>
@@ -40825,10 +40825,10 @@
         <v>6</v>
       </c>
       <c r="AY191">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ191">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA191">
         <v>5</v>
@@ -41237,7 +41237,7 @@
         <v>5</v>
       </c>
       <c r="AY193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ193">
         <v>11</v>
@@ -41443,10 +41443,10 @@
         <v>8</v>
       </c>
       <c r="AY194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ194">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA194">
         <v>5</v>
@@ -41649,10 +41649,10 @@
         <v>8</v>
       </c>
       <c r="AY195">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ195">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA195">
         <v>4</v>
@@ -41855,7 +41855,7 @@
         <v>2</v>
       </c>
       <c r="AY196">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ196">
         <v>8</v>
@@ -42061,10 +42061,10 @@
         <v>5</v>
       </c>
       <c r="AY197">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ197">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA197">
         <v>4</v>
@@ -42267,10 +42267,10 @@
         <v>6</v>
       </c>
       <c r="AY198">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ198">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BA198">
         <v>8</v>
@@ -42473,10 +42473,10 @@
         <v>10</v>
       </c>
       <c r="AY199">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ199">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA199">
         <v>5</v>
@@ -42679,10 +42679,10 @@
         <v>3</v>
       </c>
       <c r="AY200">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA200">
         <v>6</v>
@@ -42885,7 +42885,7 @@
         <v>2</v>
       </c>
       <c r="AY201">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ201">
         <v>4</v>
@@ -43091,10 +43091,10 @@
         <v>2</v>
       </c>
       <c r="AY202">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA202">
         <v>10</v>
@@ -43297,10 +43297,10 @@
         <v>1</v>
       </c>
       <c r="AY203">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ203">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA203">
         <v>7</v>
@@ -43709,10 +43709,10 @@
         <v>2</v>
       </c>
       <c r="AY205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ205">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA205">
         <v>3</v>
@@ -44121,10 +44121,10 @@
         <v>7</v>
       </c>
       <c r="AY207">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ207">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA207">
         <v>9</v>
@@ -44327,10 +44327,10 @@
         <v>6</v>
       </c>
       <c r="AY208">
+        <v>7</v>
+      </c>
+      <c r="AZ208">
         <v>11</v>
-      </c>
-      <c r="AZ208">
-        <v>14</v>
       </c>
       <c r="BA208">
         <v>1</v>
@@ -44533,10 +44533,10 @@
         <v>11</v>
       </c>
       <c r="AY209">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ209">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA209">
         <v>4</v>
@@ -45151,10 +45151,10 @@
         <v>1</v>
       </c>
       <c r="AY212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ212">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA212">
         <v>4</v>
@@ -45357,10 +45357,10 @@
         <v>11</v>
       </c>
       <c r="AY213">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ213">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA213">
         <v>5</v>
@@ -45563,10 +45563,10 @@
         <v>6</v>
       </c>
       <c r="AY214">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ214">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA214">
         <v>1</v>
@@ -45769,10 +45769,10 @@
         <v>7</v>
       </c>
       <c r="AY215">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ215">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA215">
         <v>8</v>
@@ -45975,10 +45975,10 @@
         <v>12</v>
       </c>
       <c r="AY216">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ216">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA216">
         <v>3</v>
@@ -46181,10 +46181,10 @@
         <v>5</v>
       </c>
       <c r="AY217">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ217">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA217">
         <v>5</v>
@@ -46387,10 +46387,10 @@
         <v>4</v>
       </c>
       <c r="AY218">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ218">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA218">
         <v>4</v>
@@ -46596,7 +46596,7 @@
         <v>15</v>
       </c>
       <c r="AZ219">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA219">
         <v>8</v>
@@ -46799,10 +46799,10 @@
         <v>11</v>
       </c>
       <c r="AY220">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ220">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA220">
         <v>3</v>
@@ -47008,7 +47008,7 @@
         <v>16</v>
       </c>
       <c r="AZ221">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA221">
         <v>11</v>
@@ -47211,10 +47211,10 @@
         <v>5</v>
       </c>
       <c r="AY222">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AZ222">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA222">
         <v>11</v>
@@ -47417,10 +47417,10 @@
         <v>17</v>
       </c>
       <c r="AY223">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ223">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="BA223">
         <v>2</v>
@@ -47829,19 +47829,19 @@
         <v>5</v>
       </c>
       <c r="AY225">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ225">
         <v>11</v>
       </c>
       <c r="BA225">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB225">
         <v>4</v>
       </c>
       <c r="BC225">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD225">
         <v>1.45</v>
@@ -48035,10 +48035,10 @@
         <v>8</v>
       </c>
       <c r="AY226">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AZ226">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA226">
         <v>4</v>
@@ -48241,10 +48241,10 @@
         <v>3</v>
       </c>
       <c r="AY227">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ227">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA227">
         <v>0</v>
@@ -48447,19 +48447,19 @@
         <v>5</v>
       </c>
       <c r="AY228">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ228">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA228">
         <v>5</v>
       </c>
       <c r="BB228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD228">
         <v>1.52</v>
@@ -48653,10 +48653,10 @@
         <v>6</v>
       </c>
       <c r="AY229">
+        <v>10</v>
+      </c>
+      <c r="AZ229">
         <v>12</v>
-      </c>
-      <c r="AZ229">
-        <v>16</v>
       </c>
       <c r="BA229">
         <v>8</v>
@@ -48859,10 +48859,10 @@
         <v>7</v>
       </c>
       <c r="AY230">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ230">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA230">
         <v>3</v>
@@ -49065,10 +49065,10 @@
         <v>7</v>
       </c>
       <c r="AY231">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ231">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA231">
         <v>7</v>
@@ -49480,7 +49480,7 @@
         <v>13</v>
       </c>
       <c r="AZ233">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA233">
         <v>7</v>
@@ -49889,10 +49889,10 @@
         <v>6</v>
       </c>
       <c r="AY235">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ235">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA235">
         <v>6</v>
@@ -50095,7 +50095,7 @@
         <v>3</v>
       </c>
       <c r="AY236">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ236">
         <v>5</v>
@@ -50301,10 +50301,10 @@
         <v>8</v>
       </c>
       <c r="AY237">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ237">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA237">
         <v>6</v>
@@ -50507,10 +50507,10 @@
         <v>9</v>
       </c>
       <c r="AY238">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ238">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA238">
         <v>6</v>
@@ -50713,10 +50713,10 @@
         <v>10</v>
       </c>
       <c r="AY239">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ239">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BA239">
         <v>4</v>
@@ -50919,10 +50919,10 @@
         <v>7</v>
       </c>
       <c r="AY240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ240">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA240">
         <v>5</v>
@@ -51125,10 +51125,10 @@
         <v>11</v>
       </c>
       <c r="AY241">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ241">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA241">
         <v>4</v>
@@ -51331,7 +51331,7 @@
         <v>3</v>
       </c>
       <c r="AY242">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ242">
         <v>10</v>
@@ -51743,7 +51743,7 @@
         <v>6</v>
       </c>
       <c r="AY244">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AZ244">
         <v>11</v>
@@ -51949,10 +51949,10 @@
         <v>23</v>
       </c>
       <c r="AY245">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ245">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA245">
         <v>2</v>
@@ -52155,10 +52155,10 @@
         <v>8</v>
       </c>
       <c r="AY246">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ246">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA246">
         <v>6</v>
@@ -52361,10 +52361,10 @@
         <v>14</v>
       </c>
       <c r="AY247">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ247">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA247">
         <v>6</v>
@@ -52773,10 +52773,10 @@
         <v>7</v>
       </c>
       <c r="AY249">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ249">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA249">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,54 +763,6 @@
     <t>['15', '20', '66', '90+4']</t>
   </si>
   <si>
-    <t>['19', '83', '90+5']</t>
-  </si>
-  <si>
-    <t>['30', '42', '86']</t>
-  </si>
-  <si>
-    <t>['27', '68', '71', '87']</t>
-  </si>
-  <si>
-    <t>['14', '29', '70', '90+7']</t>
-  </si>
-  <si>
-    <t>['75']</t>
-  </si>
-  <si>
-    <t>['69', '81']</t>
-  </si>
-  <si>
-    <t>['58']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
-    <t>['59', '76']</t>
-  </si>
-  <si>
-    <t>['45+2', '90+2']</t>
-  </si>
-  <si>
-    <t>['27', '41']</t>
-  </si>
-  <si>
-    <t>['13', '15', '24', '64', '89']</t>
-  </si>
-  <si>
-    <t>['3', '29']</t>
-  </si>
-  <si>
-    <t>['17', '55']</t>
-  </si>
-  <si>
-    <t>['60', '90+2']</t>
-  </si>
-  <si>
-    <t>['55', '83']</t>
-  </si>
-  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -842,6 +794,9 @@
   </si>
   <si>
     <t>['72', '86']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
   <si>
     <t>['4', '90+6']</t>
@@ -1118,54 +1073,6 @@
   </si>
   <si>
     <t>['48', '70']</t>
-  </si>
-  <si>
-    <t>['4', '32']</t>
-  </si>
-  <si>
-    <t>['50', '68', '90+2']</t>
-  </si>
-  <si>
-    <t>['74', '90+2']</t>
-  </si>
-  <si>
-    <t>['26', '76']</t>
-  </si>
-  <si>
-    <t>['25', '50', '90+4']</t>
-  </si>
-  <si>
-    <t>['86', '90+2']</t>
-  </si>
-  <si>
-    <t>['2', '78']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['82']</t>
-  </si>
-  <si>
-    <t>['54', '87']</t>
-  </si>
-  <si>
-    <t>['56', '90']</t>
-  </si>
-  <si>
-    <t>['2', '19']</t>
-  </si>
-  <si>
-    <t>['48', '55', '87']</t>
-  </si>
-  <si>
-    <t>['5', '31', '32']</t>
-  </si>
-  <si>
-    <t>['45+3', '52', '88']</t>
-  </si>
-  <si>
-    <t>['51', '54', '58']</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1867,7 +1774,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1992,7 +1899,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2070,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2198,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2276,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2482,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2610,7 +2517,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2688,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2816,7 +2723,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2894,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -3022,7 +2929,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3100,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3306,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3434,7 +3341,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3512,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3718,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3924,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4133,7 +4040,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4258,7 +4165,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4336,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4464,7 +4371,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4542,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>2.14</v>
@@ -4670,7 +4577,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4748,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4957,7 +4864,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5288,7 +5195,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5369,7 +5276,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5572,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5700,7 +5607,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5778,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ21">
         <v>1.14</v>
@@ -5906,7 +5813,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6112,7 +6019,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6193,7 +6100,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6318,7 +6225,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6399,7 +6306,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6605,7 +6512,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6730,7 +6637,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6811,7 +6718,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -7017,7 +6924,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7220,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
@@ -7426,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.63</v>
@@ -7632,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>0.22</v>
@@ -7760,7 +7667,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7838,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>1.71</v>
@@ -8044,10 +7951,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.83</v>
@@ -8172,7 +8079,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8250,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
         <v>0.88</v>
@@ -8456,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8662,7 +8569,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8868,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ36">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR36">
         <v>1.23</v>
@@ -8996,7 +8903,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9280,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9486,10 +9393,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>1.5</v>
@@ -9614,7 +9521,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9692,10 +9599,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9898,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ41">
         <v>1.38</v>
@@ -10026,7 +9933,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10107,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10310,10 +10217,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43">
         <v>1.87</v>
@@ -10519,7 +10426,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR44">
         <v>1.88</v>
@@ -10722,10 +10629,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -10850,7 +10757,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10928,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AQ46">
         <v>0.63</v>
@@ -11056,7 +10963,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11134,10 +11041,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -11262,7 +11169,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11340,10 +11247,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -11549,7 +11456,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11958,10 +11865,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -12086,7 +11993,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12164,10 +12071,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -12292,7 +12199,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12373,7 +12280,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12576,7 +12483,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>2.14</v>
@@ -12704,7 +12611,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12782,10 +12689,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.22</v>
@@ -12988,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13194,10 +13101,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR57">
         <v>1.55</v>
@@ -13322,7 +13229,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13403,7 +13310,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.87</v>
@@ -13528,7 +13435,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13609,7 +13516,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13812,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
         <v>0.22</v>
@@ -13940,7 +13847,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14018,7 +13925,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>1.71</v>
@@ -14146,7 +14053,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14224,10 +14131,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14352,7 +14259,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14558,7 +14465,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14639,7 +14546,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.62</v>
@@ -14842,10 +14749,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -15048,7 +14955,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -15254,10 +15161,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15588,7 +15495,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15872,10 +15779,10 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
         <v>1.96</v>
@@ -16000,7 +15907,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -16206,7 +16113,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16287,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16490,10 +16397,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>2.23</v>
@@ -16618,7 +16525,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16696,10 +16603,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.88</v>
@@ -16902,10 +16809,10 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.74</v>
@@ -17030,7 +16937,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17314,7 +17221,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ77">
         <v>2.14</v>
@@ -17523,7 +17430,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17726,7 +17633,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17854,7 +17761,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17932,10 +17839,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18060,7 +17967,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18138,10 +18045,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18266,7 +18173,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18347,7 +18254,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18550,10 +18457,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ83">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18759,7 +18666,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.92</v>
@@ -18884,7 +18791,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18962,7 +18869,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
         <v>1.44</v>
@@ -19090,7 +18997,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19168,10 +19075,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19296,7 +19203,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19374,7 +19281,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19786,10 +19693,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.83</v>
@@ -19914,7 +19821,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19992,10 +19899,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.08</v>
@@ -20201,7 +20108,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20532,7 +20439,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20610,10 +20517,10 @@
         <v>2.33</v>
       </c>
       <c r="AP93">
+        <v>1.33</v>
+      </c>
+      <c r="AQ93">
         <v>1.5</v>
-      </c>
-      <c r="AQ93">
-        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20819,7 +20726,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>1.73</v>
@@ -21022,10 +20929,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AQ95">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -21150,7 +21057,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21228,10 +21135,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>2.09</v>
@@ -21434,10 +21341,10 @@
         <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.49</v>
@@ -21640,7 +21547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.38</v>
@@ -22052,7 +21959,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ100">
         <v>0.88</v>
@@ -22258,10 +22165,10 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
         <v>1.75</v>
@@ -22464,7 +22371,7 @@
         <v>0.33</v>
       </c>
       <c r="AP102">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22592,7 +22499,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22670,10 +22577,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22798,7 +22705,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22879,7 +22786,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.95</v>
@@ -23004,7 +22911,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -23082,7 +22989,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -23288,10 +23195,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR106">
         <v>1.03</v>
@@ -23494,10 +23401,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
+        <v>1.33</v>
+      </c>
+      <c r="AQ107">
         <v>1.5</v>
-      </c>
-      <c r="AQ107">
-        <v>1.6</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23700,7 +23607,7 @@
         <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108">
         <v>0.63</v>
@@ -23906,10 +23813,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -24034,7 +23941,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24112,10 +24019,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.84</v>
@@ -24240,7 +24147,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24318,7 +24225,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -24524,7 +24431,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24730,7 +24637,7 @@
         <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24858,7 +24765,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24936,10 +24843,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.81</v>
@@ -25064,7 +24971,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25145,7 +25052,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25348,10 +25255,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25476,7 +25383,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25557,7 +25464,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ117">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR117">
         <v>1.48</v>
@@ -25682,7 +25589,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -26094,7 +26001,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26172,10 +26079,10 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26378,7 +26285,7 @@
         <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>0.22</v>
@@ -26506,7 +26413,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26584,7 +26491,7 @@
         <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>1.71</v>
@@ -26790,10 +26697,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.96</v>
@@ -26918,7 +26825,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26996,10 +26903,10 @@
         <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.48</v>
@@ -27205,7 +27112,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR125">
         <v>1.84</v>
@@ -27408,10 +27315,10 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27617,7 +27524,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR127">
         <v>1.21</v>
@@ -27823,7 +27730,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27948,7 +27855,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28154,7 +28061,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28232,10 +28139,10 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>1.45</v>
@@ -28441,7 +28348,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.86</v>
@@ -28644,7 +28551,7 @@
         <v>2.33</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ132">
         <v>2.14</v>
@@ -28978,7 +28885,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29056,7 +28963,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29184,7 +29091,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29265,7 +29172,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ135">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR135">
         <v>2.04</v>
@@ -29468,10 +29375,10 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AQ136">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29674,10 +29581,10 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ137">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR137">
         <v>1.09</v>
@@ -29883,7 +29790,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR138">
         <v>1.73</v>
@@ -30086,10 +29993,10 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR139">
         <v>1.51</v>
@@ -30292,10 +30199,10 @@
         <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR140">
         <v>1.89</v>
@@ -30420,7 +30327,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30501,7 +30408,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30704,10 +30611,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR142">
         <v>1.65</v>
@@ -30832,7 +30739,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -30910,10 +30817,10 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -31116,10 +31023,10 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.61</v>
@@ -31244,7 +31151,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31322,10 +31229,10 @@
         <v>1.8</v>
       </c>
       <c r="AP145">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.94</v>
@@ -31450,7 +31357,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31656,7 +31563,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31862,7 +31769,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31940,10 +31847,10 @@
         <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -32068,7 +31975,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32274,7 +32181,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32352,7 +32259,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32480,7 +32387,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32558,10 +32465,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ151">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.66</v>
@@ -32686,7 +32593,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32764,10 +32671,10 @@
         <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ152">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
         <v>1.12</v>
@@ -32892,7 +32799,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -32970,7 +32877,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ153">
         <v>0.63</v>
@@ -33098,7 +33005,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33176,7 +33083,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ154">
         <v>2</v>
@@ -33304,7 +33211,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33382,10 +33289,10 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR155">
         <v>1.65</v>
@@ -33510,7 +33417,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33588,10 +33495,10 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR156">
         <v>1.51</v>
@@ -33716,7 +33623,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33794,10 +33701,10 @@
         <v>1.6</v>
       </c>
       <c r="AP157">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -34003,7 +33910,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR158">
         <v>1.51</v>
@@ -34206,10 +34113,10 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>1.77</v>
@@ -34334,7 +34241,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34412,10 +34319,10 @@
         <v>1.2</v>
       </c>
       <c r="AP160">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ160">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR160">
         <v>1.99</v>
@@ -34621,7 +34528,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ161">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.68</v>
@@ -34746,7 +34653,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35030,7 +34937,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163">
         <v>0.63</v>
@@ -35236,7 +35143,7 @@
         <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ164">
         <v>1.44</v>
@@ -35651,7 +35558,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ166">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35776,7 +35683,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36060,10 +35967,10 @@
         <v>0.8</v>
       </c>
       <c r="AP168">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR168">
         <v>1.25</v>
@@ -36188,7 +36095,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36269,7 +36176,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36394,7 +36301,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36472,10 +36379,10 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ170">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR170">
         <v>1.89</v>
@@ -36600,7 +36507,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36678,10 +36585,10 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR171">
         <v>1.87</v>
@@ -36806,7 +36713,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36884,10 +36791,10 @@
         <v>1.2</v>
       </c>
       <c r="AP172">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AQ172">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.8</v>
@@ -37090,7 +36997,7 @@
         <v>0.33</v>
       </c>
       <c r="AP173">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ173">
         <v>0.22</v>
@@ -37218,7 +37125,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37296,10 +37203,10 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ174">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR174">
         <v>1.03</v>
@@ -37424,7 +37331,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37502,7 +37409,7 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37630,7 +37537,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37708,10 +37615,10 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ176">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR176">
         <v>1.93</v>
@@ -37836,7 +37743,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -37914,10 +37821,10 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ177">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>1.66</v>
@@ -38042,7 +37949,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38123,7 +38030,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR178">
         <v>1.84</v>
@@ -38326,10 +38233,10 @@
         <v>0.6</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ179">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR179">
         <v>1.28</v>
@@ -38454,7 +38361,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38532,7 +38439,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -38738,10 +38645,10 @@
         <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ181">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR181">
         <v>1.42</v>
@@ -38866,7 +38773,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38944,10 +38851,10 @@
         <v>2.2</v>
       </c>
       <c r="AP182">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR182">
         <v>1.89</v>
@@ -39072,7 +38979,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39150,10 +39057,10 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ183">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="AR183">
         <v>1.98</v>
@@ -39278,7 +39185,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39562,7 +39469,7 @@
         <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ185">
         <v>1.44</v>
@@ -39690,7 +39597,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39768,7 +39675,7 @@
         <v>0.4</v>
       </c>
       <c r="AP186">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ186">
         <v>0.63</v>
@@ -39974,10 +39881,10 @@
         <v>1.83</v>
       </c>
       <c r="AP187">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AQ187">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40102,7 +40009,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40180,10 +40087,10 @@
         <v>0.5</v>
       </c>
       <c r="AP188">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AQ188">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR188">
         <v>1.67</v>
@@ -40308,7 +40215,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40386,10 +40293,10 @@
         <v>0.2</v>
       </c>
       <c r="AP189">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AR189">
         <v>1.57</v>
@@ -41004,10 +40911,10 @@
         <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR192">
         <v>1.75</v>
@@ -41132,7 +41039,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41338,7 +41245,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41416,7 +41323,7 @@
         <v>0.83</v>
       </c>
       <c r="AP194">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ194">
         <v>1.14</v>
@@ -41622,7 +41529,7 @@
         <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ195">
         <v>0.63</v>
@@ -41750,7 +41657,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41828,7 +41735,7 @@
         <v>1.71</v>
       </c>
       <c r="AP196">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ196">
         <v>1.44</v>
@@ -41956,7 +41863,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -42034,7 +41941,7 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ197">
         <v>2</v>
@@ -42162,7 +42069,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42243,7 +42150,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ198">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>1.72</v>
@@ -42449,7 +42356,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ199">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AR199">
         <v>1.32</v>
@@ -42858,10 +42765,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR201">
         <v>1.89</v>
@@ -43064,7 +42971,7 @@
         <v>2.2</v>
       </c>
       <c r="AP202">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202">
         <v>2.14</v>
@@ -43192,7 +43099,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43270,10 +43177,10 @@
         <v>0.6</v>
       </c>
       <c r="AP203">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ203">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR203">
         <v>1.04</v>
@@ -43479,7 +43386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ204">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -43604,7 +43511,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43682,7 +43589,7 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43888,10 +43795,10 @@
         <v>0.57</v>
       </c>
       <c r="AP206">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR206">
         <v>1.84</v>
@@ -44016,7 +43923,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44094,10 +44001,10 @@
         <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AR207">
         <v>1.4</v>
@@ -44300,7 +44207,7 @@
         <v>0.83</v>
       </c>
       <c r="AP208">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="AQ208">
         <v>0.88</v>
@@ -44506,10 +44413,10 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AQ209">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>2.06</v>
@@ -44712,7 +44619,7 @@
         <v>0.25</v>
       </c>
       <c r="AP210">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ210">
         <v>0.22</v>
@@ -44840,7 +44747,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44921,7 +44828,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ211">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR211">
         <v>1.68</v>
@@ -45046,7 +44953,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45124,7 +45031,7 @@
         <v>0.29</v>
       </c>
       <c r="AP212">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AQ212">
         <v>0.63</v>
@@ -45252,7 +45159,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45330,7 +45237,7 @@
         <v>0.86</v>
       </c>
       <c r="AP213">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ213">
         <v>0.88</v>
@@ -45536,7 +45443,7 @@
         <v>1.57</v>
       </c>
       <c r="AP214">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -45664,7 +45571,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45870,7 +45777,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -45948,10 +45855,10 @@
         <v>0.8</v>
       </c>
       <c r="AP216">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AQ216">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR216">
         <v>1.44</v>
@@ -46076,7 +45983,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46157,7 +46064,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ217">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR217">
         <v>1.58</v>
@@ -46363,7 +46270,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ218">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR218">
         <v>1.82</v>
@@ -46488,7 +46395,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46900,7 +46807,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -46981,7 +46888,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR221">
         <v>2.04</v>
@@ -47106,7 +47013,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47184,10 +47091,10 @@
         <v>1.71</v>
       </c>
       <c r="AP222">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ222">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR222">
         <v>1.71</v>
@@ -47312,7 +47219,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47390,7 +47297,7 @@
         <v>1.63</v>
       </c>
       <c r="AP223">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ223">
         <v>1.44</v>
@@ -47469,5362 +47376,6 @@
       </c>
       <c r="BP223">
         <v>1.33</v>
-      </c>
-    </row>
-    <row r="224" spans="1:68">
-      <c r="A224" s="1">
-        <v>223</v>
-      </c>
-      <c r="B224">
-        <v>7781297</v>
-      </c>
-      <c r="C224" t="s">
-        <v>68</v>
-      </c>
-      <c r="D224" t="s">
-        <v>69</v>
-      </c>
-      <c r="E224" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-      <c r="G224" t="s">
-        <v>72</v>
-      </c>
-      <c r="H224" t="s">
-        <v>76</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-      <c r="J224">
-        <v>2</v>
-      </c>
-      <c r="K224">
-        <v>3</v>
-      </c>
-      <c r="L224">
-        <v>3</v>
-      </c>
-      <c r="M224">
-        <v>2</v>
-      </c>
-      <c r="N224">
-        <v>5</v>
-      </c>
-      <c r="O224" t="s">
-        <v>249</v>
-      </c>
-      <c r="P224" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q224">
-        <v>3</v>
-      </c>
-      <c r="R224">
-        <v>2.38</v>
-      </c>
-      <c r="S224">
-        <v>3.1</v>
-      </c>
-      <c r="T224">
-        <v>1.29</v>
-      </c>
-      <c r="U224">
-        <v>3.5</v>
-      </c>
-      <c r="V224">
-        <v>2.38</v>
-      </c>
-      <c r="W224">
-        <v>1.53</v>
-      </c>
-      <c r="X224">
-        <v>5.5</v>
-      </c>
-      <c r="Y224">
-        <v>1.14</v>
-      </c>
-      <c r="Z224">
-        <v>2.39</v>
-      </c>
-      <c r="AA224">
-        <v>3.34</v>
-      </c>
-      <c r="AB224">
-        <v>2.49</v>
-      </c>
-      <c r="AC224">
-        <v>1.04</v>
-      </c>
-      <c r="AD224">
-        <v>10</v>
-      </c>
-      <c r="AE224">
-        <v>1.2</v>
-      </c>
-      <c r="AF224">
-        <v>4.33</v>
-      </c>
-      <c r="AG224">
-        <v>1.61</v>
-      </c>
-      <c r="AH224">
-        <v>2.2</v>
-      </c>
-      <c r="AI224">
-        <v>1.53</v>
-      </c>
-      <c r="AJ224">
-        <v>2.38</v>
-      </c>
-      <c r="AK224">
-        <v>1.47</v>
-      </c>
-      <c r="AL224">
-        <v>1.27</v>
-      </c>
-      <c r="AM224">
-        <v>1.52</v>
-      </c>
-      <c r="AN224">
-        <v>1.33</v>
-      </c>
-      <c r="AO224">
-        <v>1.43</v>
-      </c>
-      <c r="AP224">
-        <v>1.5</v>
-      </c>
-      <c r="AQ224">
-        <v>1.25</v>
-      </c>
-      <c r="AR224">
-        <v>1.56</v>
-      </c>
-      <c r="AS224">
-        <v>1.42</v>
-      </c>
-      <c r="AT224">
-        <v>2.98</v>
-      </c>
-      <c r="AU224">
-        <v>3</v>
-      </c>
-      <c r="AV224">
-        <v>3</v>
-      </c>
-      <c r="AW224">
-        <v>0</v>
-      </c>
-      <c r="AX224">
-        <v>0</v>
-      </c>
-      <c r="AY224">
-        <v>3</v>
-      </c>
-      <c r="AZ224">
-        <v>3</v>
-      </c>
-      <c r="BA224">
-        <v>5</v>
-      </c>
-      <c r="BB224">
-        <v>6</v>
-      </c>
-      <c r="BC224">
-        <v>11</v>
-      </c>
-      <c r="BD224">
-        <v>1.9</v>
-      </c>
-      <c r="BE224">
-        <v>6.5</v>
-      </c>
-      <c r="BF224">
-        <v>2.08</v>
-      </c>
-      <c r="BG224">
-        <v>1.28</v>
-      </c>
-      <c r="BH224">
-        <v>3.3</v>
-      </c>
-      <c r="BI224">
-        <v>1.48</v>
-      </c>
-      <c r="BJ224">
-        <v>2.43</v>
-      </c>
-      <c r="BK224">
-        <v>1.77</v>
-      </c>
-      <c r="BL224">
-        <v>1.91</v>
-      </c>
-      <c r="BM224">
-        <v>2.23</v>
-      </c>
-      <c r="BN224">
-        <v>1.57</v>
-      </c>
-      <c r="BO224">
-        <v>2.9</v>
-      </c>
-      <c r="BP224">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:68">
-      <c r="A225" s="1">
-        <v>224</v>
-      </c>
-      <c r="B225">
-        <v>7781298</v>
-      </c>
-      <c r="C225" t="s">
-        <v>68</v>
-      </c>
-      <c r="D225" t="s">
-        <v>69</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225" t="s">
-        <v>73</v>
-      </c>
-      <c r="H225" t="s">
-        <v>97</v>
-      </c>
-      <c r="I225">
-        <v>2</v>
-      </c>
-      <c r="J225">
-        <v>0</v>
-      </c>
-      <c r="K225">
-        <v>2</v>
-      </c>
-      <c r="L225">
-        <v>3</v>
-      </c>
-      <c r="M225">
-        <v>3</v>
-      </c>
-      <c r="N225">
-        <v>6</v>
-      </c>
-      <c r="O225" t="s">
-        <v>250</v>
-      </c>
-      <c r="P225" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q225">
-        <v>2.2</v>
-      </c>
-      <c r="R225">
-        <v>2.38</v>
-      </c>
-      <c r="S225">
-        <v>5</v>
-      </c>
-      <c r="T225">
-        <v>1.33</v>
-      </c>
-      <c r="U225">
-        <v>3.25</v>
-      </c>
-      <c r="V225">
-        <v>2.5</v>
-      </c>
-      <c r="W225">
-        <v>1.5</v>
-      </c>
-      <c r="X225">
-        <v>6.5</v>
-      </c>
-      <c r="Y225">
-        <v>1.11</v>
-      </c>
-      <c r="Z225">
-        <v>1.5</v>
-      </c>
-      <c r="AA225">
-        <v>3.91</v>
-      </c>
-      <c r="AB225">
-        <v>5.1</v>
-      </c>
-      <c r="AC225">
-        <v>1.04</v>
-      </c>
-      <c r="AD225">
-        <v>10</v>
-      </c>
-      <c r="AE225">
-        <v>1.22</v>
-      </c>
-      <c r="AF225">
-        <v>4</v>
-      </c>
-      <c r="AG225">
-        <v>1.67</v>
-      </c>
-      <c r="AH225">
-        <v>2.1</v>
-      </c>
-      <c r="AI225">
-        <v>1.75</v>
-      </c>
-      <c r="AJ225">
-        <v>2</v>
-      </c>
-      <c r="AK225">
-        <v>1.18</v>
-      </c>
-      <c r="AL225">
-        <v>1.23</v>
-      </c>
-      <c r="AM225">
-        <v>2.2</v>
-      </c>
-      <c r="AN225">
-        <v>2.67</v>
-      </c>
-      <c r="AO225">
-        <v>1.5</v>
-      </c>
-      <c r="AP225">
-        <v>2.13</v>
-      </c>
-      <c r="AQ225">
-        <v>1.44</v>
-      </c>
-      <c r="AR225">
-        <v>1.88</v>
-      </c>
-      <c r="AS225">
-        <v>1.38</v>
-      </c>
-      <c r="AT225">
-        <v>3.26</v>
-      </c>
-      <c r="AU225">
-        <v>7</v>
-      </c>
-      <c r="AV225">
-        <v>6</v>
-      </c>
-      <c r="AW225">
-        <v>15</v>
-      </c>
-      <c r="AX225">
-        <v>5</v>
-      </c>
-      <c r="AY225">
-        <v>22</v>
-      </c>
-      <c r="AZ225">
-        <v>11</v>
-      </c>
-      <c r="BA225">
-        <v>5</v>
-      </c>
-      <c r="BB225">
-        <v>4</v>
-      </c>
-      <c r="BC225">
-        <v>9</v>
-      </c>
-      <c r="BD225">
-        <v>1.45</v>
-      </c>
-      <c r="BE225">
-        <v>6.75</v>
-      </c>
-      <c r="BF225">
-        <v>3.05</v>
-      </c>
-      <c r="BG225">
-        <v>1.32</v>
-      </c>
-      <c r="BH225">
-        <v>3.05</v>
-      </c>
-      <c r="BI225">
-        <v>1.55</v>
-      </c>
-      <c r="BJ225">
-        <v>2.25</v>
-      </c>
-      <c r="BK225">
-        <v>1.9</v>
-      </c>
-      <c r="BL225">
-        <v>1.78</v>
-      </c>
-      <c r="BM225">
-        <v>2.4</v>
-      </c>
-      <c r="BN225">
-        <v>1.49</v>
-      </c>
-      <c r="BO225">
-        <v>3.1</v>
-      </c>
-      <c r="BP225">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:68">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-      <c r="B226">
-        <v>7781299</v>
-      </c>
-      <c r="C226" t="s">
-        <v>68</v>
-      </c>
-      <c r="D226" t="s">
-        <v>69</v>
-      </c>
-      <c r="E226" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" t="s">
-        <v>75</v>
-      </c>
-      <c r="H226" t="s">
-        <v>87</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226">
-        <v>1</v>
-      </c>
-      <c r="K226">
-        <v>1</v>
-      </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226">
-        <v>1</v>
-      </c>
-      <c r="N226">
-        <v>2</v>
-      </c>
-      <c r="O226" t="s">
-        <v>222</v>
-      </c>
-      <c r="P226" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q226">
-        <v>2.75</v>
-      </c>
-      <c r="R226">
-        <v>2.38</v>
-      </c>
-      <c r="S226">
-        <v>3.6</v>
-      </c>
-      <c r="T226">
-        <v>1.3</v>
-      </c>
-      <c r="U226">
-        <v>3.4</v>
-      </c>
-      <c r="V226">
-        <v>2.5</v>
-      </c>
-      <c r="W226">
-        <v>1.5</v>
-      </c>
-      <c r="X226">
-        <v>6</v>
-      </c>
-      <c r="Y226">
-        <v>1.13</v>
-      </c>
-      <c r="Z226">
-        <v>1.9</v>
-      </c>
-      <c r="AA226">
-        <v>3.45</v>
-      </c>
-      <c r="AB226">
-        <v>3.29</v>
-      </c>
-      <c r="AC226">
-        <v>1.04</v>
-      </c>
-      <c r="AD226">
-        <v>10</v>
-      </c>
-      <c r="AE226">
-        <v>1.2</v>
-      </c>
-      <c r="AF226">
-        <v>4.33</v>
-      </c>
-      <c r="AG226">
-        <v>1.76</v>
-      </c>
-      <c r="AH226">
-        <v>1.94</v>
-      </c>
-      <c r="AI226">
-        <v>1.57</v>
-      </c>
-      <c r="AJ226">
-        <v>2.25</v>
-      </c>
-      <c r="AK226">
-        <v>1.38</v>
-      </c>
-      <c r="AL226">
-        <v>1.28</v>
-      </c>
-      <c r="AM226">
-        <v>1.62</v>
-      </c>
-      <c r="AN226">
-        <v>1.13</v>
-      </c>
-      <c r="AO226">
-        <v>1.5</v>
-      </c>
-      <c r="AP226">
-        <v>1.11</v>
-      </c>
-      <c r="AQ226">
-        <v>1.6</v>
-      </c>
-      <c r="AR226">
-        <v>1.23</v>
-      </c>
-      <c r="AS226">
-        <v>1.44</v>
-      </c>
-      <c r="AT226">
-        <v>2.67</v>
-      </c>
-      <c r="AU226">
-        <v>16</v>
-      </c>
-      <c r="AV226">
-        <v>5</v>
-      </c>
-      <c r="AW226">
-        <v>6</v>
-      </c>
-      <c r="AX226">
-        <v>8</v>
-      </c>
-      <c r="AY226">
-        <v>22</v>
-      </c>
-      <c r="AZ226">
-        <v>13</v>
-      </c>
-      <c r="BA226">
-        <v>4</v>
-      </c>
-      <c r="BB226">
-        <v>3</v>
-      </c>
-      <c r="BC226">
-        <v>7</v>
-      </c>
-      <c r="BD226">
-        <v>1.64</v>
-      </c>
-      <c r="BE226">
-        <v>6.75</v>
-      </c>
-      <c r="BF226">
-        <v>2.48</v>
-      </c>
-      <c r="BG226">
-        <v>1.29</v>
-      </c>
-      <c r="BH226">
-        <v>3.2</v>
-      </c>
-      <c r="BI226">
-        <v>1.5</v>
-      </c>
-      <c r="BJ226">
-        <v>2.38</v>
-      </c>
-      <c r="BK226">
-        <v>1.81</v>
-      </c>
-      <c r="BL226">
-        <v>1.88</v>
-      </c>
-      <c r="BM226">
-        <v>2.25</v>
-      </c>
-      <c r="BN226">
-        <v>1.55</v>
-      </c>
-      <c r="BO226">
-        <v>2.9</v>
-      </c>
-      <c r="BP226">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="227" spans="1:68">
-      <c r="A227" s="1">
-        <v>226</v>
-      </c>
-      <c r="B227">
-        <v>7781300</v>
-      </c>
-      <c r="C227" t="s">
-        <v>68</v>
-      </c>
-      <c r="D227" t="s">
-        <v>69</v>
-      </c>
-      <c r="E227" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227" t="s">
-        <v>71</v>
-      </c>
-      <c r="H227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-      <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227">
-        <v>4</v>
-      </c>
-      <c r="M227">
-        <v>2</v>
-      </c>
-      <c r="N227">
-        <v>6</v>
-      </c>
-      <c r="O227" t="s">
-        <v>251</v>
-      </c>
-      <c r="P227" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q227">
-        <v>1.83</v>
-      </c>
-      <c r="R227">
-        <v>2.63</v>
-      </c>
-      <c r="S227">
-        <v>6</v>
-      </c>
-      <c r="T227">
-        <v>1.22</v>
-      </c>
-      <c r="U227">
-        <v>4</v>
-      </c>
-      <c r="V227">
-        <v>2.1</v>
-      </c>
-      <c r="W227">
-        <v>1.67</v>
-      </c>
-      <c r="X227">
-        <v>4.5</v>
-      </c>
-      <c r="Y227">
-        <v>1.18</v>
-      </c>
-      <c r="Z227">
-        <v>1.44</v>
-      </c>
-      <c r="AA227">
-        <v>4.5</v>
-      </c>
-      <c r="AB227">
-        <v>4.9</v>
-      </c>
-      <c r="AC227">
-        <v>1.01</v>
-      </c>
-      <c r="AD227">
-        <v>17</v>
-      </c>
-      <c r="AE227">
-        <v>1.14</v>
-      </c>
-      <c r="AF227">
-        <v>5.5</v>
-      </c>
-      <c r="AG227">
-        <v>1.45</v>
-      </c>
-      <c r="AH227">
-        <v>2.63</v>
-      </c>
-      <c r="AI227">
-        <v>1.67</v>
-      </c>
-      <c r="AJ227">
-        <v>2.1</v>
-      </c>
-      <c r="AK227">
-        <v>1.12</v>
-      </c>
-      <c r="AL227">
-        <v>1.18</v>
-      </c>
-      <c r="AM227">
-        <v>2.65</v>
-      </c>
-      <c r="AN227">
-        <v>1.57</v>
-      </c>
-      <c r="AO227">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP227">
-        <v>1.89</v>
-      </c>
-      <c r="AQ227">
-        <v>0.5</v>
-      </c>
-      <c r="AR227">
-        <v>1.5</v>
-      </c>
-      <c r="AS227">
-        <v>1.36</v>
-      </c>
-      <c r="AT227">
-        <v>2.86</v>
-      </c>
-      <c r="AU227">
-        <v>9</v>
-      </c>
-      <c r="AV227">
-        <v>5</v>
-      </c>
-      <c r="AW227">
-        <v>8</v>
-      </c>
-      <c r="AX227">
-        <v>3</v>
-      </c>
-      <c r="AY227">
-        <v>17</v>
-      </c>
-      <c r="AZ227">
-        <v>8</v>
-      </c>
-      <c r="BA227">
-        <v>0</v>
-      </c>
-      <c r="BB227">
-        <v>2</v>
-      </c>
-      <c r="BC227">
-        <v>2</v>
-      </c>
-      <c r="BD227">
-        <v>1.34</v>
-      </c>
-      <c r="BE227">
-        <v>7.5</v>
-      </c>
-      <c r="BF227">
-        <v>3.55</v>
-      </c>
-      <c r="BG227">
-        <v>1.22</v>
-      </c>
-      <c r="BH227">
-        <v>3.65</v>
-      </c>
-      <c r="BI227">
-        <v>1.41</v>
-      </c>
-      <c r="BJ227">
-        <v>2.65</v>
-      </c>
-      <c r="BK227">
-        <v>1.66</v>
-      </c>
-      <c r="BL227">
-        <v>2.07</v>
-      </c>
-      <c r="BM227">
-        <v>2.04</v>
-      </c>
-      <c r="BN227">
-        <v>1.68</v>
-      </c>
-      <c r="BO227">
-        <v>2.55</v>
-      </c>
-      <c r="BP227">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="228" spans="1:68">
-      <c r="A228" s="1">
-        <v>227</v>
-      </c>
-      <c r="B228">
-        <v>7781301</v>
-      </c>
-      <c r="C228" t="s">
-        <v>68</v>
-      </c>
-      <c r="D228" t="s">
-        <v>69</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228" t="s">
-        <v>88</v>
-      </c>
-      <c r="H228" t="s">
-        <v>85</v>
-      </c>
-      <c r="I228">
-        <v>2</v>
-      </c>
-      <c r="J228">
-        <v>1</v>
-      </c>
-      <c r="K228">
-        <v>3</v>
-      </c>
-      <c r="L228">
-        <v>4</v>
-      </c>
-      <c r="M228">
-        <v>2</v>
-      </c>
-      <c r="N228">
-        <v>6</v>
-      </c>
-      <c r="O228" t="s">
-        <v>252</v>
-      </c>
-      <c r="P228" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q228">
-        <v>2.5</v>
-      </c>
-      <c r="R228">
-        <v>2.25</v>
-      </c>
-      <c r="S228">
-        <v>4.33</v>
-      </c>
-      <c r="T228">
-        <v>1.36</v>
-      </c>
-      <c r="U228">
-        <v>3</v>
-      </c>
-      <c r="V228">
-        <v>2.63</v>
-      </c>
-      <c r="W228">
-        <v>1.44</v>
-      </c>
-      <c r="X228">
-        <v>7</v>
-      </c>
-      <c r="Y228">
-        <v>1.1</v>
-      </c>
-      <c r="Z228">
-        <v>1.8</v>
-      </c>
-      <c r="AA228">
-        <v>3.38</v>
-      </c>
-      <c r="AB228">
-        <v>3.71</v>
-      </c>
-      <c r="AC228">
-        <v>1.05</v>
-      </c>
-      <c r="AD228">
-        <v>9.5</v>
-      </c>
-      <c r="AE228">
-        <v>1.28</v>
-      </c>
-      <c r="AF228">
-        <v>3.6</v>
-      </c>
-      <c r="AG228">
-        <v>1.81</v>
-      </c>
-      <c r="AH228">
-        <v>1.89</v>
-      </c>
-      <c r="AI228">
-        <v>1.75</v>
-      </c>
-      <c r="AJ228">
-        <v>2</v>
-      </c>
-      <c r="AK228">
-        <v>1.24</v>
-      </c>
-      <c r="AL228">
-        <v>1.28</v>
-      </c>
-      <c r="AM228">
-        <v>1.88</v>
-      </c>
-      <c r="AN228">
-        <v>2.29</v>
-      </c>
-      <c r="AO228">
-        <v>0.57</v>
-      </c>
-      <c r="AP228">
-        <v>2.44</v>
-      </c>
-      <c r="AQ228">
-        <v>0.78</v>
-      </c>
-      <c r="AR228">
-        <v>1.63</v>
-      </c>
-      <c r="AS228">
-        <v>1.18</v>
-      </c>
-      <c r="AT228">
-        <v>2.81</v>
-      </c>
-      <c r="AU228">
-        <v>5</v>
-      </c>
-      <c r="AV228">
-        <v>7</v>
-      </c>
-      <c r="AW228">
-        <v>6</v>
-      </c>
-      <c r="AX228">
-        <v>5</v>
-      </c>
-      <c r="AY228">
-        <v>11</v>
-      </c>
-      <c r="AZ228">
-        <v>12</v>
-      </c>
-      <c r="BA228">
-        <v>5</v>
-      </c>
-      <c r="BB228">
-        <v>1</v>
-      </c>
-      <c r="BC228">
-        <v>6</v>
-      </c>
-      <c r="BD228">
-        <v>1.52</v>
-      </c>
-      <c r="BE228">
-        <v>6.75</v>
-      </c>
-      <c r="BF228">
-        <v>2.8</v>
-      </c>
-      <c r="BG228">
-        <v>1.33</v>
-      </c>
-      <c r="BH228">
-        <v>2.95</v>
-      </c>
-      <c r="BI228">
-        <v>1.57</v>
-      </c>
-      <c r="BJ228">
-        <v>2.23</v>
-      </c>
-      <c r="BK228">
-        <v>1.92</v>
-      </c>
-      <c r="BL228">
-        <v>1.77</v>
-      </c>
-      <c r="BM228">
-        <v>2.43</v>
-      </c>
-      <c r="BN228">
-        <v>1.47</v>
-      </c>
-      <c r="BO228">
-        <v>3.15</v>
-      </c>
-      <c r="BP228">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="229" spans="1:68">
-      <c r="A229" s="1">
-        <v>228</v>
-      </c>
-      <c r="B229">
-        <v>7781302</v>
-      </c>
-      <c r="C229" t="s">
-        <v>68</v>
-      </c>
-      <c r="D229" t="s">
-        <v>69</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="s">
-        <v>96</v>
-      </c>
-      <c r="H229" t="s">
-        <v>78</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229">
-        <v>1</v>
-      </c>
-      <c r="K229">
-        <v>1</v>
-      </c>
-      <c r="L229">
-        <v>0</v>
-      </c>
-      <c r="M229">
-        <v>3</v>
-      </c>
-      <c r="N229">
-        <v>3</v>
-      </c>
-      <c r="O229" t="s">
-        <v>109</v>
-      </c>
-      <c r="P229" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q229">
-        <v>2.5</v>
-      </c>
-      <c r="R229">
-        <v>2.25</v>
-      </c>
-      <c r="S229">
-        <v>4.33</v>
-      </c>
-      <c r="T229">
-        <v>1.36</v>
-      </c>
-      <c r="U229">
-        <v>3</v>
-      </c>
-      <c r="V229">
-        <v>2.63</v>
-      </c>
-      <c r="W229">
-        <v>1.44</v>
-      </c>
-      <c r="X229">
-        <v>7</v>
-      </c>
-      <c r="Y229">
-        <v>1.1</v>
-      </c>
-      <c r="Z229">
-        <v>1.86</v>
-      </c>
-      <c r="AA229">
-        <v>3.3</v>
-      </c>
-      <c r="AB229">
-        <v>3.57</v>
-      </c>
-      <c r="AC229">
-        <v>1.05</v>
-      </c>
-      <c r="AD229">
-        <v>9</v>
-      </c>
-      <c r="AE229">
-        <v>1.28</v>
-      </c>
-      <c r="AF229">
-        <v>3.55</v>
-      </c>
-      <c r="AG229">
-        <v>1.8</v>
-      </c>
-      <c r="AH229">
-        <v>1.9</v>
-      </c>
-      <c r="AI229">
-        <v>1.75</v>
-      </c>
-      <c r="AJ229">
-        <v>2</v>
-      </c>
-      <c r="AK229">
-        <v>1.26</v>
-      </c>
-      <c r="AL229">
-        <v>1.29</v>
-      </c>
-      <c r="AM229">
-        <v>1.8</v>
-      </c>
-      <c r="AN229">
-        <v>2.25</v>
-      </c>
-      <c r="AO229">
-        <v>1</v>
-      </c>
-      <c r="AP229">
-        <v>2</v>
-      </c>
-      <c r="AQ229">
-        <v>1.25</v>
-      </c>
-      <c r="AR229">
-        <v>1.83</v>
-      </c>
-      <c r="AS229">
-        <v>1.14</v>
-      </c>
-      <c r="AT229">
-        <v>2.97</v>
-      </c>
-      <c r="AU229">
-        <v>3</v>
-      </c>
-      <c r="AV229">
-        <v>6</v>
-      </c>
-      <c r="AW229">
-        <v>7</v>
-      </c>
-      <c r="AX229">
-        <v>6</v>
-      </c>
-      <c r="AY229">
-        <v>10</v>
-      </c>
-      <c r="AZ229">
-        <v>12</v>
-      </c>
-      <c r="BA229">
-        <v>8</v>
-      </c>
-      <c r="BB229">
-        <v>3</v>
-      </c>
-      <c r="BC229">
-        <v>11</v>
-      </c>
-      <c r="BD229">
-        <v>1.58</v>
-      </c>
-      <c r="BE229">
-        <v>6.75</v>
-      </c>
-      <c r="BF229">
-        <v>2.55</v>
-      </c>
-      <c r="BG229">
-        <v>1.24</v>
-      </c>
-      <c r="BH229">
-        <v>3.55</v>
-      </c>
-      <c r="BI229">
-        <v>1.43</v>
-      </c>
-      <c r="BJ229">
-        <v>2.6</v>
-      </c>
-      <c r="BK229">
-        <v>1.7</v>
-      </c>
-      <c r="BL229">
-        <v>2</v>
-      </c>
-      <c r="BM229">
-        <v>2.08</v>
-      </c>
-      <c r="BN229">
-        <v>1.65</v>
-      </c>
-      <c r="BO229">
-        <v>2.65</v>
-      </c>
-      <c r="BP229">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="230" spans="1:68">
-      <c r="A230" s="1">
-        <v>229</v>
-      </c>
-      <c r="B230">
-        <v>7781303</v>
-      </c>
-      <c r="C230" t="s">
-        <v>68</v>
-      </c>
-      <c r="D230" t="s">
-        <v>69</v>
-      </c>
-      <c r="E230" s="2">
-        <v>45805.85416666666</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230" t="s">
-        <v>98</v>
-      </c>
-      <c r="H230" t="s">
-        <v>89</v>
-      </c>
-      <c r="I230">
-        <v>0</v>
-      </c>
-      <c r="J230">
-        <v>0</v>
-      </c>
-      <c r="K230">
-        <v>0</v>
-      </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230">
-        <v>2</v>
-      </c>
-      <c r="N230">
-        <v>3</v>
-      </c>
-      <c r="O230" t="s">
-        <v>253</v>
-      </c>
-      <c r="P230" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q230">
-        <v>3.25</v>
-      </c>
-      <c r="R230">
-        <v>2.25</v>
-      </c>
-      <c r="S230">
-        <v>3</v>
-      </c>
-      <c r="T230">
-        <v>1.33</v>
-      </c>
-      <c r="U230">
-        <v>3.25</v>
-      </c>
-      <c r="V230">
-        <v>2.63</v>
-      </c>
-      <c r="W230">
-        <v>1.44</v>
-      </c>
-      <c r="X230">
-        <v>6.5</v>
-      </c>
-      <c r="Y230">
-        <v>1.11</v>
-      </c>
-      <c r="Z230">
-        <v>2.91</v>
-      </c>
-      <c r="AA230">
-        <v>3.21</v>
-      </c>
-      <c r="AB230">
-        <v>2.15</v>
-      </c>
-      <c r="AC230">
-        <v>1.05</v>
-      </c>
-      <c r="AD230">
-        <v>9.5</v>
-      </c>
-      <c r="AE230">
-        <v>1.25</v>
-      </c>
-      <c r="AF230">
-        <v>3.75</v>
-      </c>
-      <c r="AG230">
-        <v>1.83</v>
-      </c>
-      <c r="AH230">
-        <v>1.87</v>
-      </c>
-      <c r="AI230">
-        <v>1.62</v>
-      </c>
-      <c r="AJ230">
-        <v>2.2</v>
-      </c>
-      <c r="AK230">
-        <v>1.55</v>
-      </c>
-      <c r="AL230">
-        <v>1.29</v>
-      </c>
-      <c r="AM230">
-        <v>1.41</v>
-      </c>
-      <c r="AN230">
-        <v>0.63</v>
-      </c>
-      <c r="AO230">
-        <v>2</v>
-      </c>
-      <c r="AP230">
-        <v>0.5</v>
-      </c>
-      <c r="AQ230">
-        <v>2</v>
-      </c>
-      <c r="AR230">
-        <v>1.42</v>
-      </c>
-      <c r="AS230">
-        <v>1.75</v>
-      </c>
-      <c r="AT230">
-        <v>3.17</v>
-      </c>
-      <c r="AU230">
-        <v>5</v>
-      </c>
-      <c r="AV230">
-        <v>8</v>
-      </c>
-      <c r="AW230">
-        <v>5</v>
-      </c>
-      <c r="AX230">
-        <v>7</v>
-      </c>
-      <c r="AY230">
-        <v>10</v>
-      </c>
-      <c r="AZ230">
-        <v>15</v>
-      </c>
-      <c r="BA230">
-        <v>3</v>
-      </c>
-      <c r="BB230">
-        <v>9</v>
-      </c>
-      <c r="BC230">
-        <v>12</v>
-      </c>
-      <c r="BD230">
-        <v>2.07</v>
-      </c>
-      <c r="BE230">
-        <v>6.4</v>
-      </c>
-      <c r="BF230">
-        <v>1.92</v>
-      </c>
-      <c r="BG230">
-        <v>1.26</v>
-      </c>
-      <c r="BH230">
-        <v>3.4</v>
-      </c>
-      <c r="BI230">
-        <v>1.47</v>
-      </c>
-      <c r="BJ230">
-        <v>2.48</v>
-      </c>
-      <c r="BK230">
-        <v>1.76</v>
-      </c>
-      <c r="BL230">
-        <v>1.94</v>
-      </c>
-      <c r="BM230">
-        <v>2.17</v>
-      </c>
-      <c r="BN230">
-        <v>1.6</v>
-      </c>
-      <c r="BO230">
-        <v>2.75</v>
-      </c>
-      <c r="BP230">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="231" spans="1:68">
-      <c r="A231" s="1">
-        <v>230</v>
-      </c>
-      <c r="B231">
-        <v>7781304</v>
-      </c>
-      <c r="C231" t="s">
-        <v>68</v>
-      </c>
-      <c r="D231" t="s">
-        <v>69</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45805.875</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="s">
-        <v>74</v>
-      </c>
-      <c r="H231" t="s">
-        <v>79</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-      <c r="J231">
-        <v>1</v>
-      </c>
-      <c r="K231">
-        <v>1</v>
-      </c>
-      <c r="L231">
-        <v>2</v>
-      </c>
-      <c r="M231">
-        <v>2</v>
-      </c>
-      <c r="N231">
-        <v>4</v>
-      </c>
-      <c r="O231" t="s">
-        <v>254</v>
-      </c>
-      <c r="P231" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q231">
-        <v>2.4</v>
-      </c>
-      <c r="R231">
-        <v>2.25</v>
-      </c>
-      <c r="S231">
-        <v>4.5</v>
-      </c>
-      <c r="T231">
-        <v>1.36</v>
-      </c>
-      <c r="U231">
-        <v>3</v>
-      </c>
-      <c r="V231">
-        <v>2.63</v>
-      </c>
-      <c r="W231">
-        <v>1.44</v>
-      </c>
-      <c r="X231">
-        <v>7</v>
-      </c>
-      <c r="Y231">
-        <v>1.1</v>
-      </c>
-      <c r="Z231">
-        <v>1.72</v>
-      </c>
-      <c r="AA231">
-        <v>3.6</v>
-      </c>
-      <c r="AB231">
-        <v>3.83</v>
-      </c>
-      <c r="AC231">
-        <v>1.05</v>
-      </c>
-      <c r="AD231">
-        <v>9.5</v>
-      </c>
-      <c r="AE231">
-        <v>1.28</v>
-      </c>
-      <c r="AF231">
-        <v>3.65</v>
-      </c>
-      <c r="AG231">
-        <v>1.83</v>
-      </c>
-      <c r="AH231">
-        <v>1.87</v>
-      </c>
-      <c r="AI231">
-        <v>1.75</v>
-      </c>
-      <c r="AJ231">
-        <v>2</v>
-      </c>
-      <c r="AK231">
-        <v>1.2</v>
-      </c>
-      <c r="AL231">
-        <v>1.26</v>
-      </c>
-      <c r="AM231">
-        <v>2.05</v>
-      </c>
-      <c r="AN231">
-        <v>1.88</v>
-      </c>
-      <c r="AO231">
-        <v>1.17</v>
-      </c>
-      <c r="AP231">
-        <v>1.78</v>
-      </c>
-      <c r="AQ231">
-        <v>1.14</v>
-      </c>
-      <c r="AR231">
-        <v>1.85</v>
-      </c>
-      <c r="AS231">
-        <v>1.6</v>
-      </c>
-      <c r="AT231">
-        <v>3.45</v>
-      </c>
-      <c r="AU231">
-        <v>5</v>
-      </c>
-      <c r="AV231">
-        <v>7</v>
-      </c>
-      <c r="AW231">
-        <v>15</v>
-      </c>
-      <c r="AX231">
-        <v>7</v>
-      </c>
-      <c r="AY231">
-        <v>20</v>
-      </c>
-      <c r="AZ231">
-        <v>14</v>
-      </c>
-      <c r="BA231">
-        <v>7</v>
-      </c>
-      <c r="BB231">
-        <v>3</v>
-      </c>
-      <c r="BC231">
-        <v>10</v>
-      </c>
-      <c r="BD231">
-        <v>1.57</v>
-      </c>
-      <c r="BE231">
-        <v>6.4</v>
-      </c>
-      <c r="BF231">
-        <v>2.7</v>
-      </c>
-      <c r="BG231">
-        <v>1.41</v>
-      </c>
-      <c r="BH231">
-        <v>2.65</v>
-      </c>
-      <c r="BI231">
-        <v>1.7</v>
-      </c>
-      <c r="BJ231">
-        <v>2</v>
-      </c>
-      <c r="BK231">
-        <v>2.14</v>
-      </c>
-      <c r="BL231">
-        <v>1.62</v>
-      </c>
-      <c r="BM231">
-        <v>2.75</v>
-      </c>
-      <c r="BN231">
-        <v>1.38</v>
-      </c>
-      <c r="BO231">
-        <v>3.65</v>
-      </c>
-      <c r="BP231">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="232" spans="1:68">
-      <c r="A232" s="1">
-        <v>231</v>
-      </c>
-      <c r="B232">
-        <v>7781306</v>
-      </c>
-      <c r="C232" t="s">
-        <v>68</v>
-      </c>
-      <c r="D232" t="s">
-        <v>69</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45805.89583333334</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" t="s">
-        <v>82</v>
-      </c>
-      <c r="H232" t="s">
-        <v>94</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232">
-        <v>0</v>
-      </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232">
-        <v>0</v>
-      </c>
-      <c r="N232">
-        <v>1</v>
-      </c>
-      <c r="O232" t="s">
-        <v>255</v>
-      </c>
-      <c r="P232" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q232">
-        <v>0</v>
-      </c>
-      <c r="R232">
-        <v>0</v>
-      </c>
-      <c r="S232">
-        <v>0</v>
-      </c>
-      <c r="T232">
-        <v>0</v>
-      </c>
-      <c r="U232">
-        <v>0</v>
-      </c>
-      <c r="V232">
-        <v>0</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>1.82</v>
-      </c>
-      <c r="AA232">
-        <v>3.35</v>
-      </c>
-      <c r="AB232">
-        <v>3.68</v>
-      </c>
-      <c r="AC232">
-        <v>0</v>
-      </c>
-      <c r="AD232">
-        <v>0</v>
-      </c>
-      <c r="AE232">
-        <v>0</v>
-      </c>
-      <c r="AF232">
-        <v>0</v>
-      </c>
-      <c r="AG232">
-        <v>1.83</v>
-      </c>
-      <c r="AH232">
-        <v>1.87</v>
-      </c>
-      <c r="AI232">
-        <v>0</v>
-      </c>
-      <c r="AJ232">
-        <v>0</v>
-      </c>
-      <c r="AK232">
-        <v>0</v>
-      </c>
-      <c r="AL232">
-        <v>0</v>
-      </c>
-      <c r="AM232">
-        <v>0</v>
-      </c>
-      <c r="AN232">
-        <v>2.33</v>
-      </c>
-      <c r="AO232">
-        <v>1.5</v>
-      </c>
-      <c r="AP232">
-        <v>2.13</v>
-      </c>
-      <c r="AQ232">
-        <v>1.29</v>
-      </c>
-      <c r="AR232">
-        <v>1.98</v>
-      </c>
-      <c r="AS232">
-        <v>1.67</v>
-      </c>
-      <c r="AT232">
-        <v>3.65</v>
-      </c>
-      <c r="AU232">
-        <v>6</v>
-      </c>
-      <c r="AV232">
-        <v>8</v>
-      </c>
-      <c r="AW232">
-        <v>1</v>
-      </c>
-      <c r="AX232">
-        <v>8</v>
-      </c>
-      <c r="AY232">
-        <v>7</v>
-      </c>
-      <c r="AZ232">
-        <v>16</v>
-      </c>
-      <c r="BA232">
-        <v>4</v>
-      </c>
-      <c r="BB232">
-        <v>6</v>
-      </c>
-      <c r="BC232">
-        <v>10</v>
-      </c>
-      <c r="BD232">
-        <v>0</v>
-      </c>
-      <c r="BE232">
-        <v>0</v>
-      </c>
-      <c r="BF232">
-        <v>0</v>
-      </c>
-      <c r="BG232">
-        <v>0</v>
-      </c>
-      <c r="BH232">
-        <v>0</v>
-      </c>
-      <c r="BI232">
-        <v>0</v>
-      </c>
-      <c r="BJ232">
-        <v>0</v>
-      </c>
-      <c r="BK232">
-        <v>0</v>
-      </c>
-      <c r="BL232">
-        <v>0</v>
-      </c>
-      <c r="BM232">
-        <v>0</v>
-      </c>
-      <c r="BN232">
-        <v>0</v>
-      </c>
-      <c r="BO232">
-        <v>0</v>
-      </c>
-      <c r="BP232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:68">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
-      <c r="B233">
-        <v>7781305</v>
-      </c>
-      <c r="C233" t="s">
-        <v>68</v>
-      </c>
-      <c r="D233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45805.93055555555</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233" t="s">
-        <v>77</v>
-      </c>
-      <c r="H233" t="s">
-        <v>86</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233">
-        <v>0</v>
-      </c>
-      <c r="K233">
-        <v>0</v>
-      </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233">
-        <v>1</v>
-      </c>
-      <c r="N233">
-        <v>2</v>
-      </c>
-      <c r="O233" t="s">
-        <v>256</v>
-      </c>
-      <c r="P233" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q233">
-        <v>2.75</v>
-      </c>
-      <c r="R233">
-        <v>2.2</v>
-      </c>
-      <c r="S233">
-        <v>4</v>
-      </c>
-      <c r="T233">
-        <v>1.36</v>
-      </c>
-      <c r="U233">
-        <v>3</v>
-      </c>
-      <c r="V233">
-        <v>2.75</v>
-      </c>
-      <c r="W233">
-        <v>1.4</v>
-      </c>
-      <c r="X233">
-        <v>7</v>
-      </c>
-      <c r="Y233">
-        <v>1.1</v>
-      </c>
-      <c r="Z233">
-        <v>2.01</v>
-      </c>
-      <c r="AA233">
-        <v>3.33</v>
-      </c>
-      <c r="AB233">
-        <v>3.12</v>
-      </c>
-      <c r="AC233">
-        <v>1.06</v>
-      </c>
-      <c r="AD233">
-        <v>8.5</v>
-      </c>
-      <c r="AE233">
-        <v>1.3</v>
-      </c>
-      <c r="AF233">
-        <v>3.4</v>
-      </c>
-      <c r="AG233">
-        <v>1.86</v>
-      </c>
-      <c r="AH233">
-        <v>1.84</v>
-      </c>
-      <c r="AI233">
-        <v>1.75</v>
-      </c>
-      <c r="AJ233">
-        <v>2</v>
-      </c>
-      <c r="AK233">
-        <v>1.28</v>
-      </c>
-      <c r="AL233">
-        <v>1.29</v>
-      </c>
-      <c r="AM233">
-        <v>1.75</v>
-      </c>
-      <c r="AN233">
-        <v>1.5</v>
-      </c>
-      <c r="AO233">
-        <v>0.88</v>
-      </c>
-      <c r="AP233">
-        <v>1.44</v>
-      </c>
-      <c r="AQ233">
-        <v>0.8</v>
-      </c>
-      <c r="AR233">
-        <v>1.67</v>
-      </c>
-      <c r="AS233">
-        <v>1.57</v>
-      </c>
-      <c r="AT233">
-        <v>3.24</v>
-      </c>
-      <c r="AU233">
-        <v>4</v>
-      </c>
-      <c r="AV233">
-        <v>3</v>
-      </c>
-      <c r="AW233">
-        <v>9</v>
-      </c>
-      <c r="AX233">
-        <v>14</v>
-      </c>
-      <c r="AY233">
-        <v>13</v>
-      </c>
-      <c r="AZ233">
-        <v>17</v>
-      </c>
-      <c r="BA233">
-        <v>7</v>
-      </c>
-      <c r="BB233">
-        <v>6</v>
-      </c>
-      <c r="BC233">
-        <v>13</v>
-      </c>
-      <c r="BD233">
-        <v>1.74</v>
-      </c>
-      <c r="BE233">
-        <v>6.4</v>
-      </c>
-      <c r="BF233">
-        <v>2.32</v>
-      </c>
-      <c r="BG233">
-        <v>1.28</v>
-      </c>
-      <c r="BH233">
-        <v>3.2</v>
-      </c>
-      <c r="BI233">
-        <v>1.5</v>
-      </c>
-      <c r="BJ233">
-        <v>2.4</v>
-      </c>
-      <c r="BK233">
-        <v>1.82</v>
-      </c>
-      <c r="BL233">
-        <v>1.86</v>
-      </c>
-      <c r="BM233">
-        <v>2.28</v>
-      </c>
-      <c r="BN233">
-        <v>1.54</v>
-      </c>
-      <c r="BO233">
-        <v>2.95</v>
-      </c>
-      <c r="BP233">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:68">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
-      <c r="B234">
-        <v>7781307</v>
-      </c>
-      <c r="C234" t="s">
-        <v>68</v>
-      </c>
-      <c r="D234" t="s">
-        <v>69</v>
-      </c>
-      <c r="E234" s="2">
-        <v>45805.96875</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="s">
-        <v>84</v>
-      </c>
-      <c r="H234" t="s">
-        <v>81</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-      <c r="J234">
-        <v>0</v>
-      </c>
-      <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234">
-        <v>0</v>
-      </c>
-      <c r="M234">
-        <v>1</v>
-      </c>
-      <c r="N234">
-        <v>1</v>
-      </c>
-      <c r="O234" t="s">
-        <v>109</v>
-      </c>
-      <c r="P234" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q234">
-        <v>2.5</v>
-      </c>
-      <c r="R234">
-        <v>2.5</v>
-      </c>
-      <c r="S234">
-        <v>3.6</v>
-      </c>
-      <c r="T234">
-        <v>1.25</v>
-      </c>
-      <c r="U234">
-        <v>3.75</v>
-      </c>
-      <c r="V234">
-        <v>2.2</v>
-      </c>
-      <c r="W234">
-        <v>1.62</v>
-      </c>
-      <c r="X234">
-        <v>5</v>
-      </c>
-      <c r="Y234">
-        <v>1.17</v>
-      </c>
-      <c r="Z234">
-        <v>1.9</v>
-      </c>
-      <c r="AA234">
-        <v>3.92</v>
-      </c>
-      <c r="AB234">
-        <v>2.96</v>
-      </c>
-      <c r="AC234">
-        <v>1.01</v>
-      </c>
-      <c r="AD234">
-        <v>13</v>
-      </c>
-      <c r="AE234">
-        <v>1.15</v>
-      </c>
-      <c r="AF234">
-        <v>5.25</v>
-      </c>
-      <c r="AG234">
-        <v>1.46</v>
-      </c>
-      <c r="AH234">
-        <v>2.6</v>
-      </c>
-      <c r="AI234">
-        <v>1.5</v>
-      </c>
-      <c r="AJ234">
-        <v>2.5</v>
-      </c>
-      <c r="AK234">
-        <v>1.33</v>
-      </c>
-      <c r="AL234">
-        <v>1.24</v>
-      </c>
-      <c r="AM234">
-        <v>1.77</v>
-      </c>
-      <c r="AN234">
-        <v>0.33</v>
-      </c>
-      <c r="AO234">
-        <v>1.17</v>
-      </c>
-      <c r="AP234">
-        <v>0.63</v>
-      </c>
-      <c r="AQ234">
-        <v>1.25</v>
-      </c>
-      <c r="AR234">
-        <v>1.45</v>
-      </c>
-      <c r="AS234">
-        <v>1.76</v>
-      </c>
-      <c r="AT234">
-        <v>3.21</v>
-      </c>
-      <c r="AU234">
-        <v>8</v>
-      </c>
-      <c r="AV234">
-        <v>8</v>
-      </c>
-      <c r="AW234">
-        <v>7</v>
-      </c>
-      <c r="AX234">
-        <v>6</v>
-      </c>
-      <c r="AY234">
-        <v>15</v>
-      </c>
-      <c r="AZ234">
-        <v>14</v>
-      </c>
-      <c r="BA234">
-        <v>10</v>
-      </c>
-      <c r="BB234">
-        <v>4</v>
-      </c>
-      <c r="BC234">
-        <v>14</v>
-      </c>
-      <c r="BD234">
-        <v>1.67</v>
-      </c>
-      <c r="BE234">
-        <v>6.75</v>
-      </c>
-      <c r="BF234">
-        <v>2.4</v>
-      </c>
-      <c r="BG234">
-        <v>1.2</v>
-      </c>
-      <c r="BH234">
-        <v>3.9</v>
-      </c>
-      <c r="BI234">
-        <v>1.37</v>
-      </c>
-      <c r="BJ234">
-        <v>2.8</v>
-      </c>
-      <c r="BK234">
-        <v>1.61</v>
-      </c>
-      <c r="BL234">
-        <v>2.15</v>
-      </c>
-      <c r="BM234">
-        <v>1.96</v>
-      </c>
-      <c r="BN234">
-        <v>1.73</v>
-      </c>
-      <c r="BO234">
-        <v>2.45</v>
-      </c>
-      <c r="BP234">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="235" spans="1:68">
-      <c r="A235" s="1">
-        <v>234</v>
-      </c>
-      <c r="B235">
-        <v>7781309</v>
-      </c>
-      <c r="C235" t="s">
-        <v>68</v>
-      </c>
-      <c r="D235" t="s">
-        <v>69</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45805.97916666666</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="s">
-        <v>83</v>
-      </c>
-      <c r="H235" t="s">
-        <v>93</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235">
-        <v>1</v>
-      </c>
-      <c r="K235">
-        <v>1</v>
-      </c>
-      <c r="L235">
-        <v>2</v>
-      </c>
-      <c r="M235">
-        <v>1</v>
-      </c>
-      <c r="N235">
-        <v>3</v>
-      </c>
-      <c r="O235" t="s">
-        <v>257</v>
-      </c>
-      <c r="P235" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q235">
-        <v>2.1</v>
-      </c>
-      <c r="R235">
-        <v>2.6</v>
-      </c>
-      <c r="S235">
-        <v>4.5</v>
-      </c>
-      <c r="T235">
-        <v>1.25</v>
-      </c>
-      <c r="U235">
-        <v>3.75</v>
-      </c>
-      <c r="V235">
-        <v>2.1</v>
-      </c>
-      <c r="W235">
-        <v>1.67</v>
-      </c>
-      <c r="X235">
-        <v>5</v>
-      </c>
-      <c r="Y235">
-        <v>1.17</v>
-      </c>
-      <c r="Z235">
-        <v>1.6</v>
-      </c>
-      <c r="AA235">
-        <v>3.95</v>
-      </c>
-      <c r="AB235">
-        <v>4.2</v>
-      </c>
-      <c r="AC235">
-        <v>1.01</v>
-      </c>
-      <c r="AD235">
-        <v>17</v>
-      </c>
-      <c r="AE235">
-        <v>1.15</v>
-      </c>
-      <c r="AF235">
-        <v>5.25</v>
-      </c>
-      <c r="AG235">
-        <v>1.52</v>
-      </c>
-      <c r="AH235">
-        <v>2.43</v>
-      </c>
-      <c r="AI235">
-        <v>1.53</v>
-      </c>
-      <c r="AJ235">
-        <v>2.38</v>
-      </c>
-      <c r="AK235">
-        <v>1.21</v>
-      </c>
-      <c r="AL235">
-        <v>1.22</v>
-      </c>
-      <c r="AM235">
-        <v>2.1</v>
-      </c>
-      <c r="AN235">
-        <v>1.71</v>
-      </c>
-      <c r="AO235">
-        <v>1.14</v>
-      </c>
-      <c r="AP235">
-        <v>1.88</v>
-      </c>
-      <c r="AQ235">
-        <v>1</v>
-      </c>
-      <c r="AR235">
-        <v>1.24</v>
-      </c>
-      <c r="AS235">
-        <v>0.97</v>
-      </c>
-      <c r="AT235">
-        <v>2.21</v>
-      </c>
-      <c r="AU235">
-        <v>9</v>
-      </c>
-      <c r="AV235">
-        <v>4</v>
-      </c>
-      <c r="AW235">
-        <v>13</v>
-      </c>
-      <c r="AX235">
-        <v>6</v>
-      </c>
-      <c r="AY235">
-        <v>22</v>
-      </c>
-      <c r="AZ235">
-        <v>10</v>
-      </c>
-      <c r="BA235">
-        <v>6</v>
-      </c>
-      <c r="BB235">
-        <v>3</v>
-      </c>
-      <c r="BC235">
-        <v>9</v>
-      </c>
-      <c r="BD235">
-        <v>1.58</v>
-      </c>
-      <c r="BE235">
-        <v>6.5</v>
-      </c>
-      <c r="BF235">
-        <v>2.65</v>
-      </c>
-      <c r="BG235">
-        <v>1.3</v>
-      </c>
-      <c r="BH235">
-        <v>3.15</v>
-      </c>
-      <c r="BI235">
-        <v>1.52</v>
-      </c>
-      <c r="BJ235">
-        <v>2.33</v>
-      </c>
-      <c r="BK235">
-        <v>1.84</v>
-      </c>
-      <c r="BL235">
-        <v>1.84</v>
-      </c>
-      <c r="BM235">
-        <v>2.32</v>
-      </c>
-      <c r="BN235">
-        <v>1.53</v>
-      </c>
-      <c r="BO235">
-        <v>2.95</v>
-      </c>
-      <c r="BP235">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="236" spans="1:68">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-      <c r="B236">
-        <v>7781310</v>
-      </c>
-      <c r="C236" t="s">
-        <v>68</v>
-      </c>
-      <c r="D236" t="s">
-        <v>69</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45805.97916666666</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="s">
-        <v>95</v>
-      </c>
-      <c r="H236" t="s">
-        <v>92</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236">
-        <v>0</v>
-      </c>
-      <c r="K236">
-        <v>0</v>
-      </c>
-      <c r="L236">
-        <v>0</v>
-      </c>
-      <c r="M236">
-        <v>0</v>
-      </c>
-      <c r="N236">
-        <v>0</v>
-      </c>
-      <c r="O236" t="s">
-        <v>109</v>
-      </c>
-      <c r="P236" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q236">
-        <v>2.6</v>
-      </c>
-      <c r="R236">
-        <v>2.25</v>
-      </c>
-      <c r="S236">
-        <v>4</v>
-      </c>
-      <c r="T236">
-        <v>1.36</v>
-      </c>
-      <c r="U236">
-        <v>3</v>
-      </c>
-      <c r="V236">
-        <v>2.63</v>
-      </c>
-      <c r="W236">
-        <v>1.44</v>
-      </c>
-      <c r="X236">
-        <v>7</v>
-      </c>
-      <c r="Y236">
-        <v>1.1</v>
-      </c>
-      <c r="Z236">
-        <v>1.9</v>
-      </c>
-      <c r="AA236">
-        <v>3.32</v>
-      </c>
-      <c r="AB236">
-        <v>3.41</v>
-      </c>
-      <c r="AC236">
-        <v>1.05</v>
-      </c>
-      <c r="AD236">
-        <v>9.5</v>
-      </c>
-      <c r="AE236">
-        <v>1.25</v>
-      </c>
-      <c r="AF236">
-        <v>3.7</v>
-      </c>
-      <c r="AG236">
-        <v>1.8</v>
-      </c>
-      <c r="AH236">
-        <v>1.9</v>
-      </c>
-      <c r="AI236">
-        <v>1.75</v>
-      </c>
-      <c r="AJ236">
-        <v>2</v>
-      </c>
-      <c r="AK236">
-        <v>1.36</v>
-      </c>
-      <c r="AL236">
-        <v>1.3</v>
-      </c>
-      <c r="AM236">
-        <v>1.62</v>
-      </c>
-      <c r="AN236">
-        <v>2.29</v>
-      </c>
-      <c r="AO236">
-        <v>1.57</v>
-      </c>
-      <c r="AP236">
-        <v>2.13</v>
-      </c>
-      <c r="AQ236">
-        <v>1.67</v>
-      </c>
-      <c r="AR236">
-        <v>1.96</v>
-      </c>
-      <c r="AS236">
-        <v>1.45</v>
-      </c>
-      <c r="AT236">
-        <v>3.41</v>
-      </c>
-      <c r="AU236">
-        <v>4</v>
-      </c>
-      <c r="AV236">
-        <v>2</v>
-      </c>
-      <c r="AW236">
-        <v>16</v>
-      </c>
-      <c r="AX236">
-        <v>3</v>
-      </c>
-      <c r="AY236">
-        <v>20</v>
-      </c>
-      <c r="AZ236">
-        <v>5</v>
-      </c>
-      <c r="BA236">
-        <v>8</v>
-      </c>
-      <c r="BB236">
-        <v>0</v>
-      </c>
-      <c r="BC236">
-        <v>8</v>
-      </c>
-      <c r="BD236">
-        <v>1.72</v>
-      </c>
-      <c r="BE236">
-        <v>6.75</v>
-      </c>
-      <c r="BF236">
-        <v>2.33</v>
-      </c>
-      <c r="BG236">
-        <v>1.21</v>
-      </c>
-      <c r="BH236">
-        <v>3.8</v>
-      </c>
-      <c r="BI236">
-        <v>1.38</v>
-      </c>
-      <c r="BJ236">
-        <v>2.75</v>
-      </c>
-      <c r="BK236">
-        <v>1.62</v>
-      </c>
-      <c r="BL236">
-        <v>2.14</v>
-      </c>
-      <c r="BM236">
-        <v>1.98</v>
-      </c>
-      <c r="BN236">
-        <v>1.72</v>
-      </c>
-      <c r="BO236">
-        <v>2.48</v>
-      </c>
-      <c r="BP236">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:68">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-      <c r="B237">
-        <v>7781311</v>
-      </c>
-      <c r="C237" t="s">
-        <v>68</v>
-      </c>
-      <c r="D237" t="s">
-        <v>69</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45808.64583333334</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" t="s">
-        <v>80</v>
-      </c>
-      <c r="H237" t="s">
-        <v>81</v>
-      </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
-      <c r="J237">
-        <v>0</v>
-      </c>
-      <c r="K237">
-        <v>1</v>
-      </c>
-      <c r="L237">
-        <v>2</v>
-      </c>
-      <c r="M237">
-        <v>1</v>
-      </c>
-      <c r="N237">
-        <v>3</v>
-      </c>
-      <c r="O237" t="s">
-        <v>258</v>
-      </c>
-      <c r="P237" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q237">
-        <v>2.75</v>
-      </c>
-      <c r="R237">
-        <v>2.3</v>
-      </c>
-      <c r="S237">
-        <v>3.5</v>
-      </c>
-      <c r="T237">
-        <v>1.33</v>
-      </c>
-      <c r="U237">
-        <v>3.25</v>
-      </c>
-      <c r="V237">
-        <v>2.5</v>
-      </c>
-      <c r="W237">
-        <v>1.5</v>
-      </c>
-      <c r="X237">
-        <v>6.5</v>
-      </c>
-      <c r="Y237">
-        <v>1.11</v>
-      </c>
-      <c r="Z237">
-        <v>2.26</v>
-      </c>
-      <c r="AA237">
-        <v>3.33</v>
-      </c>
-      <c r="AB237">
-        <v>2.65</v>
-      </c>
-      <c r="AC237">
-        <v>1.05</v>
-      </c>
-      <c r="AD237">
-        <v>9.5</v>
-      </c>
-      <c r="AE237">
-        <v>1.25</v>
-      </c>
-      <c r="AF237">
-        <v>3.95</v>
-      </c>
-      <c r="AG237">
-        <v>1.7</v>
-      </c>
-      <c r="AH237">
-        <v>2.05</v>
-      </c>
-      <c r="AI237">
-        <v>1.62</v>
-      </c>
-      <c r="AJ237">
-        <v>2.2</v>
-      </c>
-      <c r="AK237">
-        <v>1.43</v>
-      </c>
-      <c r="AL237">
-        <v>1.28</v>
-      </c>
-      <c r="AM237">
-        <v>1.55</v>
-      </c>
-      <c r="AN237">
-        <v>0.86</v>
-      </c>
-      <c r="AO237">
-        <v>1.43</v>
-      </c>
-      <c r="AP237">
-        <v>1.13</v>
-      </c>
-      <c r="AQ237">
-        <v>1.25</v>
-      </c>
-      <c r="AR237">
-        <v>1.68</v>
-      </c>
-      <c r="AS237">
-        <v>1.76</v>
-      </c>
-      <c r="AT237">
-        <v>3.44</v>
-      </c>
-      <c r="AU237">
-        <v>5</v>
-      </c>
-      <c r="AV237">
-        <v>6</v>
-      </c>
-      <c r="AW237">
-        <v>8</v>
-      </c>
-      <c r="AX237">
-        <v>8</v>
-      </c>
-      <c r="AY237">
-        <v>13</v>
-      </c>
-      <c r="AZ237">
-        <v>14</v>
-      </c>
-      <c r="BA237">
-        <v>6</v>
-      </c>
-      <c r="BB237">
-        <v>9</v>
-      </c>
-      <c r="BC237">
-        <v>15</v>
-      </c>
-      <c r="BD237">
-        <v>1.64</v>
-      </c>
-      <c r="BE237">
-        <v>7</v>
-      </c>
-      <c r="BF237">
-        <v>2.48</v>
-      </c>
-      <c r="BG237">
-        <v>1.24</v>
-      </c>
-      <c r="BH237">
-        <v>3.55</v>
-      </c>
-      <c r="BI237">
-        <v>1.43</v>
-      </c>
-      <c r="BJ237">
-        <v>2.6</v>
-      </c>
-      <c r="BK237">
-        <v>1.7</v>
-      </c>
-      <c r="BL237">
-        <v>2.02</v>
-      </c>
-      <c r="BM237">
-        <v>2.08</v>
-      </c>
-      <c r="BN237">
-        <v>1.65</v>
-      </c>
-      <c r="BO237">
-        <v>2.65</v>
-      </c>
-      <c r="BP237">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="238" spans="1:68">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
-      <c r="B238">
-        <v>7781312</v>
-      </c>
-      <c r="C238" t="s">
-        <v>68</v>
-      </c>
-      <c r="D238" t="s">
-        <v>69</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45808.72916666666</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="s">
-        <v>79</v>
-      </c>
-      <c r="H238" t="s">
-        <v>96</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
-      </c>
-      <c r="J238">
-        <v>0</v>
-      </c>
-      <c r="K238">
-        <v>2</v>
-      </c>
-      <c r="L238">
-        <v>2</v>
-      </c>
-      <c r="M238">
-        <v>2</v>
-      </c>
-      <c r="N238">
-        <v>4</v>
-      </c>
-      <c r="O238" t="s">
-        <v>259</v>
-      </c>
-      <c r="P238" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q238">
-        <v>2.6</v>
-      </c>
-      <c r="R238">
-        <v>2.3</v>
-      </c>
-      <c r="S238">
-        <v>4</v>
-      </c>
-      <c r="T238">
-        <v>1.33</v>
-      </c>
-      <c r="U238">
-        <v>3.25</v>
-      </c>
-      <c r="V238">
-        <v>2.5</v>
-      </c>
-      <c r="W238">
-        <v>1.5</v>
-      </c>
-      <c r="X238">
-        <v>6.5</v>
-      </c>
-      <c r="Y238">
-        <v>1.11</v>
-      </c>
-      <c r="Z238">
-        <v>2.06</v>
-      </c>
-      <c r="AA238">
-        <v>3.31</v>
-      </c>
-      <c r="AB238">
-        <v>3.02</v>
-      </c>
-      <c r="AC238">
-        <v>1.05</v>
-      </c>
-      <c r="AD238">
-        <v>9.5</v>
-      </c>
-      <c r="AE238">
-        <v>1.25</v>
-      </c>
-      <c r="AF238">
-        <v>3.9</v>
-      </c>
-      <c r="AG238">
-        <v>1.7</v>
-      </c>
-      <c r="AH238">
-        <v>2</v>
-      </c>
-      <c r="AI238">
-        <v>1.67</v>
-      </c>
-      <c r="AJ238">
-        <v>2.1</v>
-      </c>
-      <c r="AK238">
-        <v>1.34</v>
-      </c>
-      <c r="AL238">
-        <v>1.29</v>
-      </c>
-      <c r="AM238">
-        <v>1.66</v>
-      </c>
-      <c r="AN238">
-        <v>2.22</v>
-      </c>
-      <c r="AO238">
-        <v>0.86</v>
-      </c>
-      <c r="AP238">
-        <v>2.1</v>
-      </c>
-      <c r="AQ238">
-        <v>0.88</v>
-      </c>
-      <c r="AR238">
-        <v>1.87</v>
-      </c>
-      <c r="AS238">
-        <v>1.26</v>
-      </c>
-      <c r="AT238">
-        <v>3.13</v>
-      </c>
-      <c r="AU238">
-        <v>7</v>
-      </c>
-      <c r="AV238">
-        <v>5</v>
-      </c>
-      <c r="AW238">
-        <v>10</v>
-      </c>
-      <c r="AX238">
-        <v>9</v>
-      </c>
-      <c r="AY238">
-        <v>17</v>
-      </c>
-      <c r="AZ238">
-        <v>14</v>
-      </c>
-      <c r="BA238">
-        <v>6</v>
-      </c>
-      <c r="BB238">
-        <v>1</v>
-      </c>
-      <c r="BC238">
-        <v>7</v>
-      </c>
-      <c r="BD238">
-        <v>1.47</v>
-      </c>
-      <c r="BE238">
-        <v>7</v>
-      </c>
-      <c r="BF238">
-        <v>2.95</v>
-      </c>
-      <c r="BG238">
-        <v>1.25</v>
-      </c>
-      <c r="BH238">
-        <v>3.45</v>
-      </c>
-      <c r="BI238">
-        <v>1.44</v>
-      </c>
-      <c r="BJ238">
-        <v>2.55</v>
-      </c>
-      <c r="BK238">
-        <v>1.72</v>
-      </c>
-      <c r="BL238">
-        <v>1.98</v>
-      </c>
-      <c r="BM238">
-        <v>2.15</v>
-      </c>
-      <c r="BN238">
-        <v>1.61</v>
-      </c>
-      <c r="BO238">
-        <v>2.7</v>
-      </c>
-      <c r="BP238">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:68">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
-      <c r="B239">
-        <v>7781318</v>
-      </c>
-      <c r="C239" t="s">
-        <v>68</v>
-      </c>
-      <c r="D239" t="s">
-        <v>69</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45808.85416666666</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239" t="s">
-        <v>98</v>
-      </c>
-      <c r="H239" t="s">
-        <v>85</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239">
-        <v>0</v>
-      </c>
-      <c r="K239">
-        <v>0</v>
-      </c>
-      <c r="L239">
-        <v>0</v>
-      </c>
-      <c r="M239">
-        <v>2</v>
-      </c>
-      <c r="N239">
-        <v>2</v>
-      </c>
-      <c r="O239" t="s">
-        <v>109</v>
-      </c>
-      <c r="P239" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q239">
-        <v>3.1</v>
-      </c>
-      <c r="R239">
-        <v>2.3</v>
-      </c>
-      <c r="S239">
-        <v>3.1</v>
-      </c>
-      <c r="T239">
-        <v>1.3</v>
-      </c>
-      <c r="U239">
-        <v>3.4</v>
-      </c>
-      <c r="V239">
-        <v>2.5</v>
-      </c>
-      <c r="W239">
-        <v>1.5</v>
-      </c>
-      <c r="X239">
-        <v>6</v>
-      </c>
-      <c r="Y239">
-        <v>1.13</v>
-      </c>
-      <c r="Z239">
-        <v>2.45</v>
-      </c>
-      <c r="AA239">
-        <v>3.31</v>
-      </c>
-      <c r="AB239">
-        <v>2.45</v>
-      </c>
-      <c r="AC239">
-        <v>1.04</v>
-      </c>
-      <c r="AD239">
-        <v>10</v>
-      </c>
-      <c r="AE239">
-        <v>1.22</v>
-      </c>
-      <c r="AF239">
-        <v>4.2</v>
-      </c>
-      <c r="AG239">
-        <v>1.76</v>
-      </c>
-      <c r="AH239">
-        <v>1.94</v>
-      </c>
-      <c r="AI239">
-        <v>1.57</v>
-      </c>
-      <c r="AJ239">
-        <v>2.25</v>
-      </c>
-      <c r="AK239">
-        <v>1.47</v>
-      </c>
-      <c r="AL239">
-        <v>1.29</v>
-      </c>
-      <c r="AM239">
-        <v>1.47</v>
-      </c>
-      <c r="AN239">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AO239">
-        <v>0.5</v>
-      </c>
-      <c r="AP239">
-        <v>0.5</v>
-      </c>
-      <c r="AQ239">
-        <v>0.78</v>
-      </c>
-      <c r="AR239">
-        <v>1.4</v>
-      </c>
-      <c r="AS239">
-        <v>1.23</v>
-      </c>
-      <c r="AT239">
-        <v>2.63</v>
-      </c>
-      <c r="AU239">
-        <v>3</v>
-      </c>
-      <c r="AV239">
-        <v>11</v>
-      </c>
-      <c r="AW239">
-        <v>5</v>
-      </c>
-      <c r="AX239">
-        <v>10</v>
-      </c>
-      <c r="AY239">
-        <v>8</v>
-      </c>
-      <c r="AZ239">
-        <v>21</v>
-      </c>
-      <c r="BA239">
-        <v>4</v>
-      </c>
-      <c r="BB239">
-        <v>6</v>
-      </c>
-      <c r="BC239">
-        <v>10</v>
-      </c>
-      <c r="BD239">
-        <v>1.86</v>
-      </c>
-      <c r="BE239">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF239">
-        <v>2.3</v>
-      </c>
-      <c r="BG239">
-        <v>1.29</v>
-      </c>
-      <c r="BH239">
-        <v>3.04</v>
-      </c>
-      <c r="BI239">
-        <v>1.54</v>
-      </c>
-      <c r="BJ239">
-        <v>2.39</v>
-      </c>
-      <c r="BK239">
-        <v>1.91</v>
-      </c>
-      <c r="BL239">
-        <v>1.88</v>
-      </c>
-      <c r="BM239">
-        <v>2.41</v>
-      </c>
-      <c r="BN239">
-        <v>1.53</v>
-      </c>
-      <c r="BO239">
-        <v>3.5</v>
-      </c>
-      <c r="BP239">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="240" spans="1:68">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
-      <c r="B240">
-        <v>7781313</v>
-      </c>
-      <c r="C240" t="s">
-        <v>68</v>
-      </c>
-      <c r="D240" t="s">
-        <v>69</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45808.85416666666</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="s">
-        <v>73</v>
-      </c>
-      <c r="H240" t="s">
-        <v>75</v>
-      </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
-      <c r="J240">
-        <v>2</v>
-      </c>
-      <c r="K240">
-        <v>3</v>
-      </c>
-      <c r="L240">
-        <v>1</v>
-      </c>
-      <c r="M240">
-        <v>2</v>
-      </c>
-      <c r="N240">
-        <v>3</v>
-      </c>
-      <c r="O240" t="s">
-        <v>140</v>
-      </c>
-      <c r="P240" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q240">
-        <v>2.1</v>
-      </c>
-      <c r="R240">
-        <v>2.5</v>
-      </c>
-      <c r="S240">
-        <v>5</v>
-      </c>
-      <c r="T240">
-        <v>1.29</v>
-      </c>
-      <c r="U240">
-        <v>3.5</v>
-      </c>
-      <c r="V240">
-        <v>2.25</v>
-      </c>
-      <c r="W240">
-        <v>1.57</v>
-      </c>
-      <c r="X240">
-        <v>5.5</v>
-      </c>
-      <c r="Y240">
-        <v>1.14</v>
-      </c>
-      <c r="Z240">
-        <v>1.55</v>
-      </c>
-      <c r="AA240">
-        <v>3.6</v>
-      </c>
-      <c r="AB240">
-        <v>5.1</v>
-      </c>
-      <c r="AC240">
-        <v>1.04</v>
-      </c>
-      <c r="AD240">
-        <v>10</v>
-      </c>
-      <c r="AE240">
-        <v>1.2</v>
-      </c>
-      <c r="AF240">
-        <v>4.33</v>
-      </c>
-      <c r="AG240">
-        <v>1.6</v>
-      </c>
-      <c r="AH240">
-        <v>2.2</v>
-      </c>
-      <c r="AI240">
-        <v>1.67</v>
-      </c>
-      <c r="AJ240">
-        <v>2.1</v>
-      </c>
-      <c r="AK240">
-        <v>1.15</v>
-      </c>
-      <c r="AL240">
-        <v>1.25</v>
-      </c>
-      <c r="AM240">
-        <v>2.25</v>
-      </c>
-      <c r="AN240">
-        <v>2.43</v>
-      </c>
-      <c r="AO240">
-        <v>0.71</v>
-      </c>
-      <c r="AP240">
-        <v>2.13</v>
-      </c>
-      <c r="AQ240">
-        <v>1</v>
-      </c>
-      <c r="AR240">
-        <v>1.94</v>
-      </c>
-      <c r="AS240">
-        <v>1.65</v>
-      </c>
-      <c r="AT240">
-        <v>3.59</v>
-      </c>
-      <c r="AU240">
-        <v>4</v>
-      </c>
-      <c r="AV240">
-        <v>6</v>
-      </c>
-      <c r="AW240">
-        <v>5</v>
-      </c>
-      <c r="AX240">
-        <v>7</v>
-      </c>
-      <c r="AY240">
-        <v>9</v>
-      </c>
-      <c r="AZ240">
-        <v>13</v>
-      </c>
-      <c r="BA240">
-        <v>5</v>
-      </c>
-      <c r="BB240">
-        <v>5</v>
-      </c>
-      <c r="BC240">
-        <v>10</v>
-      </c>
-      <c r="BD240">
-        <v>1.35</v>
-      </c>
-      <c r="BE240">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF240">
-        <v>3.98</v>
-      </c>
-      <c r="BG240">
-        <v>1.21</v>
-      </c>
-      <c r="BH240">
-        <v>3.58</v>
-      </c>
-      <c r="BI240">
-        <v>1.45</v>
-      </c>
-      <c r="BJ240">
-        <v>2.58</v>
-      </c>
-      <c r="BK240">
-        <v>1.79</v>
-      </c>
-      <c r="BL240">
-        <v>2.01</v>
-      </c>
-      <c r="BM240">
-        <v>2.25</v>
-      </c>
-      <c r="BN240">
-        <v>1.62</v>
-      </c>
-      <c r="BO240">
-        <v>2.92</v>
-      </c>
-      <c r="BP240">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="241" spans="1:68">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
-      <c r="B241">
-        <v>7781314</v>
-      </c>
-      <c r="C241" t="s">
-        <v>68</v>
-      </c>
-      <c r="D241" t="s">
-        <v>69</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45808.85416666666</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" t="s">
-        <v>71</v>
-      </c>
-      <c r="H241" t="s">
-        <v>74</v>
-      </c>
-      <c r="I241">
-        <v>3</v>
-      </c>
-      <c r="J241">
-        <v>0</v>
-      </c>
-      <c r="K241">
-        <v>3</v>
-      </c>
-      <c r="L241">
-        <v>5</v>
-      </c>
-      <c r="M241">
-        <v>1</v>
-      </c>
-      <c r="N241">
-        <v>6</v>
-      </c>
-      <c r="O241" t="s">
-        <v>260</v>
-      </c>
-      <c r="P241" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q241">
-        <v>2.75</v>
-      </c>
-      <c r="R241">
-        <v>2.38</v>
-      </c>
-      <c r="S241">
-        <v>3.4</v>
-      </c>
-      <c r="T241">
-        <v>1.3</v>
-      </c>
-      <c r="U241">
-        <v>3.4</v>
-      </c>
-      <c r="V241">
-        <v>2.38</v>
-      </c>
-      <c r="W241">
-        <v>1.53</v>
-      </c>
-      <c r="X241">
-        <v>6</v>
-      </c>
-      <c r="Y241">
-        <v>1.13</v>
-      </c>
-      <c r="Z241">
-        <v>2.14</v>
-      </c>
-      <c r="AA241">
-        <v>3.27</v>
-      </c>
-      <c r="AB241">
-        <v>2.89</v>
-      </c>
-      <c r="AC241">
-        <v>1.04</v>
-      </c>
-      <c r="AD241">
-        <v>10</v>
-      </c>
-      <c r="AE241">
-        <v>1.2</v>
-      </c>
-      <c r="AF241">
-        <v>4.33</v>
-      </c>
-      <c r="AG241">
-        <v>1.61</v>
-      </c>
-      <c r="AH241">
-        <v>2.15</v>
-      </c>
-      <c r="AI241">
-        <v>1.53</v>
-      </c>
-      <c r="AJ241">
-        <v>2.38</v>
-      </c>
-      <c r="AK241">
-        <v>1.37</v>
-      </c>
-      <c r="AL241">
-        <v>1.29</v>
-      </c>
-      <c r="AM241">
-        <v>1.61</v>
-      </c>
-      <c r="AN241">
-        <v>1.75</v>
-      </c>
-      <c r="AO241">
-        <v>1.71</v>
-      </c>
-      <c r="AP241">
-        <v>1.89</v>
-      </c>
-      <c r="AQ241">
-        <v>1.5</v>
-      </c>
-      <c r="AR241">
-        <v>1.55</v>
-      </c>
-      <c r="AS241">
-        <v>1.44</v>
-      </c>
-      <c r="AT241">
-        <v>2.99</v>
-      </c>
-      <c r="AU241">
-        <v>9</v>
-      </c>
-      <c r="AV241">
-        <v>2</v>
-      </c>
-      <c r="AW241">
-        <v>9</v>
-      </c>
-      <c r="AX241">
-        <v>11</v>
-      </c>
-      <c r="AY241">
-        <v>18</v>
-      </c>
-      <c r="AZ241">
-        <v>13</v>
-      </c>
-      <c r="BA241">
-        <v>4</v>
-      </c>
-      <c r="BB241">
-        <v>6</v>
-      </c>
-      <c r="BC241">
-        <v>10</v>
-      </c>
-      <c r="BD241">
-        <v>1.73</v>
-      </c>
-      <c r="BE241">
-        <v>8.4</v>
-      </c>
-      <c r="BF241">
-        <v>2.53</v>
-      </c>
-      <c r="BG241">
-        <v>1.28</v>
-      </c>
-      <c r="BH241">
-        <v>3.08</v>
-      </c>
-      <c r="BI241">
-        <v>1.55</v>
-      </c>
-      <c r="BJ241">
-        <v>2.36</v>
-      </c>
-      <c r="BK241">
-        <v>1.93</v>
-      </c>
-      <c r="BL241">
-        <v>1.87</v>
-      </c>
-      <c r="BM241">
-        <v>2.44</v>
-      </c>
-      <c r="BN241">
-        <v>1.52</v>
-      </c>
-      <c r="BO241">
-        <v>3.42</v>
-      </c>
-      <c r="BP241">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:68">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-      <c r="B242">
-        <v>7781315</v>
-      </c>
-      <c r="C242" t="s">
-        <v>68</v>
-      </c>
-      <c r="D242" t="s">
-        <v>69</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45808.85416666666</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242" t="s">
-        <v>99</v>
-      </c>
-      <c r="H242" t="s">
-        <v>87</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
-      <c r="J242">
-        <v>0</v>
-      </c>
-      <c r="K242">
-        <v>0</v>
-      </c>
-      <c r="L242">
-        <v>0</v>
-      </c>
-      <c r="M242">
-        <v>3</v>
-      </c>
-      <c r="N242">
-        <v>3</v>
-      </c>
-      <c r="O242" t="s">
-        <v>109</v>
-      </c>
-      <c r="P242" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q242">
-        <v>3.1</v>
-      </c>
-      <c r="R242">
-        <v>2.25</v>
-      </c>
-      <c r="S242">
-        <v>3.1</v>
-      </c>
-      <c r="T242">
-        <v>1.33</v>
-      </c>
-      <c r="U242">
-        <v>3.25</v>
-      </c>
-      <c r="V242">
-        <v>2.63</v>
-      </c>
-      <c r="W242">
-        <v>1.44</v>
-      </c>
-      <c r="X242">
-        <v>6.5</v>
-      </c>
-      <c r="Y242">
-        <v>1.11</v>
-      </c>
-      <c r="Z242">
-        <v>2.72</v>
-      </c>
-      <c r="AA242">
-        <v>3.5</v>
-      </c>
-      <c r="AB242">
-        <v>2.15</v>
-      </c>
-      <c r="AC242">
-        <v>1.05</v>
-      </c>
-      <c r="AD242">
-        <v>9.5</v>
-      </c>
-      <c r="AE242">
-        <v>1.25</v>
-      </c>
-      <c r="AF242">
-        <v>3.8</v>
-      </c>
-      <c r="AG242">
-        <v>1.55</v>
-      </c>
-      <c r="AH242">
-        <v>2.3</v>
-      </c>
-      <c r="AI242">
-        <v>1.67</v>
-      </c>
-      <c r="AJ242">
-        <v>2.1</v>
-      </c>
-      <c r="AK242">
-        <v>1.53</v>
-      </c>
-      <c r="AL242">
-        <v>1.27</v>
-      </c>
-      <c r="AM242">
-        <v>1.47</v>
-      </c>
-      <c r="AN242">
-        <v>0.5</v>
-      </c>
-      <c r="AO242">
-        <v>1.44</v>
-      </c>
-      <c r="AP242">
-        <v>0.43</v>
-      </c>
-      <c r="AQ242">
-        <v>1.6</v>
-      </c>
-      <c r="AR242">
-        <v>1.55</v>
-      </c>
-      <c r="AS242">
-        <v>1.43</v>
-      </c>
-      <c r="AT242">
-        <v>2.98</v>
-      </c>
-      <c r="AU242">
-        <v>3</v>
-      </c>
-      <c r="AV242">
-        <v>7</v>
-      </c>
-      <c r="AW242">
-        <v>14</v>
-      </c>
-      <c r="AX242">
-        <v>3</v>
-      </c>
-      <c r="AY242">
-        <v>17</v>
-      </c>
-      <c r="AZ242">
-        <v>10</v>
-      </c>
-      <c r="BA242">
-        <v>2</v>
-      </c>
-      <c r="BB242">
-        <v>2</v>
-      </c>
-      <c r="BC242">
-        <v>4</v>
-      </c>
-      <c r="BD242">
-        <v>1.73</v>
-      </c>
-      <c r="BE242">
-        <v>8.5</v>
-      </c>
-      <c r="BF242">
-        <v>2.52</v>
-      </c>
-      <c r="BG242">
-        <v>1.24</v>
-      </c>
-      <c r="BH242">
-        <v>3.34</v>
-      </c>
-      <c r="BI242">
-        <v>1.48</v>
-      </c>
-      <c r="BJ242">
-        <v>2.51</v>
-      </c>
-      <c r="BK242">
-        <v>1.82</v>
-      </c>
-      <c r="BL242">
-        <v>1.97</v>
-      </c>
-      <c r="BM242">
-        <v>2.27</v>
-      </c>
-      <c r="BN242">
-        <v>1.58</v>
-      </c>
-      <c r="BO242">
-        <v>3.14</v>
-      </c>
-      <c r="BP242">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="243" spans="1:68">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-      <c r="B243">
-        <v>7781316</v>
-      </c>
-      <c r="C243" t="s">
-        <v>68</v>
-      </c>
-      <c r="D243" t="s">
-        <v>69</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45808.85416666666</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="s">
-        <v>88</v>
-      </c>
-      <c r="H243" t="s">
-        <v>72</v>
-      </c>
-      <c r="I243">
-        <v>2</v>
-      </c>
-      <c r="J243">
-        <v>0</v>
-      </c>
-      <c r="K243">
-        <v>2</v>
-      </c>
-      <c r="L243">
-        <v>2</v>
-      </c>
-      <c r="M243">
-        <v>0</v>
-      </c>
-      <c r="N243">
-        <v>2</v>
-      </c>
-      <c r="O243" t="s">
-        <v>261</v>
-      </c>
-      <c r="P243" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q243">
-        <v>2.63</v>
-      </c>
-      <c r="R243">
-        <v>2.38</v>
-      </c>
-      <c r="S243">
-        <v>3.6</v>
-      </c>
-      <c r="T243">
-        <v>1.3</v>
-      </c>
-      <c r="U243">
-        <v>3.4</v>
-      </c>
-      <c r="V243">
-        <v>2.38</v>
-      </c>
-      <c r="W243">
-        <v>1.53</v>
-      </c>
-      <c r="X243">
-        <v>6</v>
-      </c>
-      <c r="Y243">
-        <v>1.13</v>
-      </c>
-      <c r="Z243">
-        <v>1.97</v>
-      </c>
-      <c r="AA243">
-        <v>3.34</v>
-      </c>
-      <c r="AB243">
-        <v>3.19</v>
-      </c>
-      <c r="AC243">
-        <v>1.04</v>
-      </c>
-      <c r="AD243">
-        <v>10</v>
-      </c>
-      <c r="AE243">
-        <v>1.22</v>
-      </c>
-      <c r="AF243">
-        <v>4.2</v>
-      </c>
-      <c r="AG243">
-        <v>1.61</v>
-      </c>
-      <c r="AH243">
-        <v>2.15</v>
-      </c>
-      <c r="AI243">
-        <v>1.57</v>
-      </c>
-      <c r="AJ243">
-        <v>2.25</v>
-      </c>
-      <c r="AK243">
-        <v>1.31</v>
-      </c>
-      <c r="AL243">
-        <v>1.29</v>
-      </c>
-      <c r="AM243">
-        <v>1.71</v>
-      </c>
-      <c r="AN243">
-        <v>2.38</v>
-      </c>
-      <c r="AO243">
-        <v>0.33</v>
-      </c>
-      <c r="AP243">
-        <v>2.44</v>
-      </c>
-      <c r="AQ243">
-        <v>0.29</v>
-      </c>
-      <c r="AR243">
-        <v>1.58</v>
-      </c>
-      <c r="AS243">
-        <v>1.39</v>
-      </c>
-      <c r="AT243">
-        <v>2.97</v>
-      </c>
-      <c r="AU243">
-        <v>4</v>
-      </c>
-      <c r="AV243">
-        <v>6</v>
-      </c>
-      <c r="AW243">
-        <v>4</v>
-      </c>
-      <c r="AX243">
-        <v>6</v>
-      </c>
-      <c r="AY243">
-        <v>8</v>
-      </c>
-      <c r="AZ243">
-        <v>12</v>
-      </c>
-      <c r="BA243">
-        <v>1</v>
-      </c>
-      <c r="BB243">
-        <v>9</v>
-      </c>
-      <c r="BC243">
-        <v>10</v>
-      </c>
-      <c r="BD243">
-        <v>1.58</v>
-      </c>
-      <c r="BE243">
-        <v>6.75</v>
-      </c>
-      <c r="BF243">
-        <v>2.65</v>
-      </c>
-      <c r="BG243">
-        <v>1.3</v>
-      </c>
-      <c r="BH243">
-        <v>3.05</v>
-      </c>
-      <c r="BI243">
-        <v>1.54</v>
-      </c>
-      <c r="BJ243">
-        <v>2.3</v>
-      </c>
-      <c r="BK243">
-        <v>1.89</v>
-      </c>
-      <c r="BL243">
-        <v>1.8</v>
-      </c>
-      <c r="BM243">
-        <v>2.35</v>
-      </c>
-      <c r="BN243">
-        <v>1.5</v>
-      </c>
-      <c r="BO243">
-        <v>3.05</v>
-      </c>
-      <c r="BP243">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:68">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-      <c r="B244">
-        <v>7781317</v>
-      </c>
-      <c r="C244" t="s">
-        <v>68</v>
-      </c>
-      <c r="D244" t="s">
-        <v>69</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45808.85416666666</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244" t="s">
-        <v>76</v>
-      </c>
-      <c r="H244" t="s">
-        <v>90</v>
-      </c>
-      <c r="I244">
-        <v>1</v>
-      </c>
-      <c r="J244">
-        <v>3</v>
-      </c>
-      <c r="K244">
-        <v>4</v>
-      </c>
-      <c r="L244">
-        <v>1</v>
-      </c>
-      <c r="M244">
-        <v>3</v>
-      </c>
-      <c r="N244">
-        <v>4</v>
-      </c>
-      <c r="O244" t="s">
-        <v>161</v>
-      </c>
-      <c r="P244" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q244">
-        <v>2.1</v>
-      </c>
-      <c r="R244">
-        <v>2.5</v>
-      </c>
-      <c r="S244">
-        <v>5</v>
-      </c>
-      <c r="T244">
-        <v>1.29</v>
-      </c>
-      <c r="U244">
-        <v>3.5</v>
-      </c>
-      <c r="V244">
-        <v>2.25</v>
-      </c>
-      <c r="W244">
-        <v>1.57</v>
-      </c>
-      <c r="X244">
-        <v>5.5</v>
-      </c>
-      <c r="Y244">
-        <v>1.14</v>
-      </c>
-      <c r="Z244">
-        <v>1.46</v>
-      </c>
-      <c r="AA244">
-        <v>3.89</v>
-      </c>
-      <c r="AB244">
-        <v>5.6</v>
-      </c>
-      <c r="AC244">
-        <v>1.04</v>
-      </c>
-      <c r="AD244">
-        <v>10</v>
-      </c>
-      <c r="AE244">
-        <v>1.2</v>
-      </c>
-      <c r="AF244">
-        <v>4.33</v>
-      </c>
-      <c r="AG244">
-        <v>1.6</v>
-      </c>
-      <c r="AH244">
-        <v>2.2</v>
-      </c>
-      <c r="AI244">
-        <v>1.67</v>
-      </c>
-      <c r="AJ244">
-        <v>2.1</v>
-      </c>
-      <c r="AK244">
-        <v>1.13</v>
-      </c>
-      <c r="AL244">
-        <v>1.2</v>
-      </c>
-      <c r="AM244">
-        <v>2.45</v>
-      </c>
-      <c r="AN244">
-        <v>2.13</v>
-      </c>
-      <c r="AO244">
-        <v>1.5</v>
-      </c>
-      <c r="AP244">
-        <v>1.89</v>
-      </c>
-      <c r="AQ244">
-        <v>1.67</v>
-      </c>
-      <c r="AR244">
-        <v>1.92</v>
-      </c>
-      <c r="AS244">
-        <v>1.59</v>
-      </c>
-      <c r="AT244">
-        <v>3.51</v>
-      </c>
-      <c r="AU244">
-        <v>5</v>
-      </c>
-      <c r="AV244">
-        <v>5</v>
-      </c>
-      <c r="AW244">
-        <v>22</v>
-      </c>
-      <c r="AX244">
-        <v>6</v>
-      </c>
-      <c r="AY244">
-        <v>27</v>
-      </c>
-      <c r="AZ244">
-        <v>11</v>
-      </c>
-      <c r="BA244">
-        <v>13</v>
-      </c>
-      <c r="BB244">
-        <v>1</v>
-      </c>
-      <c r="BC244">
-        <v>14</v>
-      </c>
-      <c r="BD244">
-        <v>1.58</v>
-      </c>
-      <c r="BE244">
-        <v>8.6</v>
-      </c>
-      <c r="BF244">
-        <v>2.91</v>
-      </c>
-      <c r="BG244">
-        <v>1.32</v>
-      </c>
-      <c r="BH244">
-        <v>2.88</v>
-      </c>
-      <c r="BI244">
-        <v>1.5</v>
-      </c>
-      <c r="BJ244">
-        <v>2.46</v>
-      </c>
-      <c r="BK244">
-        <v>1.87</v>
-      </c>
-      <c r="BL244">
-        <v>1.92</v>
-      </c>
-      <c r="BM244">
-        <v>2.33</v>
-      </c>
-      <c r="BN244">
-        <v>1.56</v>
-      </c>
-      <c r="BO244">
-        <v>3.75</v>
-      </c>
-      <c r="BP244">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="245" spans="1:68">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-      <c r="B245">
-        <v>7781319</v>
-      </c>
-      <c r="C245" t="s">
-        <v>68</v>
-      </c>
-      <c r="D245" t="s">
-        <v>69</v>
-      </c>
-      <c r="E245" s="2">
-        <v>45808.89583333334</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-      <c r="G245" t="s">
-        <v>97</v>
-      </c>
-      <c r="H245" t="s">
-        <v>89</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245">
-        <v>0</v>
-      </c>
-      <c r="K245">
-        <v>0</v>
-      </c>
-      <c r="L245">
-        <v>0</v>
-      </c>
-      <c r="M245">
-        <v>0</v>
-      </c>
-      <c r="N245">
-        <v>0</v>
-      </c>
-      <c r="O245" t="s">
-        <v>109</v>
-      </c>
-      <c r="P245" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q245">
-        <v>3.25</v>
-      </c>
-      <c r="R245">
-        <v>2.3</v>
-      </c>
-      <c r="S245">
-        <v>2.88</v>
-      </c>
-      <c r="T245">
-        <v>1.33</v>
-      </c>
-      <c r="U245">
-        <v>3.25</v>
-      </c>
-      <c r="V245">
-        <v>2.5</v>
-      </c>
-      <c r="W245">
-        <v>1.5</v>
-      </c>
-      <c r="X245">
-        <v>6</v>
-      </c>
-      <c r="Y245">
-        <v>1.13</v>
-      </c>
-      <c r="Z245">
-        <v>2.72</v>
-      </c>
-      <c r="AA245">
-        <v>3.63</v>
-      </c>
-      <c r="AB245">
-        <v>2.1</v>
-      </c>
-      <c r="AC245">
-        <v>1.04</v>
-      </c>
-      <c r="AD245">
-        <v>10</v>
-      </c>
-      <c r="AE245">
-        <v>1.22</v>
-      </c>
-      <c r="AF245">
-        <v>4.2</v>
-      </c>
-      <c r="AG245">
-        <v>1.67</v>
-      </c>
-      <c r="AH245">
-        <v>2.05</v>
-      </c>
-      <c r="AI245">
-        <v>1.62</v>
-      </c>
-      <c r="AJ245">
-        <v>2.2</v>
-      </c>
-      <c r="AK245">
-        <v>1.63</v>
-      </c>
-      <c r="AL245">
-        <v>1.25</v>
-      </c>
-      <c r="AM245">
-        <v>1.4</v>
-      </c>
-      <c r="AN245">
-        <v>0.67</v>
-      </c>
-      <c r="AO245">
-        <v>2.14</v>
-      </c>
-      <c r="AP245">
-        <v>0.71</v>
-      </c>
-      <c r="AQ245">
-        <v>2</v>
-      </c>
-      <c r="AR245">
-        <v>1.17</v>
-      </c>
-      <c r="AS245">
-        <v>1.78</v>
-      </c>
-      <c r="AT245">
-        <v>2.95</v>
-      </c>
-      <c r="AU245">
-        <v>3</v>
-      </c>
-      <c r="AV245">
-        <v>2</v>
-      </c>
-      <c r="AW245">
-        <v>5</v>
-      </c>
-      <c r="AX245">
-        <v>23</v>
-      </c>
-      <c r="AY245">
-        <v>8</v>
-      </c>
-      <c r="AZ245">
-        <v>25</v>
-      </c>
-      <c r="BA245">
-        <v>2</v>
-      </c>
-      <c r="BB245">
-        <v>11</v>
-      </c>
-      <c r="BC245">
-        <v>13</v>
-      </c>
-      <c r="BD245">
-        <v>2.42</v>
-      </c>
-      <c r="BE245">
-        <v>6.5</v>
-      </c>
-      <c r="BF245">
-        <v>1.9</v>
-      </c>
-      <c r="BG245">
-        <v>1.25</v>
-      </c>
-      <c r="BH245">
-        <v>3.28</v>
-      </c>
-      <c r="BI245">
-        <v>1.47</v>
-      </c>
-      <c r="BJ245">
-        <v>2.54</v>
-      </c>
-      <c r="BK245">
-        <v>1.81</v>
-      </c>
-      <c r="BL245">
-        <v>1.99</v>
-      </c>
-      <c r="BM245">
-        <v>2.23</v>
-      </c>
-      <c r="BN245">
-        <v>1.6</v>
-      </c>
-      <c r="BO245">
-        <v>3.2</v>
-      </c>
-      <c r="BP245">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:68">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
-      <c r="B246">
-        <v>7781320</v>
-      </c>
-      <c r="C246" t="s">
-        <v>68</v>
-      </c>
-      <c r="D246" t="s">
-        <v>69</v>
-      </c>
-      <c r="E246" s="2">
-        <v>45808.89583333334</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-      <c r="G246" t="s">
-        <v>78</v>
-      </c>
-      <c r="H246" t="s">
-        <v>91</v>
-      </c>
-      <c r="I246">
-        <v>1</v>
-      </c>
-      <c r="J246">
-        <v>1</v>
-      </c>
-      <c r="K246">
-        <v>2</v>
-      </c>
-      <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246">
-        <v>3</v>
-      </c>
-      <c r="N246">
-        <v>4</v>
-      </c>
-      <c r="O246" t="s">
-        <v>156</v>
-      </c>
-      <c r="P246" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q246">
-        <v>2.5</v>
-      </c>
-      <c r="R246">
-        <v>2.25</v>
-      </c>
-      <c r="S246">
-        <v>4.33</v>
-      </c>
-      <c r="T246">
-        <v>1.36</v>
-      </c>
-      <c r="U246">
-        <v>3</v>
-      </c>
-      <c r="V246">
-        <v>2.63</v>
-      </c>
-      <c r="W246">
-        <v>1.44</v>
-      </c>
-      <c r="X246">
-        <v>7</v>
-      </c>
-      <c r="Y246">
-        <v>1.1</v>
-      </c>
-      <c r="Z246">
-        <v>1.83</v>
-      </c>
-      <c r="AA246">
-        <v>3.45</v>
-      </c>
-      <c r="AB246">
-        <v>3.53</v>
-      </c>
-      <c r="AC246">
-        <v>1.05</v>
-      </c>
-      <c r="AD246">
-        <v>9.5</v>
-      </c>
-      <c r="AE246">
-        <v>1.28</v>
-      </c>
-      <c r="AF246">
-        <v>3.65</v>
-      </c>
-      <c r="AG246">
-        <v>1.8</v>
-      </c>
-      <c r="AH246">
-        <v>1.9</v>
-      </c>
-      <c r="AI246">
-        <v>1.75</v>
-      </c>
-      <c r="AJ246">
-        <v>2</v>
-      </c>
-      <c r="AK246">
-        <v>1.26</v>
-      </c>
-      <c r="AL246">
-        <v>1.28</v>
-      </c>
-      <c r="AM246">
-        <v>1.83</v>
-      </c>
-      <c r="AN246">
-        <v>1.25</v>
-      </c>
-      <c r="AO246">
-        <v>0.63</v>
-      </c>
-      <c r="AP246">
-        <v>1.11</v>
-      </c>
-      <c r="AQ246">
-        <v>0.89</v>
-      </c>
-      <c r="AR246">
-        <v>1.72</v>
-      </c>
-      <c r="AS246">
-        <v>1.34</v>
-      </c>
-      <c r="AT246">
-        <v>3.06</v>
-      </c>
-      <c r="AU246">
-        <v>10</v>
-      </c>
-      <c r="AV246">
-        <v>6</v>
-      </c>
-      <c r="AW246">
-        <v>13</v>
-      </c>
-      <c r="AX246">
-        <v>8</v>
-      </c>
-      <c r="AY246">
-        <v>23</v>
-      </c>
-      <c r="AZ246">
-        <v>14</v>
-      </c>
-      <c r="BA246">
-        <v>6</v>
-      </c>
-      <c r="BB246">
-        <v>7</v>
-      </c>
-      <c r="BC246">
-        <v>13</v>
-      </c>
-      <c r="BD246">
-        <v>1.46</v>
-      </c>
-      <c r="BE246">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BF246">
-        <v>3.34</v>
-      </c>
-      <c r="BG246">
-        <v>1.21</v>
-      </c>
-      <c r="BH246">
-        <v>3.58</v>
-      </c>
-      <c r="BI246">
-        <v>1.46</v>
-      </c>
-      <c r="BJ246">
-        <v>2.6</v>
-      </c>
-      <c r="BK246">
-        <v>1.79</v>
-      </c>
-      <c r="BL246">
-        <v>2.01</v>
-      </c>
-      <c r="BM246">
-        <v>2.24</v>
-      </c>
-      <c r="BN246">
-        <v>1.61</v>
-      </c>
-      <c r="BO246">
-        <v>2.92</v>
-      </c>
-      <c r="BP246">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="247" spans="1:68">
-      <c r="A247" s="1">
-        <v>246</v>
-      </c>
-      <c r="B247">
-        <v>7781322</v>
-      </c>
-      <c r="C247" t="s">
-        <v>68</v>
-      </c>
-      <c r="D247" t="s">
-        <v>69</v>
-      </c>
-      <c r="E247" s="2">
-        <v>45808.97916666666</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247" t="s">
-        <v>84</v>
-      </c>
-      <c r="H247" t="s">
-        <v>86</v>
-      </c>
-      <c r="I247">
-        <v>1</v>
-      </c>
-      <c r="J247">
-        <v>0</v>
-      </c>
-      <c r="K247">
-        <v>1</v>
-      </c>
-      <c r="L247">
-        <v>2</v>
-      </c>
-      <c r="M247">
-        <v>0</v>
-      </c>
-      <c r="N247">
-        <v>2</v>
-      </c>
-      <c r="O247" t="s">
-        <v>262</v>
-      </c>
-      <c r="P247" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q247">
-        <v>2.88</v>
-      </c>
-      <c r="R247">
-        <v>2.3</v>
-      </c>
-      <c r="S247">
-        <v>3.4</v>
-      </c>
-      <c r="T247">
-        <v>1.3</v>
-      </c>
-      <c r="U247">
-        <v>3.4</v>
-      </c>
-      <c r="V247">
-        <v>2.5</v>
-      </c>
-      <c r="W247">
-        <v>1.5</v>
-      </c>
-      <c r="X247">
-        <v>6</v>
-      </c>
-      <c r="Y247">
-        <v>1.13</v>
-      </c>
-      <c r="Z247">
-        <v>2.35</v>
-      </c>
-      <c r="AA247">
-        <v>3.32</v>
-      </c>
-      <c r="AB247">
-        <v>2.54</v>
-      </c>
-      <c r="AC247">
-        <v>1.04</v>
-      </c>
-      <c r="AD247">
-        <v>10</v>
-      </c>
-      <c r="AE247">
-        <v>1.22</v>
-      </c>
-      <c r="AF247">
-        <v>4.2</v>
-      </c>
-      <c r="AG247">
-        <v>1.65</v>
-      </c>
-      <c r="AH247">
-        <v>2.1</v>
-      </c>
-      <c r="AI247">
-        <v>1.57</v>
-      </c>
-      <c r="AJ247">
-        <v>2.25</v>
-      </c>
-      <c r="AK247">
-        <v>1.46</v>
-      </c>
-      <c r="AL247">
-        <v>1.29</v>
-      </c>
-      <c r="AM247">
-        <v>1.51</v>
-      </c>
-      <c r="AN247">
-        <v>0.29</v>
-      </c>
-      <c r="AO247">
-        <v>0.89</v>
-      </c>
-      <c r="AP247">
-        <v>0.63</v>
-      </c>
-      <c r="AQ247">
-        <v>0.8</v>
-      </c>
-      <c r="AR247">
-        <v>1.52</v>
-      </c>
-      <c r="AS247">
-        <v>1.57</v>
-      </c>
-      <c r="AT247">
-        <v>3.09</v>
-      </c>
-      <c r="AU247">
-        <v>6</v>
-      </c>
-      <c r="AV247">
-        <v>5</v>
-      </c>
-      <c r="AW247">
-        <v>5</v>
-      </c>
-      <c r="AX247">
-        <v>14</v>
-      </c>
-      <c r="AY247">
-        <v>11</v>
-      </c>
-      <c r="AZ247">
-        <v>19</v>
-      </c>
-      <c r="BA247">
-        <v>6</v>
-      </c>
-      <c r="BB247">
-        <v>6</v>
-      </c>
-      <c r="BC247">
-        <v>12</v>
-      </c>
-      <c r="BD247">
-        <v>1.94</v>
-      </c>
-      <c r="BE247">
-        <v>6.5</v>
-      </c>
-      <c r="BF247">
-        <v>2.36</v>
-      </c>
-      <c r="BG247">
-        <v>1.22</v>
-      </c>
-      <c r="BH247">
-        <v>3.5</v>
-      </c>
-      <c r="BI247">
-        <v>1.46</v>
-      </c>
-      <c r="BJ247">
-        <v>2.56</v>
-      </c>
-      <c r="BK247">
-        <v>1.79</v>
-      </c>
-      <c r="BL247">
-        <v>2</v>
-      </c>
-      <c r="BM247">
-        <v>2.23</v>
-      </c>
-      <c r="BN247">
-        <v>1.6</v>
-      </c>
-      <c r="BO247">
-        <v>3.04</v>
-      </c>
-      <c r="BP247">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="248" spans="1:68">
-      <c r="A248" s="1">
-        <v>247</v>
-      </c>
-      <c r="B248">
-        <v>7781324</v>
-      </c>
-      <c r="C248" t="s">
-        <v>68</v>
-      </c>
-      <c r="D248" t="s">
-        <v>69</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45808.97916666666</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248" t="s">
-        <v>94</v>
-      </c>
-      <c r="H248" t="s">
-        <v>77</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248">
-        <v>0</v>
-      </c>
-      <c r="K248">
-        <v>0</v>
-      </c>
-      <c r="L248">
-        <v>2</v>
-      </c>
-      <c r="M248">
-        <v>0</v>
-      </c>
-      <c r="N248">
-        <v>2</v>
-      </c>
-      <c r="O248" t="s">
-        <v>263</v>
-      </c>
-      <c r="P248" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>0</v>
-      </c>
-      <c r="S248">
-        <v>0</v>
-      </c>
-      <c r="T248">
-        <v>0</v>
-      </c>
-      <c r="U248">
-        <v>0</v>
-      </c>
-      <c r="V248">
-        <v>0</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>1.72</v>
-      </c>
-      <c r="AA248">
-        <v>3.4</v>
-      </c>
-      <c r="AB248">
-        <v>4.1</v>
-      </c>
-      <c r="AC248">
-        <v>0</v>
-      </c>
-      <c r="AD248">
-        <v>0</v>
-      </c>
-      <c r="AE248">
-        <v>0</v>
-      </c>
-      <c r="AF248">
-        <v>0</v>
-      </c>
-      <c r="AG248">
-        <v>1.76</v>
-      </c>
-      <c r="AH248">
-        <v>1.94</v>
-      </c>
-      <c r="AI248">
-        <v>0</v>
-      </c>
-      <c r="AJ248">
-        <v>0</v>
-      </c>
-      <c r="AK248">
-        <v>0</v>
-      </c>
-      <c r="AL248">
-        <v>0</v>
-      </c>
-      <c r="AM248">
-        <v>0</v>
-      </c>
-      <c r="AN248">
-        <v>2</v>
-      </c>
-      <c r="AO248">
-        <v>1</v>
-      </c>
-      <c r="AP248">
-        <v>2.1</v>
-      </c>
-      <c r="AQ248">
-        <v>0.88</v>
-      </c>
-      <c r="AR248">
-        <v>1.82</v>
-      </c>
-      <c r="AS248">
-        <v>1.17</v>
-      </c>
-      <c r="AT248">
-        <v>2.99</v>
-      </c>
-      <c r="AU248">
-        <v>7</v>
-      </c>
-      <c r="AV248">
-        <v>3</v>
-      </c>
-      <c r="AW248">
-        <v>8</v>
-      </c>
-      <c r="AX248">
-        <v>5</v>
-      </c>
-      <c r="AY248">
-        <v>15</v>
-      </c>
-      <c r="AZ248">
-        <v>8</v>
-      </c>
-      <c r="BA248">
-        <v>5</v>
-      </c>
-      <c r="BB248">
-        <v>3</v>
-      </c>
-      <c r="BC248">
-        <v>8</v>
-      </c>
-      <c r="BD248">
-        <v>0</v>
-      </c>
-      <c r="BE248">
-        <v>0</v>
-      </c>
-      <c r="BF248">
-        <v>0</v>
-      </c>
-      <c r="BG248">
-        <v>0</v>
-      </c>
-      <c r="BH248">
-        <v>0</v>
-      </c>
-      <c r="BI248">
-        <v>0</v>
-      </c>
-      <c r="BJ248">
-        <v>0</v>
-      </c>
-      <c r="BK248">
-        <v>0</v>
-      </c>
-      <c r="BL248">
-        <v>0</v>
-      </c>
-      <c r="BM248">
-        <v>0</v>
-      </c>
-      <c r="BN248">
-        <v>0</v>
-      </c>
-      <c r="BO248">
-        <v>0</v>
-      </c>
-      <c r="BP248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:68">
-      <c r="A249" s="1">
-        <v>248</v>
-      </c>
-      <c r="B249">
-        <v>7781325</v>
-      </c>
-      <c r="C249" t="s">
-        <v>68</v>
-      </c>
-      <c r="D249" t="s">
-        <v>69</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45809.79166666666</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249" t="s">
-        <v>82</v>
-      </c>
-      <c r="H249" t="s">
-        <v>92</v>
-      </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-      <c r="J249">
-        <v>0</v>
-      </c>
-      <c r="K249">
-        <v>0</v>
-      </c>
-      <c r="L249">
-        <v>2</v>
-      </c>
-      <c r="M249">
-        <v>3</v>
-      </c>
-      <c r="N249">
-        <v>5</v>
-      </c>
-      <c r="O249" t="s">
-        <v>264</v>
-      </c>
-      <c r="P249" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q249">
-        <v>2.5</v>
-      </c>
-      <c r="R249">
-        <v>2.3</v>
-      </c>
-      <c r="S249">
-        <v>4</v>
-      </c>
-      <c r="T249">
-        <v>1.33</v>
-      </c>
-      <c r="U249">
-        <v>3.25</v>
-      </c>
-      <c r="V249">
-        <v>2.63</v>
-      </c>
-      <c r="W249">
-        <v>1.44</v>
-      </c>
-      <c r="X249">
-        <v>6.5</v>
-      </c>
-      <c r="Y249">
-        <v>1.11</v>
-      </c>
-      <c r="Z249">
-        <v>1.87</v>
-      </c>
-      <c r="AA249">
-        <v>3.52</v>
-      </c>
-      <c r="AB249">
-        <v>3.32</v>
-      </c>
-      <c r="AC249">
-        <v>1.04</v>
-      </c>
-      <c r="AD249">
-        <v>10</v>
-      </c>
-      <c r="AE249">
-        <v>1.22</v>
-      </c>
-      <c r="AF249">
-        <v>4.2</v>
-      </c>
-      <c r="AG249">
-        <v>1.87</v>
-      </c>
-      <c r="AH249">
-        <v>1.83</v>
-      </c>
-      <c r="AI249">
-        <v>1.7</v>
-      </c>
-      <c r="AJ249">
-        <v>2.05</v>
-      </c>
-      <c r="AK249">
-        <v>1.36</v>
-      </c>
-      <c r="AL249">
-        <v>1.27</v>
-      </c>
-      <c r="AM249">
-        <v>1.66</v>
-      </c>
-      <c r="AN249">
-        <v>2.43</v>
-      </c>
-      <c r="AO249">
-        <v>1.5</v>
-      </c>
-      <c r="AP249">
-        <v>2.13</v>
-      </c>
-      <c r="AQ249">
-        <v>1.67</v>
-      </c>
-      <c r="AR249">
-        <v>1.85</v>
-      </c>
-      <c r="AS249">
-        <v>1.35</v>
-      </c>
-      <c r="AT249">
-        <v>3.2</v>
-      </c>
-      <c r="AU249">
-        <v>5</v>
-      </c>
-      <c r="AV249">
-        <v>6</v>
-      </c>
-      <c r="AW249">
-        <v>7</v>
-      </c>
-      <c r="AX249">
-        <v>7</v>
-      </c>
-      <c r="AY249">
-        <v>12</v>
-      </c>
-      <c r="AZ249">
-        <v>13</v>
-      </c>
-      <c r="BA249">
-        <v>9</v>
-      </c>
-      <c r="BB249">
-        <v>0</v>
-      </c>
-      <c r="BC249">
-        <v>9</v>
-      </c>
-      <c r="BD249">
-        <v>1.44</v>
-      </c>
-      <c r="BE249">
-        <v>7</v>
-      </c>
-      <c r="BF249">
-        <v>3.15</v>
-      </c>
-      <c r="BG249">
-        <v>1.21</v>
-      </c>
-      <c r="BH249">
-        <v>3.8</v>
-      </c>
-      <c r="BI249">
-        <v>1.38</v>
-      </c>
-      <c r="BJ249">
-        <v>2.75</v>
-      </c>
-      <c r="BK249">
-        <v>1.63</v>
-      </c>
-      <c r="BL249">
-        <v>2.12</v>
-      </c>
-      <c r="BM249">
-        <v>1.98</v>
-      </c>
-      <c r="BN249">
-        <v>1.72</v>
-      </c>
-      <c r="BO249">
-        <v>2.48</v>
-      </c>
-      <c r="BP249">
-        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/USA MLS_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,54 @@
     <t>['15', '20', '66', '90+4']</t>
   </si>
   <si>
+    <t>['19', '83', '9005']</t>
+  </si>
+  <si>
+    <t>['30', '42', '86']</t>
+  </si>
+  <si>
+    <t>['9001']</t>
+  </si>
+  <si>
+    <t>['27', '68', '71', '87']</t>
+  </si>
+  <si>
+    <t>['14', '29', '70', '9007']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['9003']</t>
+  </si>
+  <si>
+    <t>['59', '76']</t>
+  </si>
+  <si>
+    <t>['4502', '9002']</t>
+  </si>
+  <si>
+    <t>['27', '41']</t>
+  </si>
+  <si>
+    <t>['13', '15', '24', '64', '89']</t>
+  </si>
+  <si>
+    <t>['3', '29']</t>
+  </si>
+  <si>
+    <t>['17', '55']</t>
+  </si>
+  <si>
+    <t>['60', '9002']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['26', '55']</t>
   </si>
   <si>
@@ -794,9 +842,6 @@
   </si>
   <si>
     <t>['72', '86']</t>
-  </si>
-  <si>
-    <t>['58']</t>
   </si>
   <si>
     <t>['4', '90+6']</t>
@@ -893,9 +938,6 @@
   </si>
   <si>
     <t>['12']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['1', '29']</t>
@@ -1073,6 +1115,60 @@
   </si>
   <si>
     <t>['48', '70']</t>
+  </si>
+  <si>
+    <t>['4', '32']</t>
+  </si>
+  <si>
+    <t>['50', '68', '9002']</t>
+  </si>
+  <si>
+    <t>['4503']</t>
+  </si>
+  <si>
+    <t>['74', '9002']</t>
+  </si>
+  <si>
+    <t>['26', '76']</t>
+  </si>
+  <si>
+    <t>['50', '9004']</t>
+  </si>
+  <si>
+    <t>['86', '9002']</t>
+  </si>
+  <si>
+    <t>['2', '78']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['54', '87']</t>
+  </si>
+  <si>
+    <t>['56', '90']</t>
+  </si>
+  <si>
+    <t>['2', '19']</t>
+  </si>
+  <si>
+    <t>['48', '55', '87']</t>
+  </si>
+  <si>
+    <t>['5', '31', '32']</t>
+  </si>
+  <si>
+    <t>['4503', '52', '88']</t>
+  </si>
+  <si>
+    <t>['51', '54', '58']</t>
+  </si>
+  <si>
+    <t>['8', '23', '30', '44', '56', '65', '9001']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,7 +1870,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1899,7 +1995,7 @@
         <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1977,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2105,7 +2201,7 @@
         <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -2183,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2389,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2517,7 +2613,7 @@
         <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -2595,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2723,7 +2819,7 @@
         <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2801,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2929,7 +3025,7 @@
         <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="Q8">
         <v>2.25</v>
@@ -3007,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3213,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3341,7 +3437,7 @@
         <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q10">
         <v>2.5</v>
@@ -3419,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3625,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3831,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4040,7 +4136,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4165,7 +4261,7 @@
         <v>111</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>2.38</v>
@@ -4243,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4371,7 +4467,7 @@
         <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4449,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
         <v>2.14</v>
@@ -4577,7 +4673,7 @@
         <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4655,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4864,7 +4960,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5195,7 +5291,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -5276,7 +5372,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5479,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5607,7 +5703,7 @@
         <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5685,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21">
         <v>1.14</v>
@@ -5813,7 +5909,7 @@
         <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6019,7 +6115,7 @@
         <v>117</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6100,7 +6196,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6225,7 +6321,7 @@
         <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -6306,7 +6402,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6512,7 +6608,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6637,7 +6733,7 @@
         <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6715,10 +6811,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6924,7 +7020,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.64</v>
@@ -7127,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>0.72</v>
@@ -7333,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29">
         <v>0.63</v>
@@ -7539,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>0.22</v>
@@ -7667,7 +7763,7 @@
         <v>124</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7745,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
         <v>1.71</v>
@@ -7951,10 +8047,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.83</v>
@@ -8079,7 +8175,7 @@
         <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8157,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AQ33">
         <v>0.88</v>
@@ -8363,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8569,7 +8665,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8775,10 +8871,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
         <v>1.23</v>
@@ -8903,7 +8999,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q37">
         <v>3.1</v>
@@ -9187,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9393,10 +9489,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.5</v>
@@ -9521,7 +9617,7 @@
         <v>129</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9599,10 +9695,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9805,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ41">
         <v>1.38</v>
@@ -9933,7 +10029,7 @@
         <v>131</v>
       </c>
       <c r="P42" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -10014,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10217,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.87</v>
@@ -10426,7 +10522,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR44">
         <v>1.88</v>
@@ -10629,10 +10725,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR45">
         <v>1.62</v>
@@ -10757,7 +10853,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10835,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ46">
         <v>0.63</v>
@@ -10963,7 +11059,7 @@
         <v>134</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -11041,10 +11137,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -11169,7 +11265,7 @@
         <v>135</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11247,10 +11343,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ48">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -11456,7 +11552,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR49">
         <v>1.41</v>
@@ -11865,10 +11961,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11993,7 +12089,7 @@
         <v>137</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -12071,10 +12167,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.84</v>
@@ -12199,7 +12295,7 @@
         <v>138</v>
       </c>
       <c r="P53" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12280,7 +12376,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12483,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
         <v>2.14</v>
@@ -12611,7 +12707,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12689,10 +12785,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.22</v>
@@ -12895,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13101,10 +13197,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.55</v>
@@ -13229,7 +13325,7 @@
         <v>141</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13310,7 +13406,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.87</v>
@@ -13435,7 +13531,7 @@
         <v>142</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13516,7 +13612,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -13719,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>0.22</v>
@@ -13847,7 +13943,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13925,7 +14021,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.71</v>
@@ -14053,7 +14149,7 @@
         <v>144</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -14131,10 +14227,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14259,7 +14355,7 @@
         <v>145</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14465,7 +14561,7 @@
         <v>146</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q64">
         <v>2.2</v>
@@ -14546,7 +14642,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.62</v>
@@ -14749,10 +14845,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR65">
         <v>1.71</v>
@@ -14955,7 +15051,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -15161,10 +15257,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15495,7 +15591,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="Q69">
         <v>3.4</v>
@@ -15779,10 +15875,10 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.96</v>
@@ -15907,7 +16003,7 @@
         <v>109</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15985,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -16113,7 +16209,7 @@
         <v>109</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16194,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16397,10 +16493,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>2.23</v>
@@ -16525,7 +16621,7 @@
         <v>151</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16603,10 +16699,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR74">
         <v>1.88</v>
@@ -16809,10 +16905,10 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.74</v>
@@ -16937,7 +17033,7 @@
         <v>153</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -17221,7 +17317,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
         <v>2.14</v>
@@ -17427,10 +17523,10 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17633,7 +17729,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17761,7 +17857,7 @@
         <v>156</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17839,10 +17935,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17967,7 +18063,7 @@
         <v>157</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18045,10 +18141,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.62</v>
@@ -18173,7 +18269,7 @@
         <v>158</v>
       </c>
       <c r="P82" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18254,7 +18350,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.1</v>
@@ -18457,10 +18553,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR83">
         <v>1.35</v>
@@ -18666,7 +18762,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>1.92</v>
@@ -18791,7 +18887,7 @@
         <v>161</v>
       </c>
       <c r="P85" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18869,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ85">
         <v>1.44</v>
@@ -18997,7 +19093,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>2.75</v>
@@ -19075,10 +19171,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19203,7 +19299,7 @@
         <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -19281,7 +19377,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19693,10 +19789,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.83</v>
@@ -19821,7 +19917,7 @@
         <v>164</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19899,10 +19995,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.08</v>
@@ -20108,7 +20204,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.64</v>
@@ -20439,7 +20535,7 @@
         <v>131</v>
       </c>
       <c r="P93" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20517,10 +20613,10 @@
         <v>2.33</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.68</v>
@@ -20726,7 +20822,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.73</v>
@@ -20929,10 +21025,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR95">
         <v>1.75</v>
@@ -21057,7 +21153,7 @@
         <v>168</v>
       </c>
       <c r="P96" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21135,10 +21231,10 @@
         <v>0.33</v>
       </c>
       <c r="AP96">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
         <v>2.09</v>
@@ -21341,10 +21437,10 @@
         <v>2.25</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ97">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR97">
         <v>1.49</v>
@@ -21547,7 +21643,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
         <v>1.38</v>
@@ -21959,7 +22055,7 @@
         <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100">
         <v>0.88</v>
@@ -22165,10 +22261,10 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.75</v>
@@ -22371,7 +22467,7 @@
         <v>0.33</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22499,7 +22595,7 @@
         <v>122</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Q103">
         <v>2.75</v>
@@ -22577,10 +22673,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.61</v>
@@ -22705,7 +22801,7 @@
         <v>173</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22786,7 +22882,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.95</v>
@@ -22911,7 +23007,7 @@
         <v>174</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>1.91</v>
@@ -22989,7 +23085,7 @@
         <v>0.25</v>
       </c>
       <c r="AP105">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -23195,10 +23291,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ106">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.03</v>
@@ -23401,10 +23497,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR107">
         <v>1.66</v>
@@ -23607,7 +23703,7 @@
         <v>0.33</v>
       </c>
       <c r="AP108">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ108">
         <v>0.63</v>
@@ -23813,10 +23909,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -23941,7 +24037,7 @@
         <v>175</v>
       </c>
       <c r="P110" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24019,10 +24115,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR110">
         <v>1.84</v>
@@ -24147,7 +24243,7 @@
         <v>109</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>2.88</v>
@@ -24225,7 +24321,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>1.44</v>
@@ -24431,7 +24527,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24637,7 +24733,7 @@
         <v>0.25</v>
       </c>
       <c r="AP113">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24765,7 +24861,7 @@
         <v>177</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24843,10 +24939,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
         <v>1.81</v>
@@ -24971,7 +25067,7 @@
         <v>178</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25049,10 +25145,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25255,10 +25351,10 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.62</v>
@@ -25383,7 +25479,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -25464,7 +25560,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
         <v>1.48</v>
@@ -25589,7 +25685,7 @@
         <v>180</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -26001,7 +26097,7 @@
         <v>181</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="Q120">
         <v>3.1</v>
@@ -26079,10 +26175,10 @@
         <v>2.33</v>
       </c>
       <c r="AP120">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR120">
         <v>1.84</v>
@@ -26285,7 +26381,7 @@
         <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>0.22</v>
@@ -26413,7 +26509,7 @@
         <v>109</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26491,7 +26587,7 @@
         <v>2.33</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ122">
         <v>1.71</v>
@@ -26697,10 +26793,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AQ123">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR123">
         <v>1.96</v>
@@ -26825,7 +26921,7 @@
         <v>129</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>2.5</v>
@@ -26903,10 +26999,10 @@
         <v>0.33</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.48</v>
@@ -27112,7 +27208,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR125">
         <v>1.84</v>
@@ -27315,10 +27411,10 @@
         <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ126">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27524,7 +27620,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
         <v>1.21</v>
@@ -27730,7 +27826,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27855,7 +27951,7 @@
         <v>187</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28061,7 +28157,7 @@
         <v>188</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28139,10 +28235,10 @@
         <v>1.75</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.45</v>
@@ -28348,7 +28444,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.86</v>
@@ -28551,7 +28647,7 @@
         <v>2.33</v>
       </c>
       <c r="AP132">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
         <v>2.14</v>
@@ -28885,7 +28981,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28963,7 +29059,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -29091,7 +29187,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29172,7 +29268,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ135">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR135">
         <v>2.04</v>
@@ -29375,10 +29471,10 @@
         <v>0.75</v>
       </c>
       <c r="AP136">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AQ136">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29581,10 +29677,10 @@
         <v>0.4</v>
       </c>
       <c r="AP137">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR137">
         <v>1.09</v>
@@ -29790,7 +29886,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.73</v>
@@ -29993,10 +30089,10 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ139">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.51</v>
@@ -30199,10 +30295,10 @@
         <v>0.33</v>
       </c>
       <c r="AP140">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ140">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR140">
         <v>1.89</v>
@@ -30327,7 +30423,7 @@
         <v>109</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>2.38</v>
@@ -30408,7 +30504,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR141">
         <v>1.68</v>
@@ -30611,10 +30707,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR142">
         <v>1.65</v>
@@ -30739,7 +30835,7 @@
         <v>174</v>
       </c>
       <c r="P143" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -30817,10 +30913,10 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -31023,10 +31119,10 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR144">
         <v>1.61</v>
@@ -31151,7 +31247,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>2.4</v>
@@ -31229,10 +31325,10 @@
         <v>1.8</v>
       </c>
       <c r="AP145">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR145">
         <v>1.94</v>
@@ -31357,7 +31453,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31435,7 +31531,7 @@
         <v>0.8</v>
       </c>
       <c r="AP146">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31563,7 +31659,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="Q147">
         <v>2.6</v>
@@ -31769,7 +31865,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>2.05</v>
@@ -31847,10 +31943,10 @@
         <v>1.8</v>
       </c>
       <c r="AP148">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31975,7 +32071,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -32181,7 +32277,7 @@
         <v>202</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="Q150">
         <v>2.4</v>
@@ -32259,7 +32355,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32387,7 +32483,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32465,10 +32561,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR151">
         <v>1.66</v>
@@ -32593,7 +32689,7 @@
         <v>109</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32671,10 +32767,10 @@
         <v>1.4</v>
       </c>
       <c r="AP152">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR152">
         <v>1.12</v>
@@ -32799,7 +32895,7 @@
         <v>204</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.1</v>
@@ -32877,7 +32973,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
         <v>0.63</v>
@@ -33005,7 +33101,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>3.1</v>
@@ -33083,7 +33179,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ154">
         <v>2</v>
@@ -33211,7 +33307,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33289,10 +33385,10 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR155">
         <v>1.65</v>
@@ -33417,7 +33513,7 @@
         <v>207</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33495,10 +33591,10 @@
         <v>1.6</v>
       </c>
       <c r="AP156">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.51</v>
@@ -33623,7 +33719,7 @@
         <v>109</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33701,10 +33797,10 @@
         <v>1.6</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ157">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -33910,7 +34006,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
         <v>1.51</v>
@@ -34113,10 +34209,10 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR159">
         <v>1.77</v>
@@ -34241,7 +34337,7 @@
         <v>209</v>
       </c>
       <c r="P160" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="Q160">
         <v>2.1</v>
@@ -34319,10 +34415,10 @@
         <v>1.2</v>
       </c>
       <c r="AP160">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ160">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR160">
         <v>1.99</v>
@@ -34528,7 +34624,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR161">
         <v>1.68</v>
@@ -34653,7 +34749,7 @@
         <v>211</v>
       </c>
       <c r="P162" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34937,7 +35033,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AQ163">
         <v>0.63</v>
@@ -35143,7 +35239,7 @@
         <v>1.8</v>
       </c>
       <c r="AP164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
         <v>1.44</v>
@@ -35558,7 +35654,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ166">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35683,7 +35779,7 @@
         <v>215</v>
       </c>
       <c r="P167" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35967,10 +36063,10 @@
         <v>0.8</v>
       </c>
       <c r="AP168">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ168">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>1.25</v>
@@ -36095,7 +36191,7 @@
         <v>217</v>
       </c>
       <c r="P169" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36176,7 +36272,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36301,7 +36397,7 @@
         <v>218</v>
       </c>
       <c r="P170" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>2.2</v>
@@ -36379,10 +36475,10 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ170">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR170">
         <v>1.89</v>
@@ -36507,7 +36603,7 @@
         <v>109</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q171">
         <v>2.25</v>
@@ -36585,10 +36681,10 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.87</v>
@@ -36713,7 +36809,7 @@
         <v>219</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q172">
         <v>2.4</v>
@@ -36791,10 +36887,10 @@
         <v>1.2</v>
       </c>
       <c r="AP172">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR172">
         <v>1.8</v>
@@ -36997,7 +37093,7 @@
         <v>0.33</v>
       </c>
       <c r="AP173">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AQ173">
         <v>0.22</v>
@@ -37125,7 +37221,7 @@
         <v>221</v>
       </c>
       <c r="P174" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37203,10 +37299,10 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ174">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR174">
         <v>1.03</v>
@@ -37331,7 +37427,7 @@
         <v>163</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37409,7 +37505,7 @@
         <v>0.83</v>
       </c>
       <c r="AP175">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37537,7 +37633,7 @@
         <v>113</v>
       </c>
       <c r="P176" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q176">
         <v>2.4</v>
@@ -37615,10 +37711,10 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ176">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR176">
         <v>1.93</v>
@@ -37743,7 +37839,7 @@
         <v>222</v>
       </c>
       <c r="P177" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -37821,10 +37917,10 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR177">
         <v>1.66</v>
@@ -37949,7 +38045,7 @@
         <v>109</v>
       </c>
       <c r="P178" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q178">
         <v>2.38</v>
@@ -38027,10 +38123,10 @@
         <v>0.75</v>
       </c>
       <c r="AP178">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
         <v>1.84</v>
@@ -38233,10 +38329,10 @@
         <v>0.6</v>
       </c>
       <c r="AP179">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR179">
         <v>1.28</v>
@@ -38361,7 +38457,7 @@
         <v>224</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>2.5</v>
@@ -38439,7 +38535,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -38645,10 +38741,10 @@
         <v>0.83</v>
       </c>
       <c r="AP181">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR181">
         <v>1.42</v>
@@ -38773,7 +38869,7 @@
         <v>225</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>3.75</v>
@@ -38851,10 +38947,10 @@
         <v>2.2</v>
       </c>
       <c r="AP182">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ182">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
         <v>1.89</v>
@@ -38979,7 +39075,7 @@
         <v>226</v>
       </c>
       <c r="P183" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>2.5</v>
@@ -39057,10 +39153,10 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ183">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AR183">
         <v>1.98</v>
@@ -39185,7 +39281,7 @@
         <v>227</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="Q184">
         <v>2.05</v>
@@ -39469,7 +39565,7 @@
         <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ185">
         <v>1.44</v>
@@ -39597,7 +39693,7 @@
         <v>228</v>
       </c>
       <c r="P186" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q186">
         <v>2.4</v>
@@ -39675,7 +39771,7 @@
         <v>0.4</v>
       </c>
       <c r="AP186">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ186">
         <v>0.63</v>
@@ -39881,10 +39977,10 @@
         <v>1.83</v>
       </c>
       <c r="AP187">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR187">
         <v>1.64</v>
@@ -40009,7 +40105,7 @@
         <v>230</v>
       </c>
       <c r="P188" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -40087,10 +40183,10 @@
         <v>0.5</v>
       </c>
       <c r="AP188">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ188">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR188">
         <v>1.67</v>
@@ -40215,7 +40311,7 @@
         <v>176</v>
       </c>
       <c r="P189" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -40293,10 +40389,10 @@
         <v>0.2</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ189">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR189">
         <v>1.57</v>
@@ -40911,10 +41007,10 @@
         <v>1.33</v>
       </c>
       <c r="AP192">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ192">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.75</v>
@@ -41039,7 +41135,7 @@
         <v>233</v>
       </c>
       <c r="P193" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="Q193">
         <v>3</v>
@@ -41245,7 +41341,7 @@
         <v>234</v>
       </c>
       <c r="P194" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>2.75</v>
@@ -41323,7 +41419,7 @@
         <v>0.83</v>
       </c>
       <c r="AP194">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ194">
         <v>1.14</v>
@@ -41529,7 +41625,7 @@
         <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
         <v>0.63</v>
@@ -41657,7 +41753,7 @@
         <v>198</v>
       </c>
       <c r="P196" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="Q196">
         <v>2.63</v>
@@ -41735,7 +41831,7 @@
         <v>1.71</v>
       </c>
       <c r="AP196">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ196">
         <v>1.44</v>
@@ -41863,7 +41959,7 @@
         <v>109</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="Q197">
         <v>2.75</v>
@@ -41941,7 +42037,7 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197">
         <v>2</v>
@@ -42069,7 +42165,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42150,7 +42246,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ198">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR198">
         <v>1.72</v>
@@ -42356,7 +42452,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR199">
         <v>1.32</v>
@@ -42765,10 +42861,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ201">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR201">
         <v>1.89</v>
@@ -42971,7 +43067,7 @@
         <v>2.2</v>
       </c>
       <c r="AP202">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ202">
         <v>2.14</v>
@@ -43099,7 +43195,7 @@
         <v>109</v>
       </c>
       <c r="P203" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="Q203">
         <v>2.63</v>
@@ -43177,10 +43273,10 @@
         <v>0.6</v>
       </c>
       <c r="AP203">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ203">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR203">
         <v>1.04</v>
@@ -43383,10 +43479,10 @@
         <v>1</v>
       </c>
       <c r="AP204">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ204">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -43511,7 +43607,7 @@
         <v>237</v>
       </c>
       <c r="P205" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43589,7 +43685,7 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43795,10 +43891,10 @@
         <v>0.57</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ206">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR206">
         <v>1.84</v>
@@ -43923,7 +44019,7 @@
         <v>109</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="Q207">
         <v>2.25</v>
@@ -44001,10 +44097,10 @@
         <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AQ207">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
         <v>1.4</v>
@@ -44207,7 +44303,7 @@
         <v>0.83</v>
       </c>
       <c r="AP208">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="AQ208">
         <v>0.88</v>
@@ -44413,10 +44509,10 @@
         <v>1.71</v>
       </c>
       <c r="AP209">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR209">
         <v>2.06</v>
@@ -44619,7 +44715,7 @@
         <v>0.25</v>
       </c>
       <c r="AP210">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ210">
         <v>0.22</v>
@@ -44747,7 +44843,7 @@
         <v>240</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44828,7 +44924,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ211">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR211">
         <v>1.68</v>
@@ -44953,7 +45049,7 @@
         <v>109</v>
       </c>
       <c r="P212" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45031,7 +45127,7 @@
         <v>0.29</v>
       </c>
       <c r="AP212">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ212">
         <v>0.63</v>
@@ -45159,7 +45255,7 @@
         <v>241</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -45237,7 +45333,7 @@
         <v>0.86</v>
       </c>
       <c r="AP213">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ213">
         <v>0.88</v>
@@ -45443,7 +45539,7 @@
         <v>1.57</v>
       </c>
       <c r="AP214">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -45571,7 +45667,7 @@
         <v>242</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45777,7 +45873,7 @@
         <v>222</v>
       </c>
       <c r="P216" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q216">
         <v>3.4</v>
@@ -45855,10 +45951,10 @@
         <v>0.8</v>
       </c>
       <c r="AP216">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AQ216">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR216">
         <v>1.44</v>
@@ -45983,7 +46079,7 @@
         <v>243</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q217">
         <v>2.75</v>
@@ -46064,7 +46160,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR217">
         <v>1.58</v>
@@ -46270,7 +46366,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR218">
         <v>1.82</v>
@@ -46395,7 +46491,7 @@
         <v>244</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46679,7 +46775,7 @@
         <v>0.71</v>
       </c>
       <c r="AP220">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ220">
         <v>0.63</v>
@@ -46807,7 +46903,7 @@
         <v>246</v>
       </c>
       <c r="P221" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="Q221">
         <v>2.6</v>
@@ -46888,7 +46984,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR221">
         <v>2.04</v>
@@ -47013,7 +47109,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q222">
         <v>2.5</v>
@@ -47091,10 +47187,10 @@
         <v>1.71</v>
       </c>
       <c r="AP222">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR222">
         <v>1.71</v>
@@ -47219,7 +47315,7 @@
         <v>248</v>
       </c>
       <c r="P223" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47297,7 +47393,7 @@
         <v>1.63</v>
       </c>
       <c r="AP223">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ223">
         <v>1.44</v>
@@ -47376,6 +47472,5774 @@
       </c>
       <c r="BP223">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7781297</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>72</v>
+      </c>
+      <c r="H224" t="s">
+        <v>76</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>2</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>5</v>
+      </c>
+      <c r="O224" t="s">
+        <v>249</v>
+      </c>
+      <c r="P224" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q224">
+        <v>3</v>
+      </c>
+      <c r="R224">
+        <v>2.38</v>
+      </c>
+      <c r="S224">
+        <v>3.1</v>
+      </c>
+      <c r="T224">
+        <v>1.29</v>
+      </c>
+      <c r="U224">
+        <v>3.5</v>
+      </c>
+      <c r="V224">
+        <v>2.38</v>
+      </c>
+      <c r="W224">
+        <v>1.53</v>
+      </c>
+      <c r="X224">
+        <v>5.5</v>
+      </c>
+      <c r="Y224">
+        <v>1.14</v>
+      </c>
+      <c r="Z224">
+        <v>2.39</v>
+      </c>
+      <c r="AA224">
+        <v>3.34</v>
+      </c>
+      <c r="AB224">
+        <v>2.49</v>
+      </c>
+      <c r="AC224">
+        <v>1.04</v>
+      </c>
+      <c r="AD224">
+        <v>10</v>
+      </c>
+      <c r="AE224">
+        <v>1.2</v>
+      </c>
+      <c r="AF224">
+        <v>4.33</v>
+      </c>
+      <c r="AG224">
+        <v>1.61</v>
+      </c>
+      <c r="AH224">
+        <v>2.2</v>
+      </c>
+      <c r="AI224">
+        <v>1.53</v>
+      </c>
+      <c r="AJ224">
+        <v>2.38</v>
+      </c>
+      <c r="AK224">
+        <v>1.47</v>
+      </c>
+      <c r="AL224">
+        <v>1.27</v>
+      </c>
+      <c r="AM224">
+        <v>1.52</v>
+      </c>
+      <c r="AN224">
+        <v>1.33</v>
+      </c>
+      <c r="AO224">
+        <v>1.43</v>
+      </c>
+      <c r="AP224">
+        <v>1.5</v>
+      </c>
+      <c r="AQ224">
+        <v>1.25</v>
+      </c>
+      <c r="AR224">
+        <v>1.56</v>
+      </c>
+      <c r="AS224">
+        <v>1.42</v>
+      </c>
+      <c r="AT224">
+        <v>2.98</v>
+      </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
+      <c r="AV224">
+        <v>6</v>
+      </c>
+      <c r="AW224">
+        <v>9</v>
+      </c>
+      <c r="AX224">
+        <v>5</v>
+      </c>
+      <c r="AY224">
+        <v>15</v>
+      </c>
+      <c r="AZ224">
+        <v>11</v>
+      </c>
+      <c r="BA224">
+        <v>5</v>
+      </c>
+      <c r="BB224">
+        <v>6</v>
+      </c>
+      <c r="BC224">
+        <v>11</v>
+      </c>
+      <c r="BD224">
+        <v>1.9</v>
+      </c>
+      <c r="BE224">
+        <v>6.5</v>
+      </c>
+      <c r="BF224">
+        <v>2.08</v>
+      </c>
+      <c r="BG224">
+        <v>1.28</v>
+      </c>
+      <c r="BH224">
+        <v>3.3</v>
+      </c>
+      <c r="BI224">
+        <v>1.48</v>
+      </c>
+      <c r="BJ224">
+        <v>2.43</v>
+      </c>
+      <c r="BK224">
+        <v>1.77</v>
+      </c>
+      <c r="BL224">
+        <v>1.91</v>
+      </c>
+      <c r="BM224">
+        <v>2.23</v>
+      </c>
+      <c r="BN224">
+        <v>1.57</v>
+      </c>
+      <c r="BO224">
+        <v>2.9</v>
+      </c>
+      <c r="BP224">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7781298</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>73</v>
+      </c>
+      <c r="H225" t="s">
+        <v>97</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>6</v>
+      </c>
+      <c r="O225" t="s">
+        <v>250</v>
+      </c>
+      <c r="P225" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q225">
+        <v>2.2</v>
+      </c>
+      <c r="R225">
+        <v>2.38</v>
+      </c>
+      <c r="S225">
+        <v>5</v>
+      </c>
+      <c r="T225">
+        <v>1.33</v>
+      </c>
+      <c r="U225">
+        <v>3.25</v>
+      </c>
+      <c r="V225">
+        <v>2.5</v>
+      </c>
+      <c r="W225">
+        <v>1.5</v>
+      </c>
+      <c r="X225">
+        <v>6.5</v>
+      </c>
+      <c r="Y225">
+        <v>1.11</v>
+      </c>
+      <c r="Z225">
+        <v>1.5</v>
+      </c>
+      <c r="AA225">
+        <v>3.91</v>
+      </c>
+      <c r="AB225">
+        <v>5.1</v>
+      </c>
+      <c r="AC225">
+        <v>1.04</v>
+      </c>
+      <c r="AD225">
+        <v>10</v>
+      </c>
+      <c r="AE225">
+        <v>1.22</v>
+      </c>
+      <c r="AF225">
+        <v>4</v>
+      </c>
+      <c r="AG225">
+        <v>1.67</v>
+      </c>
+      <c r="AH225">
+        <v>2.1</v>
+      </c>
+      <c r="AI225">
+        <v>1.75</v>
+      </c>
+      <c r="AJ225">
+        <v>2</v>
+      </c>
+      <c r="AK225">
+        <v>1.18</v>
+      </c>
+      <c r="AL225">
+        <v>1.23</v>
+      </c>
+      <c r="AM225">
+        <v>2.2</v>
+      </c>
+      <c r="AN225">
+        <v>2.67</v>
+      </c>
+      <c r="AO225">
+        <v>1.5</v>
+      </c>
+      <c r="AP225">
+        <v>2.13</v>
+      </c>
+      <c r="AQ225">
+        <v>1.44</v>
+      </c>
+      <c r="AR225">
+        <v>1.88</v>
+      </c>
+      <c r="AS225">
+        <v>1.38</v>
+      </c>
+      <c r="AT225">
+        <v>3.26</v>
+      </c>
+      <c r="AU225">
+        <v>7</v>
+      </c>
+      <c r="AV225">
+        <v>6</v>
+      </c>
+      <c r="AW225">
+        <v>7</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>14</v>
+      </c>
+      <c r="AZ225">
+        <v>10</v>
+      </c>
+      <c r="BA225">
+        <v>6</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>10</v>
+      </c>
+      <c r="BD225">
+        <v>1.45</v>
+      </c>
+      <c r="BE225">
+        <v>6.75</v>
+      </c>
+      <c r="BF225">
+        <v>3.05</v>
+      </c>
+      <c r="BG225">
+        <v>1.32</v>
+      </c>
+      <c r="BH225">
+        <v>3.05</v>
+      </c>
+      <c r="BI225">
+        <v>1.55</v>
+      </c>
+      <c r="BJ225">
+        <v>2.25</v>
+      </c>
+      <c r="BK225">
+        <v>1.9</v>
+      </c>
+      <c r="BL225">
+        <v>1.78</v>
+      </c>
+      <c r="BM225">
+        <v>2.4</v>
+      </c>
+      <c r="BN225">
+        <v>1.49</v>
+      </c>
+      <c r="BO225">
+        <v>3.1</v>
+      </c>
+      <c r="BP225">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7781299</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>75</v>
+      </c>
+      <c r="H226" t="s">
+        <v>87</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>251</v>
+      </c>
+      <c r="P226" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q226">
+        <v>2.75</v>
+      </c>
+      <c r="R226">
+        <v>2.38</v>
+      </c>
+      <c r="S226">
+        <v>3.6</v>
+      </c>
+      <c r="T226">
+        <v>1.3</v>
+      </c>
+      <c r="U226">
+        <v>3.4</v>
+      </c>
+      <c r="V226">
+        <v>2.5</v>
+      </c>
+      <c r="W226">
+        <v>1.5</v>
+      </c>
+      <c r="X226">
+        <v>6</v>
+      </c>
+      <c r="Y226">
+        <v>1.13</v>
+      </c>
+      <c r="Z226">
+        <v>1.9</v>
+      </c>
+      <c r="AA226">
+        <v>3.45</v>
+      </c>
+      <c r="AB226">
+        <v>3.29</v>
+      </c>
+      <c r="AC226">
+        <v>1.04</v>
+      </c>
+      <c r="AD226">
+        <v>10</v>
+      </c>
+      <c r="AE226">
+        <v>1.2</v>
+      </c>
+      <c r="AF226">
+        <v>4.33</v>
+      </c>
+      <c r="AG226">
+        <v>1.76</v>
+      </c>
+      <c r="AH226">
+        <v>1.94</v>
+      </c>
+      <c r="AI226">
+        <v>1.57</v>
+      </c>
+      <c r="AJ226">
+        <v>2.25</v>
+      </c>
+      <c r="AK226">
+        <v>1.38</v>
+      </c>
+      <c r="AL226">
+        <v>1.28</v>
+      </c>
+      <c r="AM226">
+        <v>1.62</v>
+      </c>
+      <c r="AN226">
+        <v>1.13</v>
+      </c>
+      <c r="AO226">
+        <v>1.5</v>
+      </c>
+      <c r="AP226">
+        <v>1</v>
+      </c>
+      <c r="AQ226">
+        <v>1.6</v>
+      </c>
+      <c r="AR226">
+        <v>1.23</v>
+      </c>
+      <c r="AS226">
+        <v>1.44</v>
+      </c>
+      <c r="AT226">
+        <v>2.67</v>
+      </c>
+      <c r="AU226">
+        <v>5</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>6</v>
+      </c>
+      <c r="AY226">
+        <v>10</v>
+      </c>
+      <c r="AZ226">
+        <v>11</v>
+      </c>
+      <c r="BA226">
+        <v>4</v>
+      </c>
+      <c r="BB226">
+        <v>3</v>
+      </c>
+      <c r="BC226">
+        <v>7</v>
+      </c>
+      <c r="BD226">
+        <v>1.64</v>
+      </c>
+      <c r="BE226">
+        <v>6.75</v>
+      </c>
+      <c r="BF226">
+        <v>2.48</v>
+      </c>
+      <c r="BG226">
+        <v>1.29</v>
+      </c>
+      <c r="BH226">
+        <v>3.2</v>
+      </c>
+      <c r="BI226">
+        <v>1.5</v>
+      </c>
+      <c r="BJ226">
+        <v>2.38</v>
+      </c>
+      <c r="BK226">
+        <v>1.81</v>
+      </c>
+      <c r="BL226">
+        <v>1.88</v>
+      </c>
+      <c r="BM226">
+        <v>2.25</v>
+      </c>
+      <c r="BN226">
+        <v>1.55</v>
+      </c>
+      <c r="BO226">
+        <v>2.9</v>
+      </c>
+      <c r="BP226">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7781300</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s">
+        <v>99</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>4</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>6</v>
+      </c>
+      <c r="O227" t="s">
+        <v>252</v>
+      </c>
+      <c r="P227" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q227">
+        <v>1.83</v>
+      </c>
+      <c r="R227">
+        <v>2.63</v>
+      </c>
+      <c r="S227">
+        <v>6</v>
+      </c>
+      <c r="T227">
+        <v>1.22</v>
+      </c>
+      <c r="U227">
+        <v>4</v>
+      </c>
+      <c r="V227">
+        <v>2.1</v>
+      </c>
+      <c r="W227">
+        <v>1.67</v>
+      </c>
+      <c r="X227">
+        <v>4.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.18</v>
+      </c>
+      <c r="Z227">
+        <v>1.44</v>
+      </c>
+      <c r="AA227">
+        <v>4.5</v>
+      </c>
+      <c r="AB227">
+        <v>4.9</v>
+      </c>
+      <c r="AC227">
+        <v>1.01</v>
+      </c>
+      <c r="AD227">
+        <v>17</v>
+      </c>
+      <c r="AE227">
+        <v>1.14</v>
+      </c>
+      <c r="AF227">
+        <v>5.5</v>
+      </c>
+      <c r="AG227">
+        <v>1.45</v>
+      </c>
+      <c r="AH227">
+        <v>2.63</v>
+      </c>
+      <c r="AI227">
+        <v>1.67</v>
+      </c>
+      <c r="AJ227">
+        <v>2.1</v>
+      </c>
+      <c r="AK227">
+        <v>1.12</v>
+      </c>
+      <c r="AL227">
+        <v>1.18</v>
+      </c>
+      <c r="AM227">
+        <v>2.65</v>
+      </c>
+      <c r="AN227">
+        <v>1.57</v>
+      </c>
+      <c r="AO227">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP227">
+        <v>1.89</v>
+      </c>
+      <c r="AQ227">
+        <v>0.5</v>
+      </c>
+      <c r="AR227">
+        <v>1.5</v>
+      </c>
+      <c r="AS227">
+        <v>1.36</v>
+      </c>
+      <c r="AT227">
+        <v>2.86</v>
+      </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
+      <c r="AV227">
+        <v>7</v>
+      </c>
+      <c r="AW227">
+        <v>6</v>
+      </c>
+      <c r="AX227">
+        <v>4</v>
+      </c>
+      <c r="AY227">
+        <v>11</v>
+      </c>
+      <c r="AZ227">
+        <v>11</v>
+      </c>
+      <c r="BA227">
+        <v>0</v>
+      </c>
+      <c r="BB227">
+        <v>2</v>
+      </c>
+      <c r="BC227">
+        <v>2</v>
+      </c>
+      <c r="BD227">
+        <v>1.34</v>
+      </c>
+      <c r="BE227">
+        <v>7.5</v>
+      </c>
+      <c r="BF227">
+        <v>3.55</v>
+      </c>
+      <c r="BG227">
+        <v>1.22</v>
+      </c>
+      <c r="BH227">
+        <v>3.65</v>
+      </c>
+      <c r="BI227">
+        <v>1.41</v>
+      </c>
+      <c r="BJ227">
+        <v>2.65</v>
+      </c>
+      <c r="BK227">
+        <v>1.66</v>
+      </c>
+      <c r="BL227">
+        <v>2.07</v>
+      </c>
+      <c r="BM227">
+        <v>2.04</v>
+      </c>
+      <c r="BN227">
+        <v>1.68</v>
+      </c>
+      <c r="BO227">
+        <v>2.55</v>
+      </c>
+      <c r="BP227">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7781301</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>88</v>
+      </c>
+      <c r="H228" t="s">
+        <v>85</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>6</v>
+      </c>
+      <c r="O228" t="s">
+        <v>253</v>
+      </c>
+      <c r="P228" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q228">
+        <v>2.5</v>
+      </c>
+      <c r="R228">
+        <v>2.25</v>
+      </c>
+      <c r="S228">
+        <v>4.33</v>
+      </c>
+      <c r="T228">
+        <v>1.36</v>
+      </c>
+      <c r="U228">
+        <v>3</v>
+      </c>
+      <c r="V228">
+        <v>2.63</v>
+      </c>
+      <c r="W228">
+        <v>1.44</v>
+      </c>
+      <c r="X228">
+        <v>7</v>
+      </c>
+      <c r="Y228">
+        <v>1.1</v>
+      </c>
+      <c r="Z228">
+        <v>1.8</v>
+      </c>
+      <c r="AA228">
+        <v>3.38</v>
+      </c>
+      <c r="AB228">
+        <v>3.71</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9.5</v>
+      </c>
+      <c r="AE228">
+        <v>1.28</v>
+      </c>
+      <c r="AF228">
+        <v>3.6</v>
+      </c>
+      <c r="AG228">
+        <v>1.81</v>
+      </c>
+      <c r="AH228">
+        <v>1.89</v>
+      </c>
+      <c r="AI228">
+        <v>1.75</v>
+      </c>
+      <c r="AJ228">
+        <v>2</v>
+      </c>
+      <c r="AK228">
+        <v>1.24</v>
+      </c>
+      <c r="AL228">
+        <v>1.28</v>
+      </c>
+      <c r="AM228">
+        <v>1.88</v>
+      </c>
+      <c r="AN228">
+        <v>2.29</v>
+      </c>
+      <c r="AO228">
+        <v>0.57</v>
+      </c>
+      <c r="AP228">
+        <v>2.44</v>
+      </c>
+      <c r="AQ228">
+        <v>0.78</v>
+      </c>
+      <c r="AR228">
+        <v>1.63</v>
+      </c>
+      <c r="AS228">
+        <v>1.18</v>
+      </c>
+      <c r="AT228">
+        <v>2.81</v>
+      </c>
+      <c r="AU228">
+        <v>6</v>
+      </c>
+      <c r="AV228">
+        <v>7</v>
+      </c>
+      <c r="AW228">
+        <v>3</v>
+      </c>
+      <c r="AX228">
+        <v>5</v>
+      </c>
+      <c r="AY228">
+        <v>9</v>
+      </c>
+      <c r="AZ228">
+        <v>12</v>
+      </c>
+      <c r="BA228">
+        <v>5</v>
+      </c>
+      <c r="BB228">
+        <v>2</v>
+      </c>
+      <c r="BC228">
+        <v>7</v>
+      </c>
+      <c r="BD228">
+        <v>1.52</v>
+      </c>
+      <c r="BE228">
+        <v>6.75</v>
+      </c>
+      <c r="BF228">
+        <v>2.8</v>
+      </c>
+      <c r="BG228">
+        <v>1.33</v>
+      </c>
+      <c r="BH228">
+        <v>2.95</v>
+      </c>
+      <c r="BI228">
+        <v>1.57</v>
+      </c>
+      <c r="BJ228">
+        <v>2.23</v>
+      </c>
+      <c r="BK228">
+        <v>1.92</v>
+      </c>
+      <c r="BL228">
+        <v>1.77</v>
+      </c>
+      <c r="BM228">
+        <v>2.43</v>
+      </c>
+      <c r="BN228">
+        <v>1.47</v>
+      </c>
+      <c r="BO228">
+        <v>3.15</v>
+      </c>
+      <c r="BP228">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7781302</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>96</v>
+      </c>
+      <c r="H229" t="s">
+        <v>78</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>109</v>
+      </c>
+      <c r="P229" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q229">
+        <v>2.5</v>
+      </c>
+      <c r="R229">
+        <v>2.25</v>
+      </c>
+      <c r="S229">
+        <v>4.33</v>
+      </c>
+      <c r="T229">
+        <v>1.36</v>
+      </c>
+      <c r="U229">
+        <v>3</v>
+      </c>
+      <c r="V229">
+        <v>2.63</v>
+      </c>
+      <c r="W229">
+        <v>1.44</v>
+      </c>
+      <c r="X229">
+        <v>7</v>
+      </c>
+      <c r="Y229">
+        <v>1.1</v>
+      </c>
+      <c r="Z229">
+        <v>1.86</v>
+      </c>
+      <c r="AA229">
+        <v>3.3</v>
+      </c>
+      <c r="AB229">
+        <v>3.57</v>
+      </c>
+      <c r="AC229">
+        <v>1.05</v>
+      </c>
+      <c r="AD229">
+        <v>9</v>
+      </c>
+      <c r="AE229">
+        <v>1.28</v>
+      </c>
+      <c r="AF229">
+        <v>3.55</v>
+      </c>
+      <c r="AG229">
+        <v>1.8</v>
+      </c>
+      <c r="AH229">
+        <v>1.9</v>
+      </c>
+      <c r="AI229">
+        <v>1.75</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>1.26</v>
+      </c>
+      <c r="AL229">
+        <v>1.29</v>
+      </c>
+      <c r="AM229">
+        <v>1.8</v>
+      </c>
+      <c r="AN229">
+        <v>2.25</v>
+      </c>
+      <c r="AO229">
+        <v>1</v>
+      </c>
+      <c r="AP229">
+        <v>2</v>
+      </c>
+      <c r="AQ229">
+        <v>1.25</v>
+      </c>
+      <c r="AR229">
+        <v>1.83</v>
+      </c>
+      <c r="AS229">
+        <v>1.14</v>
+      </c>
+      <c r="AT229">
+        <v>2.97</v>
+      </c>
+      <c r="AU229">
+        <v>2</v>
+      </c>
+      <c r="AV229">
+        <v>5</v>
+      </c>
+      <c r="AW229">
+        <v>6</v>
+      </c>
+      <c r="AX229">
+        <v>3</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>8</v>
+      </c>
+      <c r="BA229">
+        <v>8</v>
+      </c>
+      <c r="BB229">
+        <v>3</v>
+      </c>
+      <c r="BC229">
+        <v>11</v>
+      </c>
+      <c r="BD229">
+        <v>1.58</v>
+      </c>
+      <c r="BE229">
+        <v>6.75</v>
+      </c>
+      <c r="BF229">
+        <v>2.55</v>
+      </c>
+      <c r="BG229">
+        <v>1.24</v>
+      </c>
+      <c r="BH229">
+        <v>3.55</v>
+      </c>
+      <c r="BI229">
+        <v>1.43</v>
+      </c>
+      <c r="BJ229">
+        <v>2.6</v>
+      </c>
+      <c r="BK229">
+        <v>1.7</v>
+      </c>
+      <c r="BL229">
+        <v>2</v>
+      </c>
+      <c r="BM229">
+        <v>2.08</v>
+      </c>
+      <c r="BN229">
+        <v>1.65</v>
+      </c>
+      <c r="BO229">
+        <v>2.65</v>
+      </c>
+      <c r="BP229">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7781303</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45805.85416666666</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>98</v>
+      </c>
+      <c r="H230" t="s">
+        <v>89</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>254</v>
+      </c>
+      <c r="P230" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q230">
+        <v>3.25</v>
+      </c>
+      <c r="R230">
+        <v>2.25</v>
+      </c>
+      <c r="S230">
+        <v>3</v>
+      </c>
+      <c r="T230">
+        <v>1.33</v>
+      </c>
+      <c r="U230">
+        <v>3.25</v>
+      </c>
+      <c r="V230">
+        <v>2.63</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>6.5</v>
+      </c>
+      <c r="Y230">
+        <v>1.11</v>
+      </c>
+      <c r="Z230">
+        <v>2.91</v>
+      </c>
+      <c r="AA230">
+        <v>3.21</v>
+      </c>
+      <c r="AB230">
+        <v>2.15</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>9.5</v>
+      </c>
+      <c r="AE230">
+        <v>1.25</v>
+      </c>
+      <c r="AF230">
+        <v>3.75</v>
+      </c>
+      <c r="AG230">
+        <v>1.83</v>
+      </c>
+      <c r="AH230">
+        <v>1.87</v>
+      </c>
+      <c r="AI230">
+        <v>1.62</v>
+      </c>
+      <c r="AJ230">
+        <v>2.2</v>
+      </c>
+      <c r="AK230">
+        <v>1.55</v>
+      </c>
+      <c r="AL230">
+        <v>1.29</v>
+      </c>
+      <c r="AM230">
+        <v>1.41</v>
+      </c>
+      <c r="AN230">
+        <v>0.63</v>
+      </c>
+      <c r="AO230">
+        <v>2</v>
+      </c>
+      <c r="AP230">
+        <v>0.5</v>
+      </c>
+      <c r="AQ230">
+        <v>2</v>
+      </c>
+      <c r="AR230">
+        <v>1.42</v>
+      </c>
+      <c r="AS230">
+        <v>1.75</v>
+      </c>
+      <c r="AT230">
+        <v>3.17</v>
+      </c>
+      <c r="AU230">
+        <v>5</v>
+      </c>
+      <c r="AV230">
+        <v>7</v>
+      </c>
+      <c r="AW230">
+        <v>4</v>
+      </c>
+      <c r="AX230">
+        <v>6</v>
+      </c>
+      <c r="AY230">
+        <v>9</v>
+      </c>
+      <c r="AZ230">
+        <v>13</v>
+      </c>
+      <c r="BA230">
+        <v>3</v>
+      </c>
+      <c r="BB230">
+        <v>9</v>
+      </c>
+      <c r="BC230">
+        <v>12</v>
+      </c>
+      <c r="BD230">
+        <v>2.07</v>
+      </c>
+      <c r="BE230">
+        <v>6.4</v>
+      </c>
+      <c r="BF230">
+        <v>1.92</v>
+      </c>
+      <c r="BG230">
+        <v>1.26</v>
+      </c>
+      <c r="BH230">
+        <v>3.4</v>
+      </c>
+      <c r="BI230">
+        <v>1.47</v>
+      </c>
+      <c r="BJ230">
+        <v>2.48</v>
+      </c>
+      <c r="BK230">
+        <v>1.76</v>
+      </c>
+      <c r="BL230">
+        <v>1.94</v>
+      </c>
+      <c r="BM230">
+        <v>2.17</v>
+      </c>
+      <c r="BN230">
+        <v>1.6</v>
+      </c>
+      <c r="BO230">
+        <v>2.75</v>
+      </c>
+      <c r="BP230">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7781304</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45805.875</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>74</v>
+      </c>
+      <c r="H231" t="s">
+        <v>79</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>119</v>
+      </c>
+      <c r="P231" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q231">
+        <v>2.4</v>
+      </c>
+      <c r="R231">
+        <v>2.25</v>
+      </c>
+      <c r="S231">
+        <v>4.5</v>
+      </c>
+      <c r="T231">
+        <v>1.36</v>
+      </c>
+      <c r="U231">
+        <v>3</v>
+      </c>
+      <c r="V231">
+        <v>2.63</v>
+      </c>
+      <c r="W231">
+        <v>1.44</v>
+      </c>
+      <c r="X231">
+        <v>7</v>
+      </c>
+      <c r="Y231">
+        <v>1.1</v>
+      </c>
+      <c r="Z231">
+        <v>1.72</v>
+      </c>
+      <c r="AA231">
+        <v>3.6</v>
+      </c>
+      <c r="AB231">
+        <v>3.83</v>
+      </c>
+      <c r="AC231">
+        <v>1.05</v>
+      </c>
+      <c r="AD231">
+        <v>9.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.28</v>
+      </c>
+      <c r="AF231">
+        <v>3.65</v>
+      </c>
+      <c r="AG231">
+        <v>1.83</v>
+      </c>
+      <c r="AH231">
+        <v>1.87</v>
+      </c>
+      <c r="AI231">
+        <v>1.75</v>
+      </c>
+      <c r="AJ231">
+        <v>2</v>
+      </c>
+      <c r="AK231">
+        <v>1.2</v>
+      </c>
+      <c r="AL231">
+        <v>1.26</v>
+      </c>
+      <c r="AM231">
+        <v>2.05</v>
+      </c>
+      <c r="AN231">
+        <v>1.88</v>
+      </c>
+      <c r="AO231">
+        <v>1.17</v>
+      </c>
+      <c r="AP231">
+        <v>1.67</v>
+      </c>
+      <c r="AQ231">
+        <v>1.43</v>
+      </c>
+      <c r="AR231">
+        <v>1.85</v>
+      </c>
+      <c r="AS231">
+        <v>1.6</v>
+      </c>
+      <c r="AT231">
+        <v>3.45</v>
+      </c>
+      <c r="AU231">
+        <v>6</v>
+      </c>
+      <c r="AV231">
+        <v>7</v>
+      </c>
+      <c r="AW231">
+        <v>9</v>
+      </c>
+      <c r="AX231">
+        <v>5</v>
+      </c>
+      <c r="AY231">
+        <v>15</v>
+      </c>
+      <c r="AZ231">
+        <v>12</v>
+      </c>
+      <c r="BA231">
+        <v>7</v>
+      </c>
+      <c r="BB231">
+        <v>3</v>
+      </c>
+      <c r="BC231">
+        <v>10</v>
+      </c>
+      <c r="BD231">
+        <v>1.57</v>
+      </c>
+      <c r="BE231">
+        <v>6.4</v>
+      </c>
+      <c r="BF231">
+        <v>2.7</v>
+      </c>
+      <c r="BG231">
+        <v>1.41</v>
+      </c>
+      <c r="BH231">
+        <v>2.65</v>
+      </c>
+      <c r="BI231">
+        <v>1.7</v>
+      </c>
+      <c r="BJ231">
+        <v>2</v>
+      </c>
+      <c r="BK231">
+        <v>2.14</v>
+      </c>
+      <c r="BL231">
+        <v>1.62</v>
+      </c>
+      <c r="BM231">
+        <v>2.75</v>
+      </c>
+      <c r="BN231">
+        <v>1.38</v>
+      </c>
+      <c r="BO231">
+        <v>3.65</v>
+      </c>
+      <c r="BP231">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7781306</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45805.89583333334</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>82</v>
+      </c>
+      <c r="H232" t="s">
+        <v>94</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
+        <v>255</v>
+      </c>
+      <c r="P232" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>1.82</v>
+      </c>
+      <c r="AA232">
+        <v>3.35</v>
+      </c>
+      <c r="AB232">
+        <v>3.68</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>1.83</v>
+      </c>
+      <c r="AH232">
+        <v>1.87</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>2.33</v>
+      </c>
+      <c r="AO232">
+        <v>1.5</v>
+      </c>
+      <c r="AP232">
+        <v>2.13</v>
+      </c>
+      <c r="AQ232">
+        <v>1.29</v>
+      </c>
+      <c r="AR232">
+        <v>1.98</v>
+      </c>
+      <c r="AS232">
+        <v>1.67</v>
+      </c>
+      <c r="AT232">
+        <v>3.65</v>
+      </c>
+      <c r="AU232">
+        <v>6</v>
+      </c>
+      <c r="AV232">
+        <v>8</v>
+      </c>
+      <c r="AW232">
+        <v>1</v>
+      </c>
+      <c r="AX232">
+        <v>4</v>
+      </c>
+      <c r="AY232">
+        <v>7</v>
+      </c>
+      <c r="AZ232">
+        <v>12</v>
+      </c>
+      <c r="BA232">
+        <v>4</v>
+      </c>
+      <c r="BB232">
+        <v>6</v>
+      </c>
+      <c r="BC232">
+        <v>10</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>0</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7781305</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45805.93055555555</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>77</v>
+      </c>
+      <c r="H233" t="s">
+        <v>86</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>256</v>
+      </c>
+      <c r="P233" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q233">
+        <v>2.75</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>4</v>
+      </c>
+      <c r="T233">
+        <v>1.36</v>
+      </c>
+      <c r="U233">
+        <v>3</v>
+      </c>
+      <c r="V233">
+        <v>2.75</v>
+      </c>
+      <c r="W233">
+        <v>1.4</v>
+      </c>
+      <c r="X233">
+        <v>7</v>
+      </c>
+      <c r="Y233">
+        <v>1.1</v>
+      </c>
+      <c r="Z233">
+        <v>2.01</v>
+      </c>
+      <c r="AA233">
+        <v>3.33</v>
+      </c>
+      <c r="AB233">
+        <v>3.12</v>
+      </c>
+      <c r="AC233">
+        <v>1.06</v>
+      </c>
+      <c r="AD233">
+        <v>8.5</v>
+      </c>
+      <c r="AE233">
+        <v>1.3</v>
+      </c>
+      <c r="AF233">
+        <v>3.4</v>
+      </c>
+      <c r="AG233">
+        <v>1.86</v>
+      </c>
+      <c r="AH233">
+        <v>1.84</v>
+      </c>
+      <c r="AI233">
+        <v>1.75</v>
+      </c>
+      <c r="AJ233">
+        <v>2</v>
+      </c>
+      <c r="AK233">
+        <v>1.28</v>
+      </c>
+      <c r="AL233">
+        <v>1.29</v>
+      </c>
+      <c r="AM233">
+        <v>1.75</v>
+      </c>
+      <c r="AN233">
+        <v>1.5</v>
+      </c>
+      <c r="AO233">
+        <v>0.88</v>
+      </c>
+      <c r="AP233">
+        <v>1.44</v>
+      </c>
+      <c r="AQ233">
+        <v>0.8</v>
+      </c>
+      <c r="AR233">
+        <v>1.67</v>
+      </c>
+      <c r="AS233">
+        <v>1.57</v>
+      </c>
+      <c r="AT233">
+        <v>3.24</v>
+      </c>
+      <c r="AU233">
+        <v>5</v>
+      </c>
+      <c r="AV233">
+        <v>3</v>
+      </c>
+      <c r="AW233">
+        <v>7</v>
+      </c>
+      <c r="AX233">
+        <v>9</v>
+      </c>
+      <c r="AY233">
+        <v>12</v>
+      </c>
+      <c r="AZ233">
+        <v>12</v>
+      </c>
+      <c r="BA233">
+        <v>7</v>
+      </c>
+      <c r="BB233">
+        <v>6</v>
+      </c>
+      <c r="BC233">
+        <v>13</v>
+      </c>
+      <c r="BD233">
+        <v>1.74</v>
+      </c>
+      <c r="BE233">
+        <v>6.4</v>
+      </c>
+      <c r="BF233">
+        <v>2.32</v>
+      </c>
+      <c r="BG233">
+        <v>1.28</v>
+      </c>
+      <c r="BH233">
+        <v>3.2</v>
+      </c>
+      <c r="BI233">
+        <v>1.5</v>
+      </c>
+      <c r="BJ233">
+        <v>2.4</v>
+      </c>
+      <c r="BK233">
+        <v>1.82</v>
+      </c>
+      <c r="BL233">
+        <v>1.86</v>
+      </c>
+      <c r="BM233">
+        <v>2.28</v>
+      </c>
+      <c r="BN233">
+        <v>1.54</v>
+      </c>
+      <c r="BO233">
+        <v>2.95</v>
+      </c>
+      <c r="BP233">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7781307</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45805.96875</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>84</v>
+      </c>
+      <c r="H234" t="s">
+        <v>81</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>109</v>
+      </c>
+      <c r="P234" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q234">
+        <v>2.5</v>
+      </c>
+      <c r="R234">
+        <v>2.5</v>
+      </c>
+      <c r="S234">
+        <v>3.6</v>
+      </c>
+      <c r="T234">
+        <v>1.25</v>
+      </c>
+      <c r="U234">
+        <v>3.75</v>
+      </c>
+      <c r="V234">
+        <v>2.2</v>
+      </c>
+      <c r="W234">
+        <v>1.62</v>
+      </c>
+      <c r="X234">
+        <v>5</v>
+      </c>
+      <c r="Y234">
+        <v>1.17</v>
+      </c>
+      <c r="Z234">
+        <v>1.9</v>
+      </c>
+      <c r="AA234">
+        <v>3.92</v>
+      </c>
+      <c r="AB234">
+        <v>2.96</v>
+      </c>
+      <c r="AC234">
+        <v>1.01</v>
+      </c>
+      <c r="AD234">
+        <v>13</v>
+      </c>
+      <c r="AE234">
+        <v>1.15</v>
+      </c>
+      <c r="AF234">
+        <v>5.25</v>
+      </c>
+      <c r="AG234">
+        <v>1.46</v>
+      </c>
+      <c r="AH234">
+        <v>2.6</v>
+      </c>
+      <c r="AI234">
+        <v>1.5</v>
+      </c>
+      <c r="AJ234">
+        <v>2.5</v>
+      </c>
+      <c r="AK234">
+        <v>1.33</v>
+      </c>
+      <c r="AL234">
+        <v>1.24</v>
+      </c>
+      <c r="AM234">
+        <v>1.77</v>
+      </c>
+      <c r="AN234">
+        <v>0.33</v>
+      </c>
+      <c r="AO234">
+        <v>1.17</v>
+      </c>
+      <c r="AP234">
+        <v>0.63</v>
+      </c>
+      <c r="AQ234">
+        <v>1.25</v>
+      </c>
+      <c r="AR234">
+        <v>1.45</v>
+      </c>
+      <c r="AS234">
+        <v>1.76</v>
+      </c>
+      <c r="AT234">
+        <v>3.21</v>
+      </c>
+      <c r="AU234">
+        <v>7</v>
+      </c>
+      <c r="AV234">
+        <v>7</v>
+      </c>
+      <c r="AW234">
+        <v>4</v>
+      </c>
+      <c r="AX234">
+        <v>6</v>
+      </c>
+      <c r="AY234">
+        <v>11</v>
+      </c>
+      <c r="AZ234">
+        <v>13</v>
+      </c>
+      <c r="BA234">
+        <v>10</v>
+      </c>
+      <c r="BB234">
+        <v>4</v>
+      </c>
+      <c r="BC234">
+        <v>14</v>
+      </c>
+      <c r="BD234">
+        <v>1.67</v>
+      </c>
+      <c r="BE234">
+        <v>6.75</v>
+      </c>
+      <c r="BF234">
+        <v>2.4</v>
+      </c>
+      <c r="BG234">
+        <v>1.2</v>
+      </c>
+      <c r="BH234">
+        <v>3.9</v>
+      </c>
+      <c r="BI234">
+        <v>1.37</v>
+      </c>
+      <c r="BJ234">
+        <v>2.8</v>
+      </c>
+      <c r="BK234">
+        <v>1.61</v>
+      </c>
+      <c r="BL234">
+        <v>2.15</v>
+      </c>
+      <c r="BM234">
+        <v>1.96</v>
+      </c>
+      <c r="BN234">
+        <v>1.73</v>
+      </c>
+      <c r="BO234">
+        <v>2.45</v>
+      </c>
+      <c r="BP234">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7781309</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45805.97916666666</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>83</v>
+      </c>
+      <c r="H235" t="s">
+        <v>93</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>257</v>
+      </c>
+      <c r="P235" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q235">
+        <v>2.1</v>
+      </c>
+      <c r="R235">
+        <v>2.6</v>
+      </c>
+      <c r="S235">
+        <v>4.5</v>
+      </c>
+      <c r="T235">
+        <v>1.25</v>
+      </c>
+      <c r="U235">
+        <v>3.75</v>
+      </c>
+      <c r="V235">
+        <v>2.1</v>
+      </c>
+      <c r="W235">
+        <v>1.67</v>
+      </c>
+      <c r="X235">
+        <v>5</v>
+      </c>
+      <c r="Y235">
+        <v>1.17</v>
+      </c>
+      <c r="Z235">
+        <v>1.6</v>
+      </c>
+      <c r="AA235">
+        <v>3.95</v>
+      </c>
+      <c r="AB235">
+        <v>4.2</v>
+      </c>
+      <c r="AC235">
+        <v>1.01</v>
+      </c>
+      <c r="AD235">
+        <v>17</v>
+      </c>
+      <c r="AE235">
+        <v>1.15</v>
+      </c>
+      <c r="AF235">
+        <v>5.25</v>
+      </c>
+      <c r="AG235">
+        <v>1.52</v>
+      </c>
+      <c r="AH235">
+        <v>2.43</v>
+      </c>
+      <c r="AI235">
+        <v>1.53</v>
+      </c>
+      <c r="AJ235">
+        <v>2.38</v>
+      </c>
+      <c r="AK235">
+        <v>1.21</v>
+      </c>
+      <c r="AL235">
+        <v>1.22</v>
+      </c>
+      <c r="AM235">
+        <v>2.1</v>
+      </c>
+      <c r="AN235">
+        <v>1.71</v>
+      </c>
+      <c r="AO235">
+        <v>1.14</v>
+      </c>
+      <c r="AP235">
+        <v>1.88</v>
+      </c>
+      <c r="AQ235">
+        <v>1</v>
+      </c>
+      <c r="AR235">
+        <v>1.24</v>
+      </c>
+      <c r="AS235">
+        <v>0.97</v>
+      </c>
+      <c r="AT235">
+        <v>2.21</v>
+      </c>
+      <c r="AU235">
+        <v>10</v>
+      </c>
+      <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>7</v>
+      </c>
+      <c r="AX235">
+        <v>6</v>
+      </c>
+      <c r="AY235">
+        <v>17</v>
+      </c>
+      <c r="AZ235">
+        <v>10</v>
+      </c>
+      <c r="BA235">
+        <v>6</v>
+      </c>
+      <c r="BB235">
+        <v>3</v>
+      </c>
+      <c r="BC235">
+        <v>9</v>
+      </c>
+      <c r="BD235">
+        <v>1.58</v>
+      </c>
+      <c r="BE235">
+        <v>6.5</v>
+      </c>
+      <c r="BF235">
+        <v>2.65</v>
+      </c>
+      <c r="BG235">
+        <v>1.3</v>
+      </c>
+      <c r="BH235">
+        <v>3.15</v>
+      </c>
+      <c r="BI235">
+        <v>1.52</v>
+      </c>
+      <c r="BJ235">
+        <v>2.33</v>
+      </c>
+      <c r="BK235">
+        <v>1.84</v>
+      </c>
+      <c r="BL235">
+        <v>1.84</v>
+      </c>
+      <c r="BM235">
+        <v>2.32</v>
+      </c>
+      <c r="BN235">
+        <v>1.53</v>
+      </c>
+      <c r="BO235">
+        <v>2.95</v>
+      </c>
+      <c r="BP235">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7781310</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45805.97916666666</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>95</v>
+      </c>
+      <c r="H236" t="s">
+        <v>92</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>109</v>
+      </c>
+      <c r="P236" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q236">
+        <v>2.6</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>4</v>
+      </c>
+      <c r="T236">
+        <v>1.36</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.63</v>
+      </c>
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>7</v>
+      </c>
+      <c r="Y236">
+        <v>1.1</v>
+      </c>
+      <c r="Z236">
+        <v>1.9</v>
+      </c>
+      <c r="AA236">
+        <v>3.32</v>
+      </c>
+      <c r="AB236">
+        <v>3.41</v>
+      </c>
+      <c r="AC236">
+        <v>1.05</v>
+      </c>
+      <c r="AD236">
+        <v>9.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.25</v>
+      </c>
+      <c r="AF236">
+        <v>3.7</v>
+      </c>
+      <c r="AG236">
+        <v>1.8</v>
+      </c>
+      <c r="AH236">
+        <v>1.9</v>
+      </c>
+      <c r="AI236">
+        <v>1.75</v>
+      </c>
+      <c r="AJ236">
+        <v>2</v>
+      </c>
+      <c r="AK236">
+        <v>1.36</v>
+      </c>
+      <c r="AL236">
+        <v>1.3</v>
+      </c>
+      <c r="AM236">
+        <v>1.62</v>
+      </c>
+      <c r="AN236">
+        <v>2.29</v>
+      </c>
+      <c r="AO236">
+        <v>1.57</v>
+      </c>
+      <c r="AP236">
+        <v>2.13</v>
+      </c>
+      <c r="AQ236">
+        <v>1.67</v>
+      </c>
+      <c r="AR236">
+        <v>1.96</v>
+      </c>
+      <c r="AS236">
+        <v>1.45</v>
+      </c>
+      <c r="AT236">
+        <v>3.41</v>
+      </c>
+      <c r="AU236">
+        <v>4</v>
+      </c>
+      <c r="AV236">
+        <v>2</v>
+      </c>
+      <c r="AW236">
+        <v>10</v>
+      </c>
+      <c r="AX236">
+        <v>3</v>
+      </c>
+      <c r="AY236">
+        <v>14</v>
+      </c>
+      <c r="AZ236">
+        <v>5</v>
+      </c>
+      <c r="BA236">
+        <v>8</v>
+      </c>
+      <c r="BB236">
+        <v>0</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>1.72</v>
+      </c>
+      <c r="BE236">
+        <v>6.75</v>
+      </c>
+      <c r="BF236">
+        <v>2.33</v>
+      </c>
+      <c r="BG236">
+        <v>1.21</v>
+      </c>
+      <c r="BH236">
+        <v>3.8</v>
+      </c>
+      <c r="BI236">
+        <v>1.38</v>
+      </c>
+      <c r="BJ236">
+        <v>2.75</v>
+      </c>
+      <c r="BK236">
+        <v>1.62</v>
+      </c>
+      <c r="BL236">
+        <v>2.14</v>
+      </c>
+      <c r="BM236">
+        <v>1.98</v>
+      </c>
+      <c r="BN236">
+        <v>1.72</v>
+      </c>
+      <c r="BO236">
+        <v>2.48</v>
+      </c>
+      <c r="BP236">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7781311</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45808.64583333334</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>80</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>258</v>
+      </c>
+      <c r="P237" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q237">
+        <v>2.75</v>
+      </c>
+      <c r="R237">
+        <v>2.3</v>
+      </c>
+      <c r="S237">
+        <v>3.5</v>
+      </c>
+      <c r="T237">
+        <v>1.33</v>
+      </c>
+      <c r="U237">
+        <v>3.25</v>
+      </c>
+      <c r="V237">
+        <v>2.5</v>
+      </c>
+      <c r="W237">
+        <v>1.5</v>
+      </c>
+      <c r="X237">
+        <v>6.5</v>
+      </c>
+      <c r="Y237">
+        <v>1.11</v>
+      </c>
+      <c r="Z237">
+        <v>2.26</v>
+      </c>
+      <c r="AA237">
+        <v>3.33</v>
+      </c>
+      <c r="AB237">
+        <v>2.65</v>
+      </c>
+      <c r="AC237">
+        <v>1.05</v>
+      </c>
+      <c r="AD237">
+        <v>9.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.25</v>
+      </c>
+      <c r="AF237">
+        <v>3.95</v>
+      </c>
+      <c r="AG237">
+        <v>1.7</v>
+      </c>
+      <c r="AH237">
+        <v>2.05</v>
+      </c>
+      <c r="AI237">
+        <v>1.62</v>
+      </c>
+      <c r="AJ237">
+        <v>2.2</v>
+      </c>
+      <c r="AK237">
+        <v>1.43</v>
+      </c>
+      <c r="AL237">
+        <v>1.28</v>
+      </c>
+      <c r="AM237">
+        <v>1.55</v>
+      </c>
+      <c r="AN237">
+        <v>0.86</v>
+      </c>
+      <c r="AO237">
+        <v>1.43</v>
+      </c>
+      <c r="AP237">
+        <v>1.13</v>
+      </c>
+      <c r="AQ237">
+        <v>1.25</v>
+      </c>
+      <c r="AR237">
+        <v>1.68</v>
+      </c>
+      <c r="AS237">
+        <v>1.76</v>
+      </c>
+      <c r="AT237">
+        <v>3.44</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>6</v>
+      </c>
+      <c r="AW237">
+        <v>5</v>
+      </c>
+      <c r="AX237">
+        <v>4</v>
+      </c>
+      <c r="AY237">
+        <v>10</v>
+      </c>
+      <c r="AZ237">
+        <v>10</v>
+      </c>
+      <c r="BA237">
+        <v>6</v>
+      </c>
+      <c r="BB237">
+        <v>9</v>
+      </c>
+      <c r="BC237">
+        <v>15</v>
+      </c>
+      <c r="BD237">
+        <v>1.64</v>
+      </c>
+      <c r="BE237">
+        <v>7</v>
+      </c>
+      <c r="BF237">
+        <v>2.48</v>
+      </c>
+      <c r="BG237">
+        <v>1.24</v>
+      </c>
+      <c r="BH237">
+        <v>3.55</v>
+      </c>
+      <c r="BI237">
+        <v>1.43</v>
+      </c>
+      <c r="BJ237">
+        <v>2.6</v>
+      </c>
+      <c r="BK237">
+        <v>1.7</v>
+      </c>
+      <c r="BL237">
+        <v>2.02</v>
+      </c>
+      <c r="BM237">
+        <v>2.08</v>
+      </c>
+      <c r="BN237">
+        <v>1.65</v>
+      </c>
+      <c r="BO237">
+        <v>2.65</v>
+      </c>
+      <c r="BP237">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7781312</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45808.72916666666</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>79</v>
+      </c>
+      <c r="H238" t="s">
+        <v>96</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238" t="s">
+        <v>259</v>
+      </c>
+      <c r="P238" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q238">
+        <v>2.6</v>
+      </c>
+      <c r="R238">
+        <v>2.3</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>1.33</v>
+      </c>
+      <c r="U238">
+        <v>3.25</v>
+      </c>
+      <c r="V238">
+        <v>2.5</v>
+      </c>
+      <c r="W238">
+        <v>1.5</v>
+      </c>
+      <c r="X238">
+        <v>6.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.11</v>
+      </c>
+      <c r="Z238">
+        <v>2.06</v>
+      </c>
+      <c r="AA238">
+        <v>3.31</v>
+      </c>
+      <c r="AB238">
+        <v>3.02</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>9.5</v>
+      </c>
+      <c r="AE238">
+        <v>1.25</v>
+      </c>
+      <c r="AF238">
+        <v>3.9</v>
+      </c>
+      <c r="AG238">
+        <v>1.7</v>
+      </c>
+      <c r="AH238">
+        <v>2</v>
+      </c>
+      <c r="AI238">
+        <v>1.67</v>
+      </c>
+      <c r="AJ238">
+        <v>2.1</v>
+      </c>
+      <c r="AK238">
+        <v>1.34</v>
+      </c>
+      <c r="AL238">
+        <v>1.29</v>
+      </c>
+      <c r="AM238">
+        <v>1.66</v>
+      </c>
+      <c r="AN238">
+        <v>2.22</v>
+      </c>
+      <c r="AO238">
+        <v>0.86</v>
+      </c>
+      <c r="AP238">
+        <v>2.1</v>
+      </c>
+      <c r="AQ238">
+        <v>0.88</v>
+      </c>
+      <c r="AR238">
+        <v>1.87</v>
+      </c>
+      <c r="AS238">
+        <v>1.26</v>
+      </c>
+      <c r="AT238">
+        <v>3.13</v>
+      </c>
+      <c r="AU238">
+        <v>6</v>
+      </c>
+      <c r="AV238">
+        <v>5</v>
+      </c>
+      <c r="AW238">
+        <v>4</v>
+      </c>
+      <c r="AX238">
+        <v>4</v>
+      </c>
+      <c r="AY238">
+        <v>10</v>
+      </c>
+      <c r="AZ238">
+        <v>9</v>
+      </c>
+      <c r="BA238">
+        <v>6</v>
+      </c>
+      <c r="BB238">
+        <v>1</v>
+      </c>
+      <c r="BC238">
+        <v>7</v>
+      </c>
+      <c r="BD238">
+        <v>1.47</v>
+      </c>
+      <c r="BE238">
+        <v>7</v>
+      </c>
+      <c r="BF238">
+        <v>2.95</v>
+      </c>
+      <c r="BG238">
+        <v>1.25</v>
+      </c>
+      <c r="BH238">
+        <v>3.45</v>
+      </c>
+      <c r="BI238">
+        <v>1.44</v>
+      </c>
+      <c r="BJ238">
+        <v>2.55</v>
+      </c>
+      <c r="BK238">
+        <v>1.72</v>
+      </c>
+      <c r="BL238">
+        <v>1.98</v>
+      </c>
+      <c r="BM238">
+        <v>2.15</v>
+      </c>
+      <c r="BN238">
+        <v>1.61</v>
+      </c>
+      <c r="BO238">
+        <v>2.7</v>
+      </c>
+      <c r="BP238">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7781318</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>98</v>
+      </c>
+      <c r="H239" t="s">
+        <v>85</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>109</v>
+      </c>
+      <c r="P239" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q239">
+        <v>3.1</v>
+      </c>
+      <c r="R239">
+        <v>2.3</v>
+      </c>
+      <c r="S239">
+        <v>3.1</v>
+      </c>
+      <c r="T239">
+        <v>1.3</v>
+      </c>
+      <c r="U239">
+        <v>3.4</v>
+      </c>
+      <c r="V239">
+        <v>2.5</v>
+      </c>
+      <c r="W239">
+        <v>1.5</v>
+      </c>
+      <c r="X239">
+        <v>6</v>
+      </c>
+      <c r="Y239">
+        <v>1.13</v>
+      </c>
+      <c r="Z239">
+        <v>2.45</v>
+      </c>
+      <c r="AA239">
+        <v>3.31</v>
+      </c>
+      <c r="AB239">
+        <v>2.45</v>
+      </c>
+      <c r="AC239">
+        <v>1.04</v>
+      </c>
+      <c r="AD239">
+        <v>10</v>
+      </c>
+      <c r="AE239">
+        <v>1.22</v>
+      </c>
+      <c r="AF239">
+        <v>4.2</v>
+      </c>
+      <c r="AG239">
+        <v>1.76</v>
+      </c>
+      <c r="AH239">
+        <v>1.94</v>
+      </c>
+      <c r="AI239">
+        <v>1.57</v>
+      </c>
+      <c r="AJ239">
+        <v>2.25</v>
+      </c>
+      <c r="AK239">
+        <v>1.47</v>
+      </c>
+      <c r="AL239">
+        <v>1.29</v>
+      </c>
+      <c r="AM239">
+        <v>1.47</v>
+      </c>
+      <c r="AN239">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO239">
+        <v>0.5</v>
+      </c>
+      <c r="AP239">
+        <v>0.5</v>
+      </c>
+      <c r="AQ239">
+        <v>0.78</v>
+      </c>
+      <c r="AR239">
+        <v>1.42</v>
+      </c>
+      <c r="AS239">
+        <v>1.18</v>
+      </c>
+      <c r="AT239">
+        <v>2.6</v>
+      </c>
+      <c r="AU239">
+        <v>3</v>
+      </c>
+      <c r="AV239">
+        <v>9</v>
+      </c>
+      <c r="AW239">
+        <v>3</v>
+      </c>
+      <c r="AX239">
+        <v>6</v>
+      </c>
+      <c r="AY239">
+        <v>6</v>
+      </c>
+      <c r="AZ239">
+        <v>15</v>
+      </c>
+      <c r="BA239">
+        <v>4</v>
+      </c>
+      <c r="BB239">
+        <v>6</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.86</v>
+      </c>
+      <c r="BE239">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF239">
+        <v>2.3</v>
+      </c>
+      <c r="BG239">
+        <v>1.29</v>
+      </c>
+      <c r="BH239">
+        <v>3.04</v>
+      </c>
+      <c r="BI239">
+        <v>1.54</v>
+      </c>
+      <c r="BJ239">
+        <v>2.39</v>
+      </c>
+      <c r="BK239">
+        <v>1.91</v>
+      </c>
+      <c r="BL239">
+        <v>1.88</v>
+      </c>
+      <c r="BM239">
+        <v>2.41</v>
+      </c>
+      <c r="BN239">
+        <v>1.53</v>
+      </c>
+      <c r="BO239">
+        <v>3.5</v>
+      </c>
+      <c r="BP239">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7781313</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>73</v>
+      </c>
+      <c r="H240" t="s">
+        <v>75</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>140</v>
+      </c>
+      <c r="P240" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q240">
+        <v>2.1</v>
+      </c>
+      <c r="R240">
+        <v>2.5</v>
+      </c>
+      <c r="S240">
+        <v>5</v>
+      </c>
+      <c r="T240">
+        <v>1.29</v>
+      </c>
+      <c r="U240">
+        <v>3.5</v>
+      </c>
+      <c r="V240">
+        <v>2.25</v>
+      </c>
+      <c r="W240">
+        <v>1.57</v>
+      </c>
+      <c r="X240">
+        <v>5.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.14</v>
+      </c>
+      <c r="Z240">
+        <v>1.55</v>
+      </c>
+      <c r="AA240">
+        <v>3.6</v>
+      </c>
+      <c r="AB240">
+        <v>5.1</v>
+      </c>
+      <c r="AC240">
+        <v>1.04</v>
+      </c>
+      <c r="AD240">
+        <v>10</v>
+      </c>
+      <c r="AE240">
+        <v>1.2</v>
+      </c>
+      <c r="AF240">
+        <v>4.33</v>
+      </c>
+      <c r="AG240">
+        <v>1.6</v>
+      </c>
+      <c r="AH240">
+        <v>2.2</v>
+      </c>
+      <c r="AI240">
+        <v>1.67</v>
+      </c>
+      <c r="AJ240">
+        <v>2.1</v>
+      </c>
+      <c r="AK240">
+        <v>1.15</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>2.25</v>
+      </c>
+      <c r="AN240">
+        <v>2.43</v>
+      </c>
+      <c r="AO240">
+        <v>0.71</v>
+      </c>
+      <c r="AP240">
+        <v>2.13</v>
+      </c>
+      <c r="AQ240">
+        <v>1</v>
+      </c>
+      <c r="AR240">
+        <v>1.88</v>
+      </c>
+      <c r="AS240">
+        <v>1.65</v>
+      </c>
+      <c r="AT240">
+        <v>3.53</v>
+      </c>
+      <c r="AU240">
+        <v>5</v>
+      </c>
+      <c r="AV240">
+        <v>6</v>
+      </c>
+      <c r="AW240">
+        <v>2</v>
+      </c>
+      <c r="AX240">
+        <v>5</v>
+      </c>
+      <c r="AY240">
+        <v>7</v>
+      </c>
+      <c r="AZ240">
+        <v>11</v>
+      </c>
+      <c r="BA240">
+        <v>5</v>
+      </c>
+      <c r="BB240">
+        <v>5</v>
+      </c>
+      <c r="BC240">
+        <v>10</v>
+      </c>
+      <c r="BD240">
+        <v>1.35</v>
+      </c>
+      <c r="BE240">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF240">
+        <v>3.98</v>
+      </c>
+      <c r="BG240">
+        <v>1.21</v>
+      </c>
+      <c r="BH240">
+        <v>3.58</v>
+      </c>
+      <c r="BI240">
+        <v>1.45</v>
+      </c>
+      <c r="BJ240">
+        <v>2.58</v>
+      </c>
+      <c r="BK240">
+        <v>1.79</v>
+      </c>
+      <c r="BL240">
+        <v>2.01</v>
+      </c>
+      <c r="BM240">
+        <v>2.25</v>
+      </c>
+      <c r="BN240">
+        <v>1.62</v>
+      </c>
+      <c r="BO240">
+        <v>2.92</v>
+      </c>
+      <c r="BP240">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7781314</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>71</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>5</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>6</v>
+      </c>
+      <c r="O241" t="s">
+        <v>260</v>
+      </c>
+      <c r="P241" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q241">
+        <v>2.75</v>
+      </c>
+      <c r="R241">
+        <v>2.38</v>
+      </c>
+      <c r="S241">
+        <v>3.4</v>
+      </c>
+      <c r="T241">
+        <v>1.3</v>
+      </c>
+      <c r="U241">
+        <v>3.4</v>
+      </c>
+      <c r="V241">
+        <v>2.38</v>
+      </c>
+      <c r="W241">
+        <v>1.53</v>
+      </c>
+      <c r="X241">
+        <v>6</v>
+      </c>
+      <c r="Y241">
+        <v>1.13</v>
+      </c>
+      <c r="Z241">
+        <v>2.14</v>
+      </c>
+      <c r="AA241">
+        <v>3.27</v>
+      </c>
+      <c r="AB241">
+        <v>2.89</v>
+      </c>
+      <c r="AC241">
+        <v>1.04</v>
+      </c>
+      <c r="AD241">
+        <v>10</v>
+      </c>
+      <c r="AE241">
+        <v>1.2</v>
+      </c>
+      <c r="AF241">
+        <v>4.33</v>
+      </c>
+      <c r="AG241">
+        <v>1.61</v>
+      </c>
+      <c r="AH241">
+        <v>2.15</v>
+      </c>
+      <c r="AI241">
+        <v>1.53</v>
+      </c>
+      <c r="AJ241">
+        <v>2.38</v>
+      </c>
+      <c r="AK241">
+        <v>1.37</v>
+      </c>
+      <c r="AL241">
+        <v>1.29</v>
+      </c>
+      <c r="AM241">
+        <v>1.61</v>
+      </c>
+      <c r="AN241">
+        <v>1.75</v>
+      </c>
+      <c r="AO241">
+        <v>1.71</v>
+      </c>
+      <c r="AP241">
+        <v>1.89</v>
+      </c>
+      <c r="AQ241">
+        <v>1.5</v>
+      </c>
+      <c r="AR241">
+        <v>1.5</v>
+      </c>
+      <c r="AS241">
+        <v>1.44</v>
+      </c>
+      <c r="AT241">
+        <v>2.94</v>
+      </c>
+      <c r="AU241">
+        <v>8</v>
+      </c>
+      <c r="AV241">
+        <v>2</v>
+      </c>
+      <c r="AW241">
+        <v>4</v>
+      </c>
+      <c r="AX241">
+        <v>6</v>
+      </c>
+      <c r="AY241">
+        <v>12</v>
+      </c>
+      <c r="AZ241">
+        <v>8</v>
+      </c>
+      <c r="BA241">
+        <v>4</v>
+      </c>
+      <c r="BB241">
+        <v>6</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>1.73</v>
+      </c>
+      <c r="BE241">
+        <v>8.4</v>
+      </c>
+      <c r="BF241">
+        <v>2.53</v>
+      </c>
+      <c r="BG241">
+        <v>1.28</v>
+      </c>
+      <c r="BH241">
+        <v>3.08</v>
+      </c>
+      <c r="BI241">
+        <v>1.55</v>
+      </c>
+      <c r="BJ241">
+        <v>2.36</v>
+      </c>
+      <c r="BK241">
+        <v>1.93</v>
+      </c>
+      <c r="BL241">
+        <v>1.87</v>
+      </c>
+      <c r="BM241">
+        <v>2.44</v>
+      </c>
+      <c r="BN241">
+        <v>1.52</v>
+      </c>
+      <c r="BO241">
+        <v>3.42</v>
+      </c>
+      <c r="BP241">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7781315</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>99</v>
+      </c>
+      <c r="H242" t="s">
+        <v>87</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>3</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>109</v>
+      </c>
+      <c r="P242" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q242">
+        <v>3.1</v>
+      </c>
+      <c r="R242">
+        <v>2.25</v>
+      </c>
+      <c r="S242">
+        <v>3.1</v>
+      </c>
+      <c r="T242">
+        <v>1.33</v>
+      </c>
+      <c r="U242">
+        <v>3.25</v>
+      </c>
+      <c r="V242">
+        <v>2.63</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>6.5</v>
+      </c>
+      <c r="Y242">
+        <v>1.11</v>
+      </c>
+      <c r="Z242">
+        <v>2.72</v>
+      </c>
+      <c r="AA242">
+        <v>3.5</v>
+      </c>
+      <c r="AB242">
+        <v>2.15</v>
+      </c>
+      <c r="AC242">
+        <v>1.05</v>
+      </c>
+      <c r="AD242">
+        <v>9.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.25</v>
+      </c>
+      <c r="AF242">
+        <v>3.8</v>
+      </c>
+      <c r="AG242">
+        <v>1.55</v>
+      </c>
+      <c r="AH242">
+        <v>2.3</v>
+      </c>
+      <c r="AI242">
+        <v>1.67</v>
+      </c>
+      <c r="AJ242">
+        <v>2.1</v>
+      </c>
+      <c r="AK242">
+        <v>1.53</v>
+      </c>
+      <c r="AL242">
+        <v>1.27</v>
+      </c>
+      <c r="AM242">
+        <v>1.47</v>
+      </c>
+      <c r="AN242">
+        <v>0.5</v>
+      </c>
+      <c r="AO242">
+        <v>1.44</v>
+      </c>
+      <c r="AP242">
+        <v>0.43</v>
+      </c>
+      <c r="AQ242">
+        <v>1.6</v>
+      </c>
+      <c r="AR242">
+        <v>1.55</v>
+      </c>
+      <c r="AS242">
+        <v>1.44</v>
+      </c>
+      <c r="AT242">
+        <v>2.99</v>
+      </c>
+      <c r="AU242">
+        <v>3</v>
+      </c>
+      <c r="AV242">
+        <v>6</v>
+      </c>
+      <c r="AW242">
+        <v>9</v>
+      </c>
+      <c r="AX242">
+        <v>2</v>
+      </c>
+      <c r="AY242">
+        <v>12</v>
+      </c>
+      <c r="AZ242">
+        <v>8</v>
+      </c>
+      <c r="BA242">
+        <v>2</v>
+      </c>
+      <c r="BB242">
+        <v>2</v>
+      </c>
+      <c r="BC242">
+        <v>4</v>
+      </c>
+      <c r="BD242">
+        <v>1.73</v>
+      </c>
+      <c r="BE242">
+        <v>8.5</v>
+      </c>
+      <c r="BF242">
+        <v>2.52</v>
+      </c>
+      <c r="BG242">
+        <v>1.24</v>
+      </c>
+      <c r="BH242">
+        <v>3.34</v>
+      </c>
+      <c r="BI242">
+        <v>1.48</v>
+      </c>
+      <c r="BJ242">
+        <v>2.51</v>
+      </c>
+      <c r="BK242">
+        <v>1.82</v>
+      </c>
+      <c r="BL242">
+        <v>1.97</v>
+      </c>
+      <c r="BM242">
+        <v>2.27</v>
+      </c>
+      <c r="BN242">
+        <v>1.58</v>
+      </c>
+      <c r="BO242">
+        <v>3.14</v>
+      </c>
+      <c r="BP242">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7781316</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>261</v>
+      </c>
+      <c r="P243" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q243">
+        <v>2.63</v>
+      </c>
+      <c r="R243">
+        <v>2.38</v>
+      </c>
+      <c r="S243">
+        <v>3.6</v>
+      </c>
+      <c r="T243">
+        <v>1.3</v>
+      </c>
+      <c r="U243">
+        <v>3.4</v>
+      </c>
+      <c r="V243">
+        <v>2.38</v>
+      </c>
+      <c r="W243">
+        <v>1.53</v>
+      </c>
+      <c r="X243">
+        <v>6</v>
+      </c>
+      <c r="Y243">
+        <v>1.13</v>
+      </c>
+      <c r="Z243">
+        <v>1.97</v>
+      </c>
+      <c r="AA243">
+        <v>3.34</v>
+      </c>
+      <c r="AB243">
+        <v>3.19</v>
+      </c>
+      <c r="AC243">
+        <v>1.04</v>
+      </c>
+      <c r="AD243">
+        <v>10</v>
+      </c>
+      <c r="AE243">
+        <v>1.22</v>
+      </c>
+      <c r="AF243">
+        <v>4.2</v>
+      </c>
+      <c r="AG243">
+        <v>1.61</v>
+      </c>
+      <c r="AH243">
+        <v>2.15</v>
+      </c>
+      <c r="AI243">
+        <v>1.57</v>
+      </c>
+      <c r="AJ243">
+        <v>2.25</v>
+      </c>
+      <c r="AK243">
+        <v>1.31</v>
+      </c>
+      <c r="AL243">
+        <v>1.29</v>
+      </c>
+      <c r="AM243">
+        <v>1.71</v>
+      </c>
+      <c r="AN243">
+        <v>2.38</v>
+      </c>
+      <c r="AO243">
+        <v>0.33</v>
+      </c>
+      <c r="AP243">
+        <v>2.44</v>
+      </c>
+      <c r="AQ243">
+        <v>0.29</v>
+      </c>
+      <c r="AR243">
+        <v>1.63</v>
+      </c>
+      <c r="AS243">
+        <v>1.39</v>
+      </c>
+      <c r="AT243">
+        <v>3.02</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>4</v>
+      </c>
+      <c r="AW243">
+        <v>3</v>
+      </c>
+      <c r="AX243">
+        <v>3</v>
+      </c>
+      <c r="AY243">
+        <v>7</v>
+      </c>
+      <c r="AZ243">
+        <v>7</v>
+      </c>
+      <c r="BA243">
+        <v>1</v>
+      </c>
+      <c r="BB243">
+        <v>8</v>
+      </c>
+      <c r="BC243">
+        <v>9</v>
+      </c>
+      <c r="BD243">
+        <v>1.58</v>
+      </c>
+      <c r="BE243">
+        <v>6.75</v>
+      </c>
+      <c r="BF243">
+        <v>2.65</v>
+      </c>
+      <c r="BG243">
+        <v>1.3</v>
+      </c>
+      <c r="BH243">
+        <v>3.05</v>
+      </c>
+      <c r="BI243">
+        <v>1.54</v>
+      </c>
+      <c r="BJ243">
+        <v>2.3</v>
+      </c>
+      <c r="BK243">
+        <v>1.89</v>
+      </c>
+      <c r="BL243">
+        <v>1.8</v>
+      </c>
+      <c r="BM243">
+        <v>2.35</v>
+      </c>
+      <c r="BN243">
+        <v>1.5</v>
+      </c>
+      <c r="BO243">
+        <v>3.05</v>
+      </c>
+      <c r="BP243">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7781317</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>90</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>4</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>3</v>
+      </c>
+      <c r="N244">
+        <v>4</v>
+      </c>
+      <c r="O244" t="s">
+        <v>161</v>
+      </c>
+      <c r="P244" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q244">
+        <v>2.1</v>
+      </c>
+      <c r="R244">
+        <v>2.5</v>
+      </c>
+      <c r="S244">
+        <v>5</v>
+      </c>
+      <c r="T244">
+        <v>1.29</v>
+      </c>
+      <c r="U244">
+        <v>3.5</v>
+      </c>
+      <c r="V244">
+        <v>2.25</v>
+      </c>
+      <c r="W244">
+        <v>1.57</v>
+      </c>
+      <c r="X244">
+        <v>5.5</v>
+      </c>
+      <c r="Y244">
+        <v>1.14</v>
+      </c>
+      <c r="Z244">
+        <v>1.46</v>
+      </c>
+      <c r="AA244">
+        <v>3.89</v>
+      </c>
+      <c r="AB244">
+        <v>5.6</v>
+      </c>
+      <c r="AC244">
+        <v>1.04</v>
+      </c>
+      <c r="AD244">
+        <v>10</v>
+      </c>
+      <c r="AE244">
+        <v>1.2</v>
+      </c>
+      <c r="AF244">
+        <v>4.33</v>
+      </c>
+      <c r="AG244">
+        <v>1.6</v>
+      </c>
+      <c r="AH244">
+        <v>2.2</v>
+      </c>
+      <c r="AI244">
+        <v>1.67</v>
+      </c>
+      <c r="AJ244">
+        <v>2.1</v>
+      </c>
+      <c r="AK244">
+        <v>1.13</v>
+      </c>
+      <c r="AL244">
+        <v>1.2</v>
+      </c>
+      <c r="AM244">
+        <v>2.45</v>
+      </c>
+      <c r="AN244">
+        <v>2.13</v>
+      </c>
+      <c r="AO244">
+        <v>1.5</v>
+      </c>
+      <c r="AP244">
+        <v>1.89</v>
+      </c>
+      <c r="AQ244">
+        <v>1.8</v>
+      </c>
+      <c r="AR244">
+        <v>1.92</v>
+      </c>
+      <c r="AS244">
+        <v>1.59</v>
+      </c>
+      <c r="AT244">
+        <v>3.51</v>
+      </c>
+      <c r="AU244">
+        <v>6</v>
+      </c>
+      <c r="AV244">
+        <v>5</v>
+      </c>
+      <c r="AW244">
+        <v>12</v>
+      </c>
+      <c r="AX244">
+        <v>6</v>
+      </c>
+      <c r="AY244">
+        <v>18</v>
+      </c>
+      <c r="AZ244">
+        <v>11</v>
+      </c>
+      <c r="BA244">
+        <v>13</v>
+      </c>
+      <c r="BB244">
+        <v>1</v>
+      </c>
+      <c r="BC244">
+        <v>14</v>
+      </c>
+      <c r="BD244">
+        <v>1.58</v>
+      </c>
+      <c r="BE244">
+        <v>8.6</v>
+      </c>
+      <c r="BF244">
+        <v>2.91</v>
+      </c>
+      <c r="BG244">
+        <v>1.32</v>
+      </c>
+      <c r="BH244">
+        <v>2.88</v>
+      </c>
+      <c r="BI244">
+        <v>1.5</v>
+      </c>
+      <c r="BJ244">
+        <v>2.46</v>
+      </c>
+      <c r="BK244">
+        <v>1.87</v>
+      </c>
+      <c r="BL244">
+        <v>1.92</v>
+      </c>
+      <c r="BM244">
+        <v>2.33</v>
+      </c>
+      <c r="BN244">
+        <v>1.56</v>
+      </c>
+      <c r="BO244">
+        <v>3.75</v>
+      </c>
+      <c r="BP244">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7781319</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>97</v>
+      </c>
+      <c r="H245" t="s">
+        <v>89</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245" t="s">
+        <v>109</v>
+      </c>
+      <c r="P245" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q245">
+        <v>3.25</v>
+      </c>
+      <c r="R245">
+        <v>2.3</v>
+      </c>
+      <c r="S245">
+        <v>2.88</v>
+      </c>
+      <c r="T245">
+        <v>1.33</v>
+      </c>
+      <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>2.5</v>
+      </c>
+      <c r="W245">
+        <v>1.5</v>
+      </c>
+      <c r="X245">
+        <v>6</v>
+      </c>
+      <c r="Y245">
+        <v>1.13</v>
+      </c>
+      <c r="Z245">
+        <v>2.72</v>
+      </c>
+      <c r="AA245">
+        <v>3.63</v>
+      </c>
+      <c r="AB245">
+        <v>2.1</v>
+      </c>
+      <c r="AC245">
+        <v>1.04</v>
+      </c>
+      <c r="AD245">
+        <v>10</v>
+      </c>
+      <c r="AE245">
+        <v>1.22</v>
+      </c>
+      <c r="AF245">
+        <v>4.2</v>
+      </c>
+      <c r="AG245">
+        <v>1.67</v>
+      </c>
+      <c r="AH245">
+        <v>2.05</v>
+      </c>
+      <c r="AI245">
+        <v>1.62</v>
+      </c>
+      <c r="AJ245">
+        <v>2.2</v>
+      </c>
+      <c r="AK245">
+        <v>1.63</v>
+      </c>
+      <c r="AL245">
+        <v>1.25</v>
+      </c>
+      <c r="AM245">
+        <v>1.4</v>
+      </c>
+      <c r="AN245">
+        <v>0.67</v>
+      </c>
+      <c r="AO245">
+        <v>2.14</v>
+      </c>
+      <c r="AP245">
+        <v>0.71</v>
+      </c>
+      <c r="AQ245">
+        <v>2</v>
+      </c>
+      <c r="AR245">
+        <v>1.17</v>
+      </c>
+      <c r="AS245">
+        <v>1.75</v>
+      </c>
+      <c r="AT245">
+        <v>2.92</v>
+      </c>
+      <c r="AU245">
+        <v>3</v>
+      </c>
+      <c r="AV245">
+        <v>2</v>
+      </c>
+      <c r="AW245">
+        <v>4</v>
+      </c>
+      <c r="AX245">
+        <v>18</v>
+      </c>
+      <c r="AY245">
+        <v>7</v>
+      </c>
+      <c r="AZ245">
+        <v>20</v>
+      </c>
+      <c r="BA245">
+        <v>2</v>
+      </c>
+      <c r="BB245">
+        <v>11</v>
+      </c>
+      <c r="BC245">
+        <v>13</v>
+      </c>
+      <c r="BD245">
+        <v>2.42</v>
+      </c>
+      <c r="BE245">
+        <v>6.5</v>
+      </c>
+      <c r="BF245">
+        <v>1.9</v>
+      </c>
+      <c r="BG245">
+        <v>1.25</v>
+      </c>
+      <c r="BH245">
+        <v>3.28</v>
+      </c>
+      <c r="BI245">
+        <v>1.47</v>
+      </c>
+      <c r="BJ245">
+        <v>2.54</v>
+      </c>
+      <c r="BK245">
+        <v>1.81</v>
+      </c>
+      <c r="BL245">
+        <v>1.99</v>
+      </c>
+      <c r="BM245">
+        <v>2.23</v>
+      </c>
+      <c r="BN245">
+        <v>1.6</v>
+      </c>
+      <c r="BO245">
+        <v>3.2</v>
+      </c>
+      <c r="BP245">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7781320</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>78</v>
+      </c>
+      <c r="H246" t="s">
+        <v>91</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>3</v>
+      </c>
+      <c r="N246">
+        <v>4</v>
+      </c>
+      <c r="O246" t="s">
+        <v>156</v>
+      </c>
+      <c r="P246" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q246">
+        <v>2.5</v>
+      </c>
+      <c r="R246">
+        <v>2.25</v>
+      </c>
+      <c r="S246">
+        <v>4.33</v>
+      </c>
+      <c r="T246">
+        <v>1.36</v>
+      </c>
+      <c r="U246">
+        <v>3</v>
+      </c>
+      <c r="V246">
+        <v>2.63</v>
+      </c>
+      <c r="W246">
+        <v>1.44</v>
+      </c>
+      <c r="X246">
+        <v>7</v>
+      </c>
+      <c r="Y246">
+        <v>1.1</v>
+      </c>
+      <c r="Z246">
+        <v>1.83</v>
+      </c>
+      <c r="AA246">
+        <v>3.45</v>
+      </c>
+      <c r="AB246">
+        <v>3.53</v>
+      </c>
+      <c r="AC246">
+        <v>1.05</v>
+      </c>
+      <c r="AD246">
+        <v>9.5</v>
+      </c>
+      <c r="AE246">
+        <v>1.28</v>
+      </c>
+      <c r="AF246">
+        <v>3.65</v>
+      </c>
+      <c r="AG246">
+        <v>1.8</v>
+      </c>
+      <c r="AH246">
+        <v>1.9</v>
+      </c>
+      <c r="AI246">
+        <v>1.75</v>
+      </c>
+      <c r="AJ246">
+        <v>2</v>
+      </c>
+      <c r="AK246">
+        <v>1.26</v>
+      </c>
+      <c r="AL246">
+        <v>1.28</v>
+      </c>
+      <c r="AM246">
+        <v>1.83</v>
+      </c>
+      <c r="AN246">
+        <v>1.25</v>
+      </c>
+      <c r="AO246">
+        <v>0.63</v>
+      </c>
+      <c r="AP246">
+        <v>1.11</v>
+      </c>
+      <c r="AQ246">
+        <v>0.89</v>
+      </c>
+      <c r="AR246">
+        <v>1.72</v>
+      </c>
+      <c r="AS246">
+        <v>1.34</v>
+      </c>
+      <c r="AT246">
+        <v>3.06</v>
+      </c>
+      <c r="AU246">
+        <v>10</v>
+      </c>
+      <c r="AV246">
+        <v>5</v>
+      </c>
+      <c r="AW246">
+        <v>8</v>
+      </c>
+      <c r="AX246">
+        <v>5</v>
+      </c>
+      <c r="AY246">
+        <v>18</v>
+      </c>
+      <c r="AZ246">
+        <v>10</v>
+      </c>
+      <c r="BA246">
+        <v>6</v>
+      </c>
+      <c r="BB246">
+        <v>7</v>
+      </c>
+      <c r="BC246">
+        <v>13</v>
+      </c>
+      <c r="BD246">
+        <v>1.46</v>
+      </c>
+      <c r="BE246">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF246">
+        <v>3.34</v>
+      </c>
+      <c r="BG246">
+        <v>1.21</v>
+      </c>
+      <c r="BH246">
+        <v>3.58</v>
+      </c>
+      <c r="BI246">
+        <v>1.46</v>
+      </c>
+      <c r="BJ246">
+        <v>2.6</v>
+      </c>
+      <c r="BK246">
+        <v>1.79</v>
+      </c>
+      <c r="BL246">
+        <v>2.01</v>
+      </c>
+      <c r="BM246">
+        <v>2.24</v>
+      </c>
+      <c r="BN246">
+        <v>1.61</v>
+      </c>
+      <c r="BO246">
+        <v>2.92</v>
+      </c>
+      <c r="BP246">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7781322</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>84</v>
+      </c>
+      <c r="H247" t="s">
+        <v>86</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>262</v>
+      </c>
+      <c r="P247" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q247">
+        <v>2.88</v>
+      </c>
+      <c r="R247">
+        <v>2.3</v>
+      </c>
+      <c r="S247">
+        <v>3.4</v>
+      </c>
+      <c r="T247">
+        <v>1.3</v>
+      </c>
+      <c r="U247">
+        <v>3.4</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>6</v>
+      </c>
+      <c r="Y247">
+        <v>1.13</v>
+      </c>
+      <c r="Z247">
+        <v>2.35</v>
+      </c>
+      <c r="AA247">
+        <v>3.32</v>
+      </c>
+      <c r="AB247">
+        <v>2.54</v>
+      </c>
+      <c r="AC247">
+        <v>1.04</v>
+      </c>
+      <c r="AD247">
+        <v>10</v>
+      </c>
+      <c r="AE247">
+        <v>1.22</v>
+      </c>
+      <c r="AF247">
+        <v>4.2</v>
+      </c>
+      <c r="AG247">
+        <v>1.65</v>
+      </c>
+      <c r="AH247">
+        <v>2.1</v>
+      </c>
+      <c r="AI247">
+        <v>1.57</v>
+      </c>
+      <c r="AJ247">
+        <v>2.25</v>
+      </c>
+      <c r="AK247">
+        <v>1.46</v>
+      </c>
+      <c r="AL247">
+        <v>1.29</v>
+      </c>
+      <c r="AM247">
+        <v>1.51</v>
+      </c>
+      <c r="AN247">
+        <v>0.29</v>
+      </c>
+      <c r="AO247">
+        <v>0.89</v>
+      </c>
+      <c r="AP247">
+        <v>0.63</v>
+      </c>
+      <c r="AQ247">
+        <v>0.8</v>
+      </c>
+      <c r="AR247">
+        <v>1.45</v>
+      </c>
+      <c r="AS247">
+        <v>1.57</v>
+      </c>
+      <c r="AT247">
+        <v>3.02</v>
+      </c>
+      <c r="AU247">
+        <v>6</v>
+      </c>
+      <c r="AV247">
+        <v>5</v>
+      </c>
+      <c r="AW247">
+        <v>2</v>
+      </c>
+      <c r="AX247">
+        <v>7</v>
+      </c>
+      <c r="AY247">
+        <v>8</v>
+      </c>
+      <c r="AZ247">
+        <v>12</v>
+      </c>
+      <c r="BA247">
+        <v>6</v>
+      </c>
+      <c r="BB247">
+        <v>6</v>
+      </c>
+      <c r="BC247">
+        <v>12</v>
+      </c>
+      <c r="BD247">
+        <v>1.94</v>
+      </c>
+      <c r="BE247">
+        <v>6.5</v>
+      </c>
+      <c r="BF247">
+        <v>2.36</v>
+      </c>
+      <c r="BG247">
+        <v>1.22</v>
+      </c>
+      <c r="BH247">
+        <v>3.5</v>
+      </c>
+      <c r="BI247">
+        <v>1.46</v>
+      </c>
+      <c r="BJ247">
+        <v>2.56</v>
+      </c>
+      <c r="BK247">
+        <v>1.79</v>
+      </c>
+      <c r="BL247">
+        <v>2</v>
+      </c>
+      <c r="BM247">
+        <v>2.23</v>
+      </c>
+      <c r="BN247">
+        <v>1.6</v>
+      </c>
+      <c r="BO247">
+        <v>3.04</v>
+      </c>
+      <c r="BP247">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7781324</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>94</v>
+      </c>
+      <c r="H248" t="s">
+        <v>77</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>263</v>
+      </c>
+      <c r="P248" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>1.72</v>
+      </c>
+      <c r="AA248">
+        <v>3.4</v>
+      </c>
+      <c r="AB248">
+        <v>4.1</v>
+      </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+      <c r="AD248">
+        <v>0</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>1.76</v>
+      </c>
+      <c r="AH248">
+        <v>1.94</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AN248">
+        <v>2</v>
+      </c>
+      <c r="AO248">
+        <v>1</v>
+      </c>
+      <c r="AP248">
+        <v>2.1</v>
+      </c>
+      <c r="AQ248">
+        <v>1.11</v>
+      </c>
+      <c r="AR248">
+        <v>1.82</v>
+      </c>
+      <c r="AS248">
+        <v>1.17</v>
+      </c>
+      <c r="AT248">
+        <v>2.99</v>
+      </c>
+      <c r="AU248">
+        <v>5</v>
+      </c>
+      <c r="AV248">
+        <v>3</v>
+      </c>
+      <c r="AW248">
+        <v>6</v>
+      </c>
+      <c r="AX248">
+        <v>4</v>
+      </c>
+      <c r="AY248">
+        <v>11</v>
+      </c>
+      <c r="AZ248">
+        <v>7</v>
+      </c>
+      <c r="BA248">
+        <v>5</v>
+      </c>
+      <c r="BB248">
+        <v>3</v>
+      </c>
+      <c r="BC248">
+        <v>8</v>
+      </c>
+      <c r="BD248">
+        <v>0</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>0</v>
+      </c>
+      <c r="BG248">
+        <v>0</v>
+      </c>
+      <c r="BH248">
+        <v>0</v>
+      </c>
+      <c r="BI248">
+        <v>0</v>
+      </c>
+      <c r="BJ248">
+        <v>0</v>
+      </c>
+      <c r="BK248">
+        <v>0</v>
+      </c>
+      <c r="BL248">
+        <v>0</v>
+      </c>
+      <c r="BM248">
+        <v>0</v>
+      </c>
+      <c r="BN248">
+        <v>0</v>
+      </c>
+      <c r="BO248">
+        <v>0</v>
+      </c>
+      <c r="BP248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7781325</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>82</v>
+      </c>
+      <c r="H249" t="s">
+        <v>92</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>3</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249" t="s">
+        <v>176</v>
+      </c>
+      <c r="P249" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q249">
+        <v>2.5</v>
+      </c>
+      <c r="R249">
+        <v>2.3</v>
+      </c>
+      <c r="S249">
+        <v>4</v>
+      </c>
+      <c r="T249">
+        <v>1.33</v>
+      </c>
+      <c r="U249">
+        <v>3.25</v>
+      </c>
+      <c r="V249">
+        <v>2.63</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>6.5</v>
+      </c>
+      <c r="Y249">
+        <v>1.11</v>
+      </c>
+      <c r="Z249">
+        <v>1.87</v>
+      </c>
+      <c r="AA249">
+        <v>3.52</v>
+      </c>
+      <c r="AB249">
+        <v>3.32</v>
+      </c>
+      <c r="AC249">
+        <v>1.04</v>
+      </c>
+      <c r="AD249">
+        <v>10</v>
+      </c>
+      <c r="AE249">
+        <v>1.22</v>
+      </c>
+      <c r="AF249">
+        <v>4.2</v>
+      </c>
+      <c r="AG249">
+        <v>1.87</v>
+      </c>
+      <c r="AH249">
+        <v>1.83</v>
+      </c>
+      <c r="AI249">
+        <v>1.7</v>
+      </c>
+      <c r="AJ249">
+        <v>2.05</v>
+      </c>
+      <c r="AK249">
+        <v>1.36</v>
+      </c>
+      <c r="AL249">
+        <v>1.27</v>
+      </c>
+      <c r="AM249">
+        <v>1.66</v>
+      </c>
+      <c r="AN249">
+        <v>2.43</v>
+      </c>
+      <c r="AO249">
+        <v>1.5</v>
+      </c>
+      <c r="AP249">
+        <v>2.13</v>
+      </c>
+      <c r="AQ249">
+        <v>1.67</v>
+      </c>
+      <c r="AR249">
+        <v>1.98</v>
+      </c>
+      <c r="AS249">
+        <v>1.45</v>
+      </c>
+      <c r="AT249">
+        <v>3.43</v>
+      </c>
+      <c r="AU249">
+        <v>3</v>
+      </c>
+      <c r="AV249">
+        <v>7</v>
+      </c>
+      <c r="AW249">
+        <v>6</v>
+      </c>
+      <c r="AX249">
+        <v>5</v>
+      </c>
+      <c r="AY249">
+        <v>9</v>
+      </c>
+      <c r="AZ249">
+        <v>12</v>
+      </c>
+      <c r="BA249">
+        <v>9</v>
+      </c>
+      <c r="BB249">
+        <v>-1</v>
+      </c>
+      <c r="BC249">
+        <v>8</v>
+      </c>
+      <c r="BD249">
+        <v>1.44</v>
+      </c>
+      <c r="BE249">
+        <v>7</v>
+      </c>
+      <c r="BF249">
+        <v>3.15</v>
+      </c>
+      <c r="BG249">
+        <v>1.21</v>
+      </c>
+      <c r="BH249">
+        <v>3.8</v>
+      </c>
+      <c r="BI249">
+        <v>1.38</v>
+      </c>
+      <c r="BJ249">
+        <v>2.75</v>
+      </c>
+      <c r="BK249">
+        <v>1.63</v>
+      </c>
+      <c r="BL249">
+        <v>2.12</v>
+      </c>
+      <c r="BM249">
+        <v>1.98</v>
+      </c>
+      <c r="BN249">
+        <v>1.72</v>
+      </c>
+      <c r="BO249">
+        <v>2.48</v>
+      </c>
+      <c r="BP249">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7781326</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45815.85416666666</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>75</v>
+      </c>
+      <c r="H250" t="s">
+        <v>90</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>4</v>
+      </c>
+      <c r="K250">
+        <v>4</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>7</v>
+      </c>
+      <c r="N250">
+        <v>8</v>
+      </c>
+      <c r="O250" t="s">
+        <v>264</v>
+      </c>
+      <c r="P250" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q250">
+        <v>3.2</v>
+      </c>
+      <c r="R250">
+        <v>2.3</v>
+      </c>
+      <c r="S250">
+        <v>3.1</v>
+      </c>
+      <c r="T250">
+        <v>1.33</v>
+      </c>
+      <c r="U250">
+        <v>3.25</v>
+      </c>
+      <c r="V250">
+        <v>2.5</v>
+      </c>
+      <c r="W250">
+        <v>1.5</v>
+      </c>
+      <c r="X250">
+        <v>6.5</v>
+      </c>
+      <c r="Y250">
+        <v>1.11</v>
+      </c>
+      <c r="Z250">
+        <v>2.43</v>
+      </c>
+      <c r="AA250">
+        <v>3.35</v>
+      </c>
+      <c r="AB250">
+        <v>2.44</v>
+      </c>
+      <c r="AC250">
+        <v>1.05</v>
+      </c>
+      <c r="AD250">
+        <v>9.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.25</v>
+      </c>
+      <c r="AF250">
+        <v>3.9</v>
+      </c>
+      <c r="AG250">
+        <v>1.64</v>
+      </c>
+      <c r="AH250">
+        <v>2.12</v>
+      </c>
+      <c r="AI250">
+        <v>1.62</v>
+      </c>
+      <c r="AJ250">
+        <v>2.2</v>
+      </c>
+      <c r="AK250">
+        <v>1.49</v>
+      </c>
+      <c r="AL250">
+        <v>1.29</v>
+      </c>
+      <c r="AM250">
+        <v>1.47</v>
+      </c>
+      <c r="AN250">
+        <v>1.11</v>
+      </c>
+      <c r="AO250">
+        <v>1.67</v>
+      </c>
+      <c r="AP250">
+        <v>1</v>
+      </c>
+      <c r="AQ250">
+        <v>1.8</v>
+      </c>
+      <c r="AR250">
+        <v>1.23</v>
+      </c>
+      <c r="AS250">
+        <v>1.59</v>
+      </c>
+      <c r="AT250">
+        <v>2.82</v>
+      </c>
+      <c r="AU250">
+        <v>4</v>
+      </c>
+      <c r="AV250">
+        <v>12</v>
+      </c>
+      <c r="AW250">
+        <v>9</v>
+      </c>
+      <c r="AX250">
+        <v>3</v>
+      </c>
+      <c r="AY250">
+        <v>13</v>
+      </c>
+      <c r="AZ250">
+        <v>15</v>
+      </c>
+      <c r="BA250">
+        <v>9</v>
+      </c>
+      <c r="BB250">
+        <v>7</v>
+      </c>
+      <c r="BC250">
+        <v>16</v>
+      </c>
+      <c r="BD250">
+        <v>1.74</v>
+      </c>
+      <c r="BE250">
+        <v>6.4</v>
+      </c>
+      <c r="BF250">
+        <v>2.33</v>
+      </c>
+      <c r="BG250">
+        <v>1.37</v>
+      </c>
+      <c r="BH250">
+        <v>2.8</v>
+      </c>
+      <c r="BI250">
+        <v>1.64</v>
+      </c>
+      <c r="BJ250">
+        <v>2.1</v>
+      </c>
+      <c r="BK250">
+        <v>2.02</v>
+      </c>
+      <c r="BL250">
+        <v>1.68</v>
+      </c>
+      <c r="BM250">
+        <v>2.55</v>
+      </c>
+      <c r="BN250">
+        <v>1.44</v>
+      </c>
+      <c r="BO250">
+        <v>3.4</v>
+      </c>
+      <c r="BP250">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7781327</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45815.9375</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>93</v>
+      </c>
+      <c r="H251" t="s">
+        <v>77</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
+        <v>109</v>
+      </c>
+      <c r="P251" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q251">
+        <v>2.75</v>
+      </c>
+      <c r="R251">
+        <v>2.2</v>
+      </c>
+      <c r="S251">
+        <v>4</v>
+      </c>
+      <c r="T251">
+        <v>1.36</v>
+      </c>
+      <c r="U251">
+        <v>3</v>
+      </c>
+      <c r="V251">
+        <v>2.75</v>
+      </c>
+      <c r="W251">
+        <v>1.4</v>
+      </c>
+      <c r="X251">
+        <v>7</v>
+      </c>
+      <c r="Y251">
+        <v>1.1</v>
+      </c>
+      <c r="Z251">
+        <v>2.02</v>
+      </c>
+      <c r="AA251">
+        <v>3.33</v>
+      </c>
+      <c r="AB251">
+        <v>3.08</v>
+      </c>
+      <c r="AC251">
+        <v>1.05</v>
+      </c>
+      <c r="AD251">
+        <v>9.25</v>
+      </c>
+      <c r="AE251">
+        <v>1.28</v>
+      </c>
+      <c r="AF251">
+        <v>3.67</v>
+      </c>
+      <c r="AG251">
+        <v>1.81</v>
+      </c>
+      <c r="AH251">
+        <v>1.89</v>
+      </c>
+      <c r="AI251">
+        <v>1.75</v>
+      </c>
+      <c r="AJ251">
+        <v>2</v>
+      </c>
+      <c r="AK251">
+        <v>1.33</v>
+      </c>
+      <c r="AL251">
+        <v>1.3</v>
+      </c>
+      <c r="AM251">
+        <v>1.66</v>
+      </c>
+      <c r="AN251">
+        <v>1.75</v>
+      </c>
+      <c r="AO251">
+        <v>0.88</v>
+      </c>
+      <c r="AP251">
+        <v>1.56</v>
+      </c>
+      <c r="AQ251">
+        <v>1.11</v>
+      </c>
+      <c r="AR251">
+        <v>1.67</v>
+      </c>
+      <c r="AS251">
+        <v>1.17</v>
+      </c>
+      <c r="AT251">
+        <v>2.84</v>
+      </c>
+      <c r="AU251">
+        <v>6</v>
+      </c>
+      <c r="AV251">
+        <v>7</v>
+      </c>
+      <c r="AW251">
+        <v>6</v>
+      </c>
+      <c r="AX251">
+        <v>2</v>
+      </c>
+      <c r="AY251">
+        <v>12</v>
+      </c>
+      <c r="AZ251">
+        <v>9</v>
+      </c>
+      <c r="BA251">
+        <v>11</v>
+      </c>
+      <c r="BB251">
+        <v>3</v>
+      </c>
+      <c r="BC251">
+        <v>14</v>
+      </c>
+      <c r="BD251">
+        <v>1.66</v>
+      </c>
+      <c r="BE251">
+        <v>6.75</v>
+      </c>
+      <c r="BF251">
+        <v>2.45</v>
+      </c>
+      <c r="BG251">
+        <v>1.29</v>
+      </c>
+      <c r="BH251">
+        <v>3.2</v>
+      </c>
+      <c r="BI251">
+        <v>1.5</v>
+      </c>
+      <c r="BJ251">
+        <v>2.38</v>
+      </c>
+      <c r="BK251">
+        <v>1.83</v>
+      </c>
+      <c r="BL251">
+        <v>1.85</v>
+      </c>
+      <c r="BM251">
+        <v>2.3</v>
+      </c>
+      <c r="BN251">
+        <v>1.54</v>
+      </c>
+      <c r="BO251">
+        <v>2.9</v>
+      </c>
+      <c r="BP251">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
